--- a/Comparaçoes/Heurísticas.xlsx
+++ b/Comparaçoes/Heurísticas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="K = n|4" sheetId="1" r:id="rId1"/>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,7 +987,9 @@
       <c r="D3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>746.64</v>
+      </c>
       <c r="F3" s="14">
         <f xml:space="preserve"> AVERAGE(1505.1,1632.26,1696.96)</f>
         <v>1611.4399999999998</v>
@@ -1011,7 +1013,9 @@
       <c r="M3" s="1">
         <v>668</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1">
+        <v>558</v>
+      </c>
       <c r="O3" s="1">
         <f>AVERAGE(883,650,909)</f>
         <v>814</v>
@@ -1035,7 +1039,9 @@
       <c r="V3" s="1">
         <v>25126.84</v>
       </c>
-      <c r="W3" s="1"/>
+      <c r="W3" s="1">
+        <v>25126.84</v>
+      </c>
       <c r="X3" s="1">
         <f>AVERAGE(34231.94,35331.27,35580.93)</f>
         <v>35048.046666666662</v>
@@ -1082,7 +1088,9 @@
       <c r="M4" s="1">
         <v>11086.43</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1">
+        <v>9934.0499999999993</v>
+      </c>
       <c r="O4" s="14">
         <f>AVERAGE(20093,23146.55,19097.46)</f>
         <v>20779.003333333334</v>
@@ -1106,7 +1114,9 @@
       <c r="V4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="1"/>
+      <c r="W4" s="1">
+        <v>7486.75</v>
+      </c>
       <c r="X4" s="14">
         <f>AVERAGE(11787.58,13221.13,11889.39)</f>
         <v>12299.366666666667</v>
@@ -1131,7 +1141,9 @@
       <c r="D5" s="3">
         <v>1409</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>1409</v>
+      </c>
       <c r="F5" s="3">
         <f xml:space="preserve"> AVERAGE(1564,1845,2288)</f>
         <v>1899</v>
@@ -1157,7 +1169,9 @@
       <c r="M5" s="1">
         <v>1411</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1">
+        <v>1422</v>
+      </c>
       <c r="O5" s="14">
         <f>AVERAGE(2200,2636,2649)</f>
         <v>2495</v>
@@ -1181,7 +1195,9 @@
       <c r="V5" s="1">
         <v>10765.78</v>
       </c>
-      <c r="W5" s="1"/>
+      <c r="W5" s="1">
+        <v>14065.44</v>
+      </c>
       <c r="X5" s="14">
         <f>AVERAGE(28708.52,23641.97,28071.05)</f>
         <v>26807.180000000004</v>
@@ -1206,7 +1222,9 @@
       <c r="D6" s="1">
         <v>5712</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>4475</v>
+      </c>
       <c r="F6" s="14">
         <f xml:space="preserve"> AVERAGE(14321,17859,14830)</f>
         <v>15670</v>
@@ -1252,7 +1270,9 @@
       <c r="V6" s="1">
         <v>22828.74</v>
       </c>
-      <c r="W6" s="1"/>
+      <c r="W6" s="1">
+        <v>23907.89</v>
+      </c>
       <c r="X6" s="14">
         <f>AVERAGE(37011.37,39208.49,33323.61)</f>
         <v>36514.49</v>
@@ -1277,7 +1297,9 @@
       <c r="D7" s="3">
         <v>292</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>292</v>
+      </c>
       <c r="F7" s="15">
         <v>292</v>
       </c>
@@ -1324,7 +1346,9 @@
       <c r="V7" s="1">
         <v>10893.75</v>
       </c>
-      <c r="W7" s="1"/>
+      <c r="W7" s="1">
+        <v>12001.03</v>
+      </c>
       <c r="X7" s="14">
         <f>AVERAGE(34465.92,32737.24,31541.07)</f>
         <v>32914.743333333339</v>
@@ -1349,7 +1373,9 @@
       <c r="D8" s="3">
         <v>352</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>352</v>
+      </c>
       <c r="F8" s="15">
         <v>352</v>
       </c>
@@ -1396,7 +1422,9 @@
       <c r="V8" s="1">
         <v>17072</v>
       </c>
-      <c r="W8" s="1"/>
+      <c r="W8" s="1">
+        <v>17072</v>
+      </c>
       <c r="X8" s="14">
         <f>AVERAGE(37722.49,35121.04,52458.35)</f>
         <v>41767.293333333335</v>
@@ -1421,7 +1449,9 @@
       <c r="D9" s="3">
         <v>604.66</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>604.66</v>
+      </c>
       <c r="F9" s="3">
         <f xml:space="preserve"> AVERAGE(715.59,640.05,1766.47)</f>
         <v>1040.7033333333331</v>
@@ -1469,7 +1499,9 @@
       <c r="V9" s="1">
         <v>22868.63</v>
       </c>
-      <c r="W9" s="1"/>
+      <c r="W9" s="1">
+        <v>23494.84</v>
+      </c>
       <c r="X9" s="14">
         <f>AVERAGE(53850.22,59959.36,63479.72)</f>
         <v>59096.433333333327</v>
@@ -1494,7 +1526,9 @@
       <c r="D10" s="1">
         <v>14342.78</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>11706.58</v>
+      </c>
       <c r="F10" s="14">
         <f xml:space="preserve"> AVERAGE(22801.5,24988.75,19031.39)</f>
         <v>22273.88</v>
@@ -1540,7 +1574,9 @@
       <c r="V10" s="1">
         <v>8100</v>
       </c>
-      <c r="W10" s="1"/>
+      <c r="W10" s="1">
+        <v>8100</v>
+      </c>
       <c r="X10" s="14">
         <f>AVERAGE(21851.94,25401.1,21951.12)</f>
         <v>23068.05333333333</v>
@@ -1565,7 +1601,9 @@
       <c r="D11" s="1">
         <v>6116</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>4607</v>
+      </c>
       <c r="F11" s="14">
         <f xml:space="preserve"> AVERAGE(4339,4610,6809)</f>
         <v>5252.666666666667</v>
@@ -1589,7 +1627,9 @@
       <c r="M11" s="1">
         <v>3454</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <v>3155</v>
+      </c>
       <c r="O11" s="14">
         <f>AVERAGE(2188,2341,3487)</f>
         <v>2672</v>
@@ -1613,7 +1653,9 @@
       <c r="V11" s="6">
         <v>12369.29</v>
       </c>
-      <c r="W11" s="1"/>
+      <c r="W11" s="1">
+        <v>12312.57</v>
+      </c>
       <c r="X11" s="14">
         <f>AVERAGE(33103.09,29152.95,27824.8)</f>
         <v>30026.946666666667</v>
@@ -1638,7 +1680,9 @@
       <c r="D12" s="13">
         <v>21120</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="13">
+        <v>480</v>
+      </c>
       <c r="F12" s="14">
         <f xml:space="preserve"> AVERAGE(82770,71970,84330)</f>
         <v>79690</v>
@@ -1662,7 +1706,9 @@
       <c r="M12" s="1">
         <v>5157.68</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>4872.0200000000004</v>
+      </c>
       <c r="O12" s="14">
         <f>AVERAGE(7584.43,8374.97,8015.42)</f>
         <v>7991.6066666666666</v>
@@ -1686,7 +1732,9 @@
       <c r="V12" s="1">
         <v>22600.959999999999</v>
       </c>
-      <c r="W12" s="1"/>
+      <c r="W12" s="1">
+        <v>23714.23</v>
+      </c>
       <c r="X12" s="14">
         <f>AVERAGE(58160.33,51748.26,59422.06)</f>
         <v>56443.549999999996</v>
@@ -1711,7 +1759,9 @@
       <c r="D13" s="3">
         <v>249.88</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>249.88</v>
+      </c>
       <c r="F13" s="15">
         <v>249.88</v>
       </c>
@@ -1735,7 +1785,9 @@
       <c r="M13" s="1">
         <v>6644.96</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>7646.9</v>
+      </c>
       <c r="O13" s="14">
         <f>AVERAGE(14537.19,11181.93,12864.92)</f>
         <v>12861.346666666666</v>
@@ -1759,7 +1811,9 @@
       <c r="V13" s="1">
         <v>68337.149999999994</v>
       </c>
-      <c r="W13" s="1"/>
+      <c r="W13" s="1">
+        <v>66904.56</v>
+      </c>
       <c r="X13" s="14">
         <f>AVERAGE(274864.87,269718.4,278424.19)</f>
         <v>274335.82</v>
@@ -1784,7 +1838,9 @@
       <c r="D14" s="1">
         <v>1211.5899999999999</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>1230.99</v>
+      </c>
       <c r="F14" s="14">
         <f xml:space="preserve"> AVERAGE(2543.27,2264.22,2236.15)</f>
         <v>2347.8799999999997</v>
@@ -1808,7 +1864,9 @@
       <c r="M14" s="1">
         <v>6870.92</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>6899.46</v>
+      </c>
       <c r="O14" s="14">
         <f>AVERAGE(16197.94,15917.45,15432.47)</f>
         <v>15849.286666666667</v>
@@ -1832,7 +1890,9 @@
       <c r="V14" s="1">
         <v>277.23</v>
       </c>
-      <c r="W14" s="1"/>
+      <c r="W14" s="1">
+        <v>359.69</v>
+      </c>
       <c r="X14" s="14">
         <f>AVERAGE(434.6,422.28,429.06)</f>
         <v>428.6466666666667</v>
@@ -1857,7 +1917,9 @@
       <c r="D15" s="1">
         <v>1304.57</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>1400.68</v>
+      </c>
       <c r="F15" s="14">
         <f xml:space="preserve"> AVERAGE(2748.74,2857.69,2722.18)</f>
         <v>2776.2033333333334</v>
@@ -1881,7 +1943,9 @@
       <c r="M15" s="1">
         <v>5552.01</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <v>4469.8100000000004</v>
+      </c>
       <c r="O15" s="14">
         <f>AVERAGE(8243.9,7828.62,9343.42)</f>
         <v>8471.9800000000014</v>
@@ -1905,7 +1969,9 @@
       <c r="V15" s="1">
         <v>560.07000000000005</v>
       </c>
-      <c r="W15" s="1"/>
+      <c r="W15" s="1">
+        <v>606.24</v>
+      </c>
       <c r="X15" s="14">
         <f>AVERAGE(1004.91,1040.98,1126.33)</f>
         <v>1057.4066666666665</v>
@@ -1930,7 +1996,9 @@
       <c r="D16" s="3">
         <v>103</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>103</v>
+      </c>
       <c r="F16" s="3">
         <f xml:space="preserve"> AVERAGE(120,128,115)</f>
         <v>121</v>
@@ -1956,7 +2024,9 @@
       <c r="M16" s="1">
         <v>5199.62</v>
       </c>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1">
+        <v>5533.11</v>
+      </c>
       <c r="O16" s="14">
         <f>AVERAGE(12214.44,11244.59,12231.11)</f>
         <v>11896.713333333333</v>
@@ -1980,7 +2050,9 @@
       <c r="V16" s="1">
         <v>1745</v>
       </c>
-      <c r="W16" s="1"/>
+      <c r="W16" s="1">
+        <v>1764.02</v>
+      </c>
       <c r="X16" s="17">
         <f>AVERAGE(4825.39,4941.65,5123.81)</f>
         <v>4963.6166666666677</v>
@@ -2005,7 +2077,9 @@
       <c r="D17" s="3">
         <v>77.040000000000006</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>77.040000000000006</v>
+      </c>
       <c r="F17" s="3">
         <f xml:space="preserve"> AVERAGE(97.58,112.27,95.39)</f>
         <v>101.74666666666667</v>
@@ -2031,7 +2105,9 @@
       <c r="M17" s="1">
         <v>6907.12</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>8397.4500000000007</v>
+      </c>
       <c r="O17" s="14">
         <f>AVERAGE(15900.56,15542.01,15610.06)</f>
         <v>15684.21</v>
@@ -2055,7 +2131,9 @@
       <c r="V17" s="1">
         <v>2382.5</v>
       </c>
-      <c r="W17" s="1"/>
+      <c r="W17" s="1">
+        <v>2466.0500000000002</v>
+      </c>
       <c r="X17" s="14">
         <f>AVERAGE(7666.21,7493.21,8008.9)</f>
         <v>7722.7733333333335</v>
@@ -2080,7 +2158,9 @@
       <c r="D18" s="1">
         <v>97.38</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>99.45</v>
+      </c>
       <c r="F18" s="14">
         <f xml:space="preserve"> AVERAGE(154.43,150.12,136.69)</f>
         <v>147.08000000000001</v>
@@ -2104,7 +2184,9 @@
       <c r="M18" s="1">
         <v>4346.5200000000004</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>6123.26</v>
+      </c>
       <c r="O18" s="14">
         <f>AVERAGE(7644.11,8352.1,7110.64)</f>
         <v>7702.2833333333328</v>
@@ -2128,7 +2210,9 @@
       <c r="V18" s="1">
         <v>5028</v>
       </c>
-      <c r="W18" s="1"/>
+      <c r="W18" s="1">
+        <v>5478</v>
+      </c>
       <c r="X18" s="14">
         <f>AVERAGE(5942,6221,6355)</f>
         <v>6172.666666666667</v>
@@ -2153,7 +2237,9 @@
       <c r="D19" s="1">
         <v>150.96</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>132.75</v>
+      </c>
       <c r="F19" s="14">
         <f xml:space="preserve"> AVERAGE(151.73,211.47,242.02)</f>
         <v>201.74</v>
@@ -2177,7 +2263,9 @@
       <c r="M19" s="1">
         <v>5246.28</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1">
+        <v>5246.28</v>
+      </c>
       <c r="O19" s="14">
         <f>AVERAGE(7915.81,9560.27,9212.85)</f>
         <v>8896.31</v>
@@ -2201,7 +2289,9 @@
       <c r="V19" s="1">
         <v>12360</v>
       </c>
-      <c r="W19" s="1"/>
+      <c r="W19" s="1">
+        <v>12196</v>
+      </c>
       <c r="X19" s="14">
         <f>AVERAGE(16179,15753,15546)</f>
         <v>15826</v>
@@ -2226,7 +2316,9 @@
       <c r="D20" s="3">
         <v>147</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>147</v>
+      </c>
       <c r="F20" s="15">
         <v>147</v>
       </c>
@@ -2251,7 +2343,9 @@
       <c r="M20" s="1">
         <v>4123.3500000000004</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <v>3842.76</v>
+      </c>
       <c r="O20" s="14">
         <f>AVERAGE(8471.76,7370.09,6547.6)</f>
         <v>7463.1500000000005</v>
@@ -2275,7 +2369,9 @@
       <c r="V20" s="1">
         <v>22289</v>
       </c>
-      <c r="W20" s="1"/>
+      <c r="W20" s="1">
+        <v>22414</v>
+      </c>
       <c r="X20" s="14">
         <f>AVERAGE(37635,36780,38408)</f>
         <v>37607.666666666664</v>
@@ -2300,7 +2396,9 @@
       <c r="D21" s="1">
         <v>562.04</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>666.2</v>
+      </c>
       <c r="F21" s="14">
         <f xml:space="preserve"> AVERAGE(1394.04,1547.92,1338.26)</f>
         <v>1426.74</v>
@@ -2324,7 +2422,9 @@
       <c r="M21" s="1">
         <v>2149.8200000000002</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1">
+        <v>2067.87</v>
+      </c>
       <c r="O21" s="14">
         <f>AVERAGE(3890.65,4784.86,4636.22)</f>
         <v>4437.2433333333329</v>
@@ -2348,7 +2448,9 @@
       <c r="V21" s="13">
         <v>130.04</v>
       </c>
-      <c r="W21" s="13"/>
+      <c r="W21" s="13">
+        <v>128.07</v>
+      </c>
       <c r="X21" s="14">
         <f>AVERAGE(182.12,212.39,172.41)</f>
         <v>188.97333333333333</v>
@@ -2373,7 +2475,9 @@
       <c r="D22" s="3">
         <v>174</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>154</v>
+      </c>
       <c r="F22" s="15">
         <v>174</v>
       </c>
@@ -2398,7 +2502,9 @@
       <c r="M22" s="1">
         <v>9156.66</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1">
+        <v>9230.75</v>
+      </c>
       <c r="O22" s="14">
         <f>AVERAGE(25401.97,25448.92,26352.32)</f>
         <v>25734.403333333332</v>
@@ -2422,7 +2528,9 @@
       <c r="V22" s="1">
         <v>146</v>
       </c>
-      <c r="W22" s="1"/>
+      <c r="W22" s="1">
+        <v>146</v>
+      </c>
       <c r="X22" s="14">
         <f>AVERAGE(185,182,195)</f>
         <v>187.33333333333334</v>
@@ -2447,7 +2555,9 @@
       <c r="D23" s="3">
         <v>258</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>248</v>
+      </c>
       <c r="F23" s="15">
         <v>258</v>
       </c>
@@ -2472,7 +2582,9 @@
       <c r="M23" s="1">
         <v>13388.78</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>13074.68</v>
+      </c>
       <c r="O23" s="14">
         <f>AVERAGE(59275.29,58450.29,59315.09)</f>
         <v>59013.556666666664</v>
@@ -2496,7 +2608,9 @@
       <c r="V23" s="1">
         <v>27500</v>
       </c>
-      <c r="W23" s="1"/>
+      <c r="W23" s="1">
+        <v>27500</v>
+      </c>
       <c r="X23" s="14">
         <f>AVERAGE(85382.67,73888.73,78761.91)</f>
         <v>79344.436666666661</v>
@@ -2521,7 +2635,9 @@
       <c r="D24" s="3">
         <v>162</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>162</v>
+      </c>
       <c r="F24" s="15">
         <v>162</v>
       </c>
@@ -2546,7 +2662,9 @@
       <c r="M24" s="7">
         <v>728</v>
       </c>
-      <c r="N24" s="7"/>
+      <c r="N24" s="7">
+        <v>566</v>
+      </c>
       <c r="O24" s="14">
         <f>AVERAGE(1781,1645,2083)</f>
         <v>1836.3333333333333</v>
@@ -2570,7 +2688,9 @@
       <c r="V24" s="1">
         <v>1036.02</v>
       </c>
-      <c r="W24" s="1"/>
+      <c r="W24" s="1">
+        <v>1056.72</v>
+      </c>
       <c r="X24" s="14">
         <f>AVERAGE(1900.37,1955.94,1523.17)</f>
         <v>1793.1599999999999</v>
@@ -2605,7 +2725,9 @@
       <c r="V25" s="3">
         <v>826.08</v>
       </c>
-      <c r="W25" s="3"/>
+      <c r="W25" s="3">
+        <v>751.06</v>
+      </c>
       <c r="X25" s="15">
         <v>826.08</v>
       </c>
@@ -2647,7 +2769,9 @@
       <c r="V26" s="10">
         <v>456.58</v>
       </c>
-      <c r="W26" s="10"/>
+      <c r="W26" s="10">
+        <v>456.58</v>
+      </c>
       <c r="X26" s="15">
         <v>456.58</v>
       </c>
@@ -2792,8 +2916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2940,7 +3064,9 @@
       <c r="D3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>1551.66</v>
+      </c>
       <c r="F3" s="1">
         <f>AVERAGE(3647.07,3269.08,3255.4)</f>
         <v>3390.5166666666664</v>
@@ -2964,7 +3090,9 @@
       <c r="M3" s="1">
         <v>2139</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1">
+        <v>1691</v>
+      </c>
       <c r="O3" s="1">
         <f>AVERAGE(2847,2862,2525)</f>
         <v>2744.6666666666665</v>
@@ -2988,7 +3116,9 @@
       <c r="V3" s="1">
         <v>42676.77</v>
       </c>
-      <c r="W3" s="1"/>
+      <c r="W3" s="1">
+        <v>44191.56</v>
+      </c>
       <c r="X3" s="1">
         <f>AVERAGE(67671.02,71552.62,67721.63)</f>
         <v>68981.756666666668</v>
@@ -3035,7 +3165,9 @@
       <c r="M4" s="1">
         <v>22073.5</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1">
+        <v>23897.19</v>
+      </c>
       <c r="O4" s="14">
         <f>AVERAGE(43002.43,42126.39,45047.13)</f>
         <v>43391.983333333337</v>
@@ -3059,7 +3191,9 @@
       <c r="V4" s="1">
         <v>17103.07</v>
       </c>
-      <c r="W4" s="1"/>
+      <c r="W4" s="1">
+        <v>15595.35</v>
+      </c>
       <c r="X4" s="14">
         <f>AVERAGE(43965.63,41638.47,55019.8)</f>
         <v>46874.633333333339</v>
@@ -3084,7 +3218,9 @@
       <c r="D5" s="3">
         <v>3574</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>3710</v>
+      </c>
       <c r="F5" s="3">
         <f>AVERAGE(6095,4382,4205)</f>
         <v>4894</v>
@@ -3110,7 +3246,9 @@
       <c r="M5" s="1">
         <v>3174</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1">
+        <v>3062</v>
+      </c>
       <c r="O5" s="14">
         <f>AVERAGE(5034,5155,5513)</f>
         <v>5234</v>
@@ -3134,7 +3272,9 @@
       <c r="V5" s="1">
         <v>26214.19</v>
       </c>
-      <c r="W5" s="1"/>
+      <c r="W5" s="1">
+        <v>22543.29</v>
+      </c>
       <c r="X5" s="14">
         <f>AVERAGE(57354.29,64630.46,70897.19)</f>
         <v>64293.98</v>
@@ -3159,7 +3299,9 @@
       <c r="D6" s="1">
         <v>14421</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>10405</v>
+      </c>
       <c r="F6" s="14">
         <f>AVERAGE(36633,36410,36332)</f>
         <v>36458.333333333336</v>
@@ -3205,7 +3347,9 @@
       <c r="V6" s="1">
         <v>53346.76</v>
       </c>
-      <c r="W6" s="1"/>
+      <c r="W6" s="1">
+        <v>51047.96</v>
+      </c>
       <c r="X6" s="14">
         <f>AVERAGE(94718.25,98201.9,84465.24)</f>
         <v>92461.796666666676</v>
@@ -3230,7 +3374,9 @@
       <c r="D7" s="3">
         <v>581</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>581</v>
+      </c>
       <c r="F7" s="15">
         <v>581</v>
       </c>
@@ -3277,7 +3423,9 @@
       <c r="V7" s="1">
         <v>26457.22</v>
       </c>
-      <c r="W7" s="1"/>
+      <c r="W7" s="1">
+        <v>28471</v>
+      </c>
       <c r="X7" s="14">
         <f>AVERAGE(62535.57,67602.32,64349.75)</f>
         <v>64829.21333333334</v>
@@ -3302,7 +3450,9 @@
       <c r="D8" s="3">
         <v>816</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>818</v>
+      </c>
       <c r="F8" s="15">
         <v>816</v>
       </c>
@@ -3349,7 +3499,9 @@
       <c r="V8" s="1">
         <v>35032.6</v>
       </c>
-      <c r="W8" s="1"/>
+      <c r="W8" s="1">
+        <v>35705.47</v>
+      </c>
       <c r="X8" s="14">
         <f>AVERAGE(92260.55,75101.11,80997.32)</f>
         <v>82786.326666666675</v>
@@ -3374,7 +3526,9 @@
       <c r="D9" s="3">
         <v>1809.58</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>1857.02</v>
+      </c>
       <c r="F9" s="3">
         <f>AVERAGE(2651.31,3294.21,2833.02)</f>
         <v>2926.1800000000003</v>
@@ -3422,7 +3576,9 @@
       <c r="V9" s="1">
         <v>51597.94</v>
       </c>
-      <c r="W9" s="1"/>
+      <c r="W9" s="1">
+        <v>53661.61</v>
+      </c>
       <c r="X9" s="14">
         <f>AVERAGE(125277.77,124544.19,117939.53)</f>
         <v>122587.16333333333</v>
@@ -3447,7 +3603,9 @@
       <c r="D10" s="1">
         <v>29446.799999999999</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>30074.639999999999</v>
+      </c>
       <c r="F10" s="14">
         <f>AVERAGE(56780.47,53043,50702.91)</f>
         <v>53508.793333333335</v>
@@ -3493,7 +3651,9 @@
       <c r="V10" s="1">
         <v>23011.19</v>
       </c>
-      <c r="W10" s="1"/>
+      <c r="W10" s="1">
+        <v>21708.66</v>
+      </c>
       <c r="X10" s="14">
         <f>AVERAGE(97573.93,76410.8,87873.39)</f>
         <v>87286.04</v>
@@ -3518,7 +3678,9 @@
       <c r="D11" s="1">
         <v>10296</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>9828</v>
+      </c>
       <c r="F11" s="16">
         <f>AVERAGE(8182,8938,10118)</f>
         <v>9079.3333333333339</v>
@@ -3542,7 +3704,9 @@
       <c r="M11" s="1">
         <v>6476</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <v>5474</v>
+      </c>
       <c r="O11" s="14">
         <f>AVERAGE(8023,4994,8974)</f>
         <v>7330.333333333333</v>
@@ -3566,7 +3730,9 @@
       <c r="V11" s="1">
         <v>27476.07</v>
       </c>
-      <c r="W11" s="1"/>
+      <c r="W11" s="1">
+        <v>26159.06</v>
+      </c>
       <c r="X11" s="14">
         <f>AVERAGE(68765.2,64902.05,60570.51)</f>
         <v>64745.920000000006</v>
@@ -3591,7 +3757,9 @@
       <c r="D12" s="1">
         <v>57910</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>980</v>
+      </c>
       <c r="F12" s="14">
         <f>AVERAGE(119890,130840,141420)</f>
         <v>130716.66666666667</v>
@@ -3615,7 +3783,9 @@
       <c r="M12" s="1">
         <v>11572.88</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>10270.1</v>
+      </c>
       <c r="O12" s="14">
         <f>AVERAGE(18246.01,15636.11,15860.69)</f>
         <v>16580.936666666665</v>
@@ -3639,7 +3809,9 @@
       <c r="V12" s="1">
         <v>41333.97</v>
       </c>
-      <c r="W12" s="1"/>
+      <c r="W12" s="1">
+        <v>43929.8</v>
+      </c>
       <c r="X12" s="14">
         <f>AVERAGE(130468.43,132240.97,139718.17)</f>
         <v>134142.52333333335</v>
@@ -3664,7 +3836,9 @@
       <c r="D13" s="3">
         <v>1454.84</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>1339.12</v>
+      </c>
       <c r="F13" s="15">
         <v>1454.84</v>
       </c>
@@ -3688,7 +3862,9 @@
       <c r="M13" s="6">
         <v>15643.51</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>50807.89</v>
+      </c>
       <c r="O13" s="14">
         <f>AVERAGE(31530.67,28819.06,27007.27)</f>
         <v>29119</v>
@@ -3712,7 +3888,9 @@
       <c r="V13" s="1">
         <v>133670.14000000001</v>
       </c>
-      <c r="W13" s="1"/>
+      <c r="W13" s="1">
+        <v>143817.03</v>
+      </c>
       <c r="X13" s="14">
         <f>AVERAGE(611099.29,611721.92,615676.98)</f>
         <v>612832.73</v>
@@ -3737,7 +3915,9 @@
       <c r="D14" s="1">
         <v>2717.27</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>2792.21</v>
+      </c>
       <c r="F14" s="14">
         <f>AVERAGE(5109.97,5065.25,4645.03)</f>
         <v>4940.083333333333</v>
@@ -3761,7 +3941,9 @@
       <c r="M14" s="1">
         <v>13623.44</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>16093.09</v>
+      </c>
       <c r="O14" s="14">
         <f>AVERAGE(33860.82,35440.32,32829.69)</f>
         <v>34043.61</v>
@@ -3785,7 +3967,9 @@
       <c r="V14" s="1">
         <v>600.15</v>
       </c>
-      <c r="W14" s="1"/>
+      <c r="W14" s="1">
+        <v>695.56</v>
+      </c>
       <c r="X14" s="14">
         <f>AVERAGE(915.58,965.96,857.74)</f>
         <v>913.09333333333325</v>
@@ -3810,7 +3994,9 @@
       <c r="D15" s="1">
         <v>3194.43</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>3621.33</v>
+      </c>
       <c r="F15" s="14">
         <f>AVERAGE(5931.11,6725.71,6492.31)</f>
         <v>6383.043333333334</v>
@@ -3834,7 +4020,9 @@
       <c r="M15" s="1">
         <v>11462.54</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <v>11768</v>
+      </c>
       <c r="O15" s="14">
         <f>AVERAGE(17548.83,18031.67,17132.19)</f>
         <v>17570.896666666667</v>
@@ -3858,7 +4046,9 @@
       <c r="V15" s="1">
         <v>1135.3800000000001</v>
       </c>
-      <c r="W15" s="1"/>
+      <c r="W15" s="1">
+        <v>1293.71</v>
+      </c>
       <c r="X15" s="14">
         <f>AVERAGE(2172,2292.37,2366.69)</f>
         <v>2277.02</v>
@@ -3883,7 +4073,9 @@
       <c r="D16" s="3">
         <v>255</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>251</v>
+      </c>
       <c r="F16" s="3">
         <f>AVERAGE(275,256,347)</f>
         <v>292.66666666666669</v>
@@ -3909,7 +4101,9 @@
       <c r="M16" s="1">
         <v>12323.13</v>
       </c>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1">
+        <v>13509.84</v>
+      </c>
       <c r="O16" s="14">
         <f>AVERAGE(25882.97,25132.64,26685.26)</f>
         <v>25900.289999999997</v>
@@ -3933,7 +4127,9 @@
       <c r="V16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="W16" s="1"/>
+      <c r="W16" s="1">
+        <v>3690.24</v>
+      </c>
       <c r="X16" s="14">
         <f>AVERAGE(11399.38,10366.03,10813.15)</f>
         <v>10859.519999999999</v>
@@ -3958,7 +4154,9 @@
       <c r="D17" s="3">
         <v>181.41</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>190.34</v>
+      </c>
       <c r="F17" s="3">
         <f>AVERAGE(279.26,215.78,239.33)</f>
         <v>244.79</v>
@@ -3984,7 +4182,9 @@
       <c r="M17" s="1">
         <v>17281.75</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>17169.62</v>
+      </c>
       <c r="O17" s="14">
         <f>AVERAGE(34360.88,33605.76,33152.24)</f>
         <v>33706.293333333335</v>
@@ -4008,7 +4208,9 @@
       <c r="V17" s="1">
         <v>4697.63</v>
       </c>
-      <c r="W17" s="1"/>
+      <c r="W17" s="1">
+        <v>4979.6899999999996</v>
+      </c>
       <c r="X17" s="14">
         <f>AVERAGE(17169.52,18058.97,17036.8)</f>
         <v>17421.763333333336</v>
@@ -4033,7 +4235,9 @@
       <c r="D18" s="1">
         <v>232.79</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>240.5</v>
+      </c>
       <c r="F18" s="14">
         <f>AVERAGE(347.21,387.79,356.93)</f>
         <v>363.97666666666669</v>
@@ -4057,7 +4261,9 @@
       <c r="M18" s="1">
         <v>9617.35</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>12165.37</v>
+      </c>
       <c r="O18" s="14">
         <f>AVERAGE(20744.35,18030.82,16756.05)</f>
         <v>18510.406666666666</v>
@@ -4081,7 +4287,9 @@
       <c r="V18" s="1">
         <v>10581</v>
       </c>
-      <c r="W18" s="1"/>
+      <c r="W18" s="1">
+        <v>10638</v>
+      </c>
       <c r="X18" s="14">
         <f>AVERAGE(12976,12872,13402)</f>
         <v>13083.333333333334</v>
@@ -4106,7 +4314,9 @@
       <c r="D19" s="1">
         <v>322.75</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>269.56</v>
+      </c>
       <c r="F19" s="14">
         <f>AVERAGE(429.85,402.52,396.58)</f>
         <v>409.65000000000003</v>
@@ -4130,7 +4340,9 @@
       <c r="M19" s="1">
         <v>10720.17</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1">
+        <v>11235.04</v>
+      </c>
       <c r="O19" s="14">
         <f>AVERAGE(17595.39,18311.99,19771.19)</f>
         <v>18559.523333333334</v>
@@ -4154,7 +4366,9 @@
       <c r="V19" s="1">
         <v>23690</v>
       </c>
-      <c r="W19" s="1"/>
+      <c r="W19" s="1">
+        <v>23530</v>
+      </c>
       <c r="X19" s="14">
         <f>AVERAGE(36396,36800,33279)</f>
         <v>35491.666666666664</v>
@@ -4179,7 +4393,9 @@
       <c r="D20" s="3">
         <v>334</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>391</v>
+      </c>
       <c r="F20" s="15">
         <v>334</v>
       </c>
@@ -4204,7 +4420,9 @@
       <c r="M20" s="1">
         <v>10228.68</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <v>10160.41</v>
+      </c>
       <c r="O20" s="14">
         <f>AVERAGE(17133.65,16940.88,17970.63)</f>
         <v>17348.386666666669</v>
@@ -4228,7 +4446,9 @@
       <c r="V20" s="1">
         <v>46820</v>
       </c>
-      <c r="W20" s="1"/>
+      <c r="W20" s="1">
+        <v>46810</v>
+      </c>
       <c r="X20" s="14">
         <f>AVERAGE(72588,76165,72797)</f>
         <v>73850</v>
@@ -4253,7 +4473,9 @@
       <c r="D21" s="1">
         <v>1179.57</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>1397.39</v>
+      </c>
       <c r="F21" s="14">
         <f>AVERAGE(3178.66,2821.46,2883.3)</f>
         <v>2961.14</v>
@@ -4277,7 +4499,9 @@
       <c r="M21" s="1">
         <v>5888.85</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1">
+        <v>5350.1</v>
+      </c>
       <c r="O21" s="14">
         <f>AVERAGE(9493.61,12161.74,10876.06)</f>
         <v>10843.803333333331</v>
@@ -4301,7 +4525,9 @@
       <c r="V21" s="13">
         <v>347.28</v>
       </c>
-      <c r="W21" s="13"/>
+      <c r="W21" s="13">
+        <v>250.24</v>
+      </c>
       <c r="X21" s="14">
         <f>AVERAGE(444.2,462.22,453.49)</f>
         <v>453.30333333333334</v>
@@ -4326,7 +4552,9 @@
       <c r="D22" s="3">
         <v>380</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>426</v>
+      </c>
       <c r="F22" s="18">
         <v>380</v>
       </c>
@@ -4351,7 +4579,9 @@
       <c r="M22" s="1">
         <v>22878.82</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1">
+        <v>20965.099999999999</v>
+      </c>
       <c r="O22" s="14">
         <f>AVERAGE(56954.6,54865.21,60437.12)</f>
         <v>57418.976666666662</v>
@@ -4375,7 +4605,9 @@
       <c r="V22" s="1">
         <v>441</v>
       </c>
-      <c r="W22" s="1"/>
+      <c r="W22" s="1">
+        <v>448</v>
+      </c>
       <c r="X22" s="14">
         <f>AVERAGE(616,625,606)</f>
         <v>615.66666666666663</v>
@@ -4400,7 +4632,9 @@
       <c r="D23" s="3">
         <v>1019</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>683</v>
+      </c>
       <c r="F23" s="18">
         <v>1019</v>
       </c>
@@ -4425,7 +4659,9 @@
       <c r="M23" s="1">
         <v>28892.080000000002</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>28532.55</v>
+      </c>
       <c r="O23" s="14">
         <f>AVERAGE(133425.62,129861.81,136169.48)</f>
         <v>133152.30333333334</v>
@@ -4449,7 +4685,9 @@
       <c r="V23" s="1">
         <v>55500</v>
       </c>
-      <c r="W23" s="1"/>
+      <c r="W23" s="1">
+        <v>73643.86</v>
+      </c>
       <c r="X23" s="14">
         <f>AVERAGE(164561.21,166644.63,173340.26)</f>
         <v>168182.03333333333</v>
@@ -4474,7 +4712,9 @@
       <c r="D24" s="3">
         <v>490</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>413</v>
+      </c>
       <c r="F24" s="18">
         <v>490</v>
       </c>
@@ -4499,7 +4739,9 @@
       <c r="M24" s="6">
         <v>1370</v>
       </c>
-      <c r="N24" s="6"/>
+      <c r="N24" s="6">
+        <v>1242</v>
+      </c>
       <c r="O24" s="14">
         <f>AVERAGE(3980,4416,3964)</f>
         <v>4120</v>
@@ -4523,7 +4765,9 @@
       <c r="V24" s="1">
         <v>1875.65</v>
       </c>
-      <c r="W24" s="1"/>
+      <c r="W24" s="1">
+        <v>2155.5100000000002</v>
+      </c>
       <c r="X24" s="14">
         <f>AVERAGE(4154.65,3907.26,4018.22)</f>
         <v>4026.7099999999996</v>
@@ -4558,7 +4802,9 @@
       <c r="V25" s="3">
         <v>1981.71</v>
       </c>
-      <c r="W25" s="3"/>
+      <c r="W25" s="3">
+        <v>1981.15</v>
+      </c>
       <c r="X25" s="15">
         <v>1981.71</v>
       </c>
@@ -4600,7 +4846,9 @@
       <c r="V26" s="3">
         <v>2086.59</v>
       </c>
-      <c r="W26" s="3"/>
+      <c r="W26" s="3">
+        <v>2006.03</v>
+      </c>
       <c r="X26" s="15">
         <v>2086.59</v>
       </c>
@@ -4758,8 +5006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4905,7 +5153,9 @@
       <c r="D3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>2333.29</v>
+      </c>
       <c r="F3" s="1">
         <f>AVERAGE(5498.19,5752.9,5622.22)</f>
         <v>5624.4366666666674</v>
@@ -4929,7 +5179,9 @@
       <c r="M3" s="1">
         <v>3478</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1">
+        <v>3475</v>
+      </c>
       <c r="O3" s="1">
         <f>AVERAGE(4113,4382,3925)</f>
         <v>4140</v>
@@ -4953,7 +5205,9 @@
       <c r="V3" s="1">
         <v>63830.12</v>
       </c>
-      <c r="W3" s="1"/>
+      <c r="W3" s="1">
+        <v>69764.62</v>
+      </c>
       <c r="X3" s="1">
         <f>AVERAGE(117447.11,116929.81,134420.93)</f>
         <v>122932.61666666665</v>
@@ -5000,7 +5254,9 @@
       <c r="M4" s="1">
         <v>41093.300000000003</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1">
+        <v>38395.919999999998</v>
+      </c>
       <c r="O4" s="14">
         <f>AVERAGE(71504.94,77227.03,67640)</f>
         <v>72123.990000000005</v>
@@ -5024,7 +5280,9 @@
       <c r="V4" s="1">
         <v>33252.04</v>
       </c>
-      <c r="W4" s="1"/>
+      <c r="W4" s="1">
+        <v>32109.37</v>
+      </c>
       <c r="X4" s="14">
         <f>AVERAGE(72879.96,64236.39,61493.96)</f>
         <v>66203.436666666661</v>
@@ -5049,7 +5307,9 @@
       <c r="D5" s="3">
         <v>7089</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>6671</v>
+      </c>
       <c r="F5" s="3">
         <f>AVERAGE(7838,9402,8578)</f>
         <v>8606</v>
@@ -5075,7 +5335,9 @@
       <c r="M5" s="1">
         <v>4749</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1">
+        <v>4888</v>
+      </c>
       <c r="O5" s="14">
         <f>AVERAGE(8377,8984,9359)</f>
         <v>8906.6666666666661</v>
@@ -5099,7 +5361,9 @@
       <c r="V5" s="1">
         <v>40795.86</v>
       </c>
-      <c r="W5" s="1"/>
+      <c r="W5" s="1">
+        <v>41639.79</v>
+      </c>
       <c r="X5" s="14">
         <f>AVERAGE(93776.89,96997.87,89510.79)</f>
         <v>93428.516666666663</v>
@@ -5124,7 +5388,9 @@
       <c r="D6" s="12">
         <v>23269</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>18984</v>
+      </c>
       <c r="F6" s="14">
         <f>AVERAGE(76704,73524,78156)</f>
         <v>76128</v>
@@ -5148,7 +5414,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="14">
-        <f t="shared" ref="O6:Q23" si="2">AVERAGE(1)</f>
+        <f t="shared" ref="O6:O10" si="2">AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="P6" s="14">
@@ -5170,7 +5436,9 @@
       <c r="V6" s="1">
         <v>84256.72</v>
       </c>
-      <c r="W6" s="1"/>
+      <c r="W6" s="1">
+        <v>81838.740000000005</v>
+      </c>
       <c r="X6" s="14">
         <f>AVERAGE(132266.71,133094,25,136977.14)</f>
         <v>100590.71249999999</v>
@@ -5195,7 +5463,9 @@
       <c r="D7" s="3">
         <v>1065</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>1068</v>
+      </c>
       <c r="F7" s="15">
         <v>1065</v>
       </c>
@@ -5242,7 +5512,9 @@
       <c r="V7" s="1">
         <v>41326.949999999997</v>
       </c>
-      <c r="W7" s="1"/>
+      <c r="W7" s="1">
+        <v>43036.45</v>
+      </c>
       <c r="X7" s="14">
         <f>AVERAGE(113604.96,122890.51,110266.69)</f>
         <v>115587.38666666667</v>
@@ -5267,7 +5539,9 @@
       <c r="D8" s="3">
         <v>1237</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>1174</v>
+      </c>
       <c r="F8" s="15">
         <v>1237</v>
       </c>
@@ -5314,7 +5588,9 @@
       <c r="V8" s="1">
         <v>51636.7</v>
       </c>
-      <c r="W8" s="1"/>
+      <c r="W8" s="1">
+        <v>52270.61</v>
+      </c>
       <c r="X8" s="14">
         <f>AVERAGE(150030.4,142468.98,133929.33)</f>
         <v>142142.90333333332</v>
@@ -5339,7 +5615,9 @@
       <c r="D9" s="3">
         <v>4429.84</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>4629.4799999999996</v>
+      </c>
       <c r="F9" s="3">
         <f>AVERAGE(6644.97,6506.27,6688.28)</f>
         <v>6613.1733333333332</v>
@@ -5387,7 +5665,9 @@
       <c r="V9" s="1">
         <v>67272.25</v>
       </c>
-      <c r="W9" s="1"/>
+      <c r="W9" s="1">
+        <v>71036.73</v>
+      </c>
       <c r="X9" s="14">
         <f>AVERAGE(178097.34,176328.93,180314.66)</f>
         <v>178246.97666666668</v>
@@ -5412,7 +5692,9 @@
       <c r="D10" s="1">
         <v>56582.89</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>53625.85</v>
+      </c>
       <c r="F10" s="14">
         <f>AVERAGE(137748.6,120237.26,117651.98)</f>
         <v>125212.61333333333</v>
@@ -5458,7 +5740,9 @@
       <c r="V10" s="1">
         <v>36877.03</v>
       </c>
-      <c r="W10" s="1"/>
+      <c r="W10" s="1">
+        <v>35720.79</v>
+      </c>
       <c r="X10" s="14">
         <f>AVERAGE(119999.79,117003.94,106132.19)</f>
         <v>114378.64</v>
@@ -5483,7 +5767,9 @@
       <c r="D11" s="1">
         <v>13172</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>13353</v>
+      </c>
       <c r="F11" s="14">
         <f>AVERAGE(19497,15890,17174)</f>
         <v>17520.333333333332</v>
@@ -5507,7 +5793,9 @@
       <c r="M11" s="1">
         <v>8651</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <v>7988</v>
+      </c>
       <c r="O11" s="14">
         <f>AVERAGE(8745,12149,9449)</f>
         <v>10114.333333333334</v>
@@ -5531,7 +5819,9 @@
       <c r="V11" s="1">
         <v>38943.230000000003</v>
       </c>
-      <c r="W11" s="1"/>
+      <c r="W11" s="1">
+        <v>40552.269999999997</v>
+      </c>
       <c r="X11" s="14">
         <f>AVERAGE(121048.8,115030.75,104405.22)</f>
         <v>113494.92333333334</v>
@@ -5556,7 +5846,9 @@
       <c r="D12" s="1">
         <v>92250</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>1490</v>
+      </c>
       <c r="F12" s="14">
         <f>AVERAGE(192260,178990,179380)</f>
         <v>183543.33333333334</v>
@@ -5580,7 +5872,9 @@
       <c r="M12" s="1">
         <v>19476.54</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>17516.66</v>
+      </c>
       <c r="O12" s="14">
         <f>AVERAGE(27525.22,27247,27153.45)</f>
         <v>27308.556666666667</v>
@@ -5604,7 +5898,9 @@
       <c r="V12" s="1">
         <v>66131.56</v>
       </c>
-      <c r="W12" s="1"/>
+      <c r="W12" s="1">
+        <v>70952.95</v>
+      </c>
       <c r="X12" s="14">
         <f>AVERAGE(274261.1,263443.34,271059.75)</f>
         <v>269588.0633333333</v>
@@ -5629,7 +5925,9 @@
       <c r="D13" s="3">
         <v>1943.98</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>1953.16</v>
+      </c>
       <c r="F13" s="15">
         <v>1943.98</v>
       </c>
@@ -5653,7 +5951,9 @@
       <c r="M13" s="1">
         <v>22938.36</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>21753.58</v>
+      </c>
       <c r="O13" s="14">
         <f>AVERAGE(45731.91,39676.2,42516.11)</f>
         <v>42641.406666666669</v>
@@ -5677,7 +5977,9 @@
       <c r="V13" s="1">
         <v>209167.52</v>
       </c>
-      <c r="W13" s="1"/>
+      <c r="W13" s="1">
+        <v>218655.55</v>
+      </c>
       <c r="X13" s="14">
         <f>AVERAGE(1044777.76,1050611.75,1058082.78)</f>
         <v>1051157.43</v>
@@ -5702,7 +6004,9 @@
       <c r="D14" s="1">
         <v>4148.87</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>4786.0600000000004</v>
+      </c>
       <c r="F14" s="14">
         <f>AVERAGE(8413.89,9053.43,8139.43)</f>
         <v>8535.5833333333339</v>
@@ -5726,7 +6030,9 @@
       <c r="M14" s="1">
         <v>21433.16</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>24404.94</v>
+      </c>
       <c r="O14" s="14">
         <f>AVERAGE(50639.03,52773.37,53019.09)</f>
         <v>52143.829999999994</v>
@@ -5750,7 +6056,9 @@
       <c r="V14" s="1">
         <v>925.25</v>
       </c>
-      <c r="W14" s="1"/>
+      <c r="W14" s="1">
+        <v>1047.43</v>
+      </c>
       <c r="X14" s="14">
         <f>AVERAGE(1580.3,1556.26,1531.77)</f>
         <v>1556.11</v>
@@ -5775,7 +6083,9 @@
       <c r="D15" s="1">
         <v>4938.62</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>5392.18</v>
+      </c>
       <c r="F15" s="14">
         <f>AVERAGE(10436.2,10515.28,10764.03)</f>
         <v>10571.836666666668</v>
@@ -5799,7 +6109,9 @@
       <c r="M15" s="1">
         <v>17465.62</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <v>18768.060000000001</v>
+      </c>
       <c r="O15" s="14">
         <f>AVERAGE(30281.7,28948.48,27864.93)</f>
         <v>29031.703333333335</v>
@@ -5823,7 +6135,9 @@
       <c r="V15" s="1">
         <v>1695.61</v>
       </c>
-      <c r="W15" s="1"/>
+      <c r="W15" s="1">
+        <v>1944.15</v>
+      </c>
       <c r="X15" s="14">
         <f>AVERAGE(4322.14,3865.43,4106.19)</f>
         <v>4097.9199999999992</v>
@@ -5848,7 +6162,9 @@
       <c r="D16" s="3">
         <v>517</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>393</v>
+      </c>
       <c r="F16" s="3">
         <f>AVERAGE(523,694,586)</f>
         <v>601</v>
@@ -5872,7 +6188,9 @@
       <c r="M16" s="1">
         <v>17814.47</v>
       </c>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1">
+        <v>20307.55</v>
+      </c>
       <c r="O16" s="14">
         <f>AVERAGE(39494.51,43021.33,43619.02)</f>
         <v>42044.953333333331</v>
@@ -5896,7 +6214,9 @@
       <c r="V16" s="1">
         <v>5946.93</v>
       </c>
-      <c r="W16" s="1"/>
+      <c r="W16" s="1">
+        <v>5694.36</v>
+      </c>
       <c r="X16" s="14">
         <f>AVERAGE(19012.37,18638.86,18931.57)</f>
         <v>18860.933333333331</v>
@@ -5921,7 +6241,9 @@
       <c r="D17" s="3">
         <v>291.58999999999997</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>323.66000000000003</v>
+      </c>
       <c r="F17" s="3">
         <f>AVERAGE(431.16,418.32,422.52)</f>
         <v>424</v>
@@ -5947,7 +6269,9 @@
       <c r="M17" s="1">
         <v>24691.06</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>24802.49</v>
+      </c>
       <c r="O17" s="14">
         <f>AVERAGE(57761.37,55503.47,57973.66)</f>
         <v>57079.5</v>
@@ -5971,7 +6295,9 @@
       <c r="V17" s="1">
         <v>7364.99</v>
       </c>
-      <c r="W17" s="1"/>
+      <c r="W17" s="1">
+        <v>7408.05</v>
+      </c>
       <c r="X17" s="14">
         <f>AVERAGE(29654.31,28805.35,29660.73)</f>
         <v>29373.463333333333</v>
@@ -5996,7 +6322,9 @@
       <c r="D18" s="1">
         <v>356.71</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>373.07</v>
+      </c>
       <c r="F18" s="14">
         <f>AVERAGE(573.88,576.15,503.95)</f>
         <v>551.32666666666671</v>
@@ -6020,7 +6348,9 @@
       <c r="M18" s="1">
         <v>14926.51</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>18900.41</v>
+      </c>
       <c r="O18" s="14">
         <f>AVERAGE(29654.14,29587.48,26846.83)</f>
         <v>28696.149999999998</v>
@@ -6044,7 +6374,9 @@
       <c r="V18" s="1">
         <v>16096</v>
       </c>
-      <c r="W18" s="1"/>
+      <c r="W18" s="1">
+        <v>16373</v>
+      </c>
       <c r="X18" s="14">
         <f>AVERAGE(20712,20221,20516)</f>
         <v>20483</v>
@@ -6069,7 +6401,9 @@
       <c r="D19" s="1">
         <v>492.25</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>452.67</v>
+      </c>
       <c r="F19" s="14">
         <f>AVERAGE(641.15,690.2,671.97)</f>
         <v>667.77333333333331</v>
@@ -6093,7 +6427,9 @@
       <c r="M19" s="1">
         <v>16252.61</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1">
+        <v>17083.72</v>
+      </c>
       <c r="O19" s="14">
         <f>AVERAGE(27837.62,28079.33,27372.98)</f>
         <v>27763.309999999998</v>
@@ -6117,7 +6453,9 @@
       <c r="V19" s="1">
         <v>36872</v>
       </c>
-      <c r="W19" s="1"/>
+      <c r="W19" s="1">
+        <v>35948</v>
+      </c>
       <c r="X19" s="14">
         <f>AVERAGE(55395,53710,55185)</f>
         <v>54763.333333333336</v>
@@ -6142,7 +6480,9 @@
       <c r="D20" s="3">
         <v>744</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>608</v>
+      </c>
       <c r="F20" s="15">
         <v>744</v>
       </c>
@@ -6167,7 +6507,9 @@
       <c r="M20" s="1">
         <v>16441.939999999999</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <v>17078.29</v>
+      </c>
       <c r="O20" s="14">
         <f>AVERAGE(28486.61,27900.02,35382.74)</f>
         <v>30589.789999999997</v>
@@ -6191,7 +6533,9 @@
       <c r="V20" s="1">
         <v>70582</v>
       </c>
-      <c r="W20" s="1"/>
+      <c r="W20" s="1">
+        <v>70198</v>
+      </c>
       <c r="X20" s="14">
         <f>AVERAGE(113798,114572,110884)</f>
         <v>113084.66666666667</v>
@@ -6216,7 +6560,9 @@
       <c r="D21" s="1">
         <v>1741.09</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>1967.63</v>
+      </c>
       <c r="F21" s="14">
         <f>AVERAGE(4901.96,4962.22,4894.71)</f>
         <v>4919.63</v>
@@ -6240,7 +6586,9 @@
       <c r="M21" s="1">
         <v>9054.34</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1">
+        <v>9002.3700000000008</v>
+      </c>
       <c r="O21" s="14">
         <f>AVERAGE(17572.51,17992.8,21124.48)</f>
         <v>18896.596666666665</v>
@@ -6264,7 +6612,9 @@
       <c r="V21" s="13">
         <v>543.95000000000005</v>
       </c>
-      <c r="W21" s="13"/>
+      <c r="W21" s="13">
+        <v>437.11</v>
+      </c>
       <c r="X21" s="14">
         <f>AVERAGE(805.9,739.32,748.97)</f>
         <v>764.73</v>
@@ -6289,7 +6639,9 @@
       <c r="D22" s="3">
         <v>661</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>813</v>
+      </c>
       <c r="F22" s="15">
         <v>661</v>
       </c>
@@ -6314,7 +6666,9 @@
       <c r="M22" s="1">
         <v>33307.81</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1">
+        <v>34803.33</v>
+      </c>
       <c r="O22" s="14">
         <f>AVERAGE(93802.91,100544.44,98586.28)</f>
         <v>97644.543333333335</v>
@@ -6338,7 +6692,9 @@
       <c r="V22" s="1">
         <v>770</v>
       </c>
-      <c r="W22" s="1"/>
+      <c r="W22" s="1">
+        <v>871</v>
+      </c>
       <c r="X22" s="14">
         <f>AVERAGE(1048,1049,1133)</f>
         <v>1076.6666666666667</v>
@@ -6363,7 +6719,9 @@
       <c r="D23" s="3">
         <v>1733</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>1351</v>
+      </c>
       <c r="F23" s="15">
         <v>1733</v>
       </c>
@@ -6388,7 +6746,9 @@
       <c r="M23" s="1">
         <v>47140.73</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>45668.23</v>
+      </c>
       <c r="O23" s="14">
         <f>AVERAGE(238515.69,230603.7,233199.28)</f>
         <v>234106.22333333336</v>
@@ -6412,7 +6772,9 @@
       <c r="V23" s="1">
         <v>89500</v>
       </c>
-      <c r="W23" s="1"/>
+      <c r="W23" s="1">
+        <v>117345.37</v>
+      </c>
       <c r="X23" s="14">
         <f>AVERAGE(284355.59,275262.73,290978.44)</f>
         <v>283532.25333333336</v>
@@ -6437,7 +6799,9 @@
       <c r="D24" s="3">
         <v>794</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>802</v>
+      </c>
       <c r="F24" s="15">
         <v>794</v>
       </c>
@@ -6462,7 +6826,9 @@
       <c r="M24" s="6">
         <v>2332</v>
       </c>
-      <c r="N24" s="6"/>
+      <c r="N24" s="6">
+        <v>2150</v>
+      </c>
       <c r="O24" s="14">
         <f>AVERAGE(7378,7503,7350)</f>
         <v>7410.333333333333</v>
@@ -6486,7 +6852,9 @@
       <c r="V24" s="1">
         <v>2917.62</v>
       </c>
-      <c r="W24" s="1"/>
+      <c r="W24" s="1">
+        <v>3247.49</v>
+      </c>
       <c r="X24" s="14">
         <f>AVERAGE(7175.18,7038.94,7174.41)</f>
         <v>7129.5099999999993</v>
@@ -6521,7 +6889,9 @@
       <c r="V25" s="3">
         <v>2785.62</v>
       </c>
-      <c r="W25" s="3"/>
+      <c r="W25" s="3">
+        <v>3035.89</v>
+      </c>
       <c r="X25" s="15">
         <v>2785.62</v>
       </c>
@@ -6563,7 +6933,9 @@
       <c r="V26" s="3">
         <v>3118.04</v>
       </c>
-      <c r="W26" s="3"/>
+      <c r="W26" s="3">
+        <v>2959.96</v>
+      </c>
       <c r="X26" s="15">
         <v>3118.04</v>
       </c>

--- a/Comparaçoes/Heurísticas.xlsx
+++ b/Comparaçoes/Heurísticas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="98">
   <si>
     <t>Instâncias</t>
   </si>
@@ -291,27 +291,6 @@
     <t>Linhas em cinza indicam que aquela instância foi resolvida com o modelo</t>
   </si>
   <si>
-    <t>Intervalo</t>
-  </si>
-  <si>
-    <t>Coeficiente</t>
-  </si>
-  <si>
-    <t>k &lt; 15</t>
-  </si>
-  <si>
-    <t>15 &lt; = k &lt; 30</t>
-  </si>
-  <si>
-    <t>30 &lt;= k &lt; 200</t>
-  </si>
-  <si>
-    <t>200 &lt;= k</t>
-  </si>
-  <si>
-    <t>Na HVMPA, visando melhorar os resultados, foi utilizado diferentes coeficientes que multiplicam o tamanho da instância ,  abaixo segue os coeficientes que foram utilizados em cada caso , onde k é a dimensão do problema</t>
-  </si>
-  <si>
     <t>HVMPA_5%</t>
   </si>
   <si>
@@ -322,6 +301,15 @@
   </si>
   <si>
     <t>HVMPA_20%</t>
+  </si>
+  <si>
+    <t>Best found</t>
+  </si>
+  <si>
+    <t>Best known</t>
+  </si>
+  <si>
+    <t>Best Known</t>
   </si>
 </sst>
 </file>
@@ -455,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -473,9 +461,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -505,9 +490,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,7 +497,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -534,6 +519,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA38"/>
+  <dimension ref="B1:AG38"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,289 +850,343 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" customWidth="1"/>
+    <col min="16" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.42578125" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="23"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="Z1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-    </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+    </row>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="F2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Z2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AA2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE2" s="18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="AF2" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="18">
         <v>70</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="18">
         <v>746.64</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="18">
         <f xml:space="preserve"> AVERAGE(1505.1,1632.26,1696.96)</f>
         <v>1611.4399999999998</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="18">
         <f xml:space="preserve"> AVERAGE(2027.61,1928.2,2403.43)</f>
         <v>2119.7466666666664</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="18">
         <f xml:space="preserve"> AVERAGE(3175.05,3284.1,3320.17)</f>
         <v>3259.7733333333331</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="1" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18">
+        <v>670</v>
+      </c>
+      <c r="K3" s="17">
+        <v>686</v>
+      </c>
+      <c r="M3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="1">
+      <c r="N3" s="18">
         <v>12</v>
       </c>
-      <c r="M3" s="1">
+      <c r="O3" s="18">
         <v>668</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="18">
         <v>558</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="18">
         <f>AVERAGE(883,650,909)</f>
         <v>814</v>
       </c>
-      <c r="P3" s="14">
+      <c r="R3" s="18">
         <f>AVERAGE(1282,1108,934)</f>
         <v>1108</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="S3" s="18">
         <f>AVERAGE(2101,2244,1582)</f>
         <v>1975.6666666666667</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="18"/>
+      <c r="U3" s="17">
+        <v>874</v>
+      </c>
+      <c r="V3" s="17">
+        <v>874</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="1">
+      <c r="Y3" s="1">
         <v>19</v>
       </c>
-      <c r="V3" s="1">
+      <c r="Z3" s="18">
         <v>25126.84</v>
       </c>
-      <c r="W3" s="1">
+      <c r="AA3" s="18">
         <v>25126.84</v>
       </c>
-      <c r="X3" s="1">
+      <c r="AB3" s="18">
         <f>AVERAGE(34231.94,35331.27,35580.93)</f>
         <v>35048.046666666662</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="AC3" s="18">
         <f>AVERAGE(43328.75,41421.5,38555.79)</f>
         <v>41102.013333333336</v>
       </c>
-      <c r="Z3" s="14">
+      <c r="AD3" s="18">
         <f>AVERAGE(46680.19,51937.8,54674.06)</f>
         <v>51097.35</v>
       </c>
-      <c r="AA3" s="1"/>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="17">
+        <v>23450</v>
+      </c>
+      <c r="AG3" s="17">
+        <v>23450</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="18">
         <v>133</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="14">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18">
         <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="18">
         <f t="shared" ref="G4:H4" si="0" xml:space="preserve"> AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="17"/>
+      <c r="M4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N4" s="18">
         <v>24</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="18">
         <v>11086.43</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="18">
         <v>9934.0499999999993</v>
       </c>
-      <c r="O4" s="14">
+      <c r="Q4" s="18">
         <f>AVERAGE(20093,23146.55,19097.46)</f>
         <v>20779.003333333334</v>
       </c>
-      <c r="P4" s="14">
+      <c r="R4" s="18">
         <f>AVERAGE(23860.74,23986.37,23918.43)</f>
         <v>23921.846666666668</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="S4" s="18">
         <f>AVERAGE(40325.7,39806.4,37967.84)</f>
         <v>39366.646666666667</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="18"/>
+      <c r="U4" s="17">
+        <v>10460</v>
+      </c>
+      <c r="V4" s="17">
+        <v>9543</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U4" s="1">
+      <c r="Y4" s="1">
         <v>26</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="Z4" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="1">
+      <c r="AA4" s="18">
         <v>7486.75</v>
       </c>
-      <c r="X4" s="14">
+      <c r="AB4" s="18">
         <f>AVERAGE(11787.58,13221.13,11889.39)</f>
         <v>12299.366666666667</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="AC4" s="18">
         <f>AVERAGE(26236.66,21389.02,16226.9)</f>
         <v>21284.193333333333</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="AD4" s="18">
         <f>AVERAGE(30635.8,20645.57,26540.59)</f>
         <v>25940.653333333332</v>
       </c>
-      <c r="AA4" s="1"/>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="17">
+        <v>8443</v>
+      </c>
+      <c r="AG4" s="17">
+        <v>8443</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1159,135 +1214,155 @@
       <c r="I5" s="3">
         <v>1239</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="31"/>
+      <c r="M5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="1">
+      <c r="N5" s="18">
         <v>30</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="18">
         <v>1411</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="18">
         <v>1422</v>
       </c>
-      <c r="O5" s="14">
+      <c r="Q5" s="18">
         <f>AVERAGE(2200,2636,2649)</f>
         <v>2495</v>
       </c>
-      <c r="P5" s="14">
+      <c r="R5" s="18">
         <f>AVERAGE(3332,3136,3512)</f>
         <v>3326.6666666666665</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="S5" s="18">
         <f>AVERAGE(5188,5237,4688)</f>
         <v>5037.666666666667</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="18"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="X5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="1">
+      <c r="Y5" s="1">
         <v>31</v>
       </c>
-      <c r="V5" s="1">
+      <c r="Z5" s="18">
         <v>10765.78</v>
       </c>
-      <c r="W5" s="1">
+      <c r="AA5" s="18">
         <v>14065.44</v>
       </c>
-      <c r="X5" s="14">
+      <c r="AB5" s="18">
         <f>AVERAGE(28708.52,23641.97,28071.05)</f>
         <v>26807.180000000004</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="AC5" s="18">
         <f>AVERAGE(36094.43,41557.16,36682.08)</f>
         <v>38111.223333333335</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="AD5" s="18">
         <f>AVERAGE(53723.37,52942.14,42720.1)</f>
         <v>49795.203333333338</v>
       </c>
-      <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="17">
+        <v>14640</v>
+      </c>
+      <c r="AG5" s="17">
+        <v>14325</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="18">
         <v>133</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="18">
         <v>5712</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="18">
         <v>4475</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="18">
         <f xml:space="preserve"> AVERAGE(14321,17859,14830)</f>
         <v>15670</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="18">
         <f xml:space="preserve"> AVERAGE(20903,21351,21298)</f>
         <v>21184</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="18">
         <f xml:space="preserve"> AVERAGE(32813,31904,30501)</f>
         <v>31739.333333333332</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1" t="s">
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="17"/>
+      <c r="M6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="18">
         <v>34</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="14">
-        <f t="shared" ref="O6:O10" si="1">AVERAGE(1)</f>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18">
+        <f t="shared" ref="Q6:Q10" si="1">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="P6" s="14">
-        <f t="shared" ref="P6:Q10" si="2">AVERAGE(1)</f>
+      <c r="R6" s="18">
+        <f t="shared" ref="R6:S10" si="2">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="S6" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="18"/>
+      <c r="U6" s="17">
+        <v>17399</v>
+      </c>
+      <c r="V6" s="17">
+        <v>17399</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="1">
+      <c r="Y6" s="1">
         <v>34</v>
       </c>
-      <c r="V6" s="1">
+      <c r="Z6" s="18">
         <v>22828.74</v>
       </c>
-      <c r="W6" s="1">
+      <c r="AA6" s="18">
         <v>23907.89</v>
       </c>
-      <c r="X6" s="14">
+      <c r="AB6" s="18">
         <f>AVERAGE(37011.37,39208.49,33323.61)</f>
         <v>36514.49</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="AC6" s="18">
         <f>AVERAGE(50005.65,54819.57,52088.07)</f>
         <v>52304.43</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="AD6" s="18">
         <f>AVERAGE(59482.64,74324.22,76315)</f>
         <v>70040.62</v>
       </c>
-      <c r="AA6" s="1"/>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="17">
+        <v>21116</v>
+      </c>
+      <c r="AG6" s="17">
+        <v>21116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1300,7 +1375,7 @@
       <c r="E7" s="3">
         <v>292</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>292</v>
       </c>
       <c r="G7" s="3">
@@ -1314,56 +1389,72 @@
       <c r="I7" s="3">
         <v>246</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="1" t="s">
+      <c r="J7" s="3">
+        <v>332</v>
+      </c>
+      <c r="K7" s="31">
+        <v>332</v>
+      </c>
+      <c r="M7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="18">
         <v>50</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="14">
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P7" s="14">
+      <c r="R7" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="S7" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="18"/>
+      <c r="U7" s="17">
+        <v>8142</v>
+      </c>
+      <c r="V7" s="17">
+        <v>8142</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="1">
+      <c r="Y7" s="1">
         <v>36</v>
       </c>
-      <c r="V7" s="1">
+      <c r="Z7" s="18">
         <v>10893.75</v>
       </c>
-      <c r="W7" s="1">
+      <c r="AA7" s="18">
         <v>12001.03</v>
       </c>
-      <c r="X7" s="14">
+      <c r="AB7" s="18">
         <f>AVERAGE(34465.92,32737.24,31541.07)</f>
         <v>32914.743333333339</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="AC7" s="18">
         <f>AVERAGE(50770.88,48412.88,50766.97)</f>
         <v>49983.57666666666</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="AD7" s="18">
         <f>AVERAGE(70949.67,67430.23,67142.69)</f>
         <v>68507.53</v>
       </c>
-      <c r="AA7" s="1"/>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="17">
+        <v>14327</v>
+      </c>
+      <c r="AG7" s="17">
+        <v>14327</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1376,7 +1467,7 @@
       <c r="E8" s="3">
         <v>352</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>352</v>
       </c>
       <c r="G8" s="3">
@@ -1390,56 +1481,72 @@
       <c r="I8" s="4">
         <v>282</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="1" t="s">
+      <c r="J8" s="3">
+        <v>400</v>
+      </c>
+      <c r="K8" s="31">
+        <v>400</v>
+      </c>
+      <c r="M8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="1">
+      <c r="N8" s="18">
         <v>57</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="14">
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P8" s="14">
+      <c r="R8" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="S8" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="18"/>
+      <c r="U8" s="17">
+        <v>18555</v>
+      </c>
+      <c r="V8" s="17">
+        <v>18555</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U8" s="1">
+      <c r="Y8" s="1">
         <v>38</v>
       </c>
-      <c r="V8" s="1">
+      <c r="Z8" s="18">
         <v>17072</v>
       </c>
-      <c r="W8" s="1">
+      <c r="AA8" s="18">
         <v>17072</v>
       </c>
-      <c r="X8" s="14">
+      <c r="AB8" s="18">
         <f>AVERAGE(37722.49,35121.04,52458.35)</f>
         <v>41767.293333333335</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="AC8" s="18">
         <f>AVERAGE(65029.81,72456.52,68871.05)</f>
         <v>68785.793333333335</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="AD8" s="18">
         <f>AVERAGE(76385.41,82378.46,77170.24)</f>
         <v>78644.703333333324</v>
       </c>
-      <c r="AA8" s="1"/>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="17">
+        <v>23195</v>
+      </c>
+      <c r="AG8" s="17">
+        <v>20029</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1467,289 +1574,325 @@
       <c r="I9" s="5">
         <v>480.48033445701299</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="1" t="s">
+      <c r="J9" s="3">
+        <v>679</v>
+      </c>
+      <c r="K9" s="31">
+        <v>679</v>
+      </c>
+      <c r="M9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="1">
+      <c r="N9" s="18">
         <v>107</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="14">
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P9" s="14">
+      <c r="R9" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="S9" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="18"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="X9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="U9" s="1">
+      <c r="Y9" s="1">
         <v>56</v>
       </c>
-      <c r="V9" s="1">
+      <c r="Z9" s="18">
         <v>22868.63</v>
       </c>
-      <c r="W9" s="1">
+      <c r="AA9" s="18">
         <v>23494.84</v>
       </c>
-      <c r="X9" s="14">
+      <c r="AB9" s="18">
         <f>AVERAGE(53850.22,59959.36,63479.72)</f>
         <v>59096.433333333327</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="AC9" s="18">
         <f>AVERAGE(91631.77,91376.43,92567.05)</f>
         <v>91858.416666666672</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="AD9" s="18">
         <f>AVERAGE(126146.31,162403.28,152947.62)</f>
         <v>147165.73666666666</v>
       </c>
-      <c r="AA9" s="1"/>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="17">
+        <v>20033</v>
+      </c>
+      <c r="AG9" s="17">
+        <v>20033</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="18">
         <v>31</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="18">
         <v>14342.78</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="18">
         <v>11706.58</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="18">
         <f xml:space="preserve"> AVERAGE(22801.5,24988.75,19031.39)</f>
         <v>22273.88</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="18">
         <f xml:space="preserve"> AVERAGE(29850.6,28526.96,30742.84)</f>
         <v>29706.799999999999</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="18">
         <f xml:space="preserve"> AVERAGE(36608.9,43524.74,36759.37)</f>
         <v>38964.33666666667</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="1" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="18">
+        <v>10619</v>
+      </c>
+      <c r="K10" s="17">
+        <v>10619</v>
+      </c>
+      <c r="M10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="1">
+      <c r="N10" s="18">
         <v>166</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="14">
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P10" s="14">
+      <c r="R10" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="S10" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="18"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="X10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="1">
+      <c r="Y10" s="1">
         <v>66</v>
       </c>
-      <c r="V10" s="1">
+      <c r="Z10" s="18">
         <v>8100</v>
       </c>
-      <c r="W10" s="1">
+      <c r="AA10" s="18">
         <v>8100</v>
       </c>
-      <c r="X10" s="14">
+      <c r="AB10" s="18">
         <f>AVERAGE(21851.94,25401.1,21951.12)</f>
         <v>23068.05333333333</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="AC10" s="18">
         <f>AVERAGE(33780.11,36151.91,37710.08)</f>
         <v>35880.700000000004</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="AD10" s="18">
         <f>AVERAGE(57908.8,58660.78,66068.58)</f>
         <v>60879.386666666665</v>
       </c>
-      <c r="AA10" s="1"/>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="18">
         <v>14</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="18">
         <v>6116</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="18">
         <v>4607</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="18">
         <f xml:space="preserve"> AVERAGE(4339,4610,6809)</f>
         <v>5252.666666666667</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="18">
         <f xml:space="preserve"> AVERAGE(5821,7073,8275)</f>
         <v>7056.333333333333</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="18">
         <f xml:space="preserve"> AVERAGE(6358,8875,5894)</f>
         <v>7042.333333333333</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="1" t="s">
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="17"/>
+      <c r="M11" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="L11" s="1">
+      <c r="N11" s="18">
         <v>12</v>
       </c>
-      <c r="M11" s="1">
+      <c r="O11" s="18">
         <v>3454</v>
       </c>
-      <c r="N11" s="1">
+      <c r="P11" s="18">
         <v>3155</v>
       </c>
-      <c r="O11" s="14">
+      <c r="Q11" s="18">
         <f>AVERAGE(2188,2341,3487)</f>
         <v>2672</v>
       </c>
-      <c r="P11" s="14">
+      <c r="R11" s="18">
         <f>AVERAGE(2539,4299,4533)</f>
         <v>3790.3333333333335</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="S11" s="18">
         <f>AVERAGE(3785,4788,5280)</f>
         <v>4617.666666666667</v>
       </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="1" t="s">
+      <c r="T11" s="18"/>
+      <c r="U11" s="17">
+        <v>2827</v>
+      </c>
+      <c r="V11" s="17">
+        <v>2827</v>
+      </c>
+      <c r="X11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U11" s="1">
+      <c r="Y11" s="1">
         <v>74</v>
       </c>
-      <c r="V11" s="6">
+      <c r="Z11" s="18">
         <v>12369.29</v>
       </c>
-      <c r="W11" s="1">
+      <c r="AA11" s="18">
         <v>12312.57</v>
       </c>
-      <c r="X11" s="14">
+      <c r="AB11" s="18">
         <f>AVERAGE(33103.09,29152.95,27824.8)</f>
         <v>30026.946666666667</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="AC11" s="18">
         <f>AVERAGE(37827.3,42908.23,38416.71)</f>
         <v>39717.41333333333</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="AD11" s="18">
         <f>AVERAGE(64460.2,59763.13,58130.32)</f>
         <v>60784.549999999996</v>
       </c>
-      <c r="AA11" s="1"/>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>45</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>21120</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>480</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="18">
         <f xml:space="preserve"> AVERAGE(82770,71970,84330)</f>
         <v>79690</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="18">
         <f xml:space="preserve"> AVERAGE(85320,77810,86300)</f>
         <v>83143.333333333328</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="18">
         <f xml:space="preserve"> AVERAGE(106300,131110,117130)</f>
         <v>118180</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="1" t="s">
+      <c r="I12" s="12"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="17"/>
+      <c r="M12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="1">
+      <c r="N12" s="18">
         <v>25</v>
       </c>
-      <c r="M12" s="1">
+      <c r="O12" s="18">
         <v>5157.68</v>
       </c>
-      <c r="N12" s="1">
+      <c r="P12" s="18">
         <v>4872.0200000000004</v>
       </c>
-      <c r="O12" s="14">
+      <c r="Q12" s="18">
         <f>AVERAGE(7584.43,8374.97,8015.42)</f>
         <v>7991.6066666666666</v>
       </c>
-      <c r="P12" s="14">
+      <c r="R12" s="18">
         <f>AVERAGE(11463.86,10363.54,12428.78)</f>
         <v>11418.726666666667</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="S12" s="18">
         <f>AVERAGE(14382.34,16991.44,13189.81)</f>
         <v>14854.529999999999</v>
       </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="18"/>
+      <c r="U12" s="17">
+        <v>4970</v>
+      </c>
+      <c r="V12" s="17">
+        <v>5203</v>
+      </c>
+      <c r="X12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="1">
+      <c r="Y12" s="1">
         <v>109</v>
       </c>
-      <c r="V12" s="1">
+      <c r="Z12" s="18">
         <v>22600.959999999999</v>
       </c>
-      <c r="W12" s="1">
+      <c r="AA12" s="18">
         <v>23714.23</v>
       </c>
-      <c r="X12" s="14">
+      <c r="AB12" s="18">
         <f>AVERAGE(58160.33,51748.26,59422.06)</f>
         <v>56443.549999999996</v>
       </c>
-      <c r="Y12" s="14">
+      <c r="AC12" s="18">
         <f>AVERAGE(85259.99,82766.89,79049.55)</f>
         <v>82358.81</v>
       </c>
-      <c r="Z12" s="14">
+      <c r="AD12" s="18">
         <f>AVERAGE(118071.64,131028.91,110885.44)</f>
         <v>119995.33</v>
       </c>
-      <c r="AA12" s="1"/>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1762,10 +1905,10 @@
       <c r="E13" s="3">
         <v>249.88</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>249.88</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="16">
         <v>249.88</v>
       </c>
       <c r="H13" s="3">
@@ -1775,218 +1918,262 @@
       <c r="I13" s="3">
         <v>224.88</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="1" t="s">
+      <c r="J13" s="3">
+        <v>359</v>
+      </c>
+      <c r="K13" s="31">
+        <v>280</v>
+      </c>
+      <c r="M13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="1">
+      <c r="N13" s="18">
         <v>37</v>
       </c>
-      <c r="M13" s="1">
+      <c r="O13" s="18">
         <v>6644.96</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13" s="18">
         <v>7646.9</v>
       </c>
-      <c r="O13" s="14">
+      <c r="Q13" s="18">
         <f>AVERAGE(14537.19,11181.93,12864.92)</f>
         <v>12861.346666666666</v>
       </c>
-      <c r="P13" s="14">
+      <c r="R13" s="18">
         <f>AVERAGE(16166.74,14699.79,15110.07)</f>
         <v>15325.533333333333</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="S13" s="18">
         <f>AVERAGE(23067.53,23561.28,22385.07)</f>
         <v>23004.626666666667</v>
       </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="18"/>
+      <c r="U13" s="17">
+        <v>5690</v>
+      </c>
+      <c r="V13" s="17">
+        <v>5690</v>
+      </c>
+      <c r="X13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U13" s="1">
+      <c r="Y13" s="1">
         <v>250</v>
       </c>
-      <c r="V13" s="1">
+      <c r="Z13" s="18">
         <v>68337.149999999994</v>
       </c>
-      <c r="W13" s="1">
+      <c r="AA13" s="18">
         <v>66904.56</v>
       </c>
-      <c r="X13" s="14">
+      <c r="AB13" s="18">
         <f>AVERAGE(274864.87,269718.4,278424.19)</f>
         <v>274335.82</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="AC13" s="18">
         <f>AVERAGE(415867.69,383763.29,394937.1)</f>
         <v>398189.36000000004</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="AD13" s="18">
         <f>AVERAGE(583762.16)</f>
         <v>583762.16</v>
       </c>
-      <c r="AA13" s="1"/>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="18">
         <v>32</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="18">
         <v>1211.5899999999999</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="18">
         <v>1230.99</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="18">
         <f xml:space="preserve"> AVERAGE(2543.27,2264.22,2236.15)</f>
         <v>2347.8799999999997</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="18">
         <f xml:space="preserve"> AVERAGE(3165.36,3868.57,3238.48)</f>
         <v>3424.1366666666668</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="18">
         <f xml:space="preserve"> AVERAGE(4001.77,4149.66,4420.31)</f>
         <v>4190.5800000000008</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="1" t="s">
+      <c r="I14" s="18"/>
+      <c r="J14" s="18">
+        <v>1130</v>
+      </c>
+      <c r="K14" s="17">
+        <v>1130</v>
+      </c>
+      <c r="M14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="1">
+      <c r="N14" s="18">
         <v>50</v>
       </c>
-      <c r="M14" s="1">
+      <c r="O14" s="18">
         <v>6870.92</v>
       </c>
-      <c r="N14" s="1">
+      <c r="P14" s="18">
         <v>6899.46</v>
       </c>
-      <c r="O14" s="14">
+      <c r="Q14" s="18">
         <f>AVERAGE(16197.94,15917.45,15432.47)</f>
         <v>15849.286666666667</v>
       </c>
-      <c r="P14" s="14">
+      <c r="R14" s="18">
         <f>AVERAGE(21574.05,19979.71,21821.14)</f>
         <v>21124.966666666664</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="S14" s="18">
         <f>AVERAGE(27173.31,30193.71,28065.88)</f>
         <v>28477.633333333335</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="1" t="s">
+      <c r="T14" s="18"/>
+      <c r="U14" s="17">
+        <v>6202</v>
+      </c>
+      <c r="V14" s="17">
+        <v>6202</v>
+      </c>
+      <c r="X14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U14" s="1">
+      <c r="Y14" s="1">
         <v>24</v>
       </c>
-      <c r="V14" s="1">
+      <c r="Z14" s="18">
         <v>277.23</v>
       </c>
-      <c r="W14" s="1">
+      <c r="AA14" s="18">
         <v>359.69</v>
       </c>
-      <c r="X14" s="14">
+      <c r="AB14" s="18">
         <f>AVERAGE(434.6,422.28,429.06)</f>
         <v>428.6466666666667</v>
       </c>
-      <c r="Y14" s="14">
+      <c r="AC14" s="18">
         <f>AVERAGE(521.18,570.78,521.8)</f>
         <v>537.91999999999996</v>
       </c>
-      <c r="Z14" s="14">
+      <c r="AD14" s="18">
         <f>AVERAGE(595.04,690.79,809.66)</f>
         <v>698.49666666666656</v>
       </c>
-      <c r="AA14" s="1"/>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="17">
+        <v>284</v>
+      </c>
+      <c r="AG14" s="17">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="18">
         <v>37</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="18">
         <v>1304.57</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="18">
         <v>1400.68</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="18">
         <f xml:space="preserve"> AVERAGE(2748.74,2857.69,2722.18)</f>
         <v>2776.2033333333334</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="18">
         <f xml:space="preserve"> AVERAGE(3524.71,3922.15,3386.62)</f>
         <v>3611.16</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="18">
         <f xml:space="preserve"> AVERAGE(5047.64,4751.28,5356.29)</f>
         <v>5051.7366666666667</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="1" t="s">
+      <c r="I15" s="18"/>
+      <c r="J15" s="18">
+        <v>1276</v>
+      </c>
+      <c r="K15" s="17">
+        <v>1294</v>
+      </c>
+      <c r="M15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="1">
+      <c r="N15" s="18">
         <v>25</v>
       </c>
-      <c r="M15" s="1">
+      <c r="O15" s="18">
         <v>5552.01</v>
       </c>
-      <c r="N15" s="1">
+      <c r="P15" s="18">
         <v>4469.8100000000004</v>
       </c>
-      <c r="O15" s="14">
+      <c r="Q15" s="18">
         <f>AVERAGE(8243.9,7828.62,9343.42)</f>
         <v>8471.9800000000014</v>
       </c>
-      <c r="P15" s="14">
+      <c r="R15" s="18">
         <f>AVERAGE(9848.73,9639.87,10668.16)</f>
         <v>10052.253333333332</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="S15" s="18">
         <f>AVERAGE(16064.09,13760.81,15612.94)</f>
         <v>15145.946666666669</v>
       </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="18"/>
+      <c r="U15" s="17">
+        <v>4305</v>
+      </c>
+      <c r="V15" s="17">
+        <v>4303</v>
+      </c>
+      <c r="X15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U15" s="1">
+      <c r="Y15" s="1">
         <v>48</v>
       </c>
-      <c r="V15" s="1">
+      <c r="Z15" s="18">
         <v>560.07000000000005</v>
       </c>
-      <c r="W15" s="1">
+      <c r="AA15" s="18">
         <v>606.24</v>
       </c>
-      <c r="X15" s="14">
+      <c r="AB15" s="18">
         <f>AVERAGE(1004.91,1040.98,1126.33)</f>
         <v>1057.4066666666665</v>
       </c>
-      <c r="Y15" s="14">
+      <c r="AC15" s="18">
         <f>AVERAGE(1325.44,1292.92,1401.37)</f>
         <v>1339.91</v>
       </c>
-      <c r="Z15" s="14">
+      <c r="AD15" s="18">
         <f>AVERAGE(2060.36,1887.69,1987.72)</f>
         <v>1978.5900000000001</v>
       </c>
-      <c r="AA15" s="1"/>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="17">
+        <v>557</v>
+      </c>
+      <c r="AG15" s="17">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
@@ -2014,60 +2201,72 @@
       <c r="I16" s="3">
         <v>99</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="1" t="s">
+      <c r="J16" s="3">
+        <v>145</v>
+      </c>
+      <c r="K16" s="31">
+        <v>145</v>
+      </c>
+      <c r="M16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="1">
+      <c r="N16" s="18">
         <v>37</v>
       </c>
-      <c r="M16" s="1">
+      <c r="O16" s="18">
         <v>5199.62</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16" s="18">
         <v>5533.11</v>
       </c>
-      <c r="O16" s="14">
+      <c r="Q16" s="18">
         <f>AVERAGE(12214.44,11244.59,12231.11)</f>
         <v>11896.713333333333</v>
       </c>
-      <c r="P16" s="14">
+      <c r="R16" s="18">
         <f>AVERAGE(16585.26,15072.95,16028.16)</f>
         <v>15895.456666666665</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="S16" s="18">
         <f>AVERAGE(22922.75,19946.71,21479.03)</f>
         <v>21449.496666666666</v>
       </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="18"/>
+      <c r="U16" s="17">
+        <v>5812</v>
+      </c>
+      <c r="V16" s="17">
+        <v>5812</v>
+      </c>
+      <c r="X16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U16" s="1">
+      <c r="Y16" s="1">
         <v>143</v>
       </c>
-      <c r="V16" s="1">
+      <c r="Z16" s="18">
         <v>1745</v>
       </c>
-      <c r="W16" s="1">
+      <c r="AA16" s="18">
         <v>1764.02</v>
       </c>
-      <c r="X16" s="17">
+      <c r="AB16" s="18">
         <f>AVERAGE(4825.39,4941.65,5123.81)</f>
         <v>4963.6166666666677</v>
       </c>
-      <c r="Y16" s="14">
+      <c r="AC16" s="18">
         <f>AVERAGE(6845.89,7462.35,7073.22)</f>
         <v>7127.1533333333346</v>
       </c>
-      <c r="Z16" s="14">
+      <c r="AD16" s="18">
         <f>AVERAGE(10248.79)</f>
         <v>10248.790000000001</v>
       </c>
-      <c r="AA16" s="1"/>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -2095,218 +2294,254 @@
       <c r="I17" s="3">
         <v>76.72</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="1" t="s">
+      <c r="J17" s="3">
+        <v>82</v>
+      </c>
+      <c r="K17" s="31">
+        <v>82</v>
+      </c>
+      <c r="M17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="1">
+      <c r="N17" s="18">
         <v>50</v>
       </c>
-      <c r="M17" s="1">
+      <c r="O17" s="18">
         <v>6907.12</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17" s="18">
         <v>8397.4500000000007</v>
       </c>
-      <c r="O17" s="14">
+      <c r="Q17" s="18">
         <f>AVERAGE(15900.56,15542.01,15610.06)</f>
         <v>15684.21</v>
       </c>
-      <c r="P17" s="14">
+      <c r="R17" s="18">
         <f>AVERAGE(20360.53,20407.07,21616.14)</f>
         <v>20794.579999999998</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="S17" s="18">
         <f>AVERAGE(29350.75,30485.02,31815.19)</f>
         <v>30550.320000000003</v>
       </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="18"/>
+      <c r="U17" s="17">
+        <v>6368</v>
+      </c>
+      <c r="V17" s="17">
+        <v>6100</v>
+      </c>
+      <c r="X17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="U17" s="1">
+      <c r="Y17" s="1">
         <v>195</v>
       </c>
-      <c r="V17" s="1">
+      <c r="Z17" s="18">
         <v>2382.5</v>
       </c>
-      <c r="W17" s="1">
+      <c r="AA17" s="18">
         <v>2466.0500000000002</v>
       </c>
-      <c r="X17" s="14">
+      <c r="AB17" s="18">
         <f>AVERAGE(7666.21,7493.21,8008.9)</f>
         <v>7722.7733333333335</v>
       </c>
-      <c r="Y17" s="14">
+      <c r="AC17" s="18">
         <f>AVERAGE(10539.71,10735.2,10997.27)</f>
         <v>10757.393333333333</v>
       </c>
-      <c r="Z17" s="14">
+      <c r="AD17" s="18">
         <f>AVERAGE(16118.68)</f>
         <v>16118.68</v>
       </c>
-      <c r="AA17" s="1"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="18">
         <v>19</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="18">
         <v>97.38</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="18">
         <v>99.45</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="18">
         <f xml:space="preserve"> AVERAGE(154.43,150.12,136.69)</f>
         <v>147.08000000000001</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="18">
         <f xml:space="preserve"> AVERAGE(210.28,192.92,168.17)</f>
         <v>190.45666666666668</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="18">
         <f xml:space="preserve"> AVERAGE(257.09,234.8,233.35)</f>
         <v>241.74666666666667</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="1" t="s">
+      <c r="I18" s="18"/>
+      <c r="J18" s="18">
+        <v>102</v>
+      </c>
+      <c r="K18" s="17">
+        <v>102</v>
+      </c>
+      <c r="M18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="1">
+      <c r="N18" s="18">
         <v>25</v>
       </c>
-      <c r="M18" s="1">
+      <c r="O18" s="18">
         <v>4346.5200000000004</v>
       </c>
-      <c r="N18" s="1">
+      <c r="P18" s="18">
         <v>6123.26</v>
       </c>
-      <c r="O18" s="14">
+      <c r="Q18" s="18">
         <f>AVERAGE(7644.11,8352.1,7110.64)</f>
         <v>7702.2833333333328</v>
       </c>
-      <c r="P18" s="14">
+      <c r="R18" s="18">
         <f>AVERAGE(10280.44,9790.16,10174.13)</f>
         <v>10081.576666666666</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="S18" s="18">
         <f>AVERAGE(16162.87,14166.38,13364.58)</f>
         <v>14564.61</v>
       </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="1" t="s">
+      <c r="T18" s="18"/>
+      <c r="U18" s="17">
+        <v>4964</v>
+      </c>
+      <c r="V18" s="17">
+        <v>4967</v>
+      </c>
+      <c r="X18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U18" s="1">
+      <c r="Y18" s="1">
         <v>43</v>
       </c>
-      <c r="V18" s="1">
+      <c r="Z18" s="18">
         <v>5028</v>
       </c>
-      <c r="W18" s="1">
+      <c r="AA18" s="18">
         <v>5478</v>
       </c>
-      <c r="X18" s="14">
+      <c r="AB18" s="18">
         <f>AVERAGE(5942,6221,6355)</f>
         <v>6172.666666666667</v>
       </c>
-      <c r="Y18" s="14">
+      <c r="AC18" s="18">
         <f>AVERAGE(6262,7161,6712)</f>
         <v>6711.666666666667</v>
       </c>
-      <c r="Z18" s="14">
+      <c r="AD18" s="18">
         <f>AVERAGE(7764,7898,7576)</f>
         <v>7746</v>
       </c>
-      <c r="AA18" s="1"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="18">
         <v>25</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="18">
         <v>150.96</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="18">
         <v>132.75</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="18">
         <f xml:space="preserve"> AVERAGE(151.73,211.47,242.02)</f>
         <v>201.74</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="18">
         <f xml:space="preserve"> AVERAGE(231.68,189.76,204.44)</f>
         <v>208.62666666666667</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="18">
         <f xml:space="preserve"> AVERAGE(329.18,321.93,302.8)</f>
         <v>317.97000000000003</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="1" t="s">
+      <c r="I19" s="18"/>
+      <c r="J19" s="18">
+        <v>107</v>
+      </c>
+      <c r="K19" s="17">
+        <v>107</v>
+      </c>
+      <c r="M19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="1">
+      <c r="N19" s="18">
         <v>25</v>
       </c>
-      <c r="M19" s="1">
+      <c r="O19" s="18">
         <v>5246.28</v>
       </c>
-      <c r="N19" s="1">
+      <c r="P19" s="18">
         <v>5246.28</v>
       </c>
-      <c r="O19" s="14">
+      <c r="Q19" s="18">
         <f>AVERAGE(7915.81,9560.27,9212.85)</f>
         <v>8896.31</v>
       </c>
-      <c r="P19" s="14">
+      <c r="R19" s="18">
         <f>AVERAGE(8891.67,10877.16,9352.88)</f>
         <v>9707.2366666666658</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="S19" s="18">
         <f>AVERAGE(14030.91,15308.79,13097.6)</f>
         <v>14145.766666666668</v>
       </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="18"/>
+      <c r="U19" s="17">
+        <v>4762</v>
+      </c>
+      <c r="V19" s="17">
+        <v>4762</v>
+      </c>
+      <c r="X19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="U19" s="1">
+      <c r="Y19" s="1">
         <v>133</v>
       </c>
-      <c r="V19" s="1">
+      <c r="Z19" s="18">
         <v>12360</v>
       </c>
-      <c r="W19" s="1">
+      <c r="AA19" s="18">
         <v>12196</v>
       </c>
-      <c r="X19" s="14">
+      <c r="AB19" s="18">
         <f>AVERAGE(16179,15753,15546)</f>
         <v>15826</v>
       </c>
-      <c r="Y19" s="14">
+      <c r="AC19" s="18">
         <f>AVERAGE(18106,17964,18328)</f>
         <v>18132.666666666668</v>
       </c>
-      <c r="Z19" s="14">
+      <c r="AD19" s="18">
         <f>AVERAGE(21295,22108,21131)</f>
         <v>21511.333333333332</v>
       </c>
-      <c r="AA19" s="1"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
@@ -2319,7 +2554,7 @@
       <c r="E20" s="3">
         <v>147</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="14">
         <v>147</v>
       </c>
       <c r="G20" s="3">
@@ -2333,139 +2568,167 @@
       <c r="I20" s="3">
         <v>145</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="1" t="s">
+      <c r="J20" s="3">
+        <v>243</v>
+      </c>
+      <c r="K20" s="31">
+        <v>243</v>
+      </c>
+      <c r="M20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L20" s="1">
+      <c r="N20" s="18">
         <v>25</v>
       </c>
-      <c r="M20" s="1">
+      <c r="O20" s="18">
         <v>4123.3500000000004</v>
       </c>
-      <c r="N20" s="1">
+      <c r="P20" s="18">
         <v>3842.76</v>
       </c>
-      <c r="O20" s="14">
+      <c r="Q20" s="18">
         <f>AVERAGE(8471.76,7370.09,6547.6)</f>
         <v>7463.1500000000005</v>
       </c>
-      <c r="P20" s="14">
+      <c r="R20" s="18">
         <f>AVERAGE(10926.41,9270.4,9458.38)</f>
         <v>9885.0633333333317</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="S20" s="18">
         <f>AVERAGE(16450.56,14608.83,13150.71)</f>
         <v>14736.699999999999</v>
       </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="18"/>
+      <c r="U20" s="17">
+        <v>3905</v>
+      </c>
+      <c r="V20" s="17">
+        <v>3905</v>
+      </c>
+      <c r="X20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U20" s="1">
+      <c r="Y20" s="1">
         <v>258</v>
       </c>
-      <c r="V20" s="1">
+      <c r="Z20" s="18">
         <v>22289</v>
       </c>
-      <c r="W20" s="1">
+      <c r="AA20" s="18">
         <v>22414</v>
       </c>
-      <c r="X20" s="14">
+      <c r="AB20" s="18">
         <f>AVERAGE(37635,36780,38408)</f>
         <v>37607.666666666664</v>
       </c>
-      <c r="Y20" s="14">
+      <c r="AC20" s="18">
         <f>AVERAGE(40435)</f>
         <v>40435</v>
       </c>
-      <c r="Z20" s="14">
+      <c r="AD20" s="18">
         <f>AVERAGE(44192)</f>
         <v>44192</v>
       </c>
-      <c r="AA20" s="1"/>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="18">
         <v>65</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="18">
         <v>562.04</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="18">
         <v>666.2</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="18">
         <f xml:space="preserve"> AVERAGE(1394.04,1547.92,1338.26)</f>
         <v>1426.74</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="18">
         <f xml:space="preserve"> AVERAGE(1740.18,1747.66,1836.41)</f>
         <v>1774.75</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="18">
         <f xml:space="preserve"> AVERAGE(2369.16,2484.33,2674.2)</f>
         <v>2509.23</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="1" t="s">
+      <c r="I21" s="18"/>
+      <c r="J21" s="18">
+        <v>540</v>
+      </c>
+      <c r="K21" s="17">
+        <v>540</v>
+      </c>
+      <c r="M21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="1">
+      <c r="N21" s="18">
         <v>26</v>
       </c>
-      <c r="M21" s="1">
+      <c r="O21" s="18">
         <v>2149.8200000000002</v>
       </c>
-      <c r="N21" s="1">
+      <c r="P21" s="18">
         <v>2067.87</v>
       </c>
-      <c r="O21" s="14">
+      <c r="Q21" s="18">
         <f>AVERAGE(3890.65,4784.86,4636.22)</f>
         <v>4437.2433333333329</v>
       </c>
-      <c r="P21" s="14">
+      <c r="R21" s="18">
         <f>AVERAGE(6322.12,5842.62,6388.32)</f>
         <v>6184.3533333333326</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="S21" s="18">
         <f>AVERAGE(9008.72,9224.55,9411.86)</f>
         <v>9215.0433333333331</v>
       </c>
-      <c r="R21" s="1"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="13" t="s">
+      <c r="T21" s="18"/>
+      <c r="U21" s="17">
+        <v>2606</v>
+      </c>
+      <c r="V21" s="17">
+        <v>2606</v>
+      </c>
+      <c r="X21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="U21" s="13">
+      <c r="Y21" s="12">
         <v>17</v>
       </c>
-      <c r="V21" s="13">
+      <c r="Z21" s="12">
         <v>130.04</v>
       </c>
-      <c r="W21" s="13">
+      <c r="AA21" s="12">
         <v>128.07</v>
       </c>
-      <c r="X21" s="14">
+      <c r="AB21" s="18">
         <f>AVERAGE(182.12,212.39,172.41)</f>
         <v>188.97333333333333</v>
       </c>
-      <c r="Y21" s="14">
+      <c r="AC21" s="18">
         <f>AVERAGE(261,245.52,226.95)</f>
         <v>244.49</v>
       </c>
-      <c r="Z21" s="14">
+      <c r="AD21" s="18">
         <f>AVERAGE(331.15,316.08,337.74)</f>
         <v>328.32333333333332</v>
       </c>
-      <c r="AA21" s="13"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="17">
+        <v>120</v>
+      </c>
+      <c r="AG21" s="17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2478,7 +2741,7 @@
       <c r="E22" s="3">
         <v>154</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="14">
         <v>174</v>
       </c>
       <c r="G22" s="3">
@@ -2492,60 +2755,76 @@
       <c r="I22" s="3">
         <v>143</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="1" t="s">
+      <c r="J22" s="3">
+        <v>234</v>
+      </c>
+      <c r="K22" s="31">
+        <v>234</v>
+      </c>
+      <c r="M22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L22" s="1">
+      <c r="N22" s="18">
         <v>79</v>
       </c>
-      <c r="M22" s="1">
+      <c r="O22" s="18">
         <v>9156.66</v>
       </c>
-      <c r="N22" s="1">
+      <c r="P22" s="18">
         <v>9230.75</v>
       </c>
-      <c r="O22" s="14">
+      <c r="Q22" s="18">
         <f>AVERAGE(25401.97,25448.92,26352.32)</f>
         <v>25734.403333333332</v>
       </c>
-      <c r="P22" s="14">
+      <c r="R22" s="18">
         <f>AVERAGE(39256.55,36669.92,41416.82)</f>
         <v>39114.43</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="S22" s="18">
         <f>AVERAGE(53807.48,58556.73,54436.29)</f>
         <v>55600.166666666664</v>
       </c>
-      <c r="R22" s="1"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="1" t="s">
+      <c r="T22" s="18"/>
+      <c r="U22" s="17">
+        <v>8901</v>
+      </c>
+      <c r="V22" s="17">
+        <v>8901</v>
+      </c>
+      <c r="X22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="U22" s="1">
+      <c r="Y22" s="1">
         <v>10</v>
       </c>
-      <c r="V22" s="1">
+      <c r="Z22" s="18">
         <v>146</v>
       </c>
-      <c r="W22" s="1">
+      <c r="AA22" s="18">
         <v>146</v>
       </c>
-      <c r="X22" s="14">
+      <c r="AB22" s="18">
         <f>AVERAGE(185,182,195)</f>
         <v>187.33333333333334</v>
       </c>
-      <c r="Y22" s="14">
+      <c r="AC22" s="18">
         <f>AVERAGE(252,246,272)</f>
         <v>256.66666666666669</v>
       </c>
-      <c r="Z22" s="14">
+      <c r="AD22" s="18">
         <f>AVERAGE(326,416,290)</f>
         <v>344</v>
       </c>
-      <c r="AA22" s="1"/>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="17">
+        <v>192</v>
+      </c>
+      <c r="AG22" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -2558,7 +2837,7 @@
       <c r="E23" s="3">
         <v>248</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="14">
         <v>258</v>
       </c>
       <c r="G23" s="3">
@@ -2572,60 +2851,68 @@
       <c r="I23" s="3">
         <v>181</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="1" t="s">
+      <c r="J23" s="3">
+        <v>324</v>
+      </c>
+      <c r="K23" s="31">
+        <v>324</v>
+      </c>
+      <c r="M23" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="1">
+      <c r="N23" s="18">
         <v>344</v>
       </c>
-      <c r="M23" s="1">
+      <c r="O23" s="18">
         <v>13388.78</v>
       </c>
-      <c r="N23" s="1">
+      <c r="P23" s="18">
         <v>13074.68</v>
       </c>
-      <c r="O23" s="14">
+      <c r="Q23" s="18">
         <f>AVERAGE(59275.29,58450.29,59315.09)</f>
         <v>59013.556666666664</v>
       </c>
-      <c r="P23" s="14">
+      <c r="R23" s="18">
         <f>AVERAGE(85535.08,84406.33,83926.87)</f>
         <v>84622.76</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="S23" s="18">
         <f>AVERAGE(126181.16)</f>
         <v>126181.16</v>
       </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="18"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="X23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="U23" s="1">
+      <c r="Y23" s="1">
         <v>56</v>
       </c>
-      <c r="V23" s="1">
+      <c r="Z23" s="18">
         <v>27500</v>
       </c>
-      <c r="W23" s="1">
+      <c r="AA23" s="18">
         <v>27500</v>
       </c>
-      <c r="X23" s="14">
+      <c r="AB23" s="18">
         <f>AVERAGE(85382.67,73888.73,78761.91)</f>
         <v>79344.436666666661</v>
       </c>
-      <c r="Y23" s="14">
+      <c r="AC23" s="18">
         <f>AVERAGE(112768.26,121830.06,103849.9)</f>
         <v>112816.07333333332</v>
       </c>
-      <c r="Z23" s="14">
+      <c r="AD23" s="18">
         <f>AVERAGE(158513.07,160145.27,154202.11)</f>
         <v>157620.15</v>
       </c>
-      <c r="AA23" s="1"/>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
@@ -2638,7 +2925,7 @@
       <c r="E24" s="3">
         <v>162</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="14">
         <v>162</v>
       </c>
       <c r="G24" s="3">
@@ -2652,249 +2939,265 @@
       <c r="I24" s="3">
         <v>162</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="7" t="s">
+      <c r="J24" s="3">
+        <v>264</v>
+      </c>
+      <c r="K24" s="31">
+        <v>264</v>
+      </c>
+      <c r="L24" s="30"/>
+      <c r="M24" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="L24" s="7">
+      <c r="N24" s="18">
         <v>140</v>
       </c>
-      <c r="M24" s="7">
+      <c r="O24" s="18">
         <v>728</v>
       </c>
-      <c r="N24" s="7">
+      <c r="P24" s="18">
         <v>566</v>
       </c>
-      <c r="O24" s="14">
+      <c r="Q24" s="18">
         <f>AVERAGE(1781,1645,2083)</f>
         <v>1836.3333333333333</v>
       </c>
-      <c r="P24" s="14">
+      <c r="R24" s="18">
         <f>AVERAGE(2433,2270,2358)</f>
         <v>2353.6666666666665</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="S24" s="18">
         <f>AVERAGE(3482)</f>
         <v>3482</v>
       </c>
-      <c r="R24" s="7"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="18"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="X24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="U24" s="1">
+      <c r="Y24" s="1">
         <v>56</v>
       </c>
-      <c r="V24" s="1">
+      <c r="Z24" s="18">
         <v>1036.02</v>
       </c>
-      <c r="W24" s="1">
+      <c r="AA24" s="18">
         <v>1056.72</v>
       </c>
-      <c r="X24" s="14">
+      <c r="AB24" s="18">
         <f>AVERAGE(1900.37,1955.94,1523.17)</f>
         <v>1793.1599999999999</v>
       </c>
-      <c r="Y24" s="14">
+      <c r="AC24" s="18">
         <f>AVERAGE(2339.51,2442.57,2648.4)</f>
         <v>2476.8266666666664</v>
       </c>
-      <c r="Z24" s="14">
+      <c r="AD24" s="18">
         <f>AVERAGE(3743.26,3441.56,3992.71)</f>
         <v>3725.8433333333328</v>
       </c>
-      <c r="AA24" s="1"/>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="J25" s="2"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="3" t="s">
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="X25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="U25" s="3">
+      <c r="Y25" s="3">
         <v>4</v>
       </c>
-      <c r="V25" s="3">
+      <c r="Z25" s="3">
         <v>826.08</v>
       </c>
-      <c r="W25" s="3">
+      <c r="AA25" s="3">
         <v>751.06</v>
       </c>
-      <c r="X25" s="15">
+      <c r="AB25" s="14">
         <v>826.08</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="AC25" s="3">
         <f>AVERAGE(826.29,826.29,1004.13)</f>
         <v>885.57</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="AD25" s="3">
         <f>AVERAGE(1119.4,874.94,751.06)</f>
         <v>915.13333333333333</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AE25" s="3">
         <v>714.33</v>
       </c>
-    </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B26" s="25" t="s">
+      <c r="AF25" s="31">
+        <v>935</v>
+      </c>
+      <c r="AG25" s="31">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B26" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="10" t="s">
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U26" s="10">
+      <c r="Y26" s="9">
         <v>5</v>
       </c>
-      <c r="V26" s="10">
+      <c r="Z26" s="3">
         <v>456.58</v>
       </c>
-      <c r="W26" s="10">
+      <c r="AA26" s="3">
         <v>456.58</v>
       </c>
-      <c r="X26" s="15">
+      <c r="AB26" s="14">
         <v>456.58</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AC26" s="3">
         <f>AVERAGE(776.37,870.7,559.22)</f>
         <v>735.43</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AD26" s="3">
         <f>AVERAGE(1273.79,860.7,956.16)</f>
         <v>1030.2166666666665</v>
       </c>
-      <c r="AA26" s="10">
+      <c r="AE26" s="3">
         <v>662.17</v>
       </c>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B27" s="26" t="s">
+      <c r="AF26" s="31">
+        <v>747</v>
+      </c>
+      <c r="AG26" s="31">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B27" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
       <c r="S27" s="2"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-    </row>
-    <row r="29" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E28"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="B29:E33"/>
@@ -2906,6 +3209,8 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2914,10 +3219,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA38"/>
+  <dimension ref="B1:AG38"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,59 +3231,69 @@
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" customWidth="1"/>
+    <col min="16" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.7109375" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="O1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="22"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="Z1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-    </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="22"/>
+    </row>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2992,69 +3307,85 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>100</v>
+        <v>91</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Y2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Z2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AA2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE2" s="18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AF2" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3071,69 +3402,85 @@
         <f>AVERAGE(3647.07,3269.08,3255.4)</f>
         <v>3390.5166666666664</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <f>AVERAGE(4871.84,4760.1,4823.42)</f>
         <v>4818.4533333333338</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <f>AVERAGE(7003.18,6708.75,7070.15)</f>
         <v>6927.3600000000006</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="18">
+        <v>1314</v>
+      </c>
+      <c r="K3" s="17">
+        <v>1358</v>
+      </c>
+      <c r="M3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="1">
+      <c r="N3" s="18">
         <v>24</v>
       </c>
-      <c r="M3" s="1">
+      <c r="O3" s="18">
         <v>2139</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="18">
         <v>1691</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="18">
         <f>AVERAGE(2847,2862,2525)</f>
         <v>2744.6666666666665</v>
       </c>
-      <c r="P3" s="14">
+      <c r="R3" s="18">
         <f>AVERAGE(2877,3021,3207)</f>
         <v>3035</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="S3" s="18">
         <f>AVERAGE(4796,4876,8514)</f>
         <v>6062</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18">
+        <v>1819</v>
+      </c>
+      <c r="V3" s="17">
+        <v>1819</v>
+      </c>
+      <c r="X3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="1">
+      <c r="Y3" s="18">
         <v>38</v>
       </c>
-      <c r="V3" s="1">
+      <c r="Z3" s="18">
         <v>42676.77</v>
       </c>
-      <c r="W3" s="1">
+      <c r="AA3" s="18">
         <v>44191.56</v>
       </c>
-      <c r="X3" s="1">
+      <c r="AB3" s="18">
         <f>AVERAGE(67671.02,71552.62,67721.63)</f>
         <v>68981.756666666668</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="AC3" s="18">
         <f>AVERAGE(94649.81,88157.51,90167.11)</f>
         <v>90991.476666666669</v>
       </c>
-      <c r="Z3" s="14">
+      <c r="AD3" s="18">
         <f>AVERAGE(115393.42,111909.71,108736.61)</f>
         <v>112013.24666666666</v>
       </c>
-      <c r="AA3" s="1"/>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="17">
+        <v>41248</v>
+      </c>
+      <c r="AG3" s="17">
+        <v>42638</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3142,73 +3489,85 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <f t="shared" ref="F4" si="0">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <f t="shared" ref="G4:H4" si="1">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1" t="s">
+      <c r="J4" s="18"/>
+      <c r="K4" s="17"/>
+      <c r="M4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N4" s="18">
         <v>48</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="18">
         <v>22073.5</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="18">
         <v>23897.19</v>
       </c>
-      <c r="O4" s="14">
+      <c r="Q4" s="18">
         <f>AVERAGE(43002.43,42126.39,45047.13)</f>
         <v>43391.983333333337</v>
       </c>
-      <c r="P4" s="14">
+      <c r="R4" s="18">
         <f>AVERAGE(56604.77,59612.96,61636.42)</f>
         <v>59284.716666666667</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="S4" s="18">
         <f>AVERAGE(81017.35,79446.65,88081.2)</f>
         <v>82848.400000000009</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="18"/>
+      <c r="U4" s="18">
+        <v>20688</v>
+      </c>
+      <c r="V4" s="17">
+        <v>19876</v>
+      </c>
+      <c r="X4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="U4" s="1">
+      <c r="Y4" s="18">
         <v>52</v>
       </c>
-      <c r="V4" s="1">
+      <c r="Z4" s="18">
         <v>17103.07</v>
       </c>
-      <c r="W4" s="1">
+      <c r="AA4" s="18">
         <v>15595.35</v>
       </c>
-      <c r="X4" s="14">
+      <c r="AB4" s="18">
         <f>AVERAGE(43965.63,41638.47,55019.8)</f>
         <v>46874.633333333339</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="AC4" s="18">
         <f>AVERAGE(67679.21,73086.24,61048.1)</f>
         <v>67271.183333333334</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="AD4" s="18">
         <f>AVERAGE(8707.29,86044.23,86981.12)</f>
         <v>60577.546666666662</v>
       </c>
-      <c r="AA4" s="1"/>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="17">
+        <v>18028</v>
+      </c>
+      <c r="AG4" s="17">
+        <v>18028</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3236,60 +3595,68 @@
       <c r="I5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="31"/>
+      <c r="M5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="1">
+      <c r="N5" s="18">
         <v>60</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="18">
         <v>3174</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="18">
         <v>3062</v>
       </c>
-      <c r="O5" s="14">
+      <c r="Q5" s="18">
         <f>AVERAGE(5034,5155,5513)</f>
         <v>5234</v>
       </c>
-      <c r="P5" s="14">
+      <c r="R5" s="18">
         <f>AVERAGE(6747,6436,7004)</f>
         <v>6729</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="S5" s="18">
         <f>AVERAGE(9514,9995,10627)</f>
         <v>10045.333333333334</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="17"/>
+      <c r="X5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="1">
+      <c r="Y5" s="18">
         <v>62</v>
       </c>
-      <c r="V5" s="1">
+      <c r="Z5" s="18">
         <v>26214.19</v>
       </c>
-      <c r="W5" s="1">
+      <c r="AA5" s="18">
         <v>22543.29</v>
       </c>
-      <c r="X5" s="14">
+      <c r="AB5" s="18">
         <f>AVERAGE(57354.29,64630.46,70897.19)</f>
         <v>64293.98</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="AC5" s="18">
         <f>AVERAGE(81871.21,77591.71,67122.83)</f>
         <v>75528.583333333328</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="AD5" s="18">
         <f>AVERAGE(137258.53,132466.16,118834.53)</f>
         <v>129519.73999999999</v>
       </c>
-      <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="17">
+        <v>22998</v>
+      </c>
+      <c r="AG5" s="17">
+        <v>22998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3302,69 +3669,81 @@
       <c r="E6" s="1">
         <v>10405</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <f>AVERAGE(36633,36410,36332)</f>
         <v>36458.333333333336</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <f>AVERAGE(59476,55583,52888)</f>
         <v>55982.333333333336</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <f>AVERAGE(86605,88268,85729)</f>
         <v>86867.333333333328</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1" t="s">
+      <c r="J6" s="18"/>
+      <c r="K6" s="17"/>
+      <c r="M6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="18">
         <v>68</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="14">
-        <f t="shared" ref="O6:O10" si="2">AVERAGE(1)</f>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18">
+        <f t="shared" ref="Q6:Q10" si="2">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="P6" s="14">
-        <f t="shared" ref="P6:Q10" si="3">AVERAGE(1)</f>
+      <c r="R6" s="18">
+        <f t="shared" ref="R6:S10" si="3">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="S6" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="18"/>
+      <c r="U6" s="18">
+        <v>29363</v>
+      </c>
+      <c r="V6" s="17">
+        <v>31784</v>
+      </c>
+      <c r="X6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="1">
+      <c r="Y6" s="18">
         <v>68</v>
       </c>
-      <c r="V6" s="1">
+      <c r="Z6" s="18">
         <v>53346.76</v>
       </c>
-      <c r="W6" s="1">
+      <c r="AA6" s="18">
         <v>51047.96</v>
       </c>
-      <c r="X6" s="14">
+      <c r="AB6" s="18">
         <f>AVERAGE(94718.25,98201.9,84465.24)</f>
         <v>92461.796666666676</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="AC6" s="18">
         <f>AVERAGE(122250.16,119394.38,127078.23)</f>
         <v>122907.59000000001</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="AD6" s="18">
         <f>AVERAGE(148276.98,173293.49,169617.71)</f>
         <v>163729.39333333331</v>
       </c>
-      <c r="AA6" s="1"/>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="17">
+        <v>46890</v>
+      </c>
+      <c r="AG6" s="17">
+        <v>46909</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -3377,7 +3756,7 @@
       <c r="E7" s="3">
         <v>581</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>581</v>
       </c>
       <c r="G7" s="3">
@@ -3391,56 +3770,72 @@
       <c r="I7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="1" t="s">
+      <c r="J7" s="3">
+        <v>626</v>
+      </c>
+      <c r="K7" s="31">
+        <v>626</v>
+      </c>
+      <c r="M7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="18">
         <v>101</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="14">
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P7" s="14">
+      <c r="R7" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="S7" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="18"/>
+      <c r="U7" s="18">
+        <v>14181</v>
+      </c>
+      <c r="V7" s="17">
+        <v>14181</v>
+      </c>
+      <c r="X7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="1">
+      <c r="Y7" s="18">
         <v>72</v>
       </c>
-      <c r="V7" s="1">
+      <c r="Z7" s="18">
         <v>26457.22</v>
       </c>
-      <c r="W7" s="1">
+      <c r="AA7" s="18">
         <v>28471</v>
       </c>
-      <c r="X7" s="14">
+      <c r="AB7" s="18">
         <f>AVERAGE(62535.57,67602.32,64349.75)</f>
         <v>64829.21333333334</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="AC7" s="18">
         <f>AVERAGE(102228.3,110315.73,100851.64)</f>
         <v>104465.22333333333</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="AD7" s="18">
         <f>AVERAGE(173980.05,168318.31,169090.17)</f>
         <v>170462.84333333335</v>
       </c>
-      <c r="AA7" s="1"/>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="17">
+        <v>28402</v>
+      </c>
+      <c r="AG7" s="17">
+        <v>28059</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -3453,7 +3848,7 @@
       <c r="E8" s="3">
         <v>818</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>816</v>
       </c>
       <c r="G8" s="3">
@@ -3467,56 +3862,72 @@
       <c r="I8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="1" t="s">
+      <c r="J8" s="3">
+        <v>733</v>
+      </c>
+      <c r="K8" s="31">
+        <v>733</v>
+      </c>
+      <c r="M8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="1">
+      <c r="N8" s="18">
         <v>114</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="14">
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P8" s="14">
+      <c r="R8" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="S8" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="18"/>
+      <c r="U8" s="18">
+        <v>41005</v>
+      </c>
+      <c r="V8" s="17">
+        <v>41005</v>
+      </c>
+      <c r="X8" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="U8" s="1">
+      <c r="Y8" s="18">
         <v>76</v>
       </c>
-      <c r="V8" s="1">
+      <c r="Z8" s="18">
         <v>35032.6</v>
       </c>
-      <c r="W8" s="1">
+      <c r="AA8" s="18">
         <v>35705.47</v>
       </c>
-      <c r="X8" s="14">
+      <c r="AB8" s="18">
         <f>AVERAGE(92260.55,75101.11,80997.32)</f>
         <v>82786.326666666675</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="AC8" s="18">
         <f>AVERAGE(118521.41,107632.89,119739.37)</f>
         <v>115297.89</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="AD8" s="18">
         <f>AVERAGE(200109.29,183817.21,179421.67)</f>
         <v>187782.72333333336</v>
       </c>
-      <c r="AA8" s="1"/>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="17">
+        <v>36637</v>
+      </c>
+      <c r="AG8" s="17">
+        <v>38863</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -3544,56 +3955,68 @@
       <c r="I9" s="5">
         <v>3303.71452420693</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="1" t="s">
+      <c r="J9" s="3">
+        <v>1874</v>
+      </c>
+      <c r="K9" s="31">
+        <v>1874</v>
+      </c>
+      <c r="M9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="1">
+      <c r="N9" s="18">
         <v>215</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="14">
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P9" s="14">
+      <c r="R9" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="S9" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="17"/>
+      <c r="X9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="U9" s="1">
+      <c r="Y9" s="18">
         <v>113</v>
       </c>
-      <c r="V9" s="1">
+      <c r="Z9" s="18">
         <v>51597.94</v>
       </c>
-      <c r="W9" s="1">
+      <c r="AA9" s="18">
         <v>53661.61</v>
       </c>
-      <c r="X9" s="14">
+      <c r="AB9" s="18">
         <f>AVERAGE(125277.77,124544.19,117939.53)</f>
         <v>122587.16333333333</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="AC9" s="18">
         <f>AVERAGE(187903.06,202714.89,201206)</f>
         <v>197274.65</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="AD9" s="18">
         <f>AVERAGE(318764.04,308039.97,329299.51)</f>
         <v>318701.17333333334</v>
       </c>
-      <c r="AA9" s="1"/>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="17">
+        <v>38718</v>
+      </c>
+      <c r="AG9" s="17">
+        <v>39597</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -3606,69 +4029,77 @@
       <c r="E10" s="1">
         <v>30074.639999999999</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <f>AVERAGE(56780.47,53043,50702.91)</f>
         <v>53508.793333333335</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <f>AVERAGE(79613.02,78420.73,88103.95)</f>
         <v>82045.900000000009</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <f>AVERAGE(110312.62,112767.63,104428.25)</f>
         <v>109169.5</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="1" t="s">
+      <c r="J10" s="18">
+        <v>26062</v>
+      </c>
+      <c r="K10" s="17">
+        <v>26107</v>
+      </c>
+      <c r="M10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="1">
+      <c r="N10" s="18">
         <v>333</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="14">
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P10" s="14">
+      <c r="R10" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="S10" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="17"/>
+      <c r="X10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="1">
+      <c r="Y10" s="18">
         <v>132</v>
       </c>
-      <c r="V10" s="1">
+      <c r="Z10" s="18">
         <v>23011.19</v>
       </c>
-      <c r="W10" s="1">
+      <c r="AA10" s="18">
         <v>21708.66</v>
       </c>
-      <c r="X10" s="14">
+      <c r="AB10" s="18">
         <f>AVERAGE(97573.93,76410.8,87873.39)</f>
         <v>87286.04</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="AC10" s="18">
         <f>AVERAGE(114065.38,102538.87,120372.14)</f>
         <v>112325.46333333333</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="AD10" s="18">
         <f>AVERAGE(127026.43,152095.31,153062.88)</f>
         <v>144061.54</v>
       </c>
-      <c r="AA10" s="1"/>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -3681,73 +4112,81 @@
       <c r="E11" s="1">
         <v>9828</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <f>AVERAGE(8182,8938,10118)</f>
         <v>9079.3333333333339</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <f>AVERAGE(11522,11450,15779)</f>
         <v>12917</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <f>AVERAGE(18467,18430,19788)</f>
         <v>18895</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="1" t="s">
+      <c r="J11" s="18"/>
+      <c r="K11" s="17"/>
+      <c r="M11" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="L11" s="1">
+      <c r="N11" s="18">
         <v>24</v>
       </c>
-      <c r="M11" s="1">
+      <c r="O11" s="18">
         <v>6476</v>
       </c>
-      <c r="N11" s="1">
+      <c r="P11" s="18">
         <v>5474</v>
       </c>
-      <c r="O11" s="14">
+      <c r="Q11" s="18">
         <f>AVERAGE(8023,4994,8974)</f>
         <v>7330.333333333333</v>
       </c>
-      <c r="P11" s="14">
+      <c r="R11" s="18">
         <f>AVERAGE(9382,6256,8383)</f>
         <v>8007</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="S11" s="18">
         <f>AVERAGE(9244,11326,10599)</f>
         <v>10389.666666666666</v>
       </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="1" t="s">
+      <c r="T11" s="18"/>
+      <c r="U11" s="18">
+        <v>4701</v>
+      </c>
+      <c r="V11" s="17">
+        <v>4701</v>
+      </c>
+      <c r="X11" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U11" s="1">
+      <c r="Y11" s="18">
         <v>149</v>
       </c>
-      <c r="V11" s="1">
+      <c r="Z11" s="18">
         <v>27476.07</v>
       </c>
-      <c r="W11" s="1">
+      <c r="AA11" s="18">
         <v>26159.06</v>
       </c>
-      <c r="X11" s="14">
+      <c r="AB11" s="18">
         <f>AVERAGE(68765.2,64902.05,60570.51)</f>
         <v>64745.920000000006</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="AC11" s="18">
         <f>AVERAGE(92835.42,95277.04,97412.87)</f>
         <v>95175.109999999986</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="AD11" s="18">
         <f>AVERAGE(134003.72,146075.95,135907.26)</f>
         <v>138662.31000000003</v>
       </c>
-      <c r="AA11" s="1"/>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3760,73 +4199,81 @@
       <c r="E12" s="1">
         <v>980</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <f>AVERAGE(119890,130840,141420)</f>
         <v>130716.66666666667</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <f>AVERAGE(118430,142290,136370)</f>
         <v>132363.33333333334</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <f>AVERAGE(203920,208790,187390)</f>
         <v>200033.33333333334</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="1" t="s">
+      <c r="J12" s="18"/>
+      <c r="K12" s="17"/>
+      <c r="M12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="1">
+      <c r="N12" s="18">
         <v>50</v>
       </c>
-      <c r="M12" s="1">
+      <c r="O12" s="18">
         <v>11572.88</v>
       </c>
-      <c r="N12" s="1">
+      <c r="P12" s="18">
         <v>10270.1</v>
       </c>
-      <c r="O12" s="14">
+      <c r="Q12" s="18">
         <f>AVERAGE(18246.01,15636.11,15860.69)</f>
         <v>16580.936666666665</v>
       </c>
-      <c r="P12" s="14">
+      <c r="R12" s="18">
         <f>AVERAGE(26830.68,26540.21,22916.1)</f>
         <v>25428.996666666662</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="S12" s="18">
         <f>AVERAGE(33083.1,33124.75,33580.06)</f>
         <v>33262.636666666665</v>
       </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="18"/>
+      <c r="U12" s="18">
+        <v>9184</v>
+      </c>
+      <c r="V12" s="17">
+        <v>10050</v>
+      </c>
+      <c r="X12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="1">
+      <c r="Y12" s="18">
         <v>219</v>
       </c>
-      <c r="V12" s="1">
+      <c r="Z12" s="18">
         <v>41333.97</v>
       </c>
-      <c r="W12" s="1">
+      <c r="AA12" s="18">
         <v>43929.8</v>
       </c>
-      <c r="X12" s="14">
+      <c r="AB12" s="18">
         <f>AVERAGE(130468.43,132240.97,139718.17)</f>
         <v>134142.52333333335</v>
       </c>
-      <c r="Y12" s="14">
+      <c r="AC12" s="18">
         <f>AVERAGE(188512.53,195437.63,204661.72)</f>
         <v>196203.96</v>
       </c>
-      <c r="Z12" s="14">
+      <c r="AD12" s="18">
         <f>AVERAGE(324205.78,338475.11,321814.62)</f>
         <v>328165.17</v>
       </c>
-      <c r="AA12" s="1"/>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -3839,10 +4286,10 @@
       <c r="E13" s="3">
         <v>1339.12</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>1454.84</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>1454.84</v>
       </c>
       <c r="H13" s="3">
@@ -3852,60 +4299,72 @@
       <c r="I13" s="3">
         <v>966.37</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="1" t="s">
+      <c r="J13" s="3">
+        <v>1272</v>
+      </c>
+      <c r="K13" s="31">
+        <v>1236</v>
+      </c>
+      <c r="M13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="1">
+      <c r="N13" s="18">
         <v>75</v>
       </c>
-      <c r="M13" s="6">
+      <c r="O13" s="18">
         <v>15643.51</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13" s="18">
         <v>50807.89</v>
       </c>
-      <c r="O13" s="14">
+      <c r="Q13" s="18">
         <f>AVERAGE(31530.67,28819.06,27007.27)</f>
         <v>29119</v>
       </c>
-      <c r="P13" s="14">
+      <c r="R13" s="18">
         <f>AVERAGE(38280.9,34510.19,36585.65)</f>
         <v>36458.91333333333</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="S13" s="18">
         <f>AVERAGE(50386.26,49337.28,51054.94)</f>
         <v>50259.493333333339</v>
       </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="18"/>
+      <c r="U13" s="18">
+        <v>11625</v>
+      </c>
+      <c r="V13" s="17">
+        <v>11625</v>
+      </c>
+      <c r="X13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="U13" s="1">
+      <c r="Y13" s="18">
         <v>501</v>
       </c>
-      <c r="V13" s="1">
+      <c r="Z13" s="18">
         <v>133670.14000000001</v>
       </c>
-      <c r="W13" s="1">
+      <c r="AA13" s="18">
         <v>143817.03</v>
       </c>
-      <c r="X13" s="14">
+      <c r="AB13" s="18">
         <f>AVERAGE(611099.29,611721.92,615676.98)</f>
         <v>612832.73</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="AC13" s="18">
         <f>AVERAGE(889049.69)</f>
         <v>889049.69</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="AD13" s="18">
         <f>AVERAGE(1362513.23)</f>
         <v>1362513.23</v>
       </c>
-      <c r="AA13" s="1"/>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
@@ -3918,73 +4377,89 @@
       <c r="E14" s="1">
         <v>2792.21</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <f>AVERAGE(5109.97,5065.25,4645.03)</f>
         <v>4940.083333333333</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <f>AVERAGE(6386.37,7020.45,6917.08)</f>
         <v>6774.6333333333341</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <f>AVERAGE(10196.89,9130.25,10126)</f>
         <v>9817.7133333333331</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="1" t="s">
+      <c r="J14" s="18">
+        <v>2408</v>
+      </c>
+      <c r="K14" s="17">
+        <v>2408</v>
+      </c>
+      <c r="M14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="1">
+      <c r="N14" s="18">
         <v>100</v>
       </c>
-      <c r="M14" s="1">
+      <c r="O14" s="18">
         <v>13623.44</v>
       </c>
-      <c r="N14" s="1">
+      <c r="P14" s="18">
         <v>16093.09</v>
       </c>
-      <c r="O14" s="14">
+      <c r="Q14" s="18">
         <f>AVERAGE(33860.82,35440.32,32829.69)</f>
         <v>34043.61</v>
       </c>
-      <c r="P14" s="14">
+      <c r="R14" s="18">
         <f>AVERAGE(44726.44,50695.11,48151.51)</f>
         <v>47857.686666666668</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="S14" s="18">
         <f>AVERAGE(64930.12,70854.77,68582.01)</f>
         <v>68122.3</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="1" t="s">
+      <c r="T14" s="18"/>
+      <c r="U14" s="18">
+        <v>12753</v>
+      </c>
+      <c r="V14" s="17">
+        <v>12753</v>
+      </c>
+      <c r="X14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="U14" s="1">
+      <c r="Y14" s="18">
         <v>49</v>
       </c>
-      <c r="V14" s="1">
+      <c r="Z14" s="18">
         <v>600.15</v>
       </c>
-      <c r="W14" s="1">
+      <c r="AA14" s="18">
         <v>695.56</v>
       </c>
-      <c r="X14" s="14">
+      <c r="AB14" s="18">
         <f>AVERAGE(915.58,965.96,857.74)</f>
         <v>913.09333333333325</v>
       </c>
-      <c r="Y14" s="14">
+      <c r="AC14" s="18">
         <f>AVERAGE(1259.58,1191.97,1197.49)</f>
         <v>1216.3466666666666</v>
       </c>
-      <c r="Z14" s="14">
+      <c r="AD14" s="18">
         <f>AVERAGE(1705.72,1573.21,1822.44)</f>
         <v>1700.4566666666669</v>
       </c>
-      <c r="AA14" s="1"/>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="17">
+        <v>574</v>
+      </c>
+      <c r="AG14" s="17">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
@@ -3997,73 +4472,89 @@
       <c r="E15" s="1">
         <v>3621.33</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <f>AVERAGE(5931.11,6725.71,6492.31)</f>
         <v>6383.043333333334</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <f>AVERAGE(8509.21,8110.02,8267.59)</f>
         <v>8295.6066666666666</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <f>AVERAGE(11545.91,11573.41,11991.17)</f>
         <v>11703.496666666666</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="1" t="s">
+      <c r="J15" s="18">
+        <v>2761</v>
+      </c>
+      <c r="K15" s="17">
+        <v>2761</v>
+      </c>
+      <c r="M15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="1">
+      <c r="N15" s="18">
         <v>50</v>
       </c>
-      <c r="M15" s="1">
+      <c r="O15" s="18">
         <v>11462.54</v>
       </c>
-      <c r="N15" s="1">
+      <c r="P15" s="18">
         <v>11768</v>
       </c>
-      <c r="O15" s="14">
+      <c r="Q15" s="18">
         <f>AVERAGE(17548.83,18031.67,17132.19)</f>
         <v>17570.896666666667</v>
       </c>
-      <c r="P15" s="14">
+      <c r="R15" s="18">
         <f>AVERAGE(25155.69,23030.8,23820.96)</f>
         <v>24002.483333333334</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="S15" s="18">
         <f>AVERAGE(32066.58,37114.645,31461.15)</f>
         <v>33547.458333333336</v>
       </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="18"/>
+      <c r="U15" s="18">
+        <v>9096</v>
+      </c>
+      <c r="V15" s="17">
+        <v>9096</v>
+      </c>
+      <c r="X15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="U15" s="1">
+      <c r="Y15" s="18">
         <v>97</v>
       </c>
-      <c r="V15" s="1">
+      <c r="Z15" s="18">
         <v>1135.3800000000001</v>
       </c>
-      <c r="W15" s="1">
+      <c r="AA15" s="18">
         <v>1293.71</v>
       </c>
-      <c r="X15" s="14">
+      <c r="AB15" s="18">
         <f>AVERAGE(2172,2292.37,2366.69)</f>
         <v>2277.02</v>
       </c>
-      <c r="Y15" s="14">
+      <c r="AC15" s="18">
         <f>AVERAGE(3267.68,3080.11,3213.25)</f>
         <v>3187.0133333333338</v>
       </c>
-      <c r="Z15" s="14">
+      <c r="AD15" s="18">
         <f>AVERAGE(4335.33,4738.44,4561.91)</f>
         <v>4545.2266666666665</v>
       </c>
-      <c r="AA15" s="1"/>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="17">
+        <v>1140</v>
+      </c>
+      <c r="AG15" s="17">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
@@ -4091,60 +4582,72 @@
       <c r="I16" s="3">
         <v>230</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="1" t="s">
+      <c r="J16" s="3">
+        <v>260</v>
+      </c>
+      <c r="K16" s="31">
+        <v>260</v>
+      </c>
+      <c r="M16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="1">
+      <c r="N16" s="18">
         <v>75</v>
       </c>
-      <c r="M16" s="1">
+      <c r="O16" s="18">
         <v>12323.13</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16" s="18">
         <v>13509.84</v>
       </c>
-      <c r="O16" s="14">
+      <c r="Q16" s="18">
         <f>AVERAGE(25882.97,25132.64,26685.26)</f>
         <v>25900.289999999997</v>
       </c>
-      <c r="P16" s="14">
+      <c r="R16" s="18">
         <f>AVERAGE(33795.5,35005.18,33114.48)</f>
         <v>33971.72</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="S16" s="18">
         <f>AVERAGE(51497.18,51233.59)</f>
         <v>51365.384999999995</v>
       </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="18"/>
+      <c r="U16" s="18">
+        <v>11535</v>
+      </c>
+      <c r="V16" s="17">
+        <v>11535</v>
+      </c>
+      <c r="X16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="U16" s="1">
+      <c r="Y16" s="18">
         <v>287</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="Z16" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="W16" s="1">
+      <c r="AA16" s="18">
         <v>3690.24</v>
       </c>
-      <c r="X16" s="14">
+      <c r="AB16" s="18">
         <f>AVERAGE(11399.38,10366.03,10813.15)</f>
         <v>10859.519999999999</v>
       </c>
-      <c r="Y16" s="14">
+      <c r="AC16" s="18">
         <f>AVERAGE(15369.12,15382.28,15396.45)</f>
         <v>15382.616666666669</v>
       </c>
-      <c r="Z16" s="14">
+      <c r="AD16" s="18">
         <f>AVERAGE(22534.66)</f>
         <v>22534.66</v>
       </c>
-      <c r="AA16" s="1"/>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -4172,60 +4675,72 @@
       <c r="I17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="1" t="s">
+      <c r="J17" s="3">
+        <v>175</v>
+      </c>
+      <c r="K17" s="31">
+        <v>175</v>
+      </c>
+      <c r="M17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="1">
+      <c r="N17" s="18">
         <v>100</v>
       </c>
-      <c r="M17" s="1">
+      <c r="O17" s="18">
         <v>17281.75</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17" s="18">
         <v>17169.62</v>
       </c>
-      <c r="O17" s="14">
+      <c r="Q17" s="18">
         <f>AVERAGE(34360.88,33605.76,33152.24)</f>
         <v>33706.293333333335</v>
       </c>
-      <c r="P17" s="14">
+      <c r="R17" s="18">
         <f>AVERAGE(44214.58,44950.36,45855.11)</f>
         <v>45006.683333333327</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="S17" s="18">
         <f>AVERAGE(64491.16,67046.36,68723.77)</f>
         <v>66753.763333333351</v>
       </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="18"/>
+      <c r="U17" s="18">
+        <v>13080</v>
+      </c>
+      <c r="V17" s="17">
+        <v>13113</v>
+      </c>
+      <c r="X17" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="U17" s="1">
+      <c r="Y17" s="18">
         <v>391</v>
       </c>
-      <c r="V17" s="1">
+      <c r="Z17" s="18">
         <v>4697.63</v>
       </c>
-      <c r="W17" s="1">
+      <c r="AA17" s="18">
         <v>4979.6899999999996</v>
       </c>
-      <c r="X17" s="14">
+      <c r="AB17" s="18">
         <f>AVERAGE(17169.52,18058.97,17036.8)</f>
         <v>17421.763333333336</v>
       </c>
-      <c r="Y17" s="14">
+      <c r="AC17" s="18">
         <f>AVERAGE(24068.68,23466.05,23762.72)</f>
         <v>23765.816666666666</v>
       </c>
-      <c r="Z17" s="14">
+      <c r="AD17" s="18">
         <f>AVERAGE(36080.24)</f>
         <v>36080.239999999998</v>
       </c>
-      <c r="AA17" s="1"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -4238,73 +4753,85 @@
       <c r="E18" s="1">
         <v>240.5</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <f>AVERAGE(347.21,387.79,356.93)</f>
         <v>363.97666666666669</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <f>AVERAGE(491.52,407.7,451.44)</f>
         <v>450.22</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <f>AVERAGE(621.54,535.5,546.48)</f>
         <v>567.84</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="1" t="s">
+      <c r="J18" s="18">
+        <v>216</v>
+      </c>
+      <c r="K18" s="17">
+        <v>219</v>
+      </c>
+      <c r="M18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="1">
+      <c r="N18" s="18">
         <v>50</v>
       </c>
-      <c r="M18" s="1">
+      <c r="O18" s="18">
         <v>9617.35</v>
       </c>
-      <c r="N18" s="1">
+      <c r="P18" s="18">
         <v>12165.37</v>
       </c>
-      <c r="O18" s="14">
+      <c r="Q18" s="18">
         <f>AVERAGE(20744.35,18030.82,16756.05)</f>
         <v>18510.406666666666</v>
       </c>
-      <c r="P18" s="14">
+      <c r="R18" s="18">
         <f>AVERAGE(23815.13,24531.22,24007.45)</f>
         <v>24117.933333333334</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="S18" s="18">
         <f>AVERAGE(34791.69,32516.12,31108.13)</f>
         <v>32805.313333333332</v>
       </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="1" t="s">
+      <c r="T18" s="18"/>
+      <c r="U18" s="18">
+        <v>9457</v>
+      </c>
+      <c r="V18" s="17">
+        <v>9457</v>
+      </c>
+      <c r="X18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="U18" s="1">
+      <c r="Y18" s="18">
         <v>87</v>
       </c>
-      <c r="V18" s="1">
+      <c r="Z18" s="18">
         <v>10581</v>
       </c>
-      <c r="W18" s="1">
+      <c r="AA18" s="18">
         <v>10638</v>
       </c>
-      <c r="X18" s="14">
+      <c r="AB18" s="18">
         <f>AVERAGE(12976,12872,13402)</f>
         <v>13083.333333333334</v>
       </c>
-      <c r="Y18" s="14">
+      <c r="AC18" s="18">
         <f>AVERAGE(14243,14666,)</f>
         <v>9636.3333333333339</v>
       </c>
-      <c r="Z18" s="14">
+      <c r="AD18" s="18">
         <f>AVERAGE(16191,16360,16312)</f>
         <v>16287.666666666666</v>
       </c>
-      <c r="AA18" s="1"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
@@ -4317,73 +4844,85 @@
       <c r="E19" s="1">
         <v>269.56</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <f>AVERAGE(429.85,402.52,396.58)</f>
         <v>409.65000000000003</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <f>AVERAGE(523.79,538.21,528.27)</f>
         <v>530.09</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <f>AVERAGE(749.8,739.32,729.88)</f>
         <v>739.66666666666663</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="1" t="s">
+      <c r="J19" s="18">
+        <v>227</v>
+      </c>
+      <c r="K19" s="17">
+        <v>227</v>
+      </c>
+      <c r="M19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="1">
+      <c r="N19" s="18">
         <v>50</v>
       </c>
-      <c r="M19" s="1">
+      <c r="O19" s="18">
         <v>10720.17</v>
       </c>
-      <c r="N19" s="1">
+      <c r="P19" s="18">
         <v>11235.04</v>
       </c>
-      <c r="O19" s="14">
+      <c r="Q19" s="18">
         <f>AVERAGE(17595.39,18311.99,19771.19)</f>
         <v>18559.523333333334</v>
       </c>
-      <c r="P19" s="14">
+      <c r="R19" s="18">
         <f>AVERAGE(22872.45,23298.59,23919.04)</f>
         <v>23363.360000000001</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="S19" s="18">
         <f>AVERAGE(35360.64,32832.18,34677.44)</f>
         <v>34290.08666666667</v>
       </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="18"/>
+      <c r="U19" s="18">
+        <v>8719</v>
+      </c>
+      <c r="V19" s="17">
+        <v>8719</v>
+      </c>
+      <c r="X19" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="U19" s="1">
+      <c r="Y19" s="18">
         <v>267</v>
       </c>
-      <c r="V19" s="1">
+      <c r="Z19" s="18">
         <v>23690</v>
       </c>
-      <c r="W19" s="1">
+      <c r="AA19" s="18">
         <v>23530</v>
       </c>
-      <c r="X19" s="14">
+      <c r="AB19" s="18">
         <f>AVERAGE(36396,36800,33279)</f>
         <v>35491.666666666664</v>
       </c>
-      <c r="Y19" s="17">
+      <c r="AC19" s="18">
         <f>AVERAGE(42276,39271,43257)</f>
         <v>41601.333333333336</v>
       </c>
-      <c r="Z19" s="14">
+      <c r="AD19" s="18">
         <f>AVERAGE(46149,45242,46637)</f>
         <v>46009.333333333336</v>
       </c>
-      <c r="AA19" s="1"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
@@ -4396,7 +4935,7 @@
       <c r="E20" s="3">
         <v>391</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="14">
         <v>334</v>
       </c>
       <c r="G20" s="3">
@@ -4410,60 +4949,72 @@
       <c r="I20" s="3">
         <v>308</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="1" t="s">
+      <c r="J20" s="3">
+        <v>414</v>
+      </c>
+      <c r="K20" s="31">
+        <v>414</v>
+      </c>
+      <c r="M20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L20" s="1">
+      <c r="N20" s="18">
         <v>50</v>
       </c>
-      <c r="M20" s="1">
+      <c r="O20" s="18">
         <v>10228.68</v>
       </c>
-      <c r="N20" s="1">
+      <c r="P20" s="18">
         <v>10160.41</v>
       </c>
-      <c r="O20" s="14">
+      <c r="Q20" s="18">
         <f>AVERAGE(17133.65,16940.88,17970.63)</f>
         <v>17348.386666666669</v>
       </c>
-      <c r="P20" s="14">
+      <c r="R20" s="18">
         <f>AVERAGE(24512.7,26946.41,24433.85)</f>
         <v>25297.653333333332</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="S20" s="18">
         <f>AVERAGE(31769.07,35334.31,35646.85)</f>
         <v>34250.076666666668</v>
       </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="18"/>
+      <c r="U20" s="18">
+        <v>9102</v>
+      </c>
+      <c r="V20" s="17">
+        <v>9176</v>
+      </c>
+      <c r="X20" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="U20" s="1">
+      <c r="Y20" s="18">
         <v>516</v>
       </c>
-      <c r="V20" s="1">
+      <c r="Z20" s="18">
         <v>46820</v>
       </c>
-      <c r="W20" s="1">
+      <c r="AA20" s="18">
         <v>46810</v>
       </c>
-      <c r="X20" s="14">
+      <c r="AB20" s="18">
         <f>AVERAGE(72588,76165,72797)</f>
         <v>73850</v>
       </c>
-      <c r="Y20" s="14">
+      <c r="AC20" s="18">
         <f>AVERAGE(81396)</f>
         <v>81396</v>
       </c>
-      <c r="Z20" s="14">
+      <c r="AD20" s="18">
         <f>AVERAGE(95245)</f>
         <v>95245</v>
       </c>
-      <c r="AA20" s="1"/>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
@@ -4476,73 +5027,89 @@
       <c r="E21" s="1">
         <v>1397.39</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <f>AVERAGE(3178.66,2821.46,2883.3)</f>
         <v>2961.14</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <f>AVERAGE(4156.47,4188.69,3991.59)</f>
         <v>4112.25</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <f>AVERAGE(5927.63,5968.23,5877.42)</f>
         <v>5924.4266666666663</v>
       </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="1" t="s">
+      <c r="J21" s="18">
+        <v>1042</v>
+      </c>
+      <c r="K21" s="17">
+        <v>1042</v>
+      </c>
+      <c r="M21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="1">
+      <c r="N21" s="18">
         <v>52</v>
       </c>
-      <c r="M21" s="1">
+      <c r="O21" s="18">
         <v>5888.85</v>
       </c>
-      <c r="N21" s="1">
+      <c r="P21" s="18">
         <v>5350.1</v>
       </c>
-      <c r="O21" s="14">
+      <c r="Q21" s="18">
         <f>AVERAGE(9493.61,12161.74,10876.06)</f>
         <v>10843.803333333331</v>
       </c>
-      <c r="P21" s="14">
+      <c r="R21" s="18">
         <f>AVERAGE(16893.86,12402.04,16626.62)</f>
         <v>15307.506666666668</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="S21" s="18">
         <f>AVERAGE(23747.26,22768.53,22012.56)</f>
         <v>22842.783333333329</v>
       </c>
-      <c r="R21" s="1"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="13" t="s">
+      <c r="T21" s="18"/>
+      <c r="U21" s="18">
+        <v>5848</v>
+      </c>
+      <c r="V21" s="17">
+        <v>5954</v>
+      </c>
+      <c r="X21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="U21" s="13">
+      <c r="Y21" s="12">
         <v>35</v>
       </c>
-      <c r="V21" s="13">
+      <c r="Z21" s="12">
         <v>347.28</v>
       </c>
-      <c r="W21" s="13">
+      <c r="AA21" s="12">
         <v>250.24</v>
       </c>
-      <c r="X21" s="14">
+      <c r="AB21" s="18">
         <f>AVERAGE(444.2,462.22,453.49)</f>
         <v>453.30333333333334</v>
       </c>
-      <c r="Y21" s="14">
+      <c r="AC21" s="18">
         <f>AVERAGE(617.86,585.21,529.8)</f>
         <v>577.62333333333333</v>
       </c>
-      <c r="Z21" s="14">
+      <c r="AD21" s="18">
         <f>AVERAGE(720.06,720.15,737.56)</f>
         <v>725.92333333333329</v>
       </c>
-      <c r="AA21" s="13"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="17">
+        <v>260</v>
+      </c>
+      <c r="AG21" s="17">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -4555,7 +5122,7 @@
       <c r="E22" s="3">
         <v>426</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="16">
         <v>380</v>
       </c>
       <c r="G22" s="3">
@@ -4569,60 +5136,76 @@
       <c r="I22" s="3">
         <v>380</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="1" t="s">
+      <c r="J22" s="3">
+        <v>517</v>
+      </c>
+      <c r="K22" s="31">
+        <v>517</v>
+      </c>
+      <c r="M22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L22" s="1">
+      <c r="N22" s="18">
         <v>159</v>
       </c>
-      <c r="M22" s="1">
+      <c r="O22" s="18">
         <v>22878.82</v>
       </c>
-      <c r="N22" s="1">
+      <c r="P22" s="18">
         <v>20965.099999999999</v>
       </c>
-      <c r="O22" s="14">
+      <c r="Q22" s="18">
         <f>AVERAGE(56954.6,54865.21,60437.12)</f>
         <v>57418.976666666662</v>
       </c>
-      <c r="P22" s="14">
+      <c r="R22" s="18">
         <f>AVERAGE(83582.35,85867.47,80577.52)</f>
         <v>83342.44666666667</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="S22" s="18">
         <f>AVERAGE(130864.4,125572.94,129608.16)</f>
         <v>128681.83333333333</v>
       </c>
-      <c r="R22" s="1"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="1" t="s">
+      <c r="T22" s="18"/>
+      <c r="U22" s="18">
+        <v>18600</v>
+      </c>
+      <c r="V22" s="17">
+        <v>19114</v>
+      </c>
+      <c r="X22" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="U22" s="1">
+      <c r="Y22" s="18">
         <v>21</v>
       </c>
-      <c r="V22" s="1">
+      <c r="Z22" s="18">
         <v>441</v>
       </c>
-      <c r="W22" s="1">
+      <c r="AA22" s="18">
         <v>448</v>
       </c>
-      <c r="X22" s="14">
+      <c r="AB22" s="18">
         <f>AVERAGE(616,625,606)</f>
         <v>615.66666666666663</v>
       </c>
-      <c r="Y22" s="14">
+      <c r="AC22" s="18">
         <f>AVERAGE(825,689,715)</f>
         <v>743</v>
       </c>
-      <c r="Z22" s="14">
+      <c r="AD22" s="18">
         <f>AVERAGE(930,1137,1053)</f>
         <v>1040</v>
       </c>
-      <c r="AA22" s="1"/>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="17">
+        <v>458</v>
+      </c>
+      <c r="AG22" s="17">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -4635,7 +5218,7 @@
       <c r="E23" s="3">
         <v>683</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="16">
         <v>1019</v>
       </c>
       <c r="G23" s="3">
@@ -4649,60 +5232,68 @@
       <c r="I23" s="3">
         <v>683</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="1" t="s">
+      <c r="J23" s="3">
+        <v>918</v>
+      </c>
+      <c r="K23" s="31">
+        <v>918</v>
+      </c>
+      <c r="M23" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="1">
+      <c r="N23" s="18">
         <v>689</v>
       </c>
-      <c r="M23" s="1">
+      <c r="O23" s="18">
         <v>28892.080000000002</v>
       </c>
-      <c r="N23" s="1">
+      <c r="P23" s="18">
         <v>28532.55</v>
       </c>
-      <c r="O23" s="14">
+      <c r="Q23" s="18">
         <f>AVERAGE(133425.62,129861.81,136169.48)</f>
         <v>133152.30333333334</v>
       </c>
-      <c r="P23" s="14">
+      <c r="R23" s="18">
         <f>AVERAGE(189141.98,195861.74,1944909.08)</f>
         <v>776637.6</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="S23" s="18">
         <f>AVERAGE(286706.06)</f>
         <v>286706.06</v>
       </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="17"/>
+      <c r="X23" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="U23" s="1">
+      <c r="Y23" s="18">
         <v>112</v>
       </c>
-      <c r="V23" s="1">
+      <c r="Z23" s="18">
         <v>55500</v>
       </c>
-      <c r="W23" s="1">
+      <c r="AA23" s="18">
         <v>73643.86</v>
       </c>
-      <c r="X23" s="14">
+      <c r="AB23" s="18">
         <f>AVERAGE(164561.21,166644.63,173340.26)</f>
         <v>168182.03333333333</v>
       </c>
-      <c r="Y23" s="14">
+      <c r="AC23" s="18">
         <f>AVERAGE(245262.86,239804.79,249477.34)</f>
         <v>244848.33</v>
       </c>
-      <c r="Z23" s="14">
+      <c r="AD23" s="18">
         <f>AVERAGE(326909.52,342698.61,358371.85)</f>
         <v>342659.99333333335</v>
       </c>
-      <c r="AA23" s="1"/>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
@@ -4715,7 +5306,7 @@
       <c r="E24" s="3">
         <v>413</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="16">
         <v>490</v>
       </c>
       <c r="G24" s="3">
@@ -4729,265 +5320,255 @@
       <c r="I24" s="3">
         <v>409</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="6" t="s">
+      <c r="J24" s="3">
+        <v>504</v>
+      </c>
+      <c r="K24" s="31">
+        <v>504</v>
+      </c>
+      <c r="M24" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="L24" s="6">
+      <c r="N24" s="18">
         <v>280</v>
       </c>
-      <c r="M24" s="6">
+      <c r="O24" s="18">
         <v>1370</v>
       </c>
-      <c r="N24" s="6">
+      <c r="P24" s="18">
         <v>1242</v>
       </c>
-      <c r="O24" s="14">
+      <c r="Q24" s="18">
         <f>AVERAGE(3980,4416,3964)</f>
         <v>4120</v>
       </c>
-      <c r="P24" s="14">
+      <c r="R24" s="18">
         <f>AVERAGE(5647,5689,5398)</f>
         <v>5578</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="S24" s="18">
         <f>AVERAGE(7825)</f>
         <v>7825</v>
       </c>
-      <c r="R24" s="6"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="17"/>
+      <c r="X24" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="U24" s="1">
+      <c r="Y24" s="18">
         <v>112</v>
       </c>
-      <c r="V24" s="1">
+      <c r="Z24" s="18">
         <v>1875.65</v>
       </c>
-      <c r="W24" s="1">
+      <c r="AA24" s="18">
         <v>2155.5100000000002</v>
       </c>
-      <c r="X24" s="14">
+      <c r="AB24" s="18">
         <f>AVERAGE(4154.65,3907.26,4018.22)</f>
         <v>4026.7099999999996</v>
       </c>
-      <c r="Y24" s="14">
+      <c r="AC24" s="18">
         <f>AVERAGE(5629.55,5861.67,5842.27)</f>
         <v>5777.8300000000008</v>
       </c>
-      <c r="Z24" s="14">
+      <c r="AD24" s="18">
         <f>AVERAGE(8243.58,8223.48,8602.1)</f>
         <v>8356.3866666666654</v>
       </c>
-      <c r="AA24" s="1"/>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="J25" s="2"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="3" t="s">
+      <c r="X25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="U25" s="3">
+      <c r="Y25" s="3">
         <v>8</v>
       </c>
-      <c r="V25" s="3">
+      <c r="Z25" s="3">
         <v>1981.71</v>
       </c>
-      <c r="W25" s="3">
+      <c r="AA25" s="3">
         <v>1981.15</v>
       </c>
-      <c r="X25" s="15">
+      <c r="AB25" s="14">
         <v>1981.71</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="AC25" s="3">
         <f>AVERAGE(2101.87,2264.54,1760.9)</f>
         <v>2042.4366666666665</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="AD25" s="3">
         <f>AVERAGE(2147.38,2193.28,2001.4)</f>
         <v>2114.02</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AE25" s="3">
         <v>1505.95</v>
       </c>
-    </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B26" s="25" t="s">
+      <c r="AF25" s="31">
+        <v>1685</v>
+      </c>
+      <c r="AG25" s="31">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B26" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="3" t="s">
+      <c r="X26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U26" s="3">
+      <c r="Y26" s="3">
         <v>11</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Z26" s="3">
         <v>2086.59</v>
       </c>
-      <c r="W26" s="3">
+      <c r="AA26" s="3">
         <v>2006.03</v>
       </c>
-      <c r="X26" s="15">
+      <c r="AB26" s="14">
         <v>2086.59</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AC26" s="3">
         <f>AVERAGE(2164.26,3200.72,2791.14)</f>
         <v>2718.7066666666665</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AD26" s="3">
         <f>AVERAGE(2960.13,2523.79,3064.61)</f>
         <v>2849.51</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AE26" s="3">
         <v>1647.33</v>
       </c>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B27" s="26" t="s">
+      <c r="AF26" s="31">
+        <v>1902</v>
+      </c>
+      <c r="AG26" s="31">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B27" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
       <c r="S27" s="2"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="19"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="E35" s="19"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="E36" s="19"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="E37" s="19"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="E38" s="19"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E28"/>
-    <mergeCell ref="B29:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="M1:R1"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="B38:C38"/>
@@ -4996,6 +5577,14 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E28"/>
+    <mergeCell ref="B29:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="D1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5004,10 +5593,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA38"/>
+  <dimension ref="B1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5016,288 +5605,344 @@
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" customWidth="1"/>
     <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="23"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="Z1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-    </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+    </row>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="F2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Y2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Z2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AA2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE2" s="18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AF2" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>210</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="18">
         <v>2333.29</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="18">
         <f>AVERAGE(5498.19,5752.9,5622.22)</f>
         <v>5624.4366666666674</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="18">
         <f>AVERAGE(8314.87,8087.08,8003.63)</f>
         <v>8135.1933333333336</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="18">
         <f>AVERAGE(12579.96,13108.39,12230.54)</f>
         <v>12639.63</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="1" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18">
+        <v>2066</v>
+      </c>
+      <c r="K3" s="17">
+        <v>2094</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="1">
+      <c r="N3" s="1">
         <v>36</v>
       </c>
-      <c r="M3" s="1">
+      <c r="O3" s="18">
         <v>3478</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="18">
         <v>3475</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="18">
         <f>AVERAGE(4113,4382,3925)</f>
         <v>4140</v>
       </c>
-      <c r="P3" s="14">
+      <c r="R3" s="18">
         <f>AVERAGE(5758,6187,5901)</f>
         <v>5948.666666666667</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="S3" s="18">
         <f>AVERAGE(8514,8579,9582)</f>
         <v>8891.6666666666661</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="18"/>
+      <c r="U3" s="17">
+        <v>3104</v>
+      </c>
+      <c r="V3" s="17">
+        <v>3104</v>
+      </c>
+      <c r="X3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="1">
+      <c r="Y3" s="18">
         <v>57</v>
       </c>
-      <c r="V3" s="1">
+      <c r="Z3" s="18">
         <v>63830.12</v>
       </c>
-      <c r="W3" s="1">
+      <c r="AA3" s="18">
         <v>69764.62</v>
       </c>
-      <c r="X3" s="1">
+      <c r="AB3" s="18">
         <f>AVERAGE(117447.11,116929.81,134420.93)</f>
         <v>122932.61666666665</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="AC3" s="18">
         <f>AVERAGE(163025.64,173319.76,161225.34)</f>
         <v>165856.91333333333</v>
       </c>
-      <c r="Z3" s="14">
+      <c r="AD3" s="18">
         <f>AVERAGE(231407.65,210640.9,231124.13)</f>
         <v>224390.89333333331</v>
       </c>
-      <c r="AA3" s="1"/>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="17">
+        <v>64142</v>
+      </c>
+      <c r="AG3" s="17">
+        <v>64918</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>401</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="14">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18">
         <f t="shared" ref="F4" si="0">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="18">
         <f t="shared" ref="G4:H4" si="1">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="17"/>
+      <c r="M4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N4" s="1">
         <v>72</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="18">
         <v>41093.300000000003</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="18">
         <v>38395.919999999998</v>
       </c>
-      <c r="O4" s="14">
+      <c r="Q4" s="18">
         <f>AVERAGE(71504.94,77227.03,67640)</f>
         <v>72123.990000000005</v>
       </c>
-      <c r="P4" s="14">
+      <c r="R4" s="18">
         <f>AVERAGE(106653.62,102932.99,108946.04)</f>
         <v>106177.54999999999</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="S4" s="18">
         <f>AVERAGE(157132.11,152398.44,143124.67)</f>
         <v>150885.07333333333</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="18"/>
+      <c r="U4" s="17">
+        <v>31437</v>
+      </c>
+      <c r="V4" s="17">
+        <v>31095</v>
+      </c>
+      <c r="X4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="U4" s="1">
+      <c r="Y4" s="18">
         <v>80</v>
       </c>
-      <c r="V4" s="1">
+      <c r="Z4" s="18">
         <v>33252.04</v>
       </c>
-      <c r="W4" s="1">
+      <c r="AA4" s="18">
         <v>32109.37</v>
       </c>
-      <c r="X4" s="14">
+      <c r="AB4" s="18">
         <f>AVERAGE(72879.96,64236.39,61493.96)</f>
         <v>66203.436666666661</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="AC4" s="18">
         <f>AVERAGE(89723.02,84184.01,91378.26)</f>
         <v>88428.43</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="AD4" s="18">
         <f>AVERAGE(165224.48,131981.08,142110.87)</f>
         <v>146438.81</v>
       </c>
-      <c r="AA4" s="1"/>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="17">
+        <v>36468</v>
+      </c>
+      <c r="AG4" s="17">
+        <v>37605</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -5325,135 +5970,155 @@
       <c r="I5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="31"/>
+      <c r="M5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="1">
+      <c r="N5" s="1">
         <v>90</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="18">
         <v>4749</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="18">
         <v>4888</v>
       </c>
-      <c r="O5" s="14">
+      <c r="Q5" s="18">
         <f>AVERAGE(8377,8984,9359)</f>
         <v>8906.6666666666661</v>
       </c>
-      <c r="P5" s="14">
+      <c r="R5" s="18">
         <f>AVERAGE(13253,12362,12569)</f>
         <v>12728</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="S5" s="18">
         <f>AVERAGE(20146,16997,18839)</f>
         <v>18660.666666666668</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="18"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="X5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="1">
+      <c r="Y5" s="18">
         <v>93</v>
       </c>
-      <c r="V5" s="1">
+      <c r="Z5" s="18">
         <v>40795.86</v>
       </c>
-      <c r="W5" s="1">
+      <c r="AA5" s="18">
         <v>41639.79</v>
       </c>
-      <c r="X5" s="14">
+      <c r="AB5" s="18">
         <f>AVERAGE(93776.89,96997.87,89510.79)</f>
         <v>93428.516666666663</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="AC5" s="18">
         <f>AVERAGE(149341.73,141017.62,142122.68)</f>
         <v>144160.67666666667</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="AD5" s="18">
         <f>AVERAGE(260615.53,258111.07,253198.06)</f>
         <v>257308.21999999997</v>
       </c>
-      <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="17">
+        <v>39174</v>
+      </c>
+      <c r="AG5" s="17">
+        <v>39174</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>399</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>23269</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="18">
         <v>18984</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="18">
         <f>AVERAGE(76704,73524,78156)</f>
         <v>76128</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="18">
         <f>AVERAGE(112853,111980,113660)</f>
         <v>112831</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="18">
         <f>AVERAGE(171873,180273)</f>
         <v>176073</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1" t="s">
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="17"/>
+      <c r="M6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="1">
         <v>102</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="14">
-        <f t="shared" ref="O6:O10" si="2">AVERAGE(1)</f>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18">
+        <f t="shared" ref="Q6:Q10" si="2">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="P6" s="14">
-        <f t="shared" ref="P6:Q10" si="3">AVERAGE(1)</f>
+      <c r="R6" s="18">
+        <f t="shared" ref="R6:S10" si="3">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="S6" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="18"/>
+      <c r="U6" s="17">
+        <v>43912</v>
+      </c>
+      <c r="V6" s="17">
+        <v>48623</v>
+      </c>
+      <c r="X6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="1">
+      <c r="Y6" s="18">
         <v>102</v>
       </c>
-      <c r="V6" s="1">
+      <c r="Z6" s="18">
         <v>84256.72</v>
       </c>
-      <c r="W6" s="1">
+      <c r="AA6" s="18">
         <v>81838.740000000005</v>
       </c>
-      <c r="X6" s="14">
+      <c r="AB6" s="18">
         <f>AVERAGE(132266.71,133094,25,136977.14)</f>
         <v>100590.71249999999</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="AC6" s="18">
         <f>AVERAGE(214591.88,211267.39,204427.9)</f>
         <v>210095.72333333336</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="AD6" s="18">
         <f>AVERAGE(313120.47,316139.42,298893.52)</f>
         <v>309384.46999999997</v>
       </c>
-      <c r="AA6" s="1"/>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="17">
+        <v>69690</v>
+      </c>
+      <c r="AG6" s="17">
+        <v>70790</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -5466,7 +6131,7 @@
       <c r="E7" s="3">
         <v>1068</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>1065</v>
       </c>
       <c r="G7" s="3">
@@ -5480,56 +6145,72 @@
       <c r="I7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="1" t="s">
+      <c r="J7" s="3">
+        <v>999</v>
+      </c>
+      <c r="K7" s="31">
+        <v>999</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="1">
         <v>151</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="14">
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P7" s="14">
+      <c r="R7" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="S7" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="18"/>
+      <c r="U7" s="17">
+        <v>21563</v>
+      </c>
+      <c r="V7" s="17">
+        <v>21954</v>
+      </c>
+      <c r="X7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="1">
+      <c r="Y7" s="18">
         <v>108</v>
       </c>
-      <c r="V7" s="1">
+      <c r="Z7" s="18">
         <v>41326.949999999997</v>
       </c>
-      <c r="W7" s="1">
+      <c r="AA7" s="18">
         <v>43036.45</v>
       </c>
-      <c r="X7" s="14">
+      <c r="AB7" s="18">
         <f>AVERAGE(113604.96,122890.51,110266.69)</f>
         <v>115587.38666666667</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="AC7" s="18">
         <f>AVERAGE(187735.77,199526.57,181847.76)</f>
         <v>189703.36666666667</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="AD7" s="18">
         <f>AVERAGE(298415.55,292635.24,309534.92)</f>
         <v>300195.23666666663</v>
       </c>
-      <c r="AA7" s="1"/>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="17">
+        <v>41452</v>
+      </c>
+      <c r="AG7" s="17">
+        <v>41703</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -5542,7 +6223,7 @@
       <c r="E8" s="3">
         <v>1174</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>1237</v>
       </c>
       <c r="G8" s="3">
@@ -5556,56 +6237,72 @@
       <c r="I8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="1" t="s">
+      <c r="J8" s="3">
+        <v>1194</v>
+      </c>
+      <c r="K8" s="31">
+        <v>1194</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="1">
+      <c r="N8" s="1">
         <v>171</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="14">
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P8" s="14">
+      <c r="R8" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="S8" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="18"/>
+      <c r="U8" s="17">
+        <v>69201</v>
+      </c>
+      <c r="V8" s="17">
+        <v>67848</v>
+      </c>
+      <c r="X8" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="U8" s="1">
+      <c r="Y8" s="18">
         <v>114</v>
       </c>
-      <c r="V8" s="1">
+      <c r="Z8" s="18">
         <v>51636.7</v>
       </c>
-      <c r="W8" s="1">
+      <c r="AA8" s="18">
         <v>52270.61</v>
       </c>
-      <c r="X8" s="14">
+      <c r="AB8" s="18">
         <f>AVERAGE(150030.4,142468.98,133929.33)</f>
         <v>142142.90333333332</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="AC8" s="18">
         <f>AVERAGE(222464.27,214131.8,208836.57)</f>
         <v>215144.21333333329</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="AD8" s="18">
         <f>AVERAGE(389303.09,363304.45,366739.51)</f>
         <v>373115.68333333335</v>
       </c>
-      <c r="AA8" s="1"/>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="17">
+        <v>57431</v>
+      </c>
+      <c r="AG8" s="17">
+        <v>52393</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -5633,289 +6330,325 @@
       <c r="I9" s="5">
         <v>7619.8989577796901</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="1" t="s">
+      <c r="J9" s="3">
+        <v>4174</v>
+      </c>
+      <c r="K9" s="31">
+        <v>4174</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="1">
+      <c r="N9" s="1">
         <v>323</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="14">
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P9" s="14">
+      <c r="R9" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="S9" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="18"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="X9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="U9" s="1">
+      <c r="Y9" s="18">
         <v>169</v>
       </c>
-      <c r="V9" s="1">
+      <c r="Z9" s="18">
         <v>67272.25</v>
       </c>
-      <c r="W9" s="1">
+      <c r="AA9" s="18">
         <v>71036.73</v>
       </c>
-      <c r="X9" s="14">
+      <c r="AB9" s="18">
         <f>AVERAGE(178097.34,176328.93,180314.66)</f>
         <v>178246.97666666668</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="AC9" s="18">
         <f>AVERAGE(350581.44,357429.61,309027.66)</f>
         <v>339012.90333333332</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="AD9" s="18">
         <f>AVERAGE(581297.93,577214.26,614941.59)</f>
         <v>591151.25999999989</v>
       </c>
-      <c r="AA9" s="1"/>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="17">
+        <v>47516</v>
+      </c>
+      <c r="AG9" s="17">
+        <v>49198</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>95</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="18">
         <v>56582.89</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="18">
         <v>53625.85</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="18">
         <f>AVERAGE(137748.6,120237.26,117651.98)</f>
         <v>125212.61333333333</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="18">
         <f>AVERAGE(169704.54,161051.99,169775.23)</f>
         <v>166843.92000000001</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="18">
         <f>AVERAGE(243168.64,219081.66,215888.04)</f>
         <v>226046.11333333337</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="1" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="18">
+        <v>50324</v>
+      </c>
+      <c r="K10" s="17">
+        <v>50764</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="1">
+      <c r="N10" s="1">
         <v>499</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="14">
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P10" s="14">
+      <c r="R10" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="S10" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="18"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="X10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="1">
+      <c r="Y10" s="18">
         <v>198</v>
       </c>
-      <c r="V10" s="1">
+      <c r="Z10" s="18">
         <v>36877.03</v>
       </c>
-      <c r="W10" s="1">
+      <c r="AA10" s="18">
         <v>35720.79</v>
       </c>
-      <c r="X10" s="14">
+      <c r="AB10" s="18">
         <f>AVERAGE(119999.79,117003.94,106132.19)</f>
         <v>114378.64</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="AC10" s="18">
         <f>AVERAGE(170213.44,143980.5,163685.95)</f>
         <v>159293.29666666666</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="AD10" s="18">
         <f>AVERAGE(306524.32,286757.21,275274.66)</f>
         <v>289518.73</v>
       </c>
-      <c r="AA10" s="1"/>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1">
         <v>43</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="18">
         <v>13172</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="18">
         <v>13353</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="18">
         <f>AVERAGE(19497,15890,17174)</f>
         <v>17520.333333333332</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="18">
         <f>AVERAGE(27625,25146,24688)</f>
         <v>25819.666666666668</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="18">
         <f>AVERAGE(42471,45169,34305)</f>
         <v>40648.333333333336</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="1" t="s">
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="17"/>
+      <c r="M11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L11" s="1">
+      <c r="N11" s="1">
         <v>36</v>
       </c>
-      <c r="M11" s="1">
+      <c r="O11" s="18">
         <v>8651</v>
       </c>
-      <c r="N11" s="1">
+      <c r="P11" s="18">
         <v>7988</v>
       </c>
-      <c r="O11" s="14">
+      <c r="Q11" s="18">
         <f>AVERAGE(8745,12149,9449)</f>
         <v>10114.333333333334</v>
       </c>
-      <c r="P11" s="14">
+      <c r="R11" s="18">
         <f>AVERAGE(12541,14158,13224)</f>
         <v>13307.666666666666</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="S11" s="18">
         <f>AVERAGE(21571,19009,20749)</f>
         <v>20443</v>
       </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="1" t="s">
+      <c r="T11" s="18"/>
+      <c r="U11" s="17">
+        <v>7278</v>
+      </c>
+      <c r="V11" s="17">
+        <v>7278</v>
+      </c>
+      <c r="X11" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U11" s="1">
+      <c r="Y11" s="18">
         <v>224</v>
       </c>
-      <c r="V11" s="1">
+      <c r="Z11" s="18">
         <v>38943.230000000003</v>
       </c>
-      <c r="W11" s="1">
+      <c r="AA11" s="18">
         <v>40552.269999999997</v>
       </c>
-      <c r="X11" s="14">
+      <c r="AB11" s="18">
         <f>AVERAGE(121048.8,115030.75,104405.22)</f>
         <v>113494.92333333334</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="AC11" s="18">
         <f>AVERAGE(167530.93,170905.23,161324.14)</f>
         <v>166586.76666666669</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="AD11" s="18">
         <f>AVERAGE(259588.85,265952.01,259413.77)</f>
         <v>261651.54333333333</v>
       </c>
-      <c r="AA11" s="1"/>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
         <v>135</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="18">
         <v>92250</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="18">
         <v>1490</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="18">
         <f>AVERAGE(192260,178990,179380)</f>
         <v>183543.33333333334</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="18">
         <f>AVERAGE(221170,235560,178330)</f>
         <v>211686.66666666666</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="18">
         <f>AVERAGE(335850,316390,345760)</f>
         <v>332666.66666666669</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="1" t="s">
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="17"/>
+      <c r="M12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="1">
+      <c r="N12" s="1">
         <v>75</v>
       </c>
-      <c r="M12" s="1">
+      <c r="O12" s="18">
         <v>19476.54</v>
       </c>
-      <c r="N12" s="1">
+      <c r="P12" s="18">
         <v>17516.66</v>
       </c>
-      <c r="O12" s="14">
+      <c r="Q12" s="18">
         <f>AVERAGE(27525.22,27247,27153.45)</f>
         <v>27308.556666666667</v>
       </c>
-      <c r="P12" s="14">
+      <c r="R12" s="18">
         <f>AVERAGE(45516.62,42411,43956.76)</f>
         <v>43961.46</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="S12" s="18">
         <f>AVERAGE(61934.81,58688.49,64762.94)</f>
         <v>61795.41333333333</v>
       </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="18"/>
+      <c r="U12" s="17">
+        <v>14492</v>
+      </c>
+      <c r="V12" s="17">
+        <v>14492</v>
+      </c>
+      <c r="X12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="1">
+      <c r="Y12" s="18">
         <v>329</v>
       </c>
-      <c r="V12" s="1">
+      <c r="Z12" s="18">
         <v>66131.56</v>
       </c>
-      <c r="W12" s="1">
+      <c r="AA12" s="18">
         <v>70952.95</v>
       </c>
-      <c r="X12" s="14">
+      <c r="AB12" s="18">
         <f>AVERAGE(274261.1,263443.34,271059.75)</f>
         <v>269588.0633333333</v>
       </c>
-      <c r="Y12" s="14">
+      <c r="AC12" s="18">
         <f>AVERAGE(417570.76,430602.38,420066.24)</f>
         <v>422746.45999999996</v>
       </c>
-      <c r="Z12" s="14">
+      <c r="AD12" s="18">
         <f>AVERAGE(659669.88,677643.97,713537.73)</f>
         <v>683617.19333333336</v>
       </c>
-      <c r="AA12" s="1"/>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -5928,10 +6661,10 @@
       <c r="E13" s="3">
         <v>1953.16</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>1943.98</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>1943.98</v>
       </c>
       <c r="H13" s="3">
@@ -5941,218 +6674,262 @@
       <c r="I13" s="3">
         <v>1690.16</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="1" t="s">
+      <c r="J13" s="3">
+        <v>1642</v>
+      </c>
+      <c r="K13" s="31">
+        <v>1575</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="1">
+      <c r="N13" s="1">
         <v>112</v>
       </c>
-      <c r="M13" s="1">
+      <c r="O13" s="18">
         <v>22938.36</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13" s="18">
         <v>21753.58</v>
       </c>
-      <c r="O13" s="14">
+      <c r="Q13" s="18">
         <f>AVERAGE(45731.91,39676.2,42516.11)</f>
         <v>42641.406666666669</v>
       </c>
-      <c r="P13" s="14">
+      <c r="R13" s="18">
         <f>AVERAGE(58598.48,64748.09,61421.73)</f>
         <v>61589.433333333342</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="S13" s="18">
         <f>AVERAGE(89260.26,85241.59,94124.75)</f>
         <v>89542.2</v>
       </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="18"/>
+      <c r="U13" s="17">
+        <v>18210</v>
+      </c>
+      <c r="V13" s="17">
+        <v>18295</v>
+      </c>
+      <c r="X13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="U13" s="1">
+      <c r="Y13" s="18">
         <v>751</v>
       </c>
-      <c r="V13" s="1">
+      <c r="Z13" s="18">
         <v>209167.52</v>
       </c>
-      <c r="W13" s="1">
+      <c r="AA13" s="18">
         <v>218655.55</v>
       </c>
-      <c r="X13" s="14">
+      <c r="AB13" s="18">
         <f>AVERAGE(1044777.76,1050611.75,1058082.78)</f>
         <v>1051157.43</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="AC13" s="18">
         <f>AVERAGE(1539456.21)</f>
         <v>1539456.21</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="AD13" s="18">
         <f>AVERAGE(2445090.61)</f>
         <v>2445090.61</v>
       </c>
-      <c r="AA13" s="1"/>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1">
         <v>97</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="18">
         <v>4148.87</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="18">
         <v>4786.0600000000004</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="18">
         <f>AVERAGE(8413.89,9053.43,8139.43)</f>
         <v>8535.5833333333339</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="18">
         <f>AVERAGE(12291.75,12697.91,13562.68)</f>
         <v>12850.779999999999</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="18">
         <f>AVERAGE(18204.79,18067.5,18316.84)</f>
         <v>18196.376666666667</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="1" t="s">
+      <c r="I14" s="18"/>
+      <c r="J14" s="18">
+        <v>3907</v>
+      </c>
+      <c r="K14" s="17">
+        <v>4158</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="1">
+      <c r="N14" s="1">
         <v>150</v>
       </c>
-      <c r="M14" s="1">
+      <c r="O14" s="18">
         <v>21433.16</v>
       </c>
-      <c r="N14" s="1">
+      <c r="P14" s="18">
         <v>24404.94</v>
       </c>
-      <c r="O14" s="14">
+      <c r="Q14" s="18">
         <f>AVERAGE(50639.03,52773.37,53019.09)</f>
         <v>52143.829999999994</v>
       </c>
-      <c r="P14" s="14">
+      <c r="R14" s="18">
         <f>AVERAGE(76395.39,78782.09,77629.81)</f>
         <v>77602.429999999993</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="S14" s="18">
         <f>AVERAGE(120482.97,127877.85,125025.01)</f>
         <v>124461.94333333334</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="1" t="s">
+      <c r="T14" s="18"/>
+      <c r="U14" s="17">
+        <v>20723</v>
+      </c>
+      <c r="V14" s="17">
+        <v>20135</v>
+      </c>
+      <c r="X14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="U14" s="1">
+      <c r="Y14" s="18">
         <v>74</v>
       </c>
-      <c r="V14" s="1">
+      <c r="Z14" s="18">
         <v>925.25</v>
       </c>
-      <c r="W14" s="1">
+      <c r="AA14" s="18">
         <v>1047.43</v>
       </c>
-      <c r="X14" s="14">
+      <c r="AB14" s="18">
         <f>AVERAGE(1580.3,1556.26,1531.77)</f>
         <v>1556.11</v>
       </c>
-      <c r="Y14" s="14">
+      <c r="AC14" s="18">
         <f>AVERAGE(2027.98,2217.78,2058.83)</f>
         <v>2101.5300000000002</v>
       </c>
-      <c r="Z14" s="14">
+      <c r="AD14" s="18">
         <f>AVERAGE(2885.77,2913.33,2689.71)</f>
         <v>2829.6033333333339</v>
       </c>
-      <c r="AA14" s="1"/>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="17">
+        <v>861</v>
+      </c>
+      <c r="AG14" s="17">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
         <v>112</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="18">
         <v>4938.62</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="18">
         <v>5392.18</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="18">
         <f>AVERAGE(10436.2,10515.28,10764.03)</f>
         <v>10571.836666666668</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="18">
         <f>AVERAGE(14474.29,13931.59,14409.94)</f>
         <v>14271.94</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="18">
         <f>AVERAGE(21598.37,19957.54,22687.24)</f>
         <v>21414.383333333335</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="1" t="s">
+      <c r="I15" s="18"/>
+      <c r="J15" s="18">
+        <v>4499</v>
+      </c>
+      <c r="K15" s="17">
+        <v>4720</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="1">
+      <c r="N15" s="1">
         <v>75</v>
       </c>
-      <c r="M15" s="1">
+      <c r="O15" s="18">
         <v>17465.62</v>
       </c>
-      <c r="N15" s="1">
+      <c r="P15" s="18">
         <v>18768.060000000001</v>
       </c>
-      <c r="O15" s="14">
+      <c r="Q15" s="18">
         <f>AVERAGE(30281.7,28948.48,27864.93)</f>
         <v>29031.703333333335</v>
       </c>
-      <c r="P15" s="14">
+      <c r="R15" s="18">
         <f>AVERAGE(44501.41,42232.29,42586.87)</f>
         <v>43106.856666666667</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="S15" s="18">
         <f>AVERAGE(60141.52,67201.92,60065.23)</f>
         <v>62469.556666666671</v>
       </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="18"/>
+      <c r="U15" s="17">
+        <v>14744</v>
+      </c>
+      <c r="V15" s="17">
+        <v>14744</v>
+      </c>
+      <c r="X15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="U15" s="1">
+      <c r="Y15" s="18">
         <v>146</v>
       </c>
-      <c r="V15" s="1">
+      <c r="Z15" s="18">
         <v>1695.61</v>
       </c>
-      <c r="W15" s="1">
+      <c r="AA15" s="18">
         <v>1944.15</v>
       </c>
-      <c r="X15" s="14">
+      <c r="AB15" s="18">
         <f>AVERAGE(4322.14,3865.43,4106.19)</f>
         <v>4097.9199999999992</v>
       </c>
-      <c r="Y15" s="14">
+      <c r="AC15" s="18">
         <f>AVERAGE(5557.8,5273.78,5536.67)</f>
         <v>5456.083333333333</v>
       </c>
-      <c r="Z15" s="14">
+      <c r="AD15" s="18">
         <f>AVERAGE(8521.71,8657.58,8360.26)</f>
         <v>8513.1833333333343</v>
       </c>
-      <c r="AA15" s="1"/>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="17">
+        <v>1753</v>
+      </c>
+      <c r="AG15" s="17">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
@@ -6178,60 +6955,72 @@
         <v>1036.6666666666667</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="1" t="s">
+      <c r="J16" s="3">
+        <v>427</v>
+      </c>
+      <c r="K16" s="31">
+        <v>427</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="1">
+      <c r="N16" s="1">
         <v>112</v>
       </c>
-      <c r="M16" s="1">
+      <c r="O16" s="18">
         <v>17814.47</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16" s="18">
         <v>20307.55</v>
       </c>
-      <c r="O16" s="14">
+      <c r="Q16" s="18">
         <f>AVERAGE(39494.51,43021.33,43619.02)</f>
         <v>42044.953333333331</v>
       </c>
-      <c r="P16" s="14">
+      <c r="R16" s="18">
         <f>AVERAGE(55705.58,56846.77,62861.81)</f>
         <v>58471.386666666665</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="S16" s="18">
         <f>AVERAGE(86487.19,83523.69,93097.67)</f>
         <v>87702.849999999991</v>
       </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="18"/>
+      <c r="U16" s="17">
+        <v>17501</v>
+      </c>
+      <c r="V16" s="17">
+        <v>17349</v>
+      </c>
+      <c r="X16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="U16" s="1">
+      <c r="Y16" s="18">
         <v>431</v>
       </c>
-      <c r="V16" s="1">
+      <c r="Z16" s="18">
         <v>5946.93</v>
       </c>
-      <c r="W16" s="1">
+      <c r="AA16" s="18">
         <v>5694.36</v>
       </c>
-      <c r="X16" s="14">
+      <c r="AB16" s="18">
         <f>AVERAGE(19012.37,18638.86,18931.57)</f>
         <v>18860.933333333331</v>
       </c>
-      <c r="Y16" s="14">
+      <c r="AC16" s="18">
         <f>AVERAGE(27418.94,27229.57,27137.69)</f>
         <v>27262.066666666666</v>
       </c>
-      <c r="Z16" s="14">
+      <c r="AD16" s="18">
         <f>AVERAGE(40546.4)</f>
         <v>40546.400000000001</v>
       </c>
-      <c r="AA16" s="1"/>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -6259,218 +7048,254 @@
       <c r="I17" s="3">
         <v>414.92</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="1" t="s">
+      <c r="J17" s="3">
+        <v>289</v>
+      </c>
+      <c r="K17" s="31">
+        <v>287</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="1">
+      <c r="N17" s="1">
         <v>150</v>
       </c>
-      <c r="M17" s="1">
+      <c r="O17" s="18">
         <v>24691.06</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17" s="18">
         <v>24802.49</v>
       </c>
-      <c r="O17" s="14">
+      <c r="Q17" s="18">
         <f>AVERAGE(57761.37,55503.47,57973.66)</f>
         <v>57079.5</v>
       </c>
-      <c r="P17" s="14">
+      <c r="R17" s="18">
         <f>AVERAGE(78824.48,82616.61,82014.72)</f>
         <v>81151.936666666661</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="S17" s="18">
         <f>AVERAGE(116751.06,116303.51,120225.98)</f>
         <v>117760.18333333333</v>
       </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="18"/>
+      <c r="U17" s="17">
+        <v>20508</v>
+      </c>
+      <c r="V17" s="17">
+        <v>21266</v>
+      </c>
+      <c r="X17" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="U17" s="1">
+      <c r="Y17" s="18">
         <v>587</v>
       </c>
-      <c r="V17" s="1">
+      <c r="Z17" s="18">
         <v>7364.99</v>
       </c>
-      <c r="W17" s="1">
+      <c r="AA17" s="18">
         <v>7408.05</v>
       </c>
-      <c r="X17" s="14">
+      <c r="AB17" s="18">
         <f>AVERAGE(29654.31,28805.35,29660.73)</f>
         <v>29373.463333333333</v>
       </c>
-      <c r="Y17" s="14">
+      <c r="AC17" s="18">
         <f>AVERAGE(42472.74,43217.07,42257.84)</f>
         <v>42649.216666666667</v>
       </c>
-      <c r="Z17" s="14">
+      <c r="AD17" s="18">
         <f>AVERAGE(65810.51)</f>
         <v>65810.509999999995</v>
       </c>
-      <c r="AA17" s="1"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>57</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="18">
         <v>356.71</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="18">
         <v>373.07</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="18">
         <f>AVERAGE(573.88,576.15,503.95)</f>
         <v>551.32666666666671</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="18">
         <f>AVERAGE(694.88,730.45,728)</f>
         <v>717.77666666666664</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="18">
         <f>AVERAGE(960.07,1108.95,1019.51)</f>
         <v>1029.51</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="1" t="s">
+      <c r="I18" s="18"/>
+      <c r="J18" s="18">
+        <v>336</v>
+      </c>
+      <c r="K18" s="17">
+        <v>336</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="1">
+      <c r="N18" s="1">
         <v>75</v>
       </c>
-      <c r="M18" s="1">
+      <c r="O18" s="18">
         <v>14926.51</v>
       </c>
-      <c r="N18" s="1">
+      <c r="P18" s="18">
         <v>18900.41</v>
       </c>
-      <c r="O18" s="14">
+      <c r="Q18" s="18">
         <f>AVERAGE(29654.14,29587.48,26846.83)</f>
         <v>28696.149999999998</v>
       </c>
-      <c r="P18" s="14">
+      <c r="R18" s="18">
         <f>AVERAGE(34790.23,43618.71,37235.06)</f>
         <v>38548</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="S18" s="18">
         <f>AVERAGE(62097.26,58155.65,68341.07)</f>
         <v>62864.66</v>
       </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="1" t="s">
+      <c r="T18" s="18"/>
+      <c r="U18" s="17">
+        <v>14067</v>
+      </c>
+      <c r="V18" s="17">
+        <v>14067</v>
+      </c>
+      <c r="X18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="U18" s="1">
+      <c r="Y18" s="18">
         <v>131</v>
       </c>
-      <c r="V18" s="1">
+      <c r="Z18" s="18">
         <v>16096</v>
       </c>
-      <c r="W18" s="1">
+      <c r="AA18" s="18">
         <v>16373</v>
       </c>
-      <c r="X18" s="14">
+      <c r="AB18" s="18">
         <f>AVERAGE(20712,20221,20516)</f>
         <v>20483</v>
       </c>
-      <c r="Y18" s="14">
+      <c r="AC18" s="18">
         <f>AVERAGE(24236,23919,23092)</f>
         <v>23749</v>
       </c>
-      <c r="Z18" s="14">
+      <c r="AD18" s="18">
         <f>AVERAGE(26899,27279,27487)</f>
         <v>27221.666666666668</v>
       </c>
-      <c r="AA18" s="1"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1">
         <v>75</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="18">
         <v>492.25</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="18">
         <v>452.67</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="18">
         <f>AVERAGE(641.15,690.2,671.97)</f>
         <v>667.77333333333331</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="18">
         <f>AVERAGE(902.19,991.71,946.19)</f>
         <v>946.69666666666672</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="18">
         <f>AVERAGE(1411.89,1284.17,1363.15)</f>
         <v>1353.0700000000002</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="1" t="s">
+      <c r="I19" s="18"/>
+      <c r="J19" s="18">
+        <v>396</v>
+      </c>
+      <c r="K19" s="17">
+        <v>406</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="1">
+      <c r="N19" s="1">
         <v>75</v>
       </c>
-      <c r="M19" s="1">
+      <c r="O19" s="18">
         <v>16252.61</v>
       </c>
-      <c r="N19" s="1">
+      <c r="P19" s="18">
         <v>17083.72</v>
       </c>
-      <c r="O19" s="14">
+      <c r="Q19" s="18">
         <f>AVERAGE(27837.62,28079.33,27372.98)</f>
         <v>27763.309999999998</v>
       </c>
-      <c r="P19" s="14">
+      <c r="R19" s="18">
         <f>AVERAGE(40748.19,36492.27,42150.33)</f>
         <v>39796.93</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="S19" s="18">
         <f>AVERAGE(63069.85,56533.57,57377.55)</f>
         <v>58993.656666666669</v>
       </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="18"/>
+      <c r="U19" s="17">
+        <v>14171</v>
+      </c>
+      <c r="V19" s="17">
+        <v>14171</v>
+      </c>
+      <c r="X19" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="U19" s="1">
+      <c r="Y19" s="18">
         <v>401</v>
       </c>
-      <c r="V19" s="1">
+      <c r="Z19" s="18">
         <v>36872</v>
       </c>
-      <c r="W19" s="1">
+      <c r="AA19" s="18">
         <v>35948</v>
       </c>
-      <c r="X19" s="14">
+      <c r="AB19" s="18">
         <f>AVERAGE(55395,53710,55185)</f>
         <v>54763.333333333336</v>
       </c>
-      <c r="Y19" s="14">
+      <c r="AC19" s="18">
         <f>AVERAGE(62019,62835,64001)</f>
         <v>62951.666666666664</v>
       </c>
-      <c r="Z19" s="14">
+      <c r="AD19" s="18">
         <f>AVERAGE(74777,74991,74902)</f>
         <v>74890</v>
       </c>
-      <c r="AA19" s="1"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
@@ -6483,7 +7308,7 @@
       <c r="E20" s="3">
         <v>608</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="14">
         <v>744</v>
       </c>
       <c r="G20" s="3">
@@ -6497,139 +7322,167 @@
       <c r="I20" s="3">
         <v>492</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="1" t="s">
+      <c r="J20" s="3">
+        <v>601</v>
+      </c>
+      <c r="K20" s="31">
+        <v>601</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L20" s="1">
+      <c r="N20" s="1">
         <v>75</v>
       </c>
-      <c r="M20" s="1">
+      <c r="O20" s="18">
         <v>16441.939999999999</v>
       </c>
-      <c r="N20" s="1">
+      <c r="P20" s="18">
         <v>17078.29</v>
       </c>
-      <c r="O20" s="14">
+      <c r="Q20" s="18">
         <f>AVERAGE(28486.61,27900.02,35382.74)</f>
         <v>30589.789999999997</v>
       </c>
-      <c r="P20" s="14">
+      <c r="R20" s="18">
         <f>AVERAGE(42514.99,41903.89,40748.19)</f>
         <v>41722.356666666667</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="S20" s="18">
         <f>AVERAGE(60682.58,65266.37,57851.47)</f>
         <v>61266.806666666671</v>
       </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="18"/>
+      <c r="U20" s="17">
+        <v>14640</v>
+      </c>
+      <c r="V20" s="17">
+        <v>14640</v>
+      </c>
+      <c r="X20" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="U20" s="1">
+      <c r="Y20" s="18">
         <v>774</v>
       </c>
-      <c r="V20" s="1">
+      <c r="Z20" s="18">
         <v>70582</v>
       </c>
-      <c r="W20" s="1">
+      <c r="AA20" s="18">
         <v>70198</v>
       </c>
-      <c r="X20" s="14">
+      <c r="AB20" s="18">
         <f>AVERAGE(113798,114572,110884)</f>
         <v>113084.66666666667</v>
       </c>
-      <c r="Y20" s="14">
+      <c r="AC20" s="18">
         <f>AVERAGE(127643)</f>
         <v>127643</v>
       </c>
-      <c r="Z20" s="14">
+      <c r="AD20" s="18">
         <f>AVERAGE(165762)</f>
         <v>165762</v>
       </c>
-      <c r="AA20" s="1"/>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="1">
         <v>196</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="18">
         <v>1741.09</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="18">
         <v>1967.63</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="18">
         <f>AVERAGE(4901.96,4962.22,4894.71)</f>
         <v>4919.63</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="18">
         <f>AVERAGE(6895.63,6726.79,6758.08)</f>
         <v>6793.5</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="18">
         <f>AVERAGE(10257.43,10704.55,10048.95)</f>
         <v>10336.976666666667</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="1" t="s">
+      <c r="I21" s="18"/>
+      <c r="J21" s="18">
+        <v>1672</v>
+      </c>
+      <c r="K21" s="17">
+        <v>1695</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="1">
+      <c r="N21" s="1">
         <v>78</v>
       </c>
-      <c r="M21" s="1">
+      <c r="O21" s="18">
         <v>9054.34</v>
       </c>
-      <c r="N21" s="1">
+      <c r="P21" s="18">
         <v>9002.3700000000008</v>
       </c>
-      <c r="O21" s="14">
+      <c r="Q21" s="18">
         <f>AVERAGE(17572.51,17992.8,21124.48)</f>
         <v>18896.596666666665</v>
       </c>
-      <c r="P21" s="14">
+      <c r="R21" s="18">
         <f>AVERAGE(28081.57,26333.33,26019.79)</f>
         <v>26811.563333333335</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="S21" s="18">
         <f>AVERAGE(42812.73,36334.77,40894.03)</f>
         <v>40013.843333333331</v>
       </c>
-      <c r="R21" s="1"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="13" t="s">
+      <c r="T21" s="18"/>
+      <c r="U21" s="17">
+        <v>9034</v>
+      </c>
+      <c r="V21" s="17">
+        <v>8999</v>
+      </c>
+      <c r="X21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="U21" s="13">
+      <c r="Y21" s="12">
         <v>52</v>
       </c>
-      <c r="V21" s="13">
+      <c r="Z21" s="12">
         <v>543.95000000000005</v>
       </c>
-      <c r="W21" s="13">
+      <c r="AA21" s="12">
         <v>437.11</v>
       </c>
-      <c r="X21" s="14">
+      <c r="AB21" s="18">
         <f>AVERAGE(805.9,739.32,748.97)</f>
         <v>764.73</v>
       </c>
-      <c r="Y21" s="14">
+      <c r="AC21" s="18">
         <f>AVERAGE(925.53,872.1,909.71)</f>
         <v>902.44666666666672</v>
       </c>
-      <c r="Z21" s="14">
+      <c r="AD21" s="18">
         <f>AVERAGE(1359.26,1387.21,1496.72)</f>
         <v>1414.3966666666668</v>
       </c>
-      <c r="AA21" s="13"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="17">
+        <v>428</v>
+      </c>
+      <c r="AG21" s="17">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -6642,7 +7495,7 @@
       <c r="E22" s="3">
         <v>813</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="14">
         <v>661</v>
       </c>
       <c r="G22" s="3">
@@ -6656,60 +7509,76 @@
       <c r="I22" s="3">
         <v>810</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="1" t="s">
+      <c r="J22" s="3">
+        <v>951</v>
+      </c>
+      <c r="K22" s="31">
+        <v>951</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L22" s="1">
+      <c r="N22" s="1">
         <v>238</v>
       </c>
-      <c r="M22" s="1">
+      <c r="O22" s="18">
         <v>33307.81</v>
       </c>
-      <c r="N22" s="1">
+      <c r="P22" s="18">
         <v>34803.33</v>
       </c>
-      <c r="O22" s="14">
+      <c r="Q22" s="18">
         <f>AVERAGE(93802.91,100544.44,98586.28)</f>
         <v>97644.543333333335</v>
       </c>
-      <c r="P22" s="14">
+      <c r="R22" s="18">
         <f>AVERAGE(152678.03,147132.3,152500.21)</f>
         <v>150770.17999999996</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="S22" s="18">
         <f>AVERAGE(230036.41,240529.77,227544.75)</f>
         <v>232703.64333333331</v>
       </c>
-      <c r="R22" s="1"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="1" t="s">
+      <c r="T22" s="18"/>
+      <c r="U22" s="17">
+        <v>29829</v>
+      </c>
+      <c r="V22" s="17">
+        <v>29829</v>
+      </c>
+      <c r="X22" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="U22" s="1">
+      <c r="Y22" s="18">
         <v>31</v>
       </c>
-      <c r="V22" s="1">
+      <c r="Z22" s="18">
         <v>770</v>
       </c>
-      <c r="W22" s="1">
+      <c r="AA22" s="18">
         <v>871</v>
       </c>
-      <c r="X22" s="14">
+      <c r="AB22" s="18">
         <f>AVERAGE(1048,1049,1133)</f>
         <v>1076.6666666666667</v>
       </c>
-      <c r="Y22" s="14">
+      <c r="AC22" s="18">
         <f>AVERAGE(1369,1407,1414)</f>
         <v>1396.6666666666667</v>
       </c>
-      <c r="Z22" s="14">
+      <c r="AD22" s="18">
         <f>AVERAGE(1558,1984,1783)</f>
         <v>1775</v>
       </c>
-      <c r="AA22" s="1"/>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="17">
+        <v>760</v>
+      </c>
+      <c r="AG22" s="17">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -6722,7 +7591,7 @@
       <c r="E23" s="3">
         <v>1351</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="14">
         <v>1733</v>
       </c>
       <c r="G23" s="3">
@@ -6736,60 +7605,68 @@
       <c r="I23" s="3">
         <v>1377</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="1" t="s">
+      <c r="J23" s="3">
+        <v>1501</v>
+      </c>
+      <c r="K23" s="31">
+        <v>1501</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="1">
+      <c r="N23" s="1">
         <v>1034</v>
       </c>
-      <c r="M23" s="1">
+      <c r="O23" s="18">
         <v>47140.73</v>
       </c>
-      <c r="N23" s="1">
+      <c r="P23" s="18">
         <v>45668.23</v>
       </c>
-      <c r="O23" s="14">
+      <c r="Q23" s="18">
         <f>AVERAGE(238515.69,230603.7,233199.28)</f>
         <v>234106.22333333336</v>
       </c>
-      <c r="P23" s="14">
+      <c r="R23" s="18">
         <f>AVERAGE(349164.06)</f>
         <v>349164.06</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="S23" s="18">
         <f>AVERAGE(526768.5)</f>
         <v>526768.5</v>
       </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="18"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="X23" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="U23" s="1">
+      <c r="Y23" s="18">
         <v>168</v>
       </c>
-      <c r="V23" s="1">
+      <c r="Z23" s="18">
         <v>89500</v>
       </c>
-      <c r="W23" s="1">
+      <c r="AA23" s="18">
         <v>117345.37</v>
       </c>
-      <c r="X23" s="14">
+      <c r="AB23" s="18">
         <f>AVERAGE(284355.59,275262.73,290978.44)</f>
         <v>283532.25333333336</v>
       </c>
-      <c r="Y23" s="14">
+      <c r="AC23" s="18">
         <f>AVERAGE(430531.44,428706.85,425449.24)</f>
         <v>428229.1766666667</v>
       </c>
-      <c r="Z23" s="14">
+      <c r="AD23" s="18">
         <f>AVERAGE(619002.21,618288.93,578606.06)</f>
         <v>605299.06666666677</v>
       </c>
-      <c r="AA23" s="1"/>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
@@ -6802,7 +7679,7 @@
       <c r="E24" s="3">
         <v>802</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="14">
         <v>794</v>
       </c>
       <c r="G24" s="3">
@@ -6816,265 +7693,255 @@
       <c r="I24" s="3">
         <v>764</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="6" t="s">
+      <c r="J24" s="3">
+        <v>844</v>
+      </c>
+      <c r="K24" s="31">
+        <v>844</v>
+      </c>
+      <c r="M24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L24" s="6">
+      <c r="N24" s="6">
         <v>420</v>
       </c>
-      <c r="M24" s="6">
+      <c r="O24" s="18">
         <v>2332</v>
       </c>
-      <c r="N24" s="6">
+      <c r="P24" s="18">
         <v>2150</v>
       </c>
-      <c r="O24" s="14">
+      <c r="Q24" s="18">
         <f>AVERAGE(7378,7503,7350)</f>
         <v>7410.333333333333</v>
       </c>
-      <c r="P24" s="14">
+      <c r="R24" s="18">
         <f>AVERAGE(10600,9672,10371)</f>
         <v>10214.333333333334</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="S24" s="18">
         <f>AVERAGE(14956)</f>
         <v>14956</v>
       </c>
-      <c r="R24" s="6"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="18"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="X24" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="U24" s="1">
+      <c r="Y24" s="18">
         <v>168</v>
       </c>
-      <c r="V24" s="1">
+      <c r="Z24" s="18">
         <v>2917.62</v>
       </c>
-      <c r="W24" s="1">
+      <c r="AA24" s="18">
         <v>3247.49</v>
       </c>
-      <c r="X24" s="14">
+      <c r="AB24" s="18">
         <f>AVERAGE(7175.18,7038.94,7174.41)</f>
         <v>7129.5099999999993</v>
       </c>
-      <c r="Y24" s="14">
+      <c r="AC24" s="18">
         <f>AVERAGE(10012.3,9914.25,10502.66)</f>
         <v>10143.07</v>
       </c>
-      <c r="Z24" s="14">
+      <c r="AD24" s="18">
         <f>AVERAGE(15581.47,16037.14,14934.93)</f>
         <v>15517.846666666666</v>
       </c>
-      <c r="AA24" s="1"/>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="J25" s="2"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="3" t="s">
+      <c r="X25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="U25" s="3">
+      <c r="Y25" s="3">
         <v>12</v>
       </c>
-      <c r="V25" s="3">
+      <c r="Z25" s="3">
         <v>2785.62</v>
       </c>
-      <c r="W25" s="3">
+      <c r="AA25" s="3">
         <v>3035.89</v>
       </c>
-      <c r="X25" s="15">
+      <c r="AB25" s="14">
         <v>2785.62</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="AC25" s="3">
         <f>AVERAGE(4302.5,4264.97,3841.59)</f>
         <v>4136.3533333333335</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="AD25" s="3">
         <f>AVERAGE(4669.69,4267.19,3955.19)</f>
         <v>4297.3566666666666</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AE25" s="3">
         <v>2980.94</v>
       </c>
-    </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B26" s="25" t="s">
+      <c r="AF25" s="31">
+        <v>3183</v>
+      </c>
+      <c r="AG25" s="31">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B26" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="3" t="s">
+      <c r="X26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U26" s="3">
+      <c r="Y26" s="3">
         <v>16</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Z26" s="3">
         <v>3118.04</v>
       </c>
-      <c r="W26" s="3">
+      <c r="AA26" s="3">
         <v>2959.96</v>
       </c>
-      <c r="X26" s="15">
+      <c r="AB26" s="14">
         <v>3118.04</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AC26" s="3">
         <f>AVERAGE(3602.35,3709.73,3288.29)</f>
         <v>3533.4566666666665</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AD26" s="3">
         <f>AVERAGE(4203.63,4667.33,5585.14)</f>
         <v>4818.7</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AE26" s="3">
         <v>2806.25</v>
       </c>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B27" s="26" t="s">
+      <c r="AF26" s="31">
+        <v>2941</v>
+      </c>
+      <c r="AG26" s="31">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B27" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
       <c r="S27" s="2"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="19"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="E35" s="19"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="E36" s="19"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="E37" s="19"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="E38" s="19"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E28"/>
-    <mergeCell ref="B29:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="M1:R1"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="B38:C38"/>
@@ -7083,6 +7950,14 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E28"/>
+    <mergeCell ref="B29:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="D1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Comparaçoes/Heurísticas.xlsx
+++ b/Comparaçoes/Heurísticas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="100">
   <si>
     <t>Instâncias</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>Best Known</t>
+  </si>
+  <si>
+    <t>HVMPA_3</t>
+  </si>
+  <si>
+    <t>HVMP_3</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,6 +508,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,30 +545,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,82 +855,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG38"/>
+  <dimension ref="B1:AJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" customWidth="1"/>
-    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.42578125" customWidth="1"/>
     <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B1" s="18"/>
       <c r="C1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="P1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="AB1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-    </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+    </row>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
@@ -925,86 +950,95 @@
       <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="R2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="T2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="U2" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="W2" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="X2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="AB2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AC2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AD2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AF2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AG2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="AH2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="19" t="s">
+      <c r="AI2" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AG2" s="19" t="s">
+      <c r="AJ2" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1017,89 +1051,98 @@
       <c r="E3" s="18">
         <v>746.64</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="20">
+        <v>906.12</v>
+      </c>
+      <c r="G3" s="18">
         <f xml:space="preserve"> AVERAGE(1505.1,1632.26,1696.96)</f>
         <v>1611.4399999999998</v>
       </c>
-      <c r="G3" s="18">
+      <c r="H3" s="18">
         <f xml:space="preserve"> AVERAGE(2027.61,1928.2,2403.43)</f>
         <v>2119.7466666666664</v>
       </c>
-      <c r="H3" s="18">
+      <c r="I3" s="18">
         <f xml:space="preserve"> AVERAGE(3175.05,3284.1,3320.17)</f>
         <v>3259.7733333333331</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18">
+      <c r="J3" s="18"/>
+      <c r="K3" s="18">
         <v>670</v>
       </c>
-      <c r="K3" s="17">
+      <c r="L3" s="17">
         <v>686</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="N3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="18">
+      <c r="O3" s="18">
         <v>12</v>
       </c>
-      <c r="O3" s="18">
+      <c r="P3" s="18">
         <v>668</v>
       </c>
-      <c r="P3" s="18">
+      <c r="Q3" s="18">
         <v>558</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="R3" s="20">
+        <v>894</v>
+      </c>
+      <c r="S3" s="18">
         <f>AVERAGE(883,650,909)</f>
         <v>814</v>
       </c>
-      <c r="R3" s="18">
+      <c r="T3" s="18">
         <f>AVERAGE(1282,1108,934)</f>
         <v>1108</v>
       </c>
-      <c r="S3" s="18">
+      <c r="U3" s="18">
         <f>AVERAGE(2101,2244,1582)</f>
         <v>1975.6666666666667</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="17">
+      <c r="V3" s="18"/>
+      <c r="W3" s="17">
         <v>874</v>
       </c>
-      <c r="V3" s="17">
+      <c r="X3" s="17">
         <v>874</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="AA3" s="1">
         <v>19</v>
       </c>
-      <c r="Z3" s="18">
+      <c r="AB3" s="18">
         <v>25126.84</v>
       </c>
-      <c r="AA3" s="18">
+      <c r="AC3" s="18">
         <v>25126.84</v>
       </c>
-      <c r="AB3" s="18">
+      <c r="AD3" s="20">
+        <v>27060.18</v>
+      </c>
+      <c r="AE3" s="18">
         <f>AVERAGE(34231.94,35331.27,35580.93)</f>
         <v>35048.046666666662</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AF3" s="18">
         <f>AVERAGE(43328.75,41421.5,38555.79)</f>
         <v>41102.013333333336</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AG3" s="18">
         <f>AVERAGE(46680.19,51937.8,54674.06)</f>
         <v>51097.35</v>
       </c>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="17">
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="17">
         <v>23450</v>
       </c>
-      <c r="AG3" s="17">
+      <c r="AJ3" s="17">
         <v>23450</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1108,85 +1151,92 @@
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="18">
+      <c r="F4" s="20"/>
+      <c r="G4" s="18">
         <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="18">
-        <f t="shared" ref="G4:H4" si="0" xml:space="preserve"> AVERAGE(1)</f>
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:I4" si="0" xml:space="preserve"> AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="18">
+      <c r="I4" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I4" s="18"/>
       <c r="J4" s="18"/>
-      <c r="K4" s="17"/>
-      <c r="M4" s="18" t="s">
+      <c r="K4" s="18"/>
+      <c r="L4" s="17"/>
+      <c r="N4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="18">
+      <c r="O4" s="18">
         <v>24</v>
       </c>
-      <c r="O4" s="18">
+      <c r="P4" s="18">
         <v>11086.43</v>
       </c>
-      <c r="P4" s="18">
+      <c r="Q4" s="18">
         <v>9934.0499999999993</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="R4" s="20">
+        <v>16705.45</v>
+      </c>
+      <c r="S4" s="18">
         <f>AVERAGE(20093,23146.55,19097.46)</f>
         <v>20779.003333333334</v>
       </c>
-      <c r="R4" s="18">
+      <c r="T4" s="18">
         <f>AVERAGE(23860.74,23986.37,23918.43)</f>
         <v>23921.846666666668</v>
       </c>
-      <c r="S4" s="18">
+      <c r="U4" s="18">
         <f>AVERAGE(40325.7,39806.4,37967.84)</f>
         <v>39366.646666666667</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="17">
+      <c r="V4" s="18"/>
+      <c r="W4" s="17">
         <v>10460</v>
       </c>
-      <c r="V4" s="17">
+      <c r="X4" s="17">
         <v>9543</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="AA4" s="1">
         <v>26</v>
       </c>
-      <c r="Z4" s="18" t="s">
+      <c r="AB4" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AC4" s="18">
         <v>7486.75</v>
       </c>
-      <c r="AB4" s="18">
+      <c r="AD4" s="20">
+        <v>10176.65</v>
+      </c>
+      <c r="AE4" s="18">
         <f>AVERAGE(11787.58,13221.13,11889.39)</f>
         <v>12299.366666666667</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AF4" s="18">
         <f>AVERAGE(26236.66,21389.02,16226.9)</f>
         <v>21284.193333333333</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AG4" s="18">
         <f>AVERAGE(30635.8,20645.57,26540.59)</f>
         <v>25940.653333333332</v>
       </c>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="17">
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="17">
         <v>8443</v>
       </c>
-      <c r="AG4" s="17">
+      <c r="AJ4" s="17">
         <v>8443</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1200,82 +1250,91 @@
         <v>1409</v>
       </c>
       <c r="F5" s="3">
+        <v>2566</v>
+      </c>
+      <c r="G5" s="3">
         <f xml:space="preserve"> AVERAGE(1564,1845,2288)</f>
         <v>1899</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <f xml:space="preserve"> AVERAGE(2235,3242,3149)</f>
         <v>2875.3333333333335</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <f xml:space="preserve"> AVERAGE(3795,3928,4574)</f>
         <v>4099</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>1239</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="31"/>
-      <c r="M5" s="18" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="24"/>
+      <c r="N5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="18">
+      <c r="O5" s="18">
         <v>30</v>
       </c>
-      <c r="O5" s="18">
+      <c r="P5" s="18">
         <v>1411</v>
       </c>
-      <c r="P5" s="18">
+      <c r="Q5" s="18">
         <v>1422</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="R5" s="20">
+        <v>1740</v>
+      </c>
+      <c r="S5" s="18">
         <f>AVERAGE(2200,2636,2649)</f>
         <v>2495</v>
       </c>
-      <c r="R5" s="18">
+      <c r="T5" s="18">
         <f>AVERAGE(3332,3136,3512)</f>
         <v>3326.6666666666665</v>
       </c>
-      <c r="S5" s="18">
+      <c r="U5" s="18">
         <f>AVERAGE(5188,5237,4688)</f>
         <v>5037.666666666667</v>
       </c>
-      <c r="T5" s="18"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="X5" s="1" t="s">
+      <c r="V5" s="18"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Z5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AA5" s="1">
         <v>31</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="AB5" s="18">
         <v>10765.78</v>
       </c>
-      <c r="AA5" s="18">
+      <c r="AC5" s="18">
         <v>14065.44</v>
       </c>
-      <c r="AB5" s="18">
+      <c r="AD5" s="20">
+        <v>26231.94</v>
+      </c>
+      <c r="AE5" s="18">
         <f>AVERAGE(28708.52,23641.97,28071.05)</f>
         <v>26807.180000000004</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AF5" s="18">
         <f>AVERAGE(36094.43,41557.16,36682.08)</f>
         <v>38111.223333333335</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AG5" s="18">
         <f>AVERAGE(53723.37,52942.14,42720.1)</f>
         <v>49795.203333333338</v>
       </c>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="17">
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="17">
         <v>14640</v>
       </c>
-      <c r="AG5" s="17">
+      <c r="AJ5" s="17">
         <v>14325</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1288,81 +1347,88 @@
       <c r="E6" s="18">
         <v>4475</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="20">
+        <v>5949</v>
+      </c>
+      <c r="G6" s="18">
         <f xml:space="preserve"> AVERAGE(14321,17859,14830)</f>
         <v>15670</v>
       </c>
-      <c r="G6" s="18">
+      <c r="H6" s="18">
         <f xml:space="preserve"> AVERAGE(20903,21351,21298)</f>
         <v>21184</v>
       </c>
-      <c r="H6" s="18">
+      <c r="I6" s="18">
         <f xml:space="preserve"> AVERAGE(32813,31904,30501)</f>
         <v>31739.333333333332</v>
       </c>
-      <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="17"/>
-      <c r="M6" s="18" t="s">
+      <c r="K6" s="18"/>
+      <c r="L6" s="17"/>
+      <c r="N6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="18">
+      <c r="O6" s="18">
         <v>34</v>
       </c>
-      <c r="O6" s="18"/>
       <c r="P6" s="18"/>
-      <c r="Q6" s="18">
-        <f t="shared" ref="Q6:Q10" si="1">AVERAGE(1)</f>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="18">
+        <f t="shared" ref="S6:S10" si="1">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="R6" s="18">
-        <f t="shared" ref="R6:S10" si="2">AVERAGE(1)</f>
+      <c r="T6" s="18">
+        <f t="shared" ref="T6:U10" si="2">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="S6" s="18">
+      <c r="U6" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T6" s="18"/>
-      <c r="U6" s="17">
+      <c r="V6" s="18"/>
+      <c r="W6" s="17">
         <v>17399</v>
       </c>
-      <c r="V6" s="17">
+      <c r="X6" s="17">
         <v>17399</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AA6" s="1">
         <v>34</v>
       </c>
-      <c r="Z6" s="18">
+      <c r="AB6" s="18">
         <v>22828.74</v>
       </c>
-      <c r="AA6" s="18">
+      <c r="AC6" s="18">
         <v>23907.89</v>
       </c>
-      <c r="AB6" s="18">
+      <c r="AD6" s="20">
+        <v>31943.96</v>
+      </c>
+      <c r="AE6" s="18">
         <f>AVERAGE(37011.37,39208.49,33323.61)</f>
         <v>36514.49</v>
       </c>
-      <c r="AC6" s="18">
+      <c r="AF6" s="18">
         <f>AVERAGE(50005.65,54819.57,52088.07)</f>
         <v>52304.43</v>
       </c>
-      <c r="AD6" s="18">
+      <c r="AG6" s="18">
         <f>AVERAGE(59482.64,74324.22,76315)</f>
         <v>70040.62</v>
       </c>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="17">
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="17">
         <v>21116</v>
       </c>
-      <c r="AG6" s="17">
+      <c r="AJ6" s="17">
         <v>21116</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1375,86 +1441,93 @@
       <c r="E7" s="3">
         <v>292</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="3">
+        <v>283</v>
+      </c>
+      <c r="G7" s="14">
         <v>292</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <f xml:space="preserve"> AVERAGE(326,359,371)</f>
         <v>352</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <f xml:space="preserve"> AVERAGE(438,359,505)</f>
         <v>434</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>246</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>332</v>
       </c>
-      <c r="K7" s="31">
+      <c r="L7" s="24">
         <v>332</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="N7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="18">
+      <c r="O7" s="18">
         <v>50</v>
       </c>
-      <c r="O7" s="18"/>
       <c r="P7" s="18"/>
-      <c r="Q7" s="18">
+      <c r="Q7" s="18"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R7" s="18">
+      <c r="T7" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S7" s="18">
+      <c r="U7" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T7" s="18"/>
-      <c r="U7" s="17">
+      <c r="V7" s="18"/>
+      <c r="W7" s="17">
         <v>8142</v>
       </c>
-      <c r="V7" s="17">
+      <c r="X7" s="17">
         <v>8142</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AA7" s="1">
         <v>36</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="AB7" s="18">
         <v>10893.75</v>
       </c>
-      <c r="AA7" s="18">
+      <c r="AC7" s="18">
         <v>12001.03</v>
       </c>
-      <c r="AB7" s="18">
+      <c r="AD7" s="20">
+        <v>24093.39</v>
+      </c>
+      <c r="AE7" s="18">
         <f>AVERAGE(34465.92,32737.24,31541.07)</f>
         <v>32914.743333333339</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AF7" s="18">
         <f>AVERAGE(50770.88,48412.88,50766.97)</f>
         <v>49983.57666666666</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AG7" s="18">
         <f>AVERAGE(70949.67,67430.23,67142.69)</f>
         <v>68507.53</v>
       </c>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="17">
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="17">
         <v>14327</v>
       </c>
-      <c r="AG7" s="17">
+      <c r="AJ7" s="17">
         <v>14327</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1467,86 +1540,93 @@
       <c r="E8" s="3">
         <v>352</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="3">
+        <v>380</v>
+      </c>
+      <c r="G8" s="14">
         <v>352</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <f xml:space="preserve"> AVERAGE(382,460,437)</f>
         <v>426.33333333333331</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <f xml:space="preserve"> AVERAGE(671,522,530)</f>
         <v>574.33333333333337</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>282</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="31">
+      <c r="L8" s="24">
         <v>400</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="N8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="18">
+      <c r="O8" s="18">
         <v>57</v>
       </c>
-      <c r="O8" s="18"/>
       <c r="P8" s="18"/>
-      <c r="Q8" s="18">
+      <c r="Q8" s="18"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R8" s="18">
+      <c r="T8" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S8" s="18">
+      <c r="U8" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T8" s="18"/>
-      <c r="U8" s="17">
+      <c r="V8" s="18"/>
+      <c r="W8" s="17">
         <v>18555</v>
       </c>
-      <c r="V8" s="17">
+      <c r="X8" s="17">
         <v>18555</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="AA8" s="1">
         <v>38</v>
       </c>
-      <c r="Z8" s="18">
+      <c r="AB8" s="18">
         <v>17072</v>
       </c>
-      <c r="AA8" s="18">
+      <c r="AC8" s="18">
         <v>17072</v>
       </c>
-      <c r="AB8" s="18">
+      <c r="AD8" s="20">
+        <v>28867.94</v>
+      </c>
+      <c r="AE8" s="18">
         <f>AVERAGE(37722.49,35121.04,52458.35)</f>
         <v>41767.293333333335</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="AF8" s="18">
         <f>AVERAGE(65029.81,72456.52,68871.05)</f>
         <v>68785.793333333335</v>
       </c>
-      <c r="AD8" s="18">
+      <c r="AG8" s="18">
         <f>AVERAGE(76385.41,82378.46,77170.24)</f>
         <v>78644.703333333324</v>
       </c>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="17">
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="17">
         <v>23195</v>
       </c>
-      <c r="AG8" s="17">
+      <c r="AJ8" s="17">
         <v>20029</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1560,82 +1640,89 @@
         <v>604.66</v>
       </c>
       <c r="F9" s="3">
+        <v>763.23</v>
+      </c>
+      <c r="G9" s="3">
         <f xml:space="preserve"> AVERAGE(715.59,640.05,1766.47)</f>
         <v>1040.7033333333331</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <f xml:space="preserve"> AVERAGE(941.06,1305.67,1128.16)</f>
         <v>1124.9633333333334</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <f xml:space="preserve"> AVERAGE(2129.76,1845.66,2285.66)</f>
         <v>2087.0266666666666</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>480.48033445701299</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>679</v>
       </c>
-      <c r="K9" s="31">
+      <c r="L9" s="24">
         <v>679</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="N9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="18">
+      <c r="O9" s="18">
         <v>107</v>
       </c>
-      <c r="O9" s="18"/>
       <c r="P9" s="18"/>
-      <c r="Q9" s="18">
+      <c r="Q9" s="18"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R9" s="18">
+      <c r="T9" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S9" s="18">
+      <c r="U9" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T9" s="18"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="X9" s="1" t="s">
+      <c r="V9" s="18"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Z9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AA9" s="1">
         <v>56</v>
       </c>
-      <c r="Z9" s="18">
+      <c r="AB9" s="18">
         <v>22868.63</v>
       </c>
-      <c r="AA9" s="18">
+      <c r="AC9" s="18">
         <v>23494.84</v>
       </c>
-      <c r="AB9" s="18">
+      <c r="AD9" s="20">
+        <v>35217.61</v>
+      </c>
+      <c r="AE9" s="18">
         <f>AVERAGE(53850.22,59959.36,63479.72)</f>
         <v>59096.433333333327</v>
       </c>
-      <c r="AC9" s="18">
+      <c r="AF9" s="18">
         <f>AVERAGE(91631.77,91376.43,92567.05)</f>
         <v>91858.416666666672</v>
       </c>
-      <c r="AD9" s="18">
+      <c r="AG9" s="18">
         <f>AVERAGE(126146.31,162403.28,152947.62)</f>
         <v>147165.73666666666</v>
       </c>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="17">
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="17">
         <v>20033</v>
       </c>
-      <c r="AG9" s="17">
+      <c r="AJ9" s="17">
         <v>20033</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>12</v>
       </c>
@@ -1648,77 +1735,84 @@
       <c r="E10" s="18">
         <v>11706.58</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="20">
+        <v>16380.1</v>
+      </c>
+      <c r="G10" s="18">
         <f xml:space="preserve"> AVERAGE(22801.5,24988.75,19031.39)</f>
         <v>22273.88</v>
       </c>
-      <c r="G10" s="18">
+      <c r="H10" s="18">
         <f xml:space="preserve"> AVERAGE(29850.6,28526.96,30742.84)</f>
         <v>29706.799999999999</v>
       </c>
-      <c r="H10" s="18">
+      <c r="I10" s="18">
         <f xml:space="preserve"> AVERAGE(36608.9,43524.74,36759.37)</f>
         <v>38964.33666666667</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18">
+      <c r="J10" s="18"/>
+      <c r="K10" s="18">
         <v>10619</v>
       </c>
-      <c r="K10" s="17">
+      <c r="L10" s="17">
         <v>10619</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="N10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="18">
+      <c r="O10" s="18">
         <v>166</v>
       </c>
-      <c r="O10" s="18"/>
       <c r="P10" s="18"/>
-      <c r="Q10" s="18">
+      <c r="Q10" s="18"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R10" s="18">
+      <c r="T10" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S10" s="18">
+      <c r="U10" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T10" s="18"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="X10" s="1" t="s">
+      <c r="V10" s="18"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Z10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="AA10" s="1">
         <v>66</v>
       </c>
-      <c r="Z10" s="18">
+      <c r="AB10" s="18">
         <v>8100</v>
       </c>
-      <c r="AA10" s="18">
+      <c r="AC10" s="18">
         <v>8100</v>
       </c>
-      <c r="AB10" s="18">
+      <c r="AD10" s="20">
+        <v>12506.01</v>
+      </c>
+      <c r="AE10" s="18">
         <f>AVERAGE(21851.94,25401.1,21951.12)</f>
         <v>23068.05333333333</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="AF10" s="18">
         <f>AVERAGE(33780.11,36151.91,37710.08)</f>
         <v>35880.700000000004</v>
       </c>
-      <c r="AD10" s="18">
+      <c r="AG10" s="18">
         <f>AVERAGE(57908.8,58660.78,66068.58)</f>
         <v>60879.386666666665</v>
       </c>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>13</v>
       </c>
@@ -1731,81 +1825,90 @@
       <c r="E11" s="18">
         <v>4607</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="20">
+        <v>4638</v>
+      </c>
+      <c r="G11" s="18">
         <f xml:space="preserve"> AVERAGE(4339,4610,6809)</f>
         <v>5252.666666666667</v>
       </c>
-      <c r="G11" s="18">
+      <c r="H11" s="18">
         <f xml:space="preserve"> AVERAGE(5821,7073,8275)</f>
         <v>7056.333333333333</v>
       </c>
-      <c r="H11" s="18">
+      <c r="I11" s="18">
         <f xml:space="preserve"> AVERAGE(6358,8875,5894)</f>
         <v>7042.333333333333</v>
       </c>
-      <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="17"/>
-      <c r="M11" s="18" t="s">
+      <c r="K11" s="18"/>
+      <c r="L11" s="17"/>
+      <c r="N11" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="18">
+      <c r="O11" s="18">
         <v>12</v>
       </c>
-      <c r="O11" s="18">
+      <c r="P11" s="18">
         <v>3454</v>
       </c>
-      <c r="P11" s="18">
+      <c r="Q11" s="18">
         <v>3155</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="R11" s="20">
+        <v>3892</v>
+      </c>
+      <c r="S11" s="18">
         <f>AVERAGE(2188,2341,3487)</f>
         <v>2672</v>
       </c>
-      <c r="R11" s="18">
+      <c r="T11" s="18">
         <f>AVERAGE(2539,4299,4533)</f>
         <v>3790.3333333333335</v>
       </c>
-      <c r="S11" s="18">
+      <c r="U11" s="18">
         <f>AVERAGE(3785,4788,5280)</f>
         <v>4617.666666666667</v>
       </c>
-      <c r="T11" s="18"/>
-      <c r="U11" s="17">
+      <c r="V11" s="18"/>
+      <c r="W11" s="17">
         <v>2827</v>
       </c>
-      <c r="V11" s="17">
+      <c r="X11" s="17">
         <v>2827</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="AA11" s="1">
         <v>74</v>
       </c>
-      <c r="Z11" s="18">
+      <c r="AB11" s="18">
         <v>12369.29</v>
       </c>
-      <c r="AA11" s="18">
+      <c r="AC11" s="18">
         <v>12312.57</v>
       </c>
-      <c r="AB11" s="18">
+      <c r="AD11" s="20">
+        <v>13941.34</v>
+      </c>
+      <c r="AE11" s="18">
         <f>AVERAGE(33103.09,29152.95,27824.8)</f>
         <v>30026.946666666667</v>
       </c>
-      <c r="AC11" s="18">
+      <c r="AF11" s="18">
         <f>AVERAGE(37827.3,42908.23,38416.71)</f>
         <v>39717.41333333333</v>
       </c>
-      <c r="AD11" s="18">
+      <c r="AG11" s="18">
         <f>AVERAGE(64460.2,59763.13,58130.32)</f>
         <v>60784.549999999996</v>
       </c>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -1818,81 +1921,90 @@
       <c r="E12" s="12">
         <v>480</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="12">
+        <v>60490</v>
+      </c>
+      <c r="G12" s="18">
         <f xml:space="preserve"> AVERAGE(82770,71970,84330)</f>
         <v>79690</v>
       </c>
-      <c r="G12" s="18">
+      <c r="H12" s="18">
         <f xml:space="preserve"> AVERAGE(85320,77810,86300)</f>
         <v>83143.333333333328</v>
       </c>
-      <c r="H12" s="18">
+      <c r="I12" s="18">
         <f xml:space="preserve"> AVERAGE(106300,131110,117130)</f>
         <v>118180</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="17"/>
-      <c r="M12" s="18" t="s">
+      <c r="J12" s="12"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="17"/>
+      <c r="N12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="18">
+      <c r="O12" s="18">
         <v>25</v>
       </c>
-      <c r="O12" s="18">
+      <c r="P12" s="18">
         <v>5157.68</v>
       </c>
-      <c r="P12" s="18">
+      <c r="Q12" s="18">
         <v>4872.0200000000004</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="R12" s="20">
+        <v>7952</v>
+      </c>
+      <c r="S12" s="18">
         <f>AVERAGE(7584.43,8374.97,8015.42)</f>
         <v>7991.6066666666666</v>
       </c>
-      <c r="R12" s="18">
+      <c r="T12" s="18">
         <f>AVERAGE(11463.86,10363.54,12428.78)</f>
         <v>11418.726666666667</v>
       </c>
-      <c r="S12" s="18">
+      <c r="U12" s="18">
         <f>AVERAGE(14382.34,16991.44,13189.81)</f>
         <v>14854.529999999999</v>
       </c>
-      <c r="T12" s="18"/>
-      <c r="U12" s="17">
+      <c r="V12" s="18"/>
+      <c r="W12" s="17">
         <v>4970</v>
       </c>
-      <c r="V12" s="17">
+      <c r="X12" s="17">
         <v>5203</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="AA12" s="1">
         <v>109</v>
       </c>
-      <c r="Z12" s="18">
+      <c r="AB12" s="18">
         <v>22600.959999999999</v>
       </c>
-      <c r="AA12" s="18">
+      <c r="AC12" s="18">
         <v>23714.23</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AD12" s="20">
+        <v>32935.050000000003</v>
+      </c>
+      <c r="AE12" s="18">
         <f>AVERAGE(58160.33,51748.26,59422.06)</f>
         <v>56443.549999999996</v>
       </c>
-      <c r="AC12" s="18">
+      <c r="AF12" s="18">
         <f>AVERAGE(85259.99,82766.89,79049.55)</f>
         <v>82358.81</v>
       </c>
-      <c r="AD12" s="18">
+      <c r="AG12" s="18">
         <f>AVERAGE(118071.64,131028.91,110885.44)</f>
         <v>119995.33</v>
       </c>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1905,85 +2017,94 @@
       <c r="E13" s="3">
         <v>249.88</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="3">
         <v>249.88</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="14">
         <v>249.88</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="16">
+        <v>249.88</v>
+      </c>
+      <c r="I13" s="3">
         <f xml:space="preserve"> AVERAGE(268.63,418.94,472.26)</f>
         <v>386.60999999999996</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>224.88</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>359</v>
       </c>
-      <c r="K13" s="31">
+      <c r="L13" s="24">
         <v>280</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="N13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="18">
+      <c r="O13" s="18">
         <v>37</v>
       </c>
-      <c r="O13" s="18">
+      <c r="P13" s="18">
         <v>6644.96</v>
       </c>
-      <c r="P13" s="18">
+      <c r="Q13" s="18">
         <v>7646.9</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="R13" s="20">
+        <v>8065.9</v>
+      </c>
+      <c r="S13" s="18">
         <f>AVERAGE(14537.19,11181.93,12864.92)</f>
         <v>12861.346666666666</v>
       </c>
-      <c r="R13" s="18">
+      <c r="T13" s="18">
         <f>AVERAGE(16166.74,14699.79,15110.07)</f>
         <v>15325.533333333333</v>
       </c>
-      <c r="S13" s="18">
+      <c r="U13" s="18">
         <f>AVERAGE(23067.53,23561.28,22385.07)</f>
         <v>23004.626666666667</v>
       </c>
-      <c r="T13" s="18"/>
-      <c r="U13" s="17">
+      <c r="V13" s="18"/>
+      <c r="W13" s="17">
         <v>5690</v>
       </c>
-      <c r="V13" s="17">
+      <c r="X13" s="17">
         <v>5690</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="AA13" s="1">
         <v>250</v>
       </c>
-      <c r="Z13" s="18">
+      <c r="AB13" s="18">
         <v>68337.149999999994</v>
       </c>
-      <c r="AA13" s="18">
+      <c r="AC13" s="18">
         <v>66904.56</v>
       </c>
-      <c r="AB13" s="18">
+      <c r="AD13" s="20">
+        <v>90173.79</v>
+      </c>
+      <c r="AE13" s="18">
         <f>AVERAGE(274864.87,269718.4,278424.19)</f>
         <v>274335.82</v>
       </c>
-      <c r="AC13" s="18">
+      <c r="AF13" s="18">
         <f>AVERAGE(415867.69,383763.29,394937.1)</f>
         <v>398189.36000000004</v>
       </c>
-      <c r="AD13" s="18">
+      <c r="AG13" s="18">
         <f>AVERAGE(583762.16)</f>
         <v>583762.16</v>
       </c>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>16</v>
       </c>
@@ -1996,89 +2117,98 @@
       <c r="E14" s="18">
         <v>1230.99</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="20">
+        <v>1506.83</v>
+      </c>
+      <c r="G14" s="18">
         <f xml:space="preserve"> AVERAGE(2543.27,2264.22,2236.15)</f>
         <v>2347.8799999999997</v>
       </c>
-      <c r="G14" s="18">
+      <c r="H14" s="18">
         <f xml:space="preserve"> AVERAGE(3165.36,3868.57,3238.48)</f>
         <v>3424.1366666666668</v>
       </c>
-      <c r="H14" s="18">
+      <c r="I14" s="18">
         <f xml:space="preserve"> AVERAGE(4001.77,4149.66,4420.31)</f>
         <v>4190.5800000000008</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18">
+      <c r="J14" s="18"/>
+      <c r="K14" s="18">
         <v>1130</v>
       </c>
-      <c r="K14" s="17">
+      <c r="L14" s="17">
         <v>1130</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="N14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="18">
+      <c r="O14" s="18">
         <v>50</v>
       </c>
-      <c r="O14" s="18">
+      <c r="P14" s="18">
         <v>6870.92</v>
       </c>
-      <c r="P14" s="18">
+      <c r="Q14" s="18">
         <v>6899.46</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="R14" s="20">
+        <v>9903.2900000000009</v>
+      </c>
+      <c r="S14" s="18">
         <f>AVERAGE(16197.94,15917.45,15432.47)</f>
         <v>15849.286666666667</v>
       </c>
-      <c r="R14" s="18">
+      <c r="T14" s="18">
         <f>AVERAGE(21574.05,19979.71,21821.14)</f>
         <v>21124.966666666664</v>
       </c>
-      <c r="S14" s="18">
+      <c r="U14" s="18">
         <f>AVERAGE(27173.31,30193.71,28065.88)</f>
         <v>28477.633333333335</v>
       </c>
-      <c r="T14" s="18"/>
-      <c r="U14" s="17">
+      <c r="V14" s="18"/>
+      <c r="W14" s="17">
         <v>6202</v>
       </c>
-      <c r="V14" s="17">
+      <c r="X14" s="17">
         <v>6202</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="Z14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="AA14" s="1">
         <v>24</v>
       </c>
-      <c r="Z14" s="18">
+      <c r="AB14" s="18">
         <v>277.23</v>
       </c>
-      <c r="AA14" s="18">
+      <c r="AC14" s="18">
         <v>359.69</v>
       </c>
-      <c r="AB14" s="18">
+      <c r="AD14" s="20">
+        <v>336.7</v>
+      </c>
+      <c r="AE14" s="18">
         <f>AVERAGE(434.6,422.28,429.06)</f>
         <v>428.6466666666667</v>
       </c>
-      <c r="AC14" s="18">
+      <c r="AF14" s="18">
         <f>AVERAGE(521.18,570.78,521.8)</f>
         <v>537.91999999999996</v>
       </c>
-      <c r="AD14" s="18">
+      <c r="AG14" s="18">
         <f>AVERAGE(595.04,690.79,809.66)</f>
         <v>698.49666666666656</v>
       </c>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="17">
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="17">
         <v>284</v>
       </c>
-      <c r="AG14" s="17">
+      <c r="AJ14" s="17">
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2091,89 +2221,98 @@
       <c r="E15" s="18">
         <v>1400.68</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="20">
+        <v>1766.69</v>
+      </c>
+      <c r="G15" s="18">
         <f xml:space="preserve"> AVERAGE(2748.74,2857.69,2722.18)</f>
         <v>2776.2033333333334</v>
       </c>
-      <c r="G15" s="18">
+      <c r="H15" s="18">
         <f xml:space="preserve"> AVERAGE(3524.71,3922.15,3386.62)</f>
         <v>3611.16</v>
       </c>
-      <c r="H15" s="18">
+      <c r="I15" s="18">
         <f xml:space="preserve"> AVERAGE(5047.64,4751.28,5356.29)</f>
         <v>5051.7366666666667</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18">
+      <c r="J15" s="18"/>
+      <c r="K15" s="18">
         <v>1276</v>
       </c>
-      <c r="K15" s="17">
+      <c r="L15" s="17">
         <v>1294</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="N15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="18">
+      <c r="O15" s="18">
         <v>25</v>
       </c>
-      <c r="O15" s="18">
+      <c r="P15" s="18">
         <v>5552.01</v>
       </c>
-      <c r="P15" s="18">
+      <c r="Q15" s="18">
         <v>4469.8100000000004</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="R15" s="20">
+        <v>6675.42</v>
+      </c>
+      <c r="S15" s="18">
         <f>AVERAGE(8243.9,7828.62,9343.42)</f>
         <v>8471.9800000000014</v>
       </c>
-      <c r="R15" s="18">
+      <c r="T15" s="18">
         <f>AVERAGE(9848.73,9639.87,10668.16)</f>
         <v>10052.253333333332</v>
       </c>
-      <c r="S15" s="18">
+      <c r="U15" s="18">
         <f>AVERAGE(16064.09,13760.81,15612.94)</f>
         <v>15145.946666666669</v>
       </c>
-      <c r="T15" s="18"/>
-      <c r="U15" s="17">
+      <c r="V15" s="18"/>
+      <c r="W15" s="17">
         <v>4305</v>
       </c>
-      <c r="V15" s="17">
+      <c r="X15" s="17">
         <v>4303</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="AA15" s="1">
         <v>48</v>
       </c>
-      <c r="Z15" s="18">
+      <c r="AB15" s="18">
         <v>560.07000000000005</v>
       </c>
-      <c r="AA15" s="18">
+      <c r="AC15" s="18">
         <v>606.24</v>
       </c>
-      <c r="AB15" s="18">
+      <c r="AD15" s="20">
+        <v>783.32</v>
+      </c>
+      <c r="AE15" s="18">
         <f>AVERAGE(1004.91,1040.98,1126.33)</f>
         <v>1057.4066666666665</v>
       </c>
-      <c r="AC15" s="18">
+      <c r="AF15" s="18">
         <f>AVERAGE(1325.44,1292.92,1401.37)</f>
         <v>1339.91</v>
       </c>
-      <c r="AD15" s="18">
+      <c r="AG15" s="18">
         <f>AVERAGE(2060.36,1887.69,1987.72)</f>
         <v>1978.5900000000001</v>
       </c>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="17">
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="17">
         <v>557</v>
       </c>
-      <c r="AG15" s="17">
+      <c r="AJ15" s="17">
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
@@ -2187,86 +2326,95 @@
         <v>103</v>
       </c>
       <c r="F16" s="3">
+        <v>150</v>
+      </c>
+      <c r="G16" s="3">
         <f xml:space="preserve"> AVERAGE(120,128,115)</f>
         <v>121</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <f xml:space="preserve"> AVERAGE(167,181,157)</f>
         <v>168.33333333333334</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <f xml:space="preserve"> AVERAGE(222,237,260)</f>
         <v>239.66666666666666</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>99</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>145</v>
       </c>
-      <c r="K16" s="31">
+      <c r="L16" s="24">
         <v>145</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="N16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="18">
+      <c r="O16" s="18">
         <v>37</v>
       </c>
-      <c r="O16" s="18">
+      <c r="P16" s="18">
         <v>5199.62</v>
       </c>
-      <c r="P16" s="18">
+      <c r="Q16" s="18">
         <v>5533.11</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="R16" s="20">
+        <v>8807.33</v>
+      </c>
+      <c r="S16" s="18">
         <f>AVERAGE(12214.44,11244.59,12231.11)</f>
         <v>11896.713333333333</v>
       </c>
-      <c r="R16" s="18">
+      <c r="T16" s="18">
         <f>AVERAGE(16585.26,15072.95,16028.16)</f>
         <v>15895.456666666665</v>
       </c>
-      <c r="S16" s="18">
+      <c r="U16" s="18">
         <f>AVERAGE(22922.75,19946.71,21479.03)</f>
         <v>21449.496666666666</v>
       </c>
-      <c r="T16" s="18"/>
-      <c r="U16" s="17">
+      <c r="V16" s="18"/>
+      <c r="W16" s="17">
         <v>5812</v>
       </c>
-      <c r="V16" s="17">
+      <c r="X16" s="17">
         <v>5812</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="AA16" s="1">
         <v>143</v>
       </c>
-      <c r="Z16" s="18">
+      <c r="AB16" s="18">
         <v>1745</v>
       </c>
-      <c r="AA16" s="18">
+      <c r="AC16" s="18">
         <v>1764.02</v>
       </c>
-      <c r="AB16" s="18">
+      <c r="AD16" s="20">
+        <v>2135.11</v>
+      </c>
+      <c r="AE16" s="18">
         <f>AVERAGE(4825.39,4941.65,5123.81)</f>
         <v>4963.6166666666677</v>
       </c>
-      <c r="AC16" s="18">
+      <c r="AF16" s="18">
         <f>AVERAGE(6845.89,7462.35,7073.22)</f>
         <v>7127.1533333333346</v>
       </c>
-      <c r="AD16" s="18">
+      <c r="AG16" s="18">
         <f>AVERAGE(10248.79)</f>
         <v>10248.790000000001</v>
       </c>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -2280,86 +2428,95 @@
         <v>77.040000000000006</v>
       </c>
       <c r="F17" s="3">
+        <v>94.65</v>
+      </c>
+      <c r="G17" s="3">
         <f xml:space="preserve"> AVERAGE(97.58,112.27,95.39)</f>
         <v>101.74666666666667</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <f xml:space="preserve"> AVERAGE(145.1,145.92,146.38)</f>
         <v>145.79999999999998</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <f xml:space="preserve"> AVERAGE(144.88,182.05,165.82)</f>
         <v>164.25</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>76.72</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>82</v>
       </c>
-      <c r="K17" s="31">
+      <c r="L17" s="24">
         <v>82</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="N17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="18">
+      <c r="O17" s="18">
         <v>50</v>
       </c>
-      <c r="O17" s="18">
+      <c r="P17" s="18">
         <v>6907.12</v>
       </c>
-      <c r="P17" s="18">
+      <c r="Q17" s="18">
         <v>8397.4500000000007</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="R17" s="20">
+        <v>9561.31</v>
+      </c>
+      <c r="S17" s="18">
         <f>AVERAGE(15900.56,15542.01,15610.06)</f>
         <v>15684.21</v>
       </c>
-      <c r="R17" s="18">
+      <c r="T17" s="18">
         <f>AVERAGE(20360.53,20407.07,21616.14)</f>
         <v>20794.579999999998</v>
       </c>
-      <c r="S17" s="18">
+      <c r="U17" s="18">
         <f>AVERAGE(29350.75,30485.02,31815.19)</f>
         <v>30550.320000000003</v>
       </c>
-      <c r="T17" s="18"/>
-      <c r="U17" s="17">
+      <c r="V17" s="18"/>
+      <c r="W17" s="17">
         <v>6368</v>
       </c>
-      <c r="V17" s="17">
+      <c r="X17" s="17">
         <v>6100</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="AA17" s="1">
         <v>195</v>
       </c>
-      <c r="Z17" s="18">
+      <c r="AB17" s="18">
         <v>2382.5</v>
       </c>
-      <c r="AA17" s="18">
+      <c r="AC17" s="18">
         <v>2466.0500000000002</v>
       </c>
-      <c r="AB17" s="18">
+      <c r="AD17" s="20">
+        <v>2978.84</v>
+      </c>
+      <c r="AE17" s="18">
         <f>AVERAGE(7666.21,7493.21,8008.9)</f>
         <v>7722.7733333333335</v>
       </c>
-      <c r="AC17" s="18">
+      <c r="AF17" s="18">
         <f>AVERAGE(10539.71,10735.2,10997.27)</f>
         <v>10757.393333333333</v>
       </c>
-      <c r="AD17" s="18">
+      <c r="AG17" s="18">
         <f>AVERAGE(16118.68)</f>
         <v>16118.68</v>
       </c>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>20</v>
       </c>
@@ -2372,85 +2529,94 @@
       <c r="E18" s="18">
         <v>99.45</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="20">
+        <v>126.36</v>
+      </c>
+      <c r="G18" s="18">
         <f xml:space="preserve"> AVERAGE(154.43,150.12,136.69)</f>
         <v>147.08000000000001</v>
       </c>
-      <c r="G18" s="18">
+      <c r="H18" s="18">
         <f xml:space="preserve"> AVERAGE(210.28,192.92,168.17)</f>
         <v>190.45666666666668</v>
       </c>
-      <c r="H18" s="18">
+      <c r="I18" s="18">
         <f xml:space="preserve"> AVERAGE(257.09,234.8,233.35)</f>
         <v>241.74666666666667</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18">
+      <c r="J18" s="18"/>
+      <c r="K18" s="18">
         <v>102</v>
       </c>
-      <c r="K18" s="17">
+      <c r="L18" s="17">
         <v>102</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="N18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="18">
+      <c r="O18" s="18">
         <v>25</v>
       </c>
-      <c r="O18" s="18">
+      <c r="P18" s="18">
         <v>4346.5200000000004</v>
       </c>
-      <c r="P18" s="18">
+      <c r="Q18" s="18">
         <v>6123.26</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="R18" s="20">
+        <v>6364.51</v>
+      </c>
+      <c r="S18" s="18">
         <f>AVERAGE(7644.11,8352.1,7110.64)</f>
         <v>7702.2833333333328</v>
       </c>
-      <c r="R18" s="18">
+      <c r="T18" s="18">
         <f>AVERAGE(10280.44,9790.16,10174.13)</f>
         <v>10081.576666666666</v>
       </c>
-      <c r="S18" s="18">
+      <c r="U18" s="18">
         <f>AVERAGE(16162.87,14166.38,13364.58)</f>
         <v>14564.61</v>
       </c>
-      <c r="T18" s="18"/>
-      <c r="U18" s="17">
+      <c r="V18" s="18"/>
+      <c r="W18" s="17">
         <v>4964</v>
       </c>
-      <c r="V18" s="17">
+      <c r="X18" s="17">
         <v>4967</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="AA18" s="1">
         <v>43</v>
       </c>
-      <c r="Z18" s="18">
+      <c r="AB18" s="18">
         <v>5028</v>
       </c>
-      <c r="AA18" s="18">
+      <c r="AC18" s="18">
         <v>5478</v>
       </c>
-      <c r="AB18" s="18">
+      <c r="AD18" s="20">
+        <v>5456</v>
+      </c>
+      <c r="AE18" s="18">
         <f>AVERAGE(5942,6221,6355)</f>
         <v>6172.666666666667</v>
       </c>
-      <c r="AC18" s="18">
+      <c r="AF18" s="18">
         <f>AVERAGE(6262,7161,6712)</f>
         <v>6711.666666666667</v>
       </c>
-      <c r="AD18" s="18">
+      <c r="AG18" s="18">
         <f>AVERAGE(7764,7898,7576)</f>
         <v>7746</v>
       </c>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>21</v>
       </c>
@@ -2463,85 +2629,94 @@
       <c r="E19" s="18">
         <v>132.75</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="20">
+        <v>180.93</v>
+      </c>
+      <c r="G19" s="18">
         <f xml:space="preserve"> AVERAGE(151.73,211.47,242.02)</f>
         <v>201.74</v>
       </c>
-      <c r="G19" s="18">
+      <c r="H19" s="18">
         <f xml:space="preserve"> AVERAGE(231.68,189.76,204.44)</f>
         <v>208.62666666666667</v>
       </c>
-      <c r="H19" s="18">
+      <c r="I19" s="18">
         <f xml:space="preserve"> AVERAGE(329.18,321.93,302.8)</f>
         <v>317.97000000000003</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18">
+      <c r="J19" s="18"/>
+      <c r="K19" s="18">
         <v>107</v>
       </c>
-      <c r="K19" s="17">
+      <c r="L19" s="17">
         <v>107</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="N19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="18">
+      <c r="O19" s="18">
         <v>25</v>
-      </c>
-      <c r="O19" s="18">
-        <v>5246.28</v>
       </c>
       <c r="P19" s="18">
         <v>5246.28</v>
       </c>
       <c r="Q19" s="18">
+        <v>5246.28</v>
+      </c>
+      <c r="R19" s="20">
+        <v>6283.52</v>
+      </c>
+      <c r="S19" s="18">
         <f>AVERAGE(7915.81,9560.27,9212.85)</f>
         <v>8896.31</v>
       </c>
-      <c r="R19" s="18">
+      <c r="T19" s="18">
         <f>AVERAGE(8891.67,10877.16,9352.88)</f>
         <v>9707.2366666666658</v>
       </c>
-      <c r="S19" s="18">
+      <c r="U19" s="18">
         <f>AVERAGE(14030.91,15308.79,13097.6)</f>
         <v>14145.766666666668</v>
       </c>
-      <c r="T19" s="18"/>
-      <c r="U19" s="17">
+      <c r="V19" s="18"/>
+      <c r="W19" s="17">
         <v>4762</v>
       </c>
-      <c r="V19" s="17">
+      <c r="X19" s="17">
         <v>4762</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="AA19" s="1">
         <v>133</v>
       </c>
-      <c r="Z19" s="18">
+      <c r="AB19" s="18">
         <v>12360</v>
       </c>
-      <c r="AA19" s="18">
+      <c r="AC19" s="18">
         <v>12196</v>
       </c>
-      <c r="AB19" s="18">
+      <c r="AD19" s="20">
+        <v>12847</v>
+      </c>
+      <c r="AE19" s="18">
         <f>AVERAGE(16179,15753,15546)</f>
         <v>15826</v>
       </c>
-      <c r="AC19" s="18">
+      <c r="AF19" s="18">
         <f>AVERAGE(18106,17964,18328)</f>
         <v>18132.666666666668</v>
       </c>
-      <c r="AD19" s="18">
+      <c r="AG19" s="18">
         <f>AVERAGE(21295,22108,21131)</f>
         <v>21511.333333333332</v>
       </c>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
@@ -2554,86 +2729,95 @@
       <c r="E20" s="3">
         <v>147</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="3">
+        <v>169</v>
+      </c>
+      <c r="G20" s="14">
         <v>147</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <f xml:space="preserve"> AVERAGE(208,212,184)</f>
         <v>201.33333333333334</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <f xml:space="preserve"> AVERAGE(228,271,228)</f>
         <v>242.33333333333334</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>145</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>243</v>
       </c>
-      <c r="K20" s="31">
+      <c r="L20" s="24">
         <v>243</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="N20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="18">
+      <c r="O20" s="18">
         <v>25</v>
       </c>
-      <c r="O20" s="18">
+      <c r="P20" s="18">
         <v>4123.3500000000004</v>
       </c>
-      <c r="P20" s="18">
+      <c r="Q20" s="18">
         <v>3842.76</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="R20" s="20">
+        <v>6277.68</v>
+      </c>
+      <c r="S20" s="18">
         <f>AVERAGE(8471.76,7370.09,6547.6)</f>
         <v>7463.1500000000005</v>
       </c>
-      <c r="R20" s="18">
+      <c r="T20" s="18">
         <f>AVERAGE(10926.41,9270.4,9458.38)</f>
         <v>9885.0633333333317</v>
       </c>
-      <c r="S20" s="18">
+      <c r="U20" s="18">
         <f>AVERAGE(16450.56,14608.83,13150.71)</f>
         <v>14736.699999999999</v>
       </c>
-      <c r="T20" s="18"/>
-      <c r="U20" s="17">
+      <c r="V20" s="18"/>
+      <c r="W20" s="17">
         <v>3905</v>
       </c>
-      <c r="V20" s="17">
+      <c r="X20" s="17">
         <v>3905</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="AA20" s="1">
         <v>258</v>
       </c>
-      <c r="Z20" s="18">
+      <c r="AB20" s="18">
         <v>22289</v>
       </c>
-      <c r="AA20" s="18">
+      <c r="AC20" s="18">
         <v>22414</v>
       </c>
-      <c r="AB20" s="18">
+      <c r="AD20" s="20">
+        <v>26555</v>
+      </c>
+      <c r="AE20" s="18">
         <f>AVERAGE(37635,36780,38408)</f>
         <v>37607.666666666664</v>
       </c>
-      <c r="AC20" s="18">
+      <c r="AF20" s="18">
         <f>AVERAGE(40435)</f>
         <v>40435</v>
       </c>
-      <c r="AD20" s="18">
+      <c r="AG20" s="18">
         <f>AVERAGE(44192)</f>
         <v>44192</v>
       </c>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>24</v>
       </c>
@@ -2646,89 +2830,98 @@
       <c r="E21" s="18">
         <v>666.2</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="20">
+        <v>813.43</v>
+      </c>
+      <c r="G21" s="18">
         <f xml:space="preserve"> AVERAGE(1394.04,1547.92,1338.26)</f>
         <v>1426.74</v>
       </c>
-      <c r="G21" s="18">
+      <c r="H21" s="18">
         <f xml:space="preserve"> AVERAGE(1740.18,1747.66,1836.41)</f>
         <v>1774.75</v>
       </c>
-      <c r="H21" s="18">
+      <c r="I21" s="18">
         <f xml:space="preserve"> AVERAGE(2369.16,2484.33,2674.2)</f>
         <v>2509.23</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18">
+      <c r="J21" s="18"/>
+      <c r="K21" s="18">
         <v>540</v>
       </c>
-      <c r="K21" s="17">
+      <c r="L21" s="17">
         <v>540</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="N21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="N21" s="18">
+      <c r="O21" s="18">
         <v>26</v>
       </c>
-      <c r="O21" s="18">
+      <c r="P21" s="18">
         <v>2149.8200000000002</v>
       </c>
-      <c r="P21" s="18">
+      <c r="Q21" s="18">
         <v>2067.87</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="R21" s="20">
+        <v>4270.6499999999996</v>
+      </c>
+      <c r="S21" s="18">
         <f>AVERAGE(3890.65,4784.86,4636.22)</f>
         <v>4437.2433333333329</v>
       </c>
-      <c r="R21" s="18">
+      <c r="T21" s="18">
         <f>AVERAGE(6322.12,5842.62,6388.32)</f>
         <v>6184.3533333333326</v>
       </c>
-      <c r="S21" s="18">
+      <c r="U21" s="18">
         <f>AVERAGE(9008.72,9224.55,9411.86)</f>
         <v>9215.0433333333331</v>
       </c>
-      <c r="T21" s="18"/>
-      <c r="U21" s="17">
+      <c r="V21" s="18"/>
+      <c r="W21" s="17">
         <v>2606</v>
       </c>
-      <c r="V21" s="17">
+      <c r="X21" s="17">
         <v>2606</v>
       </c>
-      <c r="X21" s="12" t="s">
+      <c r="Z21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Y21" s="12">
+      <c r="AA21" s="12">
         <v>17</v>
       </c>
-      <c r="Z21" s="12">
+      <c r="AB21" s="12">
         <v>130.04</v>
       </c>
-      <c r="AA21" s="12">
+      <c r="AC21" s="12">
         <v>128.07</v>
       </c>
-      <c r="AB21" s="18">
+      <c r="AD21" s="12">
+        <v>177.42</v>
+      </c>
+      <c r="AE21" s="18">
         <f>AVERAGE(182.12,212.39,172.41)</f>
         <v>188.97333333333333</v>
       </c>
-      <c r="AC21" s="18">
+      <c r="AF21" s="18">
         <f>AVERAGE(261,245.52,226.95)</f>
         <v>244.49</v>
       </c>
-      <c r="AD21" s="18">
+      <c r="AG21" s="18">
         <f>AVERAGE(331.15,316.08,337.74)</f>
         <v>328.32333333333332</v>
       </c>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="17">
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="17">
         <v>120</v>
       </c>
-      <c r="AG21" s="17">
+      <c r="AJ21" s="17">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2741,90 +2934,99 @@
       <c r="E22" s="3">
         <v>154</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="3">
+        <v>144</v>
+      </c>
+      <c r="G22" s="14">
         <v>174</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <f xml:space="preserve"> AVERAGE(181,143,145)</f>
         <v>156.33333333333334</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <f xml:space="preserve"> AVERAGE(146,146,154)</f>
         <v>148.66666666666666</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>143</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>234</v>
       </c>
-      <c r="K22" s="31">
+      <c r="L22" s="24">
         <v>234</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="N22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="18">
+      <c r="O22" s="18">
         <v>79</v>
       </c>
-      <c r="O22" s="18">
+      <c r="P22" s="18">
         <v>9156.66</v>
       </c>
-      <c r="P22" s="18">
+      <c r="Q22" s="18">
         <v>9230.75</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="R22" s="20">
+        <v>14274.48</v>
+      </c>
+      <c r="S22" s="18">
         <f>AVERAGE(25401.97,25448.92,26352.32)</f>
         <v>25734.403333333332</v>
       </c>
-      <c r="R22" s="18">
+      <c r="T22" s="18">
         <f>AVERAGE(39256.55,36669.92,41416.82)</f>
         <v>39114.43</v>
       </c>
-      <c r="S22" s="18">
+      <c r="U22" s="18">
         <f>AVERAGE(53807.48,58556.73,54436.29)</f>
         <v>55600.166666666664</v>
       </c>
-      <c r="T22" s="18"/>
-      <c r="U22" s="17">
+      <c r="V22" s="18"/>
+      <c r="W22" s="17">
         <v>8901</v>
       </c>
-      <c r="V22" s="17">
+      <c r="X22" s="17">
         <v>8901</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="AA22" s="1">
         <v>10</v>
       </c>
-      <c r="Z22" s="18">
+      <c r="AB22" s="18">
         <v>146</v>
       </c>
-      <c r="AA22" s="18">
+      <c r="AC22" s="18">
         <v>146</v>
       </c>
-      <c r="AB22" s="18">
+      <c r="AD22" s="20">
+        <v>268</v>
+      </c>
+      <c r="AE22" s="18">
         <f>AVERAGE(185,182,195)</f>
         <v>187.33333333333334</v>
       </c>
-      <c r="AC22" s="18">
+      <c r="AF22" s="18">
         <f>AVERAGE(252,246,272)</f>
         <v>256.66666666666669</v>
       </c>
-      <c r="AD22" s="18">
+      <c r="AG22" s="18">
         <f>AVERAGE(326,416,290)</f>
         <v>344</v>
       </c>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="17">
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="17">
         <v>192</v>
       </c>
-      <c r="AG22" s="17">
+      <c r="AJ22" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -2837,82 +3039,91 @@
       <c r="E23" s="3">
         <v>248</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="3">
+        <v>363</v>
+      </c>
+      <c r="G23" s="14">
         <v>258</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <f xml:space="preserve"> AVERAGE(291,311,283)</f>
         <v>295</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <f xml:space="preserve"> AVERAGE(346,362,367)</f>
         <v>358.33333333333331</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>181</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>324</v>
       </c>
-      <c r="K23" s="31">
+      <c r="L23" s="24">
         <v>324</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="N23" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="N23" s="18">
+      <c r="O23" s="18">
         <v>344</v>
       </c>
-      <c r="O23" s="18">
+      <c r="P23" s="18">
         <v>13388.78</v>
       </c>
-      <c r="P23" s="18">
+      <c r="Q23" s="18">
         <v>13074.68</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="R23" s="20">
+        <v>17414.240000000002</v>
+      </c>
+      <c r="S23" s="18">
         <f>AVERAGE(59275.29,58450.29,59315.09)</f>
         <v>59013.556666666664</v>
       </c>
-      <c r="R23" s="18">
+      <c r="T23" s="18">
         <f>AVERAGE(85535.08,84406.33,83926.87)</f>
         <v>84622.76</v>
       </c>
-      <c r="S23" s="18">
+      <c r="U23" s="18">
         <f>AVERAGE(126181.16)</f>
         <v>126181.16</v>
       </c>
-      <c r="T23" s="18"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="X23" s="1" t="s">
+      <c r="V23" s="18"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Z23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="AA23" s="1">
         <v>56</v>
       </c>
-      <c r="Z23" s="18">
+      <c r="AB23" s="18">
         <v>27500</v>
       </c>
-      <c r="AA23" s="18">
+      <c r="AC23" s="18">
         <v>27500</v>
       </c>
-      <c r="AB23" s="18">
+      <c r="AD23" s="20">
+        <v>44543.199999999997</v>
+      </c>
+      <c r="AE23" s="18">
         <f>AVERAGE(85382.67,73888.73,78761.91)</f>
         <v>79344.436666666661</v>
       </c>
-      <c r="AC23" s="18">
+      <c r="AF23" s="18">
         <f>AVERAGE(112768.26,121830.06,103849.9)</f>
         <v>112816.07333333332</v>
       </c>
-      <c r="AD23" s="18">
+      <c r="AG23" s="18">
         <f>AVERAGE(158513.07,160145.27,154202.11)</f>
         <v>157620.15</v>
       </c>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-    </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
@@ -2925,128 +3136,140 @@
       <c r="E24" s="3">
         <v>162</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="3">
+        <v>183</v>
+      </c>
+      <c r="G24" s="14">
         <v>162</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <f xml:space="preserve"> AVERAGE(185,204,244)</f>
         <v>211</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <f xml:space="preserve"> AVERAGE(353,228,244)</f>
         <v>275</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>162</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>264</v>
       </c>
-      <c r="K24" s="31">
+      <c r="L24" s="24">
         <v>264</v>
       </c>
-      <c r="L24" s="30"/>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="23"/>
+      <c r="N24" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="N24" s="18">
+      <c r="O24" s="18">
         <v>140</v>
       </c>
-      <c r="O24" s="18">
+      <c r="P24" s="18">
         <v>728</v>
       </c>
-      <c r="P24" s="18">
+      <c r="Q24" s="18">
         <v>566</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="R24" s="20">
+        <v>782</v>
+      </c>
+      <c r="S24" s="18">
         <f>AVERAGE(1781,1645,2083)</f>
         <v>1836.3333333333333</v>
       </c>
-      <c r="R24" s="18">
+      <c r="T24" s="18">
         <f>AVERAGE(2433,2270,2358)</f>
         <v>2353.6666666666665</v>
       </c>
-      <c r="S24" s="18">
+      <c r="U24" s="18">
         <f>AVERAGE(3482)</f>
         <v>3482</v>
       </c>
-      <c r="T24" s="18"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="X24" s="1" t="s">
+      <c r="V24" s="18"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Z24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="AA24" s="1">
         <v>56</v>
       </c>
-      <c r="Z24" s="18">
+      <c r="AB24" s="18">
         <v>1036.02</v>
       </c>
-      <c r="AA24" s="18">
+      <c r="AC24" s="18">
         <v>1056.72</v>
       </c>
-      <c r="AB24" s="18">
+      <c r="AD24" s="20">
+        <v>1100.3800000000001</v>
+      </c>
+      <c r="AE24" s="18">
         <f>AVERAGE(1900.37,1955.94,1523.17)</f>
         <v>1793.1599999999999</v>
       </c>
-      <c r="AC24" s="18">
+      <c r="AF24" s="18">
         <f>AVERAGE(2339.51,2442.57,2648.4)</f>
         <v>2476.8266666666664</v>
       </c>
-      <c r="AD24" s="18">
+      <c r="AG24" s="18">
         <f>AVERAGE(3743.26,3441.56,3992.71)</f>
         <v>3725.8433333333328</v>
       </c>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="J25" s="2"/>
-      <c r="K25" s="7"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="K25" s="2"/>
       <c r="L25" s="7"/>
-      <c r="X25" s="3" t="s">
+      <c r="M25" s="7"/>
+      <c r="Z25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="AA25" s="3">
         <v>4</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="AB25" s="3">
         <v>826.08</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AC25" s="3">
         <v>751.06</v>
       </c>
-      <c r="AB25" s="14">
+      <c r="AD25" s="3">
+        <v>902.27</v>
+      </c>
+      <c r="AE25" s="14">
         <v>826.08</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AF25" s="3">
         <f>AVERAGE(826.29,826.29,1004.13)</f>
         <v>885.57</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AG25" s="3">
         <f>AVERAGE(1119.4,874.94,751.06)</f>
         <v>915.13333333333333</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AH25" s="3">
         <v>714.33</v>
       </c>
-      <c r="AF25" s="31">
+      <c r="AI25" s="24">
         <v>935</v>
       </c>
-      <c r="AG25" s="31">
+      <c r="AJ25" s="24">
         <v>935</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B26" s="24" t="s">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B26" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="7"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="10"/>
+      <c r="K26" s="2"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -3054,53 +3277,58 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="3" t="s">
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Y26" s="9">
+      <c r="AA26" s="9">
         <v>5</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>456.58</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>456.58</v>
       </c>
-      <c r="AB26" s="14">
+      <c r="AD26" s="3">
+        <v>643.88</v>
+      </c>
+      <c r="AE26" s="14">
         <v>456.58</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AF26" s="3">
         <f>AVERAGE(776.37,870.7,559.22)</f>
         <v>735.43</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AG26" s="3">
         <f>AVERAGE(1273.79,860.7,956.16)</f>
         <v>1030.2166666666665</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AH26" s="3">
         <v>662.17</v>
       </c>
-      <c r="AF26" s="31">
+      <c r="AI26" s="24">
         <v>747</v>
       </c>
-      <c r="AG26" s="31">
+      <c r="AJ26" s="24">
         <v>747</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B27" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="7"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="35"/>
+      <c r="K27" s="2"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -3108,96 +3336,110 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="2"/>
+      <c r="S27" s="7"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
+      <c r="U27" s="2"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-    </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="35"/>
+    </row>
+    <row r="29" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="10"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="10"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="10"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="AB1:AJ1"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="B29:E33"/>
@@ -3219,81 +3461,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG38"/>
+  <dimension ref="B1:AJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.7109375" customWidth="1"/>
-    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.140625" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" customWidth="1"/>
+    <col min="31" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="22"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18" t="s">
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="32"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="AB1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="22"/>
-    </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="32"/>
+    </row>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3306,86 +3556,95 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="R2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="T2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="U2" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="W2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="X2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="Z2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="AA2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="AB2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AC2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AD2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AF2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AG2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="AH2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="19" t="s">
+      <c r="AI2" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AG2" s="19" t="s">
+      <c r="AJ2" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3398,89 +3657,98 @@
       <c r="E3" s="1">
         <v>1551.66</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="20">
+        <v>1886.74</v>
+      </c>
+      <c r="G3" s="1">
         <f>AVERAGE(3647.07,3269.08,3255.4)</f>
         <v>3390.5166666666664</v>
       </c>
-      <c r="G3" s="13">
+      <c r="H3" s="13">
         <f>AVERAGE(4871.84,4760.1,4823.42)</f>
         <v>4818.4533333333338</v>
       </c>
-      <c r="H3" s="13">
+      <c r="I3" s="13">
         <f>AVERAGE(7003.18,6708.75,7070.15)</f>
         <v>6927.3600000000006</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="18">
+      <c r="J3" s="1"/>
+      <c r="K3" s="18">
         <v>1314</v>
       </c>
-      <c r="K3" s="17">
+      <c r="L3" s="17">
         <v>1358</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="N3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="18">
+      <c r="O3" s="18">
         <v>24</v>
       </c>
-      <c r="O3" s="18">
+      <c r="P3" s="18">
         <v>2139</v>
       </c>
-      <c r="P3" s="18">
+      <c r="Q3" s="18">
         <v>1691</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="R3" s="20">
+        <v>2752</v>
+      </c>
+      <c r="S3" s="18">
         <f>AVERAGE(2847,2862,2525)</f>
         <v>2744.6666666666665</v>
       </c>
-      <c r="R3" s="18">
+      <c r="T3" s="18">
         <f>AVERAGE(2877,3021,3207)</f>
         <v>3035</v>
       </c>
-      <c r="S3" s="18">
+      <c r="U3" s="18">
         <f>AVERAGE(4796,4876,8514)</f>
         <v>6062</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18">
+      <c r="V3" s="18"/>
+      <c r="W3" s="18">
         <v>1819</v>
       </c>
-      <c r="V3" s="17">
+      <c r="X3" s="17">
         <v>1819</v>
       </c>
-      <c r="X3" s="18" t="s">
+      <c r="Z3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="AA3" s="18">
         <v>38</v>
       </c>
-      <c r="Z3" s="18">
+      <c r="AB3" s="18">
         <v>42676.77</v>
       </c>
-      <c r="AA3" s="18">
+      <c r="AC3" s="18">
         <v>44191.56</v>
       </c>
-      <c r="AB3" s="18">
+      <c r="AD3" s="20">
+        <v>50551.3</v>
+      </c>
+      <c r="AE3" s="18">
         <f>AVERAGE(67671.02,71552.62,67721.63)</f>
         <v>68981.756666666668</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AF3" s="18">
         <f>AVERAGE(94649.81,88157.51,90167.11)</f>
         <v>90991.476666666669</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AG3" s="18">
         <f>AVERAGE(115393.42,111909.71,108736.61)</f>
         <v>112013.24666666666</v>
       </c>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="17">
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="17">
         <v>41248</v>
       </c>
-      <c r="AG3" s="17">
+      <c r="AJ3" s="17">
         <v>42638</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3489,85 +3757,92 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="13">
-        <f t="shared" ref="F4" si="0">AVERAGE(1)</f>
+      <c r="F4" s="20"/>
+      <c r="G4" s="13">
+        <f t="shared" ref="G4" si="0">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="13">
-        <f t="shared" ref="G4:H4" si="1">AVERAGE(1)</f>
+      <c r="H4" s="13">
+        <f t="shared" ref="H4:I4" si="1">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="13">
+      <c r="I4" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17"/>
-      <c r="M4" s="18" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="17"/>
+      <c r="N4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="18">
+      <c r="O4" s="18">
         <v>48</v>
       </c>
-      <c r="O4" s="18">
+      <c r="P4" s="18">
         <v>22073.5</v>
       </c>
-      <c r="P4" s="18">
+      <c r="Q4" s="18">
         <v>23897.19</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="R4" s="20">
+        <v>33537.83</v>
+      </c>
+      <c r="S4" s="18">
         <f>AVERAGE(43002.43,42126.39,45047.13)</f>
         <v>43391.983333333337</v>
       </c>
-      <c r="R4" s="18">
+      <c r="T4" s="18">
         <f>AVERAGE(56604.77,59612.96,61636.42)</f>
         <v>59284.716666666667</v>
       </c>
-      <c r="S4" s="18">
+      <c r="U4" s="18">
         <f>AVERAGE(81017.35,79446.65,88081.2)</f>
         <v>82848.400000000009</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18">
+      <c r="V4" s="18"/>
+      <c r="W4" s="18">
         <v>20688</v>
       </c>
-      <c r="V4" s="17">
+      <c r="X4" s="17">
         <v>19876</v>
       </c>
-      <c r="X4" s="18" t="s">
+      <c r="Z4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="Y4" s="18">
+      <c r="AA4" s="18">
         <v>52</v>
       </c>
-      <c r="Z4" s="18">
+      <c r="AB4" s="18">
         <v>17103.07</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AC4" s="18">
         <v>15595.35</v>
       </c>
-      <c r="AB4" s="18">
+      <c r="AD4" s="20">
+        <v>25998.98</v>
+      </c>
+      <c r="AE4" s="18">
         <f>AVERAGE(43965.63,41638.47,55019.8)</f>
         <v>46874.633333333339</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AF4" s="18">
         <f>AVERAGE(67679.21,73086.24,61048.1)</f>
         <v>67271.183333333334</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AG4" s="18">
         <f>AVERAGE(8707.29,86044.23,86981.12)</f>
         <v>60577.546666666662</v>
       </c>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="17">
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="17">
         <v>18028</v>
       </c>
-      <c r="AG4" s="17">
+      <c r="AJ4" s="17">
         <v>18028</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3581,82 +3856,91 @@
         <v>3710</v>
       </c>
       <c r="F5" s="3">
+        <v>4838</v>
+      </c>
+      <c r="G5" s="3">
         <f>AVERAGE(6095,4382,4205)</f>
         <v>4894</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <f>AVERAGE(7414,5540,5189)</f>
         <v>6047.666666666667</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <f>AVERAGE(10645,9493,9505)</f>
         <v>9881</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="31"/>
-      <c r="M5" s="18" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="24"/>
+      <c r="N5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="18">
+      <c r="O5" s="18">
         <v>60</v>
       </c>
-      <c r="O5" s="18">
+      <c r="P5" s="18">
         <v>3174</v>
       </c>
-      <c r="P5" s="18">
+      <c r="Q5" s="18">
         <v>3062</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="R5" s="20">
+        <v>4147</v>
+      </c>
+      <c r="S5" s="18">
         <f>AVERAGE(5034,5155,5513)</f>
         <v>5234</v>
       </c>
-      <c r="R5" s="18">
+      <c r="T5" s="18">
         <f>AVERAGE(6747,6436,7004)</f>
         <v>6729</v>
       </c>
-      <c r="S5" s="18">
+      <c r="U5" s="18">
         <f>AVERAGE(9514,9995,10627)</f>
         <v>10045.333333333334</v>
       </c>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="17"/>
-      <c r="X5" s="18" t="s">
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="17"/>
+      <c r="Z5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="AA5" s="18">
         <v>62</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="AB5" s="18">
         <v>26214.19</v>
       </c>
-      <c r="AA5" s="18">
+      <c r="AC5" s="18">
         <v>22543.29</v>
       </c>
-      <c r="AB5" s="18">
+      <c r="AD5" s="20">
+        <v>45272.02</v>
+      </c>
+      <c r="AE5" s="18">
         <f>AVERAGE(57354.29,64630.46,70897.19)</f>
         <v>64293.98</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AF5" s="18">
         <f>AVERAGE(81871.21,77591.71,67122.83)</f>
         <v>75528.583333333328</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AG5" s="18">
         <f>AVERAGE(137258.53,132466.16,118834.53)</f>
         <v>129519.73999999999</v>
       </c>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="17">
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="17">
         <v>22998</v>
       </c>
-      <c r="AG5" s="17">
+      <c r="AJ5" s="17">
         <v>22998</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3669,81 +3953,88 @@
       <c r="E6" s="1">
         <v>10405</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="20">
+        <v>13419</v>
+      </c>
+      <c r="G6" s="13">
         <f>AVERAGE(36633,36410,36332)</f>
         <v>36458.333333333336</v>
       </c>
-      <c r="G6" s="13">
+      <c r="H6" s="13">
         <f>AVERAGE(59476,55583,52888)</f>
         <v>55982.333333333336</v>
       </c>
-      <c r="H6" s="13">
+      <c r="I6" s="13">
         <f>AVERAGE(86605,88268,85729)</f>
         <v>86867.333333333328</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="17"/>
-      <c r="M6" s="18" t="s">
+      <c r="J6" s="1"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="17"/>
+      <c r="N6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="18">
+      <c r="O6" s="18">
         <v>68</v>
       </c>
-      <c r="O6" s="18"/>
       <c r="P6" s="18"/>
-      <c r="Q6" s="18">
-        <f t="shared" ref="Q6:Q10" si="2">AVERAGE(1)</f>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="18">
+        <f t="shared" ref="S6:S10" si="2">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="R6" s="18">
-        <f t="shared" ref="R6:S10" si="3">AVERAGE(1)</f>
+      <c r="T6" s="18">
+        <f t="shared" ref="T6:U10" si="3">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="S6" s="18">
+      <c r="U6" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18">
+      <c r="V6" s="18"/>
+      <c r="W6" s="18">
         <v>29363</v>
       </c>
-      <c r="V6" s="17">
+      <c r="X6" s="17">
         <v>31784</v>
       </c>
-      <c r="X6" s="18" t="s">
+      <c r="Z6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="Y6" s="18">
+      <c r="AA6" s="18">
         <v>68</v>
       </c>
-      <c r="Z6" s="18">
+      <c r="AB6" s="18">
         <v>53346.76</v>
       </c>
-      <c r="AA6" s="18">
+      <c r="AC6" s="18">
         <v>51047.96</v>
       </c>
-      <c r="AB6" s="18">
+      <c r="AD6" s="20">
+        <v>64601.760000000002</v>
+      </c>
+      <c r="AE6" s="18">
         <f>AVERAGE(94718.25,98201.9,84465.24)</f>
         <v>92461.796666666676</v>
       </c>
-      <c r="AC6" s="18">
+      <c r="AF6" s="18">
         <f>AVERAGE(122250.16,119394.38,127078.23)</f>
         <v>122907.59000000001</v>
       </c>
-      <c r="AD6" s="18">
+      <c r="AG6" s="18">
         <f>AVERAGE(148276.98,173293.49,169617.71)</f>
         <v>163729.39333333331</v>
       </c>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="17">
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="17">
         <v>46890</v>
       </c>
-      <c r="AG6" s="17">
+      <c r="AJ6" s="17">
         <v>46909</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -3756,86 +4047,93 @@
       <c r="E7" s="3">
         <v>581</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="3">
+        <v>873</v>
+      </c>
+      <c r="G7" s="14">
         <v>581</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <f>AVERAGE(765,825,793)</f>
         <v>794.33333333333337</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <f>AVERAGE(1000,1103,1011)</f>
         <v>1038</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>626</v>
       </c>
-      <c r="K7" s="31">
+      <c r="L7" s="24">
         <v>626</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="N7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="18">
+      <c r="O7" s="18">
         <v>101</v>
       </c>
-      <c r="O7" s="18"/>
       <c r="P7" s="18"/>
-      <c r="Q7" s="18">
+      <c r="Q7" s="18"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R7" s="18">
+      <c r="T7" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S7" s="18">
+      <c r="U7" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18">
+      <c r="V7" s="18"/>
+      <c r="W7" s="18">
         <v>14181</v>
       </c>
-      <c r="V7" s="17">
+      <c r="X7" s="17">
         <v>14181</v>
       </c>
-      <c r="X7" s="18" t="s">
+      <c r="Z7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="AA7" s="18">
         <v>72</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="AB7" s="18">
         <v>26457.22</v>
       </c>
-      <c r="AA7" s="18">
+      <c r="AC7" s="18">
         <v>28471</v>
       </c>
-      <c r="AB7" s="18">
+      <c r="AD7" s="20">
+        <v>44396.63</v>
+      </c>
+      <c r="AE7" s="18">
         <f>AVERAGE(62535.57,67602.32,64349.75)</f>
         <v>64829.21333333334</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AF7" s="18">
         <f>AVERAGE(102228.3,110315.73,100851.64)</f>
         <v>104465.22333333333</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AG7" s="18">
         <f>AVERAGE(173980.05,168318.31,169090.17)</f>
         <v>170462.84333333335</v>
       </c>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="17">
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="17">
         <v>28402</v>
       </c>
-      <c r="AG7" s="17">
+      <c r="AJ7" s="17">
         <v>28059</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -3848,86 +4146,93 @@
       <c r="E8" s="3">
         <v>818</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="3">
+        <v>1115</v>
+      </c>
+      <c r="G8" s="14">
         <v>816</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <f>AVERAGE(990,1126,1127)</f>
         <v>1081</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <f>AVERAGE(1244,1312,1463)</f>
         <v>1339.6666666666667</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>733</v>
       </c>
-      <c r="K8" s="31">
+      <c r="L8" s="24">
         <v>733</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="N8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="18">
+      <c r="O8" s="18">
         <v>114</v>
       </c>
-      <c r="O8" s="18"/>
       <c r="P8" s="18"/>
-      <c r="Q8" s="18">
+      <c r="Q8" s="18"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R8" s="18">
+      <c r="T8" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S8" s="18">
+      <c r="U8" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18">
+      <c r="V8" s="18"/>
+      <c r="W8" s="18">
         <v>41005</v>
       </c>
-      <c r="V8" s="17">
+      <c r="X8" s="17">
         <v>41005</v>
       </c>
-      <c r="X8" s="18" t="s">
+      <c r="Z8" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="AA8" s="18">
         <v>76</v>
       </c>
-      <c r="Z8" s="18">
+      <c r="AB8" s="18">
         <v>35032.6</v>
       </c>
-      <c r="AA8" s="18">
+      <c r="AC8" s="18">
         <v>35705.47</v>
       </c>
-      <c r="AB8" s="18">
+      <c r="AD8" s="20">
+        <v>57394.59</v>
+      </c>
+      <c r="AE8" s="18">
         <f>AVERAGE(92260.55,75101.11,80997.32)</f>
         <v>82786.326666666675</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="AF8" s="18">
         <f>AVERAGE(118521.41,107632.89,119739.37)</f>
         <v>115297.89</v>
       </c>
-      <c r="AD8" s="18">
+      <c r="AG8" s="18">
         <f>AVERAGE(200109.29,183817.21,179421.67)</f>
         <v>187782.72333333336</v>
       </c>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="17">
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="17">
         <v>36637</v>
       </c>
-      <c r="AG8" s="17">
+      <c r="AJ8" s="17">
         <v>38863</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -3941,82 +4246,89 @@
         <v>1857.02</v>
       </c>
       <c r="F9" s="3">
+        <v>2849.17</v>
+      </c>
+      <c r="G9" s="3">
         <f>AVERAGE(2651.31,3294.21,2833.02)</f>
         <v>2926.1800000000003</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <f>AVERAGE(3297.3,4088.31,3040.49)</f>
         <v>3475.3666666666668</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <f>AVERAGE(5796.77,5450.13,5975.41)</f>
         <v>5740.77</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>3303.71452420693</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1874</v>
       </c>
-      <c r="K9" s="31">
+      <c r="L9" s="24">
         <v>1874</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="N9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="18">
+      <c r="O9" s="18">
         <v>215</v>
       </c>
-      <c r="O9" s="18"/>
       <c r="P9" s="18"/>
-      <c r="Q9" s="18">
+      <c r="Q9" s="18"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R9" s="18">
+      <c r="T9" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S9" s="18">
+      <c r="U9" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="17"/>
-      <c r="X9" s="18" t="s">
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="17"/>
+      <c r="Z9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="Y9" s="18">
+      <c r="AA9" s="18">
         <v>113</v>
       </c>
-      <c r="Z9" s="18">
+      <c r="AB9" s="18">
         <v>51597.94</v>
       </c>
-      <c r="AA9" s="18">
+      <c r="AC9" s="18">
         <v>53661.61</v>
       </c>
-      <c r="AB9" s="18">
+      <c r="AD9" s="20">
+        <v>69425.490000000005</v>
+      </c>
+      <c r="AE9" s="18">
         <f>AVERAGE(125277.77,124544.19,117939.53)</f>
         <v>122587.16333333333</v>
       </c>
-      <c r="AC9" s="18">
+      <c r="AF9" s="18">
         <f>AVERAGE(187903.06,202714.89,201206)</f>
         <v>197274.65</v>
       </c>
-      <c r="AD9" s="18">
+      <c r="AG9" s="18">
         <f>AVERAGE(318764.04,308039.97,329299.51)</f>
         <v>318701.17333333334</v>
       </c>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="17">
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="17">
         <v>38718</v>
       </c>
-      <c r="AG9" s="17">
+      <c r="AJ9" s="17">
         <v>39597</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -4029,77 +4341,84 @@
       <c r="E10" s="1">
         <v>30074.639999999999</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="20">
+        <v>44332.08</v>
+      </c>
+      <c r="G10" s="13">
         <f>AVERAGE(56780.47,53043,50702.91)</f>
         <v>53508.793333333335</v>
       </c>
-      <c r="G10" s="13">
+      <c r="H10" s="13">
         <f>AVERAGE(79613.02,78420.73,88103.95)</f>
         <v>82045.900000000009</v>
       </c>
-      <c r="H10" s="13">
+      <c r="I10" s="13">
         <f>AVERAGE(110312.62,112767.63,104428.25)</f>
         <v>109169.5</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="18">
+      <c r="J10" s="1"/>
+      <c r="K10" s="18">
         <v>26062</v>
       </c>
-      <c r="K10" s="17">
+      <c r="L10" s="17">
         <v>26107</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="N10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="18">
+      <c r="O10" s="18">
         <v>333</v>
       </c>
-      <c r="O10" s="18"/>
       <c r="P10" s="18"/>
-      <c r="Q10" s="18">
+      <c r="Q10" s="18"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R10" s="18">
+      <c r="T10" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S10" s="18">
+      <c r="U10" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="17"/>
-      <c r="X10" s="18" t="s">
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="17"/>
+      <c r="Z10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="Y10" s="18">
+      <c r="AA10" s="18">
         <v>132</v>
       </c>
-      <c r="Z10" s="18">
+      <c r="AB10" s="18">
         <v>23011.19</v>
       </c>
-      <c r="AA10" s="18">
+      <c r="AC10" s="18">
         <v>21708.66</v>
       </c>
-      <c r="AB10" s="18">
+      <c r="AD10" s="20">
+        <v>52120.72</v>
+      </c>
+      <c r="AE10" s="18">
         <f>AVERAGE(97573.93,76410.8,87873.39)</f>
         <v>87286.04</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="AF10" s="18">
         <f>AVERAGE(114065.38,102538.87,120372.14)</f>
         <v>112325.46333333333</v>
       </c>
-      <c r="AD10" s="18">
+      <c r="AG10" s="18">
         <f>AVERAGE(127026.43,152095.31,153062.88)</f>
         <v>144061.54</v>
       </c>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4112,81 +4431,90 @@
       <c r="E11" s="1">
         <v>9828</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="20">
+        <v>9346</v>
+      </c>
+      <c r="G11" s="15">
         <f>AVERAGE(8182,8938,10118)</f>
         <v>9079.3333333333339</v>
       </c>
-      <c r="G11" s="13">
+      <c r="H11" s="13">
         <f>AVERAGE(11522,11450,15779)</f>
         <v>12917</v>
       </c>
-      <c r="H11" s="13">
+      <c r="I11" s="13">
         <f>AVERAGE(18467,18430,19788)</f>
         <v>18895</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="17"/>
-      <c r="M11" s="18" t="s">
+      <c r="J11" s="1"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="17"/>
+      <c r="N11" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="18">
+      <c r="O11" s="18">
         <v>24</v>
       </c>
-      <c r="O11" s="18">
+      <c r="P11" s="18">
         <v>6476</v>
       </c>
-      <c r="P11" s="18">
+      <c r="Q11" s="18">
         <v>5474</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="R11" s="20">
+        <v>6420</v>
+      </c>
+      <c r="S11" s="18">
         <f>AVERAGE(8023,4994,8974)</f>
         <v>7330.333333333333</v>
       </c>
-      <c r="R11" s="18">
+      <c r="T11" s="18">
         <f>AVERAGE(9382,6256,8383)</f>
         <v>8007</v>
       </c>
-      <c r="S11" s="18">
+      <c r="U11" s="18">
         <f>AVERAGE(9244,11326,10599)</f>
         <v>10389.666666666666</v>
       </c>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18">
+      <c r="V11" s="18"/>
+      <c r="W11" s="18">
         <v>4701</v>
       </c>
-      <c r="V11" s="17">
+      <c r="X11" s="17">
         <v>4701</v>
       </c>
-      <c r="X11" s="18" t="s">
+      <c r="Z11" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="Y11" s="18">
+      <c r="AA11" s="18">
         <v>149</v>
       </c>
-      <c r="Z11" s="18">
+      <c r="AB11" s="18">
         <v>27476.07</v>
       </c>
-      <c r="AA11" s="18">
+      <c r="AC11" s="18">
         <v>26159.06</v>
       </c>
-      <c r="AB11" s="18">
+      <c r="AD11" s="20">
+        <v>31750.9</v>
+      </c>
+      <c r="AE11" s="18">
         <f>AVERAGE(68765.2,64902.05,60570.51)</f>
         <v>64745.920000000006</v>
       </c>
-      <c r="AC11" s="18">
+      <c r="AF11" s="18">
         <f>AVERAGE(92835.42,95277.04,97412.87)</f>
         <v>95175.109999999986</v>
       </c>
-      <c r="AD11" s="18">
+      <c r="AG11" s="18">
         <f>AVERAGE(134003.72,146075.95,135907.26)</f>
         <v>138662.31000000003</v>
       </c>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -4199,81 +4527,90 @@
       <c r="E12" s="1">
         <v>980</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="20">
+        <v>118910</v>
+      </c>
+      <c r="G12" s="13">
         <f>AVERAGE(119890,130840,141420)</f>
         <v>130716.66666666667</v>
       </c>
-      <c r="G12" s="13">
+      <c r="H12" s="13">
         <f>AVERAGE(118430,142290,136370)</f>
         <v>132363.33333333334</v>
       </c>
-      <c r="H12" s="13">
+      <c r="I12" s="13">
         <f>AVERAGE(203920,208790,187390)</f>
         <v>200033.33333333334</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="17"/>
-      <c r="M12" s="18" t="s">
+      <c r="J12" s="1"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="17"/>
+      <c r="N12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="18">
+      <c r="O12" s="18">
         <v>50</v>
       </c>
-      <c r="O12" s="18">
+      <c r="P12" s="18">
         <v>11572.88</v>
       </c>
-      <c r="P12" s="18">
+      <c r="Q12" s="18">
         <v>10270.1</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="R12" s="20">
+        <v>15505.5</v>
+      </c>
+      <c r="S12" s="18">
         <f>AVERAGE(18246.01,15636.11,15860.69)</f>
         <v>16580.936666666665</v>
       </c>
-      <c r="R12" s="18">
+      <c r="T12" s="18">
         <f>AVERAGE(26830.68,26540.21,22916.1)</f>
         <v>25428.996666666662</v>
       </c>
-      <c r="S12" s="18">
+      <c r="U12" s="18">
         <f>AVERAGE(33083.1,33124.75,33580.06)</f>
         <v>33262.636666666665</v>
       </c>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18">
+      <c r="V12" s="18"/>
+      <c r="W12" s="18">
         <v>9184</v>
       </c>
-      <c r="V12" s="17">
+      <c r="X12" s="17">
         <v>10050</v>
       </c>
-      <c r="X12" s="18" t="s">
+      <c r="Z12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="18">
+      <c r="AA12" s="18">
         <v>219</v>
       </c>
-      <c r="Z12" s="18">
+      <c r="AB12" s="18">
         <v>41333.97</v>
       </c>
-      <c r="AA12" s="18">
+      <c r="AC12" s="18">
         <v>43929.8</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AD12" s="20">
+        <v>65880.3</v>
+      </c>
+      <c r="AE12" s="18">
         <f>AVERAGE(130468.43,132240.97,139718.17)</f>
         <v>134142.52333333335</v>
       </c>
-      <c r="AC12" s="18">
+      <c r="AF12" s="18">
         <f>AVERAGE(188512.53,195437.63,204661.72)</f>
         <v>196203.96</v>
       </c>
-      <c r="AD12" s="18">
+      <c r="AG12" s="18">
         <f>AVERAGE(324205.78,338475.11,321814.62)</f>
         <v>328165.17</v>
       </c>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -4286,85 +4623,94 @@
       <c r="E13" s="3">
         <v>1339.12</v>
       </c>
-      <c r="F13" s="14">
-        <v>1454.84</v>
+      <c r="F13" s="3">
+        <v>1602.94</v>
       </c>
       <c r="G13" s="14">
         <v>1454.84</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="14">
+        <v>1454.84</v>
+      </c>
+      <c r="I13" s="3">
         <f>AVERAGE(1628.18,1528.04,2026.48)</f>
         <v>1727.5666666666668</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>966.37</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>1272</v>
       </c>
-      <c r="K13" s="31">
+      <c r="L13" s="24">
         <v>1236</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="N13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="18">
+      <c r="O13" s="18">
         <v>75</v>
       </c>
-      <c r="O13" s="18">
+      <c r="P13" s="18">
         <v>15643.51</v>
       </c>
-      <c r="P13" s="18">
+      <c r="Q13" s="18">
         <v>50807.89</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="R13" s="20">
+        <v>17195.66</v>
+      </c>
+      <c r="S13" s="18">
         <f>AVERAGE(31530.67,28819.06,27007.27)</f>
         <v>29119</v>
       </c>
-      <c r="R13" s="18">
+      <c r="T13" s="18">
         <f>AVERAGE(38280.9,34510.19,36585.65)</f>
         <v>36458.91333333333</v>
       </c>
-      <c r="S13" s="18">
+      <c r="U13" s="18">
         <f>AVERAGE(50386.26,49337.28,51054.94)</f>
         <v>50259.493333333339</v>
       </c>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18">
+      <c r="V13" s="18"/>
+      <c r="W13" s="18">
         <v>11625</v>
       </c>
-      <c r="V13" s="17">
+      <c r="X13" s="17">
         <v>11625</v>
       </c>
-      <c r="X13" s="18" t="s">
+      <c r="Z13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="Y13" s="18">
+      <c r="AA13" s="18">
         <v>501</v>
       </c>
-      <c r="Z13" s="18">
+      <c r="AB13" s="18">
         <v>133670.14000000001</v>
       </c>
-      <c r="AA13" s="18">
+      <c r="AC13" s="18">
         <v>143817.03</v>
       </c>
-      <c r="AB13" s="18">
+      <c r="AD13" s="20">
+        <v>182271.52</v>
+      </c>
+      <c r="AE13" s="18">
         <f>AVERAGE(611099.29,611721.92,615676.98)</f>
         <v>612832.73</v>
       </c>
-      <c r="AC13" s="18">
+      <c r="AF13" s="18">
         <f>AVERAGE(889049.69)</f>
         <v>889049.69</v>
       </c>
-      <c r="AD13" s="18">
+      <c r="AG13" s="18">
         <f>AVERAGE(1362513.23)</f>
         <v>1362513.23</v>
       </c>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
@@ -4377,89 +4723,98 @@
       <c r="E14" s="1">
         <v>2792.21</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="20">
+        <v>3502.04</v>
+      </c>
+      <c r="G14" s="13">
         <f>AVERAGE(5109.97,5065.25,4645.03)</f>
         <v>4940.083333333333</v>
       </c>
-      <c r="G14" s="13">
+      <c r="H14" s="13">
         <f>AVERAGE(6386.37,7020.45,6917.08)</f>
         <v>6774.6333333333341</v>
       </c>
-      <c r="H14" s="13">
+      <c r="I14" s="13">
         <f>AVERAGE(10196.89,9130.25,10126)</f>
         <v>9817.7133333333331</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="18">
+      <c r="J14" s="1"/>
+      <c r="K14" s="18">
         <v>2408</v>
       </c>
-      <c r="K14" s="17">
+      <c r="L14" s="17">
         <v>2408</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="N14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="18">
+      <c r="O14" s="18">
         <v>100</v>
       </c>
-      <c r="O14" s="18">
+      <c r="P14" s="18">
         <v>13623.44</v>
       </c>
-      <c r="P14" s="18">
+      <c r="Q14" s="18">
         <v>16093.09</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="R14" s="20">
+        <v>21322.240000000002</v>
+      </c>
+      <c r="S14" s="18">
         <f>AVERAGE(33860.82,35440.32,32829.69)</f>
         <v>34043.61</v>
       </c>
-      <c r="R14" s="18">
+      <c r="T14" s="18">
         <f>AVERAGE(44726.44,50695.11,48151.51)</f>
         <v>47857.686666666668</v>
       </c>
-      <c r="S14" s="18">
+      <c r="U14" s="18">
         <f>AVERAGE(64930.12,70854.77,68582.01)</f>
         <v>68122.3</v>
       </c>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18">
+      <c r="V14" s="18"/>
+      <c r="W14" s="18">
         <v>12753</v>
       </c>
-      <c r="V14" s="17">
+      <c r="X14" s="17">
         <v>12753</v>
       </c>
-      <c r="X14" s="18" t="s">
+      <c r="Z14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="Y14" s="18">
+      <c r="AA14" s="18">
         <v>49</v>
       </c>
-      <c r="Z14" s="18">
+      <c r="AB14" s="18">
         <v>600.15</v>
       </c>
-      <c r="AA14" s="18">
+      <c r="AC14" s="18">
         <v>695.56</v>
       </c>
-      <c r="AB14" s="18">
+      <c r="AD14" s="20">
+        <v>784.24</v>
+      </c>
+      <c r="AE14" s="18">
         <f>AVERAGE(915.58,965.96,857.74)</f>
         <v>913.09333333333325</v>
       </c>
-      <c r="AC14" s="18">
+      <c r="AF14" s="18">
         <f>AVERAGE(1259.58,1191.97,1197.49)</f>
         <v>1216.3466666666666</v>
       </c>
-      <c r="AD14" s="18">
+      <c r="AG14" s="18">
         <f>AVERAGE(1705.72,1573.21,1822.44)</f>
         <v>1700.4566666666669</v>
       </c>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="17">
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="17">
         <v>574</v>
       </c>
-      <c r="AG14" s="17">
+      <c r="AJ14" s="17">
         <v>574</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
@@ -4472,89 +4827,98 @@
       <c r="E15" s="1">
         <v>3621.33</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="20">
+        <v>4822.46</v>
+      </c>
+      <c r="G15" s="13">
         <f>AVERAGE(5931.11,6725.71,6492.31)</f>
         <v>6383.043333333334</v>
       </c>
-      <c r="G15" s="13">
+      <c r="H15" s="13">
         <f>AVERAGE(8509.21,8110.02,8267.59)</f>
         <v>8295.6066666666666</v>
       </c>
-      <c r="H15" s="13">
+      <c r="I15" s="13">
         <f>AVERAGE(11545.91,11573.41,11991.17)</f>
         <v>11703.496666666666</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="18">
+      <c r="J15" s="1"/>
+      <c r="K15" s="18">
         <v>2761</v>
       </c>
-      <c r="K15" s="17">
+      <c r="L15" s="17">
         <v>2761</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="N15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="18">
+      <c r="O15" s="18">
         <v>50</v>
       </c>
-      <c r="O15" s="18">
+      <c r="P15" s="18">
         <v>11462.54</v>
       </c>
-      <c r="P15" s="18">
+      <c r="Q15" s="18">
         <v>11768</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="R15" s="20">
+        <v>13554.58</v>
+      </c>
+      <c r="S15" s="18">
         <f>AVERAGE(17548.83,18031.67,17132.19)</f>
         <v>17570.896666666667</v>
       </c>
-      <c r="R15" s="18">
+      <c r="T15" s="18">
         <f>AVERAGE(25155.69,23030.8,23820.96)</f>
         <v>24002.483333333334</v>
       </c>
-      <c r="S15" s="18">
+      <c r="U15" s="18">
         <f>AVERAGE(32066.58,37114.645,31461.15)</f>
         <v>33547.458333333336</v>
       </c>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18">
+      <c r="V15" s="18"/>
+      <c r="W15" s="18">
         <v>9096</v>
       </c>
-      <c r="V15" s="17">
+      <c r="X15" s="17">
         <v>9096</v>
       </c>
-      <c r="X15" s="18" t="s">
+      <c r="Z15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Y15" s="18">
+      <c r="AA15" s="18">
         <v>97</v>
       </c>
-      <c r="Z15" s="18">
+      <c r="AB15" s="18">
         <v>1135.3800000000001</v>
       </c>
-      <c r="AA15" s="18">
+      <c r="AC15" s="18">
         <v>1293.71</v>
       </c>
-      <c r="AB15" s="18">
+      <c r="AD15" s="20">
+        <v>1548.43</v>
+      </c>
+      <c r="AE15" s="18">
         <f>AVERAGE(2172,2292.37,2366.69)</f>
         <v>2277.02</v>
       </c>
-      <c r="AC15" s="18">
+      <c r="AF15" s="18">
         <f>AVERAGE(3267.68,3080.11,3213.25)</f>
         <v>3187.0133333333338</v>
       </c>
-      <c r="AD15" s="18">
+      <c r="AG15" s="18">
         <f>AVERAGE(4335.33,4738.44,4561.91)</f>
         <v>4545.2266666666665</v>
       </c>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="17">
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="17">
         <v>1140</v>
       </c>
-      <c r="AG15" s="17">
+      <c r="AJ15" s="17">
         <v>1160</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
@@ -4568,86 +4932,95 @@
         <v>251</v>
       </c>
       <c r="F16" s="3">
+        <v>322</v>
+      </c>
+      <c r="G16" s="3">
         <f>AVERAGE(275,256,347)</f>
         <v>292.66666666666669</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <f>AVERAGE(390,405,379)</f>
         <v>391.33333333333331</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <f>AVERAGE(582,583,565)</f>
         <v>576.66666666666663</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>230</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>260</v>
       </c>
-      <c r="K16" s="31">
+      <c r="L16" s="24">
         <v>260</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="N16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="18">
+      <c r="O16" s="18">
         <v>75</v>
       </c>
-      <c r="O16" s="18">
+      <c r="P16" s="18">
         <v>12323.13</v>
       </c>
-      <c r="P16" s="18">
+      <c r="Q16" s="18">
         <v>13509.84</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="R16" s="20">
+        <v>19102.689999999999</v>
+      </c>
+      <c r="S16" s="18">
         <f>AVERAGE(25882.97,25132.64,26685.26)</f>
         <v>25900.289999999997</v>
       </c>
-      <c r="R16" s="18">
+      <c r="T16" s="18">
         <f>AVERAGE(33795.5,35005.18,33114.48)</f>
         <v>33971.72</v>
       </c>
-      <c r="S16" s="18">
+      <c r="U16" s="18">
         <f>AVERAGE(51497.18,51233.59)</f>
         <v>51365.384999999995</v>
       </c>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18">
+      <c r="V16" s="18"/>
+      <c r="W16" s="18">
         <v>11535</v>
       </c>
-      <c r="V16" s="17">
+      <c r="X16" s="17">
         <v>11535</v>
       </c>
-      <c r="X16" s="18" t="s">
+      <c r="Z16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="Y16" s="18">
+      <c r="AA16" s="18">
         <v>287</v>
       </c>
-      <c r="Z16" s="18" t="s">
+      <c r="AB16" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="AA16" s="18">
+      <c r="AC16" s="18">
         <v>3690.24</v>
       </c>
-      <c r="AB16" s="18">
+      <c r="AD16" s="20">
+        <v>4553.4799999999996</v>
+      </c>
+      <c r="AE16" s="18">
         <f>AVERAGE(11399.38,10366.03,10813.15)</f>
         <v>10859.519999999999</v>
       </c>
-      <c r="AC16" s="18">
+      <c r="AF16" s="18">
         <f>AVERAGE(15369.12,15382.28,15396.45)</f>
         <v>15382.616666666669</v>
       </c>
-      <c r="AD16" s="18">
+      <c r="AG16" s="18">
         <f>AVERAGE(22534.66)</f>
         <v>22534.66</v>
       </c>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -4661,86 +5034,95 @@
         <v>190.34</v>
       </c>
       <c r="F17" s="3">
+        <v>241.03</v>
+      </c>
+      <c r="G17" s="3">
         <f>AVERAGE(279.26,215.78,239.33)</f>
         <v>244.79</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <f>AVERAGE(289.19,295.09,306.2)</f>
         <v>296.82666666666665</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <f>AVERAGE(396.94,391.92,315.52)</f>
         <v>368.12666666666672</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>175</v>
       </c>
-      <c r="K17" s="31">
+      <c r="L17" s="24">
         <v>175</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="N17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="18">
+      <c r="O17" s="18">
         <v>100</v>
       </c>
-      <c r="O17" s="18">
+      <c r="P17" s="18">
         <v>17281.75</v>
       </c>
-      <c r="P17" s="18">
+      <c r="Q17" s="18">
         <v>17169.62</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="R17" s="20">
+        <v>18193.43</v>
+      </c>
+      <c r="S17" s="18">
         <f>AVERAGE(34360.88,33605.76,33152.24)</f>
         <v>33706.293333333335</v>
       </c>
-      <c r="R17" s="18">
+      <c r="T17" s="18">
         <f>AVERAGE(44214.58,44950.36,45855.11)</f>
         <v>45006.683333333327</v>
       </c>
-      <c r="S17" s="18">
+      <c r="U17" s="18">
         <f>AVERAGE(64491.16,67046.36,68723.77)</f>
         <v>66753.763333333351</v>
       </c>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18">
+      <c r="V17" s="18"/>
+      <c r="W17" s="18">
         <v>13080</v>
       </c>
-      <c r="V17" s="17">
+      <c r="X17" s="17">
         <v>13113</v>
       </c>
-      <c r="X17" s="18" t="s">
+      <c r="Z17" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="Y17" s="18">
+      <c r="AA17" s="18">
         <v>391</v>
       </c>
-      <c r="Z17" s="18">
+      <c r="AB17" s="18">
         <v>4697.63</v>
       </c>
-      <c r="AA17" s="18">
+      <c r="AC17" s="18">
         <v>4979.6899999999996</v>
       </c>
-      <c r="AB17" s="18">
+      <c r="AD17" s="20">
+        <v>6459.6</v>
+      </c>
+      <c r="AE17" s="18">
         <f>AVERAGE(17169.52,18058.97,17036.8)</f>
         <v>17421.763333333336</v>
       </c>
-      <c r="AC17" s="18">
+      <c r="AF17" s="18">
         <f>AVERAGE(24068.68,23466.05,23762.72)</f>
         <v>23765.816666666666</v>
       </c>
-      <c r="AD17" s="18">
+      <c r="AG17" s="18">
         <f>AVERAGE(36080.24)</f>
         <v>36080.239999999998</v>
       </c>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -4753,85 +5135,94 @@
       <c r="E18" s="1">
         <v>240.5</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="20">
+        <v>314.88</v>
+      </c>
+      <c r="G18" s="13">
         <f>AVERAGE(347.21,387.79,356.93)</f>
         <v>363.97666666666669</v>
       </c>
-      <c r="G18" s="13">
+      <c r="H18" s="13">
         <f>AVERAGE(491.52,407.7,451.44)</f>
         <v>450.22</v>
       </c>
-      <c r="H18" s="13">
+      <c r="I18" s="13">
         <f>AVERAGE(621.54,535.5,546.48)</f>
         <v>567.84</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="18">
+      <c r="J18" s="1"/>
+      <c r="K18" s="18">
         <v>216</v>
       </c>
-      <c r="K18" s="17">
+      <c r="L18" s="17">
         <v>219</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="N18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="18">
+      <c r="O18" s="18">
         <v>50</v>
       </c>
-      <c r="O18" s="18">
+      <c r="P18" s="18">
         <v>9617.35</v>
       </c>
-      <c r="P18" s="18">
+      <c r="Q18" s="18">
         <v>12165.37</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="R18" s="20">
+        <v>16459.990000000002</v>
+      </c>
+      <c r="S18" s="18">
         <f>AVERAGE(20744.35,18030.82,16756.05)</f>
         <v>18510.406666666666</v>
       </c>
-      <c r="R18" s="18">
+      <c r="T18" s="18">
         <f>AVERAGE(23815.13,24531.22,24007.45)</f>
         <v>24117.933333333334</v>
       </c>
-      <c r="S18" s="18">
+      <c r="U18" s="18">
         <f>AVERAGE(34791.69,32516.12,31108.13)</f>
         <v>32805.313333333332</v>
       </c>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18">
+      <c r="V18" s="18"/>
+      <c r="W18" s="18">
         <v>9457</v>
       </c>
-      <c r="V18" s="17">
+      <c r="X18" s="17">
         <v>9457</v>
       </c>
-      <c r="X18" s="18" t="s">
+      <c r="Z18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Y18" s="18">
+      <c r="AA18" s="18">
         <v>87</v>
       </c>
-      <c r="Z18" s="18">
+      <c r="AB18" s="18">
         <v>10581</v>
       </c>
-      <c r="AA18" s="18">
+      <c r="AC18" s="18">
         <v>10638</v>
       </c>
-      <c r="AB18" s="18">
+      <c r="AD18" s="20">
+        <v>11725</v>
+      </c>
+      <c r="AE18" s="18">
         <f>AVERAGE(12976,12872,13402)</f>
         <v>13083.333333333334</v>
       </c>
-      <c r="AC18" s="18">
+      <c r="AF18" s="18">
         <f>AVERAGE(14243,14666,)</f>
         <v>9636.3333333333339</v>
       </c>
-      <c r="AD18" s="18">
+      <c r="AG18" s="18">
         <f>AVERAGE(16191,16360,16312)</f>
         <v>16287.666666666666</v>
       </c>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
@@ -4844,85 +5235,94 @@
       <c r="E19" s="1">
         <v>269.56</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="20">
+        <v>344.86</v>
+      </c>
+      <c r="G19" s="13">
         <f>AVERAGE(429.85,402.52,396.58)</f>
         <v>409.65000000000003</v>
       </c>
-      <c r="G19" s="13">
+      <c r="H19" s="13">
         <f>AVERAGE(523.79,538.21,528.27)</f>
         <v>530.09</v>
       </c>
-      <c r="H19" s="13">
+      <c r="I19" s="13">
         <f>AVERAGE(749.8,739.32,729.88)</f>
         <v>739.66666666666663</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="18">
+      <c r="J19" s="1"/>
+      <c r="K19" s="18">
         <v>227</v>
       </c>
-      <c r="K19" s="17">
+      <c r="L19" s="17">
         <v>227</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="N19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="18">
+      <c r="O19" s="18">
         <v>50</v>
       </c>
-      <c r="O19" s="18">
+      <c r="P19" s="18">
         <v>10720.17</v>
       </c>
-      <c r="P19" s="18">
+      <c r="Q19" s="18">
         <v>11235.04</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="R19" s="20">
+        <v>15408.3</v>
+      </c>
+      <c r="S19" s="18">
         <f>AVERAGE(17595.39,18311.99,19771.19)</f>
         <v>18559.523333333334</v>
       </c>
-      <c r="R19" s="18">
+      <c r="T19" s="18">
         <f>AVERAGE(22872.45,23298.59,23919.04)</f>
         <v>23363.360000000001</v>
       </c>
-      <c r="S19" s="18">
+      <c r="U19" s="18">
         <f>AVERAGE(35360.64,32832.18,34677.44)</f>
         <v>34290.08666666667</v>
       </c>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18">
+      <c r="V19" s="18"/>
+      <c r="W19" s="18">
         <v>8719</v>
       </c>
-      <c r="V19" s="17">
+      <c r="X19" s="17">
         <v>8719</v>
       </c>
-      <c r="X19" s="18" t="s">
+      <c r="Z19" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="Y19" s="18">
+      <c r="AA19" s="18">
         <v>267</v>
       </c>
-      <c r="Z19" s="18">
+      <c r="AB19" s="18">
         <v>23690</v>
       </c>
-      <c r="AA19" s="18">
+      <c r="AC19" s="18">
         <v>23530</v>
       </c>
-      <c r="AB19" s="18">
+      <c r="AD19" s="20">
+        <v>26122</v>
+      </c>
+      <c r="AE19" s="18">
         <f>AVERAGE(36396,36800,33279)</f>
         <v>35491.666666666664</v>
       </c>
-      <c r="AC19" s="18">
+      <c r="AF19" s="18">
         <f>AVERAGE(42276,39271,43257)</f>
         <v>41601.333333333336</v>
       </c>
-      <c r="AD19" s="18">
+      <c r="AG19" s="18">
         <f>AVERAGE(46149,45242,46637)</f>
         <v>46009.333333333336</v>
       </c>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
@@ -4935,86 +5335,95 @@
       <c r="E20" s="3">
         <v>391</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="3">
+        <v>410</v>
+      </c>
+      <c r="G20" s="14">
         <v>334</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <f>AVERAGE(449,446,385)</f>
         <v>426.66666666666669</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <f>AVERAGE(608,500,517)</f>
         <v>541.66666666666663</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>308</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>414</v>
       </c>
-      <c r="K20" s="31">
+      <c r="L20" s="24">
         <v>414</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="N20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="18">
+      <c r="O20" s="18">
         <v>50</v>
       </c>
-      <c r="O20" s="18">
+      <c r="P20" s="18">
         <v>10228.68</v>
       </c>
-      <c r="P20" s="18">
+      <c r="Q20" s="18">
         <v>10160.41</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="R20" s="20">
+        <v>15558.59</v>
+      </c>
+      <c r="S20" s="18">
         <f>AVERAGE(17133.65,16940.88,17970.63)</f>
         <v>17348.386666666669</v>
       </c>
-      <c r="R20" s="18">
+      <c r="T20" s="18">
         <f>AVERAGE(24512.7,26946.41,24433.85)</f>
         <v>25297.653333333332</v>
       </c>
-      <c r="S20" s="18">
+      <c r="U20" s="18">
         <f>AVERAGE(31769.07,35334.31,35646.85)</f>
         <v>34250.076666666668</v>
       </c>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18">
+      <c r="V20" s="18"/>
+      <c r="W20" s="18">
         <v>9102</v>
       </c>
-      <c r="V20" s="17">
+      <c r="X20" s="17">
         <v>9176</v>
       </c>
-      <c r="X20" s="18" t="s">
+      <c r="Z20" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="Y20" s="18">
+      <c r="AA20" s="18">
         <v>516</v>
       </c>
-      <c r="Z20" s="18">
+      <c r="AB20" s="18">
         <v>46820</v>
       </c>
-      <c r="AA20" s="18">
+      <c r="AC20" s="18">
         <v>46810</v>
       </c>
-      <c r="AB20" s="18">
+      <c r="AD20" s="20">
+        <v>53714</v>
+      </c>
+      <c r="AE20" s="18">
         <f>AVERAGE(72588,76165,72797)</f>
         <v>73850</v>
       </c>
-      <c r="AC20" s="18">
+      <c r="AF20" s="18">
         <f>AVERAGE(81396)</f>
         <v>81396</v>
       </c>
-      <c r="AD20" s="18">
+      <c r="AG20" s="18">
         <f>AVERAGE(95245)</f>
         <v>95245</v>
       </c>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
@@ -5027,89 +5436,98 @@
       <c r="E21" s="1">
         <v>1397.39</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="20">
+        <v>1688.92</v>
+      </c>
+      <c r="G21" s="13">
         <f>AVERAGE(3178.66,2821.46,2883.3)</f>
         <v>2961.14</v>
       </c>
-      <c r="G21" s="13">
+      <c r="H21" s="13">
         <f>AVERAGE(4156.47,4188.69,3991.59)</f>
         <v>4112.25</v>
       </c>
-      <c r="H21" s="13">
+      <c r="I21" s="13">
         <f>AVERAGE(5927.63,5968.23,5877.42)</f>
         <v>5924.4266666666663</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="18">
+      <c r="J21" s="1"/>
+      <c r="K21" s="18">
         <v>1042</v>
       </c>
-      <c r="K21" s="17">
+      <c r="L21" s="17">
         <v>1042</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="N21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="N21" s="18">
+      <c r="O21" s="18">
         <v>52</v>
       </c>
-      <c r="O21" s="18">
+      <c r="P21" s="18">
         <v>5888.85</v>
       </c>
-      <c r="P21" s="18">
+      <c r="Q21" s="18">
         <v>5350.1</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="R21" s="20">
+        <v>9105.5499999999993</v>
+      </c>
+      <c r="S21" s="18">
         <f>AVERAGE(9493.61,12161.74,10876.06)</f>
         <v>10843.803333333331</v>
       </c>
-      <c r="R21" s="18">
+      <c r="T21" s="18">
         <f>AVERAGE(16893.86,12402.04,16626.62)</f>
         <v>15307.506666666668</v>
       </c>
-      <c r="S21" s="18">
+      <c r="U21" s="18">
         <f>AVERAGE(23747.26,22768.53,22012.56)</f>
         <v>22842.783333333329</v>
       </c>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18">
+      <c r="V21" s="18"/>
+      <c r="W21" s="18">
         <v>5848</v>
       </c>
-      <c r="V21" s="17">
+      <c r="X21" s="17">
         <v>5954</v>
       </c>
-      <c r="X21" s="12" t="s">
+      <c r="Z21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Y21" s="12">
+      <c r="AA21" s="12">
         <v>35</v>
       </c>
-      <c r="Z21" s="12">
+      <c r="AB21" s="12">
         <v>347.28</v>
       </c>
-      <c r="AA21" s="12">
+      <c r="AC21" s="12">
         <v>250.24</v>
       </c>
-      <c r="AB21" s="18">
+      <c r="AD21" s="12">
+        <v>357.06</v>
+      </c>
+      <c r="AE21" s="18">
         <f>AVERAGE(444.2,462.22,453.49)</f>
         <v>453.30333333333334</v>
       </c>
-      <c r="AC21" s="18">
+      <c r="AF21" s="18">
         <f>AVERAGE(617.86,585.21,529.8)</f>
         <v>577.62333333333333</v>
       </c>
-      <c r="AD21" s="18">
+      <c r="AG21" s="18">
         <f>AVERAGE(720.06,720.15,737.56)</f>
         <v>725.92333333333329</v>
       </c>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="17">
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="17">
         <v>260</v>
       </c>
-      <c r="AG21" s="17">
+      <c r="AJ21" s="17">
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -5122,90 +5540,99 @@
       <c r="E22" s="3">
         <v>426</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="3">
+        <v>557</v>
+      </c>
+      <c r="G22" s="16">
         <v>380</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <f>AVERAGE(461,502,412)</f>
         <v>458.33333333333331</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <f>AVERAGE(746,396,526)</f>
         <v>556</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>380</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>517</v>
       </c>
-      <c r="K22" s="31">
+      <c r="L22" s="24">
         <v>517</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="N22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="18">
+      <c r="O22" s="18">
         <v>159</v>
       </c>
-      <c r="O22" s="18">
+      <c r="P22" s="18">
         <v>22878.82</v>
       </c>
-      <c r="P22" s="18">
+      <c r="Q22" s="18">
         <v>20965.099999999999</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="R22" s="20">
+        <v>32794.699999999997</v>
+      </c>
+      <c r="S22" s="18">
         <f>AVERAGE(56954.6,54865.21,60437.12)</f>
         <v>57418.976666666662</v>
       </c>
-      <c r="R22" s="18">
+      <c r="T22" s="18">
         <f>AVERAGE(83582.35,85867.47,80577.52)</f>
         <v>83342.44666666667</v>
       </c>
-      <c r="S22" s="18">
+      <c r="U22" s="18">
         <f>AVERAGE(130864.4,125572.94,129608.16)</f>
         <v>128681.83333333333</v>
       </c>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18">
+      <c r="V22" s="18"/>
+      <c r="W22" s="18">
         <v>18600</v>
       </c>
-      <c r="V22" s="17">
+      <c r="X22" s="17">
         <v>19114</v>
       </c>
-      <c r="X22" s="18" t="s">
+      <c r="Z22" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="Y22" s="18">
+      <c r="AA22" s="18">
         <v>21</v>
       </c>
-      <c r="Z22" s="18">
+      <c r="AB22" s="18">
         <v>441</v>
       </c>
-      <c r="AA22" s="18">
+      <c r="AC22" s="18">
         <v>448</v>
       </c>
-      <c r="AB22" s="18">
+      <c r="AD22" s="20">
+        <v>852</v>
+      </c>
+      <c r="AE22" s="18">
         <f>AVERAGE(616,625,606)</f>
         <v>615.66666666666663</v>
       </c>
-      <c r="AC22" s="18">
+      <c r="AF22" s="18">
         <f>AVERAGE(825,689,715)</f>
         <v>743</v>
       </c>
-      <c r="AD22" s="18">
+      <c r="AG22" s="18">
         <f>AVERAGE(930,1137,1053)</f>
         <v>1040</v>
       </c>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="17">
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="17">
         <v>458</v>
       </c>
-      <c r="AG22" s="17">
+      <c r="AJ22" s="17">
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -5218,82 +5645,91 @@
       <c r="E23" s="3">
         <v>683</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="3">
+        <v>1340</v>
+      </c>
+      <c r="G23" s="16">
         <v>1019</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <f>AVERAGE(1096,1031,1100)</f>
         <v>1075.6666666666667</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <f>AVERAGE(1243,1406,1534)</f>
         <v>1394.3333333333333</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>683</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>918</v>
       </c>
-      <c r="K23" s="31">
+      <c r="L23" s="24">
         <v>918</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="N23" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="N23" s="18">
+      <c r="O23" s="18">
         <v>689</v>
       </c>
-      <c r="O23" s="18">
+      <c r="P23" s="18">
         <v>28892.080000000002</v>
       </c>
-      <c r="P23" s="18">
+      <c r="Q23" s="18">
         <v>28532.55</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="R23" s="20">
+        <v>38616.910000000003</v>
+      </c>
+      <c r="S23" s="18">
         <f>AVERAGE(133425.62,129861.81,136169.48)</f>
         <v>133152.30333333334</v>
       </c>
-      <c r="R23" s="18">
+      <c r="T23" s="18">
         <f>AVERAGE(189141.98,195861.74,1944909.08)</f>
         <v>776637.6</v>
       </c>
-      <c r="S23" s="18">
+      <c r="U23" s="18">
         <f>AVERAGE(286706.06)</f>
         <v>286706.06</v>
       </c>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="17"/>
-      <c r="X23" s="18" t="s">
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="17"/>
+      <c r="Z23" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="Y23" s="18">
+      <c r="AA23" s="18">
         <v>112</v>
       </c>
-      <c r="Z23" s="18">
+      <c r="AB23" s="18">
         <v>55500</v>
       </c>
-      <c r="AA23" s="18">
+      <c r="AC23" s="18">
         <v>73643.86</v>
       </c>
-      <c r="AB23" s="18">
+      <c r="AD23" s="20">
+        <v>106595.2</v>
+      </c>
+      <c r="AE23" s="18">
         <f>AVERAGE(164561.21,166644.63,173340.26)</f>
         <v>168182.03333333333</v>
       </c>
-      <c r="AC23" s="18">
+      <c r="AF23" s="18">
         <f>AVERAGE(245262.86,239804.79,249477.34)</f>
         <v>244848.33</v>
       </c>
-      <c r="AD23" s="18">
+      <c r="AG23" s="18">
         <f>AVERAGE(326909.52,342698.61,358371.85)</f>
         <v>342659.99333333335</v>
       </c>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-    </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
@@ -5306,84 +5742,92 @@
       <c r="E24" s="3">
         <v>413</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="3">
+        <v>538</v>
+      </c>
+      <c r="G24" s="16">
         <v>490</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <f>AVERAGE(463,541,554)</f>
         <v>519.33333333333337</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <f>AVERAGE(675,733,839)</f>
         <v>749</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>409</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>504</v>
       </c>
-      <c r="K24" s="31">
+      <c r="L24" s="24">
         <v>504</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="N24" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="N24" s="18">
+      <c r="O24" s="18">
         <v>280</v>
       </c>
-      <c r="O24" s="18">
+      <c r="P24" s="18">
         <v>1370</v>
       </c>
-      <c r="P24" s="18">
+      <c r="Q24" s="18">
         <v>1242</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="R24" s="20">
+        <v>1748</v>
+      </c>
+      <c r="S24" s="18">
         <f>AVERAGE(3980,4416,3964)</f>
         <v>4120</v>
       </c>
-      <c r="R24" s="18">
+      <c r="T24" s="18">
         <f>AVERAGE(5647,5689,5398)</f>
         <v>5578</v>
       </c>
-      <c r="S24" s="18">
+      <c r="U24" s="18">
         <f>AVERAGE(7825)</f>
         <v>7825</v>
       </c>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="17"/>
-      <c r="X24" s="18" t="s">
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="17"/>
+      <c r="Z24" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="Y24" s="18">
+      <c r="AA24" s="18">
         <v>112</v>
       </c>
-      <c r="Z24" s="18">
+      <c r="AB24" s="18">
         <v>1875.65</v>
       </c>
-      <c r="AA24" s="18">
+      <c r="AC24" s="18">
         <v>2155.5100000000002</v>
       </c>
-      <c r="AB24" s="18">
+      <c r="AD24" s="20">
+        <v>2316.31</v>
+      </c>
+      <c r="AE24" s="18">
         <f>AVERAGE(4154.65,3907.26,4018.22)</f>
         <v>4026.7099999999996</v>
       </c>
-      <c r="AC24" s="18">
+      <c r="AF24" s="18">
         <f>AVERAGE(5629.55,5861.67,5842.27)</f>
         <v>5777.8300000000008</v>
       </c>
-      <c r="AD24" s="18">
+      <c r="AG24" s="18">
         <f>AVERAGE(8243.58,8223.48,8602.1)</f>
         <v>8356.3866666666654</v>
       </c>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="J25" s="2"/>
-      <c r="K25" s="7"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="K25" s="2"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -5391,49 +5835,54 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="2"/>
-      <c r="X25" s="3" t="s">
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="2"/>
+      <c r="Z25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="AA25" s="3">
         <v>8</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="AB25" s="3">
         <v>1981.71</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AC25" s="3">
         <v>1981.15</v>
       </c>
-      <c r="AB25" s="14">
+      <c r="AD25" s="3">
+        <v>2471.14</v>
+      </c>
+      <c r="AE25" s="14">
         <v>1981.71</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AF25" s="3">
         <f>AVERAGE(2101.87,2264.54,1760.9)</f>
         <v>2042.4366666666665</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AG25" s="3">
         <f>AVERAGE(2147.38,2193.28,2001.4)</f>
         <v>2114.02</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AH25" s="3">
         <v>1505.95</v>
       </c>
-      <c r="AF25" s="31">
+      <c r="AI25" s="24">
         <v>1685</v>
       </c>
-      <c r="AG25" s="31">
+      <c r="AJ25" s="24">
         <v>1685</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B26" s="24" t="s">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B26" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="7"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="10"/>
+      <c r="K26" s="2"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -5441,49 +5890,54 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="2"/>
-      <c r="X26" s="3" t="s">
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="2"/>
+      <c r="Z26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>11</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>2086.59</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>2006.03</v>
       </c>
-      <c r="AB26" s="14">
+      <c r="AD26" s="3">
+        <v>2729.39</v>
+      </c>
+      <c r="AE26" s="14">
         <v>2086.59</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AF26" s="3">
         <f>AVERAGE(2164.26,3200.72,2791.14)</f>
         <v>2718.7066666666665</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AG26" s="3">
         <f>AVERAGE(2960.13,2523.79,3064.61)</f>
         <v>2849.51</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AH26" s="3">
         <v>1647.33</v>
       </c>
-      <c r="AF26" s="31">
+      <c r="AI26" s="24">
         <v>1902</v>
       </c>
-      <c r="AG26" s="31">
+      <c r="AJ26" s="24">
         <v>1902</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B27" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="7"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="35"/>
+      <c r="K27" s="2"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -5491,84 +5945,106 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="2"/>
+      <c r="S27" s="7"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
+      <c r="U27" s="2"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
-    </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="35"/>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
-    </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-    </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-    </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E28"/>
+    <mergeCell ref="B29:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="B38:C38"/>
@@ -5577,14 +6053,6 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E28"/>
-    <mergeCell ref="B29:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="D1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5593,82 +6061,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG38"/>
+  <dimension ref="B1:AJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.28515625" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.28515625" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="P1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18" t="s">
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="AB1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-    </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+    </row>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5681,86 +6155,95 @@
       <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="R2" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="T2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="U2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="W2" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="X2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="Z2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="AA2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="AB2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AC2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AD2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AF2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AG2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="AH2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="19" t="s">
+      <c r="AI2" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AG2" s="19" t="s">
+      <c r="AJ2" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -5773,89 +6256,98 @@
       <c r="E3" s="18">
         <v>2333.29</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="20">
+        <v>3439.61</v>
+      </c>
+      <c r="G3" s="18">
         <f>AVERAGE(5498.19,5752.9,5622.22)</f>
         <v>5624.4366666666674</v>
       </c>
-      <c r="G3" s="18">
+      <c r="H3" s="18">
         <f>AVERAGE(8314.87,8087.08,8003.63)</f>
         <v>8135.1933333333336</v>
       </c>
-      <c r="H3" s="18">
+      <c r="I3" s="18">
         <f>AVERAGE(12579.96,13108.39,12230.54)</f>
         <v>12639.63</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18">
+      <c r="J3" s="18"/>
+      <c r="K3" s="18">
         <v>2066</v>
       </c>
-      <c r="K3" s="17">
+      <c r="L3" s="17">
         <v>2094</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>36</v>
       </c>
-      <c r="O3" s="18">
+      <c r="P3" s="18">
         <v>3478</v>
       </c>
-      <c r="P3" s="18">
+      <c r="Q3" s="18">
         <v>3475</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="R3" s="20">
+        <v>4542</v>
+      </c>
+      <c r="S3" s="18">
         <f>AVERAGE(4113,4382,3925)</f>
         <v>4140</v>
       </c>
-      <c r="R3" s="18">
+      <c r="T3" s="18">
         <f>AVERAGE(5758,6187,5901)</f>
         <v>5948.666666666667</v>
       </c>
-      <c r="S3" s="18">
+      <c r="U3" s="18">
         <f>AVERAGE(8514,8579,9582)</f>
         <v>8891.6666666666661</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="17">
+      <c r="V3" s="18"/>
+      <c r="W3" s="17">
         <v>3104</v>
       </c>
-      <c r="V3" s="17">
+      <c r="X3" s="17">
         <v>3104</v>
       </c>
-      <c r="X3" s="18" t="s">
+      <c r="Z3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="AA3" s="18">
         <v>57</v>
       </c>
-      <c r="Z3" s="18">
+      <c r="AB3" s="18">
         <v>63830.12</v>
       </c>
-      <c r="AA3" s="18">
+      <c r="AC3" s="18">
         <v>69764.62</v>
       </c>
-      <c r="AB3" s="18">
+      <c r="AD3" s="20">
+        <v>92496.2</v>
+      </c>
+      <c r="AE3" s="18">
         <f>AVERAGE(117447.11,116929.81,134420.93)</f>
         <v>122932.61666666665</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AF3" s="18">
         <f>AVERAGE(163025.64,173319.76,161225.34)</f>
         <v>165856.91333333333</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AG3" s="18">
         <f>AVERAGE(231407.65,210640.9,231124.13)</f>
         <v>224390.89333333331</v>
       </c>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="17">
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="17">
         <v>64142</v>
       </c>
-      <c r="AG3" s="17">
+      <c r="AJ3" s="17">
         <v>64918</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -5864,85 +6356,92 @@
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="18">
-        <f t="shared" ref="F4" si="0">AVERAGE(1)</f>
+      <c r="F4" s="20"/>
+      <c r="G4" s="18">
+        <f t="shared" ref="G4" si="0">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="18">
-        <f t="shared" ref="G4:H4" si="1">AVERAGE(1)</f>
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:I4" si="1">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="18">
+      <c r="I4" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I4" s="18"/>
       <c r="J4" s="18"/>
-      <c r="K4" s="17"/>
-      <c r="M4" s="1" t="s">
+      <c r="K4" s="18"/>
+      <c r="L4" s="17"/>
+      <c r="N4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>72</v>
       </c>
-      <c r="O4" s="18">
+      <c r="P4" s="18">
         <v>41093.300000000003</v>
       </c>
-      <c r="P4" s="18">
+      <c r="Q4" s="18">
         <v>38395.919999999998</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="R4" s="20">
+        <v>52593.8</v>
+      </c>
+      <c r="S4" s="18">
         <f>AVERAGE(71504.94,77227.03,67640)</f>
         <v>72123.990000000005</v>
       </c>
-      <c r="R4" s="18">
+      <c r="T4" s="18">
         <f>AVERAGE(106653.62,102932.99,108946.04)</f>
         <v>106177.54999999999</v>
       </c>
-      <c r="S4" s="18">
+      <c r="U4" s="18">
         <f>AVERAGE(157132.11,152398.44,143124.67)</f>
         <v>150885.07333333333</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="17">
+      <c r="V4" s="18"/>
+      <c r="W4" s="17">
         <v>31437</v>
       </c>
-      <c r="V4" s="17">
+      <c r="X4" s="17">
         <v>31095</v>
       </c>
-      <c r="X4" s="18" t="s">
+      <c r="Z4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="Y4" s="18">
+      <c r="AA4" s="18">
         <v>80</v>
       </c>
-      <c r="Z4" s="18">
+      <c r="AB4" s="18">
         <v>33252.04</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AC4" s="18">
         <v>32109.37</v>
       </c>
-      <c r="AB4" s="18">
+      <c r="AD4" s="20">
+        <v>48668.9</v>
+      </c>
+      <c r="AE4" s="18">
         <f>AVERAGE(72879.96,64236.39,61493.96)</f>
         <v>66203.436666666661</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AF4" s="18">
         <f>AVERAGE(89723.02,84184.01,91378.26)</f>
         <v>88428.43</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AG4" s="18">
         <f>AVERAGE(165224.48,131981.08,142110.87)</f>
         <v>146438.81</v>
       </c>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="17">
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="17">
         <v>36468</v>
       </c>
-      <c r="AG4" s="17">
+      <c r="AJ4" s="17">
         <v>37605</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -5956,82 +6455,91 @@
         <v>6671</v>
       </c>
       <c r="F5" s="3">
+        <v>12173</v>
+      </c>
+      <c r="G5" s="3">
         <f>AVERAGE(7838,9402,8578)</f>
         <v>8606</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <f>AVERAGE(11606,11671,13144)</f>
         <v>12140.333333333334</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <f>AVERAGE(18314,18811,18355)</f>
         <v>18493.333333333332</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="31"/>
-      <c r="M5" s="1" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="24"/>
+      <c r="N5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>90</v>
       </c>
-      <c r="O5" s="18">
+      <c r="P5" s="18">
         <v>4749</v>
       </c>
-      <c r="P5" s="18">
+      <c r="Q5" s="18">
         <v>4888</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="R5" s="20">
+        <v>6524</v>
+      </c>
+      <c r="S5" s="18">
         <f>AVERAGE(8377,8984,9359)</f>
         <v>8906.6666666666661</v>
       </c>
-      <c r="R5" s="18">
+      <c r="T5" s="18">
         <f>AVERAGE(13253,12362,12569)</f>
         <v>12728</v>
       </c>
-      <c r="S5" s="18">
+      <c r="U5" s="18">
         <f>AVERAGE(20146,16997,18839)</f>
         <v>18660.666666666668</v>
       </c>
-      <c r="T5" s="18"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="X5" s="18" t="s">
+      <c r="V5" s="18"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Z5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="AA5" s="18">
         <v>93</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="AB5" s="18">
         <v>40795.86</v>
       </c>
-      <c r="AA5" s="18">
+      <c r="AC5" s="18">
         <v>41639.79</v>
       </c>
-      <c r="AB5" s="18">
+      <c r="AD5" s="20">
+        <v>74199.789999999994</v>
+      </c>
+      <c r="AE5" s="18">
         <f>AVERAGE(93776.89,96997.87,89510.79)</f>
         <v>93428.516666666663</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AF5" s="18">
         <f>AVERAGE(149341.73,141017.62,142122.68)</f>
         <v>144160.67666666667</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AG5" s="18">
         <f>AVERAGE(260615.53,258111.07,253198.06)</f>
         <v>257308.21999999997</v>
       </c>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="17">
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="17">
         <v>39174</v>
       </c>
-      <c r="AG5" s="17">
+      <c r="AJ5" s="17">
         <v>39174</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -6044,81 +6552,88 @@
       <c r="E6" s="18">
         <v>18984</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="20">
+        <v>27039</v>
+      </c>
+      <c r="G6" s="18">
         <f>AVERAGE(76704,73524,78156)</f>
         <v>76128</v>
       </c>
-      <c r="G6" s="18">
+      <c r="H6" s="18">
         <f>AVERAGE(112853,111980,113660)</f>
         <v>112831</v>
       </c>
-      <c r="H6" s="18">
+      <c r="I6" s="18">
         <f>AVERAGE(171873,180273)</f>
         <v>176073</v>
       </c>
-      <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="17"/>
-      <c r="M6" s="1" t="s">
+      <c r="K6" s="18"/>
+      <c r="L6" s="17"/>
+      <c r="N6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>102</v>
       </c>
-      <c r="O6" s="18"/>
       <c r="P6" s="18"/>
-      <c r="Q6" s="18">
-        <f t="shared" ref="Q6:Q10" si="2">AVERAGE(1)</f>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="18">
+        <f t="shared" ref="S6:S10" si="2">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="R6" s="18">
-        <f t="shared" ref="R6:S10" si="3">AVERAGE(1)</f>
+      <c r="T6" s="18">
+        <f t="shared" ref="T6:U10" si="3">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="S6" s="18">
+      <c r="U6" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T6" s="18"/>
-      <c r="U6" s="17">
+      <c r="V6" s="18"/>
+      <c r="W6" s="17">
         <v>43912</v>
       </c>
-      <c r="V6" s="17">
+      <c r="X6" s="17">
         <v>48623</v>
       </c>
-      <c r="X6" s="18" t="s">
+      <c r="Z6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="Y6" s="18">
+      <c r="AA6" s="18">
         <v>102</v>
       </c>
-      <c r="Z6" s="18">
+      <c r="AB6" s="18">
         <v>84256.72</v>
       </c>
-      <c r="AA6" s="18">
+      <c r="AC6" s="18">
         <v>81838.740000000005</v>
       </c>
-      <c r="AB6" s="18">
+      <c r="AD6" s="20">
+        <v>115414.18</v>
+      </c>
+      <c r="AE6" s="18">
         <f>AVERAGE(132266.71,133094,25,136977.14)</f>
         <v>100590.71249999999</v>
       </c>
-      <c r="AC6" s="18">
+      <c r="AF6" s="18">
         <f>AVERAGE(214591.88,211267.39,204427.9)</f>
         <v>210095.72333333336</v>
       </c>
-      <c r="AD6" s="18">
+      <c r="AG6" s="18">
         <f>AVERAGE(313120.47,316139.42,298893.52)</f>
         <v>309384.46999999997</v>
       </c>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="17">
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="17">
         <v>69690</v>
       </c>
-      <c r="AG6" s="17">
+      <c r="AJ6" s="17">
         <v>70790</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -6131,86 +6646,93 @@
       <c r="E7" s="3">
         <v>1068</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="3">
+        <v>1475</v>
+      </c>
+      <c r="G7" s="14">
         <v>1065</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <f>AVERAGE(1369,1306,1259)</f>
         <v>1311.3333333333333</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <f>AVERAGE(2039,2101,1743)</f>
         <v>1961</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>999</v>
       </c>
-      <c r="K7" s="31">
+      <c r="L7" s="24">
         <v>999</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>151</v>
       </c>
-      <c r="O7" s="18"/>
       <c r="P7" s="18"/>
-      <c r="Q7" s="18">
+      <c r="Q7" s="18"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R7" s="18">
+      <c r="T7" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S7" s="18">
+      <c r="U7" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T7" s="18"/>
-      <c r="U7" s="17">
+      <c r="V7" s="18"/>
+      <c r="W7" s="17">
         <v>21563</v>
       </c>
-      <c r="V7" s="17">
+      <c r="X7" s="17">
         <v>21954</v>
       </c>
-      <c r="X7" s="18" t="s">
+      <c r="Z7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="AA7" s="18">
         <v>108</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="AB7" s="18">
         <v>41326.949999999997</v>
       </c>
-      <c r="AA7" s="18">
+      <c r="AC7" s="18">
         <v>43036.45</v>
       </c>
-      <c r="AB7" s="18">
+      <c r="AD7" s="20">
+        <v>65018.06</v>
+      </c>
+      <c r="AE7" s="18">
         <f>AVERAGE(113604.96,122890.51,110266.69)</f>
         <v>115587.38666666667</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AF7" s="18">
         <f>AVERAGE(187735.77,199526.57,181847.76)</f>
         <v>189703.36666666667</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AG7" s="18">
         <f>AVERAGE(298415.55,292635.24,309534.92)</f>
         <v>300195.23666666663</v>
       </c>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="17">
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="17">
         <v>41452</v>
       </c>
-      <c r="AG7" s="17">
+      <c r="AJ7" s="17">
         <v>41703</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -6223,86 +6745,93 @@
       <c r="E8" s="3">
         <v>1174</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="3">
+        <v>1543</v>
+      </c>
+      <c r="G8" s="14">
         <v>1237</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <f>AVERAGE(1699,1464,1751)</f>
         <v>1638</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <f>AVERAGE(2241,2424,2318)</f>
         <v>2327.6666666666665</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1194</v>
       </c>
-      <c r="K8" s="31">
+      <c r="L8" s="24">
         <v>1194</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>171</v>
       </c>
-      <c r="O8" s="18"/>
       <c r="P8" s="18"/>
-      <c r="Q8" s="18">
+      <c r="Q8" s="18"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R8" s="18">
+      <c r="T8" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S8" s="18">
+      <c r="U8" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T8" s="18"/>
-      <c r="U8" s="17">
+      <c r="V8" s="18"/>
+      <c r="W8" s="17">
         <v>69201</v>
       </c>
-      <c r="V8" s="17">
+      <c r="X8" s="17">
         <v>67848</v>
       </c>
-      <c r="X8" s="18" t="s">
+      <c r="Z8" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="AA8" s="18">
         <v>114</v>
       </c>
-      <c r="Z8" s="18">
+      <c r="AB8" s="18">
         <v>51636.7</v>
       </c>
-      <c r="AA8" s="18">
+      <c r="AC8" s="18">
         <v>52270.61</v>
       </c>
-      <c r="AB8" s="18">
+      <c r="AD8" s="20">
+        <v>90926.58</v>
+      </c>
+      <c r="AE8" s="18">
         <f>AVERAGE(150030.4,142468.98,133929.33)</f>
         <v>142142.90333333332</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="AF8" s="18">
         <f>AVERAGE(222464.27,214131.8,208836.57)</f>
         <v>215144.21333333329</v>
       </c>
-      <c r="AD8" s="18">
+      <c r="AG8" s="18">
         <f>AVERAGE(389303.09,363304.45,366739.51)</f>
         <v>373115.68333333335</v>
       </c>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="17">
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="17">
         <v>57431</v>
       </c>
-      <c r="AG8" s="17">
+      <c r="AJ8" s="17">
         <v>52393</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -6316,82 +6845,89 @@
         <v>4629.4799999999996</v>
       </c>
       <c r="F9" s="3">
+        <v>5944.03</v>
+      </c>
+      <c r="G9" s="3">
         <f>AVERAGE(6644.97,6506.27,6688.28)</f>
         <v>6613.1733333333332</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <f>AVERAGE(8271.39,7958.12,8513.73)</f>
         <v>8247.746666666666</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <f>AVERAGE(12974.41,11777.55,11022.59)</f>
         <v>11924.85</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>7619.8989577796901</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4174</v>
       </c>
-      <c r="K9" s="31">
+      <c r="L9" s="24">
         <v>4174</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>323</v>
       </c>
-      <c r="O9" s="18"/>
       <c r="P9" s="18"/>
-      <c r="Q9" s="18">
+      <c r="Q9" s="18"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R9" s="18">
+      <c r="T9" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S9" s="18">
+      <c r="U9" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T9" s="18"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="X9" s="18" t="s">
+      <c r="V9" s="18"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Z9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="Y9" s="18">
+      <c r="AA9" s="18">
         <v>169</v>
       </c>
-      <c r="Z9" s="18">
+      <c r="AB9" s="18">
         <v>67272.25</v>
       </c>
-      <c r="AA9" s="18">
+      <c r="AC9" s="18">
         <v>71036.73</v>
       </c>
-      <c r="AB9" s="18">
+      <c r="AD9" s="20">
+        <v>111073.35</v>
+      </c>
+      <c r="AE9" s="18">
         <f>AVERAGE(178097.34,176328.93,180314.66)</f>
         <v>178246.97666666668</v>
       </c>
-      <c r="AC9" s="18">
+      <c r="AF9" s="18">
         <f>AVERAGE(350581.44,357429.61,309027.66)</f>
         <v>339012.90333333332</v>
       </c>
-      <c r="AD9" s="18">
+      <c r="AG9" s="18">
         <f>AVERAGE(581297.93,577214.26,614941.59)</f>
         <v>591151.25999999989</v>
       </c>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="17">
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="17">
         <v>47516</v>
       </c>
-      <c r="AG9" s="17">
+      <c r="AJ9" s="17">
         <v>49198</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -6404,77 +6940,84 @@
       <c r="E10" s="18">
         <v>53625.85</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="20">
+        <v>76089.16</v>
+      </c>
+      <c r="G10" s="18">
         <f>AVERAGE(137748.6,120237.26,117651.98)</f>
         <v>125212.61333333333</v>
       </c>
-      <c r="G10" s="18">
+      <c r="H10" s="18">
         <f>AVERAGE(169704.54,161051.99,169775.23)</f>
         <v>166843.92000000001</v>
       </c>
-      <c r="H10" s="18">
+      <c r="I10" s="18">
         <f>AVERAGE(243168.64,219081.66,215888.04)</f>
         <v>226046.11333333337</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18">
+      <c r="J10" s="18"/>
+      <c r="K10" s="18">
         <v>50324</v>
       </c>
-      <c r="K10" s="17">
+      <c r="L10" s="17">
         <v>50764</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>499</v>
       </c>
-      <c r="O10" s="18"/>
       <c r="P10" s="18"/>
-      <c r="Q10" s="18">
+      <c r="Q10" s="18"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R10" s="18">
+      <c r="T10" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S10" s="18">
+      <c r="U10" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T10" s="18"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="X10" s="18" t="s">
+      <c r="V10" s="18"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Z10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="Y10" s="18">
+      <c r="AA10" s="18">
         <v>198</v>
       </c>
-      <c r="Z10" s="18">
+      <c r="AB10" s="18">
         <v>36877.03</v>
       </c>
-      <c r="AA10" s="18">
+      <c r="AC10" s="18">
         <v>35720.79</v>
       </c>
-      <c r="AB10" s="18">
+      <c r="AD10" s="20">
+        <v>61890.51</v>
+      </c>
+      <c r="AE10" s="18">
         <f>AVERAGE(119999.79,117003.94,106132.19)</f>
         <v>114378.64</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="AF10" s="18">
         <f>AVERAGE(170213.44,143980.5,163685.95)</f>
         <v>159293.29666666666</v>
       </c>
-      <c r="AD10" s="18">
+      <c r="AG10" s="18">
         <f>AVERAGE(306524.32,286757.21,275274.66)</f>
         <v>289518.73</v>
       </c>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -6487,81 +7030,90 @@
       <c r="E11" s="18">
         <v>13353</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="20">
+        <v>22240</v>
+      </c>
+      <c r="G11" s="18">
         <f>AVERAGE(19497,15890,17174)</f>
         <v>17520.333333333332</v>
       </c>
-      <c r="G11" s="18">
+      <c r="H11" s="18">
         <f>AVERAGE(27625,25146,24688)</f>
         <v>25819.666666666668</v>
       </c>
-      <c r="H11" s="18">
+      <c r="I11" s="18">
         <f>AVERAGE(42471,45169,34305)</f>
         <v>40648.333333333336</v>
       </c>
-      <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="17"/>
-      <c r="M11" s="1" t="s">
+      <c r="K11" s="18"/>
+      <c r="L11" s="17"/>
+      <c r="N11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>36</v>
       </c>
-      <c r="O11" s="18">
+      <c r="P11" s="18">
         <v>8651</v>
       </c>
-      <c r="P11" s="18">
+      <c r="Q11" s="18">
         <v>7988</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="R11" s="20">
+        <v>10562</v>
+      </c>
+      <c r="S11" s="18">
         <f>AVERAGE(8745,12149,9449)</f>
         <v>10114.333333333334</v>
       </c>
-      <c r="R11" s="18">
+      <c r="T11" s="18">
         <f>AVERAGE(12541,14158,13224)</f>
         <v>13307.666666666666</v>
       </c>
-      <c r="S11" s="18">
+      <c r="U11" s="18">
         <f>AVERAGE(21571,19009,20749)</f>
         <v>20443</v>
       </c>
-      <c r="T11" s="18"/>
-      <c r="U11" s="17">
+      <c r="V11" s="18"/>
+      <c r="W11" s="17">
         <v>7278</v>
       </c>
-      <c r="V11" s="17">
+      <c r="X11" s="17">
         <v>7278</v>
       </c>
-      <c r="X11" s="18" t="s">
+      <c r="Z11" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="Y11" s="18">
+      <c r="AA11" s="18">
         <v>224</v>
       </c>
-      <c r="Z11" s="18">
+      <c r="AB11" s="18">
         <v>38943.230000000003</v>
       </c>
-      <c r="AA11" s="18">
+      <c r="AC11" s="18">
         <v>40552.269999999997</v>
       </c>
-      <c r="AB11" s="18">
+      <c r="AD11" s="20">
+        <v>49097.59</v>
+      </c>
+      <c r="AE11" s="18">
         <f>AVERAGE(121048.8,115030.75,104405.22)</f>
         <v>113494.92333333334</v>
       </c>
-      <c r="AC11" s="18">
+      <c r="AF11" s="18">
         <f>AVERAGE(167530.93,170905.23,161324.14)</f>
         <v>166586.76666666669</v>
       </c>
-      <c r="AD11" s="18">
+      <c r="AG11" s="18">
         <f>AVERAGE(259588.85,265952.01,259413.77)</f>
         <v>261651.54333333333</v>
       </c>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -6574,81 +7126,90 @@
       <c r="E12" s="18">
         <v>1490</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="20">
+        <v>163350</v>
+      </c>
+      <c r="G12" s="18">
         <f>AVERAGE(192260,178990,179380)</f>
         <v>183543.33333333334</v>
       </c>
-      <c r="G12" s="18">
+      <c r="H12" s="18">
         <f>AVERAGE(221170,235560,178330)</f>
         <v>211686.66666666666</v>
       </c>
-      <c r="H12" s="18">
+      <c r="I12" s="18">
         <f>AVERAGE(335850,316390,345760)</f>
         <v>332666.66666666669</v>
       </c>
-      <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="17"/>
-      <c r="M12" s="1" t="s">
+      <c r="K12" s="18"/>
+      <c r="L12" s="17"/>
+      <c r="N12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>75</v>
       </c>
-      <c r="O12" s="18">
+      <c r="P12" s="18">
         <v>19476.54</v>
       </c>
-      <c r="P12" s="18">
+      <c r="Q12" s="18">
         <v>17516.66</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="R12" s="20">
+        <v>22857.56</v>
+      </c>
+      <c r="S12" s="18">
         <f>AVERAGE(27525.22,27247,27153.45)</f>
         <v>27308.556666666667</v>
       </c>
-      <c r="R12" s="18">
+      <c r="T12" s="18">
         <f>AVERAGE(45516.62,42411,43956.76)</f>
         <v>43961.46</v>
       </c>
-      <c r="S12" s="18">
+      <c r="U12" s="18">
         <f>AVERAGE(61934.81,58688.49,64762.94)</f>
         <v>61795.41333333333</v>
       </c>
-      <c r="T12" s="18"/>
-      <c r="U12" s="17">
+      <c r="V12" s="18"/>
+      <c r="W12" s="17">
         <v>14492</v>
       </c>
-      <c r="V12" s="17">
+      <c r="X12" s="17">
         <v>14492</v>
       </c>
-      <c r="X12" s="18" t="s">
+      <c r="Z12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="18">
+      <c r="AA12" s="18">
         <v>329</v>
       </c>
-      <c r="Z12" s="18">
+      <c r="AB12" s="18">
         <v>66131.56</v>
       </c>
-      <c r="AA12" s="18">
+      <c r="AC12" s="18">
         <v>70952.95</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AD12" s="20">
+        <v>112296.69</v>
+      </c>
+      <c r="AE12" s="18">
         <f>AVERAGE(274261.1,263443.34,271059.75)</f>
         <v>269588.0633333333</v>
       </c>
-      <c r="AC12" s="18">
+      <c r="AF12" s="18">
         <f>AVERAGE(417570.76,430602.38,420066.24)</f>
         <v>422746.45999999996</v>
       </c>
-      <c r="AD12" s="18">
+      <c r="AG12" s="18">
         <f>AVERAGE(659669.88,677643.97,713537.73)</f>
         <v>683617.19333333336</v>
       </c>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -6661,85 +7222,94 @@
       <c r="E13" s="3">
         <v>1953.16</v>
       </c>
-      <c r="F13" s="14">
-        <v>1943.98</v>
+      <c r="F13" s="3">
+        <v>2030.86</v>
       </c>
       <c r="G13" s="14">
         <v>1943.98</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="14">
+        <v>1943.98</v>
+      </c>
+      <c r="I13" s="3">
         <f>AVERAGE(2336.66,2412.29,3127.7)</f>
         <v>2625.5499999999997</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>1690.16</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>1642</v>
       </c>
-      <c r="K13" s="31">
+      <c r="L13" s="24">
         <v>1575</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>112</v>
       </c>
-      <c r="O13" s="18">
+      <c r="P13" s="18">
         <v>22938.36</v>
       </c>
-      <c r="P13" s="18">
+      <c r="Q13" s="18">
         <v>21753.58</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="R13" s="20">
+        <v>27558.11</v>
+      </c>
+      <c r="S13" s="18">
         <f>AVERAGE(45731.91,39676.2,42516.11)</f>
         <v>42641.406666666669</v>
       </c>
-      <c r="R13" s="18">
+      <c r="T13" s="18">
         <f>AVERAGE(58598.48,64748.09,61421.73)</f>
         <v>61589.433333333342</v>
       </c>
-      <c r="S13" s="18">
+      <c r="U13" s="18">
         <f>AVERAGE(89260.26,85241.59,94124.75)</f>
         <v>89542.2</v>
       </c>
-      <c r="T13" s="18"/>
-      <c r="U13" s="17">
+      <c r="V13" s="18"/>
+      <c r="W13" s="17">
         <v>18210</v>
       </c>
-      <c r="V13" s="17">
+      <c r="X13" s="17">
         <v>18295</v>
       </c>
-      <c r="X13" s="18" t="s">
+      <c r="Z13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="Y13" s="18">
+      <c r="AA13" s="18">
         <v>751</v>
       </c>
-      <c r="Z13" s="18">
+      <c r="AB13" s="18">
         <v>209167.52</v>
       </c>
-      <c r="AA13" s="18">
+      <c r="AC13" s="18">
         <v>218655.55</v>
       </c>
-      <c r="AB13" s="18">
+      <c r="AD13" s="20">
+        <v>288086.71999999997</v>
+      </c>
+      <c r="AE13" s="18">
         <f>AVERAGE(1044777.76,1050611.75,1058082.78)</f>
         <v>1051157.43</v>
       </c>
-      <c r="AC13" s="18">
+      <c r="AF13" s="18">
         <f>AVERAGE(1539456.21)</f>
         <v>1539456.21</v>
       </c>
-      <c r="AD13" s="18">
+      <c r="AG13" s="18">
         <f>AVERAGE(2445090.61)</f>
         <v>2445090.61</v>
       </c>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
@@ -6752,89 +7322,98 @@
       <c r="E14" s="18">
         <v>4786.0600000000004</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="20">
+        <v>5958.21</v>
+      </c>
+      <c r="G14" s="18">
         <f>AVERAGE(8413.89,9053.43,8139.43)</f>
         <v>8535.5833333333339</v>
       </c>
-      <c r="G14" s="18">
+      <c r="H14" s="18">
         <f>AVERAGE(12291.75,12697.91,13562.68)</f>
         <v>12850.779999999999</v>
       </c>
-      <c r="H14" s="18">
+      <c r="I14" s="18">
         <f>AVERAGE(18204.79,18067.5,18316.84)</f>
         <v>18196.376666666667</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18">
+      <c r="J14" s="18"/>
+      <c r="K14" s="18">
         <v>3907</v>
       </c>
-      <c r="K14" s="17">
+      <c r="L14" s="17">
         <v>4158</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>150</v>
       </c>
-      <c r="O14" s="18">
+      <c r="P14" s="18">
         <v>21433.16</v>
       </c>
-      <c r="P14" s="18">
+      <c r="Q14" s="18">
         <v>24404.94</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="R14" s="20">
+        <v>34218.199999999997</v>
+      </c>
+      <c r="S14" s="18">
         <f>AVERAGE(50639.03,52773.37,53019.09)</f>
         <v>52143.829999999994</v>
       </c>
-      <c r="R14" s="18">
+      <c r="T14" s="18">
         <f>AVERAGE(76395.39,78782.09,77629.81)</f>
         <v>77602.429999999993</v>
       </c>
-      <c r="S14" s="18">
+      <c r="U14" s="18">
         <f>AVERAGE(120482.97,127877.85,125025.01)</f>
         <v>124461.94333333334</v>
       </c>
-      <c r="T14" s="18"/>
-      <c r="U14" s="17">
+      <c r="V14" s="18"/>
+      <c r="W14" s="17">
         <v>20723</v>
       </c>
-      <c r="V14" s="17">
+      <c r="X14" s="17">
         <v>20135</v>
       </c>
-      <c r="X14" s="18" t="s">
+      <c r="Z14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="Y14" s="18">
+      <c r="AA14" s="18">
         <v>74</v>
       </c>
-      <c r="Z14" s="18">
+      <c r="AB14" s="18">
         <v>925.25</v>
       </c>
-      <c r="AA14" s="18">
+      <c r="AC14" s="18">
         <v>1047.43</v>
       </c>
-      <c r="AB14" s="18">
+      <c r="AD14" s="20">
+        <v>1276</v>
+      </c>
+      <c r="AE14" s="18">
         <f>AVERAGE(1580.3,1556.26,1531.77)</f>
         <v>1556.11</v>
       </c>
-      <c r="AC14" s="18">
+      <c r="AF14" s="18">
         <f>AVERAGE(2027.98,2217.78,2058.83)</f>
         <v>2101.5300000000002</v>
       </c>
-      <c r="AD14" s="18">
+      <c r="AG14" s="18">
         <f>AVERAGE(2885.77,2913.33,2689.71)</f>
         <v>2829.6033333333339</v>
       </c>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="17">
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="17">
         <v>861</v>
       </c>
-      <c r="AG14" s="17">
+      <c r="AJ14" s="17">
         <v>870</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
@@ -6847,89 +7426,98 @@
       <c r="E15" s="18">
         <v>5392.18</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="20">
+        <v>7065.49</v>
+      </c>
+      <c r="G15" s="18">
         <f>AVERAGE(10436.2,10515.28,10764.03)</f>
         <v>10571.836666666668</v>
       </c>
-      <c r="G15" s="18">
+      <c r="H15" s="18">
         <f>AVERAGE(14474.29,13931.59,14409.94)</f>
         <v>14271.94</v>
       </c>
-      <c r="H15" s="18">
+      <c r="I15" s="18">
         <f>AVERAGE(21598.37,19957.54,22687.24)</f>
         <v>21414.383333333335</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18">
+      <c r="J15" s="18"/>
+      <c r="K15" s="18">
         <v>4499</v>
       </c>
-      <c r="K15" s="17">
+      <c r="L15" s="17">
         <v>4720</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>75</v>
       </c>
-      <c r="O15" s="18">
+      <c r="P15" s="18">
         <v>17465.62</v>
       </c>
-      <c r="P15" s="18">
+      <c r="Q15" s="18">
         <v>18768.060000000001</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="R15" s="20">
+        <v>24412.98</v>
+      </c>
+      <c r="S15" s="18">
         <f>AVERAGE(30281.7,28948.48,27864.93)</f>
         <v>29031.703333333335</v>
       </c>
-      <c r="R15" s="18">
+      <c r="T15" s="18">
         <f>AVERAGE(44501.41,42232.29,42586.87)</f>
         <v>43106.856666666667</v>
       </c>
-      <c r="S15" s="18">
+      <c r="U15" s="18">
         <f>AVERAGE(60141.52,67201.92,60065.23)</f>
         <v>62469.556666666671</v>
       </c>
-      <c r="T15" s="18"/>
-      <c r="U15" s="17">
+      <c r="V15" s="18"/>
+      <c r="W15" s="17">
         <v>14744</v>
       </c>
-      <c r="V15" s="17">
+      <c r="X15" s="17">
         <v>14744</v>
       </c>
-      <c r="X15" s="18" t="s">
+      <c r="Z15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Y15" s="18">
+      <c r="AA15" s="18">
         <v>146</v>
       </c>
-      <c r="Z15" s="18">
+      <c r="AB15" s="18">
         <v>1695.61</v>
       </c>
-      <c r="AA15" s="18">
+      <c r="AC15" s="18">
         <v>1944.15</v>
       </c>
-      <c r="AB15" s="18">
+      <c r="AD15" s="20">
+        <v>2468.79</v>
+      </c>
+      <c r="AE15" s="18">
         <f>AVERAGE(4322.14,3865.43,4106.19)</f>
         <v>4097.9199999999992</v>
       </c>
-      <c r="AC15" s="18">
+      <c r="AF15" s="18">
         <f>AVERAGE(5557.8,5273.78,5536.67)</f>
         <v>5456.083333333333</v>
       </c>
-      <c r="AD15" s="18">
+      <c r="AG15" s="18">
         <f>AVERAGE(8521.71,8657.58,8360.26)</f>
         <v>8513.1833333333343</v>
       </c>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="17">
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="17">
         <v>1753</v>
       </c>
-      <c r="AG15" s="17">
+      <c r="AJ15" s="17">
         <v>1713</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
@@ -6943,84 +7531,93 @@
         <v>393</v>
       </c>
       <c r="F16" s="3">
+        <v>728</v>
+      </c>
+      <c r="G16" s="3">
         <f>AVERAGE(523,694,586)</f>
         <v>601</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <f>AVERAGE(669,778,764)</f>
         <v>737</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <f>AVERAGE(1154,1101,855)</f>
         <v>1036.6666666666667</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3">
         <v>427</v>
       </c>
-      <c r="K16" s="31">
+      <c r="L16" s="24">
         <v>427</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>112</v>
       </c>
-      <c r="O16" s="18">
+      <c r="P16" s="18">
         <v>17814.47</v>
       </c>
-      <c r="P16" s="18">
+      <c r="Q16" s="18">
         <v>20307.55</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="R16" s="20">
+        <v>27481.71</v>
+      </c>
+      <c r="S16" s="18">
         <f>AVERAGE(39494.51,43021.33,43619.02)</f>
         <v>42044.953333333331</v>
       </c>
-      <c r="R16" s="18">
+      <c r="T16" s="18">
         <f>AVERAGE(55705.58,56846.77,62861.81)</f>
         <v>58471.386666666665</v>
       </c>
-      <c r="S16" s="18">
+      <c r="U16" s="18">
         <f>AVERAGE(86487.19,83523.69,93097.67)</f>
         <v>87702.849999999991</v>
       </c>
-      <c r="T16" s="18"/>
-      <c r="U16" s="17">
+      <c r="V16" s="18"/>
+      <c r="W16" s="17">
         <v>17501</v>
       </c>
-      <c r="V16" s="17">
+      <c r="X16" s="17">
         <v>17349</v>
       </c>
-      <c r="X16" s="18" t="s">
+      <c r="Z16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="Y16" s="18">
+      <c r="AA16" s="18">
         <v>431</v>
       </c>
-      <c r="Z16" s="18">
+      <c r="AB16" s="18">
         <v>5946.93</v>
       </c>
-      <c r="AA16" s="18">
+      <c r="AC16" s="18">
         <v>5694.36</v>
       </c>
-      <c r="AB16" s="18">
+      <c r="AD16" s="20">
+        <v>7538.39</v>
+      </c>
+      <c r="AE16" s="18">
         <f>AVERAGE(19012.37,18638.86,18931.57)</f>
         <v>18860.933333333331</v>
       </c>
-      <c r="AC16" s="18">
+      <c r="AF16" s="18">
         <f>AVERAGE(27418.94,27229.57,27137.69)</f>
         <v>27262.066666666666</v>
       </c>
-      <c r="AD16" s="18">
+      <c r="AG16" s="18">
         <f>AVERAGE(40546.4)</f>
         <v>40546.400000000001</v>
       </c>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -7034,86 +7631,95 @@
         <v>323.66000000000003</v>
       </c>
       <c r="F17" s="3">
+        <v>394.42</v>
+      </c>
+      <c r="G17" s="3">
         <f>AVERAGE(431.16,418.32,422.52)</f>
         <v>424</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <f>AVERAGE(461.69,455.72,460.88)</f>
         <v>459.43</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <f>AVERAGE(642.81,712.89,636.98)</f>
         <v>664.22666666666657</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>414.92</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>289</v>
       </c>
-      <c r="K17" s="31">
+      <c r="L17" s="24">
         <v>287</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>150</v>
       </c>
-      <c r="O17" s="18">
+      <c r="P17" s="18">
         <v>24691.06</v>
       </c>
-      <c r="P17" s="18">
+      <c r="Q17" s="18">
         <v>24802.49</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="R17" s="20">
+        <v>33962.28</v>
+      </c>
+      <c r="S17" s="18">
         <f>AVERAGE(57761.37,55503.47,57973.66)</f>
         <v>57079.5</v>
       </c>
-      <c r="R17" s="18">
+      <c r="T17" s="18">
         <f>AVERAGE(78824.48,82616.61,82014.72)</f>
         <v>81151.936666666661</v>
       </c>
-      <c r="S17" s="18">
+      <c r="U17" s="18">
         <f>AVERAGE(116751.06,116303.51,120225.98)</f>
         <v>117760.18333333333</v>
       </c>
-      <c r="T17" s="18"/>
-      <c r="U17" s="17">
+      <c r="V17" s="18"/>
+      <c r="W17" s="17">
         <v>20508</v>
       </c>
-      <c r="V17" s="17">
+      <c r="X17" s="17">
         <v>21266</v>
       </c>
-      <c r="X17" s="18" t="s">
+      <c r="Z17" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="Y17" s="18">
+      <c r="AA17" s="18">
         <v>587</v>
       </c>
-      <c r="Z17" s="18">
+      <c r="AB17" s="18">
         <v>7364.99</v>
       </c>
-      <c r="AA17" s="18">
+      <c r="AC17" s="18">
         <v>7408.05</v>
       </c>
-      <c r="AB17" s="18">
+      <c r="AD17" s="20">
+        <v>10144.67</v>
+      </c>
+      <c r="AE17" s="18">
         <f>AVERAGE(29654.31,28805.35,29660.73)</f>
         <v>29373.463333333333</v>
       </c>
-      <c r="AC17" s="18">
+      <c r="AF17" s="18">
         <f>AVERAGE(42472.74,43217.07,42257.84)</f>
         <v>42649.216666666667</v>
       </c>
-      <c r="AD17" s="18">
+      <c r="AG17" s="18">
         <f>AVERAGE(65810.51)</f>
         <v>65810.509999999995</v>
       </c>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -7126,85 +7732,94 @@
       <c r="E18" s="18">
         <v>373.07</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="20">
+        <v>470.95</v>
+      </c>
+      <c r="G18" s="18">
         <f>AVERAGE(573.88,576.15,503.95)</f>
         <v>551.32666666666671</v>
       </c>
-      <c r="G18" s="18">
+      <c r="H18" s="18">
         <f>AVERAGE(694.88,730.45,728)</f>
         <v>717.77666666666664</v>
       </c>
-      <c r="H18" s="18">
+      <c r="I18" s="18">
         <f>AVERAGE(960.07,1108.95,1019.51)</f>
         <v>1029.51</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18">
+      <c r="J18" s="18"/>
+      <c r="K18" s="18">
         <v>336</v>
       </c>
-      <c r="K18" s="17">
+      <c r="L18" s="17">
         <v>336</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>75</v>
       </c>
-      <c r="O18" s="18">
+      <c r="P18" s="18">
         <v>14926.51</v>
       </c>
-      <c r="P18" s="18">
+      <c r="Q18" s="18">
         <v>18900.41</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="R18" s="20">
+        <v>24087.26</v>
+      </c>
+      <c r="S18" s="18">
         <f>AVERAGE(29654.14,29587.48,26846.83)</f>
         <v>28696.149999999998</v>
       </c>
-      <c r="R18" s="18">
+      <c r="T18" s="18">
         <f>AVERAGE(34790.23,43618.71,37235.06)</f>
         <v>38548</v>
       </c>
-      <c r="S18" s="18">
+      <c r="U18" s="18">
         <f>AVERAGE(62097.26,58155.65,68341.07)</f>
         <v>62864.66</v>
       </c>
-      <c r="T18" s="18"/>
-      <c r="U18" s="17">
+      <c r="V18" s="18"/>
+      <c r="W18" s="17">
         <v>14067</v>
       </c>
-      <c r="V18" s="17">
+      <c r="X18" s="17">
         <v>14067</v>
       </c>
-      <c r="X18" s="18" t="s">
+      <c r="Z18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Y18" s="18">
+      <c r="AA18" s="18">
         <v>131</v>
       </c>
-      <c r="Z18" s="18">
+      <c r="AB18" s="18">
         <v>16096</v>
       </c>
-      <c r="AA18" s="18">
+      <c r="AC18" s="18">
         <v>16373</v>
       </c>
-      <c r="AB18" s="18">
+      <c r="AD18" s="20">
+        <v>17756</v>
+      </c>
+      <c r="AE18" s="18">
         <f>AVERAGE(20712,20221,20516)</f>
         <v>20483</v>
       </c>
-      <c r="AC18" s="18">
+      <c r="AF18" s="18">
         <f>AVERAGE(24236,23919,23092)</f>
         <v>23749</v>
       </c>
-      <c r="AD18" s="18">
+      <c r="AG18" s="18">
         <f>AVERAGE(26899,27279,27487)</f>
         <v>27221.666666666668</v>
       </c>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
@@ -7217,85 +7832,94 @@
       <c r="E19" s="18">
         <v>452.67</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="20">
+        <v>558.46</v>
+      </c>
+      <c r="G19" s="18">
         <f>AVERAGE(641.15,690.2,671.97)</f>
         <v>667.77333333333331</v>
       </c>
-      <c r="G19" s="18">
+      <c r="H19" s="18">
         <f>AVERAGE(902.19,991.71,946.19)</f>
         <v>946.69666666666672</v>
       </c>
-      <c r="H19" s="18">
+      <c r="I19" s="18">
         <f>AVERAGE(1411.89,1284.17,1363.15)</f>
         <v>1353.0700000000002</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18">
+      <c r="J19" s="18"/>
+      <c r="K19" s="18">
         <v>396</v>
       </c>
-      <c r="K19" s="17">
+      <c r="L19" s="17">
         <v>406</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>75</v>
       </c>
-      <c r="O19" s="18">
+      <c r="P19" s="18">
         <v>16252.61</v>
       </c>
-      <c r="P19" s="18">
+      <c r="Q19" s="18">
         <v>17083.72</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="R19" s="20">
+        <v>22966.69</v>
+      </c>
+      <c r="S19" s="18">
         <f>AVERAGE(27837.62,28079.33,27372.98)</f>
         <v>27763.309999999998</v>
       </c>
-      <c r="R19" s="18">
+      <c r="T19" s="18">
         <f>AVERAGE(40748.19,36492.27,42150.33)</f>
         <v>39796.93</v>
       </c>
-      <c r="S19" s="18">
+      <c r="U19" s="18">
         <f>AVERAGE(63069.85,56533.57,57377.55)</f>
         <v>58993.656666666669</v>
       </c>
-      <c r="T19" s="18"/>
-      <c r="U19" s="17">
+      <c r="V19" s="18"/>
+      <c r="W19" s="17">
         <v>14171</v>
       </c>
-      <c r="V19" s="17">
+      <c r="X19" s="17">
         <v>14171</v>
       </c>
-      <c r="X19" s="18" t="s">
+      <c r="Z19" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="Y19" s="18">
+      <c r="AA19" s="18">
         <v>401</v>
       </c>
-      <c r="Z19" s="18">
+      <c r="AB19" s="18">
         <v>36872</v>
       </c>
-      <c r="AA19" s="18">
+      <c r="AC19" s="18">
         <v>35948</v>
       </c>
-      <c r="AB19" s="18">
+      <c r="AD19" s="20">
+        <v>41360</v>
+      </c>
+      <c r="AE19" s="18">
         <f>AVERAGE(55395,53710,55185)</f>
         <v>54763.333333333336</v>
       </c>
-      <c r="AC19" s="18">
+      <c r="AF19" s="18">
         <f>AVERAGE(62019,62835,64001)</f>
         <v>62951.666666666664</v>
       </c>
-      <c r="AD19" s="18">
+      <c r="AG19" s="18">
         <f>AVERAGE(74777,74991,74902)</f>
         <v>74890</v>
       </c>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
@@ -7308,86 +7932,95 @@
       <c r="E20" s="3">
         <v>608</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="3">
+        <v>859</v>
+      </c>
+      <c r="G20" s="14">
         <v>744</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <f>AVERAGE(832,758,709)</f>
         <v>766.33333333333337</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <f>AVERAGE(960,1073,832)</f>
         <v>955</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>492</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>601</v>
       </c>
-      <c r="K20" s="31">
+      <c r="L20" s="24">
         <v>601</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>75</v>
       </c>
-      <c r="O20" s="18">
+      <c r="P20" s="18">
         <v>16441.939999999999</v>
       </c>
-      <c r="P20" s="18">
+      <c r="Q20" s="18">
         <v>17078.29</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="R20" s="20">
+        <v>24971.040000000001</v>
+      </c>
+      <c r="S20" s="18">
         <f>AVERAGE(28486.61,27900.02,35382.74)</f>
         <v>30589.789999999997</v>
       </c>
-      <c r="R20" s="18">
+      <c r="T20" s="18">
         <f>AVERAGE(42514.99,41903.89,40748.19)</f>
         <v>41722.356666666667</v>
       </c>
-      <c r="S20" s="18">
+      <c r="U20" s="18">
         <f>AVERAGE(60682.58,65266.37,57851.47)</f>
         <v>61266.806666666671</v>
       </c>
-      <c r="T20" s="18"/>
-      <c r="U20" s="17">
+      <c r="V20" s="18"/>
+      <c r="W20" s="17">
         <v>14640</v>
       </c>
-      <c r="V20" s="17">
+      <c r="X20" s="17">
         <v>14640</v>
       </c>
-      <c r="X20" s="18" t="s">
+      <c r="Z20" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="Y20" s="18">
+      <c r="AA20" s="18">
         <v>774</v>
       </c>
-      <c r="Z20" s="18">
+      <c r="AB20" s="18">
         <v>70582</v>
       </c>
-      <c r="AA20" s="18">
+      <c r="AC20" s="18">
         <v>70198</v>
       </c>
-      <c r="AB20" s="18">
+      <c r="AD20" s="20">
+        <v>82200</v>
+      </c>
+      <c r="AE20" s="18">
         <f>AVERAGE(113798,114572,110884)</f>
         <v>113084.66666666667</v>
       </c>
-      <c r="AC20" s="18">
+      <c r="AF20" s="18">
         <f>AVERAGE(127643)</f>
         <v>127643</v>
       </c>
-      <c r="AD20" s="18">
+      <c r="AG20" s="18">
         <f>AVERAGE(165762)</f>
         <v>165762</v>
       </c>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
@@ -7400,89 +8033,98 @@
       <c r="E21" s="18">
         <v>1967.63</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="20">
+        <v>2692.33</v>
+      </c>
+      <c r="G21" s="18">
         <f>AVERAGE(4901.96,4962.22,4894.71)</f>
         <v>4919.63</v>
       </c>
-      <c r="G21" s="18">
+      <c r="H21" s="18">
         <f>AVERAGE(6895.63,6726.79,6758.08)</f>
         <v>6793.5</v>
       </c>
-      <c r="H21" s="18">
+      <c r="I21" s="18">
         <f>AVERAGE(10257.43,10704.55,10048.95)</f>
         <v>10336.976666666667</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18">
+      <c r="J21" s="18"/>
+      <c r="K21" s="18">
         <v>1672</v>
       </c>
-      <c r="K21" s="17">
+      <c r="L21" s="17">
         <v>1695</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>78</v>
       </c>
-      <c r="O21" s="18">
+      <c r="P21" s="18">
         <v>9054.34</v>
       </c>
-      <c r="P21" s="18">
+      <c r="Q21" s="18">
         <v>9002.3700000000008</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="R21" s="20">
+        <v>14305.04</v>
+      </c>
+      <c r="S21" s="18">
         <f>AVERAGE(17572.51,17992.8,21124.48)</f>
         <v>18896.596666666665</v>
       </c>
-      <c r="R21" s="18">
+      <c r="T21" s="18">
         <f>AVERAGE(28081.57,26333.33,26019.79)</f>
         <v>26811.563333333335</v>
       </c>
-      <c r="S21" s="18">
+      <c r="U21" s="18">
         <f>AVERAGE(42812.73,36334.77,40894.03)</f>
         <v>40013.843333333331</v>
       </c>
-      <c r="T21" s="18"/>
-      <c r="U21" s="17">
+      <c r="V21" s="18"/>
+      <c r="W21" s="17">
         <v>9034</v>
       </c>
-      <c r="V21" s="17">
+      <c r="X21" s="17">
         <v>8999</v>
       </c>
-      <c r="X21" s="12" t="s">
+      <c r="Z21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Y21" s="12">
+      <c r="AA21" s="12">
         <v>52</v>
       </c>
-      <c r="Z21" s="12">
+      <c r="AB21" s="12">
         <v>543.95000000000005</v>
       </c>
-      <c r="AA21" s="12">
+      <c r="AC21" s="12">
         <v>437.11</v>
       </c>
-      <c r="AB21" s="18">
+      <c r="AD21" s="12">
+        <v>718.56</v>
+      </c>
+      <c r="AE21" s="18">
         <f>AVERAGE(805.9,739.32,748.97)</f>
         <v>764.73</v>
       </c>
-      <c r="AC21" s="18">
+      <c r="AF21" s="18">
         <f>AVERAGE(925.53,872.1,909.71)</f>
         <v>902.44666666666672</v>
       </c>
-      <c r="AD21" s="18">
+      <c r="AG21" s="18">
         <f>AVERAGE(1359.26,1387.21,1496.72)</f>
         <v>1414.3966666666668</v>
       </c>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="17">
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="17">
         <v>428</v>
       </c>
-      <c r="AG21" s="17">
+      <c r="AJ21" s="17">
         <v>428</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -7495,90 +8137,99 @@
       <c r="E22" s="3">
         <v>813</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="3">
+        <v>1037</v>
+      </c>
+      <c r="G22" s="14">
         <v>661</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <f>AVERAGE(869,1032,942)</f>
         <v>947.66666666666663</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <f>AVERAGE(1316,1554,1410)</f>
         <v>1426.6666666666667</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>810</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>951</v>
       </c>
-      <c r="K22" s="31">
+      <c r="L22" s="24">
         <v>951</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>238</v>
       </c>
-      <c r="O22" s="18">
+      <c r="P22" s="18">
         <v>33307.81</v>
       </c>
-      <c r="P22" s="18">
+      <c r="Q22" s="18">
         <v>34803.33</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="R22" s="20">
+        <v>47029.4</v>
+      </c>
+      <c r="S22" s="18">
         <f>AVERAGE(93802.91,100544.44,98586.28)</f>
         <v>97644.543333333335</v>
       </c>
-      <c r="R22" s="18">
+      <c r="T22" s="18">
         <f>AVERAGE(152678.03,147132.3,152500.21)</f>
         <v>150770.17999999996</v>
       </c>
-      <c r="S22" s="18">
+      <c r="U22" s="18">
         <f>AVERAGE(230036.41,240529.77,227544.75)</f>
         <v>232703.64333333331</v>
       </c>
-      <c r="T22" s="18"/>
-      <c r="U22" s="17">
+      <c r="V22" s="18"/>
+      <c r="W22" s="17">
         <v>29829</v>
       </c>
-      <c r="V22" s="17">
+      <c r="X22" s="17">
         <v>29829</v>
       </c>
-      <c r="X22" s="18" t="s">
+      <c r="Z22" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="Y22" s="18">
+      <c r="AA22" s="18">
         <v>31</v>
       </c>
-      <c r="Z22" s="18">
+      <c r="AB22" s="18">
         <v>770</v>
       </c>
-      <c r="AA22" s="18">
+      <c r="AC22" s="18">
         <v>871</v>
       </c>
-      <c r="AB22" s="18">
+      <c r="AD22" s="20">
+        <v>1209</v>
+      </c>
+      <c r="AE22" s="18">
         <f>AVERAGE(1048,1049,1133)</f>
         <v>1076.6666666666667</v>
       </c>
-      <c r="AC22" s="18">
+      <c r="AF22" s="18">
         <f>AVERAGE(1369,1407,1414)</f>
         <v>1396.6666666666667</v>
       </c>
-      <c r="AD22" s="18">
+      <c r="AG22" s="18">
         <f>AVERAGE(1558,1984,1783)</f>
         <v>1775</v>
       </c>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="17">
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="17">
         <v>760</v>
       </c>
-      <c r="AG22" s="17">
+      <c r="AJ22" s="17">
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -7591,82 +8242,91 @@
       <c r="E23" s="3">
         <v>1351</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="3">
+        <v>2139</v>
+      </c>
+      <c r="G23" s="14">
         <v>1733</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <f>AVERAGE(2008,2280,1667)</f>
         <v>1985</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <f>AVERAGE(2489,2275,2393)</f>
         <v>2385.6666666666665</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1377</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1501</v>
       </c>
-      <c r="K23" s="31">
+      <c r="L23" s="24">
         <v>1501</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>1034</v>
       </c>
-      <c r="O23" s="18">
+      <c r="P23" s="18">
         <v>47140.73</v>
       </c>
-      <c r="P23" s="18">
+      <c r="Q23" s="18">
         <v>45668.23</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="R23" s="20">
+        <v>62507.11</v>
+      </c>
+      <c r="S23" s="18">
         <f>AVERAGE(238515.69,230603.7,233199.28)</f>
         <v>234106.22333333336</v>
       </c>
-      <c r="R23" s="18">
+      <c r="T23" s="18">
         <f>AVERAGE(349164.06)</f>
         <v>349164.06</v>
       </c>
-      <c r="S23" s="18">
+      <c r="U23" s="18">
         <f>AVERAGE(526768.5)</f>
         <v>526768.5</v>
       </c>
-      <c r="T23" s="18"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="X23" s="18" t="s">
+      <c r="V23" s="18"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Z23" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="Y23" s="18">
+      <c r="AA23" s="18">
         <v>168</v>
       </c>
-      <c r="Z23" s="18">
+      <c r="AB23" s="18">
         <v>89500</v>
       </c>
-      <c r="AA23" s="18">
+      <c r="AC23" s="18">
         <v>117345.37</v>
       </c>
-      <c r="AB23" s="18">
+      <c r="AD23" s="20">
+        <v>145730.51</v>
+      </c>
+      <c r="AE23" s="18">
         <f>AVERAGE(284355.59,275262.73,290978.44)</f>
         <v>283532.25333333336</v>
       </c>
-      <c r="AC23" s="18">
+      <c r="AF23" s="18">
         <f>AVERAGE(430531.44,428706.85,425449.24)</f>
         <v>428229.1766666667</v>
       </c>
-      <c r="AD23" s="18">
+      <c r="AG23" s="18">
         <f>AVERAGE(619002.21,618288.93,578606.06)</f>
         <v>605299.06666666677</v>
       </c>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-    </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
@@ -7679,84 +8339,92 @@
       <c r="E24" s="3">
         <v>802</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="3">
+        <v>1114</v>
+      </c>
+      <c r="G24" s="14">
         <v>794</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <f>AVERAGE(965,862,940)</f>
         <v>922.33333333333337</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <f>AVERAGE(1464,1188,1007)</f>
         <v>1219.6666666666667</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>764</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>844</v>
       </c>
-      <c r="K24" s="31">
+      <c r="L24" s="24">
         <v>844</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="N24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N24" s="6">
+      <c r="O24" s="6">
         <v>420</v>
       </c>
-      <c r="O24" s="18">
+      <c r="P24" s="18">
         <v>2332</v>
       </c>
-      <c r="P24" s="18">
+      <c r="Q24" s="18">
         <v>2150</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="R24" s="20">
+        <v>2890</v>
+      </c>
+      <c r="S24" s="18">
         <f>AVERAGE(7378,7503,7350)</f>
         <v>7410.333333333333</v>
       </c>
-      <c r="R24" s="18">
+      <c r="T24" s="18">
         <f>AVERAGE(10600,9672,10371)</f>
         <v>10214.333333333334</v>
       </c>
-      <c r="S24" s="18">
+      <c r="U24" s="18">
         <f>AVERAGE(14956)</f>
         <v>14956</v>
       </c>
-      <c r="T24" s="18"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="X24" s="18" t="s">
+      <c r="V24" s="18"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Z24" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="Y24" s="18">
+      <c r="AA24" s="18">
         <v>168</v>
       </c>
-      <c r="Z24" s="18">
+      <c r="AB24" s="18">
         <v>2917.62</v>
       </c>
-      <c r="AA24" s="18">
+      <c r="AC24" s="18">
         <v>3247.49</v>
       </c>
-      <c r="AB24" s="18">
+      <c r="AD24" s="20">
+        <v>4336.76</v>
+      </c>
+      <c r="AE24" s="18">
         <f>AVERAGE(7175.18,7038.94,7174.41)</f>
         <v>7129.5099999999993</v>
       </c>
-      <c r="AC24" s="18">
+      <c r="AF24" s="18">
         <f>AVERAGE(10012.3,9914.25,10502.66)</f>
         <v>10143.07</v>
       </c>
-      <c r="AD24" s="18">
+      <c r="AG24" s="18">
         <f>AVERAGE(15581.47,16037.14,14934.93)</f>
         <v>15517.846666666666</v>
       </c>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="J25" s="2"/>
-      <c r="K25" s="7"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="K25" s="2"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -7764,49 +8432,54 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="2"/>
-      <c r="X25" s="3" t="s">
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="2"/>
+      <c r="Z25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="AA25" s="3">
         <v>12</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="AB25" s="3">
         <v>2785.62</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AC25" s="3">
         <v>3035.89</v>
       </c>
-      <c r="AB25" s="14">
+      <c r="AD25" s="3">
+        <v>4294.46</v>
+      </c>
+      <c r="AE25" s="14">
         <v>2785.62</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AF25" s="3">
         <f>AVERAGE(4302.5,4264.97,3841.59)</f>
         <v>4136.3533333333335</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AG25" s="3">
         <f>AVERAGE(4669.69,4267.19,3955.19)</f>
         <v>4297.3566666666666</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AH25" s="3">
         <v>2980.94</v>
       </c>
-      <c r="AF25" s="31">
+      <c r="AI25" s="24">
         <v>3183</v>
       </c>
-      <c r="AG25" s="31">
+      <c r="AJ25" s="24">
         <v>3183</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B26" s="24" t="s">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B26" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="7"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="10"/>
+      <c r="K26" s="2"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -7814,49 +8487,54 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="2"/>
-      <c r="X26" s="3" t="s">
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="2"/>
+      <c r="Z26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>16</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>3118.04</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>2959.96</v>
       </c>
-      <c r="AB26" s="14">
+      <c r="AD26" s="3">
+        <v>4249.3</v>
+      </c>
+      <c r="AE26" s="14">
         <v>3118.04</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AF26" s="3">
         <f>AVERAGE(3602.35,3709.73,3288.29)</f>
         <v>3533.4566666666665</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AG26" s="3">
         <f>AVERAGE(4203.63,4667.33,5585.14)</f>
         <v>4818.7</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AH26" s="3">
         <v>2806.25</v>
       </c>
-      <c r="AF26" s="31">
+      <c r="AI26" s="24">
         <v>2941</v>
       </c>
-      <c r="AG26" s="31">
+      <c r="AJ26" s="24">
         <v>2968</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B27" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="7"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="35"/>
+      <c r="K27" s="2"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -7864,84 +8542,106 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="2"/>
+      <c r="S27" s="7"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
+      <c r="U27" s="2"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
-    </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-    </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-    </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="35"/>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-    </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-    </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E28"/>
+    <mergeCell ref="B29:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="B38:C38"/>
@@ -7950,14 +8650,6 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E28"/>
-    <mergeCell ref="B29:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="D1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Comparaçoes/Heurísticas.xlsx
+++ b/Comparaçoes/Heurísticas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="104">
   <si>
     <t>Instâncias</t>
   </si>
@@ -316,6 +316,18 @@
   </si>
   <si>
     <t>HVMP_3</t>
+  </si>
+  <si>
+    <t>BL Troca</t>
+  </si>
+  <si>
+    <t>BL Inserção</t>
+  </si>
+  <si>
+    <t>BL 2-OPT</t>
+  </si>
+  <si>
+    <t>6789.91</t>
   </si>
 </sst>
 </file>
@@ -449,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -524,6 +536,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,13 +566,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -855,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AJ38"/>
+  <dimension ref="B1:AS38"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD27" sqref="AD27"/>
+    <sheetView topLeftCell="AE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH18" sqref="AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,77 +885,88 @@
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.42578125" customWidth="1"/>
-    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="12.28515625" customWidth="1"/>
+    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.42578125" customWidth="1"/>
+    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="12.28515625" customWidth="1"/>
+    <col min="44" max="44" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B1" s="18"/>
       <c r="C1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="S1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1" t="s">
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AH1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-    </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+    </row>
+    <row r="2" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
@@ -962,83 +991,110 @@
       <c r="I2" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="O2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="R2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="S2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="T2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="U2" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="W2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="X2" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="Y2" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="AC2" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="AD2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AH2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AI2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AJ2" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="AK2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AF2" s="18" t="s">
+      <c r="AL2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AM2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AH2" s="18" t="s">
+      <c r="AN2" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO2" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP2" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" s="19" t="s">
+      <c r="AR2" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AJ2" s="19" t="s">
+      <c r="AS2" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1066,83 +1122,98 @@
         <f xml:space="preserve"> AVERAGE(3175.05,3284.1,3320.17)</f>
         <v>3259.7733333333331</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18">
+      <c r="J3" s="25">
+        <v>625.97</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18">
         <v>670</v>
       </c>
-      <c r="L3" s="17">
+      <c r="O3" s="17">
         <v>686</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="Q3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="18">
+      <c r="R3" s="18">
         <v>12</v>
       </c>
-      <c r="P3" s="18">
+      <c r="S3" s="18">
         <v>668</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="T3" s="18">
         <v>558</v>
       </c>
-      <c r="R3" s="20">
+      <c r="U3" s="20">
         <v>894</v>
       </c>
-      <c r="S3" s="18">
+      <c r="V3" s="18">
         <f>AVERAGE(883,650,909)</f>
         <v>814</v>
       </c>
-      <c r="T3" s="18">
+      <c r="W3" s="18">
         <f>AVERAGE(1282,1108,934)</f>
         <v>1108</v>
       </c>
-      <c r="U3" s="18">
+      <c r="X3" s="18">
         <f>AVERAGE(2101,2244,1582)</f>
         <v>1975.6666666666667</v>
       </c>
-      <c r="V3" s="18"/>
-      <c r="W3" s="17">
+      <c r="Y3" s="25">
+        <v>668</v>
+      </c>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="17">
         <v>874</v>
       </c>
-      <c r="X3" s="17">
+      <c r="AD3" s="17">
         <v>874</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AG3" s="1">
         <v>19</v>
       </c>
-      <c r="AB3" s="18">
+      <c r="AH3" s="18">
         <v>25126.84</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AI3" s="18">
         <v>25126.84</v>
       </c>
-      <c r="AD3" s="20">
+      <c r="AJ3" s="20">
         <v>27060.18</v>
       </c>
-      <c r="AE3" s="18">
+      <c r="AK3" s="18">
         <f>AVERAGE(34231.94,35331.27,35580.93)</f>
         <v>35048.046666666662</v>
       </c>
-      <c r="AF3" s="18">
+      <c r="AL3" s="18">
         <f>AVERAGE(43328.75,41421.5,38555.79)</f>
         <v>41102.013333333336</v>
       </c>
-      <c r="AG3" s="18">
+      <c r="AM3" s="18">
         <f>AVERAGE(46680.19,51937.8,54674.06)</f>
         <v>51097.35</v>
       </c>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="17">
+      <c r="AN3" s="25">
+        <v>25126.84</v>
+      </c>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="17">
         <v>23450</v>
       </c>
-      <c r="AJ3" s="17">
+      <c r="AS3" s="17">
         <v>23450</v>
       </c>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1164,79 +1235,92 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17"/>
-      <c r="N4" s="18" t="s">
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="17"/>
+      <c r="Q4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="18">
+      <c r="R4" s="18">
         <v>24</v>
       </c>
-      <c r="P4" s="18">
+      <c r="S4" s="18">
         <v>11086.43</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="T4" s="18">
         <v>9934.0499999999993</v>
       </c>
-      <c r="R4" s="20">
+      <c r="U4" s="20">
         <v>16705.45</v>
       </c>
-      <c r="S4" s="18">
+      <c r="V4" s="18">
         <f>AVERAGE(20093,23146.55,19097.46)</f>
         <v>20779.003333333334</v>
       </c>
-      <c r="T4" s="18">
+      <c r="W4" s="18">
         <f>AVERAGE(23860.74,23986.37,23918.43)</f>
         <v>23921.846666666668</v>
       </c>
-      <c r="U4" s="18">
+      <c r="X4" s="18">
         <f>AVERAGE(40325.7,39806.4,37967.84)</f>
         <v>39366.646666666667</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="17">
+      <c r="Y4" s="25">
+        <v>10630.39</v>
+      </c>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="17">
         <v>10460</v>
       </c>
-      <c r="X4" s="17">
+      <c r="AD4" s="17">
         <v>9543</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AG4" s="1">
         <v>26</v>
       </c>
-      <c r="AB4" s="18" t="s">
+      <c r="AH4" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AI4" s="18">
         <v>7486.75</v>
       </c>
-      <c r="AD4" s="20">
+      <c r="AJ4" s="20">
         <v>10176.65</v>
       </c>
-      <c r="AE4" s="18">
+      <c r="AK4" s="18">
         <f>AVERAGE(11787.58,13221.13,11889.39)</f>
         <v>12299.366666666667</v>
       </c>
-      <c r="AF4" s="18">
+      <c r="AL4" s="18">
         <f>AVERAGE(26236.66,21389.02,16226.9)</f>
         <v>21284.193333333333</v>
       </c>
-      <c r="AG4" s="18">
+      <c r="AM4" s="18">
         <f>AVERAGE(30635.8,20645.57,26540.59)</f>
         <v>25940.653333333332</v>
       </c>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="17">
+      <c r="AN4" s="25">
+        <v>7769.74</v>
+      </c>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="17">
         <v>8443</v>
       </c>
-      <c r="AJ4" s="17">
+      <c r="AS4" s="17">
         <v>8443</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1265,76 +1349,91 @@
         <v>4099</v>
       </c>
       <c r="J5" s="3">
+        <v>1373</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
         <v>1239</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="24"/>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" s="24"/>
+      <c r="Q5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="18">
+      <c r="R5" s="18">
         <v>30</v>
       </c>
-      <c r="P5" s="18">
+      <c r="S5" s="18">
         <v>1411</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="T5" s="18">
         <v>1422</v>
       </c>
-      <c r="R5" s="20">
+      <c r="U5" s="20">
         <v>1740</v>
       </c>
-      <c r="S5" s="18">
+      <c r="V5" s="18">
         <f>AVERAGE(2200,2636,2649)</f>
         <v>2495</v>
       </c>
-      <c r="T5" s="18">
+      <c r="W5" s="18">
         <f>AVERAGE(3332,3136,3512)</f>
         <v>3326.6666666666665</v>
       </c>
-      <c r="U5" s="18">
+      <c r="X5" s="18">
         <f>AVERAGE(5188,5237,4688)</f>
         <v>5037.666666666667</v>
       </c>
-      <c r="V5" s="18"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Z5" s="1" t="s">
+      <c r="Y5" s="25">
+        <v>1376</v>
+      </c>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AF5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AG5" s="1">
         <v>31</v>
       </c>
-      <c r="AB5" s="18">
+      <c r="AH5" s="18">
         <v>10765.78</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AI5" s="18">
         <v>14065.44</v>
       </c>
-      <c r="AD5" s="20">
+      <c r="AJ5" s="20">
         <v>26231.94</v>
       </c>
-      <c r="AE5" s="18">
+      <c r="AK5" s="18">
         <f>AVERAGE(28708.52,23641.97,28071.05)</f>
         <v>26807.180000000004</v>
       </c>
-      <c r="AF5" s="18">
+      <c r="AL5" s="18">
         <f>AVERAGE(36094.43,41557.16,36682.08)</f>
         <v>38111.223333333335</v>
       </c>
-      <c r="AG5" s="18">
+      <c r="AM5" s="18">
         <f>AVERAGE(53723.37,52942.14,42720.1)</f>
         <v>49795.203333333338</v>
       </c>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="17">
+      <c r="AN5" s="25">
+        <v>10765.78</v>
+      </c>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="17">
         <v>14640</v>
       </c>
-      <c r="AJ5" s="17">
+      <c r="AS5" s="17">
         <v>14325</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1362,73 +1461,86 @@
         <f xml:space="preserve"> AVERAGE(32813,31904,30501)</f>
         <v>31739.333333333332</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="17"/>
-      <c r="N6" s="18" t="s">
+      <c r="J6" s="25">
+        <v>5619</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="17"/>
+      <c r="Q6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="18">
+      <c r="R6" s="18">
         <v>34</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="18">
-        <f t="shared" ref="S6:S10" si="1">AVERAGE(1)</f>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="18">
+        <f t="shared" ref="V6:V10" si="1">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="T6" s="18">
-        <f t="shared" ref="T6:U10" si="2">AVERAGE(1)</f>
+      <c r="W6" s="18">
+        <f t="shared" ref="W6:X10" si="2">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="U6" s="18">
+      <c r="X6" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V6" s="18"/>
-      <c r="W6" s="17">
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="17">
         <v>17399</v>
       </c>
-      <c r="X6" s="17">
+      <c r="AD6" s="17">
         <v>17399</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AG6" s="1">
         <v>34</v>
       </c>
-      <c r="AB6" s="18">
+      <c r="AH6" s="18">
         <v>22828.74</v>
       </c>
-      <c r="AC6" s="18">
+      <c r="AI6" s="18">
         <v>23907.89</v>
       </c>
-      <c r="AD6" s="20">
+      <c r="AJ6" s="20">
         <v>31943.96</v>
       </c>
-      <c r="AE6" s="18">
+      <c r="AK6" s="18">
         <f>AVERAGE(37011.37,39208.49,33323.61)</f>
         <v>36514.49</v>
       </c>
-      <c r="AF6" s="18">
+      <c r="AL6" s="18">
         <f>AVERAGE(50005.65,54819.57,52088.07)</f>
         <v>52304.43</v>
       </c>
-      <c r="AG6" s="18">
+      <c r="AM6" s="18">
         <f>AVERAGE(59482.64,74324.22,76315)</f>
         <v>70040.62</v>
       </c>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="17">
+      <c r="AN6" s="25">
+        <v>22828.74</v>
+      </c>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="17">
         <v>21116</v>
       </c>
-      <c r="AJ6" s="17">
+      <c r="AS6" s="17">
         <v>21116</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1456,78 +1568,91 @@
         <v>434</v>
       </c>
       <c r="J7" s="3">
+        <v>292</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
         <v>246</v>
       </c>
-      <c r="K7" s="3">
+      <c r="N7" s="3">
         <v>332</v>
       </c>
-      <c r="L7" s="24">
+      <c r="O7" s="24">
         <v>332</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="Q7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="18">
+      <c r="R7" s="18">
         <v>50</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="18">
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T7" s="18">
+      <c r="W7" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U7" s="18">
+      <c r="X7" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V7" s="18"/>
-      <c r="W7" s="17">
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="17">
         <v>8142</v>
       </c>
-      <c r="X7" s="17">
+      <c r="AD7" s="17">
         <v>8142</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AG7" s="1">
         <v>36</v>
       </c>
-      <c r="AB7" s="18">
+      <c r="AH7" s="18">
         <v>10893.75</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AI7" s="18">
         <v>12001.03</v>
       </c>
-      <c r="AD7" s="20">
+      <c r="AJ7" s="20">
         <v>24093.39</v>
       </c>
-      <c r="AE7" s="18">
+      <c r="AK7" s="18">
         <f>AVERAGE(34465.92,32737.24,31541.07)</f>
         <v>32914.743333333339</v>
       </c>
-      <c r="AF7" s="18">
+      <c r="AL7" s="18">
         <f>AVERAGE(50770.88,48412.88,50766.97)</f>
         <v>49983.57666666666</v>
       </c>
-      <c r="AG7" s="18">
+      <c r="AM7" s="18">
         <f>AVERAGE(70949.67,67430.23,67142.69)</f>
         <v>68507.53</v>
       </c>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="17">
+      <c r="AN7" s="25">
+        <v>10778.34</v>
+      </c>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="17">
         <v>14327</v>
       </c>
-      <c r="AJ7" s="17">
+      <c r="AS7" s="17">
         <v>14327</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1554,79 +1679,92 @@
         <f xml:space="preserve"> AVERAGE(671,522,530)</f>
         <v>574.33333333333337</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
+        <v>352</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4">
         <v>282</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="24">
+      <c r="O8" s="24">
         <v>400</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="Q8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="18">
+      <c r="R8" s="18">
         <v>57</v>
       </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="18">
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T8" s="18">
+      <c r="W8" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U8" s="18">
+      <c r="X8" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V8" s="18"/>
-      <c r="W8" s="17">
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="17">
         <v>18555</v>
       </c>
-      <c r="X8" s="17">
+      <c r="AD8" s="17">
         <v>18555</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AG8" s="1">
         <v>38</v>
       </c>
-      <c r="AB8" s="18">
+      <c r="AH8" s="18">
         <v>17072</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="AI8" s="18">
         <v>17072</v>
       </c>
-      <c r="AD8" s="20">
+      <c r="AJ8" s="20">
         <v>28867.94</v>
       </c>
-      <c r="AE8" s="18">
+      <c r="AK8" s="18">
         <f>AVERAGE(37722.49,35121.04,52458.35)</f>
         <v>41767.293333333335</v>
       </c>
-      <c r="AF8" s="18">
+      <c r="AL8" s="18">
         <f>AVERAGE(65029.81,72456.52,68871.05)</f>
         <v>68785.793333333335</v>
       </c>
-      <c r="AG8" s="18">
+      <c r="AM8" s="18">
         <f>AVERAGE(76385.41,82378.46,77170.24)</f>
         <v>78644.703333333324</v>
       </c>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="17">
+      <c r="AN8" s="25">
+        <v>15403.26</v>
+      </c>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="17">
         <v>23195</v>
       </c>
-      <c r="AJ8" s="17">
+      <c r="AS8" s="17">
         <v>20029</v>
       </c>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1654,75 +1792,88 @@
         <f xml:space="preserve"> AVERAGE(2129.76,1845.66,2285.66)</f>
         <v>2087.0266666666666</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
+        <v>556.80999999999995</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5">
         <v>480.48033445701299</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>679</v>
       </c>
-      <c r="L9" s="24">
+      <c r="O9" s="24">
         <v>679</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="Q9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="18">
+      <c r="R9" s="18">
         <v>107</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="18">
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T9" s="18">
+      <c r="W9" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U9" s="18">
+      <c r="X9" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V9" s="18"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Z9" s="1" t="s">
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AF9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AG9" s="1">
         <v>56</v>
       </c>
-      <c r="AB9" s="18">
+      <c r="AH9" s="18">
         <v>22868.63</v>
       </c>
-      <c r="AC9" s="18">
+      <c r="AI9" s="18">
         <v>23494.84</v>
       </c>
-      <c r="AD9" s="20">
+      <c r="AJ9" s="20">
         <v>35217.61</v>
       </c>
-      <c r="AE9" s="18">
+      <c r="AK9" s="18">
         <f>AVERAGE(53850.22,59959.36,63479.72)</f>
         <v>59096.433333333327</v>
       </c>
-      <c r="AF9" s="18">
+      <c r="AL9" s="18">
         <f>AVERAGE(91631.77,91376.43,92567.05)</f>
         <v>91858.416666666672</v>
       </c>
-      <c r="AG9" s="18">
+      <c r="AM9" s="18">
         <f>AVERAGE(126146.31,162403.28,152947.62)</f>
         <v>147165.73666666666</v>
       </c>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="17">
+      <c r="AN9" s="25">
+        <v>22868.63</v>
+      </c>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="17">
         <v>20033</v>
       </c>
-      <c r="AJ9" s="17">
+      <c r="AS9" s="17">
         <v>20033</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>12</v>
       </c>
@@ -1750,69 +1901,82 @@
         <f xml:space="preserve"> AVERAGE(36608.9,43524.74,36759.37)</f>
         <v>38964.33666666667</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18">
+      <c r="J10" s="25">
+        <v>14272</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18">
         <v>10619</v>
       </c>
-      <c r="L10" s="17">
+      <c r="O10" s="17">
         <v>10619</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="Q10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="18">
+      <c r="R10" s="18">
         <v>166</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="18">
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T10" s="18">
+      <c r="W10" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U10" s="18">
+      <c r="X10" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V10" s="18"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Z10" s="1" t="s">
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AF10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AG10" s="1">
         <v>66</v>
       </c>
-      <c r="AB10" s="18">
+      <c r="AH10" s="18">
         <v>8100</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="AI10" s="18">
         <v>8100</v>
       </c>
-      <c r="AD10" s="20">
+      <c r="AJ10" s="20">
         <v>12506.01</v>
       </c>
-      <c r="AE10" s="18">
+      <c r="AK10" s="18">
         <f>AVERAGE(21851.94,25401.1,21951.12)</f>
         <v>23068.05333333333</v>
       </c>
-      <c r="AF10" s="18">
+      <c r="AL10" s="18">
         <f>AVERAGE(33780.11,36151.91,37710.08)</f>
         <v>35880.700000000004</v>
       </c>
-      <c r="AG10" s="18">
+      <c r="AM10" s="18">
         <f>AVERAGE(57908.8,58660.78,66068.58)</f>
         <v>60879.386666666665</v>
       </c>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-    </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN10" s="25">
+        <v>8023.61</v>
+      </c>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+    </row>
+    <row r="11" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>13</v>
       </c>
@@ -1840,75 +2004,90 @@
         <f xml:space="preserve"> AVERAGE(6358,8875,5894)</f>
         <v>7042.333333333333</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="17"/>
-      <c r="N11" s="18" t="s">
+      <c r="J11" s="25">
+        <v>6116</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="17"/>
+      <c r="Q11" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="O11" s="18">
+      <c r="R11" s="18">
         <v>12</v>
       </c>
-      <c r="P11" s="18">
+      <c r="S11" s="18">
         <v>3454</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="T11" s="18">
         <v>3155</v>
       </c>
-      <c r="R11" s="20">
+      <c r="U11" s="20">
         <v>3892</v>
       </c>
-      <c r="S11" s="18">
+      <c r="V11" s="18">
         <f>AVERAGE(2188,2341,3487)</f>
         <v>2672</v>
       </c>
-      <c r="T11" s="18">
+      <c r="W11" s="18">
         <f>AVERAGE(2539,4299,4533)</f>
         <v>3790.3333333333335</v>
       </c>
-      <c r="U11" s="18">
+      <c r="X11" s="18">
         <f>AVERAGE(3785,4788,5280)</f>
         <v>4617.666666666667</v>
       </c>
-      <c r="V11" s="18"/>
-      <c r="W11" s="17">
+      <c r="Y11" s="25">
+        <v>3454</v>
+      </c>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="17">
         <v>2827</v>
       </c>
-      <c r="X11" s="17">
+      <c r="AD11" s="17">
         <v>2827</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="AF11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AG11" s="1">
         <v>74</v>
       </c>
-      <c r="AB11" s="18">
+      <c r="AH11" s="18">
         <v>12369.29</v>
       </c>
-      <c r="AC11" s="18">
+      <c r="AI11" s="18">
         <v>12312.57</v>
       </c>
-      <c r="AD11" s="20">
+      <c r="AJ11" s="20">
         <v>13941.34</v>
       </c>
-      <c r="AE11" s="18">
+      <c r="AK11" s="18">
         <f>AVERAGE(33103.09,29152.95,27824.8)</f>
         <v>30026.946666666667</v>
       </c>
-      <c r="AF11" s="18">
+      <c r="AL11" s="18">
         <f>AVERAGE(37827.3,42908.23,38416.71)</f>
         <v>39717.41333333333</v>
       </c>
-      <c r="AG11" s="18">
+      <c r="AM11" s="18">
         <f>AVERAGE(64460.2,59763.13,58130.32)</f>
         <v>60784.549999999996</v>
       </c>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-    </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN11" s="25">
+        <v>12311.53</v>
+      </c>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="17"/>
+    </row>
+    <row r="12" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -1936,75 +2115,90 @@
         <f xml:space="preserve"> AVERAGE(106300,131110,117130)</f>
         <v>118180</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17"/>
-      <c r="N12" s="18" t="s">
+      <c r="J12" s="25">
+        <v>16600</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="17"/>
+      <c r="Q12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="18">
+      <c r="R12" s="18">
         <v>25</v>
       </c>
-      <c r="P12" s="18">
+      <c r="S12" s="18">
         <v>5157.68</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="T12" s="18">
         <v>4872.0200000000004</v>
       </c>
-      <c r="R12" s="20">
+      <c r="U12" s="20">
         <v>7952</v>
       </c>
-      <c r="S12" s="18">
+      <c r="V12" s="18">
         <f>AVERAGE(7584.43,8374.97,8015.42)</f>
         <v>7991.6066666666666</v>
       </c>
-      <c r="T12" s="18">
+      <c r="W12" s="18">
         <f>AVERAGE(11463.86,10363.54,12428.78)</f>
         <v>11418.726666666667</v>
       </c>
-      <c r="U12" s="18">
+      <c r="X12" s="18">
         <f>AVERAGE(14382.34,16991.44,13189.81)</f>
         <v>14854.529999999999</v>
       </c>
-      <c r="V12" s="18"/>
-      <c r="W12" s="17">
+      <c r="Y12" s="25">
+        <v>5015.0200000000004</v>
+      </c>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="17">
         <v>4970</v>
       </c>
-      <c r="X12" s="17">
+      <c r="AD12" s="17">
         <v>5203</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="AF12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AG12" s="1">
         <v>109</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AH12" s="18">
         <v>22600.959999999999</v>
       </c>
-      <c r="AC12" s="18">
+      <c r="AI12" s="18">
         <v>23714.23</v>
       </c>
-      <c r="AD12" s="20">
+      <c r="AJ12" s="20">
         <v>32935.050000000003</v>
       </c>
-      <c r="AE12" s="18">
+      <c r="AK12" s="18">
         <f>AVERAGE(58160.33,51748.26,59422.06)</f>
         <v>56443.549999999996</v>
       </c>
-      <c r="AF12" s="18">
+      <c r="AL12" s="18">
         <f>AVERAGE(85259.99,82766.89,79049.55)</f>
         <v>82358.81</v>
       </c>
-      <c r="AG12" s="18">
+      <c r="AM12" s="18">
         <f>AVERAGE(118071.64,131028.91,110885.44)</f>
         <v>119995.33</v>
       </c>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-    </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN12" s="25">
+        <v>22324.31</v>
+      </c>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="17"/>
+      <c r="AS12" s="17"/>
+    </row>
+    <row r="13" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2031,80 +2225,95 @@
         <v>386.60999999999996</v>
       </c>
       <c r="J13" s="3">
+        <v>249.88</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
         <v>224.88</v>
       </c>
-      <c r="K13" s="3">
+      <c r="N13" s="3">
         <v>359</v>
       </c>
-      <c r="L13" s="24">
+      <c r="O13" s="24">
         <v>280</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="Q13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="18">
+      <c r="R13" s="18">
         <v>37</v>
       </c>
-      <c r="P13" s="18">
+      <c r="S13" s="18">
         <v>6644.96</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="T13" s="18">
         <v>7646.9</v>
       </c>
-      <c r="R13" s="20">
+      <c r="U13" s="20">
         <v>8065.9</v>
       </c>
-      <c r="S13" s="18">
+      <c r="V13" s="18">
         <f>AVERAGE(14537.19,11181.93,12864.92)</f>
         <v>12861.346666666666</v>
       </c>
-      <c r="T13" s="18">
+      <c r="W13" s="18">
         <f>AVERAGE(16166.74,14699.79,15110.07)</f>
         <v>15325.533333333333</v>
       </c>
-      <c r="U13" s="18">
+      <c r="X13" s="18">
         <f>AVERAGE(23067.53,23561.28,22385.07)</f>
         <v>23004.626666666667</v>
       </c>
-      <c r="V13" s="18"/>
-      <c r="W13" s="17">
+      <c r="Y13" s="25">
+        <v>6632.55</v>
+      </c>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="17">
         <v>5690</v>
       </c>
-      <c r="X13" s="17">
+      <c r="AD13" s="17">
         <v>5690</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AF13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AG13" s="1">
         <v>250</v>
       </c>
-      <c r="AB13" s="18">
+      <c r="AH13" s="18">
         <v>68337.149999999994</v>
       </c>
-      <c r="AC13" s="18">
+      <c r="AI13" s="18">
         <v>66904.56</v>
       </c>
-      <c r="AD13" s="20">
+      <c r="AJ13" s="20">
         <v>90173.79</v>
       </c>
-      <c r="AE13" s="18">
+      <c r="AK13" s="18">
         <f>AVERAGE(274864.87,269718.4,278424.19)</f>
         <v>274335.82</v>
       </c>
-      <c r="AF13" s="18">
+      <c r="AL13" s="18">
         <f>AVERAGE(415867.69,383763.29,394937.1)</f>
         <v>398189.36000000004</v>
       </c>
-      <c r="AG13" s="18">
+      <c r="AM13" s="18">
         <f>AVERAGE(583762.16)</f>
         <v>583762.16</v>
       </c>
-      <c r="AH13" s="18"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-    </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN13" s="25">
+        <v>67085.41</v>
+      </c>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17"/>
+    </row>
+    <row r="14" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>16</v>
       </c>
@@ -2132,83 +2341,98 @@
         <f xml:space="preserve"> AVERAGE(4001.77,4149.66,4420.31)</f>
         <v>4190.5800000000008</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18">
+      <c r="J14" s="25">
+        <v>1207.1500000000001</v>
+      </c>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18">
         <v>1130</v>
       </c>
-      <c r="L14" s="17">
+      <c r="O14" s="17">
         <v>1130</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="Q14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="18">
+      <c r="R14" s="18">
         <v>50</v>
       </c>
-      <c r="P14" s="18">
+      <c r="S14" s="18">
         <v>6870.92</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="T14" s="18">
         <v>6899.46</v>
       </c>
-      <c r="R14" s="20">
+      <c r="U14" s="20">
         <v>9903.2900000000009</v>
       </c>
-      <c r="S14" s="18">
+      <c r="V14" s="18">
         <f>AVERAGE(16197.94,15917.45,15432.47)</f>
         <v>15849.286666666667</v>
       </c>
-      <c r="T14" s="18">
+      <c r="W14" s="18">
         <f>AVERAGE(21574.05,19979.71,21821.14)</f>
         <v>21124.966666666664</v>
       </c>
-      <c r="U14" s="18">
+      <c r="X14" s="18">
         <f>AVERAGE(27173.31,30193.71,28065.88)</f>
         <v>28477.633333333335</v>
       </c>
-      <c r="V14" s="18"/>
-      <c r="W14" s="17">
+      <c r="Y14" s="25">
+        <v>6767.07</v>
+      </c>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="17">
         <v>6202</v>
       </c>
-      <c r="X14" s="17">
+      <c r="AD14" s="17">
         <v>6202</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="AF14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AG14" s="1">
         <v>24</v>
       </c>
-      <c r="AB14" s="18">
+      <c r="AH14" s="18">
         <v>277.23</v>
       </c>
-      <c r="AC14" s="18">
+      <c r="AI14" s="18">
         <v>359.69</v>
       </c>
-      <c r="AD14" s="20">
+      <c r="AJ14" s="20">
         <v>336.7</v>
       </c>
-      <c r="AE14" s="18">
+      <c r="AK14" s="18">
         <f>AVERAGE(434.6,422.28,429.06)</f>
         <v>428.6466666666667</v>
       </c>
-      <c r="AF14" s="18">
+      <c r="AL14" s="18">
         <f>AVERAGE(521.18,570.78,521.8)</f>
         <v>537.91999999999996</v>
       </c>
-      <c r="AG14" s="18">
+      <c r="AM14" s="18">
         <f>AVERAGE(595.04,690.79,809.66)</f>
         <v>698.49666666666656</v>
       </c>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="17">
+      <c r="AN14" s="25">
+        <v>266.87</v>
+      </c>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="18"/>
+      <c r="AR14" s="17">
         <v>284</v>
       </c>
-      <c r="AJ14" s="17">
+      <c r="AS14" s="17">
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2236,83 +2460,98 @@
         <f xml:space="preserve"> AVERAGE(5047.64,4751.28,5356.29)</f>
         <v>5051.7366666666667</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18">
+      <c r="J15" s="25">
+        <v>1304.57</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18">
         <v>1276</v>
       </c>
-      <c r="L15" s="17">
+      <c r="O15" s="17">
         <v>1294</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="Q15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="18">
+      <c r="R15" s="18">
         <v>25</v>
       </c>
-      <c r="P15" s="18">
+      <c r="S15" s="18">
         <v>5552.01</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="T15" s="18">
         <v>4469.8100000000004</v>
       </c>
-      <c r="R15" s="20">
+      <c r="U15" s="20">
         <v>6675.42</v>
       </c>
-      <c r="S15" s="18">
+      <c r="V15" s="18">
         <f>AVERAGE(8243.9,7828.62,9343.42)</f>
         <v>8471.9800000000014</v>
       </c>
-      <c r="T15" s="18">
+      <c r="W15" s="18">
         <f>AVERAGE(9848.73,9639.87,10668.16)</f>
         <v>10052.253333333332</v>
       </c>
-      <c r="U15" s="18">
+      <c r="X15" s="18">
         <f>AVERAGE(16064.09,13760.81,15612.94)</f>
         <v>15145.946666666669</v>
       </c>
-      <c r="V15" s="18"/>
-      <c r="W15" s="17">
+      <c r="Y15" s="25">
+        <v>5507.89</v>
+      </c>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="17">
         <v>4305</v>
       </c>
-      <c r="X15" s="17">
+      <c r="AD15" s="17">
         <v>4303</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AF15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AG15" s="1">
         <v>48</v>
       </c>
-      <c r="AB15" s="18">
+      <c r="AH15" s="18">
         <v>560.07000000000005</v>
       </c>
-      <c r="AC15" s="18">
+      <c r="AI15" s="18">
         <v>606.24</v>
       </c>
-      <c r="AD15" s="20">
+      <c r="AJ15" s="20">
         <v>783.32</v>
       </c>
-      <c r="AE15" s="18">
+      <c r="AK15" s="18">
         <f>AVERAGE(1004.91,1040.98,1126.33)</f>
         <v>1057.4066666666665</v>
       </c>
-      <c r="AF15" s="18">
+      <c r="AL15" s="18">
         <f>AVERAGE(1325.44,1292.92,1401.37)</f>
         <v>1339.91</v>
       </c>
-      <c r="AG15" s="18">
+      <c r="AM15" s="18">
         <f>AVERAGE(2060.36,1887.69,1987.72)</f>
         <v>1978.5900000000001</v>
       </c>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="17">
+      <c r="AN15" s="25">
+        <v>560.07000000000005</v>
+      </c>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="18"/>
+      <c r="AR15" s="17">
         <v>557</v>
       </c>
-      <c r="AJ15" s="17">
+      <c r="AS15" s="17">
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
@@ -2341,80 +2580,95 @@
         <v>239.66666666666666</v>
       </c>
       <c r="J16" s="3">
+        <v>100</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
         <v>99</v>
       </c>
-      <c r="K16" s="3">
+      <c r="N16" s="3">
         <v>145</v>
       </c>
-      <c r="L16" s="24">
+      <c r="O16" s="24">
         <v>145</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="Q16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="18">
+      <c r="R16" s="18">
         <v>37</v>
       </c>
-      <c r="P16" s="18">
+      <c r="S16" s="18">
         <v>5199.62</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="T16" s="18">
         <v>5533.11</v>
       </c>
-      <c r="R16" s="20">
+      <c r="U16" s="20">
         <v>8807.33</v>
       </c>
-      <c r="S16" s="18">
+      <c r="V16" s="18">
         <f>AVERAGE(12214.44,11244.59,12231.11)</f>
         <v>11896.713333333333</v>
       </c>
-      <c r="T16" s="18">
+      <c r="W16" s="18">
         <f>AVERAGE(16585.26,15072.95,16028.16)</f>
         <v>15895.456666666665</v>
       </c>
-      <c r="U16" s="18">
+      <c r="X16" s="18">
         <f>AVERAGE(22922.75,19946.71,21479.03)</f>
         <v>21449.496666666666</v>
       </c>
-      <c r="V16" s="18"/>
-      <c r="W16" s="17">
+      <c r="Y16" s="25">
+        <v>5119.54</v>
+      </c>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="17">
         <v>5812</v>
       </c>
-      <c r="X16" s="17">
+      <c r="AD16" s="17">
         <v>5812</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="AF16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AG16" s="1">
         <v>143</v>
       </c>
-      <c r="AB16" s="18">
+      <c r="AH16" s="18">
         <v>1745</v>
       </c>
-      <c r="AC16" s="18">
+      <c r="AI16" s="18">
         <v>1764.02</v>
       </c>
-      <c r="AD16" s="20">
+      <c r="AJ16" s="20">
         <v>2135.11</v>
       </c>
-      <c r="AE16" s="18">
+      <c r="AK16" s="18">
         <f>AVERAGE(4825.39,4941.65,5123.81)</f>
         <v>4963.6166666666677</v>
       </c>
-      <c r="AF16" s="18">
+      <c r="AL16" s="18">
         <f>AVERAGE(6845.89,7462.35,7073.22)</f>
         <v>7127.1533333333346</v>
       </c>
-      <c r="AG16" s="18">
+      <c r="AM16" s="18">
         <f>AVERAGE(10248.79)</f>
         <v>10248.790000000001</v>
       </c>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-    </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN16" s="25">
+        <v>1733.54</v>
+      </c>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="18"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="17"/>
+    </row>
+    <row r="17" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -2443,80 +2697,95 @@
         <v>164.25</v>
       </c>
       <c r="J17" s="3">
+        <v>77.040000000000006</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
         <v>76.72</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>82</v>
       </c>
-      <c r="L17" s="24">
+      <c r="O17" s="24">
         <v>82</v>
       </c>
-      <c r="N17" s="18" t="s">
+      <c r="Q17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="18">
+      <c r="R17" s="18">
         <v>50</v>
       </c>
-      <c r="P17" s="18">
+      <c r="S17" s="18">
         <v>6907.12</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="T17" s="18">
         <v>8397.4500000000007</v>
       </c>
-      <c r="R17" s="20">
+      <c r="U17" s="20">
         <v>9561.31</v>
       </c>
-      <c r="S17" s="18">
+      <c r="V17" s="18">
         <f>AVERAGE(15900.56,15542.01,15610.06)</f>
         <v>15684.21</v>
       </c>
-      <c r="T17" s="18">
+      <c r="W17" s="18">
         <f>AVERAGE(20360.53,20407.07,21616.14)</f>
         <v>20794.579999999998</v>
       </c>
-      <c r="U17" s="18">
+      <c r="X17" s="18">
         <f>AVERAGE(29350.75,30485.02,31815.19)</f>
         <v>30550.320000000003</v>
       </c>
-      <c r="V17" s="18"/>
-      <c r="W17" s="17">
+      <c r="Y17" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="17">
         <v>6368</v>
       </c>
-      <c r="X17" s="17">
+      <c r="AD17" s="17">
         <v>6100</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="AF17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AG17" s="1">
         <v>195</v>
       </c>
-      <c r="AB17" s="18">
+      <c r="AH17" s="18">
         <v>2382.5</v>
       </c>
-      <c r="AC17" s="18">
+      <c r="AI17" s="18">
         <v>2466.0500000000002</v>
       </c>
-      <c r="AD17" s="20">
+      <c r="AJ17" s="20">
         <v>2978.84</v>
       </c>
-      <c r="AE17" s="18">
+      <c r="AK17" s="18">
         <f>AVERAGE(7666.21,7493.21,8008.9)</f>
         <v>7722.7733333333335</v>
       </c>
-      <c r="AF17" s="18">
+      <c r="AL17" s="18">
         <f>AVERAGE(10539.71,10735.2,10997.27)</f>
         <v>10757.393333333333</v>
       </c>
-      <c r="AG17" s="18">
+      <c r="AM17" s="18">
         <f>AVERAGE(16118.68)</f>
         <v>16118.68</v>
       </c>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-    </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN17" s="25">
+        <v>2260.06</v>
+      </c>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="17"/>
+      <c r="AS17" s="17"/>
+    </row>
+    <row r="18" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>20</v>
       </c>
@@ -2544,79 +2813,94 @@
         <f xml:space="preserve"> AVERAGE(257.09,234.8,233.35)</f>
         <v>241.74666666666667</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18">
+      <c r="J18" s="25">
+        <v>97.38</v>
+      </c>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18">
         <v>102</v>
       </c>
-      <c r="L18" s="17">
+      <c r="O18" s="17">
         <v>102</v>
       </c>
-      <c r="N18" s="18" t="s">
+      <c r="Q18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="18">
+      <c r="R18" s="18">
         <v>25</v>
       </c>
-      <c r="P18" s="18">
+      <c r="S18" s="18">
         <v>4346.5200000000004</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="T18" s="18">
         <v>6123.26</v>
       </c>
-      <c r="R18" s="20">
+      <c r="U18" s="20">
         <v>6364.51</v>
       </c>
-      <c r="S18" s="18">
+      <c r="V18" s="18">
         <f>AVERAGE(7644.11,8352.1,7110.64)</f>
         <v>7702.2833333333328</v>
       </c>
-      <c r="T18" s="18">
+      <c r="W18" s="18">
         <f>AVERAGE(10280.44,9790.16,10174.13)</f>
         <v>10081.576666666666</v>
       </c>
-      <c r="U18" s="18">
+      <c r="X18" s="18">
         <f>AVERAGE(16162.87,14166.38,13364.58)</f>
         <v>14564.61</v>
       </c>
-      <c r="V18" s="18"/>
-      <c r="W18" s="17">
+      <c r="Y18" s="25">
+        <v>4293.0200000000004</v>
+      </c>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="17">
         <v>4964</v>
       </c>
-      <c r="X18" s="17">
+      <c r="AD18" s="17">
         <v>4967</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="AF18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AG18" s="1">
         <v>43</v>
       </c>
-      <c r="AB18" s="18">
-        <v>5028</v>
-      </c>
-      <c r="AC18" s="18">
+      <c r="AH18" s="18">
+        <v>5243</v>
+      </c>
+      <c r="AI18" s="18">
         <v>5478</v>
       </c>
-      <c r="AD18" s="20">
+      <c r="AJ18" s="20">
         <v>5456</v>
       </c>
-      <c r="AE18" s="18">
+      <c r="AK18" s="18">
         <f>AVERAGE(5942,6221,6355)</f>
         <v>6172.666666666667</v>
       </c>
-      <c r="AF18" s="18">
+      <c r="AL18" s="18">
         <f>AVERAGE(6262,7161,6712)</f>
         <v>6711.666666666667</v>
       </c>
-      <c r="AG18" s="18">
+      <c r="AM18" s="18">
         <f>AVERAGE(7764,7898,7576)</f>
         <v>7746</v>
       </c>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-    </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN18" s="25">
+        <v>5243</v>
+      </c>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="17"/>
+      <c r="AS18" s="17"/>
+    </row>
+    <row r="19" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>21</v>
       </c>
@@ -2644,79 +2928,94 @@
         <f xml:space="preserve"> AVERAGE(329.18,321.93,302.8)</f>
         <v>317.97000000000003</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18">
+      <c r="J19" s="25">
+        <v>150.4</v>
+      </c>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18">
         <v>107</v>
       </c>
-      <c r="L19" s="17">
+      <c r="O19" s="17">
         <v>107</v>
       </c>
-      <c r="N19" s="18" t="s">
+      <c r="Q19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O19" s="18">
+      <c r="R19" s="18">
         <v>25</v>
       </c>
-      <c r="P19" s="18">
+      <c r="S19" s="18">
         <v>5246.28</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="T19" s="18">
         <v>5246.28</v>
       </c>
-      <c r="R19" s="20">
+      <c r="U19" s="20">
         <v>6283.52</v>
       </c>
-      <c r="S19" s="18">
+      <c r="V19" s="18">
         <f>AVERAGE(7915.81,9560.27,9212.85)</f>
         <v>8896.31</v>
       </c>
-      <c r="T19" s="18">
+      <c r="W19" s="18">
         <f>AVERAGE(8891.67,10877.16,9352.88)</f>
         <v>9707.2366666666658</v>
       </c>
-      <c r="U19" s="18">
+      <c r="X19" s="18">
         <f>AVERAGE(14030.91,15308.79,13097.6)</f>
         <v>14145.766666666668</v>
       </c>
-      <c r="V19" s="18"/>
-      <c r="W19" s="17">
+      <c r="Y19" s="25">
+        <v>5246.28</v>
+      </c>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="17">
         <v>4762</v>
       </c>
-      <c r="X19" s="17">
+      <c r="AD19" s="17">
         <v>4762</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="AF19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AG19" s="1">
         <v>133</v>
       </c>
-      <c r="AB19" s="18">
+      <c r="AH19" s="18">
         <v>12360</v>
       </c>
-      <c r="AC19" s="18">
+      <c r="AI19" s="18">
         <v>12196</v>
       </c>
-      <c r="AD19" s="20">
+      <c r="AJ19" s="20">
         <v>12847</v>
       </c>
-      <c r="AE19" s="18">
+      <c r="AK19" s="18">
         <f>AVERAGE(16179,15753,15546)</f>
         <v>15826</v>
       </c>
-      <c r="AF19" s="18">
+      <c r="AL19" s="18">
         <f>AVERAGE(18106,17964,18328)</f>
         <v>18132.666666666668</v>
       </c>
-      <c r="AG19" s="18">
+      <c r="AM19" s="18">
         <f>AVERAGE(21295,22108,21131)</f>
         <v>21511.333333333332</v>
       </c>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-    </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN19" s="25">
+        <v>12275</v>
+      </c>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="25"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="17"/>
+      <c r="AS19" s="17"/>
+    </row>
+    <row r="20" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
@@ -2744,80 +3043,95 @@
         <v>242.33333333333334</v>
       </c>
       <c r="J20" s="3">
+        <v>147</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
         <v>145</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>243</v>
       </c>
-      <c r="L20" s="24">
+      <c r="O20" s="24">
         <v>243</v>
       </c>
-      <c r="N20" s="18" t="s">
+      <c r="Q20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="O20" s="18">
+      <c r="R20" s="18">
         <v>25</v>
       </c>
-      <c r="P20" s="18">
+      <c r="S20" s="18">
         <v>4123.3500000000004</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="T20" s="18">
         <v>3842.76</v>
       </c>
-      <c r="R20" s="20">
+      <c r="U20" s="20">
         <v>6277.68</v>
       </c>
-      <c r="S20" s="18">
+      <c r="V20" s="18">
         <f>AVERAGE(8471.76,7370.09,6547.6)</f>
         <v>7463.1500000000005</v>
       </c>
-      <c r="T20" s="18">
+      <c r="W20" s="18">
         <f>AVERAGE(10926.41,9270.4,9458.38)</f>
         <v>9885.0633333333317</v>
       </c>
-      <c r="U20" s="18">
+      <c r="X20" s="18">
         <f>AVERAGE(16450.56,14608.83,13150.71)</f>
         <v>14736.699999999999</v>
       </c>
-      <c r="V20" s="18"/>
-      <c r="W20" s="17">
+      <c r="Y20" s="25">
+        <v>4087.21</v>
+      </c>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="17">
         <v>3905</v>
       </c>
-      <c r="X20" s="17">
+      <c r="AD20" s="17">
         <v>3905</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="AF20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AG20" s="1">
         <v>258</v>
       </c>
-      <c r="AB20" s="18">
+      <c r="AH20" s="18">
         <v>22289</v>
       </c>
-      <c r="AC20" s="18">
+      <c r="AI20" s="18">
         <v>22414</v>
       </c>
-      <c r="AD20" s="20">
+      <c r="AJ20" s="20">
         <v>26555</v>
       </c>
-      <c r="AE20" s="18">
+      <c r="AK20" s="18">
         <f>AVERAGE(37635,36780,38408)</f>
         <v>37607.666666666664</v>
       </c>
-      <c r="AF20" s="18">
+      <c r="AL20" s="18">
         <f>AVERAGE(40435)</f>
         <v>40435</v>
       </c>
-      <c r="AG20" s="18">
+      <c r="AM20" s="18">
         <f>AVERAGE(44192)</f>
         <v>44192</v>
       </c>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-    </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN20" s="25">
+        <v>22289</v>
+      </c>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="17"/>
+      <c r="AS20" s="17"/>
+    </row>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>24</v>
       </c>
@@ -2845,83 +3159,98 @@
         <f xml:space="preserve"> AVERAGE(2369.16,2484.33,2674.2)</f>
         <v>2509.23</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18">
+      <c r="J21" s="25">
+        <v>559.01</v>
+      </c>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18">
         <v>540</v>
       </c>
-      <c r="L21" s="17">
+      <c r="O21" s="17">
         <v>540</v>
       </c>
-      <c r="N21" s="18" t="s">
+      <c r="Q21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O21" s="18">
+      <c r="R21" s="18">
         <v>26</v>
       </c>
-      <c r="P21" s="18">
+      <c r="S21" s="18">
         <v>2149.8200000000002</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="T21" s="18">
         <v>2067.87</v>
       </c>
-      <c r="R21" s="20">
+      <c r="U21" s="20">
         <v>4270.6499999999996</v>
       </c>
-      <c r="S21" s="18">
+      <c r="V21" s="18">
         <f>AVERAGE(3890.65,4784.86,4636.22)</f>
         <v>4437.2433333333329</v>
       </c>
-      <c r="T21" s="18">
+      <c r="W21" s="18">
         <f>AVERAGE(6322.12,5842.62,6388.32)</f>
         <v>6184.3533333333326</v>
       </c>
-      <c r="U21" s="18">
+      <c r="X21" s="18">
         <f>AVERAGE(9008.72,9224.55,9411.86)</f>
         <v>9215.0433333333331</v>
       </c>
-      <c r="V21" s="18"/>
-      <c r="W21" s="17">
+      <c r="Y21" s="25">
+        <v>2109.4299999999998</v>
+      </c>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="17">
         <v>2606</v>
       </c>
-      <c r="X21" s="17">
+      <c r="AD21" s="17">
         <v>2606</v>
       </c>
-      <c r="Z21" s="12" t="s">
+      <c r="AF21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AA21" s="12">
+      <c r="AG21" s="12">
         <v>17</v>
       </c>
-      <c r="AB21" s="12">
+      <c r="AH21" s="12">
         <v>130.04</v>
       </c>
-      <c r="AC21" s="12">
+      <c r="AI21" s="12">
         <v>128.07</v>
       </c>
-      <c r="AD21" s="12">
+      <c r="AJ21" s="12">
         <v>177.42</v>
       </c>
-      <c r="AE21" s="18">
+      <c r="AK21" s="18">
         <f>AVERAGE(182.12,212.39,172.41)</f>
         <v>188.97333333333333</v>
       </c>
-      <c r="AF21" s="18">
+      <c r="AL21" s="18">
         <f>AVERAGE(261,245.52,226.95)</f>
         <v>244.49</v>
       </c>
-      <c r="AG21" s="18">
+      <c r="AM21" s="18">
         <f>AVERAGE(331.15,316.08,337.74)</f>
         <v>328.32333333333332</v>
       </c>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="17">
+      <c r="AN21" s="25">
+        <v>129.15</v>
+      </c>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="25"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="17">
         <v>120</v>
       </c>
-      <c r="AJ21" s="17">
+      <c r="AS21" s="17">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2949,84 +3278,99 @@
         <v>148.66666666666666</v>
       </c>
       <c r="J22" s="3">
+        <v>154</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3">
         <v>143</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>234</v>
       </c>
-      <c r="L22" s="24">
+      <c r="O22" s="24">
         <v>234</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="Q22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="O22" s="18">
+      <c r="R22" s="18">
         <v>79</v>
       </c>
-      <c r="P22" s="18">
+      <c r="S22" s="18">
         <v>9156.66</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="T22" s="18">
         <v>9230.75</v>
       </c>
-      <c r="R22" s="20">
+      <c r="U22" s="20">
         <v>14274.48</v>
       </c>
-      <c r="S22" s="18">
+      <c r="V22" s="18">
         <f>AVERAGE(25401.97,25448.92,26352.32)</f>
         <v>25734.403333333332</v>
       </c>
-      <c r="T22" s="18">
+      <c r="W22" s="18">
         <f>AVERAGE(39256.55,36669.92,41416.82)</f>
         <v>39114.43</v>
       </c>
-      <c r="U22" s="18">
+      <c r="X22" s="18">
         <f>AVERAGE(53807.48,58556.73,54436.29)</f>
         <v>55600.166666666664</v>
       </c>
-      <c r="V22" s="18"/>
-      <c r="W22" s="17">
+      <c r="Y22" s="25">
+        <v>9035.18</v>
+      </c>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="17">
         <v>8901</v>
       </c>
-      <c r="X22" s="17">
+      <c r="AD22" s="17">
         <v>8901</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="AF22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AG22" s="1">
         <v>10</v>
       </c>
-      <c r="AB22" s="18">
+      <c r="AH22" s="18">
         <v>146</v>
       </c>
-      <c r="AC22" s="18">
+      <c r="AI22" s="18">
         <v>146</v>
       </c>
-      <c r="AD22" s="20">
+      <c r="AJ22" s="20">
         <v>268</v>
       </c>
-      <c r="AE22" s="18">
+      <c r="AK22" s="18">
         <f>AVERAGE(185,182,195)</f>
         <v>187.33333333333334</v>
       </c>
-      <c r="AF22" s="18">
+      <c r="AL22" s="18">
         <f>AVERAGE(252,246,272)</f>
         <v>256.66666666666669</v>
       </c>
-      <c r="AG22" s="18">
+      <c r="AM22" s="18">
         <f>AVERAGE(326,416,290)</f>
         <v>344</v>
       </c>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="17">
+      <c r="AN22" s="25">
+        <v>146</v>
+      </c>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="17">
         <v>192</v>
       </c>
-      <c r="AJ22" s="17">
+      <c r="AS22" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -3054,76 +3398,91 @@
         <v>358.33333333333331</v>
       </c>
       <c r="J23" s="3">
+        <v>258</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
         <v>181</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>324</v>
       </c>
-      <c r="L23" s="24">
+      <c r="O23" s="24">
         <v>324</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="Q23" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="O23" s="18">
+      <c r="R23" s="18">
         <v>344</v>
       </c>
-      <c r="P23" s="18">
+      <c r="S23" s="18">
         <v>13388.78</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="T23" s="18">
         <v>13074.68</v>
       </c>
-      <c r="R23" s="20">
+      <c r="U23" s="20">
         <v>17414.240000000002</v>
       </c>
-      <c r="S23" s="18">
+      <c r="V23" s="18">
         <f>AVERAGE(59275.29,58450.29,59315.09)</f>
         <v>59013.556666666664</v>
       </c>
-      <c r="T23" s="18">
+      <c r="W23" s="18">
         <f>AVERAGE(85535.08,84406.33,83926.87)</f>
         <v>84622.76</v>
       </c>
-      <c r="U23" s="18">
+      <c r="X23" s="18">
         <f>AVERAGE(126181.16)</f>
         <v>126181.16</v>
       </c>
-      <c r="V23" s="18"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Z23" s="1" t="s">
+      <c r="Y23" s="25">
+        <v>13172.65</v>
+      </c>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AF23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AG23" s="1">
         <v>56</v>
       </c>
-      <c r="AB23" s="18">
+      <c r="AH23" s="18">
         <v>27500</v>
       </c>
-      <c r="AC23" s="18">
+      <c r="AI23" s="18">
         <v>27500</v>
       </c>
-      <c r="AD23" s="20">
+      <c r="AJ23" s="20">
         <v>44543.199999999997</v>
       </c>
-      <c r="AE23" s="18">
+      <c r="AK23" s="18">
         <f>AVERAGE(85382.67,73888.73,78761.91)</f>
         <v>79344.436666666661</v>
       </c>
-      <c r="AF23" s="18">
+      <c r="AL23" s="18">
         <f>AVERAGE(112768.26,121830.06,103849.9)</f>
         <v>112816.07333333332</v>
       </c>
-      <c r="AG23" s="18">
+      <c r="AM23" s="18">
         <f>AVERAGE(158513.07,160145.27,154202.11)</f>
         <v>157620.15</v>
       </c>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-    </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN23" s="25">
+        <v>27500</v>
+      </c>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="18"/>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="17"/>
+    </row>
+    <row r="24" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
@@ -3153,293 +3512,333 @@
       <c r="J24" s="3">
         <v>162</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3">
+        <v>162</v>
+      </c>
+      <c r="N24" s="3">
         <v>264</v>
       </c>
-      <c r="L24" s="24">
+      <c r="O24" s="24">
         <v>264</v>
       </c>
-      <c r="M24" s="23"/>
-      <c r="N24" s="18" t="s">
+      <c r="P24" s="23"/>
+      <c r="Q24" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="O24" s="18">
+      <c r="R24" s="18">
         <v>140</v>
       </c>
-      <c r="P24" s="18">
+      <c r="S24" s="18">
         <v>728</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="T24" s="18">
         <v>566</v>
       </c>
-      <c r="R24" s="20">
+      <c r="U24" s="20">
         <v>782</v>
       </c>
-      <c r="S24" s="18">
+      <c r="V24" s="18">
         <f>AVERAGE(1781,1645,2083)</f>
         <v>1836.3333333333333</v>
       </c>
-      <c r="T24" s="18">
+      <c r="W24" s="18">
         <f>AVERAGE(2433,2270,2358)</f>
         <v>2353.6666666666665</v>
       </c>
-      <c r="U24" s="18">
+      <c r="X24" s="18">
         <f>AVERAGE(3482)</f>
         <v>3482</v>
       </c>
-      <c r="V24" s="18"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Z24" s="1" t="s">
+      <c r="Y24" s="25">
+        <v>726</v>
+      </c>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AF24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AG24" s="1">
         <v>56</v>
       </c>
-      <c r="AB24" s="18">
+      <c r="AH24" s="18">
         <v>1036.02</v>
       </c>
-      <c r="AC24" s="18">
+      <c r="AI24" s="18">
         <v>1056.72</v>
       </c>
-      <c r="AD24" s="20">
+      <c r="AJ24" s="20">
         <v>1100.3800000000001</v>
       </c>
-      <c r="AE24" s="18">
+      <c r="AK24" s="18">
         <f>AVERAGE(1900.37,1955.94,1523.17)</f>
         <v>1793.1599999999999</v>
       </c>
-      <c r="AF24" s="18">
+      <c r="AL24" s="18">
         <f>AVERAGE(2339.51,2442.57,2648.4)</f>
         <v>2476.8266666666664</v>
       </c>
-      <c r="AG24" s="18">
+      <c r="AM24" s="18">
         <f>AVERAGE(3743.26,3441.56,3992.71)</f>
         <v>3725.8433333333328</v>
       </c>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-    </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="K25" s="2"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="Z25" s="3" t="s">
+      <c r="AN24" s="25">
+        <v>964.26</v>
+      </c>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="18"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
+    </row>
+    <row r="25" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="N25" s="2"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="AF25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AG25" s="3">
         <v>4</v>
       </c>
-      <c r="AB25" s="3">
+      <c r="AH25" s="3">
         <v>826.08</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AI25" s="3">
         <v>751.06</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AJ25" s="3">
         <v>902.27</v>
       </c>
-      <c r="AE25" s="14">
+      <c r="AK25" s="14">
         <v>826.08</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AL25" s="3">
         <f>AVERAGE(826.29,826.29,1004.13)</f>
         <v>885.57</v>
       </c>
-      <c r="AG25" s="3">
+      <c r="AM25" s="3">
         <f>AVERAGE(1119.4,874.94,751.06)</f>
         <v>915.13333333333333</v>
       </c>
-      <c r="AH25" s="3">
+      <c r="AN25" s="3">
+        <v>826.08</v>
+      </c>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3">
         <v>714.33</v>
       </c>
-      <c r="AI25" s="24">
+      <c r="AR25" s="24">
         <v>935</v>
       </c>
-      <c r="AJ25" s="24">
+      <c r="AS25" s="24">
         <v>935</v>
       </c>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B26" s="28" t="s">
+    <row r="26" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B26" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="10"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="N26" s="2"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="3" t="s">
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AA26" s="9">
+      <c r="AG26" s="9">
         <v>5</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AH26" s="3">
         <v>456.58</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AI26" s="3">
         <v>456.58</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AJ26" s="3">
         <v>643.88</v>
       </c>
-      <c r="AE26" s="14">
+      <c r="AK26" s="14">
         <v>456.58</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AL26" s="3">
         <f>AVERAGE(776.37,870.7,559.22)</f>
         <v>735.43</v>
       </c>
-      <c r="AG26" s="3">
+      <c r="AM26" s="3">
         <f>AVERAGE(1273.79,860.7,956.16)</f>
         <v>1030.2166666666665</v>
       </c>
-      <c r="AH26" s="3">
+      <c r="AN26" s="3">
+        <v>456.58</v>
+      </c>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3">
         <v>662.17</v>
       </c>
-      <c r="AI26" s="24">
+      <c r="AR26" s="24">
         <v>747</v>
       </c>
-      <c r="AJ26" s="24">
+      <c r="AS26" s="24">
         <v>747</v>
       </c>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
+    <row r="27" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B27" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="35"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="26"/>
+      <c r="N27" s="2"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="2"/>
+      <c r="U27" s="7"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
-    </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="35"/>
-    </row>
-    <row r="29" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+    </row>
+    <row r="28" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="21"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="21"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="21"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AH1:AS1"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="B29:E33"/>
@@ -3461,10 +3860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AJ38"/>
+  <dimension ref="B1:AS38"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AD27" sqref="AD27"/>
+    <sheetView topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN26" sqref="AN26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3474,76 +3873,91 @@
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.140625" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.7109375" customWidth="1"/>
-    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" customWidth="1"/>
-    <col min="31" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.140625" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" customWidth="1"/>
+    <col min="25" max="27" width="12.28515625" customWidth="1"/>
+    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.7109375" customWidth="1"/>
+    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" customWidth="1"/>
+    <col min="37" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="12.28515625" customWidth="1"/>
+    <col min="43" max="43" width="8" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="S1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="32"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="35"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AH1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="32"/>
-    </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="35"/>
+    </row>
+    <row r="2" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3568,83 +3982,110 @@
       <c r="I2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="O2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="R2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="S2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="T2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="U2" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="W2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="X2" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="Y2" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="AC2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="AD2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="AF2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AG2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AH2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AI2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AJ2" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="AK2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AF2" s="18" t="s">
+      <c r="AL2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AM2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AH2" s="18" t="s">
+      <c r="AN2" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO2" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP2" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" s="19" t="s">
+      <c r="AR2" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AJ2" s="19" t="s">
+      <c r="AS2" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3672,83 +4113,98 @@
         <f>AVERAGE(7003.18,6708.75,7070.15)</f>
         <v>6927.3600000000006</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="18">
+      <c r="J3" s="25">
+        <v>1322.11</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="18">
         <v>1314</v>
       </c>
-      <c r="L3" s="17">
+      <c r="O3" s="17">
         <v>1358</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="Q3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="18">
+      <c r="R3" s="18">
         <v>24</v>
       </c>
-      <c r="P3" s="18">
+      <c r="S3" s="18">
         <v>2139</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="T3" s="18">
         <v>1691</v>
       </c>
-      <c r="R3" s="20">
+      <c r="U3" s="20">
         <v>2752</v>
       </c>
-      <c r="S3" s="18">
+      <c r="V3" s="18">
         <f>AVERAGE(2847,2862,2525)</f>
         <v>2744.6666666666665</v>
       </c>
-      <c r="T3" s="18">
+      <c r="W3" s="18">
         <f>AVERAGE(2877,3021,3207)</f>
         <v>3035</v>
       </c>
-      <c r="U3" s="18">
+      <c r="X3" s="18">
         <f>AVERAGE(4796,4876,8514)</f>
         <v>6062</v>
       </c>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18">
+      <c r="Y3" s="25">
+        <v>2139</v>
+      </c>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18">
         <v>1819</v>
       </c>
-      <c r="X3" s="17">
+      <c r="AD3" s="17">
         <v>1819</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="AF3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="18">
+      <c r="AG3" s="18">
         <v>38</v>
       </c>
-      <c r="AB3" s="18">
+      <c r="AH3" s="18">
         <v>42676.77</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AI3" s="18">
         <v>44191.56</v>
       </c>
-      <c r="AD3" s="20">
+      <c r="AJ3" s="20">
         <v>50551.3</v>
       </c>
-      <c r="AE3" s="18">
+      <c r="AK3" s="18">
         <f>AVERAGE(67671.02,71552.62,67721.63)</f>
         <v>68981.756666666668</v>
       </c>
-      <c r="AF3" s="18">
+      <c r="AL3" s="18">
         <f>AVERAGE(94649.81,88157.51,90167.11)</f>
         <v>90991.476666666669</v>
       </c>
-      <c r="AG3" s="18">
+      <c r="AM3" s="18">
         <f>AVERAGE(115393.42,111909.71,108736.61)</f>
         <v>112013.24666666666</v>
       </c>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="17">
+      <c r="AN3" s="25">
+        <v>42676.77</v>
+      </c>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="17">
         <v>41248</v>
       </c>
-      <c r="AJ3" s="17">
+      <c r="AS3" s="17">
         <v>42638</v>
       </c>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3770,79 +4226,92 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17"/>
-      <c r="N4" s="18" t="s">
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="17"/>
+      <c r="Q4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="18">
+      <c r="R4" s="18">
         <v>48</v>
       </c>
-      <c r="P4" s="18">
+      <c r="S4" s="18">
         <v>22073.5</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="T4" s="18">
         <v>23897.19</v>
       </c>
-      <c r="R4" s="20">
+      <c r="U4" s="20">
         <v>33537.83</v>
       </c>
-      <c r="S4" s="18">
+      <c r="V4" s="18">
         <f>AVERAGE(43002.43,42126.39,45047.13)</f>
         <v>43391.983333333337</v>
       </c>
-      <c r="T4" s="18">
+      <c r="W4" s="18">
         <f>AVERAGE(56604.77,59612.96,61636.42)</f>
         <v>59284.716666666667</v>
       </c>
-      <c r="U4" s="18">
+      <c r="X4" s="18">
         <f>AVERAGE(81017.35,79446.65,88081.2)</f>
         <v>82848.400000000009</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18">
+      <c r="Y4" s="25">
+        <v>21617.45</v>
+      </c>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18">
         <v>20688</v>
       </c>
-      <c r="X4" s="17">
+      <c r="AD4" s="17">
         <v>19876</v>
       </c>
-      <c r="Z4" s="18" t="s">
+      <c r="AF4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AG4" s="18">
         <v>52</v>
       </c>
-      <c r="AB4" s="18">
+      <c r="AH4" s="18">
         <v>17103.07</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AI4" s="18">
         <v>15595.35</v>
       </c>
-      <c r="AD4" s="20">
+      <c r="AJ4" s="20">
         <v>25998.98</v>
       </c>
-      <c r="AE4" s="18">
+      <c r="AK4" s="18">
         <f>AVERAGE(43965.63,41638.47,55019.8)</f>
         <v>46874.633333333339</v>
       </c>
-      <c r="AF4" s="18">
+      <c r="AL4" s="18">
         <f>AVERAGE(67679.21,73086.24,61048.1)</f>
         <v>67271.183333333334</v>
       </c>
-      <c r="AG4" s="18">
+      <c r="AM4" s="18">
         <f>AVERAGE(8707.29,86044.23,86981.12)</f>
         <v>60577.546666666662</v>
       </c>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="17">
+      <c r="AN4" s="25">
+        <v>16472.98</v>
+      </c>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="17">
         <v>18028</v>
       </c>
-      <c r="AJ4" s="17">
+      <c r="AS4" s="17">
         <v>18028</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3870,77 +4339,92 @@
         <f>AVERAGE(10645,9493,9505)</f>
         <v>9881</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="3">
+        <v>3447</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="24"/>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" s="24"/>
+      <c r="Q5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="18">
+      <c r="R5" s="18">
         <v>60</v>
       </c>
-      <c r="P5" s="18">
+      <c r="S5" s="18">
         <v>3174</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="T5" s="18">
         <v>3062</v>
       </c>
-      <c r="R5" s="20">
+      <c r="U5" s="20">
         <v>4147</v>
       </c>
-      <c r="S5" s="18">
+      <c r="V5" s="18">
         <f>AVERAGE(5034,5155,5513)</f>
         <v>5234</v>
       </c>
-      <c r="T5" s="18">
+      <c r="W5" s="18">
         <f>AVERAGE(6747,6436,7004)</f>
         <v>6729</v>
       </c>
-      <c r="U5" s="18">
+      <c r="X5" s="18">
         <f>AVERAGE(9514,9995,10627)</f>
         <v>10045.333333333334</v>
       </c>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="17"/>
-      <c r="Z5" s="18" t="s">
+      <c r="Y5" s="25">
+        <v>3120</v>
+      </c>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="17"/>
+      <c r="AF5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AA5" s="18">
+      <c r="AG5" s="18">
         <v>62</v>
       </c>
-      <c r="AB5" s="18">
+      <c r="AH5" s="18">
         <v>26214.19</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AI5" s="18">
         <v>22543.29</v>
       </c>
-      <c r="AD5" s="20">
+      <c r="AJ5" s="20">
         <v>45272.02</v>
       </c>
-      <c r="AE5" s="18">
+      <c r="AK5" s="18">
         <f>AVERAGE(57354.29,64630.46,70897.19)</f>
         <v>64293.98</v>
       </c>
-      <c r="AF5" s="18">
+      <c r="AL5" s="18">
         <f>AVERAGE(81871.21,77591.71,67122.83)</f>
         <v>75528.583333333328</v>
       </c>
-      <c r="AG5" s="18">
+      <c r="AM5" s="18">
         <f>AVERAGE(137258.53,132466.16,118834.53)</f>
         <v>129519.73999999999</v>
       </c>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="17">
+      <c r="AN5" s="25">
+        <v>24187.51</v>
+      </c>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="17">
         <v>22998</v>
       </c>
-      <c r="AJ5" s="17">
+      <c r="AS5" s="17">
         <v>22998</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3968,73 +4452,86 @@
         <f>AVERAGE(86605,88268,85729)</f>
         <v>86867.333333333328</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="17"/>
-      <c r="N6" s="18" t="s">
+      <c r="J6" s="25">
+        <v>14250</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="17"/>
+      <c r="Q6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="18">
+      <c r="R6" s="18">
         <v>68</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="18">
-        <f t="shared" ref="S6:S10" si="2">AVERAGE(1)</f>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="18">
+        <f t="shared" ref="V6:V10" si="2">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="T6" s="18">
-        <f t="shared" ref="T6:U10" si="3">AVERAGE(1)</f>
+      <c r="W6" s="18">
+        <f t="shared" ref="W6:X10" si="3">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="U6" s="18">
+      <c r="X6" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18">
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18">
         <v>29363</v>
       </c>
-      <c r="X6" s="17">
+      <c r="AD6" s="17">
         <v>31784</v>
       </c>
-      <c r="Z6" s="18" t="s">
+      <c r="AF6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AA6" s="18">
+      <c r="AG6" s="18">
         <v>68</v>
       </c>
-      <c r="AB6" s="18">
+      <c r="AH6" s="18">
         <v>53346.76</v>
       </c>
-      <c r="AC6" s="18">
+      <c r="AI6" s="18">
         <v>51047.96</v>
       </c>
-      <c r="AD6" s="20">
+      <c r="AJ6" s="20">
         <v>64601.760000000002</v>
       </c>
-      <c r="AE6" s="18">
+      <c r="AK6" s="18">
         <f>AVERAGE(94718.25,98201.9,84465.24)</f>
         <v>92461.796666666676</v>
       </c>
-      <c r="AF6" s="18">
+      <c r="AL6" s="18">
         <f>AVERAGE(122250.16,119394.38,127078.23)</f>
         <v>122907.59000000001</v>
       </c>
-      <c r="AG6" s="18">
+      <c r="AM6" s="18">
         <f>AVERAGE(148276.98,173293.49,169617.71)</f>
         <v>163729.39333333331</v>
       </c>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="17">
+      <c r="AN6" s="25">
+        <v>53346.76</v>
+      </c>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="17">
         <v>46890</v>
       </c>
-      <c r="AJ6" s="17">
+      <c r="AS6" s="17">
         <v>46909</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -4061,79 +4558,92 @@
         <f>AVERAGE(1000,1103,1011)</f>
         <v>1038</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="3">
+        <v>581</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="3">
+      <c r="N7" s="3">
         <v>626</v>
       </c>
-      <c r="L7" s="24">
+      <c r="O7" s="24">
         <v>626</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="Q7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="18">
+      <c r="R7" s="18">
         <v>101</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="18">
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T7" s="18">
+      <c r="W7" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U7" s="18">
+      <c r="X7" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18">
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18">
         <v>14181</v>
       </c>
-      <c r="X7" s="17">
+      <c r="AD7" s="17">
         <v>14181</v>
       </c>
-      <c r="Z7" s="18" t="s">
+      <c r="AF7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="AA7" s="18">
+      <c r="AG7" s="18">
         <v>72</v>
       </c>
-      <c r="AB7" s="18">
+      <c r="AH7" s="18">
         <v>26457.22</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AI7" s="18">
         <v>28471</v>
       </c>
-      <c r="AD7" s="20">
+      <c r="AJ7" s="20">
         <v>44396.63</v>
       </c>
-      <c r="AE7" s="18">
+      <c r="AK7" s="18">
         <f>AVERAGE(62535.57,67602.32,64349.75)</f>
         <v>64829.21333333334</v>
       </c>
-      <c r="AF7" s="18">
+      <c r="AL7" s="18">
         <f>AVERAGE(102228.3,110315.73,100851.64)</f>
         <v>104465.22333333333</v>
       </c>
-      <c r="AG7" s="18">
+      <c r="AM7" s="18">
         <f>AVERAGE(173980.05,168318.31,169090.17)</f>
         <v>170462.84333333335</v>
       </c>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="17">
+      <c r="AN7" s="25">
+        <v>26341.82</v>
+      </c>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="17">
         <v>28402</v>
       </c>
-      <c r="AJ7" s="17">
+      <c r="AS7" s="17">
         <v>28059</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4160,79 +4670,92 @@
         <f>AVERAGE(1244,1312,1463)</f>
         <v>1339.6666666666667</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="3">
+        <v>816</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>733</v>
       </c>
-      <c r="L8" s="24">
+      <c r="O8" s="24">
         <v>733</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="Q8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="18">
+      <c r="R8" s="18">
         <v>114</v>
       </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="18">
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T8" s="18">
+      <c r="W8" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U8" s="18">
+      <c r="X8" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18">
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18">
         <v>41005</v>
       </c>
-      <c r="X8" s="17">
+      <c r="AD8" s="17">
         <v>41005</v>
       </c>
-      <c r="Z8" s="18" t="s">
+      <c r="AF8" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AA8" s="18">
+      <c r="AG8" s="18">
         <v>76</v>
       </c>
-      <c r="AB8" s="18">
+      <c r="AH8" s="18">
         <v>35032.6</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="AI8" s="18">
         <v>35705.47</v>
       </c>
-      <c r="AD8" s="20">
+      <c r="AJ8" s="20">
         <v>57394.59</v>
       </c>
-      <c r="AE8" s="18">
+      <c r="AK8" s="18">
         <f>AVERAGE(92260.55,75101.11,80997.32)</f>
         <v>82786.326666666675</v>
       </c>
-      <c r="AF8" s="18">
+      <c r="AL8" s="18">
         <f>AVERAGE(118521.41,107632.89,119739.37)</f>
         <v>115297.89</v>
       </c>
-      <c r="AG8" s="18">
+      <c r="AM8" s="18">
         <f>AVERAGE(200109.29,183817.21,179421.67)</f>
         <v>187782.72333333336</v>
       </c>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="17">
+      <c r="AN8" s="25">
+        <v>33363.86</v>
+      </c>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="17">
         <v>36637</v>
       </c>
-      <c r="AJ8" s="17">
+      <c r="AS8" s="17">
         <v>38863</v>
       </c>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -4260,75 +4783,88 @@
         <f>AVERAGE(5796.77,5450.13,5975.41)</f>
         <v>5740.77</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
+        <v>1766.5</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5">
         <v>3303.71452420693</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>1874</v>
       </c>
-      <c r="L9" s="24">
+      <c r="O9" s="24">
         <v>1874</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="Q9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="18">
+      <c r="R9" s="18">
         <v>215</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="18">
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T9" s="18">
+      <c r="W9" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U9" s="18">
+      <c r="X9" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="17"/>
-      <c r="Z9" s="18" t="s">
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="17"/>
+      <c r="AF9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AA9" s="18">
+      <c r="AG9" s="18">
         <v>113</v>
       </c>
-      <c r="AB9" s="18">
+      <c r="AH9" s="18">
         <v>51597.94</v>
       </c>
-      <c r="AC9" s="18">
+      <c r="AI9" s="18">
         <v>53661.61</v>
       </c>
-      <c r="AD9" s="20">
+      <c r="AJ9" s="20">
         <v>69425.490000000005</v>
       </c>
-      <c r="AE9" s="18">
+      <c r="AK9" s="18">
         <f>AVERAGE(125277.77,124544.19,117939.53)</f>
         <v>122587.16333333333</v>
       </c>
-      <c r="AF9" s="18">
+      <c r="AL9" s="18">
         <f>AVERAGE(187903.06,202714.89,201206)</f>
         <v>197274.65</v>
       </c>
-      <c r="AG9" s="18">
+      <c r="AM9" s="18">
         <f>AVERAGE(318764.04,308039.97,329299.51)</f>
         <v>318701.17333333334</v>
       </c>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="17">
+      <c r="AN9" s="25">
+        <v>49141.62</v>
+      </c>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="17">
         <v>38718</v>
       </c>
-      <c r="AJ9" s="17">
+      <c r="AS9" s="17">
         <v>39597</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -4356,69 +4892,82 @@
         <f>AVERAGE(110312.62,112767.63,104428.25)</f>
         <v>109169.5</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="18">
+      <c r="J10" s="25">
+        <v>29120.17</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="18">
         <v>26062</v>
       </c>
-      <c r="L10" s="17">
+      <c r="O10" s="17">
         <v>26107</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="Q10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="18">
+      <c r="R10" s="18">
         <v>333</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="18">
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T10" s="18">
+      <c r="W10" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U10" s="18">
+      <c r="X10" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="17"/>
-      <c r="Z10" s="18" t="s">
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="17"/>
+      <c r="AF10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="AA10" s="18">
+      <c r="AG10" s="18">
         <v>132</v>
       </c>
-      <c r="AB10" s="18">
+      <c r="AH10" s="18">
         <v>23011.19</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="AI10" s="18">
         <v>21708.66</v>
       </c>
-      <c r="AD10" s="20">
+      <c r="AJ10" s="20">
         <v>52120.72</v>
       </c>
-      <c r="AE10" s="18">
+      <c r="AK10" s="18">
         <f>AVERAGE(97573.93,76410.8,87873.39)</f>
         <v>87286.04</v>
       </c>
-      <c r="AF10" s="18">
+      <c r="AL10" s="18">
         <f>AVERAGE(114065.38,102538.87,120372.14)</f>
         <v>112325.46333333333</v>
       </c>
-      <c r="AG10" s="18">
+      <c r="AM10" s="18">
         <f>AVERAGE(127026.43,152095.31,153062.88)</f>
         <v>144061.54</v>
       </c>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-    </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN10" s="25">
+        <v>22934.79</v>
+      </c>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+    </row>
+    <row r="11" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4446,75 +4995,90 @@
         <f>AVERAGE(18467,18430,19788)</f>
         <v>18895</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="17"/>
-      <c r="N11" s="18" t="s">
+      <c r="J11" s="25">
+        <v>10262</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="17"/>
+      <c r="Q11" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="O11" s="18">
+      <c r="R11" s="18">
         <v>24</v>
       </c>
-      <c r="P11" s="18">
+      <c r="S11" s="18">
         <v>6476</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="T11" s="18">
         <v>5474</v>
       </c>
-      <c r="R11" s="20">
+      <c r="U11" s="20">
         <v>6420</v>
       </c>
-      <c r="S11" s="18">
+      <c r="V11" s="18">
         <f>AVERAGE(8023,4994,8974)</f>
         <v>7330.333333333333</v>
       </c>
-      <c r="T11" s="18">
+      <c r="W11" s="18">
         <f>AVERAGE(9382,6256,8383)</f>
         <v>8007</v>
       </c>
-      <c r="U11" s="18">
+      <c r="X11" s="18">
         <f>AVERAGE(9244,11326,10599)</f>
         <v>10389.666666666666</v>
       </c>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18">
+      <c r="Y11" s="25">
+        <v>6284</v>
+      </c>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18">
         <v>4701</v>
       </c>
-      <c r="X11" s="17">
+      <c r="AD11" s="17">
         <v>4701</v>
       </c>
-      <c r="Z11" s="18" t="s">
+      <c r="AF11" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AA11" s="18">
+      <c r="AG11" s="18">
         <v>149</v>
       </c>
-      <c r="AB11" s="18">
+      <c r="AH11" s="18">
         <v>27476.07</v>
       </c>
-      <c r="AC11" s="18">
+      <c r="AI11" s="18">
         <v>26159.06</v>
       </c>
-      <c r="AD11" s="20">
+      <c r="AJ11" s="20">
         <v>31750.9</v>
       </c>
-      <c r="AE11" s="18">
+      <c r="AK11" s="18">
         <f>AVERAGE(68765.2,64902.05,60570.51)</f>
         <v>64745.920000000006</v>
       </c>
-      <c r="AF11" s="18">
+      <c r="AL11" s="18">
         <f>AVERAGE(92835.42,95277.04,97412.87)</f>
         <v>95175.109999999986</v>
       </c>
-      <c r="AG11" s="18">
+      <c r="AM11" s="18">
         <f>AVERAGE(134003.72,146075.95,135907.26)</f>
         <v>138662.31000000003</v>
       </c>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-    </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN11" s="25">
+        <v>26442.77</v>
+      </c>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="17"/>
+    </row>
+    <row r="12" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -4542,75 +5106,90 @@
         <f>AVERAGE(203920,208790,187390)</f>
         <v>200033.33333333334</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17"/>
-      <c r="N12" s="18" t="s">
+      <c r="J12" s="25">
+        <v>22550</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="17"/>
+      <c r="Q12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="18">
+      <c r="R12" s="18">
         <v>50</v>
       </c>
-      <c r="P12" s="18">
+      <c r="S12" s="18">
         <v>11572.88</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="T12" s="18">
         <v>10270.1</v>
       </c>
-      <c r="R12" s="20">
+      <c r="U12" s="20">
         <v>15505.5</v>
       </c>
-      <c r="S12" s="18">
+      <c r="V12" s="18">
         <f>AVERAGE(18246.01,15636.11,15860.69)</f>
         <v>16580.936666666665</v>
       </c>
-      <c r="T12" s="18">
+      <c r="W12" s="18">
         <f>AVERAGE(26830.68,26540.21,22916.1)</f>
         <v>25428.996666666662</v>
       </c>
-      <c r="U12" s="18">
+      <c r="X12" s="18">
         <f>AVERAGE(33083.1,33124.75,33580.06)</f>
         <v>33262.636666666665</v>
       </c>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18">
+      <c r="Y12" s="25">
+        <v>11430.22</v>
+      </c>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18">
         <v>9184</v>
       </c>
-      <c r="X12" s="17">
+      <c r="AD12" s="17">
         <v>10050</v>
       </c>
-      <c r="Z12" s="18" t="s">
+      <c r="AF12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AA12" s="18">
+      <c r="AG12" s="18">
         <v>219</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AH12" s="18">
         <v>41333.97</v>
       </c>
-      <c r="AC12" s="18">
+      <c r="AI12" s="18">
         <v>43929.8</v>
       </c>
-      <c r="AD12" s="20">
+      <c r="AJ12" s="20">
         <v>65880.3</v>
       </c>
-      <c r="AE12" s="18">
+      <c r="AK12" s="18">
         <f>AVERAGE(130468.43,132240.97,139718.17)</f>
         <v>134142.52333333335</v>
       </c>
-      <c r="AF12" s="18">
+      <c r="AL12" s="18">
         <f>AVERAGE(188512.53,195437.63,204661.72)</f>
         <v>196203.96</v>
       </c>
-      <c r="AG12" s="18">
+      <c r="AM12" s="18">
         <f>AVERAGE(324205.78,338475.11,321814.62)</f>
         <v>328165.17</v>
       </c>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-    </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN12" s="25">
+        <v>40759.29</v>
+      </c>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="17"/>
+      <c r="AS12" s="17"/>
+    </row>
+    <row r="13" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -4637,80 +5216,95 @@
         <v>1727.5666666666668</v>
       </c>
       <c r="J13" s="3">
+        <v>1454.84</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
         <v>966.37</v>
       </c>
-      <c r="K13" s="3">
+      <c r="N13" s="3">
         <v>1272</v>
       </c>
-      <c r="L13" s="24">
+      <c r="O13" s="24">
         <v>1236</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="Q13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="18">
+      <c r="R13" s="18">
         <v>75</v>
       </c>
-      <c r="P13" s="18">
+      <c r="S13" s="18">
         <v>15643.51</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="T13" s="18">
         <v>50807.89</v>
       </c>
-      <c r="R13" s="20">
+      <c r="U13" s="20">
         <v>17195.66</v>
       </c>
-      <c r="S13" s="18">
+      <c r="V13" s="18">
         <f>AVERAGE(31530.67,28819.06,27007.27)</f>
         <v>29119</v>
       </c>
-      <c r="T13" s="18">
+      <c r="W13" s="18">
         <f>AVERAGE(38280.9,34510.19,36585.65)</f>
         <v>36458.91333333333</v>
       </c>
-      <c r="U13" s="18">
+      <c r="X13" s="18">
         <f>AVERAGE(50386.26,49337.28,51054.94)</f>
         <v>50259.493333333339</v>
       </c>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18">
+      <c r="Y13" s="25">
+        <v>15430.01</v>
+      </c>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18">
         <v>11625</v>
       </c>
-      <c r="X13" s="17">
+      <c r="AD13" s="17">
         <v>11625</v>
       </c>
-      <c r="Z13" s="18" t="s">
+      <c r="AF13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AA13" s="18">
+      <c r="AG13" s="18">
         <v>501</v>
       </c>
-      <c r="AB13" s="18">
+      <c r="AH13" s="18">
         <v>133670.14000000001</v>
       </c>
-      <c r="AC13" s="18">
+      <c r="AI13" s="18">
         <v>143817.03</v>
       </c>
-      <c r="AD13" s="20">
+      <c r="AJ13" s="20">
         <v>182271.52</v>
       </c>
-      <c r="AE13" s="18">
+      <c r="AK13" s="18">
         <f>AVERAGE(611099.29,611721.92,615676.98)</f>
         <v>612832.73</v>
       </c>
-      <c r="AF13" s="18">
+      <c r="AL13" s="18">
         <f>AVERAGE(889049.69)</f>
         <v>889049.69</v>
       </c>
-      <c r="AG13" s="18">
+      <c r="AM13" s="18">
         <f>AVERAGE(1362513.23)</f>
         <v>1362513.23</v>
       </c>
-      <c r="AH13" s="18"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-    </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN13" s="25">
+        <v>131441.76</v>
+      </c>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17"/>
+    </row>
+    <row r="14" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
@@ -4738,83 +5332,98 @@
         <f>AVERAGE(10196.89,9130.25,10126)</f>
         <v>9817.7133333333331</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="18">
+      <c r="J14" s="25">
+        <v>2710.19</v>
+      </c>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="18">
         <v>2408</v>
       </c>
-      <c r="L14" s="17">
+      <c r="O14" s="17">
         <v>2408</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="Q14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="18">
+      <c r="R14" s="18">
         <v>100</v>
       </c>
-      <c r="P14" s="18">
+      <c r="S14" s="18">
         <v>13623.44</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="T14" s="18">
         <v>16093.09</v>
       </c>
-      <c r="R14" s="20">
+      <c r="U14" s="20">
         <v>21322.240000000002</v>
       </c>
-      <c r="S14" s="18">
+      <c r="V14" s="18">
         <f>AVERAGE(33860.82,35440.32,32829.69)</f>
         <v>34043.61</v>
       </c>
-      <c r="T14" s="18">
+      <c r="W14" s="18">
         <f>AVERAGE(44726.44,50695.11,48151.51)</f>
         <v>47857.686666666668</v>
       </c>
-      <c r="U14" s="18">
+      <c r="X14" s="18">
         <f>AVERAGE(64930.12,70854.77,68582.01)</f>
         <v>68122.3</v>
       </c>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18">
+      <c r="Y14" s="25">
+        <v>13485.45</v>
+      </c>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18">
         <v>12753</v>
       </c>
-      <c r="X14" s="17">
+      <c r="AD14" s="17">
         <v>12753</v>
       </c>
-      <c r="Z14" s="18" t="s">
+      <c r="AF14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AA14" s="18">
+      <c r="AG14" s="18">
         <v>49</v>
       </c>
-      <c r="AB14" s="18">
+      <c r="AH14" s="18">
         <v>600.15</v>
       </c>
-      <c r="AC14" s="18">
+      <c r="AI14" s="18">
         <v>695.56</v>
       </c>
-      <c r="AD14" s="20">
+      <c r="AJ14" s="20">
         <v>784.24</v>
       </c>
-      <c r="AE14" s="18">
+      <c r="AK14" s="18">
         <f>AVERAGE(915.58,965.96,857.74)</f>
         <v>913.09333333333325</v>
       </c>
-      <c r="AF14" s="18">
+      <c r="AL14" s="18">
         <f>AVERAGE(1259.58,1191.97,1197.49)</f>
         <v>1216.3466666666666</v>
       </c>
-      <c r="AG14" s="18">
+      <c r="AM14" s="18">
         <f>AVERAGE(1705.72,1573.21,1822.44)</f>
         <v>1700.4566666666669</v>
       </c>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="17">
+      <c r="AN14" s="25">
+        <v>584.59</v>
+      </c>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="18"/>
+      <c r="AR14" s="17">
         <v>574</v>
       </c>
-      <c r="AJ14" s="17">
+      <c r="AS14" s="17">
         <v>574</v>
       </c>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
@@ -4842,83 +5451,98 @@
         <f>AVERAGE(11545.91,11573.41,11991.17)</f>
         <v>11703.496666666666</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="18">
+      <c r="J15" s="25">
+        <v>3169.82</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="18">
         <v>2761</v>
       </c>
-      <c r="L15" s="17">
+      <c r="O15" s="17">
         <v>2761</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="Q15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="18">
+      <c r="R15" s="18">
         <v>50</v>
       </c>
-      <c r="P15" s="18">
+      <c r="S15" s="18">
         <v>11462.54</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="T15" s="18">
         <v>11768</v>
       </c>
-      <c r="R15" s="20">
+      <c r="U15" s="20">
         <v>13554.58</v>
       </c>
-      <c r="S15" s="18">
+      <c r="V15" s="18">
         <f>AVERAGE(17548.83,18031.67,17132.19)</f>
         <v>17570.896666666667</v>
       </c>
-      <c r="T15" s="18">
+      <c r="W15" s="18">
         <f>AVERAGE(25155.69,23030.8,23820.96)</f>
         <v>24002.483333333334</v>
       </c>
-      <c r="U15" s="18">
+      <c r="X15" s="18">
         <f>AVERAGE(32066.58,37114.645,31461.15)</f>
         <v>33547.458333333336</v>
       </c>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18">
+      <c r="Y15" s="25">
+        <v>11418.42</v>
+      </c>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18">
         <v>9096</v>
       </c>
-      <c r="X15" s="17">
+      <c r="AD15" s="17">
         <v>9096</v>
       </c>
-      <c r="Z15" s="18" t="s">
+      <c r="AF15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AA15" s="18">
+      <c r="AG15" s="18">
         <v>97</v>
       </c>
-      <c r="AB15" s="18">
+      <c r="AH15" s="18">
         <v>1135.3800000000001</v>
       </c>
-      <c r="AC15" s="18">
+      <c r="AI15" s="18">
         <v>1293.71</v>
       </c>
-      <c r="AD15" s="20">
+      <c r="AJ15" s="20">
         <v>1548.43</v>
       </c>
-      <c r="AE15" s="18">
+      <c r="AK15" s="18">
         <f>AVERAGE(2172,2292.37,2366.69)</f>
         <v>2277.02</v>
       </c>
-      <c r="AF15" s="18">
+      <c r="AL15" s="18">
         <f>AVERAGE(3267.68,3080.11,3213.25)</f>
         <v>3187.0133333333338</v>
       </c>
-      <c r="AG15" s="18">
+      <c r="AM15" s="18">
         <f>AVERAGE(4335.33,4738.44,4561.91)</f>
         <v>4545.2266666666665</v>
       </c>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="17">
+      <c r="AN15" s="25">
+        <v>1135.3800000000001</v>
+      </c>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="18"/>
+      <c r="AR15" s="17">
         <v>1140</v>
       </c>
-      <c r="AJ15" s="17">
+      <c r="AS15" s="17">
         <v>1160</v>
       </c>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
@@ -4947,80 +5571,95 @@
         <v>576.66666666666663</v>
       </c>
       <c r="J16" s="3">
+        <v>239</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
         <v>230</v>
       </c>
-      <c r="K16" s="3">
+      <c r="N16" s="3">
         <v>260</v>
       </c>
-      <c r="L16" s="24">
+      <c r="O16" s="24">
         <v>260</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="Q16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="18">
+      <c r="R16" s="18">
         <v>75</v>
       </c>
-      <c r="P16" s="18">
+      <c r="S16" s="18">
         <v>12323.13</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="T16" s="18">
         <v>13509.84</v>
       </c>
-      <c r="R16" s="20">
+      <c r="U16" s="20">
         <v>19102.689999999999</v>
       </c>
-      <c r="S16" s="18">
+      <c r="V16" s="18">
         <f>AVERAGE(25882.97,25132.64,26685.26)</f>
         <v>25900.289999999997</v>
       </c>
-      <c r="T16" s="18">
+      <c r="W16" s="18">
         <f>AVERAGE(33795.5,35005.18,33114.48)</f>
         <v>33971.72</v>
       </c>
-      <c r="U16" s="18">
+      <c r="X16" s="18">
         <f>AVERAGE(51497.18,51233.59)</f>
         <v>51365.384999999995</v>
       </c>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18">
+      <c r="Y16" s="25">
+        <v>12099.43</v>
+      </c>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18">
         <v>11535</v>
       </c>
-      <c r="X16" s="17">
+      <c r="AD16" s="17">
         <v>11535</v>
       </c>
-      <c r="Z16" s="18" t="s">
+      <c r="AF16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA16" s="18">
+      <c r="AG16" s="18">
         <v>287</v>
       </c>
-      <c r="AB16" s="18" t="s">
+      <c r="AH16" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="AC16" s="18">
+      <c r="AI16" s="18">
         <v>3690.24</v>
       </c>
-      <c r="AD16" s="20">
+      <c r="AJ16" s="20">
         <v>4553.4799999999996</v>
       </c>
-      <c r="AE16" s="18">
+      <c r="AK16" s="18">
         <f>AVERAGE(11399.38,10366.03,10813.15)</f>
         <v>10859.519999999999</v>
       </c>
-      <c r="AF16" s="18">
+      <c r="AL16" s="18">
         <f>AVERAGE(15369.12,15382.28,15396.45)</f>
         <v>15382.616666666669</v>
       </c>
-      <c r="AG16" s="18">
+      <c r="AM16" s="18">
         <f>AVERAGE(22534.66)</f>
         <v>22534.66</v>
       </c>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-    </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN16" s="25">
+        <v>3448.29</v>
+      </c>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="18"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="17"/>
+    </row>
+    <row r="17" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -5048,81 +5687,96 @@
         <f>AVERAGE(396.94,391.92,315.52)</f>
         <v>368.12666666666672</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="3">
+        <v>181.41</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>175</v>
       </c>
-      <c r="L17" s="24">
+      <c r="O17" s="24">
         <v>175</v>
       </c>
-      <c r="N17" s="18" t="s">
+      <c r="Q17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="18">
+      <c r="R17" s="18">
         <v>100</v>
       </c>
-      <c r="P17" s="18">
+      <c r="S17" s="18">
         <v>17281.75</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="T17" s="18">
         <v>17169.62</v>
       </c>
-      <c r="R17" s="20">
+      <c r="U17" s="20">
         <v>18193.43</v>
       </c>
-      <c r="S17" s="18">
+      <c r="V17" s="18">
         <f>AVERAGE(34360.88,33605.76,33152.24)</f>
         <v>33706.293333333335</v>
       </c>
-      <c r="T17" s="18">
+      <c r="W17" s="18">
         <f>AVERAGE(44214.58,44950.36,45855.11)</f>
         <v>45006.683333333327</v>
       </c>
-      <c r="U17" s="18">
+      <c r="X17" s="18">
         <f>AVERAGE(64491.16,67046.36,68723.77)</f>
         <v>66753.763333333351</v>
       </c>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18">
+      <c r="Y17" s="25">
+        <v>17110.47</v>
+      </c>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18">
         <v>13080</v>
       </c>
-      <c r="X17" s="17">
+      <c r="AD17" s="17">
         <v>13113</v>
       </c>
-      <c r="Z17" s="18" t="s">
+      <c r="AF17" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AA17" s="18">
+      <c r="AG17" s="18">
         <v>391</v>
       </c>
-      <c r="AB17" s="18">
+      <c r="AH17" s="18">
         <v>4697.63</v>
       </c>
-      <c r="AC17" s="18">
+      <c r="AI17" s="18">
         <v>4979.6899999999996</v>
       </c>
-      <c r="AD17" s="20">
+      <c r="AJ17" s="20">
         <v>6459.6</v>
       </c>
-      <c r="AE17" s="18">
+      <c r="AK17" s="18">
         <f>AVERAGE(17169.52,18058.97,17036.8)</f>
         <v>17421.763333333336</v>
       </c>
-      <c r="AF17" s="18">
+      <c r="AL17" s="18">
         <f>AVERAGE(24068.68,23466.05,23762.72)</f>
         <v>23765.816666666666</v>
       </c>
-      <c r="AG17" s="18">
+      <c r="AM17" s="18">
         <f>AVERAGE(36080.24)</f>
         <v>36080.239999999998</v>
       </c>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-    </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN17" s="25">
+        <v>4617.92</v>
+      </c>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="17"/>
+      <c r="AS17" s="17"/>
+    </row>
+    <row r="18" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -5150,79 +5804,94 @@
         <f>AVERAGE(621.54,535.5,546.48)</f>
         <v>567.84</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="18">
+      <c r="J18" s="25">
+        <v>229.64</v>
+      </c>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="18">
         <v>216</v>
       </c>
-      <c r="L18" s="17">
+      <c r="O18" s="17">
         <v>219</v>
       </c>
-      <c r="N18" s="18" t="s">
+      <c r="Q18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="18">
+      <c r="R18" s="18">
         <v>50</v>
       </c>
-      <c r="P18" s="18">
+      <c r="S18" s="18">
         <v>9617.35</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="T18" s="18">
         <v>12165.37</v>
       </c>
-      <c r="R18" s="20">
+      <c r="U18" s="20">
         <v>16459.990000000002</v>
       </c>
-      <c r="S18" s="18">
+      <c r="V18" s="18">
         <f>AVERAGE(20744.35,18030.82,16756.05)</f>
         <v>18510.406666666666</v>
       </c>
-      <c r="T18" s="18">
+      <c r="W18" s="18">
         <f>AVERAGE(23815.13,24531.22,24007.45)</f>
         <v>24117.933333333334</v>
       </c>
-      <c r="U18" s="18">
+      <c r="X18" s="18">
         <f>AVERAGE(34791.69,32516.12,31108.13)</f>
         <v>32805.313333333332</v>
       </c>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18">
+      <c r="Y18" s="25">
+        <v>9555.73</v>
+      </c>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18">
         <v>9457</v>
       </c>
-      <c r="X18" s="17">
+      <c r="AD18" s="17">
         <v>9457</v>
       </c>
-      <c r="Z18" s="18" t="s">
+      <c r="AF18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AA18" s="18">
+      <c r="AG18" s="18">
         <v>87</v>
       </c>
-      <c r="AB18" s="18">
+      <c r="AH18" s="18">
         <v>10581</v>
       </c>
-      <c r="AC18" s="18">
+      <c r="AI18" s="18">
         <v>10638</v>
       </c>
-      <c r="AD18" s="20">
+      <c r="AJ18" s="20">
         <v>11725</v>
       </c>
-      <c r="AE18" s="18">
+      <c r="AK18" s="18">
         <f>AVERAGE(12976,12872,13402)</f>
         <v>13083.333333333334</v>
       </c>
-      <c r="AF18" s="18">
+      <c r="AL18" s="18">
         <f>AVERAGE(14243,14666,)</f>
         <v>9636.3333333333339</v>
       </c>
-      <c r="AG18" s="18">
+      <c r="AM18" s="18">
         <f>AVERAGE(16191,16360,16312)</f>
         <v>16287.666666666666</v>
       </c>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-    </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN18" s="25">
+        <v>10537</v>
+      </c>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="17"/>
+      <c r="AS18" s="17"/>
+    </row>
+    <row r="19" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
@@ -5250,79 +5919,94 @@
         <f>AVERAGE(749.8,739.32,729.88)</f>
         <v>739.66666666666663</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="18">
+      <c r="J19" s="25">
+        <v>314.43</v>
+      </c>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="18">
         <v>227</v>
       </c>
-      <c r="L19" s="17">
+      <c r="O19" s="17">
         <v>227</v>
       </c>
-      <c r="N19" s="18" t="s">
+      <c r="Q19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O19" s="18">
+      <c r="R19" s="18">
         <v>50</v>
       </c>
-      <c r="P19" s="18">
+      <c r="S19" s="18">
         <v>10720.17</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="T19" s="18">
         <v>11235.04</v>
       </c>
-      <c r="R19" s="20">
+      <c r="U19" s="20">
         <v>15408.3</v>
       </c>
-      <c r="S19" s="18">
+      <c r="V19" s="18">
         <f>AVERAGE(17595.39,18311.99,19771.19)</f>
         <v>18559.523333333334</v>
       </c>
-      <c r="T19" s="18">
+      <c r="W19" s="18">
         <f>AVERAGE(22872.45,23298.59,23919.04)</f>
         <v>23363.360000000001</v>
       </c>
-      <c r="U19" s="18">
+      <c r="X19" s="18">
         <f>AVERAGE(35360.64,32832.18,34677.44)</f>
         <v>34290.08666666667</v>
       </c>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18">
+      <c r="Y19" s="25">
+        <v>10636.85</v>
+      </c>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18">
         <v>8719</v>
       </c>
-      <c r="X19" s="17">
+      <c r="AD19" s="17">
         <v>8719</v>
       </c>
-      <c r="Z19" s="18" t="s">
+      <c r="AF19" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="AA19" s="18">
+      <c r="AG19" s="18">
         <v>267</v>
       </c>
-      <c r="AB19" s="18">
+      <c r="AH19" s="18">
         <v>23690</v>
       </c>
-      <c r="AC19" s="18">
+      <c r="AI19" s="18">
         <v>23530</v>
       </c>
-      <c r="AD19" s="20">
+      <c r="AJ19" s="20">
         <v>26122</v>
       </c>
-      <c r="AE19" s="18">
+      <c r="AK19" s="18">
         <f>AVERAGE(36396,36800,33279)</f>
         <v>35491.666666666664</v>
       </c>
-      <c r="AF19" s="18">
+      <c r="AL19" s="18">
         <f>AVERAGE(42276,39271,43257)</f>
         <v>41601.333333333336</v>
       </c>
-      <c r="AG19" s="18">
+      <c r="AM19" s="18">
         <f>AVERAGE(46149,45242,46637)</f>
         <v>46009.333333333336</v>
       </c>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-    </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN19" s="25">
+        <v>23558</v>
+      </c>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="25"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="17"/>
+      <c r="AS19" s="17"/>
+    </row>
+    <row r="20" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
@@ -5350,80 +6034,95 @@
         <v>541.66666666666663</v>
       </c>
       <c r="J20" s="3">
+        <v>334</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
         <v>308</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>414</v>
       </c>
-      <c r="L20" s="24">
+      <c r="O20" s="24">
         <v>414</v>
       </c>
-      <c r="N20" s="18" t="s">
+      <c r="Q20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="O20" s="18">
+      <c r="R20" s="18">
         <v>50</v>
       </c>
-      <c r="P20" s="18">
+      <c r="S20" s="18">
         <v>10228.68</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="T20" s="18">
         <v>10160.41</v>
       </c>
-      <c r="R20" s="20">
+      <c r="U20" s="20">
         <v>15558.59</v>
       </c>
-      <c r="S20" s="18">
+      <c r="V20" s="18">
         <f>AVERAGE(17133.65,16940.88,17970.63)</f>
         <v>17348.386666666669</v>
       </c>
-      <c r="T20" s="18">
+      <c r="W20" s="18">
         <f>AVERAGE(24512.7,26946.41,24433.85)</f>
         <v>25297.653333333332</v>
       </c>
-      <c r="U20" s="18">
+      <c r="X20" s="18">
         <f>AVERAGE(31769.07,35334.31,35646.85)</f>
         <v>34250.076666666668</v>
       </c>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18">
+      <c r="Y20" s="25">
+        <v>10167.799999999999</v>
+      </c>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18">
         <v>9102</v>
       </c>
-      <c r="X20" s="17">
+      <c r="AD20" s="17">
         <v>9176</v>
       </c>
-      <c r="Z20" s="18" t="s">
+      <c r="AF20" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AA20" s="18">
+      <c r="AG20" s="18">
         <v>516</v>
       </c>
-      <c r="AB20" s="18">
+      <c r="AH20" s="18">
         <v>46820</v>
       </c>
-      <c r="AC20" s="18">
+      <c r="AI20" s="18">
         <v>46810</v>
       </c>
-      <c r="AD20" s="20">
+      <c r="AJ20" s="20">
         <v>53714</v>
       </c>
-      <c r="AE20" s="18">
+      <c r="AK20" s="18">
         <f>AVERAGE(72588,76165,72797)</f>
         <v>73850</v>
       </c>
-      <c r="AF20" s="18">
+      <c r="AL20" s="18">
         <f>AVERAGE(81396)</f>
         <v>81396</v>
       </c>
-      <c r="AG20" s="18">
+      <c r="AM20" s="18">
         <f>AVERAGE(95245)</f>
         <v>95245</v>
       </c>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-    </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN20" s="25">
+        <v>46817</v>
+      </c>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="17"/>
+      <c r="AS20" s="17"/>
+    </row>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
@@ -5451,83 +6150,98 @@
         <f>AVERAGE(5927.63,5968.23,5877.42)</f>
         <v>5924.4266666666663</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="18">
+      <c r="J21" s="25">
+        <v>1176.3699999999999</v>
+      </c>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="18">
         <v>1042</v>
       </c>
-      <c r="L21" s="17">
+      <c r="O21" s="17">
         <v>1042</v>
       </c>
-      <c r="N21" s="18" t="s">
+      <c r="Q21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O21" s="18">
+      <c r="R21" s="18">
         <v>52</v>
       </c>
-      <c r="P21" s="18">
+      <c r="S21" s="18">
         <v>5888.85</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="T21" s="18">
         <v>5350.1</v>
       </c>
-      <c r="R21" s="20">
+      <c r="U21" s="20">
         <v>9105.5499999999993</v>
       </c>
-      <c r="S21" s="18">
+      <c r="V21" s="18">
         <f>AVERAGE(9493.61,12161.74,10876.06)</f>
         <v>10843.803333333331</v>
       </c>
-      <c r="T21" s="18">
+      <c r="W21" s="18">
         <f>AVERAGE(16893.86,12402.04,16626.62)</f>
         <v>15307.506666666668</v>
       </c>
-      <c r="U21" s="18">
+      <c r="X21" s="18">
         <f>AVERAGE(23747.26,22768.53,22012.56)</f>
         <v>22842.783333333329</v>
       </c>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18">
+      <c r="Y21" s="25">
+        <v>5848.46</v>
+      </c>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18">
         <v>5848</v>
       </c>
-      <c r="X21" s="17">
+      <c r="AD21" s="17">
         <v>5954</v>
       </c>
-      <c r="Z21" s="12" t="s">
+      <c r="AF21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AA21" s="12">
+      <c r="AG21" s="12">
         <v>35</v>
       </c>
-      <c r="AB21" s="12">
+      <c r="AH21" s="12">
         <v>347.28</v>
       </c>
-      <c r="AC21" s="12">
+      <c r="AI21" s="12">
         <v>250.24</v>
       </c>
-      <c r="AD21" s="12">
+      <c r="AJ21" s="12">
         <v>357.06</v>
       </c>
-      <c r="AE21" s="18">
+      <c r="AK21" s="18">
         <f>AVERAGE(444.2,462.22,453.49)</f>
         <v>453.30333333333334</v>
       </c>
-      <c r="AF21" s="18">
+      <c r="AL21" s="18">
         <f>AVERAGE(617.86,585.21,529.8)</f>
         <v>577.62333333333333</v>
       </c>
-      <c r="AG21" s="18">
+      <c r="AM21" s="18">
         <f>AVERAGE(720.06,720.15,737.56)</f>
         <v>725.92333333333329</v>
       </c>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="17">
+      <c r="AN21" s="25">
+        <v>320.01</v>
+      </c>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="25"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="17">
         <v>260</v>
       </c>
-      <c r="AJ21" s="17">
+      <c r="AS21" s="17">
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -5555,84 +6269,99 @@
         <v>556</v>
       </c>
       <c r="J22" s="3">
+        <v>359</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3">
         <v>380</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>517</v>
       </c>
-      <c r="L22" s="24">
+      <c r="O22" s="24">
         <v>517</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="Q22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="O22" s="18">
+      <c r="R22" s="18">
         <v>159</v>
       </c>
-      <c r="P22" s="18">
+      <c r="S22" s="18">
         <v>22878.82</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="T22" s="18">
         <v>20965.099999999999</v>
       </c>
-      <c r="R22" s="20">
+      <c r="U22" s="20">
         <v>32794.699999999997</v>
       </c>
-      <c r="S22" s="18">
+      <c r="V22" s="18">
         <f>AVERAGE(56954.6,54865.21,60437.12)</f>
         <v>57418.976666666662</v>
       </c>
-      <c r="T22" s="18">
+      <c r="W22" s="18">
         <f>AVERAGE(83582.35,85867.47,80577.52)</f>
         <v>83342.44666666667</v>
       </c>
-      <c r="U22" s="18">
+      <c r="X22" s="18">
         <f>AVERAGE(130864.4,125572.94,129608.16)</f>
         <v>128681.83333333333</v>
       </c>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18">
+      <c r="Y22" s="25">
+        <v>22464.99</v>
+      </c>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18">
         <v>18600</v>
       </c>
-      <c r="X22" s="17">
+      <c r="AD22" s="17">
         <v>19114</v>
       </c>
-      <c r="Z22" s="18" t="s">
+      <c r="AF22" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AA22" s="18">
+      <c r="AG22" s="18">
         <v>21</v>
       </c>
-      <c r="AB22" s="18">
+      <c r="AH22" s="18">
         <v>441</v>
       </c>
-      <c r="AC22" s="18">
+      <c r="AI22" s="18">
         <v>448</v>
       </c>
-      <c r="AD22" s="20">
+      <c r="AJ22" s="20">
         <v>852</v>
       </c>
-      <c r="AE22" s="18">
+      <c r="AK22" s="18">
         <f>AVERAGE(616,625,606)</f>
         <v>615.66666666666663</v>
       </c>
-      <c r="AF22" s="18">
+      <c r="AL22" s="18">
         <f>AVERAGE(825,689,715)</f>
         <v>743</v>
       </c>
-      <c r="AG22" s="18">
+      <c r="AM22" s="18">
         <f>AVERAGE(930,1137,1053)</f>
         <v>1040</v>
       </c>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="17">
+      <c r="AN22" s="25">
+        <v>425</v>
+      </c>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="17">
         <v>458</v>
       </c>
-      <c r="AJ22" s="17">
+      <c r="AS22" s="17">
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -5660,76 +6389,91 @@
         <v>1394.3333333333333</v>
       </c>
       <c r="J23" s="3">
+        <v>989</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
         <v>683</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>918</v>
       </c>
-      <c r="L23" s="24">
+      <c r="O23" s="24">
         <v>918</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="Q23" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="O23" s="18">
+      <c r="R23" s="18">
         <v>689</v>
       </c>
-      <c r="P23" s="18">
+      <c r="S23" s="18">
         <v>28892.080000000002</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="T23" s="18">
         <v>28532.55</v>
       </c>
-      <c r="R23" s="20">
+      <c r="U23" s="20">
         <v>38616.910000000003</v>
       </c>
-      <c r="S23" s="18">
+      <c r="V23" s="18">
         <f>AVERAGE(133425.62,129861.81,136169.48)</f>
         <v>133152.30333333334</v>
       </c>
-      <c r="T23" s="18">
+      <c r="W23" s="18">
         <f>AVERAGE(189141.98,195861.74,1944909.08)</f>
         <v>776637.6</v>
       </c>
-      <c r="U23" s="18">
+      <c r="X23" s="18">
         <f>AVERAGE(286706.06)</f>
         <v>286706.06</v>
       </c>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="17"/>
-      <c r="Z23" s="18" t="s">
+      <c r="Y23" s="25">
+        <v>28386.639999999999</v>
+      </c>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="17"/>
+      <c r="AF23" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AA23" s="18">
+      <c r="AG23" s="18">
         <v>112</v>
       </c>
-      <c r="AB23" s="18">
+      <c r="AH23" s="18">
         <v>55500</v>
       </c>
-      <c r="AC23" s="18">
+      <c r="AI23" s="18">
         <v>73643.86</v>
       </c>
-      <c r="AD23" s="20">
+      <c r="AJ23" s="20">
         <v>106595.2</v>
       </c>
-      <c r="AE23" s="18">
+      <c r="AK23" s="18">
         <f>AVERAGE(164561.21,166644.63,173340.26)</f>
         <v>168182.03333333333</v>
       </c>
-      <c r="AF23" s="18">
+      <c r="AL23" s="18">
         <f>AVERAGE(245262.86,239804.79,249477.34)</f>
         <v>244848.33</v>
       </c>
-      <c r="AG23" s="18">
+      <c r="AM23" s="18">
         <f>AVERAGE(326909.52,342698.61,358371.85)</f>
         <v>342659.99333333335</v>
       </c>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-    </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN23" s="25">
+        <v>55500</v>
+      </c>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="18"/>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="17"/>
+    </row>
+    <row r="24" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
@@ -5757,289 +6501,323 @@
         <v>749</v>
       </c>
       <c r="J24" s="3">
+        <v>490</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3">
         <v>409</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>504</v>
       </c>
-      <c r="L24" s="24">
+      <c r="O24" s="24">
         <v>504</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="Q24" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="O24" s="18">
+      <c r="R24" s="18">
         <v>280</v>
       </c>
-      <c r="P24" s="18">
+      <c r="S24" s="18">
         <v>1370</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="T24" s="18">
         <v>1242</v>
       </c>
-      <c r="R24" s="20">
+      <c r="U24" s="20">
         <v>1748</v>
       </c>
-      <c r="S24" s="18">
+      <c r="V24" s="18">
         <f>AVERAGE(3980,4416,3964)</f>
         <v>4120</v>
       </c>
-      <c r="T24" s="18">
+      <c r="W24" s="18">
         <f>AVERAGE(5647,5689,5398)</f>
         <v>5578</v>
       </c>
-      <c r="U24" s="18">
+      <c r="X24" s="18">
         <f>AVERAGE(7825)</f>
         <v>7825</v>
       </c>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="17"/>
-      <c r="Z24" s="18" t="s">
+      <c r="Y24" s="25">
+        <v>1356</v>
+      </c>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="17"/>
+      <c r="AF24" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AA24" s="18">
+      <c r="AG24" s="18">
         <v>112</v>
       </c>
-      <c r="AB24" s="18">
+      <c r="AH24" s="18">
         <v>1875.65</v>
       </c>
-      <c r="AC24" s="18">
+      <c r="AI24" s="18">
         <v>2155.5100000000002</v>
       </c>
-      <c r="AD24" s="20">
+      <c r="AJ24" s="20">
         <v>2316.31</v>
       </c>
-      <c r="AE24" s="18">
+      <c r="AK24" s="18">
         <f>AVERAGE(4154.65,3907.26,4018.22)</f>
         <v>4026.7099999999996</v>
       </c>
-      <c r="AF24" s="18">
+      <c r="AL24" s="18">
         <f>AVERAGE(5629.55,5861.67,5842.27)</f>
         <v>5777.8300000000008</v>
       </c>
-      <c r="AG24" s="18">
+      <c r="AM24" s="18">
         <f>AVERAGE(8243.58,8223.48,8602.1)</f>
         <v>8356.3866666666654</v>
       </c>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-    </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="K25" s="2"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="AN24" s="25">
+        <v>1803.89</v>
+      </c>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="18"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
+    </row>
+    <row r="25" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="N25" s="2"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="2"/>
-      <c r="Z25" s="3" t="s">
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AF25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AG25" s="3">
         <v>8</v>
       </c>
-      <c r="AB25" s="3">
+      <c r="AH25" s="3">
         <v>1981.71</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AI25" s="3">
         <v>1981.15</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AJ25" s="3">
         <v>2471.14</v>
       </c>
-      <c r="AE25" s="14">
+      <c r="AK25" s="14">
         <v>1981.71</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AL25" s="3">
         <f>AVERAGE(2101.87,2264.54,1760.9)</f>
         <v>2042.4366666666665</v>
       </c>
-      <c r="AG25" s="3">
+      <c r="AM25" s="3">
         <f>AVERAGE(2147.38,2193.28,2001.4)</f>
         <v>2114.02</v>
       </c>
-      <c r="AH25" s="3">
+      <c r="AN25" s="3">
+        <v>1981.71</v>
+      </c>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3">
         <v>1505.95</v>
       </c>
-      <c r="AI25" s="24">
+      <c r="AR25" s="24">
         <v>1685</v>
       </c>
-      <c r="AJ25" s="24">
+      <c r="AS25" s="24">
         <v>1685</v>
       </c>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B26" s="28" t="s">
+    <row r="26" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B26" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="10"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="N26" s="2"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="2"/>
-      <c r="Z26" s="3" t="s">
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AF26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AG26" s="3">
         <v>11</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AH26" s="3">
         <v>2086.59</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AI26" s="3">
         <v>2006.03</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AJ26" s="3">
         <v>2729.39</v>
       </c>
-      <c r="AE26" s="14">
+      <c r="AK26" s="14">
         <v>2086.59</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AL26" s="3">
         <f>AVERAGE(2164.26,3200.72,2791.14)</f>
         <v>2718.7066666666665</v>
       </c>
-      <c r="AG26" s="3">
+      <c r="AM26" s="3">
         <f>AVERAGE(2960.13,2523.79,3064.61)</f>
         <v>2849.51</v>
       </c>
-      <c r="AH26" s="3">
+      <c r="AN26" s="3">
+        <v>2062.92</v>
+      </c>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3">
         <v>1647.33</v>
       </c>
-      <c r="AI26" s="24">
+      <c r="AR26" s="24">
         <v>1902</v>
       </c>
-      <c r="AJ26" s="24">
+      <c r="AS26" s="24">
         <v>1902</v>
       </c>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
+    <row r="27" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B27" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="35"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="26"/>
+      <c r="N27" s="2"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="2"/>
+      <c r="U27" s="7"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
-    </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="35"/>
-    </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+    </row>
+    <row r="28" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="21"/>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+    <row r="30" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+    <row r="31" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="21"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+    <row r="32" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AB1:AJ1"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="AH1:AS1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="D1:O1"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E28"/>
     <mergeCell ref="B29:E33"/>
@@ -6061,10 +6839,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AJ38"/>
+  <dimension ref="B1:AS38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AD27" sqref="AD27"/>
+    <sheetView tabSelected="1" topLeftCell="AE2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN20" sqref="AN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6074,75 +6852,87 @@
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.28515625" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="12.28515625" customWidth="1"/>
+    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.28515625" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="12.28515625" customWidth="1"/>
+    <col min="44" max="44" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="S1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18" t="s">
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AH1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-    </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+    </row>
+    <row r="2" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6167,83 +6957,110 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="O2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="S2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="T2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="U2" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="W2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="Y2" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="AC2" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="AD2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="AF2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AG2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AH2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AI2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AJ2" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="AK2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AF2" s="18" t="s">
+      <c r="AL2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AM2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AH2" s="18" t="s">
+      <c r="AN2" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO2" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP2" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" s="19" t="s">
+      <c r="AR2" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AJ2" s="19" t="s">
+      <c r="AS2" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -6271,83 +7088,98 @@
         <f>AVERAGE(12579.96,13108.39,12230.54)</f>
         <v>12639.63</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18">
+      <c r="J3" s="25">
+        <v>2071.5700000000002</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18">
         <v>2066</v>
       </c>
-      <c r="L3" s="17">
+      <c r="O3" s="17">
         <v>2094</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="1">
+      <c r="R3" s="1">
         <v>36</v>
       </c>
-      <c r="P3" s="18">
+      <c r="S3" s="18">
         <v>3478</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="T3" s="18">
         <v>3475</v>
       </c>
-      <c r="R3" s="20">
+      <c r="U3" s="20">
         <v>4542</v>
       </c>
-      <c r="S3" s="18">
+      <c r="V3" s="18">
         <f>AVERAGE(4113,4382,3925)</f>
         <v>4140</v>
       </c>
-      <c r="T3" s="18">
+      <c r="W3" s="18">
         <f>AVERAGE(5758,6187,5901)</f>
         <v>5948.666666666667</v>
       </c>
-      <c r="U3" s="18">
+      <c r="X3" s="18">
         <f>AVERAGE(8514,8579,9582)</f>
         <v>8891.6666666666661</v>
       </c>
-      <c r="V3" s="18"/>
-      <c r="W3" s="17">
+      <c r="Y3" s="25">
+        <v>3456</v>
+      </c>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="17">
         <v>3104</v>
       </c>
-      <c r="X3" s="17">
+      <c r="AD3" s="17">
         <v>3104</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="AF3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="18">
+      <c r="AG3" s="18">
         <v>57</v>
       </c>
-      <c r="AB3" s="18">
+      <c r="AH3" s="18">
         <v>63830.12</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AI3" s="18">
         <v>69764.62</v>
       </c>
-      <c r="AD3" s="20">
+      <c r="AJ3" s="20">
         <v>92496.2</v>
       </c>
-      <c r="AE3" s="18">
+      <c r="AK3" s="18">
         <f>AVERAGE(117447.11,116929.81,134420.93)</f>
         <v>122932.61666666665</v>
       </c>
-      <c r="AF3" s="18">
+      <c r="AL3" s="18">
         <f>AVERAGE(163025.64,173319.76,161225.34)</f>
         <v>165856.91333333333</v>
       </c>
-      <c r="AG3" s="18">
+      <c r="AM3" s="18">
         <f>AVERAGE(231407.65,210640.9,231124.13)</f>
         <v>224390.89333333331</v>
       </c>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="17">
+      <c r="AN3" s="25">
+        <v>63830.12</v>
+      </c>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="17">
         <v>64142</v>
       </c>
-      <c r="AJ3" s="17">
+      <c r="AS3" s="17">
         <v>64918</v>
       </c>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -6369,79 +7201,92 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17"/>
-      <c r="N4" s="1" t="s">
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="17"/>
+      <c r="Q4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="1">
+      <c r="R4" s="1">
         <v>72</v>
       </c>
-      <c r="P4" s="18">
+      <c r="S4" s="18">
         <v>41093.300000000003</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="T4" s="18">
         <v>38395.919999999998</v>
       </c>
-      <c r="R4" s="20">
+      <c r="U4" s="20">
         <v>52593.8</v>
       </c>
-      <c r="S4" s="18">
+      <c r="V4" s="18">
         <f>AVERAGE(71504.94,77227.03,67640)</f>
         <v>72123.990000000005</v>
       </c>
-      <c r="T4" s="18">
+      <c r="W4" s="18">
         <f>AVERAGE(106653.62,102932.99,108946.04)</f>
         <v>106177.54999999999</v>
       </c>
-      <c r="U4" s="18">
+      <c r="X4" s="18">
         <f>AVERAGE(157132.11,152398.44,143124.67)</f>
         <v>150885.07333333333</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="17">
+      <c r="Y4" s="25">
+        <v>40637.25</v>
+      </c>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="17">
         <v>31437</v>
       </c>
-      <c r="X4" s="17">
+      <c r="AD4" s="17">
         <v>31095</v>
       </c>
-      <c r="Z4" s="18" t="s">
+      <c r="AF4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AG4" s="18">
         <v>80</v>
       </c>
-      <c r="AB4" s="18">
+      <c r="AH4" s="18">
         <v>33252.04</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AI4" s="18">
         <v>32109.37</v>
       </c>
-      <c r="AD4" s="20">
+      <c r="AJ4" s="20">
         <v>48668.9</v>
       </c>
-      <c r="AE4" s="18">
+      <c r="AK4" s="18">
         <f>AVERAGE(72879.96,64236.39,61493.96)</f>
         <v>66203.436666666661</v>
       </c>
-      <c r="AF4" s="18">
+      <c r="AL4" s="18">
         <f>AVERAGE(89723.02,84184.01,91378.26)</f>
         <v>88428.43</v>
       </c>
-      <c r="AG4" s="18">
+      <c r="AM4" s="18">
         <f>AVERAGE(165224.48,131981.08,142110.87)</f>
         <v>146438.81</v>
       </c>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="17">
+      <c r="AN4" s="25">
+        <v>32157.040000000001</v>
+      </c>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="17">
         <v>36468</v>
       </c>
-      <c r="AJ4" s="17">
+      <c r="AS4" s="17">
         <v>37605</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -6469,77 +7314,92 @@
         <f>AVERAGE(18314,18811,18355)</f>
         <v>18493.333333333332</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="3">
+        <v>6962</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="24"/>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" s="24"/>
+      <c r="Q5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="1">
+      <c r="R5" s="1">
         <v>90</v>
       </c>
-      <c r="P5" s="18">
+      <c r="S5" s="18">
         <v>4749</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="T5" s="18">
         <v>4888</v>
       </c>
-      <c r="R5" s="20">
+      <c r="U5" s="20">
         <v>6524</v>
       </c>
-      <c r="S5" s="18">
+      <c r="V5" s="18">
         <f>AVERAGE(8377,8984,9359)</f>
         <v>8906.6666666666661</v>
       </c>
-      <c r="T5" s="18">
+      <c r="W5" s="18">
         <f>AVERAGE(13253,12362,12569)</f>
         <v>12728</v>
       </c>
-      <c r="U5" s="18">
+      <c r="X5" s="18">
         <f>AVERAGE(20146,16997,18839)</f>
         <v>18660.666666666668</v>
       </c>
-      <c r="V5" s="18"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Z5" s="18" t="s">
+      <c r="Y5" s="25">
+        <v>4673</v>
+      </c>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AF5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AA5" s="18">
+      <c r="AG5" s="18">
         <v>93</v>
       </c>
-      <c r="AB5" s="18">
+      <c r="AH5" s="18">
         <v>40795.86</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AI5" s="18">
         <v>41639.79</v>
       </c>
-      <c r="AD5" s="20">
+      <c r="AJ5" s="20">
         <v>74199.789999999994</v>
       </c>
-      <c r="AE5" s="18">
+      <c r="AK5" s="18">
         <f>AVERAGE(93776.89,96997.87,89510.79)</f>
         <v>93428.516666666663</v>
       </c>
-      <c r="AF5" s="18">
+      <c r="AL5" s="18">
         <f>AVERAGE(149341.73,141017.62,142122.68)</f>
         <v>144160.67666666667</v>
       </c>
-      <c r="AG5" s="18">
+      <c r="AM5" s="18">
         <f>AVERAGE(260615.53,258111.07,253198.06)</f>
         <v>257308.21999999997</v>
       </c>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="17">
+      <c r="AN5" s="25">
+        <v>38002.1</v>
+      </c>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="17">
         <v>39174</v>
       </c>
-      <c r="AJ5" s="17">
+      <c r="AS5" s="17">
         <v>39174</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -6567,73 +7427,86 @@
         <f>AVERAGE(171873,180273)</f>
         <v>176073</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="17"/>
-      <c r="N6" s="1" t="s">
+      <c r="J6" s="25">
+        <v>22861</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="17"/>
+      <c r="Q6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="1">
+      <c r="R6" s="1">
         <v>102</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="18">
-        <f t="shared" ref="S6:S10" si="2">AVERAGE(1)</f>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="18">
+        <f t="shared" ref="V6:V10" si="2">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="T6" s="18">
-        <f t="shared" ref="T6:U10" si="3">AVERAGE(1)</f>
+      <c r="W6" s="18">
+        <f t="shared" ref="W6:X10" si="3">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="U6" s="18">
+      <c r="X6" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V6" s="18"/>
-      <c r="W6" s="17">
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="17">
         <v>43912</v>
       </c>
-      <c r="X6" s="17">
+      <c r="AD6" s="17">
         <v>48623</v>
       </c>
-      <c r="Z6" s="18" t="s">
+      <c r="AF6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AA6" s="18">
+      <c r="AG6" s="18">
         <v>102</v>
       </c>
-      <c r="AB6" s="18">
+      <c r="AH6" s="18">
         <v>84256.72</v>
       </c>
-      <c r="AC6" s="18">
+      <c r="AI6" s="18">
         <v>81838.740000000005</v>
       </c>
-      <c r="AD6" s="20">
+      <c r="AJ6" s="20">
         <v>115414.18</v>
       </c>
-      <c r="AE6" s="18">
+      <c r="AK6" s="18">
         <f>AVERAGE(132266.71,133094,25,136977.14)</f>
         <v>100590.71249999999</v>
       </c>
-      <c r="AF6" s="18">
+      <c r="AL6" s="18">
         <f>AVERAGE(214591.88,211267.39,204427.9)</f>
         <v>210095.72333333336</v>
       </c>
-      <c r="AG6" s="18">
+      <c r="AM6" s="18">
         <f>AVERAGE(313120.47,316139.42,298893.52)</f>
         <v>309384.46999999997</v>
       </c>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="17">
+      <c r="AN6" s="25">
+        <v>83744.61</v>
+      </c>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="17">
         <v>69690</v>
       </c>
-      <c r="AJ6" s="17">
+      <c r="AS6" s="17">
         <v>70790</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -6660,79 +7533,92 @@
         <f>AVERAGE(2039,2101,1743)</f>
         <v>1961</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="3">
+        <v>1035</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="3">
+      <c r="N7" s="3">
         <v>999</v>
       </c>
-      <c r="L7" s="24">
+      <c r="O7" s="24">
         <v>999</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="1">
+      <c r="R7" s="1">
         <v>151</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="18">
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T7" s="18">
+      <c r="W7" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U7" s="18">
+      <c r="X7" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V7" s="18"/>
-      <c r="W7" s="17">
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="17">
         <v>21563</v>
       </c>
-      <c r="X7" s="17">
+      <c r="AD7" s="17">
         <v>21954</v>
       </c>
-      <c r="Z7" s="18" t="s">
+      <c r="AF7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="AA7" s="18">
+      <c r="AG7" s="18">
         <v>108</v>
       </c>
-      <c r="AB7" s="18">
+      <c r="AH7" s="18">
         <v>41326.949999999997</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AI7" s="18">
         <v>43036.45</v>
       </c>
-      <c r="AD7" s="20">
+      <c r="AJ7" s="20">
         <v>65018.06</v>
       </c>
-      <c r="AE7" s="18">
+      <c r="AK7" s="18">
         <f>AVERAGE(113604.96,122890.51,110266.69)</f>
         <v>115587.38666666667</v>
       </c>
-      <c r="AF7" s="18">
+      <c r="AL7" s="18">
         <f>AVERAGE(187735.77,199526.57,181847.76)</f>
         <v>189703.36666666667</v>
       </c>
-      <c r="AG7" s="18">
+      <c r="AM7" s="18">
         <f>AVERAGE(298415.55,292635.24,309534.92)</f>
         <v>300195.23666666663</v>
       </c>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="17">
+      <c r="AN7" s="25">
+        <v>41096.15</v>
+      </c>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="17">
         <v>41452</v>
       </c>
-      <c r="AJ7" s="17">
+      <c r="AS7" s="17">
         <v>41703</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -6759,79 +7645,92 @@
         <f>AVERAGE(2241,2424,2318)</f>
         <v>2327.6666666666665</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="3">
+        <v>1218</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>1194</v>
       </c>
-      <c r="L8" s="24">
+      <c r="O8" s="24">
         <v>1194</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="1">
+      <c r="R8" s="1">
         <v>171</v>
       </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="18">
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T8" s="18">
+      <c r="W8" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U8" s="18">
+      <c r="X8" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V8" s="18"/>
-      <c r="W8" s="17">
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="17">
         <v>69201</v>
       </c>
-      <c r="X8" s="17">
+      <c r="AD8" s="17">
         <v>67848</v>
       </c>
-      <c r="Z8" s="18" t="s">
+      <c r="AF8" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AA8" s="18">
+      <c r="AG8" s="18">
         <v>114</v>
       </c>
-      <c r="AB8" s="18">
+      <c r="AH8" s="18">
         <v>51636.7</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="AI8" s="18">
         <v>52270.61</v>
       </c>
-      <c r="AD8" s="20">
+      <c r="AJ8" s="20">
         <v>90926.58</v>
       </c>
-      <c r="AE8" s="18">
+      <c r="AK8" s="18">
         <f>AVERAGE(150030.4,142468.98,133929.33)</f>
         <v>142142.90333333332</v>
       </c>
-      <c r="AF8" s="18">
+      <c r="AL8" s="18">
         <f>AVERAGE(222464.27,214131.8,208836.57)</f>
         <v>215144.21333333329</v>
       </c>
-      <c r="AG8" s="18">
+      <c r="AM8" s="18">
         <f>AVERAGE(389303.09,363304.45,366739.51)</f>
         <v>373115.68333333335</v>
       </c>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="17">
+      <c r="AN8" s="25">
+        <v>49580.44</v>
+      </c>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="17">
         <v>57431</v>
       </c>
-      <c r="AJ8" s="17">
+      <c r="AS8" s="17">
         <v>52393</v>
       </c>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -6859,75 +7758,88 @@
         <f>AVERAGE(12974.41,11777.55,11022.59)</f>
         <v>11924.85</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
+        <v>4246.84</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5">
         <v>7619.8989577796901</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>4174</v>
       </c>
-      <c r="L9" s="24">
+      <c r="O9" s="24">
         <v>4174</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="1">
+      <c r="R9" s="1">
         <v>323</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="18">
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T9" s="18">
+      <c r="W9" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U9" s="18">
+      <c r="X9" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V9" s="18"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Z9" s="18" t="s">
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AF9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AA9" s="18">
+      <c r="AG9" s="18">
         <v>169</v>
       </c>
-      <c r="AB9" s="18">
+      <c r="AH9" s="18">
         <v>67272.25</v>
       </c>
-      <c r="AC9" s="18">
+      <c r="AI9" s="18">
         <v>71036.73</v>
       </c>
-      <c r="AD9" s="20">
+      <c r="AJ9" s="20">
         <v>111073.35</v>
       </c>
-      <c r="AE9" s="18">
+      <c r="AK9" s="18">
         <f>AVERAGE(178097.34,176328.93,180314.66)</f>
         <v>178246.97666666668</v>
       </c>
-      <c r="AF9" s="18">
+      <c r="AL9" s="18">
         <f>AVERAGE(350581.44,357429.61,309027.66)</f>
         <v>339012.90333333332</v>
       </c>
-      <c r="AG9" s="18">
+      <c r="AM9" s="18">
         <f>AVERAGE(581297.93,577214.26,614941.59)</f>
         <v>591151.25999999989</v>
       </c>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="17">
+      <c r="AN9" s="25">
+        <v>64612.26</v>
+      </c>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="17">
         <v>47516</v>
       </c>
-      <c r="AJ9" s="17">
+      <c r="AS9" s="17">
         <v>49198</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -6955,69 +7867,82 @@
         <f>AVERAGE(243168.64,219081.66,215888.04)</f>
         <v>226046.11333333337</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18">
+      <c r="J10" s="25">
+        <v>55846.91</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18">
         <v>50324</v>
       </c>
-      <c r="L10" s="17">
+      <c r="O10" s="17">
         <v>50764</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="1">
+      <c r="R10" s="1">
         <v>499</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="18">
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T10" s="18">
+      <c r="W10" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U10" s="18">
+      <c r="X10" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V10" s="18"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Z10" s="18" t="s">
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AF10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="AA10" s="18">
+      <c r="AG10" s="18">
         <v>198</v>
       </c>
-      <c r="AB10" s="18">
+      <c r="AH10" s="18">
         <v>36877.03</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="AI10" s="18">
         <v>35720.79</v>
       </c>
-      <c r="AD10" s="20">
+      <c r="AJ10" s="20">
         <v>61890.51</v>
       </c>
-      <c r="AE10" s="18">
+      <c r="AK10" s="18">
         <f>AVERAGE(119999.79,117003.94,106132.19)</f>
         <v>114378.64</v>
       </c>
-      <c r="AF10" s="18">
+      <c r="AL10" s="18">
         <f>AVERAGE(170213.44,143980.5,163685.95)</f>
         <v>159293.29666666666</v>
       </c>
-      <c r="AG10" s="18">
+      <c r="AM10" s="18">
         <f>AVERAGE(306524.32,286757.21,275274.66)</f>
         <v>289518.73</v>
       </c>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-    </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN10" s="25">
+        <v>36678.97</v>
+      </c>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+    </row>
+    <row r="11" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -7045,75 +7970,90 @@
         <f>AVERAGE(42471,45169,34305)</f>
         <v>40648.333333333336</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="17"/>
-      <c r="N11" s="1" t="s">
+      <c r="J11" s="25">
+        <v>13127</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="17"/>
+      <c r="Q11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O11" s="1">
+      <c r="R11" s="1">
         <v>36</v>
       </c>
-      <c r="P11" s="18">
+      <c r="S11" s="18">
         <v>8651</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="T11" s="18">
         <v>7988</v>
       </c>
-      <c r="R11" s="20">
+      <c r="U11" s="20">
         <v>10562</v>
       </c>
-      <c r="S11" s="18">
+      <c r="V11" s="18">
         <f>AVERAGE(8745,12149,9449)</f>
         <v>10114.333333333334</v>
       </c>
-      <c r="T11" s="18">
+      <c r="W11" s="18">
         <f>AVERAGE(12541,14158,13224)</f>
         <v>13307.666666666666</v>
       </c>
-      <c r="U11" s="18">
+      <c r="X11" s="18">
         <f>AVERAGE(21571,19009,20749)</f>
         <v>20443</v>
       </c>
-      <c r="V11" s="18"/>
-      <c r="W11" s="17">
+      <c r="Y11" s="25">
+        <v>8459</v>
+      </c>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="17">
         <v>7278</v>
       </c>
-      <c r="X11" s="17">
+      <c r="AD11" s="17">
         <v>7278</v>
       </c>
-      <c r="Z11" s="18" t="s">
+      <c r="AF11" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AA11" s="18">
+      <c r="AG11" s="18">
         <v>224</v>
       </c>
-      <c r="AB11" s="18">
+      <c r="AH11" s="18">
         <v>38943.230000000003</v>
       </c>
-      <c r="AC11" s="18">
+      <c r="AI11" s="18">
         <v>40552.269999999997</v>
       </c>
-      <c r="AD11" s="20">
+      <c r="AJ11" s="20">
         <v>49097.59</v>
       </c>
-      <c r="AE11" s="18">
+      <c r="AK11" s="18">
         <f>AVERAGE(121048.8,115030.75,104405.22)</f>
         <v>113494.92333333334</v>
       </c>
-      <c r="AF11" s="18">
+      <c r="AL11" s="18">
         <f>AVERAGE(167530.93,170905.23,161324.14)</f>
         <v>166586.76666666669</v>
       </c>
-      <c r="AG11" s="18">
+      <c r="AM11" s="18">
         <f>AVERAGE(259588.85,265952.01,259413.77)</f>
         <v>261651.54333333333</v>
       </c>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-    </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN11" s="25">
+        <v>37664.620000000003</v>
+      </c>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="17"/>
+    </row>
+    <row r="12" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -7141,75 +8081,90 @@
         <f>AVERAGE(335850,316390,345760)</f>
         <v>332666.66666666669</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17"/>
-      <c r="N12" s="1" t="s">
+      <c r="J12" s="25">
+        <v>9360</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="17"/>
+      <c r="Q12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="1">
+      <c r="R12" s="1">
         <v>75</v>
       </c>
-      <c r="P12" s="18">
+      <c r="S12" s="18">
         <v>19476.54</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="T12" s="18">
         <v>17516.66</v>
       </c>
-      <c r="R12" s="20">
+      <c r="U12" s="20">
         <v>22857.56</v>
       </c>
-      <c r="S12" s="18">
+      <c r="V12" s="18">
         <f>AVERAGE(27525.22,27247,27153.45)</f>
         <v>27308.556666666667</v>
       </c>
-      <c r="T12" s="18">
+      <c r="W12" s="18">
         <f>AVERAGE(45516.62,42411,43956.76)</f>
         <v>43961.46</v>
       </c>
-      <c r="U12" s="18">
+      <c r="X12" s="18">
         <f>AVERAGE(61934.81,58688.49,64762.94)</f>
         <v>61795.41333333333</v>
       </c>
-      <c r="V12" s="18"/>
-      <c r="W12" s="17">
+      <c r="Y12" s="25">
+        <v>17585.830000000002</v>
+      </c>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="17">
         <v>14492</v>
       </c>
-      <c r="X12" s="17">
+      <c r="AD12" s="17">
         <v>14492</v>
       </c>
-      <c r="Z12" s="18" t="s">
+      <c r="AF12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AA12" s="18">
+      <c r="AG12" s="18">
         <v>329</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AH12" s="18">
         <v>66131.56</v>
       </c>
-      <c r="AC12" s="18">
+      <c r="AI12" s="18">
         <v>70952.95</v>
       </c>
-      <c r="AD12" s="20">
+      <c r="AJ12" s="20">
         <v>112296.69</v>
       </c>
-      <c r="AE12" s="18">
+      <c r="AK12" s="18">
         <f>AVERAGE(274261.1,263443.34,271059.75)</f>
         <v>269588.0633333333</v>
       </c>
-      <c r="AF12" s="18">
+      <c r="AL12" s="18">
         <f>AVERAGE(417570.76,430602.38,420066.24)</f>
         <v>422746.45999999996</v>
       </c>
-      <c r="AG12" s="18">
+      <c r="AM12" s="18">
         <f>AVERAGE(659669.88,677643.97,713537.73)</f>
         <v>683617.19333333336</v>
       </c>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-    </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN12" s="25">
+        <v>65334.95</v>
+      </c>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="17"/>
+      <c r="AS12" s="17"/>
+    </row>
+    <row r="13" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -7236,88 +8191,103 @@
         <v>2625.5499999999997</v>
       </c>
       <c r="J13" s="3">
+        <v>1943.98</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
         <v>1690.16</v>
       </c>
-      <c r="K13" s="3">
+      <c r="N13" s="3">
         <v>1642</v>
       </c>
-      <c r="L13" s="24">
+      <c r="O13" s="24">
         <v>1575</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="1">
+      <c r="R13" s="1">
         <v>112</v>
       </c>
-      <c r="P13" s="18">
+      <c r="S13" s="18">
         <v>22938.36</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="T13" s="18">
         <v>21753.58</v>
       </c>
-      <c r="R13" s="20">
+      <c r="U13" s="20">
         <v>27558.11</v>
       </c>
-      <c r="S13" s="18">
+      <c r="V13" s="18">
         <f>AVERAGE(45731.91,39676.2,42516.11)</f>
         <v>42641.406666666669</v>
       </c>
-      <c r="T13" s="18">
+      <c r="W13" s="18">
         <f>AVERAGE(58598.48,64748.09,61421.73)</f>
         <v>61589.433333333342</v>
       </c>
-      <c r="U13" s="18">
+      <c r="X13" s="18">
         <f>AVERAGE(89260.26,85241.59,94124.75)</f>
         <v>89542.2</v>
       </c>
-      <c r="V13" s="18"/>
-      <c r="W13" s="17">
+      <c r="Y13" s="25">
+        <v>22681.11</v>
+      </c>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="17">
         <v>18210</v>
       </c>
-      <c r="X13" s="17">
+      <c r="AD13" s="17">
         <v>18295</v>
       </c>
-      <c r="Z13" s="18" t="s">
+      <c r="AF13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AA13" s="18">
+      <c r="AG13" s="18">
         <v>751</v>
       </c>
-      <c r="AB13" s="18">
+      <c r="AH13" s="18">
         <v>209167.52</v>
       </c>
-      <c r="AC13" s="18">
+      <c r="AI13" s="18">
         <v>218655.55</v>
       </c>
-      <c r="AD13" s="20">
+      <c r="AJ13" s="20">
         <v>288086.71999999997</v>
       </c>
-      <c r="AE13" s="18">
+      <c r="AK13" s="18">
         <f>AVERAGE(1044777.76,1050611.75,1058082.78)</f>
         <v>1051157.43</v>
       </c>
-      <c r="AF13" s="18">
+      <c r="AL13" s="18">
         <f>AVERAGE(1539456.21)</f>
         <v>1539456.21</v>
       </c>
-      <c r="AG13" s="18">
+      <c r="AM13" s="18">
         <f>AVERAGE(2445090.61)</f>
         <v>2445090.61</v>
       </c>
-      <c r="AH13" s="18"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-    </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN13" s="25">
+        <v>205376.77</v>
+      </c>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17"/>
+    </row>
+    <row r="14" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1">
         <v>97</v>
       </c>
-      <c r="D14" s="18">
-        <v>4148.87</v>
+      <c r="D14" s="12">
+        <v>4184.87</v>
       </c>
       <c r="E14" s="18">
         <v>4786.0600000000004</v>
@@ -7337,83 +8307,98 @@
         <f>AVERAGE(18204.79,18067.5,18316.84)</f>
         <v>18196.376666666667</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18">
+      <c r="J14" s="25">
+        <v>4152.75</v>
+      </c>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18">
         <v>3907</v>
       </c>
-      <c r="L14" s="17">
+      <c r="O14" s="17">
         <v>4158</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="1">
+      <c r="R14" s="1">
         <v>150</v>
       </c>
-      <c r="P14" s="18">
+      <c r="S14" s="18">
         <v>21433.16</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="T14" s="18">
         <v>24404.94</v>
       </c>
-      <c r="R14" s="20">
+      <c r="U14" s="20">
         <v>34218.199999999997</v>
       </c>
-      <c r="S14" s="18">
+      <c r="V14" s="18">
         <f>AVERAGE(50639.03,52773.37,53019.09)</f>
         <v>52143.829999999994</v>
       </c>
-      <c r="T14" s="18">
+      <c r="W14" s="18">
         <f>AVERAGE(76395.39,78782.09,77629.81)</f>
         <v>77602.429999999993</v>
       </c>
-      <c r="U14" s="18">
+      <c r="X14" s="18">
         <f>AVERAGE(120482.97,127877.85,125025.01)</f>
         <v>124461.94333333334</v>
       </c>
-      <c r="V14" s="18"/>
-      <c r="W14" s="17">
+      <c r="Y14" s="25">
+        <v>20952.57</v>
+      </c>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="17">
         <v>20723</v>
       </c>
-      <c r="X14" s="17">
+      <c r="AD14" s="17">
         <v>20135</v>
       </c>
-      <c r="Z14" s="18" t="s">
+      <c r="AF14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AA14" s="18">
+      <c r="AG14" s="18">
         <v>74</v>
       </c>
-      <c r="AB14" s="18">
+      <c r="AH14" s="18">
         <v>925.25</v>
       </c>
-      <c r="AC14" s="18">
+      <c r="AI14" s="18">
         <v>1047.43</v>
       </c>
-      <c r="AD14" s="20">
+      <c r="AJ14" s="20">
         <v>1276</v>
       </c>
-      <c r="AE14" s="18">
+      <c r="AK14" s="18">
         <f>AVERAGE(1580.3,1556.26,1531.77)</f>
         <v>1556.11</v>
       </c>
-      <c r="AF14" s="18">
+      <c r="AL14" s="18">
         <f>AVERAGE(2027.98,2217.78,2058.83)</f>
         <v>2101.5300000000002</v>
       </c>
-      <c r="AG14" s="18">
+      <c r="AM14" s="18">
         <f>AVERAGE(2885.77,2913.33,2689.71)</f>
         <v>2829.6033333333339</v>
       </c>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="17">
+      <c r="AN14" s="27">
+        <v>900.63</v>
+      </c>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="18"/>
+      <c r="AR14" s="17">
         <v>861</v>
       </c>
-      <c r="AJ14" s="17">
+      <c r="AS14" s="17">
         <v>870</v>
       </c>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
@@ -7441,83 +8426,98 @@
         <f>AVERAGE(21598.37,19957.54,22687.24)</f>
         <v>21414.383333333335</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18">
+      <c r="J15" s="25">
+        <v>4898.32</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18">
         <v>4499</v>
       </c>
-      <c r="L15" s="17">
+      <c r="O15" s="17">
         <v>4720</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="1">
+      <c r="R15" s="1">
         <v>75</v>
       </c>
-      <c r="P15" s="18">
+      <c r="S15" s="18">
         <v>17465.62</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="T15" s="18">
         <v>18768.060000000001</v>
       </c>
-      <c r="R15" s="20">
+      <c r="U15" s="20">
         <v>24412.98</v>
       </c>
-      <c r="S15" s="18">
+      <c r="V15" s="18">
         <f>AVERAGE(30281.7,28948.48,27864.93)</f>
         <v>29031.703333333335</v>
       </c>
-      <c r="T15" s="18">
+      <c r="W15" s="18">
         <f>AVERAGE(44501.41,42232.29,42586.87)</f>
         <v>43106.856666666667</v>
       </c>
-      <c r="U15" s="18">
+      <c r="X15" s="18">
         <f>AVERAGE(60141.52,67201.92,60065.23)</f>
         <v>62469.556666666671</v>
       </c>
-      <c r="V15" s="18"/>
-      <c r="W15" s="17">
+      <c r="Y15" s="25">
+        <v>17195.84</v>
+      </c>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="17">
         <v>14744</v>
       </c>
-      <c r="X15" s="17">
+      <c r="AD15" s="17">
         <v>14744</v>
       </c>
-      <c r="Z15" s="18" t="s">
+      <c r="AF15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AA15" s="18">
+      <c r="AG15" s="18">
         <v>146</v>
       </c>
-      <c r="AB15" s="18">
+      <c r="AH15" s="18">
         <v>1695.61</v>
       </c>
-      <c r="AC15" s="18">
+      <c r="AI15" s="18">
         <v>1944.15</v>
       </c>
-      <c r="AD15" s="20">
+      <c r="AJ15" s="20">
         <v>2468.79</v>
       </c>
-      <c r="AE15" s="18">
+      <c r="AK15" s="18">
         <f>AVERAGE(4322.14,3865.43,4106.19)</f>
         <v>4097.9199999999992</v>
       </c>
-      <c r="AF15" s="18">
+      <c r="AL15" s="18">
         <f>AVERAGE(5557.8,5273.78,5536.67)</f>
         <v>5456.083333333333</v>
       </c>
-      <c r="AG15" s="18">
+      <c r="AM15" s="18">
         <f>AVERAGE(8521.71,8657.58,8360.26)</f>
         <v>8513.1833333333343</v>
       </c>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="17">
+      <c r="AN15" s="25">
+        <v>1695.61</v>
+      </c>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="18"/>
+      <c r="AR15" s="17">
         <v>1753</v>
       </c>
-      <c r="AJ15" s="17">
+      <c r="AS15" s="17">
         <v>1713</v>
       </c>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
@@ -7545,79 +8545,94 @@
         <f>AVERAGE(1154,1101,855)</f>
         <v>1036.6666666666667</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3">
+      <c r="J16" s="3">
+        <v>486</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3">
         <v>427</v>
       </c>
-      <c r="L16" s="24">
+      <c r="O16" s="24">
         <v>427</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="1">
+      <c r="R16" s="1">
         <v>112</v>
       </c>
-      <c r="P16" s="18">
+      <c r="S16" s="18">
         <v>17814.47</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="T16" s="18">
         <v>20307.55</v>
       </c>
-      <c r="R16" s="20">
+      <c r="U16" s="20">
         <v>27481.71</v>
       </c>
-      <c r="S16" s="18">
+      <c r="V16" s="18">
         <f>AVERAGE(39494.51,43021.33,43619.02)</f>
         <v>42044.953333333331</v>
       </c>
-      <c r="T16" s="18">
+      <c r="W16" s="18">
         <f>AVERAGE(55705.58,56846.77,62861.81)</f>
         <v>58471.386666666665</v>
       </c>
-      <c r="U16" s="18">
+      <c r="X16" s="18">
         <f>AVERAGE(86487.19,83523.69,93097.67)</f>
         <v>87702.849999999991</v>
       </c>
-      <c r="V16" s="18"/>
-      <c r="W16" s="17">
+      <c r="Y16" s="25">
+        <v>17422.93</v>
+      </c>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="17">
         <v>17501</v>
       </c>
-      <c r="X16" s="17">
+      <c r="AD16" s="17">
         <v>17349</v>
       </c>
-      <c r="Z16" s="18" t="s">
+      <c r="AF16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA16" s="18">
+      <c r="AG16" s="18">
         <v>431</v>
       </c>
-      <c r="AB16" s="18">
+      <c r="AH16" s="18">
         <v>5946.93</v>
       </c>
-      <c r="AC16" s="18">
+      <c r="AI16" s="18">
         <v>5694.36</v>
       </c>
-      <c r="AD16" s="20">
+      <c r="AJ16" s="20">
         <v>7538.39</v>
       </c>
-      <c r="AE16" s="18">
+      <c r="AK16" s="18">
         <f>AVERAGE(19012.37,18638.86,18931.57)</f>
         <v>18860.933333333331</v>
       </c>
-      <c r="AF16" s="18">
+      <c r="AL16" s="18">
         <f>AVERAGE(27418.94,27229.57,27137.69)</f>
         <v>27262.066666666666</v>
       </c>
-      <c r="AG16" s="18">
+      <c r="AM16" s="18">
         <f>AVERAGE(40546.4)</f>
         <v>40546.400000000001</v>
       </c>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-    </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN16" s="25">
+        <v>5770.28</v>
+      </c>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="18"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="17"/>
+    </row>
+    <row r="17" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -7646,80 +8661,95 @@
         <v>664.22666666666657</v>
       </c>
       <c r="J17" s="3">
+        <v>291.58999999999997</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
         <v>414.92</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>289</v>
       </c>
-      <c r="L17" s="24">
+      <c r="O17" s="24">
         <v>287</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="1">
+      <c r="R17" s="1">
         <v>150</v>
       </c>
-      <c r="P17" s="18">
+      <c r="S17" s="18">
         <v>24691.06</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="T17" s="18">
         <v>24802.49</v>
       </c>
-      <c r="R17" s="20">
+      <c r="U17" s="20">
         <v>33962.28</v>
       </c>
-      <c r="S17" s="18">
+      <c r="V17" s="18">
         <f>AVERAGE(57761.37,55503.47,57973.66)</f>
         <v>57079.5</v>
       </c>
-      <c r="T17" s="18">
+      <c r="W17" s="18">
         <f>AVERAGE(78824.48,82616.61,82014.72)</f>
         <v>81151.936666666661</v>
       </c>
-      <c r="U17" s="18">
+      <c r="X17" s="18">
         <f>AVERAGE(116751.06,116303.51,120225.98)</f>
         <v>117760.18333333333</v>
       </c>
-      <c r="V17" s="18"/>
-      <c r="W17" s="17">
+      <c r="Y17" s="25">
+        <v>24207.55</v>
+      </c>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="17">
         <v>20508</v>
       </c>
-      <c r="X17" s="17">
+      <c r="AD17" s="17">
         <v>21266</v>
       </c>
-      <c r="Z17" s="18" t="s">
+      <c r="AF17" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AA17" s="18">
+      <c r="AG17" s="18">
         <v>587</v>
       </c>
-      <c r="AB17" s="18">
+      <c r="AH17" s="18">
         <v>7364.99</v>
       </c>
-      <c r="AC17" s="18">
+      <c r="AI17" s="18">
         <v>7408.05</v>
       </c>
-      <c r="AD17" s="20">
+      <c r="AJ17" s="20">
         <v>10144.67</v>
       </c>
-      <c r="AE17" s="18">
+      <c r="AK17" s="18">
         <f>AVERAGE(29654.31,28805.35,29660.73)</f>
         <v>29373.463333333333</v>
       </c>
-      <c r="AF17" s="18">
+      <c r="AL17" s="18">
         <f>AVERAGE(42472.74,43217.07,42257.84)</f>
         <v>42649.216666666667</v>
       </c>
-      <c r="AG17" s="18">
+      <c r="AM17" s="18">
         <f>AVERAGE(65810.51)</f>
         <v>65810.509999999995</v>
       </c>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-    </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN17" s="25">
+        <v>7263.55</v>
+      </c>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="17"/>
+      <c r="AS17" s="17"/>
+    </row>
+    <row r="18" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -7747,79 +8777,94 @@
         <f>AVERAGE(960.07,1108.95,1019.51)</f>
         <v>1029.51</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18">
+      <c r="J18" s="25">
+        <v>353.56</v>
+      </c>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18">
         <v>336</v>
       </c>
-      <c r="L18" s="17">
+      <c r="O18" s="17">
         <v>336</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="1">
+      <c r="R18" s="1">
         <v>75</v>
       </c>
-      <c r="P18" s="18">
+      <c r="S18" s="18">
         <v>14926.51</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="T18" s="18">
         <v>18900.41</v>
       </c>
-      <c r="R18" s="20">
+      <c r="U18" s="20">
         <v>24087.26</v>
       </c>
-      <c r="S18" s="18">
+      <c r="V18" s="18">
         <f>AVERAGE(29654.14,29587.48,26846.83)</f>
         <v>28696.149999999998</v>
       </c>
-      <c r="T18" s="18">
+      <c r="W18" s="18">
         <f>AVERAGE(34790.23,43618.71,37235.06)</f>
         <v>38548</v>
       </c>
-      <c r="U18" s="18">
+      <c r="X18" s="18">
         <f>AVERAGE(62097.26,58155.65,68341.07)</f>
         <v>62864.66</v>
       </c>
-      <c r="V18" s="18"/>
-      <c r="W18" s="17">
+      <c r="Y18" s="25">
+        <v>14510</v>
+      </c>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="17">
         <v>14067</v>
       </c>
-      <c r="X18" s="17">
+      <c r="AD18" s="17">
         <v>14067</v>
       </c>
-      <c r="Z18" s="18" t="s">
+      <c r="AF18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AA18" s="18">
+      <c r="AG18" s="18">
         <v>131</v>
       </c>
-      <c r="AB18" s="18">
+      <c r="AH18" s="18">
         <v>16096</v>
       </c>
-      <c r="AC18" s="18">
+      <c r="AI18" s="18">
         <v>16373</v>
       </c>
-      <c r="AD18" s="20">
+      <c r="AJ18" s="20">
         <v>17756</v>
       </c>
-      <c r="AE18" s="18">
+      <c r="AK18" s="18">
         <f>AVERAGE(20712,20221,20516)</f>
         <v>20483</v>
       </c>
-      <c r="AF18" s="18">
+      <c r="AL18" s="18">
         <f>AVERAGE(24236,23919,23092)</f>
         <v>23749</v>
       </c>
-      <c r="AG18" s="18">
+      <c r="AM18" s="18">
         <f>AVERAGE(26899,27279,27487)</f>
         <v>27221.666666666668</v>
       </c>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-    </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN18" s="25">
+        <v>15988</v>
+      </c>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="17"/>
+      <c r="AS18" s="17"/>
+    </row>
+    <row r="19" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
@@ -7847,79 +8892,94 @@
         <f>AVERAGE(1411.89,1284.17,1363.15)</f>
         <v>1353.0700000000002</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18">
+      <c r="J19" s="25">
+        <v>479.74</v>
+      </c>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18">
         <v>396</v>
       </c>
-      <c r="L19" s="17">
+      <c r="O19" s="17">
         <v>406</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O19" s="1">
+      <c r="R19" s="1">
         <v>75</v>
       </c>
-      <c r="P19" s="18">
+      <c r="S19" s="18">
         <v>16252.61</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="T19" s="18">
         <v>17083.72</v>
       </c>
-      <c r="R19" s="20">
+      <c r="U19" s="20">
         <v>22966.69</v>
       </c>
-      <c r="S19" s="18">
+      <c r="V19" s="18">
         <f>AVERAGE(27837.62,28079.33,27372.98)</f>
         <v>27763.309999999998</v>
       </c>
-      <c r="T19" s="18">
+      <c r="W19" s="18">
         <f>AVERAGE(40748.19,36492.27,42150.33)</f>
         <v>39796.93</v>
       </c>
-      <c r="U19" s="18">
+      <c r="X19" s="18">
         <f>AVERAGE(63069.85,56533.57,57377.55)</f>
         <v>58993.656666666669</v>
       </c>
-      <c r="V19" s="18"/>
-      <c r="W19" s="17">
+      <c r="Y19" s="25">
+        <v>16131.15</v>
+      </c>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="17">
         <v>14171</v>
       </c>
-      <c r="X19" s="17">
+      <c r="AD19" s="17">
         <v>14171</v>
       </c>
-      <c r="Z19" s="18" t="s">
+      <c r="AF19" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="AA19" s="18">
+      <c r="AG19" s="18">
         <v>401</v>
       </c>
-      <c r="AB19" s="18">
+      <c r="AH19" s="18">
         <v>36872</v>
       </c>
-      <c r="AC19" s="18">
+      <c r="AI19" s="18">
         <v>35948</v>
       </c>
-      <c r="AD19" s="20">
+      <c r="AJ19" s="20">
         <v>41360</v>
       </c>
-      <c r="AE19" s="18">
+      <c r="AK19" s="18">
         <f>AVERAGE(55395,53710,55185)</f>
         <v>54763.333333333336</v>
       </c>
-      <c r="AF19" s="18">
+      <c r="AL19" s="18">
         <f>AVERAGE(62019,62835,64001)</f>
         <v>62951.666666666664</v>
       </c>
-      <c r="AG19" s="18">
+      <c r="AM19" s="18">
         <f>AVERAGE(74777,74991,74902)</f>
         <v>74890</v>
       </c>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-    </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN19" s="25">
+        <v>36577</v>
+      </c>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="25"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="17"/>
+      <c r="AS19" s="17"/>
+    </row>
+    <row r="20" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
@@ -7947,80 +9007,95 @@
         <v>955</v>
       </c>
       <c r="J20" s="3">
+        <v>684</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
         <v>492</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>601</v>
       </c>
-      <c r="L20" s="24">
+      <c r="O20" s="24">
         <v>601</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O20" s="1">
+      <c r="R20" s="1">
         <v>75</v>
       </c>
-      <c r="P20" s="18">
+      <c r="S20" s="18">
         <v>16441.939999999999</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="T20" s="18">
         <v>17078.29</v>
       </c>
-      <c r="R20" s="20">
+      <c r="U20" s="20">
         <v>24971.040000000001</v>
       </c>
-      <c r="S20" s="18">
+      <c r="V20" s="18">
         <f>AVERAGE(28486.61,27900.02,35382.74)</f>
         <v>30589.789999999997</v>
       </c>
-      <c r="T20" s="18">
+      <c r="W20" s="18">
         <f>AVERAGE(42514.99,41903.89,40748.19)</f>
         <v>41722.356666666667</v>
       </c>
-      <c r="U20" s="18">
+      <c r="X20" s="18">
         <f>AVERAGE(60682.58,65266.37,57851.47)</f>
         <v>61266.806666666671</v>
       </c>
-      <c r="V20" s="18"/>
-      <c r="W20" s="17">
+      <c r="Y20" s="25">
+        <v>16256.53</v>
+      </c>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="17">
         <v>14640</v>
       </c>
-      <c r="X20" s="17">
+      <c r="AD20" s="17">
         <v>14640</v>
       </c>
-      <c r="Z20" s="18" t="s">
+      <c r="AF20" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AA20" s="18">
+      <c r="AG20" s="18">
         <v>774</v>
       </c>
-      <c r="AB20" s="18">
+      <c r="AH20" s="18">
         <v>70582</v>
       </c>
-      <c r="AC20" s="18">
+      <c r="AI20" s="18">
         <v>70198</v>
       </c>
-      <c r="AD20" s="20">
+      <c r="AJ20" s="20">
         <v>82200</v>
       </c>
-      <c r="AE20" s="18">
+      <c r="AK20" s="18">
         <f>AVERAGE(113798,114572,110884)</f>
         <v>113084.66666666667</v>
       </c>
-      <c r="AF20" s="18">
+      <c r="AL20" s="18">
         <f>AVERAGE(127643)</f>
         <v>127643</v>
       </c>
-      <c r="AG20" s="18">
+      <c r="AM20" s="18">
         <f>AVERAGE(165762)</f>
         <v>165762</v>
       </c>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-    </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN20" s="25">
+        <v>70571</v>
+      </c>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="17"/>
+      <c r="AS20" s="17"/>
+    </row>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
@@ -8048,83 +9123,98 @@
         <f>AVERAGE(10257.43,10704.55,10048.95)</f>
         <v>10336.976666666667</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18">
+      <c r="J21" s="25">
+        <v>1733.52</v>
+      </c>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18">
         <v>1672</v>
       </c>
-      <c r="L21" s="17">
+      <c r="O21" s="17">
         <v>1695</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O21" s="1">
+      <c r="R21" s="1">
         <v>78</v>
       </c>
-      <c r="P21" s="18">
+      <c r="S21" s="18">
         <v>9054.34</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="T21" s="18">
         <v>9002.3700000000008</v>
       </c>
-      <c r="R21" s="20">
+      <c r="U21" s="20">
         <v>14305.04</v>
       </c>
-      <c r="S21" s="18">
+      <c r="V21" s="18">
         <f>AVERAGE(17572.51,17992.8,21124.48)</f>
         <v>18896.596666666665</v>
       </c>
-      <c r="T21" s="18">
+      <c r="W21" s="18">
         <f>AVERAGE(28081.57,26333.33,26019.79)</f>
         <v>26811.563333333335</v>
       </c>
-      <c r="U21" s="18">
+      <c r="X21" s="18">
         <f>AVERAGE(42812.73,36334.77,40894.03)</f>
         <v>40013.843333333331</v>
       </c>
-      <c r="V21" s="18"/>
-      <c r="W21" s="17">
+      <c r="Y21" s="25">
+        <v>8932.8700000000008</v>
+      </c>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="17">
         <v>9034</v>
       </c>
-      <c r="X21" s="17">
+      <c r="AD21" s="17">
         <v>8999</v>
       </c>
-      <c r="Z21" s="12" t="s">
+      <c r="AF21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AA21" s="12">
+      <c r="AG21" s="12">
         <v>52</v>
       </c>
-      <c r="AB21" s="12">
+      <c r="AH21" s="12">
         <v>543.95000000000005</v>
       </c>
-      <c r="AC21" s="12">
+      <c r="AI21" s="12">
         <v>437.11</v>
       </c>
-      <c r="AD21" s="12">
+      <c r="AJ21" s="12">
         <v>718.56</v>
       </c>
-      <c r="AE21" s="18">
+      <c r="AK21" s="18">
         <f>AVERAGE(805.9,739.32,748.97)</f>
         <v>764.73</v>
       </c>
-      <c r="AF21" s="18">
+      <c r="AL21" s="18">
         <f>AVERAGE(925.53,872.1,909.71)</f>
         <v>902.44666666666672</v>
       </c>
-      <c r="AG21" s="18">
+      <c r="AM21" s="18">
         <f>AVERAGE(1359.26,1387.21,1496.72)</f>
         <v>1414.3966666666668</v>
       </c>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="17">
+      <c r="AN21" s="25">
+        <v>514.70000000000005</v>
+      </c>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="25"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="17">
         <v>428</v>
       </c>
-      <c r="AJ21" s="17">
+      <c r="AS21" s="17">
         <v>428</v>
       </c>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -8152,84 +9242,99 @@
         <v>1426.6666666666667</v>
       </c>
       <c r="J22" s="3">
+        <v>640</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3">
         <v>810</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>951</v>
       </c>
-      <c r="L22" s="24">
+      <c r="O22" s="24">
         <v>951</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O22" s="1">
+      <c r="R22" s="1">
         <v>238</v>
       </c>
-      <c r="P22" s="18">
+      <c r="S22" s="18">
         <v>33307.81</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="T22" s="18">
         <v>34803.33</v>
       </c>
-      <c r="R22" s="20">
+      <c r="U22" s="20">
         <v>47029.4</v>
       </c>
-      <c r="S22" s="18">
+      <c r="V22" s="18">
         <f>AVERAGE(93802.91,100544.44,98586.28)</f>
         <v>97644.543333333335</v>
       </c>
-      <c r="T22" s="18">
+      <c r="W22" s="18">
         <f>AVERAGE(152678.03,147132.3,152500.21)</f>
         <v>150770.17999999996</v>
       </c>
-      <c r="U22" s="18">
+      <c r="X22" s="18">
         <f>AVERAGE(230036.41,240529.77,227544.75)</f>
         <v>232703.64333333331</v>
       </c>
-      <c r="V22" s="18"/>
-      <c r="W22" s="17">
+      <c r="Y22" s="25">
+        <v>32712.82</v>
+      </c>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="17">
         <v>29829</v>
       </c>
-      <c r="X22" s="17">
+      <c r="AD22" s="17">
         <v>29829</v>
       </c>
-      <c r="Z22" s="18" t="s">
+      <c r="AF22" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AA22" s="18">
+      <c r="AG22" s="18">
         <v>31</v>
       </c>
-      <c r="AB22" s="18">
+      <c r="AH22" s="18">
         <v>770</v>
       </c>
-      <c r="AC22" s="18">
+      <c r="AI22" s="18">
         <v>871</v>
       </c>
-      <c r="AD22" s="20">
+      <c r="AJ22" s="20">
         <v>1209</v>
       </c>
-      <c r="AE22" s="18">
+      <c r="AK22" s="18">
         <f>AVERAGE(1048,1049,1133)</f>
         <v>1076.6666666666667</v>
       </c>
-      <c r="AF22" s="18">
+      <c r="AL22" s="18">
         <f>AVERAGE(1369,1407,1414)</f>
         <v>1396.6666666666667</v>
       </c>
-      <c r="AG22" s="18">
+      <c r="AM22" s="18">
         <f>AVERAGE(1558,1984,1783)</f>
         <v>1775</v>
       </c>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="17">
+      <c r="AN22" s="25">
+        <v>732</v>
+      </c>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="17">
         <v>760</v>
       </c>
-      <c r="AJ22" s="17">
+      <c r="AS22" s="17">
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -8257,76 +9362,91 @@
         <v>2385.6666666666665</v>
       </c>
       <c r="J23" s="3">
+        <v>1703</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
         <v>1377</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>1501</v>
       </c>
-      <c r="L23" s="24">
+      <c r="O23" s="24">
         <v>1501</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O23" s="1">
+      <c r="R23" s="1">
         <v>1034</v>
       </c>
-      <c r="P23" s="18">
+      <c r="S23" s="18">
         <v>47140.73</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="T23" s="18">
         <v>45668.23</v>
       </c>
-      <c r="R23" s="20">
+      <c r="U23" s="20">
         <v>62507.11</v>
       </c>
-      <c r="S23" s="18">
+      <c r="V23" s="18">
         <f>AVERAGE(238515.69,230603.7,233199.28)</f>
         <v>234106.22333333336</v>
       </c>
-      <c r="T23" s="18">
+      <c r="W23" s="18">
         <f>AVERAGE(349164.06)</f>
         <v>349164.06</v>
       </c>
-      <c r="U23" s="18">
+      <c r="X23" s="18">
         <f>AVERAGE(526768.5)</f>
         <v>526768.5</v>
       </c>
-      <c r="V23" s="18"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Z23" s="18" t="s">
+      <c r="Y23" s="25">
+        <v>46167.02</v>
+      </c>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AF23" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AA23" s="18">
+      <c r="AG23" s="18">
         <v>168</v>
       </c>
-      <c r="AB23" s="18">
+      <c r="AH23" s="18">
         <v>89500</v>
       </c>
-      <c r="AC23" s="18">
+      <c r="AI23" s="18">
         <v>117345.37</v>
       </c>
-      <c r="AD23" s="20">
+      <c r="AJ23" s="20">
         <v>145730.51</v>
       </c>
-      <c r="AE23" s="18">
+      <c r="AK23" s="18">
         <f>AVERAGE(284355.59,275262.73,290978.44)</f>
         <v>283532.25333333336</v>
       </c>
-      <c r="AF23" s="18">
+      <c r="AL23" s="18">
         <f>AVERAGE(430531.44,428706.85,425449.24)</f>
         <v>428229.1766666667</v>
       </c>
-      <c r="AG23" s="18">
+      <c r="AM23" s="18">
         <f>AVERAGE(619002.21,618288.93,578606.06)</f>
         <v>605299.06666666677</v>
       </c>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-    </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN23" s="25">
+        <v>89500</v>
+      </c>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="18"/>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="17"/>
+    </row>
+    <row r="24" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
@@ -8354,289 +9474,323 @@
         <v>1219.6666666666667</v>
       </c>
       <c r="J24" s="3">
+        <v>794</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3">
         <v>764</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>844</v>
       </c>
-      <c r="L24" s="24">
+      <c r="O24" s="24">
         <v>844</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="Q24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O24" s="6">
+      <c r="R24" s="6">
         <v>420</v>
       </c>
-      <c r="P24" s="18">
+      <c r="S24" s="18">
         <v>2332</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="T24" s="18">
         <v>2150</v>
       </c>
-      <c r="R24" s="20">
+      <c r="U24" s="20">
         <v>2890</v>
       </c>
-      <c r="S24" s="18">
+      <c r="V24" s="18">
         <f>AVERAGE(7378,7503,7350)</f>
         <v>7410.333333333333</v>
       </c>
-      <c r="T24" s="18">
+      <c r="W24" s="18">
         <f>AVERAGE(10600,9672,10371)</f>
         <v>10214.333333333334</v>
       </c>
-      <c r="U24" s="18">
+      <c r="X24" s="18">
         <f>AVERAGE(14956)</f>
         <v>14956</v>
       </c>
-      <c r="V24" s="18"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Z24" s="18" t="s">
+      <c r="Y24" s="25">
+        <v>2300</v>
+      </c>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AF24" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AA24" s="18">
+      <c r="AG24" s="18">
         <v>168</v>
       </c>
-      <c r="AB24" s="18">
+      <c r="AH24" s="18">
         <v>2917.62</v>
       </c>
-      <c r="AC24" s="18">
+      <c r="AI24" s="18">
         <v>3247.49</v>
       </c>
-      <c r="AD24" s="20">
+      <c r="AJ24" s="20">
         <v>4336.76</v>
       </c>
-      <c r="AE24" s="18">
+      <c r="AK24" s="18">
         <f>AVERAGE(7175.18,7038.94,7174.41)</f>
         <v>7129.5099999999993</v>
       </c>
-      <c r="AF24" s="18">
+      <c r="AL24" s="18">
         <f>AVERAGE(10012.3,9914.25,10502.66)</f>
         <v>10143.07</v>
       </c>
-      <c r="AG24" s="18">
+      <c r="AM24" s="18">
         <f>AVERAGE(15581.47,16037.14,14934.93)</f>
         <v>15517.846666666666</v>
       </c>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-    </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="K25" s="2"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="AN24" s="25">
+        <v>2794.99</v>
+      </c>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="18"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
+    </row>
+    <row r="25" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="N25" s="2"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="2"/>
-      <c r="Z25" s="3" t="s">
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AF25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AG25" s="3">
         <v>12</v>
       </c>
-      <c r="AB25" s="3">
+      <c r="AH25" s="3">
         <v>2785.62</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AI25" s="3">
         <v>3035.89</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AJ25" s="3">
         <v>4294.46</v>
       </c>
-      <c r="AE25" s="14">
+      <c r="AK25" s="14">
         <v>2785.62</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AL25" s="3">
         <f>AVERAGE(4302.5,4264.97,3841.59)</f>
         <v>4136.3533333333335</v>
       </c>
-      <c r="AG25" s="3">
+      <c r="AM25" s="3">
         <f>AVERAGE(4669.69,4267.19,3955.19)</f>
         <v>4297.3566666666666</v>
       </c>
-      <c r="AH25" s="3">
+      <c r="AN25" s="3">
+        <v>2741.1</v>
+      </c>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3">
         <v>2980.94</v>
       </c>
-      <c r="AI25" s="24">
+      <c r="AR25" s="24">
         <v>3183</v>
       </c>
-      <c r="AJ25" s="24">
+      <c r="AS25" s="24">
         <v>3183</v>
       </c>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B26" s="28" t="s">
+    <row r="26" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B26" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="10"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="N26" s="2"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="2"/>
-      <c r="Z26" s="3" t="s">
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AF26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AG26" s="3">
         <v>16</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AH26" s="3">
         <v>3118.04</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AI26" s="3">
         <v>2959.96</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AJ26" s="3">
         <v>4249.3</v>
       </c>
-      <c r="AE26" s="14">
+      <c r="AK26" s="14">
         <v>3118.04</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AL26" s="3">
         <f>AVERAGE(3602.35,3709.73,3288.29)</f>
         <v>3533.4566666666665</v>
       </c>
-      <c r="AG26" s="3">
+      <c r="AM26" s="3">
         <f>AVERAGE(4203.63,4667.33,5585.14)</f>
         <v>4818.7</v>
       </c>
-      <c r="AH26" s="3">
+      <c r="AN26" s="3">
+        <v>3049.85</v>
+      </c>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3">
         <v>2806.25</v>
       </c>
-      <c r="AI26" s="24">
+      <c r="AR26" s="24">
         <v>2941</v>
       </c>
-      <c r="AJ26" s="24">
+      <c r="AS26" s="24">
         <v>2968</v>
       </c>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
+    <row r="27" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B27" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="35"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="26"/>
+      <c r="N27" s="2"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="2"/>
+      <c r="U27" s="7"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
-    </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="35"/>
-    </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+    </row>
+    <row r="28" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="21"/>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+    <row r="30" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+    <row r="31" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="21"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+    <row r="32" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AB1:AJ1"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="AH1:AS1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="D1:O1"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E28"/>
     <mergeCell ref="B29:E33"/>

--- a/Comparaçoes/Heurísticas.xlsx
+++ b/Comparaçoes/Heurísticas.xlsx
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS38"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH18" sqref="AH18"/>
+    <sheetView topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO26" sqref="AO26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,7 +1125,9 @@
       <c r="J3" s="25">
         <v>625.97</v>
       </c>
-      <c r="K3" s="25"/>
+      <c r="K3" s="25">
+        <v>625.97</v>
+      </c>
       <c r="L3" s="25"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18">
@@ -1164,7 +1166,9 @@
       <c r="Y3" s="25">
         <v>668</v>
       </c>
-      <c r="Z3" s="25"/>
+      <c r="Z3" s="25">
+        <v>668</v>
+      </c>
       <c r="AA3" s="25"/>
       <c r="AB3" s="18"/>
       <c r="AC3" s="17">
@@ -1203,7 +1207,9 @@
       <c r="AN3" s="25">
         <v>25126.84</v>
       </c>
-      <c r="AO3" s="25"/>
+      <c r="AO3" s="25">
+        <v>25126.84</v>
+      </c>
       <c r="AP3" s="25"/>
       <c r="AQ3" s="18"/>
       <c r="AR3" s="17">
@@ -1271,7 +1277,9 @@
       <c r="Y4" s="25">
         <v>10630.39</v>
       </c>
-      <c r="Z4" s="25"/>
+      <c r="Z4" s="25">
+        <v>10068.39</v>
+      </c>
       <c r="AA4" s="25"/>
       <c r="AB4" s="18"/>
       <c r="AC4" s="17">
@@ -1310,7 +1318,9 @@
       <c r="AN4" s="25">
         <v>7769.74</v>
       </c>
-      <c r="AO4" s="25"/>
+      <c r="AO4" s="25">
+        <v>7564.94</v>
+      </c>
       <c r="AP4" s="25"/>
       <c r="AQ4" s="18"/>
       <c r="AR4" s="17">
@@ -1351,7 +1361,9 @@
       <c r="J5" s="3">
         <v>1373</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>1373</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3">
         <v>1239</v>
@@ -1388,7 +1400,9 @@
       <c r="Y5" s="25">
         <v>1376</v>
       </c>
-      <c r="Z5" s="25"/>
+      <c r="Z5" s="25">
+        <v>1376</v>
+      </c>
       <c r="AA5" s="25"/>
       <c r="AB5" s="18"/>
       <c r="AC5" s="17"/>
@@ -1423,7 +1437,9 @@
       <c r="AN5" s="25">
         <v>10765.78</v>
       </c>
-      <c r="AO5" s="25"/>
+      <c r="AO5" s="25">
+        <v>10765.78</v>
+      </c>
       <c r="AP5" s="25"/>
       <c r="AQ5" s="18"/>
       <c r="AR5" s="17">
@@ -1464,7 +1480,9 @@
       <c r="J6" s="25">
         <v>5619</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="25">
+        <v>5553</v>
+      </c>
       <c r="L6" s="25"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
@@ -1530,7 +1548,9 @@
       <c r="AN6" s="25">
         <v>22828.74</v>
       </c>
-      <c r="AO6" s="25"/>
+      <c r="AO6" s="25">
+        <v>22109.3</v>
+      </c>
       <c r="AP6" s="25"/>
       <c r="AQ6" s="18"/>
       <c r="AR6" s="17">
@@ -1570,7 +1590,9 @@
       <c r="J7" s="3">
         <v>292</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>292</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3">
         <v>246</v>
@@ -1642,7 +1664,9 @@
       <c r="AN7" s="25">
         <v>10778.34</v>
       </c>
-      <c r="AO7" s="25"/>
+      <c r="AO7" s="25">
+        <v>10742.86</v>
+      </c>
       <c r="AP7" s="25"/>
       <c r="AQ7" s="18"/>
       <c r="AR7" s="17">
@@ -1682,7 +1706,9 @@
       <c r="J8" s="3">
         <v>352</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3">
+        <v>352</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="4">
         <v>282</v>
@@ -1754,7 +1780,9 @@
       <c r="AN8" s="25">
         <v>15403.26</v>
       </c>
-      <c r="AO8" s="25"/>
+      <c r="AO8" s="25">
+        <v>15403.26</v>
+      </c>
       <c r="AP8" s="25"/>
       <c r="AQ8" s="18"/>
       <c r="AR8" s="17">
@@ -1795,7 +1823,9 @@
       <c r="J9" s="3">
         <v>556.80999999999995</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <v>556.80999999999995</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="5">
         <v>480.48033445701299</v>
@@ -1863,7 +1893,9 @@
       <c r="AN9" s="25">
         <v>22868.63</v>
       </c>
-      <c r="AO9" s="25"/>
+      <c r="AO9" s="25">
+        <v>22375.1</v>
+      </c>
       <c r="AP9" s="25"/>
       <c r="AQ9" s="18"/>
       <c r="AR9" s="17">
@@ -1904,7 +1936,9 @@
       <c r="J10" s="25">
         <v>14272</v>
       </c>
-      <c r="K10" s="25"/>
+      <c r="K10" s="25">
+        <v>14272.3</v>
+      </c>
       <c r="L10" s="25"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18">
@@ -1970,7 +2004,9 @@
       <c r="AN10" s="25">
         <v>8023.61</v>
       </c>
-      <c r="AO10" s="25"/>
+      <c r="AO10" s="25">
+        <v>8023.61</v>
+      </c>
       <c r="AP10" s="25"/>
       <c r="AQ10" s="18"/>
       <c r="AR10" s="17"/>
@@ -2007,7 +2043,9 @@
       <c r="J11" s="25">
         <v>6116</v>
       </c>
-      <c r="K11" s="25"/>
+      <c r="K11" s="25">
+        <v>6116</v>
+      </c>
       <c r="L11" s="25"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
@@ -2042,7 +2080,9 @@
       <c r="Y11" s="25">
         <v>3454</v>
       </c>
-      <c r="Z11" s="25"/>
+      <c r="Z11" s="25">
+        <v>3454</v>
+      </c>
       <c r="AA11" s="25"/>
       <c r="AB11" s="18"/>
       <c r="AC11" s="17">
@@ -2081,7 +2121,9 @@
       <c r="AN11" s="25">
         <v>12311.53</v>
       </c>
-      <c r="AO11" s="25"/>
+      <c r="AO11" s="25">
+        <v>12311.53</v>
+      </c>
       <c r="AP11" s="25"/>
       <c r="AQ11" s="18"/>
       <c r="AR11" s="17"/>
@@ -2118,7 +2160,9 @@
       <c r="J12" s="25">
         <v>16600</v>
       </c>
-      <c r="K12" s="25"/>
+      <c r="K12" s="25">
+        <v>11050</v>
+      </c>
       <c r="L12" s="25"/>
       <c r="M12" s="12"/>
       <c r="N12" s="18"/>
@@ -2153,7 +2197,9 @@
       <c r="Y12" s="25">
         <v>5015.0200000000004</v>
       </c>
-      <c r="Z12" s="25"/>
+      <c r="Z12" s="25">
+        <v>5015.0200000000004</v>
+      </c>
       <c r="AA12" s="25"/>
       <c r="AB12" s="18"/>
       <c r="AC12" s="17">
@@ -2192,7 +2238,9 @@
       <c r="AN12" s="25">
         <v>22324.31</v>
       </c>
-      <c r="AO12" s="25"/>
+      <c r="AO12" s="25">
+        <v>22074.32</v>
+      </c>
       <c r="AP12" s="25"/>
       <c r="AQ12" s="18"/>
       <c r="AR12" s="17"/>
@@ -2227,7 +2275,9 @@
       <c r="J13" s="3">
         <v>249.88</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>249.88</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3">
         <v>224.88</v>
@@ -2268,7 +2318,9 @@
       <c r="Y13" s="25">
         <v>6632.55</v>
       </c>
-      <c r="Z13" s="25"/>
+      <c r="Z13" s="25">
+        <v>6632.55</v>
+      </c>
       <c r="AA13" s="25"/>
       <c r="AB13" s="18"/>
       <c r="AC13" s="17">
@@ -2307,7 +2359,9 @@
       <c r="AN13" s="25">
         <v>67085.41</v>
       </c>
-      <c r="AO13" s="25"/>
+      <c r="AO13" s="25">
+        <v>66266.210000000006</v>
+      </c>
       <c r="AP13" s="25"/>
       <c r="AQ13" s="18"/>
       <c r="AR13" s="17"/>
@@ -2344,7 +2398,9 @@
       <c r="J14" s="25">
         <v>1207.1500000000001</v>
       </c>
-      <c r="K14" s="25"/>
+      <c r="K14" s="25">
+        <v>1205.2</v>
+      </c>
       <c r="L14" s="25"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18">
@@ -2383,7 +2439,9 @@
       <c r="Y14" s="25">
         <v>6767.07</v>
       </c>
-      <c r="Z14" s="25"/>
+      <c r="Z14" s="25">
+        <v>6767.07</v>
+      </c>
       <c r="AA14" s="25"/>
       <c r="AB14" s="18"/>
       <c r="AC14" s="17">
@@ -2422,7 +2480,9 @@
       <c r="AN14" s="25">
         <v>266.87</v>
       </c>
-      <c r="AO14" s="25"/>
+      <c r="AO14" s="25">
+        <v>263.3</v>
+      </c>
       <c r="AP14" s="25"/>
       <c r="AQ14" s="18"/>
       <c r="AR14" s="17">
@@ -2463,7 +2523,9 @@
       <c r="J15" s="25">
         <v>1304.57</v>
       </c>
-      <c r="K15" s="25"/>
+      <c r="K15" s="25">
+        <v>1304.57</v>
+      </c>
       <c r="L15" s="25"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18">
@@ -2502,7 +2564,9 @@
       <c r="Y15" s="25">
         <v>5507.89</v>
       </c>
-      <c r="Z15" s="25"/>
+      <c r="Z15" s="25">
+        <v>5507.89</v>
+      </c>
       <c r="AA15" s="25"/>
       <c r="AB15" s="18"/>
       <c r="AC15" s="17">
@@ -2541,7 +2605,9 @@
       <c r="AN15" s="25">
         <v>560.07000000000005</v>
       </c>
-      <c r="AO15" s="25"/>
+      <c r="AO15" s="25">
+        <v>558.64</v>
+      </c>
       <c r="AP15" s="25"/>
       <c r="AQ15" s="18"/>
       <c r="AR15" s="17">
@@ -2582,7 +2648,9 @@
       <c r="J16" s="3">
         <v>100</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3">
+        <v>100</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3">
         <v>99</v>
@@ -2623,7 +2691,9 @@
       <c r="Y16" s="25">
         <v>5119.54</v>
       </c>
-      <c r="Z16" s="25"/>
+      <c r="Z16" s="25">
+        <v>5119.54</v>
+      </c>
       <c r="AA16" s="25"/>
       <c r="AB16" s="18"/>
       <c r="AC16" s="17">
@@ -2662,7 +2732,9 @@
       <c r="AN16" s="25">
         <v>1733.54</v>
       </c>
-      <c r="AO16" s="25"/>
+      <c r="AO16" s="25">
+        <v>1724.97</v>
+      </c>
       <c r="AP16" s="25"/>
       <c r="AQ16" s="18"/>
       <c r="AR16" s="17"/>
@@ -2699,7 +2771,9 @@
       <c r="J17" s="3">
         <v>77.040000000000006</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3">
+        <v>77.040000000000006</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3">
         <v>76.72</v>
@@ -2740,7 +2814,9 @@
       <c r="Y17" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="Z17" s="25"/>
+      <c r="Z17" s="25">
+        <v>6789.91</v>
+      </c>
       <c r="AA17" s="25"/>
       <c r="AB17" s="18"/>
       <c r="AC17" s="17">
@@ -2779,7 +2855,9 @@
       <c r="AN17" s="25">
         <v>2260.06</v>
       </c>
-      <c r="AO17" s="25"/>
+      <c r="AO17" s="25">
+        <v>2280.65</v>
+      </c>
       <c r="AP17" s="25"/>
       <c r="AQ17" s="18"/>
       <c r="AR17" s="17"/>
@@ -2816,7 +2894,9 @@
       <c r="J18" s="25">
         <v>97.38</v>
       </c>
-      <c r="K18" s="25"/>
+      <c r="K18" s="25">
+        <v>97.38</v>
+      </c>
       <c r="L18" s="25"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18">
@@ -2855,7 +2935,9 @@
       <c r="Y18" s="25">
         <v>4293.0200000000004</v>
       </c>
-      <c r="Z18" s="25"/>
+      <c r="Z18" s="25">
+        <v>4293.0200000000004</v>
+      </c>
       <c r="AA18" s="25"/>
       <c r="AB18" s="18"/>
       <c r="AC18" s="17">
@@ -2894,7 +2976,9 @@
       <c r="AN18" s="25">
         <v>5243</v>
       </c>
-      <c r="AO18" s="25"/>
+      <c r="AO18" s="25">
+        <v>5238</v>
+      </c>
       <c r="AP18" s="25"/>
       <c r="AQ18" s="18"/>
       <c r="AR18" s="17"/>
@@ -2931,7 +3015,9 @@
       <c r="J19" s="25">
         <v>150.4</v>
       </c>
-      <c r="K19" s="25"/>
+      <c r="K19" s="25">
+        <v>150.4</v>
+      </c>
       <c r="L19" s="25"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18">
@@ -2970,7 +3056,9 @@
       <c r="Y19" s="25">
         <v>5246.28</v>
       </c>
-      <c r="Z19" s="25"/>
+      <c r="Z19" s="25">
+        <v>5246.28</v>
+      </c>
       <c r="AA19" s="25"/>
       <c r="AB19" s="18"/>
       <c r="AC19" s="17">
@@ -3009,7 +3097,9 @@
       <c r="AN19" s="25">
         <v>12275</v>
       </c>
-      <c r="AO19" s="25"/>
+      <c r="AO19" s="25">
+        <v>12252</v>
+      </c>
       <c r="AP19" s="25"/>
       <c r="AQ19" s="18"/>
       <c r="AR19" s="17"/>
@@ -3045,7 +3135,9 @@
       <c r="J20" s="3">
         <v>147</v>
       </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3">
+        <v>147</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3">
         <v>145</v>
@@ -3086,7 +3178,9 @@
       <c r="Y20" s="25">
         <v>4087.21</v>
       </c>
-      <c r="Z20" s="25"/>
+      <c r="Z20" s="25">
+        <v>4087.21</v>
+      </c>
       <c r="AA20" s="25"/>
       <c r="AB20" s="18"/>
       <c r="AC20" s="17">
@@ -3125,7 +3219,9 @@
       <c r="AN20" s="25">
         <v>22289</v>
       </c>
-      <c r="AO20" s="25"/>
+      <c r="AO20" s="25">
+        <v>22289</v>
+      </c>
       <c r="AP20" s="25"/>
       <c r="AQ20" s="18"/>
       <c r="AR20" s="17"/>
@@ -3162,7 +3258,9 @@
       <c r="J21" s="25">
         <v>559.01</v>
       </c>
-      <c r="K21" s="25"/>
+      <c r="K21" s="25">
+        <v>559.01</v>
+      </c>
       <c r="L21" s="25"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18">
@@ -3201,7 +3299,9 @@
       <c r="Y21" s="25">
         <v>2109.4299999999998</v>
       </c>
-      <c r="Z21" s="25"/>
+      <c r="Z21" s="25">
+        <v>2109.4299999999998</v>
+      </c>
       <c r="AA21" s="25"/>
       <c r="AB21" s="18"/>
       <c r="AC21" s="17">
@@ -3240,7 +3340,9 @@
       <c r="AN21" s="25">
         <v>129.15</v>
       </c>
-      <c r="AO21" s="25"/>
+      <c r="AO21" s="25">
+        <v>129.15</v>
+      </c>
       <c r="AP21" s="25"/>
       <c r="AQ21" s="12"/>
       <c r="AR21" s="17">
@@ -3280,7 +3382,9 @@
       <c r="J22" s="3">
         <v>154</v>
       </c>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3">
+        <v>165</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3">
         <v>143</v>
@@ -3321,7 +3425,9 @@
       <c r="Y22" s="25">
         <v>9035.18</v>
       </c>
-      <c r="Z22" s="25"/>
+      <c r="Z22" s="25">
+        <v>8860.4699999999993</v>
+      </c>
       <c r="AA22" s="25"/>
       <c r="AB22" s="18"/>
       <c r="AC22" s="17">
@@ -3360,7 +3466,9 @@
       <c r="AN22" s="25">
         <v>146</v>
       </c>
-      <c r="AO22" s="25"/>
+      <c r="AO22" s="25">
+        <v>146</v>
+      </c>
       <c r="AP22" s="25"/>
       <c r="AQ22" s="18"/>
       <c r="AR22" s="17">
@@ -3400,7 +3508,9 @@
       <c r="J23" s="3">
         <v>258</v>
       </c>
-      <c r="K23" s="3"/>
+      <c r="K23" s="3">
+        <v>258</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3">
         <v>181</v>
@@ -3441,7 +3551,9 @@
       <c r="Y23" s="25">
         <v>13172.65</v>
       </c>
-      <c r="Z23" s="25"/>
+      <c r="Z23" s="25">
+        <v>13194.03</v>
+      </c>
       <c r="AA23" s="25"/>
       <c r="AB23" s="18"/>
       <c r="AC23" s="17"/>
@@ -3476,7 +3588,9 @@
       <c r="AN23" s="25">
         <v>27500</v>
       </c>
-      <c r="AO23" s="25"/>
+      <c r="AO23" s="25">
+        <v>27500</v>
+      </c>
       <c r="AP23" s="25"/>
       <c r="AQ23" s="18"/>
       <c r="AR23" s="17"/>
@@ -3512,7 +3626,9 @@
       <c r="J24" s="3">
         <v>162</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3">
+        <v>162</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3">
         <v>162</v>
@@ -3554,7 +3670,9 @@
       <c r="Y24" s="25">
         <v>726</v>
       </c>
-      <c r="Z24" s="25"/>
+      <c r="Z24" s="25">
+        <v>720</v>
+      </c>
       <c r="AA24" s="25"/>
       <c r="AB24" s="18"/>
       <c r="AC24" s="17"/>
@@ -3589,7 +3707,9 @@
       <c r="AN24" s="25">
         <v>964.26</v>
       </c>
-      <c r="AO24" s="25"/>
+      <c r="AO24" s="25">
+        <v>964.26</v>
+      </c>
       <c r="AP24" s="25"/>
       <c r="AQ24" s="18"/>
       <c r="AR24" s="17"/>
@@ -3628,7 +3748,9 @@
       <c r="AN25" s="3">
         <v>826.08</v>
       </c>
-      <c r="AO25" s="3"/>
+      <c r="AO25" s="3">
+        <v>826.08</v>
+      </c>
       <c r="AP25" s="3"/>
       <c r="AQ25" s="3">
         <v>714.33</v>
@@ -3695,7 +3817,9 @@
       <c r="AN26" s="3">
         <v>456.58</v>
       </c>
-      <c r="AO26" s="3"/>
+      <c r="AO26" s="3">
+        <v>456.58</v>
+      </c>
       <c r="AP26" s="3"/>
       <c r="AQ26" s="3">
         <v>662.17</v>
@@ -3863,7 +3987,7 @@
   <dimension ref="B1:AS38"/>
   <sheetViews>
     <sheetView topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN26" sqref="AN26"/>
+      <selection activeCell="AG37" sqref="AG37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4116,7 +4240,9 @@
       <c r="J3" s="25">
         <v>1322.11</v>
       </c>
-      <c r="K3" s="25"/>
+      <c r="K3" s="25">
+        <v>1318.03</v>
+      </c>
       <c r="L3" s="25"/>
       <c r="M3" s="1"/>
       <c r="N3" s="18">
@@ -4155,7 +4281,9 @@
       <c r="Y3" s="25">
         <v>2139</v>
       </c>
-      <c r="Z3" s="25"/>
+      <c r="Z3" s="25">
+        <v>2122</v>
+      </c>
       <c r="AA3" s="25"/>
       <c r="AB3" s="18"/>
       <c r="AC3" s="18">
@@ -4194,7 +4322,9 @@
       <c r="AN3" s="25">
         <v>42676.77</v>
       </c>
-      <c r="AO3" s="25"/>
+      <c r="AO3" s="25">
+        <v>42676.77</v>
+      </c>
       <c r="AP3" s="25"/>
       <c r="AQ3" s="18"/>
       <c r="AR3" s="17">
@@ -4262,7 +4392,9 @@
       <c r="Y4" s="25">
         <v>21617.45</v>
       </c>
-      <c r="Z4" s="25"/>
+      <c r="Z4" s="25">
+        <v>21055.45</v>
+      </c>
       <c r="AA4" s="25"/>
       <c r="AB4" s="18"/>
       <c r="AC4" s="18">
@@ -4301,7 +4433,9 @@
       <c r="AN4" s="25">
         <v>16472.98</v>
       </c>
-      <c r="AO4" s="25"/>
+      <c r="AO4" s="25">
+        <v>15960.98</v>
+      </c>
       <c r="AP4" s="25"/>
       <c r="AQ4" s="18"/>
       <c r="AR4" s="17">
@@ -4342,7 +4476,9 @@
       <c r="J5" s="3">
         <v>3447</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>3231</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
         <v>76</v>
@@ -4379,7 +4515,9 @@
       <c r="Y5" s="25">
         <v>3120</v>
       </c>
-      <c r="Z5" s="25"/>
+      <c r="Z5" s="25">
+        <v>3120</v>
+      </c>
       <c r="AA5" s="25"/>
       <c r="AB5" s="18"/>
       <c r="AC5" s="18"/>
@@ -4414,7 +4552,9 @@
       <c r="AN5" s="25">
         <v>24187.51</v>
       </c>
-      <c r="AO5" s="25"/>
+      <c r="AO5" s="25">
+        <v>25633.65</v>
+      </c>
       <c r="AP5" s="25"/>
       <c r="AQ5" s="18"/>
       <c r="AR5" s="17">
@@ -4455,7 +4595,9 @@
       <c r="J6" s="25">
         <v>14250</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="25">
+        <v>14128</v>
+      </c>
       <c r="L6" s="25"/>
       <c r="M6" s="1"/>
       <c r="N6" s="18"/>
@@ -4521,7 +4663,9 @@
       <c r="AN6" s="25">
         <v>53346.76</v>
       </c>
-      <c r="AO6" s="25"/>
+      <c r="AO6" s="25">
+        <v>46726.91</v>
+      </c>
       <c r="AP6" s="25"/>
       <c r="AQ6" s="18"/>
       <c r="AR6" s="17">
@@ -4561,7 +4705,9 @@
       <c r="J7" s="3">
         <v>581</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>581</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
         <v>81</v>
@@ -4633,7 +4779,9 @@
       <c r="AN7" s="25">
         <v>26341.82</v>
       </c>
-      <c r="AO7" s="25"/>
+      <c r="AO7" s="25">
+        <v>26306.34</v>
+      </c>
       <c r="AP7" s="25"/>
       <c r="AQ7" s="18"/>
       <c r="AR7" s="17">
@@ -4673,7 +4821,9 @@
       <c r="J8" s="3">
         <v>816</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3">
+        <v>816</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
         <v>83</v>
@@ -4745,7 +4895,9 @@
       <c r="AN8" s="25">
         <v>33363.86</v>
       </c>
-      <c r="AO8" s="25"/>
+      <c r="AO8" s="25">
+        <v>32745.67</v>
+      </c>
       <c r="AP8" s="25"/>
       <c r="AQ8" s="18"/>
       <c r="AR8" s="17">
@@ -4786,7 +4938,9 @@
       <c r="J9" s="3">
         <v>1766.5</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <v>1766.5</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="5">
         <v>3303.71452420693</v>
@@ -4854,7 +5008,9 @@
       <c r="AN9" s="25">
         <v>49141.62</v>
       </c>
-      <c r="AO9" s="25"/>
+      <c r="AO9" s="25">
+        <v>48156.03</v>
+      </c>
       <c r="AP9" s="25"/>
       <c r="AQ9" s="18"/>
       <c r="AR9" s="17">
@@ -4895,7 +5051,9 @@
       <c r="J10" s="25">
         <v>29120.17</v>
       </c>
-      <c r="K10" s="25"/>
+      <c r="K10" s="25">
+        <v>28429.05</v>
+      </c>
       <c r="L10" s="25"/>
       <c r="M10" s="1"/>
       <c r="N10" s="18">
@@ -4961,7 +5119,9 @@
       <c r="AN10" s="25">
         <v>22934.79</v>
       </c>
-      <c r="AO10" s="25"/>
+      <c r="AO10" s="25">
+        <v>21889.15</v>
+      </c>
       <c r="AP10" s="25"/>
       <c r="AQ10" s="18"/>
       <c r="AR10" s="17"/>
@@ -4998,7 +5158,9 @@
       <c r="J11" s="25">
         <v>10262</v>
       </c>
-      <c r="K11" s="25"/>
+      <c r="K11" s="25">
+        <v>10262</v>
+      </c>
       <c r="L11" s="25"/>
       <c r="M11" s="1"/>
       <c r="N11" s="18"/>
@@ -5033,7 +5195,9 @@
       <c r="Y11" s="25">
         <v>6284</v>
       </c>
-      <c r="Z11" s="25"/>
+      <c r="Z11" s="25">
+        <v>6284</v>
+      </c>
       <c r="AA11" s="25"/>
       <c r="AB11" s="18"/>
       <c r="AC11" s="18">
@@ -5072,7 +5236,9 @@
       <c r="AN11" s="25">
         <v>26442.77</v>
       </c>
-      <c r="AO11" s="25"/>
+      <c r="AO11" s="25">
+        <v>25630.01</v>
+      </c>
       <c r="AP11" s="25"/>
       <c r="AQ11" s="18"/>
       <c r="AR11" s="17"/>
@@ -5109,7 +5275,9 @@
       <c r="J12" s="25">
         <v>22550</v>
       </c>
-      <c r="K12" s="25"/>
+      <c r="K12" s="25">
+        <v>25610</v>
+      </c>
       <c r="L12" s="25"/>
       <c r="M12" s="1"/>
       <c r="N12" s="18"/>
@@ -5144,7 +5312,9 @@
       <c r="Y12" s="25">
         <v>11430.22</v>
       </c>
-      <c r="Z12" s="25"/>
+      <c r="Z12" s="25">
+        <v>10638.41</v>
+      </c>
       <c r="AA12" s="25"/>
       <c r="AB12" s="18"/>
       <c r="AC12" s="18">
@@ -5183,7 +5353,9 @@
       <c r="AN12" s="25">
         <v>40759.29</v>
       </c>
-      <c r="AO12" s="25"/>
+      <c r="AO12" s="25">
+        <v>40496.9</v>
+      </c>
       <c r="AP12" s="25"/>
       <c r="AQ12" s="18"/>
       <c r="AR12" s="17"/>
@@ -5218,7 +5390,9 @@
       <c r="J13" s="3">
         <v>1454.84</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>1454.84</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3">
         <v>966.37</v>
@@ -5259,7 +5433,9 @@
       <c r="Y13" s="25">
         <v>15430.01</v>
       </c>
-      <c r="Z13" s="25"/>
+      <c r="Z13" s="25">
+        <v>14772.08</v>
+      </c>
       <c r="AA13" s="25"/>
       <c r="AB13" s="18"/>
       <c r="AC13" s="18">
@@ -5298,7 +5474,9 @@
       <c r="AN13" s="25">
         <v>131441.76</v>
       </c>
-      <c r="AO13" s="25"/>
+      <c r="AO13" s="25">
+        <v>129086.31</v>
+      </c>
       <c r="AP13" s="25"/>
       <c r="AQ13" s="18"/>
       <c r="AR13" s="17"/>
@@ -5335,7 +5513,9 @@
       <c r="J14" s="25">
         <v>2710.19</v>
       </c>
-      <c r="K14" s="25"/>
+      <c r="K14" s="25">
+        <v>2708.24</v>
+      </c>
       <c r="L14" s="25"/>
       <c r="M14" s="1"/>
       <c r="N14" s="18">
@@ -5374,7 +5554,9 @@
       <c r="Y14" s="25">
         <v>13485.45</v>
       </c>
-      <c r="Z14" s="25"/>
+      <c r="Z14" s="25">
+        <v>13485.45</v>
+      </c>
       <c r="AA14" s="25"/>
       <c r="AB14" s="18"/>
       <c r="AC14" s="18">
@@ -5413,7 +5595,9 @@
       <c r="AN14" s="25">
         <v>584.59</v>
       </c>
-      <c r="AO14" s="25"/>
+      <c r="AO14" s="25">
+        <v>578.70000000000005</v>
+      </c>
       <c r="AP14" s="25"/>
       <c r="AQ14" s="18"/>
       <c r="AR14" s="17">
@@ -5454,7 +5638,9 @@
       <c r="J15" s="25">
         <v>3169.82</v>
       </c>
-      <c r="K15" s="25"/>
+      <c r="K15" s="25">
+        <v>3082.54</v>
+      </c>
       <c r="L15" s="25"/>
       <c r="M15" s="1"/>
       <c r="N15" s="18">
@@ -5493,7 +5679,9 @@
       <c r="Y15" s="25">
         <v>11418.42</v>
       </c>
-      <c r="Z15" s="25"/>
+      <c r="Z15" s="25">
+        <v>11366.47</v>
+      </c>
       <c r="AA15" s="25"/>
       <c r="AB15" s="18"/>
       <c r="AC15" s="18">
@@ -5532,7 +5720,9 @@
       <c r="AN15" s="25">
         <v>1135.3800000000001</v>
       </c>
-      <c r="AO15" s="25"/>
+      <c r="AO15" s="25">
+        <v>1133.95</v>
+      </c>
       <c r="AP15" s="25"/>
       <c r="AQ15" s="18"/>
       <c r="AR15" s="17">
@@ -5573,7 +5763,9 @@
       <c r="J16" s="3">
         <v>239</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3">
+        <v>239</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3">
         <v>230</v>
@@ -5614,7 +5806,9 @@
       <c r="Y16" s="25">
         <v>12099.43</v>
       </c>
-      <c r="Z16" s="25"/>
+      <c r="Z16" s="25">
+        <v>11909.87</v>
+      </c>
       <c r="AA16" s="25"/>
       <c r="AB16" s="18"/>
       <c r="AC16" s="18">
@@ -5653,7 +5847,9 @@
       <c r="AN16" s="25">
         <v>3448.29</v>
       </c>
-      <c r="AO16" s="25"/>
+      <c r="AO16" s="25">
+        <v>3407.23</v>
+      </c>
       <c r="AP16" s="25"/>
       <c r="AQ16" s="18"/>
       <c r="AR16" s="17"/>
@@ -5690,7 +5886,9 @@
       <c r="J17" s="3">
         <v>181.41</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3">
+        <v>181.41</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3" t="s">
         <v>85</v>
@@ -5731,7 +5929,9 @@
       <c r="Y17" s="25">
         <v>17110.47</v>
       </c>
-      <c r="Z17" s="25"/>
+      <c r="Z17" s="25">
+        <v>16276.03</v>
+      </c>
       <c r="AA17" s="25"/>
       <c r="AB17" s="18"/>
       <c r="AC17" s="18">
@@ -5770,7 +5970,9 @@
       <c r="AN17" s="25">
         <v>4617.92</v>
       </c>
-      <c r="AO17" s="25"/>
+      <c r="AO17" s="25">
+        <v>4535.42</v>
+      </c>
       <c r="AP17" s="25"/>
       <c r="AQ17" s="18"/>
       <c r="AR17" s="17"/>
@@ -5807,7 +6009,9 @@
       <c r="J18" s="25">
         <v>229.64</v>
       </c>
-      <c r="K18" s="25"/>
+      <c r="K18" s="25">
+        <v>229.64</v>
+      </c>
       <c r="L18" s="25"/>
       <c r="M18" s="1"/>
       <c r="N18" s="18">
@@ -5846,7 +6050,9 @@
       <c r="Y18" s="25">
         <v>9555.73</v>
       </c>
-      <c r="Z18" s="25"/>
+      <c r="Z18" s="25">
+        <v>9555.73</v>
+      </c>
       <c r="AA18" s="25"/>
       <c r="AB18" s="18"/>
       <c r="AC18" s="18">
@@ -5885,7 +6091,9 @@
       <c r="AN18" s="25">
         <v>10537</v>
       </c>
-      <c r="AO18" s="25"/>
+      <c r="AO18" s="25">
+        <v>10528</v>
+      </c>
       <c r="AP18" s="25"/>
       <c r="AQ18" s="18"/>
       <c r="AR18" s="17"/>
@@ -5922,7 +6130,9 @@
       <c r="J19" s="25">
         <v>314.43</v>
       </c>
-      <c r="K19" s="25"/>
+      <c r="K19" s="25">
+        <v>314.43</v>
+      </c>
       <c r="L19" s="25"/>
       <c r="M19" s="1"/>
       <c r="N19" s="18">
@@ -5961,7 +6171,9 @@
       <c r="Y19" s="25">
         <v>10636.85</v>
       </c>
-      <c r="Z19" s="25"/>
+      <c r="Z19" s="25">
+        <v>10587.17</v>
+      </c>
       <c r="AA19" s="25"/>
       <c r="AB19" s="18"/>
       <c r="AC19" s="18">
@@ -6000,7 +6212,9 @@
       <c r="AN19" s="25">
         <v>23558</v>
       </c>
-      <c r="AO19" s="25"/>
+      <c r="AO19" s="25">
+        <v>23495</v>
+      </c>
       <c r="AP19" s="25"/>
       <c r="AQ19" s="18"/>
       <c r="AR19" s="17"/>
@@ -6036,7 +6250,9 @@
       <c r="J20" s="3">
         <v>334</v>
       </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3">
+        <v>331</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3">
         <v>308</v>
@@ -6077,7 +6293,9 @@
       <c r="Y20" s="25">
         <v>10167.799999999999</v>
       </c>
-      <c r="Z20" s="25"/>
+      <c r="Z20" s="25">
+        <v>9911.8700000000008</v>
+      </c>
       <c r="AA20" s="25"/>
       <c r="AB20" s="18"/>
       <c r="AC20" s="18">
@@ -6116,7 +6334,9 @@
       <c r="AN20" s="25">
         <v>46817</v>
       </c>
-      <c r="AO20" s="25"/>
+      <c r="AO20" s="25">
+        <v>46817</v>
+      </c>
       <c r="AP20" s="25"/>
       <c r="AQ20" s="18"/>
       <c r="AR20" s="17"/>
@@ -6153,7 +6373,9 @@
       <c r="J21" s="25">
         <v>1176.3699999999999</v>
       </c>
-      <c r="K21" s="25"/>
+      <c r="K21" s="25">
+        <v>1176.3699999999999</v>
+      </c>
       <c r="L21" s="25"/>
       <c r="M21" s="1"/>
       <c r="N21" s="18">
@@ -6192,7 +6414,9 @@
       <c r="Y21" s="25">
         <v>5848.46</v>
       </c>
-      <c r="Z21" s="25"/>
+      <c r="Z21" s="25">
+        <v>5673.74</v>
+      </c>
       <c r="AA21" s="25"/>
       <c r="AB21" s="18"/>
       <c r="AC21" s="18">
@@ -6231,7 +6455,9 @@
       <c r="AN21" s="25">
         <v>320.01</v>
       </c>
-      <c r="AO21" s="25"/>
+      <c r="AO21" s="25">
+        <v>323.07</v>
+      </c>
       <c r="AP21" s="25"/>
       <c r="AQ21" s="12"/>
       <c r="AR21" s="17">
@@ -6271,7 +6497,9 @@
       <c r="J22" s="3">
         <v>359</v>
       </c>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3">
+        <v>359</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3">
         <v>380</v>
@@ -6312,7 +6540,9 @@
       <c r="Y22" s="25">
         <v>22464.99</v>
       </c>
-      <c r="Z22" s="25"/>
+      <c r="Z22" s="25">
+        <v>21495.02</v>
+      </c>
       <c r="AA22" s="25"/>
       <c r="AB22" s="18"/>
       <c r="AC22" s="18">
@@ -6351,7 +6581,9 @@
       <c r="AN22" s="25">
         <v>425</v>
       </c>
-      <c r="AO22" s="25"/>
+      <c r="AO22" s="25">
+        <v>425</v>
+      </c>
       <c r="AP22" s="25"/>
       <c r="AQ22" s="18"/>
       <c r="AR22" s="17">
@@ -6391,7 +6623,9 @@
       <c r="J23" s="3">
         <v>989</v>
       </c>
-      <c r="K23" s="3"/>
+      <c r="K23" s="3">
+        <v>989</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3">
         <v>683</v>
@@ -6432,7 +6666,9 @@
       <c r="Y23" s="25">
         <v>28386.639999999999</v>
       </c>
-      <c r="Z23" s="25"/>
+      <c r="Z23" s="25">
+        <v>28189.25</v>
+      </c>
       <c r="AA23" s="25"/>
       <c r="AB23" s="18"/>
       <c r="AC23" s="18"/>
@@ -6467,7 +6703,9 @@
       <c r="AN23" s="25">
         <v>55500</v>
       </c>
-      <c r="AO23" s="25"/>
+      <c r="AO23" s="25">
+        <v>55500</v>
+      </c>
       <c r="AP23" s="25"/>
       <c r="AQ23" s="18"/>
       <c r="AR23" s="17"/>
@@ -6503,7 +6741,9 @@
       <c r="J24" s="3">
         <v>490</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3">
+        <v>490</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3">
         <v>409</v>
@@ -6544,7 +6784,9 @@
       <c r="Y24" s="25">
         <v>1356</v>
       </c>
-      <c r="Z24" s="25"/>
+      <c r="Z24" s="25">
+        <v>1341</v>
+      </c>
       <c r="AA24" s="25"/>
       <c r="AB24" s="18"/>
       <c r="AC24" s="18"/>
@@ -6579,7 +6821,9 @@
       <c r="AN24" s="25">
         <v>1803.89</v>
       </c>
-      <c r="AO24" s="25"/>
+      <c r="AO24" s="25">
+        <v>1803.89</v>
+      </c>
       <c r="AP24" s="25"/>
       <c r="AQ24" s="18"/>
       <c r="AR24" s="17"/>
@@ -6629,7 +6873,9 @@
       <c r="AN25" s="3">
         <v>1981.71</v>
       </c>
-      <c r="AO25" s="3"/>
+      <c r="AO25" s="3">
+        <v>1981.71</v>
+      </c>
       <c r="AP25" s="3"/>
       <c r="AQ25" s="3">
         <v>1505.95</v>
@@ -6692,7 +6938,9 @@
       <c r="AN26" s="3">
         <v>2062.92</v>
       </c>
-      <c r="AO26" s="3"/>
+      <c r="AO26" s="3">
+        <v>2062.92</v>
+      </c>
       <c r="AP26" s="3"/>
       <c r="AQ26" s="3">
         <v>1647.33</v>
@@ -6841,8 +7089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN20" sqref="AN20"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO19" sqref="AO19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7091,7 +7339,9 @@
       <c r="J3" s="25">
         <v>2071.5700000000002</v>
       </c>
-      <c r="K3" s="25"/>
+      <c r="K3" s="25">
+        <v>2055.2600000000002</v>
+      </c>
       <c r="L3" s="25"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18">
@@ -7130,7 +7380,9 @@
       <c r="Y3" s="25">
         <v>3456</v>
       </c>
-      <c r="Z3" s="25"/>
+      <c r="Z3" s="25">
+        <v>3340</v>
+      </c>
       <c r="AA3" s="25"/>
       <c r="AB3" s="18"/>
       <c r="AC3" s="17">
@@ -7169,7 +7421,9 @@
       <c r="AN3" s="25">
         <v>63830.12</v>
       </c>
-      <c r="AO3" s="25"/>
+      <c r="AO3" s="25">
+        <v>63719.25</v>
+      </c>
       <c r="AP3" s="25"/>
       <c r="AQ3" s="18"/>
       <c r="AR3" s="17">
@@ -7237,7 +7491,9 @@
       <c r="Y4" s="25">
         <v>40637.25</v>
       </c>
-      <c r="Z4" s="25"/>
+      <c r="Z4" s="25">
+        <v>39556.93</v>
+      </c>
       <c r="AA4" s="25"/>
       <c r="AB4" s="18"/>
       <c r="AC4" s="17">
@@ -7276,7 +7532,9 @@
       <c r="AN4" s="25">
         <v>32157.040000000001</v>
       </c>
-      <c r="AO4" s="25"/>
+      <c r="AO4" s="25">
+        <v>31557.54</v>
+      </c>
       <c r="AP4" s="25"/>
       <c r="AQ4" s="18"/>
       <c r="AR4" s="17">
@@ -7317,7 +7575,9 @@
       <c r="J5" s="3">
         <v>6962</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>6649</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
         <v>77</v>
@@ -7354,7 +7614,9 @@
       <c r="Y5" s="25">
         <v>4673</v>
       </c>
-      <c r="Z5" s="25"/>
+      <c r="Z5" s="25">
+        <v>4643</v>
+      </c>
       <c r="AA5" s="25"/>
       <c r="AB5" s="18"/>
       <c r="AC5" s="17"/>
@@ -7389,7 +7651,9 @@
       <c r="AN5" s="25">
         <v>38002.1</v>
       </c>
-      <c r="AO5" s="25"/>
+      <c r="AO5" s="25">
+        <v>39424.629999999997</v>
+      </c>
       <c r="AP5" s="25"/>
       <c r="AQ5" s="18"/>
       <c r="AR5" s="17">
@@ -7430,7 +7694,9 @@
       <c r="J6" s="25">
         <v>22861</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="25">
+        <v>22317</v>
+      </c>
       <c r="L6" s="25"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
@@ -7496,7 +7762,9 @@
       <c r="AN6" s="25">
         <v>83744.61</v>
       </c>
-      <c r="AO6" s="25"/>
+      <c r="AO6" s="25">
+        <v>77379.09</v>
+      </c>
       <c r="AP6" s="25"/>
       <c r="AQ6" s="18"/>
       <c r="AR6" s="17">
@@ -7536,7 +7804,9 @@
       <c r="J7" s="3">
         <v>1035</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>1035</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
         <v>82</v>
@@ -7608,7 +7878,9 @@
       <c r="AN7" s="25">
         <v>41096.15</v>
       </c>
-      <c r="AO7" s="25"/>
+      <c r="AO7" s="25">
+        <v>40842.559999999998</v>
+      </c>
       <c r="AP7" s="25"/>
       <c r="AQ7" s="18"/>
       <c r="AR7" s="17">
@@ -7648,7 +7920,9 @@
       <c r="J8" s="3">
         <v>1218</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3">
+        <v>1218</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
         <v>84</v>
@@ -7720,7 +7994,9 @@
       <c r="AN8" s="25">
         <v>49580.44</v>
       </c>
-      <c r="AO8" s="25"/>
+      <c r="AO8" s="25">
+        <v>46572.18</v>
+      </c>
       <c r="AP8" s="25"/>
       <c r="AQ8" s="18"/>
       <c r="AR8" s="17">
@@ -7761,7 +8037,9 @@
       <c r="J9" s="3">
         <v>4246.84</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <v>4246.84</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="5">
         <v>7619.8989577796901</v>
@@ -7829,7 +8107,9 @@
       <c r="AN9" s="25">
         <v>64612.26</v>
       </c>
-      <c r="AO9" s="25"/>
+      <c r="AO9" s="25">
+        <v>63619.98</v>
+      </c>
       <c r="AP9" s="25"/>
       <c r="AQ9" s="18"/>
       <c r="AR9" s="17">
@@ -7870,7 +8150,9 @@
       <c r="J10" s="25">
         <v>55846.91</v>
       </c>
-      <c r="K10" s="25"/>
+      <c r="K10" s="25">
+        <v>54985.65</v>
+      </c>
       <c r="L10" s="25"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18">
@@ -7936,7 +8218,9 @@
       <c r="AN10" s="25">
         <v>36678.97</v>
       </c>
-      <c r="AO10" s="25"/>
+      <c r="AO10" s="25">
+        <v>35636.33</v>
+      </c>
       <c r="AP10" s="25"/>
       <c r="AQ10" s="18"/>
       <c r="AR10" s="17"/>
@@ -7973,7 +8257,9 @@
       <c r="J11" s="25">
         <v>13127</v>
       </c>
-      <c r="K11" s="25"/>
+      <c r="K11" s="25">
+        <v>13072</v>
+      </c>
       <c r="L11" s="25"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
@@ -8008,7 +8294,9 @@
       <c r="Y11" s="25">
         <v>8459</v>
       </c>
-      <c r="Z11" s="25"/>
+      <c r="Z11" s="25">
+        <v>8459</v>
+      </c>
       <c r="AA11" s="25"/>
       <c r="AB11" s="18"/>
       <c r="AC11" s="17">
@@ -8047,7 +8335,9 @@
       <c r="AN11" s="25">
         <v>37664.620000000003</v>
       </c>
-      <c r="AO11" s="25"/>
+      <c r="AO11" s="25">
+        <v>36725.06</v>
+      </c>
       <c r="AP11" s="25"/>
       <c r="AQ11" s="18"/>
       <c r="AR11" s="17"/>
@@ -8084,7 +8374,9 @@
       <c r="J12" s="25">
         <v>9360</v>
       </c>
-      <c r="K12" s="25"/>
+      <c r="K12" s="25">
+        <v>26510</v>
+      </c>
       <c r="L12" s="25"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -8119,7 +8411,9 @@
       <c r="Y12" s="25">
         <v>17585.830000000002</v>
       </c>
-      <c r="Z12" s="25"/>
+      <c r="Z12" s="25">
+        <v>15968.78</v>
+      </c>
       <c r="AA12" s="25"/>
       <c r="AB12" s="18"/>
       <c r="AC12" s="17">
@@ -8158,7 +8452,9 @@
       <c r="AN12" s="25">
         <v>65334.95</v>
       </c>
-      <c r="AO12" s="25"/>
+      <c r="AO12" s="25">
+        <v>64446.87</v>
+      </c>
       <c r="AP12" s="25"/>
       <c r="AQ12" s="18"/>
       <c r="AR12" s="17"/>
@@ -8193,7 +8489,9 @@
       <c r="J13" s="3">
         <v>1943.98</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>1943.98</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3">
         <v>1690.16</v>
@@ -8234,7 +8532,9 @@
       <c r="Y13" s="25">
         <v>22681.11</v>
       </c>
-      <c r="Z13" s="25"/>
+      <c r="Z13" s="25">
+        <v>21220.720000000001</v>
+      </c>
       <c r="AA13" s="25"/>
       <c r="AB13" s="18"/>
       <c r="AC13" s="17">
@@ -8273,7 +8573,9 @@
       <c r="AN13" s="25">
         <v>205376.77</v>
       </c>
-      <c r="AO13" s="25"/>
+      <c r="AO13" s="25">
+        <v>201207.83</v>
+      </c>
       <c r="AP13" s="25"/>
       <c r="AQ13" s="18"/>
       <c r="AR13" s="17"/>
@@ -8310,7 +8612,9 @@
       <c r="J14" s="25">
         <v>4152.75</v>
       </c>
-      <c r="K14" s="25"/>
+      <c r="K14" s="25">
+        <v>4150.8</v>
+      </c>
       <c r="L14" s="25"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18">
@@ -8349,7 +8653,9 @@
       <c r="Y14" s="25">
         <v>20952.57</v>
       </c>
-      <c r="Z14" s="25"/>
+      <c r="Z14" s="25">
+        <v>21135.27</v>
+      </c>
       <c r="AA14" s="25"/>
       <c r="AB14" s="18"/>
       <c r="AC14" s="17">
@@ -8388,7 +8694,9 @@
       <c r="AN14" s="27">
         <v>900.63</v>
       </c>
-      <c r="AO14" s="25"/>
+      <c r="AO14" s="25">
+        <v>894.74</v>
+      </c>
       <c r="AP14" s="25"/>
       <c r="AQ14" s="18"/>
       <c r="AR14" s="17">
@@ -8429,7 +8737,9 @@
       <c r="J15" s="25">
         <v>4898.32</v>
       </c>
-      <c r="K15" s="25"/>
+      <c r="K15" s="25">
+        <v>4802.63</v>
+      </c>
       <c r="L15" s="25"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18">
@@ -8468,7 +8778,9 @@
       <c r="Y15" s="25">
         <v>17195.84</v>
       </c>
-      <c r="Z15" s="25"/>
+      <c r="Z15" s="25">
+        <v>17065.96</v>
+      </c>
       <c r="AA15" s="25"/>
       <c r="AB15" s="18"/>
       <c r="AC15" s="17">
@@ -8507,7 +8819,9 @@
       <c r="AN15" s="25">
         <v>1695.61</v>
       </c>
-      <c r="AO15" s="25"/>
+      <c r="AO15" s="25">
+        <v>1694.18</v>
+      </c>
       <c r="AP15" s="25"/>
       <c r="AQ15" s="18"/>
       <c r="AR15" s="17">
@@ -8548,7 +8862,9 @@
       <c r="J16" s="3">
         <v>486</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3">
+        <v>438</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3">
@@ -8587,7 +8903,9 @@
       <c r="Y16" s="25">
         <v>17422.93</v>
       </c>
-      <c r="Z16" s="25"/>
+      <c r="Z16" s="25">
+        <v>17327.34</v>
+      </c>
       <c r="AA16" s="25"/>
       <c r="AB16" s="18"/>
       <c r="AC16" s="17">
@@ -8626,7 +8944,9 @@
       <c r="AN16" s="25">
         <v>5770.28</v>
       </c>
-      <c r="AO16" s="25"/>
+      <c r="AO16" s="25">
+        <v>5518.62</v>
+      </c>
       <c r="AP16" s="25"/>
       <c r="AQ16" s="18"/>
       <c r="AR16" s="17"/>
@@ -8663,7 +8983,9 @@
       <c r="J17" s="3">
         <v>291.58999999999997</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3">
+        <v>291.58999999999997</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3">
         <v>414.92</v>
@@ -8704,7 +9026,9 @@
       <c r="Y17" s="25">
         <v>24207.55</v>
       </c>
-      <c r="Z17" s="25"/>
+      <c r="Z17" s="25">
+        <v>23373.11</v>
+      </c>
       <c r="AA17" s="25"/>
       <c r="AB17" s="18"/>
       <c r="AC17" s="17">
@@ -8743,7 +9067,9 @@
       <c r="AN17" s="25">
         <v>7263.55</v>
       </c>
-      <c r="AO17" s="25"/>
+      <c r="AO17" s="25">
+        <v>6992.53</v>
+      </c>
       <c r="AP17" s="25"/>
       <c r="AQ17" s="18"/>
       <c r="AR17" s="17"/>
@@ -8780,7 +9106,9 @@
       <c r="J18" s="25">
         <v>353.56</v>
       </c>
-      <c r="K18" s="25"/>
+      <c r="K18" s="25">
+        <v>353.56</v>
+      </c>
       <c r="L18" s="25"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18">
@@ -8819,7 +9147,9 @@
       <c r="Y18" s="25">
         <v>14510</v>
       </c>
-      <c r="Z18" s="25"/>
+      <c r="Z18" s="25">
+        <v>14305.64</v>
+      </c>
       <c r="AA18" s="25"/>
       <c r="AB18" s="18"/>
       <c r="AC18" s="17">
@@ -8858,7 +9188,9 @@
       <c r="AN18" s="25">
         <v>15988</v>
       </c>
-      <c r="AO18" s="25"/>
+      <c r="AO18" s="25">
+        <v>15995</v>
+      </c>
       <c r="AP18" s="25"/>
       <c r="AQ18" s="18"/>
       <c r="AR18" s="17"/>
@@ -8895,7 +9227,9 @@
       <c r="J19" s="25">
         <v>479.74</v>
       </c>
-      <c r="K19" s="25"/>
+      <c r="K19" s="25">
+        <v>461.5</v>
+      </c>
       <c r="L19" s="25"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18">
@@ -8934,7 +9268,9 @@
       <c r="Y19" s="25">
         <v>16131.15</v>
       </c>
-      <c r="Z19" s="25"/>
+      <c r="Z19" s="25">
+        <v>15374.89</v>
+      </c>
       <c r="AA19" s="25"/>
       <c r="AB19" s="18"/>
       <c r="AC19" s="17">
@@ -8973,7 +9309,9 @@
       <c r="AN19" s="25">
         <v>36577</v>
       </c>
-      <c r="AO19" s="25"/>
+      <c r="AO19" s="25">
+        <v>36505</v>
+      </c>
       <c r="AP19" s="25"/>
       <c r="AQ19" s="18"/>
       <c r="AR19" s="17"/>
@@ -9009,7 +9347,9 @@
       <c r="J20" s="3">
         <v>684</v>
       </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3">
+        <v>672</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3">
         <v>492</v>
@@ -9050,7 +9390,9 @@
       <c r="Y20" s="25">
         <v>16256.53</v>
       </c>
-      <c r="Z20" s="25"/>
+      <c r="Z20" s="25">
+        <v>15982.98</v>
+      </c>
       <c r="AA20" s="25"/>
       <c r="AB20" s="18"/>
       <c r="AC20" s="17">
@@ -9089,7 +9431,9 @@
       <c r="AN20" s="25">
         <v>70571</v>
       </c>
-      <c r="AO20" s="25"/>
+      <c r="AO20" s="25">
+        <v>70401</v>
+      </c>
       <c r="AP20" s="25"/>
       <c r="AQ20" s="18"/>
       <c r="AR20" s="17"/>
@@ -9126,7 +9470,9 @@
       <c r="J21" s="25">
         <v>1733.52</v>
       </c>
-      <c r="K21" s="25"/>
+      <c r="K21" s="25">
+        <v>1721.15</v>
+      </c>
       <c r="L21" s="25"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18">
@@ -9165,7 +9511,9 @@
       <c r="Y21" s="25">
         <v>8932.8700000000008</v>
       </c>
-      <c r="Z21" s="25"/>
+      <c r="Z21" s="25">
+        <v>8758.16</v>
+      </c>
       <c r="AA21" s="25"/>
       <c r="AB21" s="18"/>
       <c r="AC21" s="17">
@@ -9204,7 +9552,9 @@
       <c r="AN21" s="25">
         <v>514.70000000000005</v>
       </c>
-      <c r="AO21" s="25"/>
+      <c r="AO21" s="25">
+        <v>516.14</v>
+      </c>
       <c r="AP21" s="25"/>
       <c r="AQ21" s="12"/>
       <c r="AR21" s="17">
@@ -9244,7 +9594,9 @@
       <c r="J22" s="3">
         <v>640</v>
       </c>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3">
+        <v>640</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3">
         <v>810</v>
@@ -9285,7 +9637,9 @@
       <c r="Y22" s="25">
         <v>32712.82</v>
       </c>
-      <c r="Z22" s="25"/>
+      <c r="Z22" s="25">
+        <v>31655.11</v>
+      </c>
       <c r="AA22" s="25"/>
       <c r="AB22" s="18"/>
       <c r="AC22" s="17">
@@ -9324,7 +9678,9 @@
       <c r="AN22" s="25">
         <v>732</v>
       </c>
-      <c r="AO22" s="25"/>
+      <c r="AO22" s="25">
+        <v>720</v>
+      </c>
       <c r="AP22" s="25"/>
       <c r="AQ22" s="18"/>
       <c r="AR22" s="17">
@@ -9364,7 +9720,9 @@
       <c r="J23" s="3">
         <v>1703</v>
       </c>
-      <c r="K23" s="3"/>
+      <c r="K23" s="3">
+        <v>1697</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3">
         <v>1377</v>
@@ -9405,7 +9763,9 @@
       <c r="Y23" s="25">
         <v>46167.02</v>
       </c>
-      <c r="Z23" s="25"/>
+      <c r="Z23" s="25">
+        <v>45404.9</v>
+      </c>
       <c r="AA23" s="25"/>
       <c r="AB23" s="18"/>
       <c r="AC23" s="17"/>
@@ -9440,7 +9800,9 @@
       <c r="AN23" s="25">
         <v>89500</v>
       </c>
-      <c r="AO23" s="25"/>
+      <c r="AO23" s="25">
+        <v>88061.21</v>
+      </c>
       <c r="AP23" s="25"/>
       <c r="AQ23" s="18"/>
       <c r="AR23" s="17"/>
@@ -9476,7 +9838,9 @@
       <c r="J24" s="3">
         <v>794</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3">
+        <v>794</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3">
         <v>764</v>
@@ -9517,7 +9881,9 @@
       <c r="Y24" s="25">
         <v>2300</v>
       </c>
-      <c r="Z24" s="25"/>
+      <c r="Z24" s="25">
+        <v>2246</v>
+      </c>
       <c r="AA24" s="25"/>
       <c r="AB24" s="18"/>
       <c r="AC24" s="17"/>
@@ -9552,7 +9918,9 @@
       <c r="AN24" s="25">
         <v>2794.99</v>
       </c>
-      <c r="AO24" s="25"/>
+      <c r="AO24" s="25">
+        <v>2751.96</v>
+      </c>
       <c r="AP24" s="25"/>
       <c r="AQ24" s="18"/>
       <c r="AR24" s="17"/>
@@ -9602,7 +9970,9 @@
       <c r="AN25" s="3">
         <v>2741.1</v>
       </c>
-      <c r="AO25" s="3"/>
+      <c r="AO25" s="3">
+        <v>2741.1</v>
+      </c>
       <c r="AP25" s="3"/>
       <c r="AQ25" s="3">
         <v>2980.94</v>
@@ -9665,7 +10035,9 @@
       <c r="AN26" s="3">
         <v>3049.85</v>
       </c>
-      <c r="AO26" s="3"/>
+      <c r="AO26" s="3">
+        <v>3049.85</v>
+      </c>
       <c r="AP26" s="3"/>
       <c r="AQ26" s="3">
         <v>2806.25</v>

--- a/Comparaçoes/Heurísticas.xlsx
+++ b/Comparaçoes/Heurísticas.xlsx
@@ -566,11 +566,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,7 +876,7 @@
   <dimension ref="B1:AS38"/>
   <sheetViews>
     <sheetView topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO26" sqref="AO26"/>
+      <selection activeCell="AP26" sqref="AP26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +893,9 @@
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" customWidth="1"/>
     <col min="25" max="27" width="12.28515625" customWidth="1"/>
     <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -904,7 +906,9 @@
     <col min="34" max="34" width="12" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.5703125" customWidth="1"/>
+    <col min="38" max="38" width="8.42578125" customWidth="1"/>
+    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="40" max="42" width="12.28515625" customWidth="1"/>
     <col min="44" max="44" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1128,7 +1132,9 @@
       <c r="K3" s="25">
         <v>625.97</v>
       </c>
-      <c r="L3" s="25"/>
+      <c r="L3" s="25">
+        <v>625.97</v>
+      </c>
       <c r="M3" s="18"/>
       <c r="N3" s="18">
         <v>670</v>
@@ -1169,7 +1175,9 @@
       <c r="Z3" s="25">
         <v>668</v>
       </c>
-      <c r="AA3" s="25"/>
+      <c r="AA3" s="25">
+        <v>668</v>
+      </c>
       <c r="AB3" s="18"/>
       <c r="AC3" s="17">
         <v>874</v>
@@ -1210,7 +1218,9 @@
       <c r="AO3" s="25">
         <v>25126.84</v>
       </c>
-      <c r="AP3" s="25"/>
+      <c r="AP3" s="25">
+        <v>25126.84</v>
+      </c>
       <c r="AQ3" s="18"/>
       <c r="AR3" s="17">
         <v>23450</v>
@@ -1234,11 +1244,11 @@
         <v>1</v>
       </c>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:I4" si="0" xml:space="preserve"> AVERAGE(1)</f>
+        <f xml:space="preserve"> AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="J4" s="25"/>
@@ -1280,7 +1290,9 @@
       <c r="Z4" s="25">
         <v>10068.39</v>
       </c>
-      <c r="AA4" s="25"/>
+      <c r="AA4" s="25">
+        <v>10660.31</v>
+      </c>
       <c r="AB4" s="18"/>
       <c r="AC4" s="17">
         <v>10460</v>
@@ -1321,7 +1333,9 @@
       <c r="AO4" s="25">
         <v>7564.94</v>
       </c>
-      <c r="AP4" s="25"/>
+      <c r="AP4" s="25">
+        <v>7359.17</v>
+      </c>
       <c r="AQ4" s="18"/>
       <c r="AR4" s="17">
         <v>8443</v>
@@ -1364,7 +1378,9 @@
       <c r="K5" s="3">
         <v>1373</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>1373</v>
+      </c>
       <c r="M5" s="3">
         <v>1239</v>
       </c>
@@ -1403,7 +1419,9 @@
       <c r="Z5" s="25">
         <v>1376</v>
       </c>
-      <c r="AA5" s="25"/>
+      <c r="AA5" s="25">
+        <v>1376</v>
+      </c>
       <c r="AB5" s="18"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="17"/>
@@ -1440,7 +1458,9 @@
       <c r="AO5" s="25">
         <v>10765.78</v>
       </c>
-      <c r="AP5" s="25"/>
+      <c r="AP5" s="25">
+        <v>10765.78</v>
+      </c>
       <c r="AQ5" s="18"/>
       <c r="AR5" s="17">
         <v>14640</v>
@@ -1483,7 +1503,9 @@
       <c r="K6" s="25">
         <v>5553</v>
       </c>
-      <c r="L6" s="25"/>
+      <c r="L6" s="25">
+        <v>5550</v>
+      </c>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="17"/>
@@ -1497,15 +1519,15 @@
       <c r="T6" s="18"/>
       <c r="U6" s="20"/>
       <c r="V6" s="18">
-        <f t="shared" ref="V6:V10" si="1">AVERAGE(1)</f>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="W6" s="18">
-        <f t="shared" ref="W6:X10" si="2">AVERAGE(1)</f>
+        <f t="shared" ref="W6:X10" si="0">AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="X6" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y6" s="25"/>
@@ -1551,7 +1573,9 @@
       <c r="AO6" s="25">
         <v>22109.3</v>
       </c>
-      <c r="AP6" s="25"/>
+      <c r="AP6" s="25">
+        <v>21887.32</v>
+      </c>
       <c r="AQ6" s="18"/>
       <c r="AR6" s="17">
         <v>21116</v>
@@ -1593,7 +1617,9 @@
       <c r="K7" s="3">
         <v>292</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>292</v>
+      </c>
       <c r="M7" s="3">
         <v>246</v>
       </c>
@@ -1613,15 +1639,15 @@
       <c r="T7" s="18"/>
       <c r="U7" s="20"/>
       <c r="V7" s="18">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="W7" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X7" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y7" s="25"/>
@@ -1667,7 +1693,9 @@
       <c r="AO7" s="25">
         <v>10742.86</v>
       </c>
-      <c r="AP7" s="25"/>
+      <c r="AP7" s="25">
+        <v>10778.43</v>
+      </c>
       <c r="AQ7" s="18"/>
       <c r="AR7" s="17">
         <v>14327</v>
@@ -1709,7 +1737,9 @@
       <c r="K8" s="3">
         <v>352</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>352</v>
+      </c>
       <c r="M8" s="4">
         <v>282</v>
       </c>
@@ -1729,15 +1759,15 @@
       <c r="T8" s="18"/>
       <c r="U8" s="20"/>
       <c r="V8" s="18">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="W8" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X8" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y8" s="25"/>
@@ -1783,7 +1813,9 @@
       <c r="AO8" s="25">
         <v>15403.26</v>
       </c>
-      <c r="AP8" s="25"/>
+      <c r="AP8" s="25">
+        <v>15403.26</v>
+      </c>
       <c r="AQ8" s="18"/>
       <c r="AR8" s="17">
         <v>23195</v>
@@ -1826,7 +1858,9 @@
       <c r="K9" s="3">
         <v>556.80999999999995</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>556.80999999999995</v>
+      </c>
       <c r="M9" s="5">
         <v>480.48033445701299</v>
       </c>
@@ -1846,15 +1880,15 @@
       <c r="T9" s="18"/>
       <c r="U9" s="20"/>
       <c r="V9" s="18">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="W9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y9" s="25"/>
@@ -1896,7 +1930,9 @@
       <c r="AO9" s="25">
         <v>22375.1</v>
       </c>
-      <c r="AP9" s="25"/>
+      <c r="AP9" s="25">
+        <v>21631.43</v>
+      </c>
       <c r="AQ9" s="18"/>
       <c r="AR9" s="17">
         <v>20033</v>
@@ -1939,7 +1975,9 @@
       <c r="K10" s="25">
         <v>14272.3</v>
       </c>
-      <c r="L10" s="25"/>
+      <c r="L10" s="25">
+        <v>14272.3</v>
+      </c>
       <c r="M10" s="18"/>
       <c r="N10" s="18">
         <v>10619</v>
@@ -1957,15 +1995,15 @@
       <c r="T10" s="18"/>
       <c r="U10" s="20"/>
       <c r="V10" s="18">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="W10" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X10" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y10" s="25"/>
@@ -2007,7 +2045,9 @@
       <c r="AO10" s="25">
         <v>8023.61</v>
       </c>
-      <c r="AP10" s="25"/>
+      <c r="AP10" s="25">
+        <v>8023.61</v>
+      </c>
       <c r="AQ10" s="18"/>
       <c r="AR10" s="17"/>
       <c r="AS10" s="17"/>
@@ -2046,7 +2086,9 @@
       <c r="K11" s="25">
         <v>6116</v>
       </c>
-      <c r="L11" s="25"/>
+      <c r="L11" s="25">
+        <v>6116</v>
+      </c>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="17"/>
@@ -2083,7 +2125,9 @@
       <c r="Z11" s="25">
         <v>3454</v>
       </c>
-      <c r="AA11" s="25"/>
+      <c r="AA11" s="25">
+        <v>3454</v>
+      </c>
       <c r="AB11" s="18"/>
       <c r="AC11" s="17">
         <v>2827</v>
@@ -2124,7 +2168,9 @@
       <c r="AO11" s="25">
         <v>12311.53</v>
       </c>
-      <c r="AP11" s="25"/>
+      <c r="AP11" s="25">
+        <v>11960.02</v>
+      </c>
       <c r="AQ11" s="18"/>
       <c r="AR11" s="17"/>
       <c r="AS11" s="17"/>
@@ -2163,7 +2209,9 @@
       <c r="K12" s="25">
         <v>11050</v>
       </c>
-      <c r="L12" s="25"/>
+      <c r="L12" s="25">
+        <v>11010</v>
+      </c>
       <c r="M12" s="12"/>
       <c r="N12" s="18"/>
       <c r="O12" s="17"/>
@@ -2200,7 +2248,9 @@
       <c r="Z12" s="25">
         <v>5015.0200000000004</v>
       </c>
-      <c r="AA12" s="25"/>
+      <c r="AA12" s="25">
+        <v>5015.0200000000004</v>
+      </c>
       <c r="AB12" s="18"/>
       <c r="AC12" s="17">
         <v>4970</v>
@@ -2241,7 +2291,9 @@
       <c r="AO12" s="25">
         <v>22074.32</v>
       </c>
-      <c r="AP12" s="25"/>
+      <c r="AP12" s="25">
+        <v>21798.44</v>
+      </c>
       <c r="AQ12" s="18"/>
       <c r="AR12" s="17"/>
       <c r="AS12" s="17"/>
@@ -2278,7 +2330,9 @@
       <c r="K13" s="3">
         <v>249.88</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3">
+        <v>249.88</v>
+      </c>
       <c r="M13" s="3">
         <v>224.88</v>
       </c>
@@ -2321,7 +2375,9 @@
       <c r="Z13" s="25">
         <v>6632.55</v>
       </c>
-      <c r="AA13" s="25"/>
+      <c r="AA13" s="25">
+        <v>6632.55</v>
+      </c>
       <c r="AB13" s="18"/>
       <c r="AC13" s="17">
         <v>5690</v>
@@ -2362,7 +2418,9 @@
       <c r="AO13" s="25">
         <v>66266.210000000006</v>
       </c>
-      <c r="AP13" s="25"/>
+      <c r="AP13" s="25">
+        <v>66267.63</v>
+      </c>
       <c r="AQ13" s="18"/>
       <c r="AR13" s="17"/>
       <c r="AS13" s="17"/>
@@ -2401,7 +2459,9 @@
       <c r="K14" s="25">
         <v>1205.2</v>
       </c>
-      <c r="L14" s="25"/>
+      <c r="L14" s="25">
+        <v>1207.1500000000001</v>
+      </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18">
         <v>1130</v>
@@ -2442,7 +2502,9 @@
       <c r="Z14" s="25">
         <v>6767.07</v>
       </c>
-      <c r="AA14" s="25"/>
+      <c r="AA14" s="25">
+        <v>6767.07</v>
+      </c>
       <c r="AB14" s="18"/>
       <c r="AC14" s="17">
         <v>6202</v>
@@ -2483,7 +2545,9 @@
       <c r="AO14" s="25">
         <v>263.3</v>
       </c>
-      <c r="AP14" s="25"/>
+      <c r="AP14" s="25">
+        <v>266.87</v>
+      </c>
       <c r="AQ14" s="18"/>
       <c r="AR14" s="17">
         <v>284</v>
@@ -2526,7 +2590,9 @@
       <c r="K15" s="25">
         <v>1304.57</v>
       </c>
-      <c r="L15" s="25"/>
+      <c r="L15" s="25">
+        <v>1304.57</v>
+      </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18">
         <v>1276</v>
@@ -2567,7 +2633,9 @@
       <c r="Z15" s="25">
         <v>5507.89</v>
       </c>
-      <c r="AA15" s="25"/>
+      <c r="AA15" s="25">
+        <v>5507.89</v>
+      </c>
       <c r="AB15" s="18"/>
       <c r="AC15" s="17">
         <v>4305</v>
@@ -2608,7 +2676,9 @@
       <c r="AO15" s="25">
         <v>558.64</v>
       </c>
-      <c r="AP15" s="25"/>
+      <c r="AP15" s="25">
+        <v>553.95000000000005</v>
+      </c>
       <c r="AQ15" s="18"/>
       <c r="AR15" s="17">
         <v>557</v>
@@ -2651,7 +2721,9 @@
       <c r="K16" s="3">
         <v>100</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3">
+        <v>100</v>
+      </c>
       <c r="M16" s="3">
         <v>99</v>
       </c>
@@ -2694,7 +2766,9 @@
       <c r="Z16" s="25">
         <v>5119.54</v>
       </c>
-      <c r="AA16" s="25"/>
+      <c r="AA16" s="25">
+        <v>5119.54</v>
+      </c>
       <c r="AB16" s="18"/>
       <c r="AC16" s="17">
         <v>5812</v>
@@ -2735,7 +2809,9 @@
       <c r="AO16" s="25">
         <v>1724.97</v>
       </c>
-      <c r="AP16" s="25"/>
+      <c r="AP16" s="25">
+        <v>1670.87</v>
+      </c>
       <c r="AQ16" s="18"/>
       <c r="AR16" s="17"/>
       <c r="AS16" s="17"/>
@@ -2774,7 +2850,9 @@
       <c r="K17" s="3">
         <v>77.040000000000006</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3">
+        <v>77.040000000000006</v>
+      </c>
       <c r="M17" s="3">
         <v>76.72</v>
       </c>
@@ -2817,7 +2895,9 @@
       <c r="Z17" s="25">
         <v>6789.91</v>
       </c>
-      <c r="AA17" s="25"/>
+      <c r="AA17" s="25">
+        <v>6789.91</v>
+      </c>
       <c r="AB17" s="18"/>
       <c r="AC17" s="17">
         <v>6368</v>
@@ -2858,7 +2938,9 @@
       <c r="AO17" s="25">
         <v>2280.65</v>
       </c>
-      <c r="AP17" s="25"/>
+      <c r="AP17" s="25">
+        <v>2236.9899999999998</v>
+      </c>
       <c r="AQ17" s="18"/>
       <c r="AR17" s="17"/>
       <c r="AS17" s="17"/>
@@ -2897,7 +2979,9 @@
       <c r="K18" s="25">
         <v>97.38</v>
       </c>
-      <c r="L18" s="25"/>
+      <c r="L18" s="25">
+        <v>97.38</v>
+      </c>
       <c r="M18" s="18"/>
       <c r="N18" s="18">
         <v>102</v>
@@ -2938,7 +3022,9 @@
       <c r="Z18" s="25">
         <v>4293.0200000000004</v>
       </c>
-      <c r="AA18" s="25"/>
+      <c r="AA18" s="25">
+        <v>4293.0200000000004</v>
+      </c>
       <c r="AB18" s="18"/>
       <c r="AC18" s="17">
         <v>4964</v>
@@ -2979,7 +3065,9 @@
       <c r="AO18" s="25">
         <v>5238</v>
       </c>
-      <c r="AP18" s="25"/>
+      <c r="AP18" s="25">
+        <v>5225</v>
+      </c>
       <c r="AQ18" s="18"/>
       <c r="AR18" s="17"/>
       <c r="AS18" s="17"/>
@@ -3018,7 +3106,9 @@
       <c r="K19" s="25">
         <v>150.4</v>
       </c>
-      <c r="L19" s="25"/>
+      <c r="L19" s="25">
+        <v>150.4</v>
+      </c>
       <c r="M19" s="18"/>
       <c r="N19" s="18">
         <v>107</v>
@@ -3059,7 +3149,9 @@
       <c r="Z19" s="25">
         <v>5246.28</v>
       </c>
-      <c r="AA19" s="25"/>
+      <c r="AA19" s="25">
+        <v>5246.28</v>
+      </c>
       <c r="AB19" s="18"/>
       <c r="AC19" s="17">
         <v>4762</v>
@@ -3100,7 +3192,9 @@
       <c r="AO19" s="25">
         <v>12252</v>
       </c>
-      <c r="AP19" s="25"/>
+      <c r="AP19" s="25">
+        <v>12083</v>
+      </c>
       <c r="AQ19" s="18"/>
       <c r="AR19" s="17"/>
       <c r="AS19" s="17"/>
@@ -3138,7 +3232,9 @@
       <c r="K20" s="3">
         <v>147</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3">
+        <v>147</v>
+      </c>
       <c r="M20" s="3">
         <v>145</v>
       </c>
@@ -3181,7 +3277,9 @@
       <c r="Z20" s="25">
         <v>4087.21</v>
       </c>
-      <c r="AA20" s="25"/>
+      <c r="AA20" s="25">
+        <v>4087.21</v>
+      </c>
       <c r="AB20" s="18"/>
       <c r="AC20" s="17">
         <v>3905</v>
@@ -3222,7 +3320,9 @@
       <c r="AO20" s="25">
         <v>22289</v>
       </c>
-      <c r="AP20" s="25"/>
+      <c r="AP20" s="25">
+        <v>22289</v>
+      </c>
       <c r="AQ20" s="18"/>
       <c r="AR20" s="17"/>
       <c r="AS20" s="17"/>
@@ -3261,7 +3361,9 @@
       <c r="K21" s="25">
         <v>559.01</v>
       </c>
-      <c r="L21" s="25"/>
+      <c r="L21" s="25">
+        <v>559.01</v>
+      </c>
       <c r="M21" s="18"/>
       <c r="N21" s="18">
         <v>540</v>
@@ -3302,7 +3404,9 @@
       <c r="Z21" s="25">
         <v>2109.4299999999998</v>
       </c>
-      <c r="AA21" s="25"/>
+      <c r="AA21" s="25">
+        <v>2109.4299999999998</v>
+      </c>
       <c r="AB21" s="18"/>
       <c r="AC21" s="17">
         <v>2606</v>
@@ -3343,7 +3447,9 @@
       <c r="AO21" s="25">
         <v>129.15</v>
       </c>
-      <c r="AP21" s="25"/>
+      <c r="AP21" s="25">
+        <v>129.15</v>
+      </c>
       <c r="AQ21" s="12"/>
       <c r="AR21" s="17">
         <v>120</v>
@@ -3385,7 +3491,9 @@
       <c r="K22" s="3">
         <v>165</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3">
+        <v>154</v>
+      </c>
       <c r="M22" s="3">
         <v>143</v>
       </c>
@@ -3428,7 +3536,9 @@
       <c r="Z22" s="25">
         <v>8860.4699999999993</v>
       </c>
-      <c r="AA22" s="25"/>
+      <c r="AA22" s="25">
+        <v>8865.39</v>
+      </c>
       <c r="AB22" s="18"/>
       <c r="AC22" s="17">
         <v>8901</v>
@@ -3469,7 +3579,9 @@
       <c r="AO22" s="25">
         <v>146</v>
       </c>
-      <c r="AP22" s="25"/>
+      <c r="AP22" s="25">
+        <v>146</v>
+      </c>
       <c r="AQ22" s="18"/>
       <c r="AR22" s="17">
         <v>192</v>
@@ -3511,7 +3623,9 @@
       <c r="K23" s="3">
         <v>258</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3">
+        <v>258</v>
+      </c>
       <c r="M23" s="3">
         <v>181</v>
       </c>
@@ -3554,7 +3668,9 @@
       <c r="Z23" s="25">
         <v>13194.03</v>
       </c>
-      <c r="AA23" s="25"/>
+      <c r="AA23" s="25">
+        <v>13100.47</v>
+      </c>
       <c r="AB23" s="18"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
@@ -3591,7 +3707,9 @@
       <c r="AO23" s="25">
         <v>27500</v>
       </c>
-      <c r="AP23" s="25"/>
+      <c r="AP23" s="25">
+        <v>27500</v>
+      </c>
       <c r="AQ23" s="18"/>
       <c r="AR23" s="17"/>
       <c r="AS23" s="17"/>
@@ -3629,7 +3747,9 @@
       <c r="K24" s="3">
         <v>162</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3">
+        <v>162</v>
+      </c>
       <c r="M24" s="3">
         <v>162</v>
       </c>
@@ -3673,7 +3793,9 @@
       <c r="Z24" s="25">
         <v>720</v>
       </c>
-      <c r="AA24" s="25"/>
+      <c r="AA24" s="25">
+        <v>718</v>
+      </c>
       <c r="AB24" s="18"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
@@ -3710,7 +3832,9 @@
       <c r="AO24" s="25">
         <v>964.26</v>
       </c>
-      <c r="AP24" s="25"/>
+      <c r="AP24" s="25">
+        <v>996.51</v>
+      </c>
       <c r="AQ24" s="18"/>
       <c r="AR24" s="17"/>
       <c r="AS24" s="17"/>
@@ -3751,7 +3875,9 @@
       <c r="AO25" s="3">
         <v>826.08</v>
       </c>
-      <c r="AP25" s="3"/>
+      <c r="AP25" s="3">
+        <v>826.08</v>
+      </c>
       <c r="AQ25" s="3">
         <v>714.33</v>
       </c>
@@ -3820,7 +3946,9 @@
       <c r="AO26" s="3">
         <v>456.58</v>
       </c>
-      <c r="AP26" s="3"/>
+      <c r="AP26" s="3">
+        <v>456.58</v>
+      </c>
       <c r="AQ26" s="3">
         <v>662.17</v>
       </c>
@@ -3986,8 +4114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS38"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG37" sqref="AG37"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP26" sqref="AP26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4008,7 +4136,7 @@
     <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.42578125" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" customWidth="1"/>
     <col min="25" max="27" width="12.28515625" customWidth="1"/>
     <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -4017,8 +4145,9 @@
     <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" customWidth="1"/>
-    <col min="37" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.28515625" customWidth="1"/>
+    <col min="37" max="38" width="7.7109375" customWidth="1"/>
+    <col min="39" max="39" width="10.42578125" customWidth="1"/>
     <col min="40" max="42" width="12.28515625" customWidth="1"/>
     <col min="43" max="43" width="8" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -4243,7 +4372,9 @@
       <c r="K3" s="25">
         <v>1318.03</v>
       </c>
-      <c r="L3" s="25"/>
+      <c r="L3" s="25">
+        <v>1309.68</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="18">
         <v>1314</v>
@@ -4284,7 +4415,9 @@
       <c r="Z3" s="25">
         <v>2122</v>
       </c>
-      <c r="AA3" s="25"/>
+      <c r="AA3" s="25">
+        <v>2011</v>
+      </c>
       <c r="AB3" s="18"/>
       <c r="AC3" s="18">
         <v>1819</v>
@@ -4325,7 +4458,9 @@
       <c r="AO3" s="25">
         <v>42676.77</v>
       </c>
-      <c r="AP3" s="25"/>
+      <c r="AP3" s="25">
+        <v>42676.77</v>
+      </c>
       <c r="AQ3" s="18"/>
       <c r="AR3" s="17">
         <v>41248</v>
@@ -4345,15 +4480,15 @@
       <c r="E4" s="1"/>
       <c r="F4" s="20"/>
       <c r="G4" s="13">
-        <f t="shared" ref="G4" si="0">AVERAGE(1)</f>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="H4" s="13">
-        <f t="shared" ref="H4:I4" si="1">AVERAGE(1)</f>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="I4" s="13">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="J4" s="25"/>
@@ -4395,7 +4530,9 @@
       <c r="Z4" s="25">
         <v>21055.45</v>
       </c>
-      <c r="AA4" s="25"/>
+      <c r="AA4" s="25">
+        <v>21657.37</v>
+      </c>
       <c r="AB4" s="18"/>
       <c r="AC4" s="18">
         <v>20688</v>
@@ -4436,7 +4573,9 @@
       <c r="AO4" s="25">
         <v>15960.98</v>
       </c>
-      <c r="AP4" s="25"/>
+      <c r="AP4" s="25">
+        <v>15262.35</v>
+      </c>
       <c r="AQ4" s="18"/>
       <c r="AR4" s="17">
         <v>18028</v>
@@ -4479,7 +4618,9 @@
       <c r="K5" s="3">
         <v>3231</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>3231</v>
+      </c>
       <c r="M5" s="3" t="s">
         <v>76</v>
       </c>
@@ -4518,7 +4659,9 @@
       <c r="Z5" s="25">
         <v>3120</v>
       </c>
-      <c r="AA5" s="25"/>
+      <c r="AA5" s="25">
+        <v>3120</v>
+      </c>
       <c r="AB5" s="18"/>
       <c r="AC5" s="18"/>
       <c r="AD5" s="17"/>
@@ -4555,7 +4698,9 @@
       <c r="AO5" s="25">
         <v>25633.65</v>
       </c>
-      <c r="AP5" s="25"/>
+      <c r="AP5" s="25">
+        <v>23691.5</v>
+      </c>
       <c r="AQ5" s="18"/>
       <c r="AR5" s="17">
         <v>22998</v>
@@ -4598,7 +4743,9 @@
       <c r="K6" s="25">
         <v>14128</v>
       </c>
-      <c r="L6" s="25"/>
+      <c r="L6" s="25">
+        <v>14036</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="18"/>
       <c r="O6" s="17"/>
@@ -4612,15 +4759,15 @@
       <c r="T6" s="18"/>
       <c r="U6" s="20"/>
       <c r="V6" s="18">
-        <f t="shared" ref="V6:V10" si="2">AVERAGE(1)</f>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="W6" s="18">
-        <f t="shared" ref="W6:X10" si="3">AVERAGE(1)</f>
+        <f t="shared" ref="W6:X10" si="0">AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="X6" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y6" s="25"/>
@@ -4666,7 +4813,9 @@
       <c r="AO6" s="25">
         <v>46726.91</v>
       </c>
-      <c r="AP6" s="25"/>
+      <c r="AP6" s="25">
+        <v>50028.99</v>
+      </c>
       <c r="AQ6" s="18"/>
       <c r="AR6" s="17">
         <v>46890</v>
@@ -4708,7 +4857,9 @@
       <c r="K7" s="3">
         <v>581</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>581</v>
+      </c>
       <c r="M7" s="3" t="s">
         <v>81</v>
       </c>
@@ -4728,15 +4879,15 @@
       <c r="T7" s="18"/>
       <c r="U7" s="20"/>
       <c r="V7" s="18">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="W7" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X7" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y7" s="25"/>
@@ -4782,7 +4933,9 @@
       <c r="AO7" s="25">
         <v>26306.34</v>
       </c>
-      <c r="AP7" s="25"/>
+      <c r="AP7" s="25">
+        <v>26331.47</v>
+      </c>
       <c r="AQ7" s="18"/>
       <c r="AR7" s="17">
         <v>28402</v>
@@ -4824,7 +4977,9 @@
       <c r="K8" s="3">
         <v>816</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>816</v>
+      </c>
       <c r="M8" s="3" t="s">
         <v>83</v>
       </c>
@@ -4844,15 +4999,15 @@
       <c r="T8" s="18"/>
       <c r="U8" s="20"/>
       <c r="V8" s="18">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="W8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y8" s="25"/>
@@ -4898,7 +5053,9 @@
       <c r="AO8" s="25">
         <v>32745.67</v>
       </c>
-      <c r="AP8" s="25"/>
+      <c r="AP8" s="25">
+        <v>32794.53</v>
+      </c>
       <c r="AQ8" s="18"/>
       <c r="AR8" s="17">
         <v>36637</v>
@@ -4941,7 +5098,9 @@
       <c r="K9" s="3">
         <v>1766.5</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>1766.5</v>
+      </c>
       <c r="M9" s="5">
         <v>3303.71452420693</v>
       </c>
@@ -4961,15 +5120,15 @@
       <c r="T9" s="18"/>
       <c r="U9" s="20"/>
       <c r="V9" s="18">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="W9" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X9" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y9" s="25"/>
@@ -5011,7 +5170,9 @@
       <c r="AO9" s="25">
         <v>48156.03</v>
       </c>
-      <c r="AP9" s="25"/>
+      <c r="AP9" s="25">
+        <v>47039.29</v>
+      </c>
       <c r="AQ9" s="18"/>
       <c r="AR9" s="17">
         <v>38718</v>
@@ -5054,7 +5215,9 @@
       <c r="K10" s="25">
         <v>28429.05</v>
       </c>
-      <c r="L10" s="25"/>
+      <c r="L10" s="25">
+        <v>27862.639999999999</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="18">
         <v>26062</v>
@@ -5072,15 +5235,15 @@
       <c r="T10" s="18"/>
       <c r="U10" s="20"/>
       <c r="V10" s="18">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="W10" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X10" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y10" s="25"/>
@@ -5122,7 +5285,9 @@
       <c r="AO10" s="25">
         <v>21889.15</v>
       </c>
-      <c r="AP10" s="25"/>
+      <c r="AP10" s="25">
+        <v>22363.5</v>
+      </c>
       <c r="AQ10" s="18"/>
       <c r="AR10" s="17"/>
       <c r="AS10" s="17"/>
@@ -5161,7 +5326,9 @@
       <c r="K11" s="25">
         <v>10262</v>
       </c>
-      <c r="L11" s="25"/>
+      <c r="L11" s="25">
+        <v>10262</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="18"/>
       <c r="O11" s="17"/>
@@ -5198,7 +5365,9 @@
       <c r="Z11" s="25">
         <v>6284</v>
       </c>
-      <c r="AA11" s="25"/>
+      <c r="AA11" s="25">
+        <v>6284</v>
+      </c>
       <c r="AB11" s="18"/>
       <c r="AC11" s="18">
         <v>4701</v>
@@ -5239,7 +5408,9 @@
       <c r="AO11" s="25">
         <v>25630.01</v>
       </c>
-      <c r="AP11" s="25"/>
+      <c r="AP11" s="25">
+        <v>24829.1</v>
+      </c>
       <c r="AQ11" s="18"/>
       <c r="AR11" s="17"/>
       <c r="AS11" s="17"/>
@@ -5278,7 +5449,9 @@
       <c r="K12" s="25">
         <v>25610</v>
       </c>
-      <c r="L12" s="25"/>
+      <c r="L12" s="25">
+        <v>4770</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="18"/>
       <c r="O12" s="17"/>
@@ -5315,7 +5488,9 @@
       <c r="Z12" s="25">
         <v>10638.41</v>
       </c>
-      <c r="AA12" s="25"/>
+      <c r="AA12" s="25">
+        <v>10809.47</v>
+      </c>
       <c r="AB12" s="18"/>
       <c r="AC12" s="18">
         <v>9184</v>
@@ -5356,7 +5531,9 @@
       <c r="AO12" s="25">
         <v>40496.9</v>
       </c>
-      <c r="AP12" s="25"/>
+      <c r="AP12" s="25">
+        <v>39951.51</v>
+      </c>
       <c r="AQ12" s="18"/>
       <c r="AR12" s="17"/>
       <c r="AS12" s="17"/>
@@ -5393,7 +5570,9 @@
       <c r="K13" s="3">
         <v>1454.84</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3">
+        <v>1454.84</v>
+      </c>
       <c r="M13" s="3">
         <v>966.37</v>
       </c>
@@ -5436,7 +5615,9 @@
       <c r="Z13" s="25">
         <v>14772.08</v>
       </c>
-      <c r="AA13" s="25"/>
+      <c r="AA13" s="25">
+        <v>14026.18</v>
+      </c>
       <c r="AB13" s="18"/>
       <c r="AC13" s="18">
         <v>11625</v>
@@ -5477,7 +5658,9 @@
       <c r="AO13" s="25">
         <v>129086.31</v>
       </c>
-      <c r="AP13" s="25"/>
+      <c r="AP13" s="25">
+        <v>128728.12</v>
+      </c>
       <c r="AQ13" s="18"/>
       <c r="AR13" s="17"/>
       <c r="AS13" s="17"/>
@@ -5516,7 +5699,9 @@
       <c r="K14" s="25">
         <v>2708.24</v>
       </c>
-      <c r="L14" s="25"/>
+      <c r="L14" s="25">
+        <v>2710.19</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="18">
         <v>2408</v>
@@ -5557,7 +5742,9 @@
       <c r="Z14" s="25">
         <v>13485.45</v>
       </c>
-      <c r="AA14" s="25"/>
+      <c r="AA14" s="25">
+        <v>13485.45</v>
+      </c>
       <c r="AB14" s="18"/>
       <c r="AC14" s="18">
         <v>12753</v>
@@ -5598,7 +5785,9 @@
       <c r="AO14" s="25">
         <v>578.70000000000005</v>
       </c>
-      <c r="AP14" s="25"/>
+      <c r="AP14" s="25">
+        <v>571.6</v>
+      </c>
       <c r="AQ14" s="18"/>
       <c r="AR14" s="17">
         <v>574</v>
@@ -5641,7 +5830,9 @@
       <c r="K15" s="25">
         <v>3082.54</v>
       </c>
-      <c r="L15" s="25"/>
+      <c r="L15" s="25">
+        <v>3087.18</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="18">
         <v>2761</v>
@@ -5682,7 +5873,9 @@
       <c r="Z15" s="25">
         <v>11366.47</v>
       </c>
-      <c r="AA15" s="25"/>
+      <c r="AA15" s="25">
+        <v>11184.6</v>
+      </c>
       <c r="AB15" s="18"/>
       <c r="AC15" s="18">
         <v>9096</v>
@@ -5723,7 +5916,9 @@
       <c r="AO15" s="25">
         <v>1133.95</v>
       </c>
-      <c r="AP15" s="25"/>
+      <c r="AP15" s="25">
+        <v>1125.23</v>
+      </c>
       <c r="AQ15" s="18"/>
       <c r="AR15" s="17">
         <v>1140</v>
@@ -5766,7 +5961,9 @@
       <c r="K16" s="3">
         <v>239</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3">
+        <v>239</v>
+      </c>
       <c r="M16" s="3">
         <v>230</v>
       </c>
@@ -5809,7 +6006,9 @@
       <c r="Z16" s="25">
         <v>11909.87</v>
       </c>
-      <c r="AA16" s="25"/>
+      <c r="AA16" s="25">
+        <v>12016.93</v>
+      </c>
       <c r="AB16" s="18"/>
       <c r="AC16" s="18">
         <v>11535</v>
@@ -5850,7 +6049,9 @@
       <c r="AO16" s="25">
         <v>3407.23</v>
       </c>
-      <c r="AP16" s="25"/>
+      <c r="AP16" s="25">
+        <v>3354.21</v>
+      </c>
       <c r="AQ16" s="18"/>
       <c r="AR16" s="17"/>
       <c r="AS16" s="17"/>
@@ -5889,7 +6090,9 @@
       <c r="K17" s="3">
         <v>181.41</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3">
+        <v>181.41</v>
+      </c>
       <c r="M17" s="3" t="s">
         <v>85</v>
       </c>
@@ -5932,7 +6135,9 @@
       <c r="Z17" s="25">
         <v>16276.03</v>
       </c>
-      <c r="AA17" s="25"/>
+      <c r="AA17" s="25">
+        <v>15963.66</v>
+      </c>
       <c r="AB17" s="18"/>
       <c r="AC17" s="18">
         <v>13080</v>
@@ -5973,7 +6178,9 @@
       <c r="AO17" s="25">
         <v>4535.42</v>
       </c>
-      <c r="AP17" s="25"/>
+      <c r="AP17" s="25">
+        <v>4472.01</v>
+      </c>
       <c r="AQ17" s="18"/>
       <c r="AR17" s="17"/>
       <c r="AS17" s="17"/>
@@ -6012,7 +6219,9 @@
       <c r="K18" s="25">
         <v>229.64</v>
       </c>
-      <c r="L18" s="25"/>
+      <c r="L18" s="25">
+        <v>229.64</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="18">
         <v>216</v>
@@ -6053,7 +6262,9 @@
       <c r="Z18" s="25">
         <v>9555.73</v>
       </c>
-      <c r="AA18" s="25"/>
+      <c r="AA18" s="25">
+        <v>9555.73</v>
+      </c>
       <c r="AB18" s="18"/>
       <c r="AC18" s="18">
         <v>9457</v>
@@ -6094,7 +6305,9 @@
       <c r="AO18" s="25">
         <v>10528</v>
       </c>
-      <c r="AP18" s="25"/>
+      <c r="AP18" s="25">
+        <v>10498</v>
+      </c>
       <c r="AQ18" s="18"/>
       <c r="AR18" s="17"/>
       <c r="AS18" s="17"/>
@@ -6133,7 +6346,9 @@
       <c r="K19" s="25">
         <v>314.43</v>
       </c>
-      <c r="L19" s="25"/>
+      <c r="L19" s="25">
+        <v>314.43</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="18">
         <v>227</v>
@@ -6174,7 +6389,9 @@
       <c r="Z19" s="25">
         <v>10587.17</v>
       </c>
-      <c r="AA19" s="25"/>
+      <c r="AA19" s="25">
+        <v>10205.07</v>
+      </c>
       <c r="AB19" s="18"/>
       <c r="AC19" s="18">
         <v>8719</v>
@@ -6215,7 +6432,9 @@
       <c r="AO19" s="25">
         <v>23495</v>
       </c>
-      <c r="AP19" s="25"/>
+      <c r="AP19" s="25">
+        <v>23164</v>
+      </c>
       <c r="AQ19" s="18"/>
       <c r="AR19" s="17"/>
       <c r="AS19" s="17"/>
@@ -6253,7 +6472,9 @@
       <c r="K20" s="3">
         <v>331</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3">
+        <v>334</v>
+      </c>
       <c r="M20" s="3">
         <v>308</v>
       </c>
@@ -6296,7 +6517,9 @@
       <c r="Z20" s="25">
         <v>9911.8700000000008</v>
       </c>
-      <c r="AA20" s="25"/>
+      <c r="AA20" s="25">
+        <v>9424.1</v>
+      </c>
       <c r="AB20" s="18"/>
       <c r="AC20" s="18">
         <v>9102</v>
@@ -6337,7 +6560,9 @@
       <c r="AO20" s="25">
         <v>46817</v>
       </c>
-      <c r="AP20" s="25"/>
+      <c r="AP20" s="25">
+        <v>46591</v>
+      </c>
       <c r="AQ20" s="18"/>
       <c r="AR20" s="17"/>
       <c r="AS20" s="17"/>
@@ -6376,7 +6601,9 @@
       <c r="K21" s="25">
         <v>1176.3699999999999</v>
       </c>
-      <c r="L21" s="25"/>
+      <c r="L21" s="25">
+        <v>1169.1600000000001</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21" s="18">
         <v>1042</v>
@@ -6417,7 +6644,9 @@
       <c r="Z21" s="25">
         <v>5673.74</v>
       </c>
-      <c r="AA21" s="25"/>
+      <c r="AA21" s="25">
+        <v>5691.96</v>
+      </c>
       <c r="AB21" s="18"/>
       <c r="AC21" s="18">
         <v>5848</v>
@@ -6458,7 +6687,9 @@
       <c r="AO21" s="25">
         <v>323.07</v>
       </c>
-      <c r="AP21" s="25"/>
+      <c r="AP21" s="25">
+        <v>308.25</v>
+      </c>
       <c r="AQ21" s="12"/>
       <c r="AR21" s="17">
         <v>260</v>
@@ -6500,7 +6731,9 @@
       <c r="K22" s="3">
         <v>359</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3">
+        <v>359</v>
+      </c>
       <c r="M22" s="3">
         <v>380</v>
       </c>
@@ -6543,7 +6776,9 @@
       <c r="Z22" s="25">
         <v>21495.02</v>
       </c>
-      <c r="AA22" s="25"/>
+      <c r="AA22" s="25">
+        <v>20813.25</v>
+      </c>
       <c r="AB22" s="18"/>
       <c r="AC22" s="18">
         <v>18600</v>
@@ -6584,7 +6819,9 @@
       <c r="AO22" s="25">
         <v>425</v>
       </c>
-      <c r="AP22" s="25"/>
+      <c r="AP22" s="25">
+        <v>425</v>
+      </c>
       <c r="AQ22" s="18"/>
       <c r="AR22" s="17">
         <v>458</v>
@@ -6626,7 +6863,9 @@
       <c r="K23" s="3">
         <v>989</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3">
+        <v>989</v>
+      </c>
       <c r="M23" s="3">
         <v>683</v>
       </c>
@@ -6669,7 +6908,9 @@
       <c r="Z23" s="25">
         <v>28189.25</v>
       </c>
-      <c r="AA23" s="25"/>
+      <c r="AA23" s="25">
+        <v>28110.73</v>
+      </c>
       <c r="AB23" s="18"/>
       <c r="AC23" s="18"/>
       <c r="AD23" s="17"/>
@@ -6706,7 +6947,9 @@
       <c r="AO23" s="25">
         <v>55500</v>
       </c>
-      <c r="AP23" s="25"/>
+      <c r="AP23" s="25">
+        <v>55500</v>
+      </c>
       <c r="AQ23" s="18"/>
       <c r="AR23" s="17"/>
       <c r="AS23" s="17"/>
@@ -6744,7 +6987,9 @@
       <c r="K24" s="3">
         <v>490</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3">
+        <v>490</v>
+      </c>
       <c r="M24" s="3">
         <v>409</v>
       </c>
@@ -6787,7 +7032,9 @@
       <c r="Z24" s="25">
         <v>1341</v>
       </c>
-      <c r="AA24" s="25"/>
+      <c r="AA24" s="25">
+        <v>1336</v>
+      </c>
       <c r="AB24" s="18"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="17"/>
@@ -6824,7 +7071,9 @@
       <c r="AO24" s="25">
         <v>1803.89</v>
       </c>
-      <c r="AP24" s="25"/>
+      <c r="AP24" s="25">
+        <v>1836.14</v>
+      </c>
       <c r="AQ24" s="18"/>
       <c r="AR24" s="17"/>
       <c r="AS24" s="17"/>
@@ -6876,7 +7125,9 @@
       <c r="AO25" s="3">
         <v>1981.71</v>
       </c>
-      <c r="AP25" s="3"/>
+      <c r="AP25" s="3">
+        <v>1981.71</v>
+      </c>
       <c r="AQ25" s="3">
         <v>1505.95</v>
       </c>
@@ -6941,7 +7192,9 @@
       <c r="AO26" s="3">
         <v>2062.92</v>
       </c>
-      <c r="AP26" s="3"/>
+      <c r="AP26" s="3">
+        <v>2062.92</v>
+      </c>
       <c r="AQ26" s="3">
         <v>1647.33</v>
       </c>
@@ -7063,22 +7316,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AH1:AS1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E28"/>
-    <mergeCell ref="B29:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B29:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="AH1:AS1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7089,8 +7342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO19" sqref="AO19"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP17" sqref="AP17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7108,7 +7361,9 @@
     <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" customWidth="1"/>
     <col min="25" max="27" width="12.28515625" customWidth="1"/>
     <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -7118,7 +7373,7 @@
     <col min="33" max="33" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="10.7109375" customWidth="1"/>
     <col min="40" max="42" width="12.28515625" customWidth="1"/>
     <col min="44" max="44" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -7342,7 +7597,9 @@
       <c r="K3" s="25">
         <v>2055.2600000000002</v>
       </c>
-      <c r="L3" s="25"/>
+      <c r="L3" s="25">
+        <v>2024.94</v>
+      </c>
       <c r="M3" s="18"/>
       <c r="N3" s="18">
         <v>2066</v>
@@ -7383,7 +7640,9 @@
       <c r="Z3" s="25">
         <v>3340</v>
       </c>
-      <c r="AA3" s="25"/>
+      <c r="AA3" s="25">
+        <v>3164</v>
+      </c>
       <c r="AB3" s="18"/>
       <c r="AC3" s="17">
         <v>3104</v>
@@ -7424,7 +7683,9 @@
       <c r="AO3" s="25">
         <v>63719.25</v>
       </c>
-      <c r="AP3" s="25"/>
+      <c r="AP3" s="25">
+        <v>62471.59</v>
+      </c>
       <c r="AQ3" s="18"/>
       <c r="AR3" s="17">
         <v>64142</v>
@@ -7444,15 +7705,15 @@
       <c r="E4" s="18"/>
       <c r="F4" s="20"/>
       <c r="G4" s="18">
-        <f t="shared" ref="G4" si="0">AVERAGE(1)</f>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:I4" si="1">AVERAGE(1)</f>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="J4" s="25"/>
@@ -7494,7 +7755,9 @@
       <c r="Z4" s="25">
         <v>39556.93</v>
       </c>
-      <c r="AA4" s="25"/>
+      <c r="AA4" s="25">
+        <v>40066.080000000002</v>
+      </c>
       <c r="AB4" s="18"/>
       <c r="AC4" s="17">
         <v>31437</v>
@@ -7535,7 +7798,9 @@
       <c r="AO4" s="25">
         <v>31557.54</v>
       </c>
-      <c r="AP4" s="25"/>
+      <c r="AP4" s="25">
+        <v>30370.62</v>
+      </c>
       <c r="AQ4" s="18"/>
       <c r="AR4" s="17">
         <v>36468</v>
@@ -7578,7 +7843,9 @@
       <c r="K5" s="3">
         <v>6649</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>6505</v>
+      </c>
       <c r="M5" s="3" t="s">
         <v>77</v>
       </c>
@@ -7617,7 +7884,9 @@
       <c r="Z5" s="25">
         <v>4643</v>
       </c>
-      <c r="AA5" s="25"/>
+      <c r="AA5" s="25">
+        <v>4635</v>
+      </c>
       <c r="AB5" s="18"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="17"/>
@@ -7654,7 +7923,9 @@
       <c r="AO5" s="25">
         <v>39424.629999999997</v>
       </c>
-      <c r="AP5" s="25"/>
+      <c r="AP5" s="25">
+        <v>37725.64</v>
+      </c>
       <c r="AQ5" s="18"/>
       <c r="AR5" s="17">
         <v>39174</v>
@@ -7697,7 +7968,9 @@
       <c r="K6" s="25">
         <v>22317</v>
       </c>
-      <c r="L6" s="25"/>
+      <c r="L6" s="25">
+        <v>21862</v>
+      </c>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="17"/>
@@ -7711,15 +7984,15 @@
       <c r="T6" s="18"/>
       <c r="U6" s="20"/>
       <c r="V6" s="18">
-        <f t="shared" ref="V6:V10" si="2">AVERAGE(1)</f>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="W6" s="18">
-        <f t="shared" ref="W6:X10" si="3">AVERAGE(1)</f>
+        <f t="shared" ref="W6:X10" si="0">AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="X6" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y6" s="25"/>
@@ -7765,7 +8038,9 @@
       <c r="AO6" s="25">
         <v>77379.09</v>
       </c>
-      <c r="AP6" s="25"/>
+      <c r="AP6" s="25">
+        <v>76340.25</v>
+      </c>
       <c r="AQ6" s="18"/>
       <c r="AR6" s="17">
         <v>69690</v>
@@ -7807,7 +8082,9 @@
       <c r="K7" s="3">
         <v>1035</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>1035</v>
+      </c>
       <c r="M7" s="3" t="s">
         <v>82</v>
       </c>
@@ -7827,15 +8104,15 @@
       <c r="T7" s="18"/>
       <c r="U7" s="20"/>
       <c r="V7" s="18">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="W7" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X7" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y7" s="25"/>
@@ -7881,7 +8158,9 @@
       <c r="AO7" s="25">
         <v>40842.559999999998</v>
       </c>
-      <c r="AP7" s="25"/>
+      <c r="AP7" s="25">
+        <v>41085.79</v>
+      </c>
       <c r="AQ7" s="18"/>
       <c r="AR7" s="17">
         <v>41452</v>
@@ -7923,7 +8202,9 @@
       <c r="K8" s="3">
         <v>1218</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>1218</v>
+      </c>
       <c r="M8" s="3" t="s">
         <v>84</v>
       </c>
@@ -7943,15 +8224,15 @@
       <c r="T8" s="18"/>
       <c r="U8" s="20"/>
       <c r="V8" s="18">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="W8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y8" s="25"/>
@@ -7997,7 +8278,9 @@
       <c r="AO8" s="25">
         <v>46572.18</v>
       </c>
-      <c r="AP8" s="25"/>
+      <c r="AP8" s="25">
+        <v>46589.23</v>
+      </c>
       <c r="AQ8" s="18"/>
       <c r="AR8" s="17">
         <v>57431</v>
@@ -8040,7 +8323,9 @@
       <c r="K9" s="3">
         <v>4246.84</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>4246.84</v>
+      </c>
       <c r="M9" s="5">
         <v>7619.8989577796901</v>
       </c>
@@ -8060,15 +8345,15 @@
       <c r="T9" s="18"/>
       <c r="U9" s="20"/>
       <c r="V9" s="18">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="W9" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X9" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y9" s="25"/>
@@ -8110,7 +8395,9 @@
       <c r="AO9" s="25">
         <v>63619.98</v>
       </c>
-      <c r="AP9" s="25"/>
+      <c r="AP9" s="25">
+        <v>62428.38</v>
+      </c>
       <c r="AQ9" s="18"/>
       <c r="AR9" s="17">
         <v>47516</v>
@@ -8153,7 +8440,9 @@
       <c r="K10" s="25">
         <v>54985.65</v>
       </c>
-      <c r="L10" s="25"/>
+      <c r="L10" s="25">
+        <v>54589.39</v>
+      </c>
       <c r="M10" s="18"/>
       <c r="N10" s="18">
         <v>50324</v>
@@ -8171,15 +8460,15 @@
       <c r="T10" s="18"/>
       <c r="U10" s="20"/>
       <c r="V10" s="18">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(1)</f>
         <v>1</v>
       </c>
       <c r="W10" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X10" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y10" s="25"/>
@@ -8221,7 +8510,9 @@
       <c r="AO10" s="25">
         <v>35636.33</v>
       </c>
-      <c r="AP10" s="25"/>
+      <c r="AP10" s="25">
+        <v>36106.68</v>
+      </c>
       <c r="AQ10" s="18"/>
       <c r="AR10" s="17"/>
       <c r="AS10" s="17"/>
@@ -8260,7 +8551,9 @@
       <c r="K11" s="25">
         <v>13072</v>
       </c>
-      <c r="L11" s="25"/>
+      <c r="L11" s="25">
+        <v>13109</v>
+      </c>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="17"/>
@@ -8297,7 +8590,9 @@
       <c r="Z11" s="25">
         <v>8459</v>
       </c>
-      <c r="AA11" s="25"/>
+      <c r="AA11" s="25">
+        <v>8308</v>
+      </c>
       <c r="AB11" s="18"/>
       <c r="AC11" s="17">
         <v>7278</v>
@@ -8338,7 +8633,9 @@
       <c r="AO11" s="25">
         <v>36725.06</v>
       </c>
-      <c r="AP11" s="25"/>
+      <c r="AP11" s="25">
+        <v>36050.949999999997</v>
+      </c>
       <c r="AQ11" s="18"/>
       <c r="AR11" s="17"/>
       <c r="AS11" s="17"/>
@@ -8377,7 +8674,9 @@
       <c r="K12" s="25">
         <v>26510</v>
       </c>
-      <c r="L12" s="25"/>
+      <c r="L12" s="25">
+        <v>1830</v>
+      </c>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="17"/>
@@ -8414,7 +8713,9 @@
       <c r="Z12" s="25">
         <v>15968.78</v>
       </c>
-      <c r="AA12" s="25"/>
+      <c r="AA12" s="25">
+        <v>15544.88</v>
+      </c>
       <c r="AB12" s="18"/>
       <c r="AC12" s="17">
         <v>14492</v>
@@ -8455,7 +8756,9 @@
       <c r="AO12" s="25">
         <v>64446.87</v>
       </c>
-      <c r="AP12" s="25"/>
+      <c r="AP12" s="25">
+        <v>64127.51</v>
+      </c>
       <c r="AQ12" s="18"/>
       <c r="AR12" s="17"/>
       <c r="AS12" s="17"/>
@@ -8492,7 +8795,9 @@
       <c r="K13" s="3">
         <v>1943.98</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3">
+        <v>1943.98</v>
+      </c>
       <c r="M13" s="3">
         <v>1690.16</v>
       </c>
@@ -8535,7 +8840,9 @@
       <c r="Z13" s="25">
         <v>21220.720000000001</v>
       </c>
-      <c r="AA13" s="25"/>
+      <c r="AA13" s="25">
+        <v>20322.55</v>
+      </c>
       <c r="AB13" s="18"/>
       <c r="AC13" s="17">
         <v>18210</v>
@@ -8576,7 +8883,9 @@
       <c r="AO13" s="25">
         <v>201207.83</v>
       </c>
-      <c r="AP13" s="25"/>
+      <c r="AP13" s="25">
+        <v>197692.25</v>
+      </c>
       <c r="AQ13" s="18"/>
       <c r="AR13" s="17"/>
       <c r="AS13" s="17"/>
@@ -8615,7 +8924,9 @@
       <c r="K14" s="25">
         <v>4150.8</v>
       </c>
-      <c r="L14" s="25"/>
+      <c r="L14" s="25">
+        <v>4141.5</v>
+      </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18">
         <v>3907</v>
@@ -8656,7 +8967,9 @@
       <c r="Z14" s="25">
         <v>21135.27</v>
       </c>
-      <c r="AA14" s="25"/>
+      <c r="AA14" s="25">
+        <v>20907.740000000002</v>
+      </c>
       <c r="AB14" s="18"/>
       <c r="AC14" s="17">
         <v>20723</v>
@@ -8697,7 +9010,9 @@
       <c r="AO14" s="25">
         <v>894.74</v>
       </c>
-      <c r="AP14" s="25"/>
+      <c r="AP14" s="25">
+        <v>887.64</v>
+      </c>
       <c r="AQ14" s="18"/>
       <c r="AR14" s="17">
         <v>861</v>
@@ -8740,7 +9055,9 @@
       <c r="K15" s="25">
         <v>4802.63</v>
       </c>
-      <c r="L15" s="25"/>
+      <c r="L15" s="25">
+        <v>4751.72</v>
+      </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18">
         <v>4499</v>
@@ -8781,7 +9098,9 @@
       <c r="Z15" s="25">
         <v>17065.96</v>
       </c>
-      <c r="AA15" s="25"/>
+      <c r="AA15" s="25">
+        <v>16962.009999999998</v>
+      </c>
       <c r="AB15" s="18"/>
       <c r="AC15" s="17">
         <v>14744</v>
@@ -8822,7 +9141,9 @@
       <c r="AO15" s="25">
         <v>1694.18</v>
       </c>
-      <c r="AP15" s="25"/>
+      <c r="AP15" s="25">
+        <v>1685.46</v>
+      </c>
       <c r="AQ15" s="18"/>
       <c r="AR15" s="17">
         <v>1753</v>
@@ -8865,7 +9186,9 @@
       <c r="K16" s="3">
         <v>438</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3">
+        <v>441</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3">
         <v>427</v>
@@ -8906,7 +9229,9 @@
       <c r="Z16" s="25">
         <v>17327.34</v>
       </c>
-      <c r="AA16" s="25"/>
+      <c r="AA16" s="25">
+        <v>17311.439999999999</v>
+      </c>
       <c r="AB16" s="18"/>
       <c r="AC16" s="17">
         <v>17501</v>
@@ -8947,7 +9272,9 @@
       <c r="AO16" s="25">
         <v>5518.62</v>
       </c>
-      <c r="AP16" s="25"/>
+      <c r="AP16" s="25">
+        <v>5282.69</v>
+      </c>
       <c r="AQ16" s="18"/>
       <c r="AR16" s="17"/>
       <c r="AS16" s="17"/>
@@ -8986,7 +9313,9 @@
       <c r="K17" s="3">
         <v>291.58999999999997</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3">
+        <v>291.58999999999997</v>
+      </c>
       <c r="M17" s="3">
         <v>414.92</v>
       </c>
@@ -9029,7 +9358,9 @@
       <c r="Z17" s="25">
         <v>23373.11</v>
       </c>
-      <c r="AA17" s="25"/>
+      <c r="AA17" s="25">
+        <v>23060.74</v>
+      </c>
       <c r="AB17" s="18"/>
       <c r="AC17" s="17">
         <v>20508</v>
@@ -9070,7 +9401,9 @@
       <c r="AO17" s="25">
         <v>6992.53</v>
       </c>
-      <c r="AP17" s="25"/>
+      <c r="AP17" s="25">
+        <v>6847.53</v>
+      </c>
       <c r="AQ17" s="18"/>
       <c r="AR17" s="17"/>
       <c r="AS17" s="17"/>
@@ -9109,7 +9442,9 @@
       <c r="K18" s="25">
         <v>353.56</v>
       </c>
-      <c r="L18" s="25"/>
+      <c r="L18" s="25">
+        <v>350.84</v>
+      </c>
       <c r="M18" s="18"/>
       <c r="N18" s="18">
         <v>336</v>
@@ -9150,7 +9485,9 @@
       <c r="Z18" s="25">
         <v>14305.64</v>
       </c>
-      <c r="AA18" s="25"/>
+      <c r="AA18" s="25">
+        <v>14510</v>
+      </c>
       <c r="AB18" s="18"/>
       <c r="AC18" s="17">
         <v>14067</v>
@@ -9191,7 +9528,9 @@
       <c r="AO18" s="25">
         <v>15995</v>
       </c>
-      <c r="AP18" s="25"/>
+      <c r="AP18" s="25">
+        <v>15870</v>
+      </c>
       <c r="AQ18" s="18"/>
       <c r="AR18" s="17"/>
       <c r="AS18" s="17"/>
@@ -9230,7 +9569,9 @@
       <c r="K19" s="25">
         <v>461.5</v>
       </c>
-      <c r="L19" s="25"/>
+      <c r="L19" s="25">
+        <v>454.54</v>
+      </c>
       <c r="M19" s="18"/>
       <c r="N19" s="18">
         <v>396</v>
@@ -9271,7 +9612,9 @@
       <c r="Z19" s="25">
         <v>15374.89</v>
       </c>
-      <c r="AA19" s="25"/>
+      <c r="AA19" s="25">
+        <v>15399.66</v>
+      </c>
       <c r="AB19" s="18"/>
       <c r="AC19" s="17">
         <v>14171</v>
@@ -9312,7 +9655,9 @@
       <c r="AO19" s="25">
         <v>36505</v>
       </c>
-      <c r="AP19" s="25"/>
+      <c r="AP19" s="25">
+        <v>35922</v>
+      </c>
       <c r="AQ19" s="18"/>
       <c r="AR19" s="17"/>
       <c r="AS19" s="17"/>
@@ -9350,7 +9695,9 @@
       <c r="K20" s="3">
         <v>672</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3">
+        <v>602</v>
+      </c>
       <c r="M20" s="3">
         <v>492</v>
       </c>
@@ -9393,7 +9740,9 @@
       <c r="Z20" s="25">
         <v>15982.98</v>
       </c>
-      <c r="AA20" s="25"/>
+      <c r="AA20" s="25">
+        <v>15400.35</v>
+      </c>
       <c r="AB20" s="18"/>
       <c r="AC20" s="17">
         <v>14640</v>
@@ -9434,7 +9783,9 @@
       <c r="AO20" s="25">
         <v>70401</v>
       </c>
-      <c r="AP20" s="25"/>
+      <c r="AP20" s="25">
+        <v>70120</v>
+      </c>
       <c r="AQ20" s="18"/>
       <c r="AR20" s="17"/>
       <c r="AS20" s="17"/>
@@ -9473,7 +9824,9 @@
       <c r="K21" s="25">
         <v>1721.15</v>
       </c>
-      <c r="L21" s="25"/>
+      <c r="L21" s="25">
+        <v>1707.45</v>
+      </c>
       <c r="M21" s="18"/>
       <c r="N21" s="18">
         <v>1672</v>
@@ -9514,7 +9867,9 @@
       <c r="Z21" s="25">
         <v>8758.16</v>
       </c>
-      <c r="AA21" s="25"/>
+      <c r="AA21" s="25">
+        <v>8763.08</v>
+      </c>
       <c r="AB21" s="18"/>
       <c r="AC21" s="17">
         <v>9034</v>
@@ -9555,7 +9910,9 @@
       <c r="AO21" s="25">
         <v>516.14</v>
       </c>
-      <c r="AP21" s="25"/>
+      <c r="AP21" s="25">
+        <v>476.47</v>
+      </c>
       <c r="AQ21" s="12"/>
       <c r="AR21" s="17">
         <v>428</v>
@@ -9597,7 +9954,9 @@
       <c r="K22" s="3">
         <v>640</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3">
+        <v>640</v>
+      </c>
       <c r="M22" s="3">
         <v>810</v>
       </c>
@@ -9640,7 +9999,9 @@
       <c r="Z22" s="25">
         <v>31655.11</v>
       </c>
-      <c r="AA22" s="25"/>
+      <c r="AA22" s="25">
+        <v>30461.5</v>
+      </c>
       <c r="AB22" s="18"/>
       <c r="AC22" s="17">
         <v>29829</v>
@@ -9681,7 +10042,9 @@
       <c r="AO22" s="25">
         <v>720</v>
       </c>
-      <c r="AP22" s="25"/>
+      <c r="AP22" s="25">
+        <v>732</v>
+      </c>
       <c r="AQ22" s="18"/>
       <c r="AR22" s="17">
         <v>760</v>
@@ -9723,7 +10086,9 @@
       <c r="K23" s="3">
         <v>1697</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3">
+        <v>1573</v>
+      </c>
       <c r="M23" s="3">
         <v>1377</v>
       </c>
@@ -9766,7 +10131,9 @@
       <c r="Z23" s="25">
         <v>45404.9</v>
       </c>
-      <c r="AA23" s="25"/>
+      <c r="AA23" s="25">
+        <v>44910.01</v>
+      </c>
       <c r="AB23" s="18"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
@@ -9803,7 +10170,9 @@
       <c r="AO23" s="25">
         <v>88061.21</v>
       </c>
-      <c r="AP23" s="25"/>
+      <c r="AP23" s="25">
+        <v>87156.85</v>
+      </c>
       <c r="AQ23" s="18"/>
       <c r="AR23" s="17"/>
       <c r="AS23" s="17"/>
@@ -9841,7 +10210,9 @@
       <c r="K24" s="3">
         <v>794</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3">
+        <v>794</v>
+      </c>
       <c r="M24" s="3">
         <v>764</v>
       </c>
@@ -9884,7 +10255,9 @@
       <c r="Z24" s="25">
         <v>2246</v>
       </c>
-      <c r="AA24" s="25"/>
+      <c r="AA24" s="25">
+        <v>2207</v>
+      </c>
       <c r="AB24" s="18"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
@@ -9921,7 +10294,9 @@
       <c r="AO24" s="25">
         <v>2751.96</v>
       </c>
-      <c r="AP24" s="25"/>
+      <c r="AP24" s="25">
+        <v>2767.74</v>
+      </c>
       <c r="AQ24" s="18"/>
       <c r="AR24" s="17"/>
       <c r="AS24" s="17"/>
@@ -9973,7 +10348,9 @@
       <c r="AO25" s="3">
         <v>2741.1</v>
       </c>
-      <c r="AP25" s="3"/>
+      <c r="AP25" s="3">
+        <v>2741.1</v>
+      </c>
       <c r="AQ25" s="3">
         <v>2980.94</v>
       </c>
@@ -10038,7 +10415,9 @@
       <c r="AO26" s="3">
         <v>3049.85</v>
       </c>
-      <c r="AP26" s="3"/>
+      <c r="AP26" s="3">
+        <v>3049.85</v>
+      </c>
       <c r="AQ26" s="3">
         <v>2806.25</v>
       </c>
@@ -10082,17 +10461,17 @@
       <c r="AJ27" s="7"/>
     </row>
     <row r="28" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="26"/>
     </row>
     <row r="29" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="2:45" x14ac:dyDescent="0.25">
@@ -10160,22 +10539,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AH1:AS1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E28"/>
-    <mergeCell ref="B29:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B29:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="AH1:AS1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Comparaçoes/Heurísticas.xlsx
+++ b/Comparaçoes/Heurísticas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12345" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="14400" windowHeight="12345" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="K = n|4" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="95">
   <si>
     <t>k = n/4</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>HIMB</t>
+  </si>
+  <si>
+    <t>Híbrida</t>
   </si>
   <si>
     <t>BL Troca</t>
@@ -305,8 +308,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -324,6 +327,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -331,16 +341,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,30 +385,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,14 +432,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -445,11 +448,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,15 +463,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,7 +505,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,13 +535,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,25 +559,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +601,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,13 +637,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,85 +679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,11 +822,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,15 +840,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,52 +906,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -968,101 +968,104 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1084,6 +1087,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1131,10 +1135,10 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1451,10 +1455,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:AG1000"/>
+  <dimension ref="B1:AJ1000"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB$1:AB$1048576"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -1462,32 +1466,32 @@
     <col min="1" max="1" width="8.7047619047619" customWidth="1"/>
     <col min="2" max="2" width="9.7047619047619" customWidth="1"/>
     <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
-    <col min="4" max="5" width="8.7047619047619" customWidth="1"/>
-    <col min="6" max="8" width="12.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="8.7047619047619" customWidth="1"/>
-    <col min="10" max="10" width="11.4285714285714" customWidth="1"/>
-    <col min="11" max="11" width="10.5714285714286" customWidth="1"/>
-    <col min="12" max="12" width="5.85714285714286" customWidth="1"/>
-    <col min="13" max="13" width="8.7047619047619" customWidth="1"/>
-    <col min="14" max="14" width="17.8571428571429" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="12.2857142857143" customWidth="1"/>
-    <col min="17" max="17" width="8.2952380952381" customWidth="1"/>
-    <col min="18" max="19" width="12.2857142857143" customWidth="1"/>
-    <col min="20" max="20" width="9.7047619047619" customWidth="1"/>
-    <col min="21" max="21" width="11.4285714285714" customWidth="1"/>
-    <col min="22" max="22" width="10.5714285714286" customWidth="1"/>
-    <col min="23" max="23" width="3.42857142857143" customWidth="1"/>
-    <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="25" max="25" width="4.7047619047619" customWidth="1"/>
+    <col min="4" max="6" width="8.7047619047619" customWidth="1"/>
+    <col min="7" max="9" width="12.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="8.7047619047619" customWidth="1"/>
+    <col min="11" max="11" width="11.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="10.5714285714286" customWidth="1"/>
+    <col min="13" max="13" width="5.85714285714286" customWidth="1"/>
+    <col min="14" max="14" width="8.7047619047619" customWidth="1"/>
+    <col min="15" max="15" width="17.8571428571429" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="18" width="12.2857142857143" customWidth="1"/>
+    <col min="19" max="19" width="8.2952380952381" customWidth="1"/>
+    <col min="20" max="21" width="12.2857142857143" customWidth="1"/>
+    <col min="22" max="22" width="9.7047619047619" customWidth="1"/>
+    <col min="23" max="23" width="11.4285714285714" customWidth="1"/>
+    <col min="24" max="24" width="10.5714285714286" customWidth="1"/>
+    <col min="25" max="25" width="3.42857142857143" customWidth="1"/>
     <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="30" width="12.2857142857143" customWidth="1"/>
-    <col min="31" max="31" width="6.2952380952381" customWidth="1"/>
-    <col min="32" max="32" width="11.4285714285714" customWidth="1"/>
-    <col min="33" max="33" width="10.5714285714286" customWidth="1"/>
+    <col min="27" max="27" width="4.7047619047619" customWidth="1"/>
+    <col min="28" max="28" width="12" customWidth="1"/>
+    <col min="29" max="33" width="12.2857142857143" customWidth="1"/>
+    <col min="34" max="34" width="6.2952380952381" customWidth="1"/>
+    <col min="35" max="35" width="11.4285714285714" customWidth="1"/>
+    <col min="36" max="36" width="10.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="2:33">
+    <row r="1" customHeight="1" spans="2:36">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1501,37 +1505,40 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="8"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="8"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="8"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
-      <c r="AG1" s="8"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="8"/>
     </row>
-    <row r="2" customHeight="1" spans="2:33">
+    <row r="2" customHeight="1" spans="2:36">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1562,135 +1569,144 @@
       <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="X2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="AJ2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" customHeight="1" spans="2:33">
+    <row r="3" customHeight="1" spans="2:36">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="23">
         <v>632.3</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="23">
         <v>746.64</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="23">
+        <v>746.64</v>
+      </c>
+      <c r="G3" s="23">
         <v>625.97</v>
       </c>
-      <c r="G3" s="22">
+      <c r="H3" s="23">
         <v>625.97</v>
       </c>
-      <c r="H3" s="22">
+      <c r="I3" s="23">
         <v>625.97</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22">
+      <c r="J3" s="23"/>
+      <c r="K3" s="23">
         <v>606</v>
       </c>
-      <c r="K3" s="25">
+      <c r="L3" s="26">
         <v>606</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="N3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="1">
         <v>12</v>
       </c>
-      <c r="O3" s="22">
+      <c r="P3" s="23">
         <v>668</v>
       </c>
-      <c r="P3" s="22">
+      <c r="Q3" s="23">
         <v>558</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="R3" s="23">
+        <v>582</v>
+      </c>
+      <c r="S3" s="23">
         <v>668</v>
       </c>
-      <c r="R3" s="22">
+      <c r="T3" s="23">
         <v>668</v>
       </c>
-      <c r="S3" s="22">
+      <c r="U3" s="23">
         <v>668</v>
       </c>
-      <c r="T3" s="22"/>
-      <c r="U3" s="25">
+      <c r="V3" s="23"/>
+      <c r="W3" s="26">
         <v>558</v>
       </c>
-      <c r="V3" s="25">
+      <c r="X3" s="26">
         <v>558</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y3" s="1">
+      <c r="Z3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="1">
         <v>19</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>25126.84</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>25126.84</v>
       </c>
       <c r="AB3" s="4">
         <v>25126.84</v>
@@ -1701,1520 +1717,1679 @@
       <c r="AD3" s="4">
         <v>25126.84</v>
       </c>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="17">
+      <c r="AE3" s="4">
+        <v>25126.84</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>25126.84</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>25126.84</v>
+      </c>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="18">
         <v>17728</v>
       </c>
-      <c r="AG3" s="17">
+      <c r="AJ3" s="18">
         <v>17728</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:33">
+    <row r="4" customHeight="1" spans="2:36">
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>133</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="25"/>
-      <c r="M4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="26"/>
+      <c r="N4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="1">
         <v>24</v>
       </c>
-      <c r="O4" s="22">
+      <c r="P4" s="23">
         <v>11086.43</v>
       </c>
-      <c r="P4" s="22">
+      <c r="Q4" s="23">
         <v>9934.05</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="R4" s="23">
+        <v>10253.47</v>
+      </c>
+      <c r="S4" s="23">
         <v>10630.39</v>
       </c>
-      <c r="R4" s="22">
+      <c r="T4" s="23">
         <v>10068.39</v>
       </c>
-      <c r="S4" s="22">
+      <c r="U4" s="23">
         <v>10660.31</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="25">
+      <c r="V4" s="23"/>
+      <c r="W4" s="26">
         <v>7704</v>
       </c>
-      <c r="V4" s="25">
+      <c r="X4" s="26">
         <v>7704</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y4" s="1">
+      <c r="Z4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" s="1">
         <v>26</v>
       </c>
-      <c r="Z4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA4" s="4">
+      <c r="AB4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC4" s="4">
         <v>7486.75</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AD4" s="4">
+        <v>7936.1</v>
+      </c>
+      <c r="AE4" s="4">
         <v>7769.74</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AF4" s="4">
         <v>7564.94</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AG4" s="4">
         <v>7359.17</v>
       </c>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="17">
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="18">
         <v>6981</v>
       </c>
-      <c r="AG4" s="17">
+      <c r="AJ4" s="18">
         <v>6981</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:33">
+    <row r="5" customHeight="1" spans="2:36">
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5">
         <v>12</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="24">
         <v>1409</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="24">
         <v>1409</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="24">
+        <v>1409</v>
+      </c>
+      <c r="G5" s="24">
         <v>1373</v>
       </c>
-      <c r="G5" s="23">
+      <c r="H5" s="24">
         <v>1373</v>
       </c>
-      <c r="H5" s="23">
+      <c r="I5" s="24">
         <v>1373</v>
       </c>
-      <c r="I5" s="23">
+      <c r="J5" s="24">
         <v>1239</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="26"/>
-      <c r="M5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="K5" s="24"/>
+      <c r="L5" s="27"/>
+      <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="1">
         <v>30</v>
       </c>
-      <c r="O5" s="22">
+      <c r="P5" s="23">
         <v>1411</v>
       </c>
-      <c r="P5" s="22">
+      <c r="Q5" s="23">
         <v>1422</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="R5" s="23">
+        <v>1356</v>
+      </c>
+      <c r="S5" s="23">
         <v>1376</v>
       </c>
-      <c r="R5" s="22">
+      <c r="T5" s="23">
         <v>1376</v>
       </c>
-      <c r="S5" s="22">
+      <c r="U5" s="23">
         <v>1376</v>
       </c>
-      <c r="T5" s="22"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="X5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y5" s="1">
+      <c r="V5" s="23"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Z5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA5" s="1">
         <v>31</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>10765.78</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>14065.44</v>
       </c>
       <c r="AB5" s="4">
         <v>10765.78</v>
       </c>
       <c r="AC5" s="4">
+        <v>14065.44</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>14065.44</v>
+      </c>
+      <c r="AE5" s="4">
         <v>10765.78</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AF5" s="4">
         <v>10765.78</v>
       </c>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="17">
+      <c r="AG5" s="4">
+        <v>10765.78</v>
+      </c>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="18">
         <v>9596</v>
       </c>
-      <c r="AG5" s="17">
+      <c r="AJ5" s="18">
         <v>9596</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:33">
+    <row r="6" customHeight="1" spans="2:36">
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>133</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="23">
         <v>5712</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="23">
         <v>4475</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="23">
+        <v>4698</v>
+      </c>
+      <c r="G6" s="23">
         <v>5619</v>
       </c>
-      <c r="G6" s="22">
+      <c r="H6" s="23">
         <v>5553</v>
       </c>
-      <c r="H6" s="22">
+      <c r="I6" s="23">
         <v>5550</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="26"/>
+      <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="1">
         <v>34</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="25">
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="26">
         <v>14784</v>
       </c>
-      <c r="V6" s="25">
+      <c r="X6" s="26">
         <v>14784</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA6" s="1">
         <v>34</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>22828.74</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>23907.89</v>
       </c>
       <c r="AB6" s="4">
         <v>22828.74</v>
       </c>
       <c r="AC6" s="4">
+        <v>23907.89</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>23232.62</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>22828.74</v>
+      </c>
+      <c r="AF6" s="4">
         <v>22109.3</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AG6" s="4">
         <v>21887.32</v>
       </c>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="17">
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="18">
         <v>20928</v>
       </c>
-      <c r="AG6" s="17">
+      <c r="AJ6" s="18">
         <v>20928</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:33">
+    <row r="7" customHeight="1" spans="2:36">
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5">
         <v>7</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="24">
         <v>292</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="24">
         <v>292</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="24">
         <v>292</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="24">
         <v>292</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="24">
         <v>292</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="24">
+        <v>292</v>
+      </c>
+      <c r="J7" s="24">
         <v>246</v>
       </c>
-      <c r="J7" s="23">
+      <c r="K7" s="24">
         <v>246</v>
       </c>
-      <c r="K7" s="26">
+      <c r="L7" s="27">
         <v>246</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="N7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="1">
         <v>50</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="25">
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="26">
         <v>6977</v>
       </c>
-      <c r="V7" s="25">
+      <c r="X7" s="26">
         <v>6977</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y7" s="1">
+      <c r="Z7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="1">
         <v>36</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="AB7" s="4">
         <v>10893.75</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AC7" s="4">
         <v>12001.03</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AD7" s="4">
+        <v>11559.29</v>
+      </c>
+      <c r="AE7" s="4">
         <v>10778.34</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AF7" s="4">
         <v>10742.86</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AG7" s="4">
         <v>10778.43</v>
       </c>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="17">
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="18">
         <v>10743</v>
       </c>
-      <c r="AG7" s="17">
+      <c r="AJ7" s="18">
         <v>10743</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:33">
+    <row r="8" customHeight="1" spans="2:36">
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="24">
         <v>352</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="24">
         <v>352</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="24">
         <v>352</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="24">
         <v>352</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="24">
         <v>352</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="24">
+        <v>352</v>
+      </c>
+      <c r="J8" s="28">
         <v>282</v>
       </c>
-      <c r="J8" s="23">
+      <c r="K8" s="24">
         <v>282</v>
       </c>
-      <c r="K8" s="26">
+      <c r="L8" s="27">
         <v>282</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="1">
+      <c r="N8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="1">
         <v>57</v>
       </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="25">
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="26">
         <v>18471</v>
       </c>
-      <c r="V8" s="25">
+      <c r="X8" s="26">
         <v>18471</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y8" s="1">
+      <c r="Z8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA8" s="1">
         <v>38</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="AB8" s="4">
         <v>17072</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AC8" s="4">
         <v>17072</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AD8" s="4">
+        <v>17072</v>
+      </c>
+      <c r="AE8" s="4">
         <v>15403.26</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AF8" s="4">
         <v>15403.26</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AG8" s="4">
         <v>15403.26</v>
       </c>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="17">
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="18">
         <v>15403</v>
       </c>
-      <c r="AG8" s="17">
+      <c r="AJ8" s="18">
         <v>15403</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:33">
+    <row r="9" customHeight="1" spans="2:36">
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5">
         <v>13</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="24">
         <v>604.66</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="24">
         <v>604.66</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="24">
+        <v>604.66</v>
+      </c>
+      <c r="G9" s="24">
         <v>556.81</v>
       </c>
-      <c r="G9" s="23">
+      <c r="H9" s="24">
         <v>556.81</v>
       </c>
-      <c r="H9" s="23">
+      <c r="I9" s="24">
         <v>556.81</v>
       </c>
-      <c r="I9" s="23">
+      <c r="J9" s="24">
         <v>480.480334457013</v>
       </c>
-      <c r="J9" s="23">
+      <c r="K9" s="24">
         <v>489</v>
       </c>
-      <c r="K9" s="26">
+      <c r="L9" s="27">
         <v>489</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="N9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="1">
         <v>107</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="X9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y9" s="1">
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Z9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA9" s="1">
         <v>56</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>22868.63</v>
-      </c>
-      <c r="AA9" s="4">
-        <v>23494.84</v>
       </c>
       <c r="AB9" s="4">
         <v>22868.63</v>
       </c>
       <c r="AC9" s="4">
+        <v>23494.84</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>23494.84</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>22868.63</v>
+      </c>
+      <c r="AF9" s="4">
         <v>22375.1</v>
       </c>
-      <c r="AD9" s="4">
+      <c r="AG9" s="4">
         <v>21631.43</v>
       </c>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="17">
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="18">
         <v>18594</v>
       </c>
-      <c r="AG9" s="17">
+      <c r="AJ9" s="18">
         <v>18645</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:33">
+    <row r="10" customHeight="1" spans="2:36">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1">
         <v>31</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="23">
         <v>14342.78</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="23">
         <v>11706.58</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="23">
+        <v>13031.31</v>
+      </c>
+      <c r="G10" s="23">
         <v>14272</v>
       </c>
-      <c r="G10" s="22">
+      <c r="H10" s="23">
         <v>14272.3</v>
       </c>
-      <c r="H10" s="22">
+      <c r="I10" s="23">
         <v>14272.3</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23">
         <v>9840</v>
       </c>
-      <c r="K10" s="25">
+      <c r="L10" s="26">
         <v>10132</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="N10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="1">
         <v>166</v>
       </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="X10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y10" s="1">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Z10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA10" s="1">
         <v>66</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="AB10" s="4">
         <v>8100</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AC10" s="4">
         <v>8100</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AD10" s="4">
+        <v>8100</v>
+      </c>
+      <c r="AE10" s="4">
         <v>8023.61</v>
       </c>
-      <c r="AC10" s="4">
+      <c r="AF10" s="4">
         <v>8023.61</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AG10" s="4">
         <v>8023.61</v>
       </c>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
     </row>
-    <row r="11" customHeight="1" spans="2:33">
+    <row r="11" customHeight="1" spans="2:36">
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1">
         <v>14</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="23">
         <v>6116</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="23">
         <v>4607</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="23">
+        <v>4607</v>
+      </c>
+      <c r="G11" s="23">
         <v>6116</v>
       </c>
-      <c r="G11" s="22">
+      <c r="H11" s="23">
         <v>6116</v>
       </c>
-      <c r="H11" s="22">
+      <c r="I11" s="23">
         <v>6116</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="1">
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="26"/>
+      <c r="N11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="1">
         <v>12</v>
       </c>
-      <c r="O11" s="22">
+      <c r="P11" s="23">
         <v>3454</v>
       </c>
-      <c r="P11" s="22">
+      <c r="Q11" s="23">
         <v>3155</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="R11" s="23">
+        <v>3155</v>
+      </c>
+      <c r="S11" s="23">
         <v>3454</v>
       </c>
-      <c r="R11" s="22">
+      <c r="T11" s="23">
         <v>3454</v>
       </c>
-      <c r="S11" s="22">
+      <c r="U11" s="23">
         <v>3454</v>
       </c>
-      <c r="T11" s="22"/>
-      <c r="U11" s="25">
+      <c r="V11" s="23"/>
+      <c r="W11" s="26">
         <v>2094</v>
       </c>
-      <c r="V11" s="25">
+      <c r="X11" s="26">
         <v>2094</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y11" s="1">
+      <c r="Z11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" s="1">
         <v>74</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="AB11" s="4">
         <v>12369.29</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AC11" s="4">
         <v>12312.57</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AD11" s="4">
+        <v>10604.72</v>
+      </c>
+      <c r="AE11" s="4">
         <v>12311.53</v>
       </c>
-      <c r="AC11" s="4">
+      <c r="AF11" s="4">
         <v>12311.53</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AG11" s="4">
         <v>11960.02</v>
       </c>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
     </row>
-    <row r="12" customHeight="1" spans="2:33">
-      <c r="B12" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="20">
+    <row r="12" customHeight="1" spans="2:36">
+      <c r="B12" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="21">
         <v>45</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="25">
         <v>21120</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="25">
         <v>480</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="25">
+        <v>820</v>
+      </c>
+      <c r="G12" s="23">
         <v>16600</v>
       </c>
-      <c r="G12" s="22">
+      <c r="H12" s="23">
         <v>11050</v>
       </c>
-      <c r="H12" s="22">
+      <c r="I12" s="23">
         <v>11010</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="J12" s="25"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="26"/>
+      <c r="N12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="1">
         <v>25</v>
       </c>
-      <c r="O12" s="22">
+      <c r="P12" s="23">
         <v>5157.68</v>
       </c>
-      <c r="P12" s="22">
+      <c r="Q12" s="23">
         <v>4872.02</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="R12" s="23">
+        <v>4788.84</v>
+      </c>
+      <c r="S12" s="23">
         <v>5015.02</v>
       </c>
-      <c r="R12" s="22">
+      <c r="T12" s="23">
         <v>5015.02</v>
       </c>
-      <c r="S12" s="22">
+      <c r="U12" s="23">
         <v>5015.02</v>
       </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="25">
+      <c r="V12" s="23"/>
+      <c r="W12" s="26">
         <v>4369</v>
       </c>
-      <c r="V12" s="25">
+      <c r="X12" s="26">
         <v>4369</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y12" s="1">
+      <c r="Z12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA12" s="1">
         <v>109</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="AB12" s="4">
         <v>22600.96</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AC12" s="4">
         <v>23714.23</v>
       </c>
-      <c r="AB12" s="4">
+      <c r="AD12" s="4">
+        <v>22455.5</v>
+      </c>
+      <c r="AE12" s="4">
         <v>22324.31</v>
       </c>
-      <c r="AC12" s="4">
+      <c r="AF12" s="4">
         <v>22074.32</v>
       </c>
-      <c r="AD12" s="4">
+      <c r="AG12" s="4">
         <v>21798.44</v>
       </c>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
     </row>
-    <row r="13" customHeight="1" spans="2:33">
+    <row r="13" customHeight="1" spans="2:36">
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="24">
         <v>249.88</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="24">
         <v>249.88</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="24">
         <v>249.88</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="24">
         <v>249.88</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="24">
         <v>249.88</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="24">
+        <v>249.88</v>
+      </c>
+      <c r="J13" s="24">
         <v>224.88</v>
       </c>
-      <c r="J13" s="23">
+      <c r="K13" s="24">
         <v>151</v>
       </c>
-      <c r="K13" s="26">
+      <c r="L13" s="27">
         <v>151</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="N13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="1">
         <v>37</v>
       </c>
-      <c r="O13" s="22">
+      <c r="P13" s="23">
         <v>6644.96</v>
       </c>
-      <c r="P13" s="22">
+      <c r="Q13" s="23">
         <v>7646.9</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="R13" s="23">
+        <v>7646.9</v>
+      </c>
+      <c r="S13" s="23">
         <v>6632.55</v>
       </c>
-      <c r="R13" s="22">
+      <c r="T13" s="23">
         <v>6632.55</v>
       </c>
-      <c r="S13" s="22">
+      <c r="U13" s="23">
         <v>6632.55</v>
       </c>
-      <c r="T13" s="22"/>
-      <c r="U13" s="25">
+      <c r="V13" s="23"/>
+      <c r="W13" s="26">
         <v>5286</v>
       </c>
-      <c r="V13" s="25">
+      <c r="X13" s="26">
         <v>5286</v>
       </c>
-      <c r="X13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA13" s="1">
         <v>250</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="AB13" s="4">
         <v>68337.15</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AC13" s="4">
         <v>66904.56</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AD13" s="4">
+        <v>66904.56</v>
+      </c>
+      <c r="AE13" s="4">
         <v>67085.41</v>
       </c>
-      <c r="AC13" s="4">
+      <c r="AF13" s="4">
         <v>66266.21</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AG13" s="4">
         <v>66267.63</v>
       </c>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
     </row>
-    <row r="14" customHeight="1" spans="2:33">
+    <row r="14" customHeight="1" spans="2:36">
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1">
         <v>32</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="23">
         <v>1211.59</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="23">
         <v>1230.99</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="23">
+        <v>1230.99</v>
+      </c>
+      <c r="G14" s="23">
         <v>1207.15</v>
       </c>
-      <c r="G14" s="22">
+      <c r="H14" s="23">
         <v>1205.2</v>
       </c>
-      <c r="H14" s="22">
+      <c r="I14" s="23">
         <v>1207.15</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22">
+      <c r="J14" s="23"/>
+      <c r="K14" s="23">
         <v>1116</v>
       </c>
-      <c r="K14" s="25">
+      <c r="L14" s="26">
         <v>1119</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="N14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="1">
         <v>50</v>
       </c>
-      <c r="O14" s="22">
+      <c r="P14" s="23">
         <v>6870.92</v>
       </c>
-      <c r="P14" s="22">
+      <c r="Q14" s="23">
         <v>6899.46</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="R14" s="23">
+        <v>6927.27</v>
+      </c>
+      <c r="S14" s="23">
         <v>6767.07</v>
       </c>
-      <c r="R14" s="22">
+      <c r="T14" s="23">
         <v>6767.07</v>
       </c>
-      <c r="S14" s="22">
+      <c r="U14" s="23">
         <v>6767.07</v>
       </c>
-      <c r="T14" s="22"/>
-      <c r="U14" s="25">
+      <c r="V14" s="23"/>
+      <c r="W14" s="26">
         <v>6138</v>
       </c>
-      <c r="V14" s="25">
+      <c r="X14" s="26">
         <v>6138</v>
       </c>
-      <c r="X14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y14" s="1">
+      <c r="Z14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA14" s="1">
         <v>24</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="AB14" s="4">
         <v>277.23</v>
       </c>
-      <c r="AA14" s="4">
+      <c r="AC14" s="4">
         <v>359.69</v>
       </c>
-      <c r="AB14" s="4">
+      <c r="AD14" s="4">
+        <v>292.55</v>
+      </c>
+      <c r="AE14" s="4">
         <v>266.87</v>
       </c>
-      <c r="AC14" s="4">
+      <c r="AF14" s="4">
         <v>263.3</v>
       </c>
-      <c r="AD14" s="4">
+      <c r="AG14" s="4">
         <v>266.87</v>
       </c>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="17">
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="18">
         <v>260</v>
       </c>
-      <c r="AG14" s="17">
+      <c r="AJ14" s="18">
         <v>260</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="2:33">
+    <row r="15" customHeight="1" spans="2:36">
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1">
         <v>37</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="23">
         <v>1304.57</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="23">
         <v>1400.68</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="23">
+        <v>1245.96</v>
+      </c>
+      <c r="G15" s="23">
         <v>1304.57</v>
       </c>
-      <c r="G15" s="22">
+      <c r="H15" s="23">
         <v>1304.57</v>
       </c>
-      <c r="H15" s="22">
+      <c r="I15" s="23">
         <v>1304.57</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22">
+      <c r="J15" s="23"/>
+      <c r="K15" s="23">
         <v>1204</v>
       </c>
-      <c r="K15" s="25">
+      <c r="L15" s="26">
         <v>1204</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15" s="1">
+      <c r="N15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="1">
         <v>25</v>
       </c>
-      <c r="O15" s="22">
+      <c r="P15" s="23">
         <v>5552.01</v>
       </c>
-      <c r="P15" s="22">
+      <c r="Q15" s="23">
         <v>4469.81</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="R15" s="23">
+        <v>5429.03</v>
+      </c>
+      <c r="S15" s="23">
         <v>5507.89</v>
       </c>
-      <c r="R15" s="22">
+      <c r="T15" s="23">
         <v>5507.89</v>
       </c>
-      <c r="S15" s="22">
+      <c r="U15" s="23">
         <v>5507.89</v>
       </c>
-      <c r="T15" s="22"/>
-      <c r="U15" s="25">
+      <c r="V15" s="23"/>
+      <c r="W15" s="26">
         <v>4014</v>
       </c>
-      <c r="V15" s="25">
+      <c r="X15" s="26">
         <v>4014</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y15" s="1">
+      <c r="Z15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA15" s="1">
         <v>48</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>560.07</v>
-      </c>
-      <c r="AA15" s="4">
-        <v>606.24</v>
       </c>
       <c r="AB15" s="4">
         <v>560.07</v>
       </c>
       <c r="AC15" s="4">
+        <v>606.24</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>546.13</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>560.07</v>
+      </c>
+      <c r="AF15" s="4">
         <v>558.64</v>
       </c>
-      <c r="AD15" s="4">
+      <c r="AG15" s="4">
         <v>553.95</v>
       </c>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="17">
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="18">
         <v>538</v>
       </c>
-      <c r="AG15" s="17">
+      <c r="AJ15" s="18">
         <v>538</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="2:33">
+    <row r="16" customHeight="1" spans="2:36">
       <c r="B16" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="5">
         <v>10</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="24">
         <v>103</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="24">
         <v>103</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="24">
+        <v>103</v>
+      </c>
+      <c r="G16" s="24">
         <v>100</v>
       </c>
-      <c r="G16" s="23">
+      <c r="H16" s="24">
         <v>100</v>
       </c>
-      <c r="H16" s="23">
+      <c r="I16" s="24">
         <v>100</v>
       </c>
-      <c r="I16" s="23">
+      <c r="J16" s="24">
         <v>99</v>
       </c>
-      <c r="J16" s="23">
+      <c r="K16" s="24">
         <v>99</v>
       </c>
-      <c r="K16" s="26">
+      <c r="L16" s="27">
         <v>99</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N16" s="1">
+      <c r="N16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="1">
         <v>37</v>
       </c>
-      <c r="O16" s="22">
+      <c r="P16" s="23">
         <v>5199.62</v>
       </c>
-      <c r="P16" s="22">
+      <c r="Q16" s="23">
         <v>5533.11</v>
       </c>
-      <c r="Q16" s="22">
+      <c r="R16" s="23">
+        <v>5533.11</v>
+      </c>
+      <c r="S16" s="23">
         <v>5119.54</v>
       </c>
-      <c r="R16" s="22">
+      <c r="T16" s="23">
         <v>5119.54</v>
       </c>
-      <c r="S16" s="22">
+      <c r="U16" s="23">
         <v>5119.54</v>
       </c>
-      <c r="T16" s="22"/>
-      <c r="U16" s="25">
+      <c r="V16" s="23"/>
+      <c r="W16" s="26">
         <v>5119</v>
       </c>
-      <c r="V16" s="25">
+      <c r="X16" s="26">
         <v>5119</v>
       </c>
-      <c r="X16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y16" s="1">
+      <c r="Z16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA16" s="1">
         <v>143</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="AB16" s="4">
         <v>1745</v>
       </c>
-      <c r="AA16" s="4">
+      <c r="AC16" s="4">
         <v>1764.02</v>
       </c>
-      <c r="AB16" s="4">
+      <c r="AD16" s="4">
+        <v>1726.09</v>
+      </c>
+      <c r="AE16" s="4">
         <v>1733.54</v>
       </c>
-      <c r="AC16" s="4">
+      <c r="AF16" s="4">
         <v>1724.97</v>
       </c>
-      <c r="AD16" s="4">
+      <c r="AG16" s="4">
         <v>1670.87</v>
       </c>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
     </row>
-    <row r="17" customHeight="1" spans="2:33">
+    <row r="17" customHeight="1" spans="2:36">
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="5">
         <v>12</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="24">
         <v>77.04</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="24">
         <v>77.04</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="24">
         <v>77.04</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="24">
         <v>77.04</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="24">
         <v>77.04</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="24">
+        <v>77.04</v>
+      </c>
+      <c r="J17" s="24">
         <v>76.72</v>
       </c>
-      <c r="J17" s="23">
+      <c r="K17" s="24">
         <v>71</v>
       </c>
-      <c r="K17" s="26">
+      <c r="L17" s="27">
         <v>71</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="1">
+      <c r="N17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="1">
         <v>50</v>
       </c>
-      <c r="O17" s="22">
+      <c r="P17" s="23">
         <v>6907.12</v>
       </c>
-      <c r="P17" s="22">
+      <c r="Q17" s="23">
         <v>8397.45</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="R17" s="23">
+        <v>7306.16</v>
+      </c>
+      <c r="S17" s="23">
         <v>6789.91</v>
       </c>
-      <c r="R17" s="22">
+      <c r="T17" s="23">
         <v>6789.91</v>
       </c>
-      <c r="S17" s="22">
+      <c r="U17" s="23">
         <v>6789.91</v>
       </c>
-      <c r="T17" s="22"/>
-      <c r="U17" s="25">
+      <c r="V17" s="23"/>
+      <c r="W17" s="26">
         <v>5890</v>
       </c>
-      <c r="V17" s="25">
+      <c r="X17" s="26">
         <v>5890</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y17" s="1">
+      <c r="Z17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA17" s="1">
         <v>195</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="AB17" s="4">
         <v>2382.5</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AC17" s="4">
         <v>2466.05</v>
       </c>
-      <c r="AB17" s="4">
+      <c r="AD17" s="4">
+        <v>2280.15</v>
+      </c>
+      <c r="AE17" s="4">
         <v>2260.06</v>
       </c>
-      <c r="AC17" s="4">
+      <c r="AF17" s="4">
         <v>2280.65</v>
       </c>
-      <c r="AD17" s="4">
+      <c r="AG17" s="4">
         <v>2236.99</v>
       </c>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
     </row>
-    <row r="18" customHeight="1" spans="2:33">
+    <row r="18" customHeight="1" spans="2:36">
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1">
         <v>19</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="23">
         <v>97.38</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="23">
         <v>99.45</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="23">
+        <v>99.45</v>
+      </c>
+      <c r="G18" s="23">
         <v>97.38</v>
       </c>
-      <c r="G18" s="22">
+      <c r="H18" s="23">
         <v>97.38</v>
       </c>
-      <c r="H18" s="22">
+      <c r="I18" s="23">
         <v>97.38</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22">
+      <c r="J18" s="23"/>
+      <c r="K18" s="23">
         <v>99</v>
       </c>
-      <c r="K18" s="25">
+      <c r="L18" s="26">
         <v>99</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="N18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="1">
         <v>25</v>
       </c>
-      <c r="O18" s="22">
+      <c r="P18" s="23">
         <v>4346.52</v>
       </c>
-      <c r="P18" s="22">
+      <c r="Q18" s="23">
         <v>6123.26</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="R18" s="23">
+        <v>4346.52</v>
+      </c>
+      <c r="S18" s="23">
         <v>4293.02</v>
       </c>
-      <c r="R18" s="22">
+      <c r="T18" s="23">
         <v>4293.02</v>
       </c>
-      <c r="S18" s="22">
+      <c r="U18" s="23">
         <v>4293.02</v>
       </c>
-      <c r="T18" s="22"/>
-      <c r="U18" s="25">
+      <c r="V18" s="23"/>
+      <c r="W18" s="26">
         <v>4293</v>
       </c>
-      <c r="V18" s="25">
+      <c r="X18" s="26">
         <v>4293</v>
       </c>
-      <c r="X18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y18" s="1">
+      <c r="Z18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA18" s="1">
         <v>43</v>
-      </c>
-      <c r="Z18" s="4">
-        <v>5243</v>
-      </c>
-      <c r="AA18" s="4">
-        <v>5478</v>
       </c>
       <c r="AB18" s="4">
         <v>5243</v>
       </c>
       <c r="AC18" s="4">
+        <v>5478</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>5420</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>5243</v>
+      </c>
+      <c r="AF18" s="4">
         <v>5238</v>
       </c>
-      <c r="AD18" s="4">
+      <c r="AG18" s="4">
         <v>5225</v>
       </c>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
     </row>
-    <row r="19" customHeight="1" spans="2:33">
+    <row r="19" customHeight="1" spans="2:36">
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1">
         <v>25</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="23">
         <v>150.96</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="23">
         <v>132.75</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="23">
+        <v>139.62</v>
+      </c>
+      <c r="G19" s="23">
         <v>150.4</v>
       </c>
-      <c r="G19" s="22">
+      <c r="H19" s="23">
         <v>150.4</v>
       </c>
-      <c r="H19" s="22">
+      <c r="I19" s="23">
         <v>150.4</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22">
+      <c r="J19" s="23"/>
+      <c r="K19" s="23">
         <v>101</v>
       </c>
-      <c r="K19" s="25">
+      <c r="L19" s="26">
         <v>101</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N19" s="1">
+      <c r="N19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="1">
         <v>25</v>
       </c>
-      <c r="O19" s="22">
+      <c r="P19" s="23">
         <v>5246.28</v>
       </c>
-      <c r="P19" s="22">
+      <c r="Q19" s="23">
         <v>5246.28</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="R19" s="23">
         <v>5246.28</v>
       </c>
-      <c r="R19" s="22">
+      <c r="S19" s="23">
         <v>5246.28</v>
       </c>
-      <c r="S19" s="22">
+      <c r="T19" s="23">
         <v>5246.28</v>
       </c>
-      <c r="T19" s="22"/>
-      <c r="U19" s="25">
+      <c r="U19" s="23">
+        <v>5246.28</v>
+      </c>
+      <c r="V19" s="23"/>
+      <c r="W19" s="26">
         <v>3991</v>
       </c>
-      <c r="V19" s="25">
+      <c r="X19" s="26">
         <v>3991</v>
       </c>
-      <c r="X19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y19" s="1">
+      <c r="Z19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA19" s="1">
         <v>133</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="AB19" s="4">
         <v>12360</v>
       </c>
-      <c r="AA19" s="4">
+      <c r="AC19" s="4">
         <v>12196</v>
       </c>
-      <c r="AB19" s="4">
+      <c r="AD19" s="4">
+        <v>12196</v>
+      </c>
+      <c r="AE19" s="4">
         <v>12275</v>
       </c>
-      <c r="AC19" s="4">
+      <c r="AF19" s="4">
         <v>12252</v>
       </c>
-      <c r="AD19" s="4">
+      <c r="AG19" s="4">
         <v>12083</v>
       </c>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
     </row>
-    <row r="20" customHeight="1" spans="2:33">
+    <row r="20" customHeight="1" spans="2:36">
       <c r="B20" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="5">
         <v>6</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="24">
         <v>147</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="24">
         <v>147</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="24">
         <v>147</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="24">
         <v>147</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="24">
         <v>147</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="24">
+        <v>147</v>
+      </c>
+      <c r="J20" s="24">
         <v>145</v>
       </c>
-      <c r="J20" s="23">
+      <c r="K20" s="24">
         <v>145</v>
       </c>
-      <c r="K20" s="26">
+      <c r="L20" s="27">
         <v>145</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N20" s="1">
+      <c r="N20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="1">
         <v>25</v>
       </c>
-      <c r="O20" s="22">
+      <c r="P20" s="23">
         <v>4123.35</v>
       </c>
-      <c r="P20" s="22">
+      <c r="Q20" s="23">
         <v>3842.76</v>
       </c>
-      <c r="Q20" s="22">
+      <c r="R20" s="23">
+        <v>3955.74</v>
+      </c>
+      <c r="S20" s="23">
         <v>4087.21</v>
       </c>
-      <c r="R20" s="22">
+      <c r="T20" s="23">
         <v>4087.21</v>
       </c>
-      <c r="S20" s="22">
+      <c r="U20" s="23">
         <v>4087.21</v>
       </c>
-      <c r="T20" s="22"/>
-      <c r="U20" s="25">
+      <c r="V20" s="23"/>
+      <c r="W20" s="26">
         <v>3663</v>
       </c>
-      <c r="V20" s="25">
+      <c r="X20" s="26">
         <v>3663</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y20" s="1">
+      <c r="Z20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA20" s="1">
         <v>258</v>
-      </c>
-      <c r="Z20" s="4">
-        <v>22289</v>
-      </c>
-      <c r="AA20" s="4">
-        <v>22414</v>
       </c>
       <c r="AB20" s="4">
         <v>22289</v>
       </c>
       <c r="AC20" s="4">
+        <v>22414</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>22414</v>
+      </c>
+      <c r="AE20" s="4">
         <v>22289</v>
       </c>
-      <c r="AD20" s="4">
+      <c r="AF20" s="4">
         <v>22289</v>
       </c>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
+      <c r="AG20" s="4">
+        <v>22289</v>
+      </c>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" spans="2:33">
+    <row r="21" ht="15.75" customHeight="1" spans="2:36">
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1">
         <v>65</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="23">
         <v>562.04</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="23">
         <v>666.2</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="23">
+        <v>666.2</v>
+      </c>
+      <c r="G21" s="23">
         <v>559.01</v>
       </c>
-      <c r="G21" s="22">
+      <c r="H21" s="23">
         <v>559.01</v>
       </c>
-      <c r="H21" s="22">
+      <c r="I21" s="23">
         <v>559.01</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22">
+      <c r="J21" s="23"/>
+      <c r="K21" s="23">
         <v>509</v>
       </c>
-      <c r="K21" s="25">
+      <c r="L21" s="26">
         <v>509</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N21" s="1">
+      <c r="N21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="1">
         <v>26</v>
       </c>
-      <c r="O21" s="22">
+      <c r="P21" s="23">
         <v>2149.82</v>
       </c>
-      <c r="P21" s="22">
+      <c r="Q21" s="23">
         <v>2067.87</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="R21" s="23">
+        <v>2002.98</v>
+      </c>
+      <c r="S21" s="23">
         <v>2109.43</v>
       </c>
-      <c r="R21" s="22">
+      <c r="T21" s="23">
         <v>2109.43</v>
       </c>
-      <c r="S21" s="22">
+      <c r="U21" s="23">
         <v>2109.43</v>
       </c>
-      <c r="T21" s="22"/>
-      <c r="U21" s="25">
+      <c r="V21" s="23"/>
+      <c r="W21" s="26">
         <v>2108</v>
       </c>
-      <c r="V21" s="25">
+      <c r="X21" s="26">
         <v>2108</v>
       </c>
-      <c r="X21" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y21" s="20">
+      <c r="Z21" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA21" s="21">
         <v>17</v>
       </c>
-      <c r="Z21" s="7">
+      <c r="AB21" s="7">
         <v>130.04</v>
       </c>
-      <c r="AA21" s="7">
+      <c r="AC21" s="7">
         <v>128.07</v>
       </c>
-      <c r="AB21" s="4">
+      <c r="AD21" s="7">
+        <v>128.07</v>
+      </c>
+      <c r="AE21" s="4">
         <v>129.15</v>
       </c>
-      <c r="AC21" s="4">
+      <c r="AF21" s="4">
         <v>129.15</v>
       </c>
-      <c r="AD21" s="4">
+      <c r="AG21" s="4">
         <v>129.15</v>
       </c>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="17">
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="18">
         <v>110</v>
       </c>
-      <c r="AG21" s="17">
+      <c r="AJ21" s="18">
         <v>114</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" spans="2:33">
+    <row r="22" ht="15.75" customHeight="1" spans="2:36">
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="5">
         <v>4</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="24">
         <v>174</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="24">
         <v>154</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="24">
         <v>154</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="24">
+        <v>154</v>
+      </c>
+      <c r="H22" s="24">
         <v>165</v>
       </c>
-      <c r="H22" s="23">
+      <c r="I22" s="24">
         <v>154</v>
       </c>
-      <c r="I22" s="23">
+      <c r="J22" s="24">
         <v>143</v>
       </c>
-      <c r="J22" s="23">
+      <c r="K22" s="24">
         <v>143</v>
       </c>
-      <c r="K22" s="26">
+      <c r="L22" s="27">
         <v>143</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N22" s="1">
+      <c r="N22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22" s="1">
         <v>79</v>
       </c>
-      <c r="O22" s="22">
+      <c r="P22" s="23">
         <v>9156.66</v>
       </c>
-      <c r="P22" s="22">
+      <c r="Q22" s="23">
         <v>9230.75</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="R22" s="23">
+        <v>9553.4</v>
+      </c>
+      <c r="S22" s="23">
         <v>9035.18</v>
       </c>
-      <c r="R22" s="22">
+      <c r="T22" s="23">
         <v>8860.47</v>
       </c>
-      <c r="S22" s="22">
+      <c r="U22" s="23">
         <v>8865.39</v>
       </c>
-      <c r="T22" s="22"/>
-      <c r="U22" s="25">
+      <c r="V22" s="23"/>
+      <c r="W22" s="26">
         <v>8705</v>
       </c>
-      <c r="V22" s="25">
+      <c r="X22" s="26">
         <v>8705</v>
       </c>
-      <c r="X22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA22" s="1">
         <v>10</v>
-      </c>
-      <c r="Z22" s="4">
-        <v>146</v>
-      </c>
-      <c r="AA22" s="4">
-        <v>146</v>
       </c>
       <c r="AB22" s="4">
         <v>146</v>
@@ -3225,80 +3400,89 @@
       <c r="AD22" s="4">
         <v>146</v>
       </c>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="17">
+      <c r="AE22" s="4">
+        <v>146</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>146</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>146</v>
+      </c>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="18">
         <v>66</v>
       </c>
-      <c r="AG22" s="17">
+      <c r="AJ22" s="18">
         <v>66</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" spans="2:33">
+    <row r="23" ht="15.75" customHeight="1" spans="2:36">
       <c r="B23" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="5">
         <v>5</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="24">
         <v>258</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="24">
         <v>248</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="24">
+        <v>248</v>
+      </c>
+      <c r="G23" s="24">
         <v>258</v>
       </c>
-      <c r="G23" s="23">
+      <c r="H23" s="24">
         <v>258</v>
       </c>
-      <c r="H23" s="23">
+      <c r="I23" s="24">
         <v>258</v>
       </c>
-      <c r="I23" s="23">
+      <c r="J23" s="24">
         <v>181</v>
       </c>
-      <c r="J23" s="23">
+      <c r="K23" s="24">
         <v>178</v>
       </c>
-      <c r="K23" s="26">
+      <c r="L23" s="27">
         <v>178</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N23" s="1">
+      <c r="N23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="1">
         <v>344</v>
       </c>
-      <c r="O23" s="22">
+      <c r="P23" s="23">
         <v>13388.78</v>
       </c>
-      <c r="P23" s="22">
+      <c r="Q23" s="23">
         <v>13074.68</v>
       </c>
-      <c r="Q23" s="22">
+      <c r="R23" s="23">
+        <v>12948.7</v>
+      </c>
+      <c r="S23" s="23">
         <v>13172.65</v>
       </c>
-      <c r="R23" s="22">
+      <c r="T23" s="23">
         <v>13194.03</v>
       </c>
-      <c r="S23" s="22">
+      <c r="U23" s="23">
         <v>13100.47</v>
       </c>
-      <c r="T23" s="22"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="X23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y23" s="1">
+      <c r="V23" s="23"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Z23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA23" s="1">
         <v>56</v>
-      </c>
-      <c r="Z23" s="4">
-        <v>27500</v>
-      </c>
-      <c r="AA23" s="4">
-        <v>27500</v>
       </c>
       <c r="AB23" s="4">
         <v>27500</v>
@@ -3309,153 +3493,170 @@
       <c r="AD23" s="4">
         <v>27500</v>
       </c>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
+      <c r="AE23" s="4">
+        <v>27500</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>27500</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>27500</v>
+      </c>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" spans="2:33">
+    <row r="24" ht="15.75" customHeight="1" spans="2:36">
       <c r="B24" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="5">
         <v>6</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="24">
         <v>162</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="24">
         <v>162</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="24">
         <v>162</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="24">
         <v>162</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="24">
         <v>162</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="24">
         <v>162</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="24">
+        <v>162</v>
+      </c>
+      <c r="K24" s="24">
         <v>231</v>
       </c>
-      <c r="K24" s="26">
+      <c r="L24" s="27">
         <v>231</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N24" s="1">
+      <c r="N24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O24" s="1">
         <v>140</v>
       </c>
-      <c r="O24" s="22">
+      <c r="P24" s="23">
         <v>728</v>
       </c>
-      <c r="P24" s="22">
+      <c r="Q24" s="23">
         <v>566</v>
       </c>
-      <c r="Q24" s="22">
+      <c r="R24" s="23">
+        <v>642</v>
+      </c>
+      <c r="S24" s="23">
         <v>726</v>
       </c>
-      <c r="R24" s="22">
+      <c r="T24" s="23">
         <v>720</v>
       </c>
-      <c r="S24" s="22">
+      <c r="U24" s="23">
         <v>718</v>
       </c>
-      <c r="T24" s="22"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="X24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y24" s="1">
+      <c r="V24" s="23"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Z24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA24" s="1">
         <v>56</v>
       </c>
-      <c r="Z24" s="4">
+      <c r="AB24" s="4">
         <v>1036.02</v>
       </c>
-      <c r="AA24" s="4">
+      <c r="AC24" s="4">
         <v>1056.72</v>
       </c>
-      <c r="AB24" s="4">
+      <c r="AD24" s="4">
+        <v>1109.08</v>
+      </c>
+      <c r="AE24" s="4">
         <v>964.26</v>
       </c>
-      <c r="AC24" s="4">
+      <c r="AF24" s="4">
         <v>964.26</v>
       </c>
-      <c r="AD24" s="4">
+      <c r="AG24" s="4">
         <v>996.51</v>
       </c>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1" spans="10:33">
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="X25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y25" s="5">
+    <row r="25" ht="15.75" customHeight="1" spans="11:36">
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="Z25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA25" s="5">
         <v>4</v>
-      </c>
-      <c r="Z25" s="6">
-        <v>826.08</v>
-      </c>
-      <c r="AA25" s="6">
-        <v>751.06</v>
       </c>
       <c r="AB25" s="6">
         <v>826.08</v>
       </c>
       <c r="AC25" s="6">
+        <v>751.06</v>
+      </c>
+      <c r="AD25" s="6">
+        <v>751.06</v>
+      </c>
+      <c r="AE25" s="6">
         <v>826.08</v>
       </c>
-      <c r="AD25" s="6">
+      <c r="AF25" s="6">
         <v>826.08</v>
       </c>
-      <c r="AE25" s="6">
+      <c r="AG25" s="6">
+        <v>826.08</v>
+      </c>
+      <c r="AH25" s="6">
         <v>714.33</v>
       </c>
-      <c r="AF25" s="18">
+      <c r="AI25" s="19">
         <v>618</v>
       </c>
-      <c r="AG25" s="18">
+      <c r="AJ25" s="19">
         <v>618</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" spans="2:33">
+    <row r="26" ht="15.75" customHeight="1" spans="2:36">
       <c r="B26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="8"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="X26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y26" s="29">
+      <c r="F26" s="9"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="Z26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA26" s="29">
         <v>5</v>
-      </c>
-      <c r="Z26" s="6">
-        <v>456.58</v>
-      </c>
-      <c r="AA26" s="6">
-        <v>456.58</v>
       </c>
       <c r="AB26" s="6">
         <v>456.58</v>
@@ -3467,84 +3668,97 @@
         <v>456.58</v>
       </c>
       <c r="AE26" s="6">
+        <v>456.58</v>
+      </c>
+      <c r="AF26" s="6">
+        <v>456.58</v>
+      </c>
+      <c r="AG26" s="6">
+        <v>456.58</v>
+      </c>
+      <c r="AH26" s="6">
         <v>662.17</v>
       </c>
-      <c r="AF26" s="18">
+      <c r="AI26" s="19">
         <v>447</v>
       </c>
-      <c r="AG26" s="18">
+      <c r="AJ26" s="19">
         <v>447</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
+    <row r="27" ht="15.75" customHeight="1" spans="2:30">
+      <c r="B27" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="9"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1" spans="2:5">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
+    <row r="28" ht="15.75" customHeight="1" spans="2:6">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="9"/>
     </row>
-    <row r="29" customHeight="1" spans="2:8">
-      <c r="B29" s="21"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
+    <row r="29" customHeight="1" spans="2:9">
+      <c r="B29" s="22"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1" spans="6:8">
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
+    <row r="30" ht="15.75" customHeight="1" spans="7:9">
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1" spans="6:8">
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+    <row r="31" ht="15.75" customHeight="1" spans="7:9">
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
     </row>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B38" s="16"/>
-      <c r="D38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
@@ -4510,9 +4724,9 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="AB1:AJ1"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
@@ -4536,10 +4750,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:AG1000"/>
+  <dimension ref="B1:AJ1000"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F$1:F$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -4547,32 +4761,32 @@
     <col min="1" max="1" width="8.7047619047619" customWidth="1"/>
     <col min="2" max="2" width="9.7047619047619" customWidth="1"/>
     <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
-    <col min="4" max="5" width="8.79047619047619" customWidth="1"/>
-    <col min="6" max="8" width="12.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="8.7047619047619" customWidth="1"/>
-    <col min="10" max="10" width="11.4285714285714" customWidth="1"/>
-    <col min="11" max="11" width="10.5714285714286" customWidth="1"/>
-    <col min="12" max="12" width="3.14285714285714" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="11.4285714285714" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="19" width="12.2857142857143" customWidth="1"/>
-    <col min="20" max="20" width="4" customWidth="1"/>
-    <col min="21" max="21" width="11.4285714285714" customWidth="1"/>
-    <col min="22" max="22" width="10.5714285714286" customWidth="1"/>
-    <col min="23" max="23" width="2.7047619047619" customWidth="1"/>
-    <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="25" max="25" width="11.5714285714286" customWidth="1"/>
-    <col min="26" max="30" width="12.2857142857143" customWidth="1"/>
-    <col min="31" max="31" width="7.79047619047619" customWidth="1"/>
-    <col min="32" max="32" width="11.4285714285714" customWidth="1"/>
-    <col min="33" max="33" width="10.5714285714286" customWidth="1"/>
+    <col min="4" max="6" width="8.79047619047619" customWidth="1"/>
+    <col min="7" max="9" width="12.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="8.7047619047619" customWidth="1"/>
+    <col min="11" max="11" width="11.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="10.5714285714286" customWidth="1"/>
+    <col min="13" max="13" width="3.14285714285714" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="11.4285714285714" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="21" width="12.2857142857143" customWidth="1"/>
+    <col min="22" max="22" width="4" customWidth="1"/>
+    <col min="23" max="23" width="11.4285714285714" customWidth="1"/>
+    <col min="24" max="24" width="10.5714285714286" customWidth="1"/>
+    <col min="25" max="25" width="2.7047619047619" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="11.5714285714286" customWidth="1"/>
+    <col min="28" max="33" width="12.2857142857143" customWidth="1"/>
+    <col min="34" max="34" width="7.79047619047619" customWidth="1"/>
+    <col min="35" max="35" width="11.4285714285714" customWidth="1"/>
+    <col min="36" max="36" width="10.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="2:33">
+    <row r="1" customHeight="1" spans="2:36">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -4583,37 +4797,40 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="8"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="8"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z1" s="2" t="s">
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="8"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
-      <c r="AG1" s="8"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="8"/>
     </row>
-    <row r="2" customHeight="1" spans="2:33">
+    <row r="2" customHeight="1" spans="2:36">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4644,156 +4861,174 @@
       <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="X2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="AJ2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" customHeight="1" spans="2:33">
+    <row r="3" customHeight="1" spans="2:36">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>140</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="4">
         <v>1551.66</v>
       </c>
       <c r="F3" s="4">
+        <v>1380.52</v>
+      </c>
+      <c r="G3" s="4">
         <v>1322.11</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>1318.03</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>1309.68</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
         <v>1234</v>
       </c>
-      <c r="K3" s="17">
+      <c r="L3" s="18">
         <v>1354</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="N3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="1">
         <v>24</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>2139</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <v>1691</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="R3" s="4">
+        <v>1691</v>
+      </c>
+      <c r="S3" s="4">
         <v>2139</v>
       </c>
-      <c r="R3" s="4">
+      <c r="T3" s="4">
         <v>2122</v>
       </c>
-      <c r="S3" s="4">
+      <c r="U3" s="4">
         <v>2011</v>
       </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4">
+      <c r="V3" s="4"/>
+      <c r="W3" s="4">
         <v>1691</v>
       </c>
-      <c r="V3" s="17">
+      <c r="X3" s="18">
         <v>1691</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y3" s="1">
+      <c r="Z3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="1">
         <v>38</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>42676.77</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>44191.56</v>
       </c>
       <c r="AB3" s="4">
         <v>42676.77</v>
       </c>
       <c r="AC3" s="4">
+        <v>44191.56</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>44191.56</v>
+      </c>
+      <c r="AE3" s="4">
         <v>42676.77</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AF3" s="4">
         <v>42676.77</v>
       </c>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="17">
+      <c r="AG3" s="4">
+        <v>42676.77</v>
+      </c>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="18">
         <v>37793</v>
       </c>
-      <c r="AG3" s="17">
+      <c r="AJ3" s="18">
         <v>37793</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:33">
+    <row r="4" customHeight="1" spans="2:36">
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>267</v>
@@ -4805,67 +5040,74 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="17"/>
-      <c r="M4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="K4" s="4"/>
+      <c r="L4" s="18"/>
+      <c r="N4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="1">
         <v>48</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <v>22073.5</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Q4" s="4">
         <v>23897.19</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="4">
+        <v>27135.01</v>
+      </c>
+      <c r="S4" s="4">
         <v>21617.45</v>
       </c>
-      <c r="R4" s="4">
+      <c r="T4" s="4">
         <v>21055.45</v>
       </c>
-      <c r="S4" s="4">
+      <c r="U4" s="4">
         <v>21657.37</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4">
+      <c r="V4" s="4"/>
+      <c r="W4" s="4">
         <v>17634</v>
       </c>
-      <c r="V4" s="17">
+      <c r="X4" s="18">
         <v>17634</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y4" s="1">
+      <c r="Z4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" s="1">
         <v>52</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="AB4" s="4">
         <v>17103.07</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AC4" s="4">
         <v>15595.35</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AD4" s="4">
+        <v>17103.07</v>
+      </c>
+      <c r="AE4" s="4">
         <v>16472.98</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AF4" s="4">
         <v>15960.98</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AG4" s="4">
         <v>15262.35</v>
       </c>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="17">
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="18">
         <v>14839</v>
       </c>
-      <c r="AG4" s="17">
+      <c r="AJ4" s="18">
         <v>14839</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:33">
+    <row r="5" customHeight="1" spans="2:36">
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5">
         <v>24</v>
@@ -4877,75 +5119,84 @@
         <v>3710</v>
       </c>
       <c r="F5" s="6">
+        <v>3710</v>
+      </c>
+      <c r="G5" s="6">
         <v>3447</v>
-      </c>
-      <c r="G5" s="6">
-        <v>3231</v>
       </c>
       <c r="H5" s="6">
         <v>3231</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="18"/>
-      <c r="M5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="I5" s="6">
+        <v>3231</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="19"/>
+      <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="1">
         <v>60</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <v>3174</v>
       </c>
-      <c r="P5" s="4">
+      <c r="Q5" s="4">
         <v>3062</v>
       </c>
-      <c r="Q5" s="4">
-        <v>3120</v>
-      </c>
       <c r="R5" s="4">
-        <v>3120</v>
+        <v>3010</v>
       </c>
       <c r="S5" s="4">
         <v>3120</v>
       </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="17"/>
-      <c r="X5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y5" s="1">
+      <c r="T5" s="4">
+        <v>3120</v>
+      </c>
+      <c r="U5" s="4">
+        <v>3120</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="18"/>
+      <c r="Z5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA5" s="1">
         <v>62</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AB5" s="4">
         <v>26214.19</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AC5" s="4">
         <v>22543.29</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AD5" s="4">
+        <v>22143.51</v>
+      </c>
+      <c r="AE5" s="4">
         <v>24187.51</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AF5" s="4">
         <v>25633.65</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AG5" s="4">
         <v>23691.5</v>
       </c>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="17">
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="18">
         <v>21420</v>
       </c>
-      <c r="AG5" s="17">
+      <c r="AJ5" s="18">
         <v>21564</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:33">
+    <row r="6" customHeight="1" spans="2:36">
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>266</v>
@@ -4957,67 +5208,74 @@
         <v>10405</v>
       </c>
       <c r="F6" s="4">
+        <v>11972</v>
+      </c>
+      <c r="G6" s="4">
         <v>14250</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>14128</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>14036</v>
       </c>
-      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="17"/>
-      <c r="M6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="K6" s="4"/>
+      <c r="L6" s="18"/>
+      <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="1">
         <v>68</v>
       </c>
-      <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="4">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4">
         <v>29108</v>
       </c>
-      <c r="V6" s="17">
+      <c r="X6" s="18">
         <v>29108</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA6" s="1">
         <v>68</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>53346.76</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>51047.96</v>
       </c>
       <c r="AB6" s="4">
         <v>53346.76</v>
       </c>
       <c r="AC6" s="4">
+        <v>51047.96</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>48383.81</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>53346.76</v>
+      </c>
+      <c r="AF6" s="4">
         <v>46726.91</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AG6" s="4">
         <v>50028.99</v>
       </c>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="17">
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="18">
         <v>47911</v>
       </c>
-      <c r="AG6" s="17">
+      <c r="AJ6" s="18">
         <v>48960</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:33">
+    <row r="7" customHeight="1" spans="2:36">
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5">
         <v>14</v>
@@ -5037,65 +5295,72 @@
       <c r="H7" s="6">
         <v>581</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I7" s="6">
         <v>581</v>
       </c>
-      <c r="K7" s="18">
+      <c r="J7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="6">
         <v>581</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="L7" s="19">
+        <v>581</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="1">
         <v>101</v>
       </c>
-      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="4">
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4">
         <v>13996</v>
       </c>
-      <c r="V7" s="17">
+      <c r="X7" s="18">
         <v>14131</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y7" s="1">
+      <c r="Z7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="1">
         <v>72</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="AB7" s="4">
         <v>26457.22</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AC7" s="4">
         <v>28471</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AD7" s="4">
+        <v>26457.22</v>
+      </c>
+      <c r="AE7" s="4">
         <v>26341.82</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AF7" s="4">
         <v>26306.34</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AG7" s="4">
         <v>26331.47</v>
       </c>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="17">
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="18">
         <v>26296</v>
       </c>
-      <c r="AG7" s="17">
+      <c r="AJ7" s="18">
         <v>26296</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:33">
+    <row r="8" customHeight="1" spans="2:36">
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5">
         <v>14</v>
@@ -5107,7 +5372,7 @@
         <v>818</v>
       </c>
       <c r="F8" s="6">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G8" s="6">
         <v>816</v>
@@ -5115,65 +5380,72 @@
       <c r="H8" s="6">
         <v>816</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="I8" s="6">
+        <v>816</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="6">
         <v>672</v>
       </c>
-      <c r="K8" s="18">
+      <c r="L8" s="19">
         <v>672</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="1">
+      <c r="N8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="1">
         <v>114</v>
       </c>
-      <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="4">
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4">
         <v>41661</v>
       </c>
-      <c r="V8" s="17">
+      <c r="X8" s="18">
         <v>41877</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y8" s="1">
+      <c r="Z8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA8" s="1">
         <v>76</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="AB8" s="4">
         <v>35032.6</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AC8" s="4">
         <v>35705.47</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AD8" s="4">
+        <v>35705.47</v>
+      </c>
+      <c r="AE8" s="4">
         <v>33363.86</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AF8" s="4">
         <v>32745.67</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AG8" s="4">
         <v>32794.53</v>
       </c>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="17">
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="18">
         <v>30712</v>
       </c>
-      <c r="AG8" s="17">
+      <c r="AJ8" s="18">
         <v>30718</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:33">
+    <row r="9" customHeight="1" spans="2:36">
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5">
         <v>26</v>
@@ -5185,7 +5457,7 @@
         <v>1857.02</v>
       </c>
       <c r="F9" s="6">
-        <v>1766.5</v>
+        <v>1857.02</v>
       </c>
       <c r="G9" s="6">
         <v>1766.5</v>
@@ -5194,60 +5466,67 @@
         <v>1766.5</v>
       </c>
       <c r="I9" s="6">
+        <v>1766.5</v>
+      </c>
+      <c r="J9" s="6">
         <v>3303.71452420693</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>1766</v>
       </c>
-      <c r="K9" s="18">
+      <c r="L9" s="19">
         <v>1766</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="N9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="1">
         <v>215</v>
       </c>
-      <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="17"/>
-      <c r="X9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y9" s="1">
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="18"/>
+      <c r="Z9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA9" s="1">
         <v>113</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="AB9" s="4">
         <v>51597.94</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AC9" s="4">
         <v>53661.61</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AD9" s="4">
+        <v>53582.58</v>
+      </c>
+      <c r="AE9" s="4">
         <v>49141.62</v>
       </c>
-      <c r="AC9" s="4">
+      <c r="AF9" s="4">
         <v>48156.03</v>
       </c>
-      <c r="AD9" s="4">
+      <c r="AG9" s="4">
         <v>47039.29</v>
       </c>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="17">
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="18">
         <v>33349</v>
       </c>
-      <c r="AG9" s="17">
+      <c r="AJ9" s="18">
         <v>33349</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:33">
+    <row r="10" customHeight="1" spans="2:36">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1">
         <v>63</v>
@@ -5259,63 +5538,70 @@
         <v>30074.64</v>
       </c>
       <c r="F10" s="4">
+        <v>29172.34</v>
+      </c>
+      <c r="G10" s="4">
         <v>29120.17</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>28429.05</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>27862.64</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
         <v>24862</v>
       </c>
-      <c r="K10" s="17">
+      <c r="L10" s="18">
         <v>24862</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="N10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="1">
         <v>333</v>
       </c>
-      <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="17"/>
-      <c r="X10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y10" s="1">
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="18"/>
+      <c r="Z10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA10" s="1">
         <v>132</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="AB10" s="4">
         <v>23011.19</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AC10" s="4">
         <v>21708.66</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AD10" s="4">
+        <v>21567.68</v>
+      </c>
+      <c r="AE10" s="4">
         <v>22934.79</v>
       </c>
-      <c r="AC10" s="4">
+      <c r="AF10" s="4">
         <v>21889.15</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AG10" s="4">
         <v>22363.5</v>
       </c>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
     </row>
-    <row r="11" customHeight="1" spans="2:33">
+    <row r="11" customHeight="1" spans="2:36">
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1">
         <v>29</v>
@@ -5327,7 +5613,7 @@
         <v>9828</v>
       </c>
       <c r="F11" s="4">
-        <v>10262</v>
+        <v>9828</v>
       </c>
       <c r="G11" s="4">
         <v>10262</v>
@@ -5335,65 +5621,74 @@
       <c r="H11" s="4">
         <v>10262</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4">
+        <v>10262</v>
+      </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="17"/>
-      <c r="M11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="1">
+      <c r="K11" s="4"/>
+      <c r="L11" s="18"/>
+      <c r="N11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="1">
         <v>24</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <v>6476</v>
       </c>
-      <c r="P11" s="4">
+      <c r="Q11" s="4">
         <v>5474</v>
       </c>
-      <c r="Q11" s="4">
-        <v>6284</v>
-      </c>
       <c r="R11" s="4">
-        <v>6284</v>
+        <v>6402</v>
       </c>
       <c r="S11" s="4">
         <v>6284</v>
       </c>
-      <c r="T11" s="4"/>
+      <c r="T11" s="4">
+        <v>6284</v>
+      </c>
       <c r="U11" s="4">
+        <v>6284</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4">
         <v>4238</v>
       </c>
-      <c r="V11" s="17">
+      <c r="X11" s="18">
         <v>4300</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y11" s="1">
+      <c r="Z11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" s="1">
         <v>149</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="AB11" s="4">
         <v>27476.07</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AC11" s="4">
         <v>26159.06</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AD11" s="4">
+        <v>25646.32</v>
+      </c>
+      <c r="AE11" s="4">
         <v>26442.77</v>
       </c>
-      <c r="AC11" s="4">
+      <c r="AF11" s="4">
         <v>25630.01</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AG11" s="4">
         <v>24829.1</v>
       </c>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
     </row>
-    <row r="12" customHeight="1" spans="2:33">
+    <row r="12" customHeight="1" spans="2:36">
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1">
         <v>90</v>
@@ -5405,73 +5700,82 @@
         <v>980</v>
       </c>
       <c r="F12" s="4">
+        <v>2020</v>
+      </c>
+      <c r="G12" s="4">
         <v>22550</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>25610</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>4770</v>
       </c>
-      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="17"/>
-      <c r="M12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="K12" s="4"/>
+      <c r="L12" s="18"/>
+      <c r="N12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="1">
         <v>50</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>11572.88</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="4">
         <v>10270.1</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="4">
+        <v>10587.56</v>
+      </c>
+      <c r="S12" s="4">
         <v>11430.22</v>
       </c>
-      <c r="R12" s="4">
+      <c r="T12" s="4">
         <v>10638.41</v>
       </c>
-      <c r="S12" s="4">
+      <c r="U12" s="4">
         <v>10809.47</v>
       </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4">
+      <c r="V12" s="4"/>
+      <c r="W12" s="4">
         <v>9073</v>
       </c>
-      <c r="V12" s="17">
+      <c r="X12" s="18">
         <v>9098</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y12" s="1">
+      <c r="Z12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA12" s="1">
         <v>219</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="AB12" s="4">
         <v>41333.97</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AC12" s="4">
         <v>43929.8</v>
       </c>
-      <c r="AB12" s="4">
+      <c r="AD12" s="4">
+        <v>43231</v>
+      </c>
+      <c r="AE12" s="4">
         <v>40759.29</v>
       </c>
-      <c r="AC12" s="4">
+      <c r="AF12" s="4">
         <v>40496.9</v>
       </c>
-      <c r="AD12" s="4">
+      <c r="AG12" s="4">
         <v>39951.51</v>
       </c>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
     </row>
-    <row r="13" customHeight="1" spans="2:33">
+    <row r="13" customHeight="1" spans="2:36">
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5">
         <v>7</v>
@@ -5483,7 +5787,7 @@
         <v>1339.12</v>
       </c>
       <c r="F13" s="6">
-        <v>1454.84</v>
+        <v>1339.12</v>
       </c>
       <c r="G13" s="6">
         <v>1454.84</v>
@@ -5492,70 +5796,79 @@
         <v>1454.84</v>
       </c>
       <c r="I13" s="6">
+        <v>1454.84</v>
+      </c>
+      <c r="J13" s="6">
         <v>966.37</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <v>842</v>
       </c>
-      <c r="K13" s="18">
+      <c r="L13" s="19">
         <v>842</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="N13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="1">
         <v>75</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>15643.51</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>50807.89</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
+        <v>14034.92</v>
+      </c>
+      <c r="S13" s="4">
         <v>15430.01</v>
       </c>
-      <c r="R13" s="4">
+      <c r="T13" s="4">
         <v>14772.08</v>
       </c>
-      <c r="S13" s="4">
+      <c r="U13" s="4">
         <v>14026.18</v>
       </c>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4">
+      <c r="V13" s="4"/>
+      <c r="W13" s="4">
         <v>11412</v>
       </c>
-      <c r="V13" s="17">
+      <c r="X13" s="18">
         <v>11483</v>
       </c>
-      <c r="X13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA13" s="1">
         <v>501</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="AB13" s="4">
         <v>133670.14</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AC13" s="4">
         <v>143817.03</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AD13" s="4">
+        <v>130460.89</v>
+      </c>
+      <c r="AE13" s="4">
         <v>131441.76</v>
       </c>
-      <c r="AC13" s="4">
+      <c r="AF13" s="4">
         <v>129086.31</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AG13" s="4">
         <v>128728.12</v>
       </c>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
     </row>
-    <row r="14" customHeight="1" spans="2:33">
+    <row r="14" customHeight="1" spans="2:36">
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1">
         <v>65</v>
@@ -5567,81 +5880,90 @@
         <v>2792.21</v>
       </c>
       <c r="F14" s="4">
+        <v>2588.71</v>
+      </c>
+      <c r="G14" s="4">
         <v>2710.19</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>2708.24</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>2710.19</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
         <v>2492</v>
       </c>
-      <c r="K14" s="17">
+      <c r="L14" s="18">
         <v>2492</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="N14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="1">
         <v>100</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>13623.44</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>16093.09</v>
       </c>
-      <c r="Q14" s="4">
-        <v>13485.45</v>
-      </c>
       <c r="R14" s="4">
-        <v>13485.45</v>
+        <v>15690.41</v>
       </c>
       <c r="S14" s="4">
         <v>13485.45</v>
       </c>
-      <c r="T14" s="4"/>
+      <c r="T14" s="4">
+        <v>13485.45</v>
+      </c>
       <c r="U14" s="4">
+        <v>13485.45</v>
+      </c>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4">
         <v>13315</v>
       </c>
-      <c r="V14" s="17">
+      <c r="X14" s="18">
         <v>13315</v>
       </c>
-      <c r="X14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y14" s="1">
+      <c r="Z14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="AA14" s="1">
+        <v>49</v>
+      </c>
+      <c r="AB14" s="4">
         <v>600.15</v>
       </c>
-      <c r="AA14" s="4">
+      <c r="AC14" s="4">
         <v>695.56</v>
       </c>
-      <c r="AB14" s="4">
+      <c r="AD14" s="4">
+        <v>620.12</v>
+      </c>
+      <c r="AE14" s="4">
         <v>584.59</v>
       </c>
-      <c r="AC14" s="4">
+      <c r="AF14" s="4">
         <v>578.7</v>
       </c>
-      <c r="AD14" s="4">
+      <c r="AG14" s="4">
         <v>571.6</v>
       </c>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="17">
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="18">
         <v>554</v>
       </c>
-      <c r="AG14" s="17">
+      <c r="AJ14" s="18">
         <v>554</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="2:33">
+    <row r="15" customHeight="1" spans="2:36">
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1">
         <v>75</v>
@@ -5653,81 +5975,90 @@
         <v>3621.33</v>
       </c>
       <c r="F15" s="4">
+        <v>3114.15</v>
+      </c>
+      <c r="G15" s="4">
         <v>3169.82</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>3082.54</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>3087.18</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
         <v>2772</v>
       </c>
-      <c r="K15" s="17">
+      <c r="L15" s="18">
         <v>2790</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="1">
         <v>50</v>
       </c>
-      <c r="N15" s="1">
-        <v>50</v>
-      </c>
-      <c r="O15" s="4">
+      <c r="P15" s="4">
         <v>11462.54</v>
       </c>
-      <c r="P15" s="4">
+      <c r="Q15" s="4">
         <v>11768</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="R15" s="4">
+        <v>10957.73</v>
+      </c>
+      <c r="S15" s="4">
         <v>11418.42</v>
       </c>
-      <c r="R15" s="4">
+      <c r="T15" s="4">
         <v>11366.47</v>
       </c>
-      <c r="S15" s="4">
+      <c r="U15" s="4">
         <v>11184.6</v>
       </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4">
+      <c r="V15" s="4"/>
+      <c r="W15" s="4">
         <v>9071</v>
       </c>
-      <c r="V15" s="17">
+      <c r="X15" s="18">
         <v>9071</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y15" s="1">
+      <c r="Z15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA15" s="1">
         <v>97</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>1135.38</v>
-      </c>
-      <c r="AA15" s="4">
-        <v>1293.71</v>
       </c>
       <c r="AB15" s="4">
         <v>1135.38</v>
       </c>
       <c r="AC15" s="4">
+        <v>1293.71</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>1158.97</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>1135.38</v>
+      </c>
+      <c r="AF15" s="4">
         <v>1133.95</v>
       </c>
-      <c r="AD15" s="4">
+      <c r="AG15" s="4">
         <v>1125.23</v>
       </c>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="17">
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="18">
         <v>1106</v>
       </c>
-      <c r="AG15" s="17">
+      <c r="AJ15" s="18">
         <v>1108</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="2:33">
+    <row r="16" customHeight="1" spans="2:36">
       <c r="B16" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="5">
         <v>21</v>
@@ -5739,7 +6070,7 @@
         <v>251</v>
       </c>
       <c r="F16" s="6">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="G16" s="6">
         <v>239</v>
@@ -5748,70 +6079,79 @@
         <v>239</v>
       </c>
       <c r="I16" s="6">
+        <v>239</v>
+      </c>
+      <c r="J16" s="6">
         <v>230</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="6">
         <v>227</v>
       </c>
-      <c r="K16" s="18">
+      <c r="L16" s="19">
         <v>227</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N16" s="1">
+      <c r="N16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="1">
         <v>75</v>
       </c>
-      <c r="O16" s="4">
+      <c r="P16" s="4">
         <v>12323.13</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Q16" s="4">
         <v>13509.84</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="R16" s="4">
+        <v>12003.25</v>
+      </c>
+      <c r="S16" s="4">
         <v>12099.43</v>
       </c>
-      <c r="R16" s="4">
+      <c r="T16" s="4">
         <v>11909.87</v>
       </c>
-      <c r="S16" s="4">
+      <c r="U16" s="4">
         <v>12016.93</v>
       </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4">
+      <c r="V16" s="4"/>
+      <c r="W16" s="4">
         <v>11501</v>
       </c>
-      <c r="V16" s="17">
+      <c r="X16" s="18">
         <v>11501</v>
       </c>
-      <c r="X16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y16" s="1">
+      <c r="Z16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA16" s="1">
         <v>287</v>
       </c>
-      <c r="Z16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA16" s="4">
+      <c r="AB16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC16" s="4">
         <v>3690.24</v>
       </c>
-      <c r="AB16" s="4">
+      <c r="AD16" s="4">
+        <v>3636.54</v>
+      </c>
+      <c r="AE16" s="4">
         <v>3448.29</v>
       </c>
-      <c r="AC16" s="4">
+      <c r="AF16" s="4">
         <v>3407.23</v>
       </c>
-      <c r="AD16" s="4">
+      <c r="AG16" s="4">
         <v>3354.21</v>
       </c>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
     </row>
-    <row r="17" customHeight="1" spans="2:33">
+    <row r="17" customHeight="1" spans="2:36">
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="5">
         <v>25</v>
@@ -5823,7 +6163,7 @@
         <v>190.34</v>
       </c>
       <c r="F17" s="6">
-        <v>181.41</v>
+        <v>190.34</v>
       </c>
       <c r="G17" s="6">
         <v>181.41</v>
@@ -5831,71 +6171,80 @@
       <c r="H17" s="6">
         <v>181.41</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="I17" s="6">
+        <v>181.41</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="6">
         <v>179</v>
       </c>
-      <c r="K17" s="18">
+      <c r="L17" s="19">
         <v>181</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="1">
+      <c r="N17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="1">
         <v>100</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>17281.75</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <v>17169.62</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
+        <v>16124.85</v>
+      </c>
+      <c r="S17" s="4">
         <v>17110.47</v>
       </c>
-      <c r="R17" s="4">
+      <c r="T17" s="4">
         <v>16276.03</v>
       </c>
-      <c r="S17" s="4">
+      <c r="U17" s="4">
         <v>15963.66</v>
       </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4">
+      <c r="V17" s="4"/>
+      <c r="W17" s="4">
         <v>12787</v>
       </c>
-      <c r="V17" s="17">
+      <c r="X17" s="18">
         <v>12787</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y17" s="1">
+      <c r="Z17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA17" s="1">
         <v>391</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="AB17" s="4">
         <v>4697.63</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AC17" s="4">
         <v>4979.69</v>
       </c>
-      <c r="AB17" s="4">
+      <c r="AD17" s="4">
+        <v>4850.7</v>
+      </c>
+      <c r="AE17" s="4">
         <v>4617.92</v>
       </c>
-      <c r="AC17" s="4">
+      <c r="AF17" s="4">
         <v>4535.42</v>
       </c>
-      <c r="AD17" s="4">
+      <c r="AG17" s="4">
         <v>4472.01</v>
       </c>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
     </row>
-    <row r="18" customHeight="1" spans="2:33">
+    <row r="18" customHeight="1" spans="2:36">
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1">
         <v>38</v>
@@ -5907,7 +6256,7 @@
         <v>240.5</v>
       </c>
       <c r="F18" s="4">
-        <v>229.64</v>
+        <v>227.88</v>
       </c>
       <c r="G18" s="4">
         <v>229.64</v>
@@ -5915,69 +6264,78 @@
       <c r="H18" s="4">
         <v>229.64</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4">
+      <c r="I18" s="4">
+        <v>229.64</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4">
         <v>217</v>
       </c>
-      <c r="K18" s="17">
+      <c r="L18" s="18">
         <v>219</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="N18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="1">
         <v>50</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>9617.35</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q18" s="4">
         <v>12165.37</v>
       </c>
-      <c r="Q18" s="4">
-        <v>9555.73</v>
-      </c>
       <c r="R18" s="4">
-        <v>9555.73</v>
+        <v>10882.65</v>
       </c>
       <c r="S18" s="4">
         <v>9555.73</v>
       </c>
-      <c r="T18" s="4"/>
+      <c r="T18" s="4">
+        <v>9555.73</v>
+      </c>
       <c r="U18" s="4">
+        <v>9555.73</v>
+      </c>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4">
         <v>9428</v>
       </c>
-      <c r="V18" s="17">
+      <c r="X18" s="18">
         <v>9498</v>
       </c>
-      <c r="X18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y18" s="1">
+      <c r="Z18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA18" s="1">
         <v>87</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="AB18" s="4">
         <v>10581</v>
       </c>
-      <c r="AA18" s="4">
+      <c r="AC18" s="4">
         <v>10638</v>
       </c>
-      <c r="AB18" s="4">
+      <c r="AD18" s="4">
+        <v>10390</v>
+      </c>
+      <c r="AE18" s="4">
         <v>10537</v>
       </c>
-      <c r="AC18" s="4">
+      <c r="AF18" s="4">
         <v>10528</v>
       </c>
-      <c r="AD18" s="4">
+      <c r="AG18" s="4">
         <v>10498</v>
       </c>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
     </row>
-    <row r="19" customHeight="1" spans="2:33">
+    <row r="19" customHeight="1" spans="2:36">
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1">
         <v>50</v>
@@ -5989,7 +6347,7 @@
         <v>269.56</v>
       </c>
       <c r="F19" s="4">
-        <v>314.43</v>
+        <v>314.33</v>
       </c>
       <c r="G19" s="4">
         <v>314.43</v>
@@ -5997,69 +6355,78 @@
       <c r="H19" s="4">
         <v>314.43</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4">
+      <c r="I19" s="4">
+        <v>314.43</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4">
         <v>249</v>
       </c>
-      <c r="K19" s="17">
+      <c r="L19" s="18">
         <v>249</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N19" s="1">
+      <c r="N19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="1">
         <v>50</v>
       </c>
-      <c r="O19" s="4">
+      <c r="P19" s="4">
         <v>10720.17</v>
       </c>
-      <c r="P19" s="4">
+      <c r="Q19" s="4">
         <v>11235.04</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="4">
+        <v>11235.04</v>
+      </c>
+      <c r="S19" s="4">
         <v>10636.85</v>
       </c>
-      <c r="R19" s="4">
+      <c r="T19" s="4">
         <v>10587.17</v>
       </c>
-      <c r="S19" s="4">
+      <c r="U19" s="4">
         <v>10205.07</v>
       </c>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4">
+      <c r="V19" s="4"/>
+      <c r="W19" s="4">
         <v>8808</v>
       </c>
-      <c r="V19" s="17">
+      <c r="X19" s="18">
         <v>8808</v>
       </c>
-      <c r="X19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y19" s="1">
+      <c r="Z19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA19" s="1">
         <v>267</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="AB19" s="4">
         <v>23690</v>
       </c>
-      <c r="AA19" s="4">
+      <c r="AC19" s="4">
         <v>23530</v>
       </c>
-      <c r="AB19" s="4">
+      <c r="AD19" s="4">
+        <v>23598</v>
+      </c>
+      <c r="AE19" s="4">
         <v>23558</v>
       </c>
-      <c r="AC19" s="4">
+      <c r="AF19" s="4">
         <v>23495</v>
       </c>
-      <c r="AD19" s="4">
+      <c r="AG19" s="4">
         <v>23164</v>
       </c>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
     </row>
-    <row r="20" customHeight="1" spans="2:33">
+    <row r="20" customHeight="1" spans="2:36">
       <c r="B20" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="5">
         <v>13</v>
@@ -6071,79 +6438,88 @@
         <v>391</v>
       </c>
       <c r="F20" s="6">
+        <v>391</v>
+      </c>
+      <c r="G20" s="6">
         <v>334</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H20" s="6">
         <v>331</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="6">
         <v>334</v>
-      </c>
-      <c r="I20" s="6">
-        <v>308</v>
       </c>
       <c r="J20" s="6">
         <v>308</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="6">
+        <v>308</v>
+      </c>
+      <c r="L20" s="19">
         <v>339</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N20" s="1">
+      <c r="N20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="1">
         <v>50</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <v>10228.68</v>
       </c>
-      <c r="P20" s="4">
+      <c r="Q20" s="4">
         <v>10160.41</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="R20" s="4">
+        <v>9510.46</v>
+      </c>
+      <c r="S20" s="4">
         <v>10167.8</v>
       </c>
-      <c r="R20" s="4">
+      <c r="T20" s="4">
         <v>9911.87</v>
       </c>
-      <c r="S20" s="4">
+      <c r="U20" s="4">
         <v>9424.1</v>
       </c>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4">
+      <c r="V20" s="4"/>
+      <c r="W20" s="4">
         <v>9370</v>
       </c>
-      <c r="V20" s="17">
+      <c r="X20" s="18">
         <v>9370</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y20" s="1">
+      <c r="Z20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA20" s="1">
         <v>516</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="AB20" s="4">
         <v>46820</v>
       </c>
-      <c r="AA20" s="4">
+      <c r="AC20" s="4">
         <v>46810</v>
       </c>
-      <c r="AB20" s="4">
+      <c r="AD20" s="4">
+        <v>46911</v>
+      </c>
+      <c r="AE20" s="4">
         <v>46817</v>
       </c>
-      <c r="AC20" s="4">
+      <c r="AF20" s="4">
         <v>46817</v>
       </c>
-      <c r="AD20" s="4">
+      <c r="AG20" s="4">
         <v>46591</v>
       </c>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" spans="2:33">
+    <row r="21" ht="15.75" customHeight="1" spans="2:36">
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1">
         <v>131</v>
@@ -6155,81 +6531,90 @@
         <v>1397.39</v>
       </c>
       <c r="F21" s="4">
-        <v>1176.37</v>
+        <v>1218.6</v>
       </c>
       <c r="G21" s="4">
         <v>1176.37</v>
       </c>
       <c r="H21" s="4">
+        <v>1176.37</v>
+      </c>
+      <c r="I21" s="4">
         <v>1169.16</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4">
         <v>1049</v>
       </c>
-      <c r="K21" s="17">
+      <c r="L21" s="18">
         <v>1049</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N21" s="1">
+      <c r="N21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="1">
         <v>52</v>
       </c>
-      <c r="O21" s="4">
+      <c r="P21" s="4">
         <v>5888.85</v>
       </c>
-      <c r="P21" s="4">
+      <c r="Q21" s="4">
         <v>5350.1</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="R21" s="4">
+        <v>5879.98</v>
+      </c>
+      <c r="S21" s="4">
         <v>5848.46</v>
       </c>
-      <c r="R21" s="4">
+      <c r="T21" s="4">
         <v>5673.74</v>
       </c>
-      <c r="S21" s="4">
+      <c r="U21" s="4">
         <v>5691.96</v>
       </c>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4">
+      <c r="V21" s="4"/>
+      <c r="W21" s="4">
         <v>5532</v>
       </c>
-      <c r="V21" s="17">
+      <c r="X21" s="18">
         <v>5532</v>
       </c>
-      <c r="X21" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y21" s="20">
+      <c r="Z21" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA21" s="21">
         <v>35</v>
       </c>
-      <c r="Z21" s="7">
+      <c r="AB21" s="7">
         <v>347.28</v>
       </c>
-      <c r="AA21" s="7">
+      <c r="AC21" s="7">
         <v>250.24</v>
       </c>
-      <c r="AB21" s="4">
+      <c r="AD21" s="7">
+        <v>292.76</v>
+      </c>
+      <c r="AE21" s="4">
         <v>320.01</v>
       </c>
-      <c r="AC21" s="4">
+      <c r="AF21" s="4">
         <v>323.07</v>
       </c>
-      <c r="AD21" s="4">
+      <c r="AG21" s="4">
         <v>308.25</v>
       </c>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="17">
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="18">
         <v>250</v>
       </c>
-      <c r="AG21" s="17">
+      <c r="AJ21" s="18">
         <v>264</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" spans="2:33">
+    <row r="22" ht="15.75" customHeight="1" spans="2:36">
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="5">
         <v>8</v>
@@ -6241,7 +6626,7 @@
         <v>426</v>
       </c>
       <c r="F22" s="6">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="G22" s="6">
         <v>359</v>
@@ -6250,74 +6635,83 @@
         <v>359</v>
       </c>
       <c r="I22" s="6">
+        <v>359</v>
+      </c>
+      <c r="J22" s="6">
         <v>380</v>
       </c>
-      <c r="J22" s="6">
+      <c r="K22" s="6">
         <v>359</v>
       </c>
-      <c r="K22" s="18">
+      <c r="L22" s="19">
         <v>368</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N22" s="1">
+      <c r="N22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22" s="1">
         <v>159</v>
       </c>
-      <c r="O22" s="4">
+      <c r="P22" s="4">
         <v>22878.82</v>
       </c>
-      <c r="P22" s="4">
+      <c r="Q22" s="4">
         <v>20965.1</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="R22" s="4">
+        <v>21536.24</v>
+      </c>
+      <c r="S22" s="4">
         <v>22464.99</v>
       </c>
-      <c r="R22" s="4">
+      <c r="T22" s="4">
         <v>21495.02</v>
       </c>
-      <c r="S22" s="4">
+      <c r="U22" s="4">
         <v>20813.25</v>
       </c>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4">
+      <c r="V22" s="4"/>
+      <c r="W22" s="4">
         <v>17655</v>
       </c>
-      <c r="V22" s="17">
+      <c r="X22" s="18">
         <v>17655</v>
       </c>
-      <c r="X22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA22" s="1">
         <v>21</v>
       </c>
-      <c r="Z22" s="4">
+      <c r="AB22" s="4">
         <v>441</v>
       </c>
-      <c r="AA22" s="4">
+      <c r="AC22" s="4">
         <v>448</v>
       </c>
-      <c r="AB22" s="4">
+      <c r="AD22" s="4">
+        <v>502</v>
+      </c>
+      <c r="AE22" s="4">
         <v>425</v>
       </c>
-      <c r="AC22" s="4">
+      <c r="AF22" s="4">
         <v>425</v>
       </c>
-      <c r="AD22" s="4">
+      <c r="AG22" s="4">
         <v>425</v>
       </c>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="17">
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="18">
         <v>132</v>
       </c>
-      <c r="AG22" s="17">
+      <c r="AJ22" s="18">
         <v>141</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" spans="2:33">
+    <row r="23" ht="15.75" customHeight="1" spans="2:36">
       <c r="B23" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="5">
         <v>10</v>
@@ -6329,7 +6723,7 @@
         <v>683</v>
       </c>
       <c r="F23" s="6">
-        <v>989</v>
+        <v>732</v>
       </c>
       <c r="G23" s="6">
         <v>989</v>
@@ -6338,66 +6732,75 @@
         <v>989</v>
       </c>
       <c r="I23" s="6">
-        <v>683</v>
+        <v>989</v>
       </c>
       <c r="J23" s="6">
         <v>683</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="6">
         <v>683</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N23" s="1">
+      <c r="L23" s="19">
+        <v>683</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="1">
         <v>689</v>
       </c>
-      <c r="O23" s="4">
+      <c r="P23" s="4">
         <v>28892.08</v>
       </c>
-      <c r="P23" s="4">
+      <c r="Q23" s="4">
         <v>28532.55</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="R23" s="4">
+        <v>27884.83</v>
+      </c>
+      <c r="S23" s="4">
         <v>28386.64</v>
       </c>
-      <c r="R23" s="4">
+      <c r="T23" s="4">
         <v>28189.25</v>
       </c>
-      <c r="S23" s="4">
+      <c r="U23" s="4">
         <v>28110.73</v>
       </c>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="17"/>
-      <c r="X23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y23" s="1">
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="18"/>
+      <c r="Z23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA23" s="1">
         <v>112</v>
-      </c>
-      <c r="Z23" s="4">
-        <v>55500</v>
-      </c>
-      <c r="AA23" s="4">
-        <v>73643.86</v>
       </c>
       <c r="AB23" s="4">
         <v>55500</v>
       </c>
       <c r="AC23" s="4">
+        <v>73643.86</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>73643.86</v>
+      </c>
+      <c r="AE23" s="4">
         <v>55500</v>
       </c>
-      <c r="AD23" s="4">
+      <c r="AF23" s="4">
         <v>55500</v>
       </c>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
+      <c r="AG23" s="4">
+        <v>55500</v>
+      </c>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" spans="2:33">
+    <row r="24" ht="15.75" customHeight="1" spans="2:36">
       <c r="B24" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="5">
         <v>12</v>
@@ -6409,7 +6812,7 @@
         <v>413</v>
       </c>
       <c r="F24" s="6">
-        <v>490</v>
+        <v>413</v>
       </c>
       <c r="G24" s="6">
         <v>490</v>
@@ -6418,211 +6821,233 @@
         <v>490</v>
       </c>
       <c r="I24" s="6">
+        <v>490</v>
+      </c>
+      <c r="J24" s="6">
         <v>409</v>
       </c>
-      <c r="J24" s="6">
+      <c r="K24" s="6">
         <v>396</v>
       </c>
-      <c r="K24" s="18">
+      <c r="L24" s="19">
         <v>396</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N24" s="1">
+      <c r="N24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O24" s="1">
         <v>280</v>
       </c>
-      <c r="O24" s="4">
+      <c r="P24" s="4">
         <v>1370</v>
       </c>
-      <c r="P24" s="4">
+      <c r="Q24" s="4">
         <v>1242</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="R24" s="4">
+        <v>1342</v>
+      </c>
+      <c r="S24" s="4">
         <v>1356</v>
       </c>
-      <c r="R24" s="4">
+      <c r="T24" s="4">
         <v>1341</v>
       </c>
-      <c r="S24" s="4">
+      <c r="U24" s="4">
         <v>1336</v>
       </c>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="17"/>
-      <c r="X24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y24" s="1">
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="18"/>
+      <c r="Z24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA24" s="1">
         <v>112</v>
       </c>
-      <c r="Z24" s="4">
+      <c r="AB24" s="4">
         <v>1875.65</v>
       </c>
-      <c r="AA24" s="4">
+      <c r="AC24" s="4">
         <v>2155.51</v>
       </c>
-      <c r="AB24" s="4">
+      <c r="AD24" s="4">
+        <v>2200.28</v>
+      </c>
+      <c r="AE24" s="4">
         <v>1803.89</v>
       </c>
-      <c r="AC24" s="4">
+      <c r="AF24" s="4">
         <v>1803.89</v>
       </c>
-      <c r="AD24" s="4">
+      <c r="AG24" s="4">
         <v>1836.14</v>
       </c>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1" spans="10:33">
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="X25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y25" s="5">
+    <row r="25" ht="15.75" customHeight="1" spans="11:36">
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="Z25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA25" s="5">
         <v>8</v>
-      </c>
-      <c r="Z25" s="6">
-        <v>1981.71</v>
-      </c>
-      <c r="AA25" s="6">
-        <v>1981.15</v>
       </c>
       <c r="AB25" s="6">
         <v>1981.71</v>
       </c>
       <c r="AC25" s="6">
+        <v>1981.15</v>
+      </c>
+      <c r="AD25" s="6">
+        <v>1981.15</v>
+      </c>
+      <c r="AE25" s="6">
         <v>1981.71</v>
       </c>
-      <c r="AD25" s="6">
+      <c r="AF25" s="6">
         <v>1981.71</v>
       </c>
-      <c r="AE25" s="6">
+      <c r="AG25" s="6">
+        <v>1981.71</v>
+      </c>
+      <c r="AH25" s="6">
         <v>1505.95</v>
       </c>
-      <c r="AF25" s="18">
+      <c r="AI25" s="19">
         <v>1329</v>
       </c>
-      <c r="AG25" s="18">
+      <c r="AJ25" s="19">
         <v>1329</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" spans="2:33">
+    <row r="26" ht="15.75" customHeight="1" spans="2:36">
       <c r="B26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="8"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="X26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y26" s="5">
+      <c r="F26" s="9"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="Z26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA26" s="5">
         <v>11</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="AB26" s="6">
         <v>2086.59</v>
       </c>
-      <c r="AA26" s="6">
+      <c r="AC26" s="6">
         <v>2006.03</v>
       </c>
-      <c r="AB26" s="6">
+      <c r="AD26" s="6">
+        <v>2086.03</v>
+      </c>
+      <c r="AE26" s="6">
         <v>2062.92</v>
       </c>
-      <c r="AC26" s="6">
+      <c r="AF26" s="6">
         <v>2062.92</v>
       </c>
-      <c r="AD26" s="6">
+      <c r="AG26" s="6">
         <v>2062.92</v>
       </c>
-      <c r="AE26" s="6">
+      <c r="AH26" s="6">
         <v>1647.33</v>
       </c>
-      <c r="AF26" s="18">
+      <c r="AI26" s="19">
         <v>1473</v>
       </c>
-      <c r="AG26" s="18">
+      <c r="AJ26" s="19">
         <v>1473</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
+    <row r="27" ht="15.75" customHeight="1" spans="2:30">
+      <c r="B27" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="9"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1" spans="2:5">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
+    <row r="28" ht="15.75" customHeight="1" spans="2:6">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B29" s="21"/>
+      <c r="B29" s="22"/>
     </row>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B38" s="16"/>
-      <c r="D38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
@@ -7588,9 +8013,9 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="AB1:AJ1"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
@@ -7614,10 +8039,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:AG1000"/>
+  <dimension ref="B1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F$1:F$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -7625,34 +8050,34 @@
     <col min="1" max="1" width="8.7047619047619" customWidth="1"/>
     <col min="2" max="2" width="9.7047619047619" customWidth="1"/>
     <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
-    <col min="4" max="5" width="8.79047619047619" customWidth="1"/>
-    <col min="6" max="8" width="12.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="8.7047619047619" customWidth="1"/>
-    <col min="10" max="10" width="11.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="10.5714285714286" customWidth="1"/>
-    <col min="12" max="12" width="5.28571428571429" customWidth="1"/>
-    <col min="13" max="13" width="8.7047619047619" customWidth="1"/>
-    <col min="14" max="14" width="17.8571428571429" customWidth="1"/>
-    <col min="15" max="15" width="11.2857142857143" customWidth="1"/>
-    <col min="16" max="19" width="12.2857142857143" customWidth="1"/>
-    <col min="20" max="20" width="3.42857142857143" customWidth="1"/>
-    <col min="21" max="21" width="11.2857142857143" customWidth="1"/>
-    <col min="22" max="22" width="10.5714285714286" customWidth="1"/>
-    <col min="23" max="23" width="6.28571428571429" customWidth="1"/>
-    <col min="24" max="24" width="11.2857142857143" customWidth="1"/>
-    <col min="25" max="25" width="11" customWidth="1"/>
-    <col min="26" max="26" width="12.2857142857143" customWidth="1"/>
-    <col min="27" max="27" width="9.79047619047619" customWidth="1"/>
-    <col min="28" max="30" width="12.2857142857143" customWidth="1"/>
-    <col min="31" max="31" width="8.7047619047619" customWidth="1"/>
-    <col min="32" max="32" width="11.4285714285714" customWidth="1"/>
-    <col min="33" max="33" width="10.5714285714286" customWidth="1"/>
+    <col min="4" max="6" width="8.79047619047619" customWidth="1"/>
+    <col min="7" max="9" width="12.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="8.7047619047619" customWidth="1"/>
+    <col min="11" max="11" width="11.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="10.5714285714286" customWidth="1"/>
+    <col min="13" max="13" width="5.28571428571429" customWidth="1"/>
+    <col min="14" max="14" width="8.7047619047619" customWidth="1"/>
+    <col min="15" max="15" width="17.8571428571429" customWidth="1"/>
+    <col min="16" max="16" width="11.2857142857143" customWidth="1"/>
+    <col min="17" max="21" width="12.2857142857143" customWidth="1"/>
+    <col min="22" max="22" width="3.42857142857143" customWidth="1"/>
+    <col min="23" max="23" width="11.2857142857143" customWidth="1"/>
+    <col min="24" max="24" width="10.5714285714286" customWidth="1"/>
+    <col min="25" max="25" width="6.28571428571429" customWidth="1"/>
+    <col min="26" max="26" width="11.2857142857143" customWidth="1"/>
+    <col min="27" max="27" width="11" customWidth="1"/>
+    <col min="28" max="28" width="12.2857142857143" customWidth="1"/>
+    <col min="29" max="30" width="9.79047619047619" customWidth="1"/>
+    <col min="31" max="33" width="12.2857142857143" customWidth="1"/>
+    <col min="34" max="34" width="8.7047619047619" customWidth="1"/>
+    <col min="35" max="35" width="11.4285714285714" customWidth="1"/>
+    <col min="36" max="36" width="10.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="2:33">
+    <row r="1" customHeight="1" spans="2:36">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -7663,37 +8088,40 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="8"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="8"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z1" s="2" t="s">
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="8"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
-      <c r="AG1" s="8"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="8"/>
     </row>
-    <row r="2" customHeight="1" spans="2:33">
+    <row r="2" customHeight="1" spans="2:36">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7724,70 +8152,79 @@
       <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="X2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="AJ2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" customHeight="1" spans="2:33">
+    <row r="3" customHeight="1" spans="2:36">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>210</v>
@@ -7798,82 +8235,85 @@
       <c r="E3" s="4">
         <v>2333.29</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
         <v>2071.57</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>2055.26</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>2024.94</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
         <v>1894</v>
       </c>
-      <c r="K3" s="17">
+      <c r="L3" s="18">
         <v>1925</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="N3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="1">
         <v>36</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>3478</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <v>3475</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="R3" s="4"/>
+      <c r="S3" s="4">
         <v>3456</v>
       </c>
-      <c r="R3" s="4">
+      <c r="T3" s="4">
         <v>3340</v>
       </c>
-      <c r="S3" s="4">
+      <c r="U3" s="4">
         <v>3164</v>
       </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="17">
+      <c r="V3" s="4"/>
+      <c r="W3" s="18">
         <v>3135</v>
       </c>
-      <c r="V3" s="17">
+      <c r="X3" s="18">
         <v>3135</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y3" s="1">
+      <c r="Z3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="1">
         <v>57</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>63830.12</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>69764.62</v>
       </c>
       <c r="AB3" s="4">
         <v>63830.12</v>
       </c>
       <c r="AC3" s="4">
+        <v>69764.62</v>
+      </c>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4">
+        <v>63830.12</v>
+      </c>
+      <c r="AF3" s="4">
         <v>63719.25</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AG3" s="4">
         <v>62471.59</v>
       </c>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="17">
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="18">
         <v>62262</v>
       </c>
-      <c r="AG3" s="17">
+      <c r="AJ3" s="18">
         <v>62262</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:33">
+    <row r="4" customHeight="1" spans="2:36">
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>401</v>
@@ -7885,67 +8325,70 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="17"/>
-      <c r="M4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="K4" s="4"/>
+      <c r="L4" s="18"/>
+      <c r="N4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="1">
         <v>72</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <v>41093.3</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Q4" s="4">
         <v>38395.92</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="4"/>
+      <c r="S4" s="4">
         <v>40637.25</v>
       </c>
-      <c r="R4" s="4">
+      <c r="T4" s="4">
         <v>39556.93</v>
       </c>
-      <c r="S4" s="4">
+      <c r="U4" s="4">
         <v>40066.08</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="17">
+      <c r="V4" s="4"/>
+      <c r="W4" s="18">
         <v>29257</v>
       </c>
-      <c r="V4" s="17">
+      <c r="X4" s="18">
         <v>30083</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y4" s="1">
+      <c r="Z4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" s="1">
         <v>80</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="AB4" s="4">
         <v>33252.04</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AC4" s="4">
         <v>32109.37</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4">
         <v>32157.04</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AF4" s="4">
         <v>31557.54</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AG4" s="4">
         <v>30370.62</v>
       </c>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="17">
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="18">
         <v>29684</v>
       </c>
-      <c r="AG4" s="17">
+      <c r="AJ4" s="18">
         <v>29684</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:33">
+    <row r="5" customHeight="1" spans="2:36">
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5">
         <v>36</v>
@@ -7956,76 +8399,79 @@
       <c r="E5" s="6">
         <v>6671</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
         <v>6962</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>6649</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>6505</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="18"/>
-      <c r="M5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="J5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="19"/>
+      <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="1">
         <v>90</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <v>4749</v>
       </c>
-      <c r="P5" s="4">
+      <c r="Q5" s="4">
         <v>4888</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="R5" s="4"/>
+      <c r="S5" s="4">
         <v>4673</v>
       </c>
-      <c r="R5" s="4">
+      <c r="T5" s="4">
         <v>4643</v>
       </c>
-      <c r="S5" s="4">
+      <c r="U5" s="4">
         <v>4635</v>
       </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="X5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y5" s="1">
+      <c r="V5" s="4"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Z5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA5" s="1">
         <v>93</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AB5" s="4">
         <v>40795.86</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AC5" s="4">
         <v>41639.79</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4">
         <v>38002.1</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AF5" s="4">
         <v>39424.63</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AG5" s="4">
         <v>37725.64</v>
       </c>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="17">
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="18">
         <v>36977</v>
       </c>
-      <c r="AG5" s="17">
+      <c r="AJ5" s="18">
         <v>36977</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:33">
+    <row r="6" customHeight="1" spans="2:36">
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>399</v>
@@ -8036,68 +8482,71 @@
       <c r="E6" s="4">
         <v>18984</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
         <v>22861</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>22317</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>21862</v>
       </c>
-      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="17"/>
-      <c r="M6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="K6" s="4"/>
+      <c r="L6" s="18"/>
+      <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="1">
         <v>102</v>
       </c>
-      <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="17">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="18">
         <v>44147</v>
       </c>
-      <c r="V6" s="17">
+      <c r="X6" s="18">
         <v>44286</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA6" s="1">
         <v>102</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="AB6" s="4">
         <v>84256.72</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AC6" s="4">
         <v>81838.74</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4">
         <v>83744.61</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AF6" s="4">
         <v>77379.09</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AG6" s="4">
         <v>76340.25</v>
       </c>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="17">
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="18">
         <v>67879</v>
       </c>
-      <c r="AG6" s="17">
+      <c r="AJ6" s="18">
         <v>69818</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:33">
+    <row r="7" customHeight="1" spans="2:36">
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5">
         <v>21</v>
@@ -8108,74 +8557,77 @@
       <c r="E7" s="6">
         <v>1068</v>
       </c>
-      <c r="F7" s="6">
-        <v>1035</v>
-      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="6">
         <v>1035</v>
       </c>
       <c r="H7" s="6">
         <v>1035</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I7" s="6">
+        <v>1035</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="6">
         <v>929</v>
       </c>
-      <c r="K7" s="18">
+      <c r="L7" s="19">
         <v>929</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="N7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="1">
         <v>151</v>
       </c>
-      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="17">
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="18">
         <v>22000</v>
       </c>
-      <c r="V7" s="17">
+      <c r="X7" s="18">
         <v>22528</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y7" s="1">
+      <c r="Z7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="1">
         <v>108</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="AB7" s="4">
         <v>41326.95</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AC7" s="4">
         <v>43036.45</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4">
         <v>41096.15</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AF7" s="4">
         <v>40842.56</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AG7" s="4">
         <v>40842.56</v>
       </c>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="17">
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="18">
         <v>40274</v>
       </c>
-      <c r="AG7" s="17">
+      <c r="AJ7" s="18">
         <v>40832</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:33">
+    <row r="8" customHeight="1" spans="2:36">
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5">
         <v>21</v>
@@ -8186,74 +8638,77 @@
       <c r="E8" s="6">
         <v>1174</v>
       </c>
-      <c r="F8" s="6">
-        <v>1218</v>
-      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="6">
         <v>1218</v>
       </c>
       <c r="H8" s="6">
         <v>1218</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="I8" s="6">
+        <v>1218</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="6">
         <v>1090</v>
       </c>
-      <c r="K8" s="18">
+      <c r="L8" s="19">
         <v>1090</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="1">
+      <c r="N8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="1">
         <v>171</v>
       </c>
-      <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="17">
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="18">
         <v>65832</v>
       </c>
-      <c r="V8" s="17">
+      <c r="X8" s="18">
         <v>66183</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y8" s="1">
+      <c r="Z8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA8" s="1">
         <v>114</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="AB8" s="4">
         <v>51636.7</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AC8" s="4">
         <v>52270.61</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4">
         <v>49580.44</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AF8" s="4">
         <v>46572.18</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AG8" s="4">
         <v>46589.23</v>
       </c>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="17">
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="18">
         <v>46434</v>
       </c>
-      <c r="AG8" s="17">
+      <c r="AJ8" s="18">
         <v>46635</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:33">
+    <row r="9" customHeight="1" spans="2:36">
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5">
         <v>39</v>
@@ -8264,9 +8719,7 @@
       <c r="E9" s="6">
         <v>4629.48</v>
       </c>
-      <c r="F9" s="6">
-        <v>4246.84</v>
-      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="6">
         <v>4246.84</v>
       </c>
@@ -8274,60 +8727,65 @@
         <v>4246.84</v>
       </c>
       <c r="I9" s="6">
+        <v>4246.84</v>
+      </c>
+      <c r="J9" s="6">
         <v>7619.89895777969</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>3853</v>
       </c>
-      <c r="K9" s="18">
+      <c r="L9" s="19">
         <v>3904</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="N9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="1">
         <v>323</v>
       </c>
-      <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="X9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y9" s="1">
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Z9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA9" s="1">
         <v>169</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="AB9" s="4">
         <v>67272.25</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AC9" s="4">
         <v>71036.73</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4">
         <v>64612.26</v>
       </c>
-      <c r="AC9" s="4">
+      <c r="AF9" s="4">
         <v>63619.98</v>
       </c>
-      <c r="AD9" s="4">
+      <c r="AG9" s="4">
         <v>62428.38</v>
       </c>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="17">
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="18">
         <v>49022</v>
       </c>
-      <c r="AG9" s="17">
+      <c r="AJ9" s="18">
         <v>49588</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:33">
+    <row r="10" customHeight="1" spans="2:36">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1">
         <v>95</v>
@@ -8338,64 +8796,67 @@
       <c r="E10" s="4">
         <v>53625.85</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
         <v>55846.91</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>54985.65</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>54589.39</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
         <v>51542</v>
       </c>
-      <c r="K10" s="17">
+      <c r="L10" s="18">
         <v>51604</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="N10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="1">
         <v>499</v>
       </c>
-      <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="X10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y10" s="1">
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Z10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA10" s="1">
         <v>198</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="AB10" s="4">
         <v>36877.03</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AC10" s="4">
         <v>35720.79</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4">
         <v>36678.97</v>
       </c>
-      <c r="AC10" s="4">
+      <c r="AF10" s="4">
         <v>35636.33</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AG10" s="4">
         <v>36106.68</v>
       </c>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
     </row>
-    <row r="11" customHeight="1" spans="2:33">
+    <row r="11" customHeight="1" spans="2:36">
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1">
         <v>43</v>
@@ -8406,74 +8867,77 @@
       <c r="E11" s="4">
         <v>13353</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
         <v>13127</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>13072</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>13109</v>
       </c>
-      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="17"/>
-      <c r="M11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="1">
+      <c r="K11" s="4"/>
+      <c r="L11" s="18"/>
+      <c r="N11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="1">
         <v>36</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <v>8651</v>
       </c>
-      <c r="P11" s="4">
+      <c r="Q11" s="4">
         <v>7988</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="R11" s="4"/>
+      <c r="S11" s="4">
         <v>8459</v>
       </c>
-      <c r="R11" s="4">
+      <c r="T11" s="4">
         <v>8459</v>
       </c>
-      <c r="S11" s="4">
+      <c r="U11" s="4">
         <v>8308</v>
       </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="17">
+      <c r="V11" s="4"/>
+      <c r="W11" s="18">
         <v>6937</v>
       </c>
-      <c r="V11" s="17">
+      <c r="X11" s="18">
         <v>6937</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y11" s="1">
+      <c r="Z11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" s="1">
         <v>224</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="AB11" s="4">
         <v>38943.23</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AC11" s="4">
         <v>40552.27</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4">
         <v>37664.62</v>
       </c>
-      <c r="AC11" s="4">
+      <c r="AF11" s="4">
         <v>36725.06</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AG11" s="4">
         <v>36050.95</v>
       </c>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
     </row>
-    <row r="12" customHeight="1" spans="2:33">
+    <row r="12" customHeight="1" spans="2:36">
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1">
         <v>135</v>
@@ -8484,74 +8948,77 @@
       <c r="E12" s="4">
         <v>1490</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
         <v>9360</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>26510</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>1830</v>
       </c>
-      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="17"/>
-      <c r="M12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="K12" s="4"/>
+      <c r="L12" s="18"/>
+      <c r="N12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="1">
         <v>75</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>19476.54</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="4">
         <v>17516.66</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="4"/>
+      <c r="S12" s="4">
         <v>17585.83</v>
       </c>
-      <c r="R12" s="4">
+      <c r="T12" s="4">
         <v>15968.78</v>
       </c>
-      <c r="S12" s="4">
+      <c r="U12" s="4">
         <v>15544.88</v>
       </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="17">
+      <c r="V12" s="4"/>
+      <c r="W12" s="18">
         <v>13982</v>
       </c>
-      <c r="V12" s="17">
+      <c r="X12" s="18">
         <v>14229</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y12" s="1">
+      <c r="Z12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA12" s="1">
         <v>329</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="AB12" s="4">
         <v>66131.56</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AC12" s="4">
         <v>70952.95</v>
       </c>
-      <c r="AB12" s="4">
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4">
         <v>65334.95</v>
       </c>
-      <c r="AC12" s="4">
+      <c r="AF12" s="4">
         <v>64446.87</v>
       </c>
-      <c r="AD12" s="4">
+      <c r="AG12" s="4">
         <v>64127.51</v>
       </c>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
     </row>
-    <row r="13" customHeight="1" spans="2:33">
+    <row r="13" customHeight="1" spans="2:36">
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5">
         <v>10</v>
@@ -8562,9 +9029,7 @@
       <c r="E13" s="6">
         <v>1953.16</v>
       </c>
-      <c r="F13" s="6">
-        <v>1943.98</v>
-      </c>
+      <c r="F13" s="6"/>
       <c r="G13" s="6">
         <v>1943.98</v>
       </c>
@@ -8572,70 +9037,75 @@
         <v>1943.98</v>
       </c>
       <c r="I13" s="6">
+        <v>1943.98</v>
+      </c>
+      <c r="J13" s="6">
         <v>1690.16</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <v>1349</v>
       </c>
-      <c r="K13" s="18">
+      <c r="L13" s="19">
         <v>1349</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="N13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="1">
         <v>112</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>22938.36</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>21753.58</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4"/>
+      <c r="S13" s="4">
         <v>22681.11</v>
       </c>
-      <c r="R13" s="4">
+      <c r="T13" s="4">
         <v>21220.72</v>
       </c>
-      <c r="S13" s="4">
+      <c r="U13" s="4">
         <v>20322.55</v>
       </c>
-      <c r="T13" s="4"/>
-      <c r="U13" s="17">
+      <c r="V13" s="4"/>
+      <c r="W13" s="18">
         <v>17787</v>
       </c>
-      <c r="V13" s="17">
+      <c r="X13" s="18">
         <v>17953</v>
       </c>
-      <c r="X13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA13" s="1">
         <v>751</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="AB13" s="4">
         <v>209167.52</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AC13" s="4">
         <v>218655.55</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4">
         <v>205376.77</v>
       </c>
-      <c r="AC13" s="4">
+      <c r="AF13" s="4">
         <v>201207.83</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AG13" s="4">
         <v>197692.25</v>
       </c>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
     </row>
-    <row r="14" customHeight="1" spans="2:33">
+    <row r="14" customHeight="1" spans="2:36">
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1">
         <v>97</v>
@@ -8646,82 +9116,85 @@
       <c r="E14" s="4">
         <v>4786.06</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
         <v>4152.75</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>4150.8</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>4141.5</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
         <v>4062</v>
       </c>
-      <c r="K14" s="17">
+      <c r="L14" s="18">
         <v>4127</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="N14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="1">
         <v>150</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>21433.16</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>24404.94</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="R14" s="4"/>
+      <c r="S14" s="4">
         <v>20952.57</v>
       </c>
-      <c r="R14" s="4">
+      <c r="T14" s="4">
         <v>21135.27</v>
       </c>
-      <c r="S14" s="4">
+      <c r="U14" s="4">
         <v>20907.74</v>
       </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="17">
+      <c r="V14" s="4"/>
+      <c r="W14" s="18">
         <v>20705</v>
       </c>
-      <c r="V14" s="17">
+      <c r="X14" s="18">
         <v>20855</v>
       </c>
-      <c r="X14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y14" s="1">
+      <c r="Z14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA14" s="1">
         <v>74</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="AB14" s="4">
         <v>925.25</v>
       </c>
-      <c r="AA14" s="4">
+      <c r="AC14" s="4">
         <v>1047.43</v>
       </c>
-      <c r="AB14" s="4">
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4">
         <v>900.63</v>
       </c>
-      <c r="AC14" s="4">
+      <c r="AF14" s="4">
         <v>894.74</v>
       </c>
-      <c r="AD14" s="4">
+      <c r="AG14" s="4">
         <v>887.64</v>
       </c>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="17">
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="18">
         <v>868</v>
       </c>
-      <c r="AG14" s="17">
+      <c r="AJ14" s="18">
         <v>868</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="2:33">
+    <row r="15" customHeight="1" spans="2:36">
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1">
         <v>112</v>
@@ -8732,82 +9205,85 @@
       <c r="E15" s="4">
         <v>5392.18</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
         <v>4898.32</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>4802.63</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>4751.72</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
         <v>4480</v>
       </c>
-      <c r="K15" s="17">
+      <c r="L15" s="18">
         <v>4480</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15" s="1">
+      <c r="N15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="1">
         <v>75</v>
       </c>
-      <c r="O15" s="4">
+      <c r="P15" s="4">
         <v>17465.62</v>
       </c>
-      <c r="P15" s="4">
+      <c r="Q15" s="4">
         <v>18768.06</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="R15" s="4"/>
+      <c r="S15" s="4">
         <v>17195.84</v>
       </c>
-      <c r="R15" s="4">
+      <c r="T15" s="4">
         <v>17065.96</v>
       </c>
-      <c r="S15" s="4">
+      <c r="U15" s="4">
         <v>16962.01</v>
       </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="17">
+      <c r="V15" s="4"/>
+      <c r="W15" s="18">
         <v>14648</v>
       </c>
-      <c r="V15" s="17">
+      <c r="X15" s="18">
         <v>14787</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y15" s="1">
+      <c r="Z15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA15" s="1">
         <v>146</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>1695.61</v>
-      </c>
-      <c r="AA15" s="4">
-        <v>1944.15</v>
       </c>
       <c r="AB15" s="4">
         <v>1695.61</v>
       </c>
       <c r="AC15" s="4">
+        <v>1944.15</v>
+      </c>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4">
+        <v>1695.61</v>
+      </c>
+      <c r="AF15" s="4">
         <v>1694.18</v>
       </c>
-      <c r="AD15" s="4">
+      <c r="AG15" s="4">
         <v>1685.46</v>
       </c>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="17">
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="18">
         <v>1669</v>
       </c>
-      <c r="AG15" s="17">
+      <c r="AJ15" s="18">
         <v>1670</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="2:33">
+    <row r="16" customHeight="1" spans="2:36">
       <c r="B16" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="5">
         <v>31</v>
@@ -8818,78 +9294,81 @@
       <c r="E16" s="6">
         <v>393</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
         <v>486</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <v>438</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>441</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6">
         <v>404</v>
       </c>
-      <c r="K16" s="18">
+      <c r="L16" s="19">
         <v>404</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N16" s="1">
+      <c r="N16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="1">
         <v>112</v>
       </c>
-      <c r="O16" s="4">
+      <c r="P16" s="4">
         <v>17814.47</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Q16" s="4">
         <v>20307.55</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="R16" s="4"/>
+      <c r="S16" s="4">
         <v>17422.93</v>
       </c>
-      <c r="R16" s="4">
+      <c r="T16" s="4">
         <v>17327.34</v>
       </c>
-      <c r="S16" s="4">
+      <c r="U16" s="4">
         <v>17311.44</v>
       </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="17">
+      <c r="V16" s="4"/>
+      <c r="W16" s="18">
         <v>17090</v>
       </c>
-      <c r="V16" s="17">
+      <c r="X16" s="18">
         <v>17193</v>
       </c>
-      <c r="X16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y16" s="1">
+      <c r="Z16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA16" s="1">
         <v>431</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="AB16" s="4">
         <v>5946.93</v>
       </c>
-      <c r="AA16" s="4">
+      <c r="AC16" s="4">
         <v>5694.36</v>
       </c>
-      <c r="AB16" s="4">
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4">
         <v>5770.28</v>
       </c>
-      <c r="AC16" s="4">
+      <c r="AF16" s="4">
         <v>5518.62</v>
       </c>
-      <c r="AD16" s="4">
+      <c r="AG16" s="4">
         <v>5282.69</v>
       </c>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
     </row>
-    <row r="17" customHeight="1" spans="2:33">
+    <row r="17" customHeight="1" spans="2:36">
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="5">
         <v>38</v>
@@ -8900,9 +9379,7 @@
       <c r="E17" s="6">
         <v>323.66</v>
       </c>
-      <c r="F17" s="6">
-        <v>291.59</v>
-      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="6">
         <v>291.59</v>
       </c>
@@ -8910,70 +9387,75 @@
         <v>291.59</v>
       </c>
       <c r="I17" s="6">
+        <v>291.59</v>
+      </c>
+      <c r="J17" s="6">
         <v>414.92</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="6">
         <v>278</v>
       </c>
-      <c r="K17" s="18">
+      <c r="L17" s="19">
         <v>286</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="1">
+      <c r="N17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="1">
         <v>150</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>24691.06</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <v>24802.49</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4"/>
+      <c r="S17" s="4">
         <v>24207.55</v>
       </c>
-      <c r="R17" s="4">
+      <c r="T17" s="4">
         <v>23373.11</v>
       </c>
-      <c r="S17" s="4">
+      <c r="U17" s="4">
         <v>23060.74</v>
       </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="17">
+      <c r="V17" s="4"/>
+      <c r="W17" s="18">
         <v>20553</v>
       </c>
-      <c r="V17" s="17">
+      <c r="X17" s="18">
         <v>20851</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y17" s="1">
+      <c r="Z17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA17" s="1">
         <v>587</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="AB17" s="4">
         <v>7364.99</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AC17" s="4">
         <v>7408.05</v>
       </c>
-      <c r="AB17" s="4">
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4">
         <v>7263.55</v>
       </c>
-      <c r="AC17" s="4">
+      <c r="AF17" s="4">
         <v>6992.53</v>
       </c>
-      <c r="AD17" s="4">
+      <c r="AG17" s="4">
         <v>6847.53</v>
       </c>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
     </row>
-    <row r="18" customHeight="1" spans="2:33">
+    <row r="18" customHeight="1" spans="2:36">
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1">
         <v>57</v>
@@ -8984,78 +9466,81 @@
       <c r="E18" s="4">
         <v>373.07</v>
       </c>
-      <c r="F18" s="4">
-        <v>353.56</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="4">
         <v>353.56</v>
       </c>
       <c r="H18" s="4">
+        <v>353.56</v>
+      </c>
+      <c r="I18" s="4">
         <v>350.84</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4">
         <v>345</v>
       </c>
-      <c r="K18" s="17">
+      <c r="L18" s="18">
         <v>348</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="N18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="1">
         <v>75</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>14926.51</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q18" s="4">
         <v>18900.41</v>
       </c>
-      <c r="Q18" s="4">
-        <v>14510</v>
-      </c>
-      <c r="R18" s="4">
-        <v>14305.64</v>
-      </c>
+      <c r="R18" s="4"/>
       <c r="S18" s="4">
         <v>14510</v>
       </c>
-      <c r="T18" s="4"/>
-      <c r="U18" s="17">
+      <c r="T18" s="4">
+        <v>14305.64</v>
+      </c>
+      <c r="U18" s="4">
+        <v>14510</v>
+      </c>
+      <c r="V18" s="4"/>
+      <c r="W18" s="18">
         <v>14295</v>
       </c>
-      <c r="V18" s="17">
+      <c r="X18" s="18">
         <v>14419</v>
       </c>
-      <c r="X18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y18" s="1">
+      <c r="Z18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA18" s="1">
         <v>131</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="AB18" s="4">
         <v>16096</v>
       </c>
-      <c r="AA18" s="4">
+      <c r="AC18" s="4">
         <v>16373</v>
       </c>
-      <c r="AB18" s="4">
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4">
         <v>15988</v>
       </c>
-      <c r="AC18" s="4">
+      <c r="AF18" s="4">
         <v>15995</v>
       </c>
-      <c r="AD18" s="4">
+      <c r="AG18" s="4">
         <v>15870</v>
       </c>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
     </row>
-    <row r="19" customHeight="1" spans="2:33">
+    <row r="19" customHeight="1" spans="2:36">
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1">
         <v>75</v>
@@ -9066,78 +9551,81 @@
       <c r="E19" s="4">
         <v>452.67</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
         <v>479.74</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>461.5</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>454.54</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4">
         <v>398</v>
       </c>
-      <c r="K19" s="17">
+      <c r="L19" s="18">
         <v>398</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N19" s="1">
+      <c r="N19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="1">
         <v>75</v>
       </c>
-      <c r="O19" s="4">
+      <c r="P19" s="4">
         <v>16252.61</v>
       </c>
-      <c r="P19" s="4">
+      <c r="Q19" s="4">
         <v>17083.72</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="4"/>
+      <c r="S19" s="4">
         <v>16131.15</v>
       </c>
-      <c r="R19" s="4">
+      <c r="T19" s="4">
         <v>15374.89</v>
       </c>
-      <c r="S19" s="4">
+      <c r="U19" s="4">
         <v>15399.66</v>
       </c>
-      <c r="T19" s="4"/>
-      <c r="U19" s="17">
+      <c r="V19" s="4"/>
+      <c r="W19" s="18">
         <v>13884</v>
       </c>
-      <c r="V19" s="17">
+      <c r="X19" s="18">
         <v>14120</v>
       </c>
-      <c r="X19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y19" s="1">
+      <c r="Z19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA19" s="1">
         <v>401</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="AB19" s="4">
         <v>36872</v>
       </c>
-      <c r="AA19" s="4">
+      <c r="AC19" s="4">
         <v>35948</v>
       </c>
-      <c r="AB19" s="4">
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4">
         <v>36577</v>
       </c>
-      <c r="AC19" s="4">
+      <c r="AF19" s="4">
         <v>36505</v>
       </c>
-      <c r="AD19" s="4">
+      <c r="AG19" s="4">
         <v>35922</v>
       </c>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
     </row>
-    <row r="20" customHeight="1" spans="2:33">
+    <row r="20" customHeight="1" spans="2:36">
       <c r="B20" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="5">
         <v>19</v>
@@ -9148,80 +9636,83 @@
       <c r="E20" s="6">
         <v>608</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
         <v>684</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H20" s="6">
         <v>672</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="6">
         <v>602</v>
-      </c>
-      <c r="I20" s="6">
-        <v>492</v>
       </c>
       <c r="J20" s="6">
         <v>492</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="6">
         <v>492</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N20" s="1">
+      <c r="L20" s="19">
+        <v>492</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="1">
         <v>75</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <v>16441.94</v>
       </c>
-      <c r="P20" s="4">
+      <c r="Q20" s="4">
         <v>17078.29</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="R20" s="4"/>
+      <c r="S20" s="4">
         <v>16256.53</v>
       </c>
-      <c r="R20" s="4">
+      <c r="T20" s="4">
         <v>15982.98</v>
       </c>
-      <c r="S20" s="4">
+      <c r="U20" s="4">
         <v>15400.35</v>
       </c>
-      <c r="T20" s="4"/>
-      <c r="U20" s="17">
+      <c r="V20" s="4"/>
+      <c r="W20" s="18">
         <v>15347</v>
       </c>
-      <c r="V20" s="17">
+      <c r="X20" s="18">
         <v>15347</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y20" s="1">
+      <c r="Z20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA20" s="1">
         <v>774</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="AB20" s="4">
         <v>70582</v>
       </c>
-      <c r="AA20" s="4">
+      <c r="AC20" s="4">
         <v>70198</v>
       </c>
-      <c r="AB20" s="4">
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4">
         <v>70571</v>
       </c>
-      <c r="AC20" s="4">
+      <c r="AF20" s="4">
         <v>70401</v>
       </c>
-      <c r="AD20" s="4">
+      <c r="AG20" s="4">
         <v>70120</v>
       </c>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" spans="2:33">
+    <row r="21" ht="15.75" customHeight="1" spans="2:36">
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1">
         <v>196</v>
@@ -9232,82 +9723,85 @@
       <c r="E21" s="4">
         <v>1967.63</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
         <v>1733.52</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>1721.15</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>1707.45</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4">
         <v>1671</v>
       </c>
-      <c r="K21" s="17">
+      <c r="L21" s="18">
         <v>1671</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N21" s="1">
+      <c r="N21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="1">
         <v>78</v>
       </c>
-      <c r="O21" s="4">
+      <c r="P21" s="4">
         <v>9054.34</v>
       </c>
-      <c r="P21" s="4">
+      <c r="Q21" s="4">
         <v>9002.37</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="R21" s="4"/>
+      <c r="S21" s="4">
         <v>8932.87</v>
       </c>
-      <c r="R21" s="4">
+      <c r="T21" s="4">
         <v>8758.16</v>
       </c>
-      <c r="S21" s="4">
+      <c r="U21" s="4">
         <v>8763.08</v>
       </c>
-      <c r="T21" s="4"/>
-      <c r="U21" s="17">
+      <c r="V21" s="4"/>
+      <c r="W21" s="18">
         <v>8412</v>
       </c>
-      <c r="V21" s="17">
+      <c r="X21" s="18">
         <v>8412</v>
       </c>
-      <c r="X21" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y21" s="20">
+      <c r="Z21" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA21" s="21">
         <v>52</v>
       </c>
-      <c r="Z21" s="7">
+      <c r="AB21" s="7">
         <v>543.95</v>
       </c>
-      <c r="AA21" s="7">
+      <c r="AC21" s="7">
         <v>437.11</v>
       </c>
-      <c r="AB21" s="4">
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="4">
         <v>514.7</v>
       </c>
-      <c r="AC21" s="4">
+      <c r="AF21" s="4">
         <v>516.14</v>
       </c>
-      <c r="AD21" s="4">
+      <c r="AG21" s="4">
         <v>476.47</v>
       </c>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="17">
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="18">
         <v>437</v>
       </c>
-      <c r="AG21" s="17">
+      <c r="AJ21" s="18">
         <v>446</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" spans="2:33">
+    <row r="22" ht="15.75" customHeight="1" spans="2:36">
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="5">
         <v>12</v>
@@ -9318,9 +9812,7 @@
       <c r="E22" s="6">
         <v>813</v>
       </c>
-      <c r="F22" s="6">
-        <v>640</v>
-      </c>
+      <c r="F22" s="6"/>
       <c r="G22" s="6">
         <v>640</v>
       </c>
@@ -9328,74 +9820,79 @@
         <v>640</v>
       </c>
       <c r="I22" s="6">
+        <v>640</v>
+      </c>
+      <c r="J22" s="6">
         <v>810</v>
       </c>
-      <c r="J22" s="6">
+      <c r="K22" s="6">
         <v>640</v>
       </c>
-      <c r="K22" s="18">
+      <c r="L22" s="19">
         <v>640</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N22" s="1">
+      <c r="N22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22" s="1">
         <v>238</v>
       </c>
-      <c r="O22" s="4">
+      <c r="P22" s="4">
         <v>33307.81</v>
       </c>
-      <c r="P22" s="4">
+      <c r="Q22" s="4">
         <v>34803.33</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="R22" s="4"/>
+      <c r="S22" s="4">
         <v>32712.82</v>
       </c>
-      <c r="R22" s="4">
+      <c r="T22" s="4">
         <v>31655.11</v>
       </c>
-      <c r="S22" s="4">
+      <c r="U22" s="4">
         <v>30461.5</v>
       </c>
-      <c r="T22" s="4"/>
-      <c r="U22" s="17">
+      <c r="V22" s="4"/>
+      <c r="W22" s="18">
         <v>27963</v>
       </c>
-      <c r="V22" s="17">
+      <c r="X22" s="18">
         <v>28051</v>
       </c>
-      <c r="X22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA22" s="1">
         <v>31</v>
       </c>
-      <c r="Z22" s="4">
+      <c r="AB22" s="4">
         <v>770</v>
       </c>
-      <c r="AA22" s="4">
+      <c r="AC22" s="4">
         <v>871</v>
       </c>
-      <c r="AB22" s="4">
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4">
         <v>732</v>
       </c>
-      <c r="AC22" s="4">
+      <c r="AF22" s="4">
         <v>720</v>
       </c>
-      <c r="AD22" s="4">
+      <c r="AG22" s="4">
         <v>732</v>
       </c>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="17">
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="18">
         <v>281</v>
       </c>
-      <c r="AG22" s="17">
+      <c r="AJ22" s="18">
         <v>281</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" spans="2:33">
+    <row r="23" ht="15.75" customHeight="1" spans="2:36">
       <c r="B23" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="5">
         <v>15</v>
@@ -9406,76 +9903,79 @@
       <c r="E23" s="6">
         <v>1351</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
         <v>1703</v>
       </c>
-      <c r="G23" s="6">
+      <c r="H23" s="6">
         <v>1697</v>
       </c>
-      <c r="H23" s="6">
+      <c r="I23" s="6">
         <v>1573</v>
       </c>
-      <c r="I23" s="6">
+      <c r="J23" s="6">
         <v>1377</v>
       </c>
-      <c r="J23" s="6">
+      <c r="K23" s="6">
         <v>1276</v>
       </c>
-      <c r="K23" s="18">
+      <c r="L23" s="19">
         <v>1276</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N23" s="1">
+      <c r="N23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="1">
         <v>1034</v>
       </c>
-      <c r="O23" s="4">
+      <c r="P23" s="4">
         <v>47140.73</v>
       </c>
-      <c r="P23" s="4">
+      <c r="Q23" s="4">
         <v>45668.23</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="R23" s="4"/>
+      <c r="S23" s="4">
         <v>46167.02</v>
       </c>
-      <c r="R23" s="4">
+      <c r="T23" s="4">
         <v>45404.9</v>
       </c>
-      <c r="S23" s="4">
+      <c r="U23" s="4">
         <v>44910.01</v>
       </c>
-      <c r="T23" s="4"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="X23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y23" s="1">
+      <c r="V23" s="4"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Z23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA23" s="1">
         <v>168</v>
-      </c>
-      <c r="Z23" s="4">
-        <v>89500</v>
-      </c>
-      <c r="AA23" s="4">
-        <v>117345.37</v>
       </c>
       <c r="AB23" s="4">
         <v>89500</v>
       </c>
       <c r="AC23" s="4">
+        <v>117345.37</v>
+      </c>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4">
+        <v>89500</v>
+      </c>
+      <c r="AF23" s="4">
         <v>88061.21</v>
       </c>
-      <c r="AD23" s="4">
+      <c r="AG23" s="4">
         <v>87156.85</v>
       </c>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" spans="2:33">
+    <row r="24" ht="15.75" customHeight="1" spans="2:36">
       <c r="B24" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="5">
         <v>18</v>
@@ -9486,9 +9986,7 @@
       <c r="E24" s="6">
         <v>802</v>
       </c>
-      <c r="F24" s="6">
-        <v>794</v>
-      </c>
+      <c r="F24" s="6"/>
       <c r="G24" s="6">
         <v>794</v>
       </c>
@@ -9496,214 +9994,229 @@
         <v>794</v>
       </c>
       <c r="I24" s="6">
+        <v>794</v>
+      </c>
+      <c r="J24" s="6">
         <v>764</v>
       </c>
-      <c r="J24" s="6">
+      <c r="K24" s="6">
         <v>763</v>
       </c>
-      <c r="K24" s="18">
+      <c r="L24" s="19">
         <v>763</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N24" s="1">
+      <c r="N24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O24" s="1">
         <v>420</v>
       </c>
-      <c r="O24" s="4">
+      <c r="P24" s="4">
         <v>2332</v>
       </c>
-      <c r="P24" s="4">
+      <c r="Q24" s="4">
         <v>2150</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="R24" s="4"/>
+      <c r="S24" s="4">
         <v>2300</v>
       </c>
-      <c r="R24" s="4">
+      <c r="T24" s="4">
         <v>2246</v>
       </c>
-      <c r="S24" s="4">
+      <c r="U24" s="4">
         <v>2207</v>
       </c>
-      <c r="T24" s="4"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="X24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y24" s="1">
+      <c r="V24" s="4"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Z24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA24" s="1">
         <v>168</v>
       </c>
-      <c r="Z24" s="4">
+      <c r="AB24" s="4">
         <v>2917.62</v>
       </c>
-      <c r="AA24" s="4">
+      <c r="AC24" s="4">
         <v>3247.49</v>
       </c>
-      <c r="AB24" s="4">
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4">
         <v>2794.99</v>
       </c>
-      <c r="AC24" s="4">
+      <c r="AF24" s="4">
         <v>2751.96</v>
       </c>
-      <c r="AD24" s="4">
+      <c r="AG24" s="4">
         <v>2767.74</v>
       </c>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1" spans="10:33">
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="X25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y25" s="5">
+    <row r="25" ht="15.75" customHeight="1" spans="11:36">
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="Z25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA25" s="5">
         <v>12</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="AB25" s="6">
         <v>2785.62</v>
       </c>
-      <c r="AA25" s="6">
+      <c r="AC25" s="6">
         <v>3035.89</v>
       </c>
-      <c r="AB25" s="6">
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6">
         <v>2741.1</v>
       </c>
-      <c r="AC25" s="6">
+      <c r="AF25" s="6">
         <v>2741.1</v>
       </c>
-      <c r="AD25" s="6">
+      <c r="AG25" s="6">
         <v>2741.1</v>
       </c>
-      <c r="AE25" s="6">
+      <c r="AH25" s="6">
         <v>2980.94</v>
       </c>
-      <c r="AF25" s="18">
+      <c r="AI25" s="19">
         <v>2704</v>
       </c>
-      <c r="AG25" s="18">
+      <c r="AJ25" s="19">
         <v>2704</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" spans="2:33">
+    <row r="26" ht="15.75" customHeight="1" spans="2:36">
       <c r="B26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="8"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="X26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y26" s="5">
+      <c r="F26" s="9"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="Z26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA26" s="5">
         <v>16</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="AB26" s="6">
         <v>3118.04</v>
       </c>
-      <c r="AA26" s="6">
+      <c r="AC26" s="6">
         <v>2959.96</v>
       </c>
-      <c r="AB26" s="6">
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6">
         <v>3049.85</v>
       </c>
-      <c r="AC26" s="6">
+      <c r="AF26" s="6">
         <v>3049.85</v>
       </c>
-      <c r="AD26" s="6">
+      <c r="AG26" s="6">
         <v>3049.85</v>
       </c>
-      <c r="AE26" s="6">
+      <c r="AH26" s="6">
         <v>2806.25</v>
       </c>
-      <c r="AF26" s="18">
+      <c r="AI26" s="19">
         <v>2618</v>
       </c>
-      <c r="AG26" s="18">
+      <c r="AJ26" s="19">
         <v>2618</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
+    <row r="27" ht="15.75" customHeight="1" spans="2:30">
+      <c r="B27" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="9"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1" spans="2:5">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
+    <row r="28" ht="15.75" customHeight="1" spans="2:6">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="9"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1" spans="2:5">
-      <c r="B29" s="15"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+    <row r="29" ht="15.75" customHeight="1" spans="2:6">
+      <c r="B29" s="16"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B38" s="16"/>
-      <c r="D38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
@@ -10669,9 +11182,9 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="AB1:AJ1"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>

--- a/Comparaçoes/Heurísticas.xlsx
+++ b/Comparaçoes/Heurísticas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12345" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="14400" windowHeight="12345" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="K = n|4" sheetId="1" r:id="rId1"/>
@@ -308,10 +308,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -327,13 +327,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -341,51 +334,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -401,6 +349,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -409,9 +372,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,16 +410,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -455,9 +433,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,31 +499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,43 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,6 +529,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -601,13 +559,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +595,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,55 +679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,21 +829,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -855,6 +840,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,20 +877,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,31 +920,49 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,115 +971,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4752,7 +4752,7 @@
   <sheetPr/>
   <dimension ref="B1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
@@ -8041,8 +8041,8 @@
   <sheetPr/>
   <dimension ref="B1:AJ1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -8235,7 +8235,9 @@
       <c r="E3" s="4">
         <v>2333.29</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4">
+        <v>2016.55</v>
+      </c>
       <c r="G3" s="4">
         <v>2071.57</v>
       </c>
@@ -8264,7 +8266,9 @@
       <c r="Q3" s="4">
         <v>3475</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="4">
+        <v>3439</v>
+      </c>
       <c r="S3" s="4">
         <v>3456</v>
       </c>
@@ -8293,7 +8297,9 @@
       <c r="AC3" s="4">
         <v>69764.62</v>
       </c>
-      <c r="AD3" s="4"/>
+      <c r="AD3" s="4">
+        <v>62006.81</v>
+      </c>
       <c r="AE3" s="4">
         <v>63830.12</v>
       </c>
@@ -8339,7 +8345,9 @@
       <c r="Q4" s="4">
         <v>38395.92</v>
       </c>
-      <c r="R4" s="4"/>
+      <c r="R4" s="4">
+        <v>40746.39</v>
+      </c>
       <c r="S4" s="4">
         <v>40637.25</v>
       </c>
@@ -8368,7 +8376,9 @@
       <c r="AC4" s="4">
         <v>32109.37</v>
       </c>
-      <c r="AD4" s="4"/>
+      <c r="AD4" s="4">
+        <v>33582.78</v>
+      </c>
       <c r="AE4" s="4">
         <v>32157.04</v>
       </c>
@@ -8399,7 +8409,9 @@
       <c r="E5" s="6">
         <v>6671</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6">
+        <v>6671</v>
+      </c>
       <c r="G5" s="6">
         <v>6962</v>
       </c>
@@ -8426,7 +8438,9 @@
       <c r="Q5" s="4">
         <v>4888</v>
       </c>
-      <c r="R5" s="4"/>
+      <c r="R5" s="4">
+        <v>4861</v>
+      </c>
       <c r="S5" s="4">
         <v>4673</v>
       </c>
@@ -8451,7 +8465,9 @@
       <c r="AC5" s="4">
         <v>41639.79</v>
       </c>
-      <c r="AD5" s="4"/>
+      <c r="AD5" s="4">
+        <v>41609.31</v>
+      </c>
       <c r="AE5" s="4">
         <v>38002.1</v>
       </c>
@@ -8482,7 +8498,9 @@
       <c r="E6" s="4">
         <v>18984</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>20179</v>
+      </c>
       <c r="G6" s="4">
         <v>22861</v>
       </c>
@@ -8526,7 +8544,9 @@
       <c r="AC6" s="4">
         <v>81838.74</v>
       </c>
-      <c r="AD6" s="4"/>
+      <c r="AD6" s="4">
+        <v>82975.07</v>
+      </c>
       <c r="AE6" s="4">
         <v>83744.61</v>
       </c>
@@ -8557,7 +8577,9 @@
       <c r="E7" s="6">
         <v>1068</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6">
+        <v>1068</v>
+      </c>
       <c r="G7" s="6">
         <v>1035</v>
       </c>
@@ -8607,7 +8629,9 @@
       <c r="AC7" s="4">
         <v>43036.45</v>
       </c>
-      <c r="AD7" s="4"/>
+      <c r="AD7" s="4">
+        <v>42623.35</v>
+      </c>
       <c r="AE7" s="4">
         <v>41096.15</v>
       </c>
@@ -8638,7 +8662,9 @@
       <c r="E8" s="6">
         <v>1174</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6">
+        <v>1174</v>
+      </c>
       <c r="G8" s="6">
         <v>1218</v>
       </c>
@@ -8688,7 +8714,9 @@
       <c r="AC8" s="4">
         <v>52270.61</v>
       </c>
-      <c r="AD8" s="4"/>
+      <c r="AD8" s="4">
+        <v>52270.61</v>
+      </c>
       <c r="AE8" s="4">
         <v>49580.44</v>
       </c>
@@ -8719,7 +8747,9 @@
       <c r="E9" s="6">
         <v>4629.48</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6">
+        <v>4507.49</v>
+      </c>
       <c r="G9" s="6">
         <v>4246.84</v>
       </c>
@@ -8765,7 +8795,9 @@
       <c r="AC9" s="4">
         <v>71036.73</v>
       </c>
-      <c r="AD9" s="4"/>
+      <c r="AD9" s="4">
+        <v>73236.43</v>
+      </c>
       <c r="AE9" s="4">
         <v>64612.26</v>
       </c>
@@ -8796,7 +8828,9 @@
       <c r="E10" s="4">
         <v>53625.85</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <v>54276.81</v>
+      </c>
       <c r="G10" s="4">
         <v>55846.91</v>
       </c>
@@ -8840,7 +8874,9 @@
       <c r="AC10" s="4">
         <v>35720.79</v>
       </c>
-      <c r="AD10" s="4"/>
+      <c r="AD10" s="4">
+        <v>40013.93</v>
+      </c>
       <c r="AE10" s="4">
         <v>36678.97</v>
       </c>
@@ -8867,7 +8903,9 @@
       <c r="E11" s="4">
         <v>13353</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <v>13353</v>
+      </c>
       <c r="G11" s="4">
         <v>13127</v>
       </c>
@@ -8892,7 +8930,9 @@
       <c r="Q11" s="4">
         <v>7988</v>
       </c>
-      <c r="R11" s="4"/>
+      <c r="R11" s="4">
+        <v>8543</v>
+      </c>
       <c r="S11" s="4">
         <v>8459</v>
       </c>
@@ -8921,7 +8961,9 @@
       <c r="AC11" s="4">
         <v>40552.27</v>
       </c>
-      <c r="AD11" s="4"/>
+      <c r="AD11" s="4">
+        <v>39527.08</v>
+      </c>
       <c r="AE11" s="4">
         <v>37664.62</v>
       </c>
@@ -8948,7 +8990,9 @@
       <c r="E12" s="4">
         <v>1490</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <v>3180</v>
+      </c>
       <c r="G12" s="4">
         <v>9360</v>
       </c>
@@ -8973,7 +9017,9 @@
       <c r="Q12" s="4">
         <v>17516.66</v>
       </c>
-      <c r="R12" s="4"/>
+      <c r="R12" s="4">
+        <v>16393.25</v>
+      </c>
       <c r="S12" s="4">
         <v>17585.83</v>
       </c>
@@ -9002,7 +9048,9 @@
       <c r="AC12" s="4">
         <v>70952.95</v>
       </c>
-      <c r="AD12" s="4"/>
+      <c r="AD12" s="4">
+        <v>62693.37</v>
+      </c>
       <c r="AE12" s="4">
         <v>65334.95</v>
       </c>
@@ -9029,7 +9077,9 @@
       <c r="E13" s="6">
         <v>1953.16</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6">
+        <v>1953.16</v>
+      </c>
       <c r="G13" s="6">
         <v>1943.98</v>
       </c>
@@ -9060,7 +9110,9 @@
       <c r="Q13" s="4">
         <v>21753.58</v>
       </c>
-      <c r="R13" s="4"/>
+      <c r="R13" s="4">
+        <v>20552.91</v>
+      </c>
       <c r="S13" s="4">
         <v>22681.11</v>
       </c>
@@ -9089,7 +9141,9 @@
       <c r="AC13" s="4">
         <v>218655.55</v>
       </c>
-      <c r="AD13" s="4"/>
+      <c r="AD13" s="4">
+        <v>197177.83</v>
+      </c>
       <c r="AE13" s="4">
         <v>205376.77</v>
       </c>
@@ -9116,7 +9170,9 @@
       <c r="E14" s="4">
         <v>4786.06</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4">
+        <v>4557.5</v>
+      </c>
       <c r="G14" s="4">
         <v>4152.75</v>
       </c>
@@ -9145,7 +9201,9 @@
       <c r="Q14" s="4">
         <v>24404.94</v>
       </c>
-      <c r="R14" s="4"/>
+      <c r="R14" s="4">
+        <v>21986.72</v>
+      </c>
       <c r="S14" s="4">
         <v>20952.57</v>
       </c>
@@ -9174,7 +9232,9 @@
       <c r="AC14" s="4">
         <v>1047.43</v>
       </c>
-      <c r="AD14" s="4"/>
+      <c r="AD14" s="4">
+        <v>980.84</v>
+      </c>
       <c r="AE14" s="4">
         <v>900.63</v>
       </c>
@@ -9205,7 +9265,9 @@
       <c r="E15" s="4">
         <v>5392.18</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4">
+        <v>5011.93</v>
+      </c>
       <c r="G15" s="4">
         <v>4898.32</v>
       </c>
@@ -9234,7 +9296,9 @@
       <c r="Q15" s="4">
         <v>18768.06</v>
       </c>
-      <c r="R15" s="4"/>
+      <c r="R15" s="4">
+        <v>17378.96</v>
+      </c>
       <c r="S15" s="4">
         <v>17195.84</v>
       </c>
@@ -9263,7 +9327,9 @@
       <c r="AC15" s="4">
         <v>1944.15</v>
       </c>
-      <c r="AD15" s="4"/>
+      <c r="AD15" s="4">
+        <v>1848.69</v>
+      </c>
       <c r="AE15" s="4">
         <v>1695.61</v>
       </c>
@@ -9294,7 +9360,9 @@
       <c r="E16" s="6">
         <v>393</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6">
+        <v>397</v>
+      </c>
       <c r="G16" s="6">
         <v>486</v>
       </c>
@@ -9323,7 +9391,9 @@
       <c r="Q16" s="4">
         <v>20307.55</v>
       </c>
-      <c r="R16" s="4"/>
+      <c r="R16" s="4">
+        <v>19697.26</v>
+      </c>
       <c r="S16" s="4">
         <v>17422.93</v>
       </c>
@@ -9352,7 +9422,9 @@
       <c r="AC16" s="4">
         <v>5694.36</v>
       </c>
-      <c r="AD16" s="4"/>
+      <c r="AD16" s="4">
+        <v>5532.36</v>
+      </c>
       <c r="AE16" s="4">
         <v>5770.28</v>
       </c>
@@ -9379,7 +9451,9 @@
       <c r="E17" s="6">
         <v>323.66</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6">
+        <v>286.55</v>
+      </c>
       <c r="G17" s="6">
         <v>291.59</v>
       </c>
@@ -9410,7 +9484,9 @@
       <c r="Q17" s="4">
         <v>24802.49</v>
       </c>
-      <c r="R17" s="4"/>
+      <c r="R17" s="4">
+        <v>25013.39</v>
+      </c>
       <c r="S17" s="4">
         <v>24207.55</v>
       </c>
@@ -9439,7 +9515,9 @@
       <c r="AC17" s="4">
         <v>7408.05</v>
       </c>
-      <c r="AD17" s="4"/>
+      <c r="AD17" s="4">
+        <v>7252.31</v>
+      </c>
       <c r="AE17" s="4">
         <v>7263.55</v>
       </c>
@@ -9466,7 +9544,9 @@
       <c r="E18" s="4">
         <v>373.07</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4">
+        <v>366.84</v>
+      </c>
       <c r="G18" s="4">
         <v>353.56</v>
       </c>
@@ -9495,7 +9575,9 @@
       <c r="Q18" s="4">
         <v>18900.41</v>
       </c>
-      <c r="R18" s="4"/>
+      <c r="R18" s="4">
+        <v>17330.6</v>
+      </c>
       <c r="S18" s="4">
         <v>14510</v>
       </c>
@@ -9524,7 +9606,9 @@
       <c r="AC18" s="4">
         <v>16373</v>
       </c>
-      <c r="AD18" s="4"/>
+      <c r="AD18" s="4">
+        <v>16157</v>
+      </c>
       <c r="AE18" s="4">
         <v>15988</v>
       </c>
@@ -9551,7 +9635,9 @@
       <c r="E19" s="4">
         <v>452.67</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4">
+        <v>457.56</v>
+      </c>
       <c r="G19" s="4">
         <v>479.74</v>
       </c>
@@ -9580,7 +9666,9 @@
       <c r="Q19" s="4">
         <v>17083.72</v>
       </c>
-      <c r="R19" s="4"/>
+      <c r="R19" s="4">
+        <v>17083.72</v>
+      </c>
       <c r="S19" s="4">
         <v>16131.15</v>
       </c>
@@ -9609,7 +9697,9 @@
       <c r="AC19" s="4">
         <v>35948</v>
       </c>
-      <c r="AD19" s="4"/>
+      <c r="AD19" s="4">
+        <v>36087</v>
+      </c>
       <c r="AE19" s="4">
         <v>36577</v>
       </c>
@@ -9636,7 +9726,9 @@
       <c r="E20" s="6">
         <v>608</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="6">
+        <v>581</v>
+      </c>
       <c r="G20" s="6">
         <v>684</v>
       </c>
@@ -9667,7 +9759,9 @@
       <c r="Q20" s="4">
         <v>17078.29</v>
       </c>
-      <c r="R20" s="4"/>
+      <c r="R20" s="4">
+        <v>17083.72</v>
+      </c>
       <c r="S20" s="4">
         <v>16256.53</v>
       </c>
@@ -9696,7 +9790,9 @@
       <c r="AC20" s="4">
         <v>70198</v>
       </c>
-      <c r="AD20" s="4"/>
+      <c r="AD20" s="4">
+        <v>70536</v>
+      </c>
       <c r="AE20" s="4">
         <v>70571</v>
       </c>
@@ -9723,7 +9819,9 @@
       <c r="E21" s="4">
         <v>1967.63</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4">
+        <v>1882.37</v>
+      </c>
       <c r="G21" s="4">
         <v>1733.52</v>
       </c>
@@ -9752,7 +9850,9 @@
       <c r="Q21" s="4">
         <v>9002.37</v>
       </c>
-      <c r="R21" s="4"/>
+      <c r="R21" s="4">
+        <v>9397.47</v>
+      </c>
       <c r="S21" s="4">
         <v>8932.87</v>
       </c>
@@ -9781,7 +9881,9 @@
       <c r="AC21" s="7">
         <v>437.11</v>
       </c>
-      <c r="AD21" s="7"/>
+      <c r="AD21" s="7">
+        <v>524.62</v>
+      </c>
       <c r="AE21" s="4">
         <v>514.7</v>
       </c>
@@ -9812,7 +9914,9 @@
       <c r="E22" s="6">
         <v>813</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6">
+        <v>661</v>
+      </c>
       <c r="G22" s="6">
         <v>640</v>
       </c>
@@ -9843,7 +9947,9 @@
       <c r="Q22" s="4">
         <v>34803.33</v>
       </c>
-      <c r="R22" s="4"/>
+      <c r="R22" s="4">
+        <v>35374.47</v>
+      </c>
       <c r="S22" s="4">
         <v>32712.82</v>
       </c>
@@ -9872,7 +9978,9 @@
       <c r="AC22" s="4">
         <v>871</v>
       </c>
-      <c r="AD22" s="4"/>
+      <c r="AD22" s="4">
+        <v>757</v>
+      </c>
       <c r="AE22" s="4">
         <v>732</v>
       </c>
@@ -9903,7 +10011,9 @@
       <c r="E23" s="6">
         <v>1351</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="6">
+        <v>1351</v>
+      </c>
       <c r="G23" s="6">
         <v>1703</v>
       </c>
@@ -9959,7 +10069,9 @@
       <c r="AC23" s="4">
         <v>117345.37</v>
       </c>
-      <c r="AD23" s="4"/>
+      <c r="AD23" s="4">
+        <v>87227.92</v>
+      </c>
       <c r="AE23" s="4">
         <v>89500</v>
       </c>
@@ -9986,7 +10098,9 @@
       <c r="E24" s="6">
         <v>802</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="6">
+        <v>802</v>
+      </c>
       <c r="G24" s="6">
         <v>794</v>
       </c>
@@ -10017,7 +10131,9 @@
       <c r="Q24" s="4">
         <v>2150</v>
       </c>
-      <c r="R24" s="4"/>
+      <c r="R24" s="4">
+        <v>2155</v>
+      </c>
       <c r="S24" s="4">
         <v>2300</v>
       </c>
@@ -10042,7 +10158,9 @@
       <c r="AC24" s="4">
         <v>3247.49</v>
       </c>
-      <c r="AD24" s="4"/>
+      <c r="AD24" s="4">
+        <v>2915.74</v>
+      </c>
       <c r="AE24" s="4">
         <v>2794.99</v>
       </c>
@@ -10080,7 +10198,9 @@
       <c r="AC25" s="6">
         <v>3035.89</v>
       </c>
-      <c r="AD25" s="6"/>
+      <c r="AD25" s="6">
+        <v>3035.89</v>
+      </c>
       <c r="AE25" s="6">
         <v>2741.1</v>
       </c>
@@ -10131,7 +10251,9 @@
       <c r="AC26" s="6">
         <v>2959.96</v>
       </c>
-      <c r="AD26" s="6"/>
+      <c r="AD26" s="6">
+        <v>2959.96</v>
+      </c>
       <c r="AE26" s="6">
         <v>3049.85</v>
       </c>

--- a/Comparaçoes/Heurísticas.xlsx
+++ b/Comparaçoes/Heurísticas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12885" tabRatio="500"/>
+    <workbookView windowWidth="13725" windowHeight="12885" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="K = n|4" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="94">
   <si>
     <t>k = n/4</t>
   </si>
@@ -270,6 +270,9 @@
     <t>k = n/2</t>
   </si>
   <si>
+    <t>Híbrida | Np = 5</t>
+  </si>
+  <si>
     <t>1328.44</t>
   </si>
   <si>
@@ -280,9 +283,6 @@
   </si>
   <si>
     <t>660.0</t>
-  </si>
-  <si>
-    <t>3482.52</t>
   </si>
   <si>
     <t>211.73</t>
@@ -305,10 +305,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -324,8 +324,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,45 +347,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -392,10 +376,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,30 +392,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -438,6 +399,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -453,6 +422,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -461,15 +437,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,7 +496,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,175 +670,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,21 +817,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -859,6 +844,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -869,15 +869,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,6 +901,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -917,148 +917,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1083,9 +1083,6 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1107,6 +1104,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1454,8 +1454,8 @@
   <sheetPr/>
   <dimension ref="B1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -1501,7 +1501,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="9"/>
+      <c r="J1" s="8"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
@@ -1514,7 +1514,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="9"/>
+      <c r="T1" s="8"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
         <v>0</v>
@@ -1527,7 +1527,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
-      <c r="AD1" s="9"/>
+      <c r="AD1" s="8"/>
     </row>
     <row r="2" customHeight="1" spans="2:30">
       <c r="B2" s="1" t="s">
@@ -1682,10 +1682,10 @@
         <v>25354.78</v>
       </c>
       <c r="AB3" s="4"/>
-      <c r="AC3" s="19">
+      <c r="AC3" s="18">
         <v>17728</v>
       </c>
-      <c r="AD3" s="19">
+      <c r="AD3" s="18">
         <v>17728</v>
       </c>
     </row>
@@ -1747,10 +1747,10 @@
         <v>7277.05</v>
       </c>
       <c r="AB4" s="4"/>
-      <c r="AC4" s="19">
+      <c r="AC4" s="18">
         <v>6981</v>
       </c>
-      <c r="AD4" s="19">
+      <c r="AD4" s="18">
         <v>6981</v>
       </c>
     </row>
@@ -1818,10 +1818,10 @@
         <v>10765.78</v>
       </c>
       <c r="AB5" s="4"/>
-      <c r="AC5" s="19">
+      <c r="AC5" s="18">
         <v>9596</v>
       </c>
-      <c r="AD5" s="19">
+      <c r="AD5" s="18">
         <v>9596</v>
       </c>
     </row>
@@ -1883,10 +1883,10 @@
         <v>22828.74</v>
       </c>
       <c r="AB6" s="4"/>
-      <c r="AC6" s="19">
+      <c r="AC6" s="18">
         <v>20928</v>
       </c>
-      <c r="AD6" s="19">
+      <c r="AD6" s="18">
         <v>20928</v>
       </c>
     </row>
@@ -1954,10 +1954,10 @@
         <v>10893.75</v>
       </c>
       <c r="AB7" s="4"/>
-      <c r="AC7" s="19">
+      <c r="AC7" s="18">
         <v>10743</v>
       </c>
-      <c r="AD7" s="19">
+      <c r="AD7" s="18">
         <v>10743</v>
       </c>
     </row>
@@ -2025,10 +2025,10 @@
         <v>17072</v>
       </c>
       <c r="AB8" s="4"/>
-      <c r="AC8" s="19">
+      <c r="AC8" s="18">
         <v>15403</v>
       </c>
-      <c r="AD8" s="19">
+      <c r="AD8" s="18">
         <v>15403</v>
       </c>
     </row>
@@ -2092,10 +2092,10 @@
         <v>22868.63</v>
       </c>
       <c r="AB9" s="4"/>
-      <c r="AC9" s="19">
+      <c r="AC9" s="18">
         <v>18594</v>
       </c>
-      <c r="AD9" s="19">
+      <c r="AD9" s="18">
         <v>18645</v>
       </c>
     </row>
@@ -2157,8 +2157,8 @@
         <v>8100</v>
       </c>
       <c r="AB10" s="4"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
     </row>
     <row r="11" customHeight="1" spans="2:30">
       <c r="B11" s="1" t="s">
@@ -2226,8 +2226,8 @@
         <v>11839.1</v>
       </c>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
     </row>
     <row r="12" customHeight="1" spans="2:30">
       <c r="B12" s="21" t="s">
@@ -2293,8 +2293,8 @@
         <v>22600.96</v>
       </c>
       <c r="AB12" s="4"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
     </row>
     <row r="13" customHeight="1" spans="2:30">
       <c r="B13" s="5" t="s">
@@ -2368,8 +2368,8 @@
         <v>68377.15</v>
       </c>
       <c r="AB13" s="4"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
     </row>
     <row r="14" customHeight="1" spans="2:30">
       <c r="B14" s="1" t="s">
@@ -2441,10 +2441,10 @@
         <v>277.23</v>
       </c>
       <c r="AB14" s="4"/>
-      <c r="AC14" s="19">
+      <c r="AC14" s="18">
         <v>260</v>
       </c>
-      <c r="AD14" s="19">
+      <c r="AD14" s="18">
         <v>260</v>
       </c>
     </row>
@@ -2518,10 +2518,10 @@
         <v>567.37</v>
       </c>
       <c r="AB15" s="4"/>
-      <c r="AC15" s="19">
+      <c r="AC15" s="18">
         <v>538</v>
       </c>
-      <c r="AD15" s="19">
+      <c r="AD15" s="18">
         <v>538</v>
       </c>
     </row>
@@ -2597,8 +2597,8 @@
         <v>1745</v>
       </c>
       <c r="AB16" s="4"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
     </row>
     <row r="17" customHeight="1" spans="2:30">
       <c r="B17" s="5" t="s">
@@ -2672,8 +2672,8 @@
         <v>2230.53</v>
       </c>
       <c r="AB17" s="4"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
     </row>
     <row r="18" customHeight="1" spans="2:30">
       <c r="B18" s="1" t="s">
@@ -2745,8 +2745,8 @@
         <v>5022</v>
       </c>
       <c r="AB18" s="4"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
     </row>
     <row r="19" customHeight="1" spans="2:30">
       <c r="B19" s="1" t="s">
@@ -2818,8 +2818,8 @@
         <v>12085</v>
       </c>
       <c r="AB19" s="4"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
     </row>
     <row r="20" customHeight="1" spans="2:30">
       <c r="B20" s="5" t="s">
@@ -2893,8 +2893,8 @@
         <v>22289</v>
       </c>
       <c r="AB20" s="4"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="2:30">
       <c r="B21" s="1" t="s">
@@ -2966,10 +2966,10 @@
         <v>102.42</v>
       </c>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="19">
+      <c r="AC21" s="18">
         <v>110</v>
       </c>
-      <c r="AD21" s="19">
+      <c r="AD21" s="18">
         <v>114</v>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
         <v>154</v>
       </c>
       <c r="G22" s="24">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H22" s="24">
         <v>143</v>
@@ -3045,10 +3045,10 @@
         <v>152</v>
       </c>
       <c r="AB22" s="4"/>
-      <c r="AC22" s="19">
+      <c r="AC22" s="18">
         <v>66</v>
       </c>
-      <c r="AD22" s="19">
+      <c r="AD22" s="18">
         <v>66</v>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
         <v>248</v>
       </c>
       <c r="G23" s="24">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="H23" s="24">
         <v>181</v>
@@ -3120,8 +3120,8 @@
         <v>32000</v>
       </c>
       <c r="AB23" s="4"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="2:30">
       <c r="B24" s="5" t="s">
@@ -3191,13 +3191,13 @@
         <v>1036.02</v>
       </c>
       <c r="AB24" s="4"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="9:30">
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
       <c r="V25" s="5" t="s">
         <v>79</v>
       </c>
@@ -3219,10 +3219,10 @@
       <c r="AB25" s="6">
         <v>714.33</v>
       </c>
-      <c r="AC25" s="20">
+      <c r="AC25" s="19">
         <v>618</v>
       </c>
-      <c r="AD25" s="20">
+      <c r="AD25" s="19">
         <v>618</v>
       </c>
     </row>
@@ -3232,18 +3232,18 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
       <c r="V26" s="5" t="s">
         <v>81</v>
       </c>
@@ -3265,49 +3265,49 @@
       <c r="AB26" s="6">
         <v>662.17</v>
       </c>
-      <c r="AC26" s="20">
+      <c r="AC26" s="19">
         <v>447</v>
       </c>
-      <c r="AD26" s="20">
+      <c r="AD26" s="19">
         <v>447</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
       <c r="V27" s="30"/>
       <c r="W27" s="30"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="2:7">
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" customHeight="1" spans="2:2">
       <c r="B29" s="22"/>
@@ -3317,24 +3317,24 @@
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="B34" s="17"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="B35" s="17"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="B37" s="17"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="17"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
@@ -4326,10 +4326,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:AA1000"/>
+  <dimension ref="B1:AD1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -4338,27 +4338,30 @@
     <col min="2" max="2" width="9.7047619047619" customWidth="1"/>
     <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
     <col min="4" max="6" width="8.79047619047619" customWidth="1"/>
-    <col min="7" max="7" width="8.7047619047619" customWidth="1"/>
-    <col min="8" max="8" width="11.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="10.5714285714286" customWidth="1"/>
-    <col min="10" max="10" width="3.14285714285714" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="11.4285714285714" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="15" width="12.2857142857143" customWidth="1"/>
-    <col min="16" max="16" width="4" customWidth="1"/>
-    <col min="17" max="17" width="11.4285714285714" customWidth="1"/>
-    <col min="18" max="18" width="10.5714285714286" customWidth="1"/>
-    <col min="19" max="19" width="2.7047619047619" customWidth="1"/>
-    <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="11.5714285714286" customWidth="1"/>
-    <col min="22" max="24" width="12.2857142857143" customWidth="1"/>
-    <col min="25" max="25" width="7.79047619047619" customWidth="1"/>
-    <col min="26" max="26" width="11.4285714285714" customWidth="1"/>
-    <col min="27" max="27" width="10.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="16.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="8.7047619047619" customWidth="1"/>
+    <col min="9" max="9" width="11.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="10.5714285714286" customWidth="1"/>
+    <col min="11" max="11" width="3.14285714285714" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="11.4285714285714" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="16" width="12.2857142857143" customWidth="1"/>
+    <col min="17" max="17" width="16.8571428571429" customWidth="1"/>
+    <col min="18" max="18" width="4" customWidth="1"/>
+    <col min="19" max="19" width="11.4285714285714" customWidth="1"/>
+    <col min="20" max="20" width="10.5714285714286" customWidth="1"/>
+    <col min="21" max="21" width="2.7047619047619" customWidth="1"/>
+    <col min="22" max="22" width="12" customWidth="1"/>
+    <col min="23" max="23" width="11.5714285714286" customWidth="1"/>
+    <col min="24" max="26" width="12.2857142857143" customWidth="1"/>
+    <col min="27" max="27" width="15.7142857142857" customWidth="1"/>
+    <col min="28" max="28" width="7.79047619047619" customWidth="1"/>
+    <col min="29" max="29" width="11.4285714285714" customWidth="1"/>
+    <col min="30" max="30" width="10.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="2:27">
+    <row r="1" customHeight="1" spans="2:30">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>83</v>
@@ -4370,33 +4373,36 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="9"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="8"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="9"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1" t="s">
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="8"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="9"/>
-    </row>
-    <row r="2" customHeight="1" spans="2:27">
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="8"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:30">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4413,64 +4419,73 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="2:27">
+    <row r="3" customHeight="1" spans="2:30">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4478,7 +4493,7 @@
         <v>140</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="4">
         <v>1551.66</v>
@@ -4486,59 +4501,68 @@
       <c r="F3" s="4">
         <v>1380.52</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
+      <c r="G3" s="4">
+        <v>1320.44</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
         <v>1234</v>
       </c>
-      <c r="I3" s="19">
+      <c r="J3" s="18">
         <v>1354</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>24</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>2139</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1691</v>
       </c>
       <c r="O3" s="4">
         <v>1691</v>
       </c>
-      <c r="P3" s="4"/>
+      <c r="P3" s="4">
+        <v>1691</v>
+      </c>
       <c r="Q3" s="4">
+        <v>1798</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4">
         <v>1691</v>
       </c>
-      <c r="R3" s="19">
+      <c r="T3" s="18">
         <v>1691</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="1">
+      <c r="W3" s="1">
         <v>38</v>
       </c>
-      <c r="V3" s="4">
+      <c r="X3" s="4">
         <v>42676.77</v>
       </c>
-      <c r="W3" s="4">
+      <c r="Y3" s="4">
         <v>44191.56</v>
       </c>
-      <c r="X3" s="4">
+      <c r="Z3" s="4">
         <v>44191.56</v>
       </c>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="19">
+      <c r="AA3" s="4">
+        <v>42676.77</v>
+      </c>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="18">
         <v>37793</v>
       </c>
-      <c r="AA3" s="19">
+      <c r="AD3" s="18">
         <v>37793</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:27">
+    <row r="4" customHeight="1" spans="2:30">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -4550,53 +4574,60 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="19"/>
-      <c r="K4" s="1" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="18"/>
+      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>48</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>22073.5</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>23897.19</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <v>27135.01</v>
       </c>
-      <c r="P4" s="4"/>
       <c r="Q4" s="4">
+        <v>22073.5</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4">
         <v>17634</v>
       </c>
-      <c r="R4" s="19">
+      <c r="T4" s="18">
         <v>17634</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="1">
+      <c r="W4" s="1">
         <v>52</v>
-      </c>
-      <c r="V4" s="4">
-        <v>17103.07</v>
-      </c>
-      <c r="W4" s="4">
-        <v>15595.35</v>
       </c>
       <c r="X4" s="4">
         <v>17103.07</v>
       </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="19">
+      <c r="Y4" s="4">
+        <v>15595.35</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>17103.07</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>17103.07</v>
+      </c>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="18">
         <v>14839</v>
       </c>
-      <c r="AA4" s="19">
+      <c r="AD4" s="18">
         <v>14839</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:27">
+    <row r="5" customHeight="1" spans="2:30">
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
@@ -4612,53 +4643,62 @@
       <c r="F5" s="6">
         <v>3710</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="20"/>
-      <c r="K5" s="1" t="s">
+      <c r="G5" s="6">
+        <v>3579</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="19"/>
+      <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>60</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>3174</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>3062</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <v>3010</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="19"/>
-      <c r="T5" s="1" t="s">
+      <c r="Q5" s="4">
+        <v>3174</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="18"/>
+      <c r="V5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="1">
+      <c r="W5" s="1">
         <v>62</v>
       </c>
-      <c r="V5" s="4">
+      <c r="X5" s="4">
         <v>26214.19</v>
       </c>
-      <c r="W5" s="4">
+      <c r="Y5" s="4">
         <v>22543.29</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Z5" s="4">
         <v>22143.51</v>
       </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="19">
+      <c r="AA5" s="4">
+        <v>23853.93</v>
+      </c>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="18">
         <v>21420</v>
       </c>
-      <c r="AA5" s="19">
+      <c r="AD5" s="18">
         <v>21564</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:27">
+    <row r="6" customHeight="1" spans="2:30">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -4674,49 +4714,56 @@
       <c r="F6" s="4">
         <v>11972</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4">
+        <v>14421</v>
+      </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="19"/>
-      <c r="K6" s="1" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="18"/>
+      <c r="L6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>68</v>
       </c>
-      <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="4">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4">
         <v>29108</v>
       </c>
-      <c r="R6" s="19">
+      <c r="T6" s="18">
         <v>29108</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="1">
+      <c r="W6" s="1">
         <v>68</v>
       </c>
-      <c r="V6" s="4">
+      <c r="X6" s="4">
         <v>53346.76</v>
       </c>
-      <c r="W6" s="4">
+      <c r="Y6" s="4">
         <v>51047.96</v>
       </c>
-      <c r="X6" s="4">
+      <c r="Z6" s="4">
         <v>48383.81</v>
       </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="19">
+      <c r="AA6" s="4">
+        <v>53346.76</v>
+      </c>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="18">
         <v>47911</v>
       </c>
-      <c r="AA6" s="19">
+      <c r="AD6" s="18">
         <v>48960</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:27">
+    <row r="7" customHeight="1" spans="2:30">
       <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
@@ -4732,55 +4779,62 @@
       <c r="F7" s="6">
         <v>581</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="G7" s="6">
+        <v>590</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="6">
         <v>581</v>
       </c>
-      <c r="I7" s="20">
+      <c r="J7" s="19">
         <v>581</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>101</v>
       </c>
-      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="4">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4">
         <v>13996</v>
       </c>
-      <c r="R7" s="19">
+      <c r="T7" s="18">
         <v>14131</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="U7" s="1">
+      <c r="W7" s="1">
         <v>72</v>
-      </c>
-      <c r="V7" s="4">
-        <v>26457.22</v>
-      </c>
-      <c r="W7" s="4">
-        <v>28471</v>
       </c>
       <c r="X7" s="4">
         <v>26457.22</v>
       </c>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="19">
+      <c r="Y7" s="4">
+        <v>28471</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>26457.22</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>26457.22</v>
+      </c>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="18">
         <v>26296</v>
       </c>
-      <c r="AA7" s="19">
+      <c r="AD7" s="18">
         <v>26296</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:27">
+    <row r="8" customHeight="1" spans="2:30">
       <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
@@ -4796,55 +4850,62 @@
       <c r="F8" s="6">
         <v>818</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="G8" s="6">
+        <v>816</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="6">
         <v>672</v>
       </c>
-      <c r="I8" s="20">
+      <c r="J8" s="19">
         <v>672</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>114</v>
       </c>
-      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4">
         <v>41661</v>
       </c>
-      <c r="R8" s="19">
+      <c r="T8" s="18">
         <v>41877</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U8" s="1">
+      <c r="W8" s="1">
         <v>76</v>
       </c>
-      <c r="V8" s="4">
+      <c r="X8" s="4">
         <v>35032.6</v>
       </c>
-      <c r="W8" s="4">
+      <c r="Y8" s="4">
         <v>35705.47</v>
       </c>
-      <c r="X8" s="4">
+      <c r="Z8" s="4">
         <v>35705.47</v>
       </c>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="19">
+      <c r="AA8" s="4">
+        <v>35054.59</v>
+      </c>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="18">
         <v>30712</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="AD8" s="18">
         <v>30718</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:27">
+    <row r="9" customHeight="1" spans="2:30">
       <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
@@ -4861,50 +4922,57 @@
         <v>1857.02</v>
       </c>
       <c r="G9" s="6">
+        <v>1809.87</v>
+      </c>
+      <c r="H9" s="6">
         <v>3303.71452420693</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>1766</v>
       </c>
-      <c r="I9" s="20">
+      <c r="J9" s="19">
         <v>1766</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>215</v>
       </c>
-      <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="19"/>
-      <c r="T9" s="1" t="s">
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="18"/>
+      <c r="V9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="1">
+      <c r="W9" s="1">
         <v>113</v>
       </c>
-      <c r="V9" s="4">
+      <c r="X9" s="4">
         <v>51597.94</v>
       </c>
-      <c r="W9" s="4">
+      <c r="Y9" s="4">
         <v>53661.61</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Z9" s="4">
         <v>53582.58</v>
       </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="19">
+      <c r="AA9" s="4">
+        <v>43074.96</v>
+      </c>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="18">
         <v>33349</v>
       </c>
-      <c r="AA9" s="19">
+      <c r="AD9" s="18">
         <v>33349</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:27">
+    <row r="10" customHeight="1" spans="2:30">
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
@@ -4920,45 +4988,52 @@
       <c r="F10" s="4">
         <v>29172.34</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
+      <c r="G10" s="4">
+        <v>29446.8</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
         <v>24862</v>
       </c>
-      <c r="I10" s="19">
+      <c r="J10" s="18">
         <v>24862</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>333</v>
       </c>
-      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="19"/>
-      <c r="T10" s="1" t="s">
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="18"/>
+      <c r="V10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="1">
+      <c r="W10" s="1">
         <v>132</v>
       </c>
-      <c r="V10" s="4">
+      <c r="X10" s="4">
         <v>23011.19</v>
       </c>
-      <c r="W10" s="4">
+      <c r="Y10" s="4">
         <v>21708.66</v>
       </c>
-      <c r="X10" s="4">
+      <c r="Z10" s="4">
         <v>21567.68</v>
       </c>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-    </row>
-    <row r="11" customHeight="1" spans="2:27">
+      <c r="AA10" s="4">
+        <v>23165.86</v>
+      </c>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:30">
       <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
@@ -4974,51 +5049,60 @@
       <c r="F11" s="4">
         <v>9828</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4">
+        <v>9122</v>
+      </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="19"/>
-      <c r="K11" s="1" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="18"/>
+      <c r="L11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>24</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>6476</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>5474</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <v>6402</v>
       </c>
-      <c r="P11" s="4"/>
       <c r="Q11" s="4">
+        <v>6476</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4">
         <v>4238</v>
       </c>
-      <c r="R11" s="19">
+      <c r="T11" s="18">
         <v>4300</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U11" s="1">
+      <c r="W11" s="1">
         <v>149</v>
       </c>
-      <c r="V11" s="4">
+      <c r="X11" s="4">
         <v>27476.07</v>
       </c>
-      <c r="W11" s="4">
+      <c r="Y11" s="4">
         <v>26159.06</v>
       </c>
-      <c r="X11" s="4">
+      <c r="Z11" s="4">
         <v>25646.32</v>
       </c>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-    </row>
-    <row r="12" customHeight="1" spans="2:27">
+      <c r="AA11" s="4">
+        <v>27476.07</v>
+      </c>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:30">
       <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
@@ -5036,49 +5120,56 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="19"/>
-      <c r="K12" s="1" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="18"/>
+      <c r="L12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>50</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>11572.88</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>10270.1</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>10587.56</v>
       </c>
-      <c r="P12" s="4"/>
       <c r="Q12" s="4">
+        <v>10511.86</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4">
         <v>9073</v>
       </c>
-      <c r="R12" s="19">
+      <c r="T12" s="18">
         <v>9098</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U12" s="1">
+      <c r="W12" s="1">
         <v>219</v>
       </c>
-      <c r="V12" s="4">
+      <c r="X12" s="4">
         <v>41333.97</v>
       </c>
-      <c r="W12" s="4">
+      <c r="Y12" s="4">
         <v>43929.8</v>
       </c>
-      <c r="X12" s="4">
+      <c r="Z12" s="4">
         <v>43231</v>
       </c>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-    </row>
-    <row r="13" customHeight="1" spans="2:27">
+      <c r="AA12" s="4">
+        <v>41333.97</v>
+      </c>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:30">
       <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
@@ -5095,56 +5186,65 @@
         <v>1339.12</v>
       </c>
       <c r="G13" s="6">
+        <v>967.86</v>
+      </c>
+      <c r="H13" s="6">
         <v>966.37</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>842</v>
       </c>
-      <c r="I13" s="20">
+      <c r="J13" s="19">
         <v>842</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>75</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>15643.51</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>50807.89</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>14034.92</v>
       </c>
-      <c r="P13" s="4"/>
       <c r="Q13" s="4">
+        <v>15643.51</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4">
         <v>11412</v>
       </c>
-      <c r="R13" s="19">
+      <c r="T13" s="18">
         <v>11483</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U13" s="1">
+      <c r="W13" s="1">
         <v>501</v>
       </c>
-      <c r="V13" s="4">
+      <c r="X13" s="4">
         <v>133670.14</v>
       </c>
-      <c r="W13" s="4">
+      <c r="Y13" s="4">
         <v>143817.03</v>
       </c>
-      <c r="X13" s="4">
+      <c r="Z13" s="4">
         <v>130460.89</v>
       </c>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-    </row>
-    <row r="14" customHeight="1" spans="2:27">
+      <c r="AA13" s="4">
+        <v>133670.14</v>
+      </c>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:30">
       <c r="B14" s="1" t="s">
         <v>46</v>
       </c>
@@ -5160,59 +5260,68 @@
       <c r="F14" s="4">
         <v>2588.71</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4">
+      <c r="G14" s="4">
+        <v>2717.27</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
         <v>2492</v>
       </c>
-      <c r="I14" s="19">
+      <c r="J14" s="18">
         <v>2492</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>100</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>13623.44</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>16093.09</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>15690.41</v>
       </c>
-      <c r="P14" s="4"/>
       <c r="Q14" s="4">
+        <v>13623.44</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4">
         <v>13315</v>
       </c>
-      <c r="R14" s="19">
+      <c r="T14" s="18">
         <v>13315</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U14" s="1">
+      <c r="W14" s="1">
         <v>49</v>
       </c>
-      <c r="V14" s="4">
+      <c r="X14" s="4">
         <v>600.15</v>
       </c>
-      <c r="W14" s="4">
+      <c r="Y14" s="4">
         <v>695.56</v>
       </c>
-      <c r="X14" s="4">
+      <c r="Z14" s="4">
         <v>620.12</v>
       </c>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="19">
+      <c r="AA14" s="4">
+        <v>600.15</v>
+      </c>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="18">
         <v>554</v>
       </c>
-      <c r="AA14" s="19">
+      <c r="AD14" s="18">
         <v>554</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="2:27">
+    <row r="15" customHeight="1" spans="2:30">
       <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
@@ -5228,59 +5337,68 @@
       <c r="F15" s="4">
         <v>3114.15</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4">
+      <c r="G15" s="4">
+        <v>3194.43</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4">
         <v>2772</v>
       </c>
-      <c r="I15" s="19">
+      <c r="J15" s="18">
         <v>2790</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>50</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>11462.54</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>11768</v>
       </c>
-      <c r="O15" s="4">
+      <c r="P15" s="4">
         <v>10957.73</v>
       </c>
-      <c r="P15" s="4"/>
       <c r="Q15" s="4">
+        <v>11462.54</v>
+      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4">
         <v>9071</v>
       </c>
-      <c r="R15" s="19">
+      <c r="T15" s="18">
         <v>9071</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="U15" s="1">
+      <c r="W15" s="1">
         <v>97</v>
       </c>
-      <c r="V15" s="4">
+      <c r="X15" s="4">
         <v>1135.38</v>
       </c>
-      <c r="W15" s="4">
+      <c r="Y15" s="4">
         <v>1293.71</v>
       </c>
-      <c r="X15" s="4">
+      <c r="Z15" s="4">
         <v>1158.97</v>
       </c>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="19">
+      <c r="AA15" s="4">
+        <v>1143.02</v>
+      </c>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="18">
         <v>1106</v>
       </c>
-      <c r="AA15" s="19">
+      <c r="AD15" s="18">
         <v>1108</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="2:27">
+    <row r="16" customHeight="1" spans="2:30">
       <c r="B16" s="5" t="s">
         <v>52</v>
       </c>
@@ -5297,56 +5415,65 @@
         <v>251</v>
       </c>
       <c r="G16" s="6">
+        <v>257</v>
+      </c>
+      <c r="H16" s="6">
         <v>230</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>227</v>
       </c>
-      <c r="I16" s="20">
+      <c r="J16" s="19">
         <v>227</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>75</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>12323.13</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O16" s="4">
         <v>13509.84</v>
       </c>
-      <c r="O16" s="4">
+      <c r="P16" s="4">
         <v>12003.25</v>
       </c>
-      <c r="P16" s="4"/>
       <c r="Q16" s="4">
+        <v>12323.13</v>
+      </c>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4">
         <v>11501</v>
       </c>
-      <c r="R16" s="19">
+      <c r="T16" s="18">
         <v>11501</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U16" s="1">
+      <c r="W16" s="1">
         <v>287</v>
       </c>
-      <c r="V16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="W16" s="4">
+      <c r="X16" s="4">
+        <v>3482.52</v>
+      </c>
+      <c r="Y16" s="4">
         <v>3690.24</v>
       </c>
-      <c r="X16" s="4">
+      <c r="Z16" s="4">
         <v>3636.54</v>
       </c>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-    </row>
-    <row r="17" customHeight="1" spans="2:27">
+      <c r="AA16" s="4">
+        <v>3482.52</v>
+      </c>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:30">
       <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
@@ -5362,57 +5489,66 @@
       <c r="F17" s="6">
         <v>190.34</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="6">
+        <v>181.41</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>179</v>
       </c>
-      <c r="I17" s="20">
+      <c r="J17" s="19">
         <v>181</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>100</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>17281.75</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>17169.62</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>16124.85</v>
       </c>
-      <c r="P17" s="4"/>
       <c r="Q17" s="4">
+        <v>17281.74</v>
+      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4">
         <v>12787</v>
       </c>
-      <c r="R17" s="19">
+      <c r="T17" s="18">
         <v>12787</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U17" s="1">
+      <c r="W17" s="1">
         <v>391</v>
       </c>
-      <c r="V17" s="4">
+      <c r="X17" s="4">
         <v>4697.63</v>
       </c>
-      <c r="W17" s="4">
+      <c r="Y17" s="4">
         <v>4979.69</v>
       </c>
-      <c r="X17" s="4">
+      <c r="Z17" s="4">
         <v>4850.7</v>
       </c>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-    </row>
-    <row r="18" customHeight="1" spans="2:27">
+      <c r="AA17" s="4">
+        <v>4697.63</v>
+      </c>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+    </row>
+    <row r="18" customHeight="1" spans="2:30">
       <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
@@ -5428,55 +5564,64 @@
       <c r="F18" s="4">
         <v>227.88</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
+      <c r="G18" s="4">
+        <v>232.79</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
         <v>217</v>
       </c>
-      <c r="I18" s="19">
+      <c r="J18" s="18">
         <v>219</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>50</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>9617.35</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>12165.37</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>10882.65</v>
       </c>
-      <c r="P18" s="4"/>
       <c r="Q18" s="4">
+        <v>9524.23</v>
+      </c>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4">
         <v>9428</v>
       </c>
-      <c r="R18" s="19">
+      <c r="T18" s="18">
         <v>9498</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U18" s="1">
+      <c r="W18" s="1">
         <v>87</v>
       </c>
-      <c r="V18" s="4">
+      <c r="X18" s="4">
         <v>10581</v>
       </c>
-      <c r="W18" s="4">
+      <c r="Y18" s="4">
         <v>10638</v>
       </c>
-      <c r="X18" s="4">
+      <c r="Z18" s="4">
         <v>10390</v>
       </c>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-    </row>
-    <row r="19" customHeight="1" spans="2:27">
+      <c r="AA18" s="4">
+        <v>10029</v>
+      </c>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:30">
       <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
@@ -5492,55 +5637,64 @@
       <c r="F19" s="4">
         <v>314.33</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
+      <c r="G19" s="4">
+        <v>322.75</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
         <v>249</v>
       </c>
-      <c r="I19" s="19">
+      <c r="J19" s="18">
         <v>249</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>50</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <v>10720.17</v>
-      </c>
-      <c r="N19" s="4">
-        <v>11235.04</v>
       </c>
       <c r="O19" s="4">
         <v>11235.04</v>
       </c>
-      <c r="P19" s="4"/>
+      <c r="P19" s="4">
+        <v>11235.04</v>
+      </c>
       <c r="Q19" s="4">
+        <v>10720.17</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4">
         <v>8808</v>
       </c>
-      <c r="R19" s="19">
+      <c r="T19" s="18">
         <v>8808</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="U19" s="1">
+      <c r="W19" s="1">
         <v>267</v>
       </c>
-      <c r="V19" s="4">
+      <c r="X19" s="4">
         <v>23690</v>
       </c>
-      <c r="W19" s="4">
+      <c r="Y19" s="4">
         <v>23530</v>
       </c>
-      <c r="X19" s="4">
+      <c r="Z19" s="4">
         <v>23598</v>
       </c>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-    </row>
-    <row r="20" customHeight="1" spans="2:27">
+      <c r="AA19" s="4">
+        <v>23411</v>
+      </c>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+    </row>
+    <row r="20" customHeight="1" spans="2:30">
       <c r="B20" s="5" t="s">
         <v>64</v>
       </c>
@@ -5557,56 +5711,65 @@
         <v>391</v>
       </c>
       <c r="G20" s="6">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="H20" s="6">
         <v>308</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="6">
+        <v>308</v>
+      </c>
+      <c r="J20" s="19">
         <v>339</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>50</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="4">
         <v>10228.68</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O20" s="4">
         <v>10160.41</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <v>9510.46</v>
       </c>
-      <c r="P20" s="4"/>
       <c r="Q20" s="4">
+        <v>10229.07</v>
+      </c>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4">
         <v>9370</v>
       </c>
-      <c r="R20" s="19">
+      <c r="T20" s="18">
         <v>9370</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U20" s="1">
+      <c r="W20" s="1">
         <v>516</v>
       </c>
-      <c r="V20" s="4">
+      <c r="X20" s="4">
         <v>46820</v>
       </c>
-      <c r="W20" s="4">
+      <c r="Y20" s="4">
         <v>46810</v>
       </c>
-      <c r="X20" s="4">
+      <c r="Z20" s="4">
         <v>46911</v>
       </c>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" spans="2:27">
+      <c r="AA20" s="4">
+        <v>46820</v>
+      </c>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" spans="2:30">
       <c r="B21" s="1" t="s">
         <v>67</v>
       </c>
@@ -5622,59 +5785,68 @@
       <c r="F21" s="4">
         <v>1218.6</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4">
+      <c r="G21" s="4">
+        <v>1179.57</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4">
         <v>1049</v>
       </c>
-      <c r="I21" s="19">
+      <c r="J21" s="18">
         <v>1049</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>52</v>
       </c>
-      <c r="M21" s="4">
+      <c r="N21" s="4">
         <v>5888.85</v>
       </c>
-      <c r="N21" s="4">
+      <c r="O21" s="4">
         <v>5350.1</v>
       </c>
-      <c r="O21" s="4">
+      <c r="P21" s="4">
         <v>5879.98</v>
       </c>
-      <c r="P21" s="4"/>
       <c r="Q21" s="4">
+        <v>5888.85</v>
+      </c>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4">
         <v>5532</v>
       </c>
-      <c r="R21" s="19">
+      <c r="T21" s="18">
         <v>5532</v>
       </c>
-      <c r="T21" s="21" t="s">
+      <c r="V21" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="U21" s="21">
+      <c r="W21" s="21">
         <v>35</v>
       </c>
-      <c r="V21" s="7">
+      <c r="X21" s="7">
         <v>347.28</v>
       </c>
-      <c r="W21" s="7">
+      <c r="Y21" s="7">
         <v>250.24</v>
       </c>
-      <c r="X21" s="7">
+      <c r="Z21" s="7">
         <v>292.76</v>
       </c>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="19">
+      <c r="AA21" s="7">
+        <v>293.53</v>
+      </c>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="18">
         <v>250</v>
       </c>
-      <c r="AA21" s="19">
+      <c r="AD21" s="18">
         <v>264</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" spans="2:27">
+    <row r="22" ht="15.75" customHeight="1" spans="2:30">
       <c r="B22" s="5" t="s">
         <v>70</v>
       </c>
@@ -5691,60 +5863,69 @@
         <v>380</v>
       </c>
       <c r="G22" s="6">
+        <v>426</v>
+      </c>
+      <c r="H22" s="6">
         <v>380</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I22" s="6">
         <v>359</v>
       </c>
-      <c r="I22" s="20">
+      <c r="J22" s="19">
         <v>368</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>159</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="4">
         <v>22878.82</v>
       </c>
-      <c r="N22" s="4">
+      <c r="O22" s="4">
         <v>20965.1</v>
       </c>
-      <c r="O22" s="4">
+      <c r="P22" s="4">
         <v>21536.24</v>
       </c>
-      <c r="P22" s="4"/>
       <c r="Q22" s="4">
+        <v>22878.82</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4">
         <v>17655</v>
       </c>
-      <c r="R22" s="19">
+      <c r="T22" s="18">
         <v>17655</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="V22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="U22" s="1">
+      <c r="W22" s="1">
         <v>21</v>
       </c>
-      <c r="V22" s="4">
+      <c r="X22" s="4">
         <v>441</v>
       </c>
-      <c r="W22" s="4">
+      <c r="Y22" s="4">
         <v>448</v>
       </c>
-      <c r="X22" s="4">
+      <c r="Z22" s="4">
         <v>502</v>
       </c>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="19">
+      <c r="AA22" s="4">
+        <v>441</v>
+      </c>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="18">
         <v>132</v>
       </c>
-      <c r="AA22" s="19">
+      <c r="AD22" s="18">
         <v>141</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" spans="2:27">
+    <row r="23" ht="15.75" customHeight="1" spans="2:30">
       <c r="B23" s="5" t="s">
         <v>73</v>
       </c>
@@ -5761,52 +5942,61 @@
         <v>732</v>
       </c>
       <c r="G23" s="6">
-        <v>683</v>
+        <v>738</v>
       </c>
       <c r="H23" s="6">
         <v>683</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="6">
         <v>683</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="J23" s="19">
+        <v>683</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>689</v>
       </c>
-      <c r="M23" s="4">
+      <c r="N23" s="4">
         <v>28892.08</v>
       </c>
-      <c r="N23" s="4">
+      <c r="O23" s="4">
         <v>28532.55</v>
       </c>
-      <c r="O23" s="4">
+      <c r="P23" s="4">
         <v>27884.83</v>
       </c>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="19"/>
-      <c r="T23" s="1" t="s">
+      <c r="Q23" s="4">
+        <v>28892.08</v>
+      </c>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="18"/>
+      <c r="V23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="U23" s="1">
+      <c r="W23" s="1">
         <v>112</v>
       </c>
-      <c r="V23" s="4">
+      <c r="X23" s="4">
         <v>55500</v>
       </c>
-      <c r="W23" s="4">
+      <c r="Y23" s="4">
         <v>73643.86</v>
       </c>
-      <c r="X23" s="4">
+      <c r="Z23" s="4">
         <v>73643.86</v>
       </c>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1" spans="2:27">
+      <c r="AA23" s="4">
+        <v>55500</v>
+      </c>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" spans="2:30">
       <c r="B24" s="5" t="s">
         <v>76</v>
       </c>
@@ -5823,158 +6013,180 @@
         <v>413</v>
       </c>
       <c r="G24" s="6">
+        <v>484</v>
+      </c>
+      <c r="H24" s="6">
         <v>409</v>
       </c>
-      <c r="H24" s="6">
+      <c r="I24" s="6">
         <v>396</v>
       </c>
-      <c r="I24" s="20">
+      <c r="J24" s="19">
         <v>396</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>280</v>
       </c>
-      <c r="M24" s="4">
+      <c r="N24" s="4">
         <v>1370</v>
       </c>
-      <c r="N24" s="4">
+      <c r="O24" s="4">
         <v>1242</v>
       </c>
-      <c r="O24" s="4">
+      <c r="P24" s="4">
         <v>1342</v>
       </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="19"/>
-      <c r="T24" s="1" t="s">
+      <c r="Q24" s="4">
+        <v>1370</v>
+      </c>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="18"/>
+      <c r="V24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="U24" s="1">
+      <c r="W24" s="1">
         <v>112</v>
       </c>
-      <c r="V24" s="4">
+      <c r="X24" s="4">
         <v>1875.65</v>
       </c>
-      <c r="W24" s="4">
+      <c r="Y24" s="4">
         <v>2155.51</v>
       </c>
-      <c r="X24" s="4">
+      <c r="Z24" s="4">
         <v>2200.28</v>
       </c>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1" spans="8:27">
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="T25" s="5" t="s">
+      <c r="AA24" s="4">
+        <v>1875.65</v>
+      </c>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" spans="9:30">
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="V25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="U25" s="5">
+      <c r="W25" s="5">
         <v>8</v>
       </c>
-      <c r="V25" s="6">
+      <c r="X25" s="6">
         <v>1981.71</v>
       </c>
-      <c r="W25" s="6">
+      <c r="Y25" s="6">
         <v>1981.15</v>
       </c>
-      <c r="X25" s="6">
+      <c r="Z25" s="6">
         <v>1981.15</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="AA25" s="6">
+        <v>1511.75</v>
+      </c>
+      <c r="AB25" s="6">
         <v>1505.95</v>
       </c>
-      <c r="Z25" s="20">
+      <c r="AC25" s="19">
         <v>1329</v>
       </c>
-      <c r="AA25" s="20">
+      <c r="AD25" s="19">
         <v>1329</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" spans="2:27">
+    <row r="26" ht="15.75" customHeight="1" spans="2:30">
       <c r="B26" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="T26" s="5" t="s">
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="V26" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="U26" s="5">
+      <c r="W26" s="5">
         <v>11</v>
       </c>
-      <c r="V26" s="6">
+      <c r="X26" s="6">
         <v>2086.59</v>
       </c>
-      <c r="W26" s="6">
+      <c r="Y26" s="6">
         <v>2006.03</v>
       </c>
-      <c r="X26" s="6">
+      <c r="Z26" s="6">
         <v>2086.03</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="AA26" s="6">
+        <v>2086.47</v>
+      </c>
+      <c r="AB26" s="6">
         <v>1647.33</v>
       </c>
-      <c r="Z26" s="20">
+      <c r="AC26" s="19">
         <v>1473</v>
       </c>
-      <c r="AA26" s="20">
+      <c r="AD26" s="19">
         <v>1473</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" spans="2:24">
-      <c r="B27" s="11" t="s">
+    <row r="27" ht="15.75" customHeight="1" spans="2:27">
+      <c r="B27" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="10"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1" spans="2:6">
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" spans="2:7">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="2:2">
       <c r="B29" s="22"/>
@@ -5984,24 +6196,24 @@
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="B34" s="17"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="B35" s="17"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="B37" s="17"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="17"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
@@ -6967,9 +7179,9 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="X1:AD1"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
@@ -6993,10 +7205,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:AA1000"/>
+  <dimension ref="B1:AD1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC32" sqref="AC32"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -7005,28 +7217,31 @@
     <col min="2" max="2" width="9.7047619047619" customWidth="1"/>
     <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
     <col min="4" max="6" width="8.79047619047619" customWidth="1"/>
-    <col min="7" max="7" width="8.7047619047619" customWidth="1"/>
-    <col min="8" max="8" width="11.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="10.5714285714286" customWidth="1"/>
-    <col min="10" max="10" width="5.28571428571429" customWidth="1"/>
-    <col min="11" max="11" width="8.7047619047619" customWidth="1"/>
-    <col min="12" max="12" width="17.8571428571429" customWidth="1"/>
-    <col min="13" max="13" width="11.2857142857143" customWidth="1"/>
-    <col min="14" max="15" width="12.2857142857143" customWidth="1"/>
-    <col min="16" max="16" width="3.42857142857143" customWidth="1"/>
-    <col min="17" max="17" width="11.2857142857143" customWidth="1"/>
-    <col min="18" max="18" width="10.5714285714286" customWidth="1"/>
-    <col min="19" max="19" width="6.28571428571429" customWidth="1"/>
-    <col min="20" max="20" width="11.2857142857143" customWidth="1"/>
-    <col min="21" max="21" width="11" customWidth="1"/>
-    <col min="22" max="22" width="12.2857142857143" customWidth="1"/>
-    <col min="23" max="24" width="9.79047619047619" customWidth="1"/>
-    <col min="25" max="25" width="8.7047619047619" customWidth="1"/>
-    <col min="26" max="26" width="11.4285714285714" customWidth="1"/>
-    <col min="27" max="27" width="10.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="16.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="8.7047619047619" customWidth="1"/>
+    <col min="9" max="9" width="11.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="10.5714285714286" customWidth="1"/>
+    <col min="11" max="11" width="5.28571428571429" customWidth="1"/>
+    <col min="12" max="12" width="8.7047619047619" customWidth="1"/>
+    <col min="13" max="13" width="17.8571428571429" customWidth="1"/>
+    <col min="14" max="14" width="11.2857142857143" customWidth="1"/>
+    <col min="15" max="16" width="12.2857142857143" customWidth="1"/>
+    <col min="17" max="17" width="16.8571428571429" customWidth="1"/>
+    <col min="18" max="18" width="3.42857142857143" customWidth="1"/>
+    <col min="19" max="19" width="11.2857142857143" customWidth="1"/>
+    <col min="20" max="20" width="10.5714285714286" customWidth="1"/>
+    <col min="21" max="21" width="6.28571428571429" customWidth="1"/>
+    <col min="22" max="22" width="11.2857142857143" customWidth="1"/>
+    <col min="23" max="23" width="11" customWidth="1"/>
+    <col min="24" max="24" width="12.2857142857143" customWidth="1"/>
+    <col min="25" max="26" width="9.79047619047619" customWidth="1"/>
+    <col min="27" max="27" width="16.8571428571429" customWidth="1"/>
+    <col min="28" max="28" width="8.7047619047619" customWidth="1"/>
+    <col min="29" max="29" width="11.4285714285714" customWidth="1"/>
+    <col min="30" max="30" width="10.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="2:27">
+    <row r="1" customHeight="1" spans="2:30">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>90</v>
@@ -7038,33 +7253,36 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="9"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="8"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="9"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1" t="s">
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="8"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="9"/>
-    </row>
-    <row r="2" customHeight="1" spans="2:27">
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="8"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:30">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7081,64 +7299,73 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="2:27">
+    <row r="3" customHeight="1" spans="2:30">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -7154,59 +7381,68 @@
       <c r="F3" s="4">
         <v>2016.55</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
+      <c r="G3" s="4">
+        <v>2108.06</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
         <v>1894</v>
       </c>
-      <c r="I3" s="19">
+      <c r="J3" s="18">
         <v>1925</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>36</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>3478</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <v>3475</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>3439</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="19">
+      <c r="Q3" s="4">
+        <v>3087</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="18">
         <v>3135</v>
       </c>
-      <c r="R3" s="19">
+      <c r="T3" s="18">
         <v>3135</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="1">
+      <c r="W3" s="1">
         <v>57</v>
       </c>
-      <c r="V3" s="4">
+      <c r="X3" s="4">
         <v>63830.12</v>
       </c>
-      <c r="W3" s="4">
+      <c r="Y3" s="4">
         <v>69764.62</v>
       </c>
-      <c r="X3" s="4">
+      <c r="Z3" s="4">
         <v>62006.81</v>
       </c>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="19">
+      <c r="AA3" s="4">
+        <v>63862.38</v>
+      </c>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="18">
         <v>62262</v>
       </c>
-      <c r="AA3" s="19">
+      <c r="AD3" s="18">
         <v>62262</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:27">
+    <row r="4" customHeight="1" spans="2:30">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -7218,53 +7454,60 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="19"/>
-      <c r="K4" s="1" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="18"/>
+      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>72</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>41093.3</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>38395.92</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <v>40746.39</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="19">
+      <c r="Q4" s="4">
+        <v>41093.3</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="18">
         <v>29257</v>
       </c>
-      <c r="R4" s="19">
+      <c r="T4" s="18">
         <v>30083</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="1">
+      <c r="W4" s="1">
         <v>80</v>
       </c>
-      <c r="V4" s="4">
+      <c r="X4" s="4">
         <v>33252.04</v>
       </c>
-      <c r="W4" s="4">
+      <c r="Y4" s="4">
         <v>32109.37</v>
       </c>
-      <c r="X4" s="4">
+      <c r="Z4" s="4">
         <v>33582.78</v>
       </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="19">
+      <c r="AA4" s="4">
+        <v>33252.04</v>
+      </c>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="18">
         <v>29684</v>
       </c>
-      <c r="AA4" s="19">
+      <c r="AD4" s="18">
         <v>29684</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:27">
+    <row r="5" customHeight="1" spans="2:30">
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
@@ -7280,53 +7523,62 @@
       <c r="F5" s="6">
         <v>6671</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="6">
+        <v>7089</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="20"/>
-      <c r="K5" s="1" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="19"/>
+      <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>90</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>4749</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>4888</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <v>4861</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="T5" s="1" t="s">
+      <c r="Q5" s="4">
+        <v>4749</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="V5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="1">
+      <c r="W5" s="1">
         <v>93</v>
       </c>
-      <c r="V5" s="4">
+      <c r="X5" s="4">
         <v>40795.86</v>
       </c>
-      <c r="W5" s="4">
+      <c r="Y5" s="4">
         <v>41639.79</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Z5" s="4">
         <v>41609.31</v>
       </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="19">
+      <c r="AA5" s="4">
+        <v>37722.24</v>
+      </c>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="18">
         <v>36977</v>
       </c>
-      <c r="AA5" s="19">
+      <c r="AD5" s="18">
         <v>36977</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:27">
+    <row r="6" customHeight="1" spans="2:30">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -7342,49 +7594,56 @@
       <c r="F6" s="4">
         <v>20179</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4">
+        <v>23269</v>
+      </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="19"/>
-      <c r="K6" s="1" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="18"/>
+      <c r="L6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>102</v>
       </c>
-      <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="19">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="18">
         <v>44147</v>
       </c>
-      <c r="R6" s="19">
+      <c r="T6" s="18">
         <v>44286</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="1">
+      <c r="W6" s="1">
         <v>102</v>
       </c>
-      <c r="V6" s="4">
+      <c r="X6" s="4">
         <v>84256.72</v>
       </c>
-      <c r="W6" s="4">
+      <c r="Y6" s="4">
         <v>81838.74</v>
       </c>
-      <c r="X6" s="4">
+      <c r="Z6" s="4">
         <v>82975.07</v>
       </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="19">
+      <c r="AA6" s="4">
+        <v>72355.09</v>
+      </c>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="18">
         <v>67879</v>
       </c>
-      <c r="AA6" s="19">
+      <c r="AD6" s="18">
         <v>69818</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:27">
+    <row r="7" customHeight="1" spans="2:30">
       <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
@@ -7400,55 +7659,62 @@
       <c r="F7" s="6">
         <v>1068</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="6">
+        <v>1066</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>929</v>
       </c>
-      <c r="I7" s="20">
+      <c r="J7" s="19">
         <v>929</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>151</v>
       </c>
-      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="19">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="18">
         <v>22000</v>
       </c>
-      <c r="R7" s="19">
+      <c r="T7" s="18">
         <v>22528</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="U7" s="1">
+      <c r="W7" s="1">
         <v>108</v>
       </c>
-      <c r="V7" s="4">
+      <c r="X7" s="4">
         <v>41326.95</v>
       </c>
-      <c r="W7" s="4">
+      <c r="Y7" s="4">
         <v>43036.45</v>
       </c>
-      <c r="X7" s="4">
+      <c r="Z7" s="4">
         <v>42623.35</v>
       </c>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="19">
+      <c r="AA7" s="4">
+        <v>41329.13</v>
+      </c>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="18">
         <v>40274</v>
       </c>
-      <c r="AA7" s="19">
+      <c r="AD7" s="18">
         <v>40832</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:27">
+    <row r="8" customHeight="1" spans="2:30">
       <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
@@ -7464,55 +7730,62 @@
       <c r="F8" s="6">
         <v>1174</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="6">
+        <v>1237</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>1090</v>
       </c>
-      <c r="I8" s="20">
+      <c r="J8" s="19">
         <v>1090</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>171</v>
       </c>
-      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="19">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="18">
         <v>65832</v>
       </c>
-      <c r="R8" s="19">
+      <c r="T8" s="18">
         <v>66183</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U8" s="1">
+      <c r="W8" s="1">
         <v>114</v>
       </c>
-      <c r="V8" s="4">
+      <c r="X8" s="4">
         <v>51636.7</v>
       </c>
-      <c r="W8" s="4">
+      <c r="Y8" s="4">
         <v>52270.61</v>
       </c>
-      <c r="X8" s="4">
+      <c r="Z8" s="4">
         <v>52270.61</v>
       </c>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="19">
+      <c r="AA8" s="4">
+        <v>51658.7</v>
+      </c>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="18">
         <v>46434</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="AD8" s="18">
         <v>46635</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:27">
+    <row r="9" customHeight="1" spans="2:30">
       <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
@@ -7529,50 +7802,57 @@
         <v>4507.49</v>
       </c>
       <c r="G9" s="6">
+        <v>4429.84</v>
+      </c>
+      <c r="H9" s="6">
         <v>7619.89895777969</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>3853</v>
       </c>
-      <c r="I9" s="20">
+      <c r="J9" s="19">
         <v>3904</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>323</v>
       </c>
-      <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="T9" s="1" t="s">
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="V9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="1">
+      <c r="W9" s="1">
         <v>169</v>
       </c>
-      <c r="V9" s="4">
+      <c r="X9" s="4">
         <v>67272.25</v>
       </c>
-      <c r="W9" s="4">
+      <c r="Y9" s="4">
         <v>71036.73</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Z9" s="4">
         <v>73236.43</v>
       </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="19">
+      <c r="AA9" s="4">
+        <v>63274.25</v>
+      </c>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="18">
         <v>49022</v>
       </c>
-      <c r="AA9" s="19">
+      <c r="AD9" s="18">
         <v>49588</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:27">
+    <row r="10" customHeight="1" spans="2:30">
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
@@ -7588,45 +7868,52 @@
       <c r="F10" s="4">
         <v>54276.81</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
+      <c r="G10" s="4">
+        <v>56587.09</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
         <v>51542</v>
       </c>
-      <c r="I10" s="19">
+      <c r="J10" s="18">
         <v>51604</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>499</v>
       </c>
-      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="T10" s="1" t="s">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="V10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="1">
+      <c r="W10" s="1">
         <v>198</v>
       </c>
-      <c r="V10" s="4">
+      <c r="X10" s="4">
         <v>36877.03</v>
       </c>
-      <c r="W10" s="4">
+      <c r="Y10" s="4">
         <v>35720.79</v>
       </c>
-      <c r="X10" s="4">
+      <c r="Z10" s="4">
         <v>40013.93</v>
       </c>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-    </row>
-    <row r="11" customHeight="1" spans="2:27">
+      <c r="AA10" s="4">
+        <v>34876.03</v>
+      </c>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:30">
       <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
@@ -7642,51 +7929,60 @@
       <c r="F11" s="4">
         <v>13353</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4">
+        <v>13172</v>
+      </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="19"/>
-      <c r="K11" s="1" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="18"/>
+      <c r="L11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>36</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>8651</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>7988</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <v>8543</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="19">
+      <c r="Q11" s="4">
+        <v>8651</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="18">
         <v>6937</v>
       </c>
-      <c r="R11" s="19">
+      <c r="T11" s="18">
         <v>6937</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U11" s="1">
+      <c r="W11" s="1">
         <v>224</v>
       </c>
-      <c r="V11" s="4">
+      <c r="X11" s="4">
         <v>38943.23</v>
       </c>
-      <c r="W11" s="4">
+      <c r="Y11" s="4">
         <v>40552.27</v>
       </c>
-      <c r="X11" s="4">
+      <c r="Z11" s="4">
         <v>39527.08</v>
       </c>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-    </row>
-    <row r="12" customHeight="1" spans="2:27">
+      <c r="AA11" s="4">
+        <v>38943.23</v>
+      </c>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:30">
       <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
@@ -7704,49 +8000,56 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="19"/>
-      <c r="K12" s="1" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="18"/>
+      <c r="L12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>75</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>19476.54</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>17516.66</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>16393.25</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="19">
+      <c r="Q12" s="4">
+        <v>16688.64</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="18">
         <v>13982</v>
       </c>
-      <c r="R12" s="19">
+      <c r="T12" s="18">
         <v>14229</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U12" s="1">
+      <c r="W12" s="1">
         <v>329</v>
       </c>
-      <c r="V12" s="4">
+      <c r="X12" s="4">
         <v>66131.56</v>
       </c>
-      <c r="W12" s="4">
+      <c r="Y12" s="4">
         <v>70952.95</v>
       </c>
-      <c r="X12" s="4">
+      <c r="Z12" s="4">
         <v>62693.37</v>
       </c>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-    </row>
-    <row r="13" customHeight="1" spans="2:27">
+      <c r="AA12" s="4">
+        <v>66131.56</v>
+      </c>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:30">
       <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
@@ -7763,56 +8066,65 @@
         <v>1953.16</v>
       </c>
       <c r="G13" s="6">
+        <v>1528.5</v>
+      </c>
+      <c r="H13" s="6">
         <v>1690.16</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>1349</v>
       </c>
-      <c r="I13" s="20">
+      <c r="J13" s="19">
         <v>1349</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>112</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>22938.36</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>21753.58</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>20552.91</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="19">
+      <c r="Q13" s="4">
+        <v>22938.45</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="18">
         <v>17787</v>
       </c>
-      <c r="R13" s="19">
+      <c r="T13" s="18">
         <v>17953</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U13" s="1">
+      <c r="W13" s="1">
         <v>751</v>
       </c>
-      <c r="V13" s="4">
+      <c r="X13" s="4">
         <v>209167.52</v>
       </c>
-      <c r="W13" s="4">
+      <c r="Y13" s="4">
         <v>218655.55</v>
       </c>
-      <c r="X13" s="4">
+      <c r="Z13" s="4">
         <v>197177.83</v>
       </c>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-    </row>
-    <row r="14" customHeight="1" spans="2:27">
+      <c r="AA13" s="4">
+        <v>199953.11</v>
+      </c>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:30">
       <c r="B14" s="1" t="s">
         <v>46</v>
       </c>
@@ -7828,59 +8140,68 @@
       <c r="F14" s="4">
         <v>4557.5</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4">
+      <c r="G14" s="4">
+        <v>4184.87</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
         <v>4062</v>
       </c>
-      <c r="I14" s="19">
+      <c r="J14" s="18">
         <v>4127</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>150</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>21433.16</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>24404.94</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>21986.72</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="19">
+      <c r="Q14" s="4">
+        <v>21433.16</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="18">
         <v>20705</v>
       </c>
-      <c r="R14" s="19">
+      <c r="T14" s="18">
         <v>20855</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U14" s="1">
+      <c r="W14" s="1">
         <v>74</v>
       </c>
-      <c r="V14" s="4">
+      <c r="X14" s="4">
         <v>925.25</v>
       </c>
-      <c r="W14" s="4">
+      <c r="Y14" s="4">
         <v>1047.43</v>
       </c>
-      <c r="X14" s="4">
+      <c r="Z14" s="4">
         <v>980.84</v>
       </c>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="19">
+      <c r="AA14" s="4">
+        <v>925.25</v>
+      </c>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="18">
         <v>868</v>
       </c>
-      <c r="AA14" s="19">
+      <c r="AD14" s="18">
         <v>868</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="2:27">
+    <row r="15" customHeight="1" spans="2:30">
       <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
@@ -7896,59 +8217,68 @@
       <c r="F15" s="4">
         <v>5011.93</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4">
+      <c r="G15" s="4">
+        <v>4938.63</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4">
         <v>4480</v>
       </c>
-      <c r="I15" s="19">
+      <c r="J15" s="18">
         <v>4480</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>75</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>17465.62</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>18768.06</v>
       </c>
-      <c r="O15" s="4">
+      <c r="P15" s="4">
         <v>17378.96</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="19">
+      <c r="Q15" s="4">
+        <v>17465.62</v>
+      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="18">
         <v>14648</v>
       </c>
-      <c r="R15" s="19">
+      <c r="T15" s="18">
         <v>14787</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="U15" s="1">
+      <c r="W15" s="1">
         <v>146</v>
       </c>
-      <c r="V15" s="4">
+      <c r="X15" s="4">
         <v>1695.61</v>
       </c>
-      <c r="W15" s="4">
+      <c r="Y15" s="4">
         <v>1944.15</v>
       </c>
-      <c r="X15" s="4">
+      <c r="Z15" s="4">
         <v>1848.69</v>
       </c>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="19">
+      <c r="AA15" s="4">
+        <v>1698.45</v>
+      </c>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="18">
         <v>1669</v>
       </c>
-      <c r="AA15" s="19">
+      <c r="AD15" s="18">
         <v>1670</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="2:27">
+    <row r="16" customHeight="1" spans="2:30">
       <c r="B16" s="5" t="s">
         <v>52</v>
       </c>
@@ -7964,55 +8294,64 @@
       <c r="F16" s="6">
         <v>397</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6">
+      <c r="G16" s="6">
+        <v>395</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6">
         <v>404</v>
       </c>
-      <c r="I16" s="20">
+      <c r="J16" s="19">
         <v>404</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>112</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>17814.47</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O16" s="4">
         <v>20307.55</v>
       </c>
-      <c r="O16" s="4">
+      <c r="P16" s="4">
         <v>19697.26</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="19">
+      <c r="Q16" s="4">
+        <v>17814.47</v>
+      </c>
+      <c r="R16" s="4"/>
+      <c r="S16" s="18">
         <v>17090</v>
       </c>
-      <c r="R16" s="19">
+      <c r="T16" s="18">
         <v>17193</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U16" s="1">
+      <c r="W16" s="1">
         <v>431</v>
       </c>
-      <c r="V16" s="4">
+      <c r="X16" s="4">
         <v>5946.93</v>
       </c>
-      <c r="W16" s="4">
+      <c r="Y16" s="4">
         <v>5694.36</v>
       </c>
-      <c r="X16" s="4">
+      <c r="Z16" s="4">
         <v>5532.36</v>
       </c>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-    </row>
-    <row r="17" customHeight="1" spans="2:27">
+      <c r="AA16" s="4">
+        <v>5581.9</v>
+      </c>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:30">
       <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
@@ -8029,56 +8368,65 @@
         <v>286.55</v>
       </c>
       <c r="G17" s="6">
+        <v>291.59</v>
+      </c>
+      <c r="H17" s="6">
         <v>414.92</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>278</v>
       </c>
-      <c r="I17" s="20">
+      <c r="J17" s="19">
         <v>286</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>150</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>24691.06</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>24802.49</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>25013.39</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="19">
+      <c r="Q17" s="4">
+        <v>24691.06</v>
+      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="18">
         <v>20553</v>
       </c>
-      <c r="R17" s="19">
+      <c r="T17" s="18">
         <v>20851</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U17" s="1">
+      <c r="W17" s="1">
         <v>587</v>
       </c>
-      <c r="V17" s="4">
+      <c r="X17" s="4">
         <v>7364.99</v>
       </c>
-      <c r="W17" s="4">
+      <c r="Y17" s="4">
         <v>7408.05</v>
       </c>
-      <c r="X17" s="4">
+      <c r="Z17" s="4">
         <v>7252.31</v>
       </c>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-    </row>
-    <row r="18" customHeight="1" spans="2:27">
+      <c r="AA17" s="4">
+        <v>7364.99</v>
+      </c>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+    </row>
+    <row r="18" customHeight="1" spans="2:30">
       <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
@@ -8094,55 +8442,64 @@
       <c r="F18" s="4">
         <v>366.84</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
+      <c r="G18" s="4">
+        <v>356.71</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
         <v>345</v>
       </c>
-      <c r="I18" s="19">
+      <c r="J18" s="18">
         <v>348</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>75</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>14926.51</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>18900.41</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>17330.6</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="19">
+      <c r="Q18" s="4">
+        <v>14938.35</v>
+      </c>
+      <c r="R18" s="4"/>
+      <c r="S18" s="18">
         <v>14295</v>
       </c>
-      <c r="R18" s="19">
+      <c r="T18" s="18">
         <v>14419</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U18" s="1">
+      <c r="W18" s="1">
         <v>131</v>
       </c>
-      <c r="V18" s="4">
+      <c r="X18" s="4">
         <v>16096</v>
       </c>
-      <c r="W18" s="4">
+      <c r="Y18" s="4">
         <v>16373</v>
       </c>
-      <c r="X18" s="4">
+      <c r="Z18" s="4">
         <v>16157</v>
       </c>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-    </row>
-    <row r="19" customHeight="1" spans="2:27">
+      <c r="AA18" s="4">
+        <v>15538</v>
+      </c>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:30">
       <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
@@ -8158,55 +8515,64 @@
       <c r="F19" s="4">
         <v>457.56</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
+      <c r="G19" s="4">
+        <v>445.17</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
         <v>398</v>
       </c>
-      <c r="I19" s="19">
+      <c r="J19" s="18">
         <v>398</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>75</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <v>16252.61</v>
-      </c>
-      <c r="N19" s="4">
-        <v>17083.72</v>
       </c>
       <c r="O19" s="4">
         <v>17083.72</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="19">
+      <c r="P19" s="4">
+        <v>17083.72</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>16252.61</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="18">
         <v>13884</v>
       </c>
-      <c r="R19" s="19">
+      <c r="T19" s="18">
         <v>14120</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="U19" s="1">
+      <c r="W19" s="1">
         <v>401</v>
       </c>
-      <c r="V19" s="4">
+      <c r="X19" s="4">
         <v>36872</v>
       </c>
-      <c r="W19" s="4">
+      <c r="Y19" s="4">
         <v>35948</v>
       </c>
-      <c r="X19" s="4">
+      <c r="Z19" s="4">
         <v>36087</v>
       </c>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-    </row>
-    <row r="20" customHeight="1" spans="2:27">
+      <c r="AA19" s="4">
+        <v>36421</v>
+      </c>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+    </row>
+    <row r="20" customHeight="1" spans="2:30">
       <c r="B20" s="5" t="s">
         <v>64</v>
       </c>
@@ -8223,56 +8589,63 @@
         <v>581</v>
       </c>
       <c r="G20" s="6">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H20" s="6">
         <v>492</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="6">
         <v>492</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="J20" s="19">
+        <v>492</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>75</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="4">
         <v>16441.94</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O20" s="4">
         <v>17078.29</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <v>17083.72</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="19">
+      <c r="Q20" s="4">
+        <v>16449.59</v>
+      </c>
+      <c r="R20" s="4"/>
+      <c r="S20" s="18">
         <v>15347</v>
       </c>
-      <c r="R20" s="19">
+      <c r="T20" s="18">
         <v>15347</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U20" s="1">
+      <c r="W20" s="1">
         <v>774</v>
       </c>
-      <c r="V20" s="4">
+      <c r="X20" s="4">
         <v>70582</v>
       </c>
-      <c r="W20" s="4">
+      <c r="Y20" s="4">
         <v>70198</v>
       </c>
-      <c r="X20" s="4">
+      <c r="Z20" s="4">
         <v>70536</v>
       </c>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" spans="2:27">
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" spans="2:30">
       <c r="B21" s="1" t="s">
         <v>67</v>
       </c>
@@ -8288,59 +8661,68 @@
       <c r="F21" s="4">
         <v>1882.37</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4">
+      <c r="G21" s="4">
+        <v>1741.25</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4">
         <v>1671</v>
       </c>
-      <c r="I21" s="19">
+      <c r="J21" s="18">
         <v>1671</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>78</v>
       </c>
-      <c r="M21" s="4">
+      <c r="N21" s="4">
         <v>9054.34</v>
       </c>
-      <c r="N21" s="4">
+      <c r="O21" s="4">
         <v>9002.37</v>
       </c>
-      <c r="O21" s="4">
+      <c r="P21" s="4">
         <v>9397.47</v>
       </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="19">
+      <c r="Q21" s="4">
+        <v>8308.61</v>
+      </c>
+      <c r="R21" s="4"/>
+      <c r="S21" s="18">
         <v>8412</v>
       </c>
-      <c r="R21" s="19">
+      <c r="T21" s="18">
         <v>8412</v>
       </c>
-      <c r="T21" s="21" t="s">
+      <c r="V21" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="U21" s="21">
+      <c r="W21" s="21">
         <v>52</v>
       </c>
-      <c r="V21" s="7">
+      <c r="X21" s="7">
         <v>543.95</v>
       </c>
-      <c r="W21" s="7">
+      <c r="Y21" s="7">
         <v>437.11</v>
       </c>
-      <c r="X21" s="7">
+      <c r="Z21" s="7">
         <v>524.62</v>
       </c>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="19">
+      <c r="AA21" s="7">
+        <v>543.95</v>
+      </c>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="18">
         <v>437</v>
       </c>
-      <c r="AA21" s="19">
+      <c r="AD21" s="18">
         <v>446</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" spans="2:27">
+    <row r="22" ht="15.75" customHeight="1" spans="2:30">
       <c r="B22" s="5" t="s">
         <v>70</v>
       </c>
@@ -8357,60 +8739,69 @@
         <v>661</v>
       </c>
       <c r="G22" s="6">
+        <v>750</v>
+      </c>
+      <c r="H22" s="6">
         <v>810</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I22" s="6">
         <v>640</v>
       </c>
-      <c r="I22" s="20">
+      <c r="J22" s="19">
         <v>640</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>238</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="4">
         <v>33307.81</v>
       </c>
-      <c r="N22" s="4">
+      <c r="O22" s="4">
         <v>34803.33</v>
       </c>
-      <c r="O22" s="4">
+      <c r="P22" s="4">
         <v>35374.47</v>
       </c>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="19">
+      <c r="Q22" s="4">
+        <v>31028.16</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="18">
         <v>27963</v>
       </c>
-      <c r="R22" s="19">
+      <c r="T22" s="18">
         <v>28051</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="V22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="U22" s="1">
+      <c r="W22" s="1">
         <v>31</v>
       </c>
-      <c r="V22" s="4">
+      <c r="X22" s="4">
         <v>770</v>
       </c>
-      <c r="W22" s="4">
+      <c r="Y22" s="4">
         <v>871</v>
       </c>
-      <c r="X22" s="4">
+      <c r="Z22" s="4">
         <v>757</v>
       </c>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="19">
+      <c r="AA22" s="4">
+        <v>696</v>
+      </c>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="18">
         <v>281</v>
       </c>
-      <c r="AA22" s="19">
+      <c r="AD22" s="18">
         <v>281</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" spans="2:27">
+    <row r="23" ht="15.75" customHeight="1" spans="2:30">
       <c r="B23" s="5" t="s">
         <v>73</v>
       </c>
@@ -8427,50 +8818,57 @@
         <v>1351</v>
       </c>
       <c r="G23" s="6">
+        <v>1309</v>
+      </c>
+      <c r="H23" s="6">
         <v>1377</v>
       </c>
-      <c r="H23" s="6">
+      <c r="I23" s="6">
         <v>1276</v>
       </c>
-      <c r="I23" s="20">
+      <c r="J23" s="19">
         <v>1276</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>1034</v>
       </c>
-      <c r="M23" s="4">
+      <c r="N23" s="4">
         <v>47140.73</v>
       </c>
-      <c r="N23" s="4">
+      <c r="O23" s="4">
         <v>45668.23</v>
       </c>
-      <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="T23" s="1" t="s">
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="V23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="U23" s="1">
+      <c r="W23" s="1">
         <v>168</v>
       </c>
-      <c r="V23" s="4">
+      <c r="X23" s="4">
         <v>89500</v>
       </c>
-      <c r="W23" s="4">
+      <c r="Y23" s="4">
         <v>117345.37</v>
       </c>
-      <c r="X23" s="4">
+      <c r="Z23" s="4">
         <v>87227.92</v>
       </c>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1" spans="2:27">
+      <c r="AA23" s="4">
+        <v>89500</v>
+      </c>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" spans="2:30">
       <c r="B24" s="5" t="s">
         <v>76</v>
       </c>
@@ -8487,189 +8885,212 @@
         <v>802</v>
       </c>
       <c r="G24" s="6">
+        <v>788</v>
+      </c>
+      <c r="H24" s="6">
         <v>764</v>
       </c>
-      <c r="H24" s="6">
+      <c r="I24" s="6">
         <v>763</v>
       </c>
-      <c r="I24" s="20">
+      <c r="J24" s="19">
         <v>763</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>420</v>
       </c>
-      <c r="M24" s="4">
+      <c r="N24" s="4">
         <v>2332</v>
       </c>
-      <c r="N24" s="4">
+      <c r="O24" s="4">
         <v>2150</v>
       </c>
-      <c r="O24" s="4">
+      <c r="P24" s="4">
         <v>2155</v>
       </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="T24" s="1" t="s">
+      <c r="Q24" s="4">
+        <v>2233</v>
+      </c>
+      <c r="R24" s="4"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="V24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="U24" s="1">
+      <c r="W24" s="1">
         <v>168</v>
       </c>
-      <c r="V24" s="4">
+      <c r="X24" s="4">
         <v>2917.62</v>
       </c>
-      <c r="W24" s="4">
+      <c r="Y24" s="4">
         <v>3247.49</v>
       </c>
-      <c r="X24" s="4">
+      <c r="Z24" s="4">
         <v>2915.74</v>
       </c>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1" spans="8:27">
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="T25" s="5" t="s">
+      <c r="AA24" s="4">
+        <v>2917.62</v>
+      </c>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" spans="9:30">
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="V25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="U25" s="5">
+      <c r="W25" s="5">
         <v>12</v>
       </c>
-      <c r="V25" s="6">
+      <c r="X25" s="6">
         <v>2785.62</v>
       </c>
-      <c r="W25" s="6">
+      <c r="Y25" s="6">
         <v>3035.89</v>
       </c>
-      <c r="X25" s="6">
+      <c r="Z25" s="6">
         <v>3035.89</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="AA25" s="6">
+        <v>2777.32</v>
+      </c>
+      <c r="AB25" s="6">
         <v>2980.94</v>
       </c>
-      <c r="Z25" s="20">
+      <c r="AC25" s="19">
         <v>2704</v>
       </c>
-      <c r="AA25" s="20">
+      <c r="AD25" s="19">
         <v>2704</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" spans="2:27">
+    <row r="26" ht="15.75" customHeight="1" spans="2:30">
       <c r="B26" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="T26" s="5" t="s">
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="V26" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="U26" s="5">
+      <c r="W26" s="5">
         <v>16</v>
       </c>
-      <c r="V26" s="6">
+      <c r="X26" s="6">
         <v>3118.04</v>
       </c>
-      <c r="W26" s="6">
+      <c r="Y26" s="6">
         <v>2959.96</v>
       </c>
-      <c r="X26" s="6">
+      <c r="Z26" s="6">
         <v>2959.96</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="AA26" s="6">
+        <v>2875.88</v>
+      </c>
+      <c r="AB26" s="6">
         <v>2806.25</v>
       </c>
-      <c r="Z26" s="20">
+      <c r="AC26" s="19">
         <v>2618</v>
       </c>
-      <c r="AA26" s="20">
+      <c r="AD26" s="19">
         <v>2618</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" spans="2:24">
-      <c r="B27" s="11" t="s">
+    <row r="27" ht="15.75" customHeight="1" spans="2:27">
+      <c r="B27" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="10"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1" spans="2:6">
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1" spans="2:6">
-      <c r="B29" s="17"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" spans="2:7">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1" spans="2:7">
+      <c r="B29" s="16"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="B34" s="17"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="B35" s="17"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="B37" s="17"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="17"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
@@ -9635,9 +10056,9 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="X1:AD1"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>

--- a/Comparaçoes/Heurísticas.xlsx
+++ b/Comparaçoes/Heurísticas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12885" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="13725" windowHeight="12885" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="K = n|4" sheetId="1" r:id="rId1"/>
@@ -305,10 +305,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -324,11 +324,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,22 +339,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,9 +368,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,40 +392,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,7 +423,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -454,15 +431,38 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,12 +475,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -490,7 +496,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -502,79 +532,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,7 +556,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,7 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,74 +710,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -725,6 +755,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,21 +862,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -843,31 +873,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -914,155 +929,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1074,26 +1119,32 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1102,40 +1153,76 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1454,8 +1541,8 @@
   <sheetPr/>
   <dimension ref="B1:AD1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -1501,7 +1588,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="8"/>
+      <c r="J1" s="10"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
@@ -1514,7 +1601,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="8"/>
+      <c r="T1" s="10"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
         <v>0</v>
@@ -1527,7 +1614,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
-      <c r="AD1" s="8"/>
+      <c r="AD1" s="10"/>
     </row>
     <row r="2" customHeight="1" spans="2:30">
       <c r="B2" s="1" t="s">
@@ -1619,23 +1706,23 @@
       <c r="C3" s="1">
         <v>70</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="31">
         <v>632.3</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="31">
         <v>746.64</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="31">
         <v>746.64</v>
       </c>
-      <c r="G3" s="23">
-        <v>623.35</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23">
+      <c r="G3" s="32">
+        <v>862.87</v>
+      </c>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31">
         <v>606</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="39">
         <v>606</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -1644,23 +1731,23 @@
       <c r="M3" s="1">
         <v>12</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="31">
         <v>668</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="31">
         <v>558</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="31">
         <v>582</v>
       </c>
-      <c r="Q3" s="23">
-        <v>668</v>
-      </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="27">
+      <c r="Q3" s="32">
+        <v>590</v>
+      </c>
+      <c r="R3" s="31"/>
+      <c r="S3" s="39">
         <v>558</v>
       </c>
-      <c r="T3" s="27">
+      <c r="T3" s="39">
         <v>558</v>
       </c>
       <c r="V3" s="1" t="s">
@@ -1678,14 +1765,14 @@
       <c r="Z3" s="4">
         <v>25126.84</v>
       </c>
-      <c r="AA3" s="4">
-        <v>25354.78</v>
+      <c r="AA3" s="43">
+        <v>28078.94</v>
       </c>
       <c r="AB3" s="4"/>
-      <c r="AC3" s="18">
+      <c r="AC3" s="20">
         <v>17728</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AD3" s="20">
         <v>17728</v>
       </c>
     </row>
@@ -1696,36 +1783,36 @@
       <c r="C4" s="1">
         <v>133</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="27"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="39"/>
       <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="1">
         <v>24</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="31">
         <v>11086.43</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="31">
         <v>9934.05</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="31">
         <v>10253.47</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="32">
         <v>9467.2</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="27">
+      <c r="R4" s="31"/>
+      <c r="S4" s="39">
         <v>7704</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="39">
         <v>7704</v>
       </c>
       <c r="V4" s="1" t="s">
@@ -1743,62 +1830,62 @@
       <c r="Z4" s="4">
         <v>7936.1</v>
       </c>
-      <c r="AA4" s="4">
-        <v>7277.05</v>
+      <c r="AA4" s="43">
+        <v>7504.68</v>
       </c>
       <c r="AB4" s="4"/>
-      <c r="AC4" s="18">
+      <c r="AC4" s="20">
         <v>6981</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AD4" s="20">
         <v>6981</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:30">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>12</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="33">
         <v>1409</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="33">
         <v>1409</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="33">
         <v>1409</v>
       </c>
-      <c r="G5" s="24">
-        <v>1243</v>
-      </c>
-      <c r="H5" s="24">
+      <c r="G5" s="34">
+        <v>1193</v>
+      </c>
+      <c r="H5" s="33">
         <v>1239</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="28"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="40"/>
       <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="1">
         <v>30</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="31">
         <v>1411</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="31">
         <v>1422</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="31">
         <v>1356</v>
       </c>
-      <c r="Q5" s="23">
-        <v>1411</v>
-      </c>
-      <c r="R5" s="23"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
+      <c r="Q5" s="32">
+        <v>1790</v>
+      </c>
+      <c r="R5" s="31"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
       <c r="V5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1814,14 +1901,14 @@
       <c r="Z5" s="4">
         <v>14065.44</v>
       </c>
-      <c r="AA5" s="4">
-        <v>10765.78</v>
+      <c r="AA5" s="43">
+        <v>10773.88</v>
       </c>
       <c r="AB5" s="4"/>
-      <c r="AC5" s="18">
+      <c r="AC5" s="20">
         <v>9596</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AD5" s="20">
         <v>9596</v>
       </c>
     </row>
@@ -1832,36 +1919,36 @@
       <c r="C6" s="1">
         <v>133</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="31">
         <v>5712</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="31">
         <v>4475</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="31">
         <v>4698</v>
       </c>
-      <c r="G6" s="23">
-        <v>5712</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="27"/>
+      <c r="G6" s="32">
+        <v>6959</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="39"/>
       <c r="L6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M6" s="1">
         <v>34</v>
       </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="27">
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="39">
         <v>14784</v>
       </c>
-      <c r="T6" s="27">
+      <c r="T6" s="39">
         <v>14784</v>
       </c>
       <c r="V6" s="1" t="s">
@@ -1879,43 +1966,43 @@
       <c r="Z6" s="4">
         <v>23232.62</v>
       </c>
-      <c r="AA6" s="4">
-        <v>22828.74</v>
+      <c r="AA6" s="43">
+        <v>24290.25</v>
       </c>
       <c r="AB6" s="4"/>
-      <c r="AC6" s="18">
+      <c r="AC6" s="20">
         <v>20928</v>
       </c>
-      <c r="AD6" s="18">
+      <c r="AD6" s="20">
         <v>20928</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:30">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>7</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="33">
         <v>292</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="33">
         <v>292</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="33">
         <v>292</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="34">
         <v>285</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="33">
         <v>246</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="33">
         <v>246</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="40">
         <v>246</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -1924,15 +2011,15 @@
       <c r="M7" s="1">
         <v>50</v>
       </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="27">
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="39">
         <v>6977</v>
       </c>
-      <c r="T7" s="27">
+      <c r="T7" s="39">
         <v>6977</v>
       </c>
       <c r="V7" s="1" t="s">
@@ -1950,43 +2037,43 @@
       <c r="Z7" s="4">
         <v>11559.29</v>
       </c>
-      <c r="AA7" s="4">
-        <v>10893.75</v>
+      <c r="AA7" s="43">
+        <v>12002.27</v>
       </c>
       <c r="AB7" s="4"/>
-      <c r="AC7" s="18">
+      <c r="AC7" s="20">
         <v>10743</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AD7" s="20">
         <v>10743</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:30">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>7</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="33">
         <v>352</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="33">
         <v>352</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="33">
         <v>352</v>
       </c>
-      <c r="G8" s="24">
-        <v>398</v>
-      </c>
-      <c r="H8" s="25">
+      <c r="G8" s="34">
+        <v>378</v>
+      </c>
+      <c r="H8" s="35">
         <v>282</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="33">
         <v>282</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="40">
         <v>282</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -1995,15 +2082,15 @@
       <c r="M8" s="1">
         <v>57</v>
       </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="27">
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="39">
         <v>18471</v>
       </c>
-      <c r="T8" s="27">
+      <c r="T8" s="39">
         <v>18471</v>
       </c>
       <c r="V8" s="1" t="s">
@@ -2021,43 +2108,43 @@
       <c r="Z8" s="4">
         <v>17072</v>
       </c>
-      <c r="AA8" s="4">
-        <v>17072</v>
+      <c r="AA8" s="43">
+        <v>14653.02</v>
       </c>
       <c r="AB8" s="4"/>
-      <c r="AC8" s="18">
+      <c r="AC8" s="20">
         <v>15403</v>
       </c>
-      <c r="AD8" s="18">
+      <c r="AD8" s="20">
         <v>15403</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:30">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>13</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="33">
         <v>604.66</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="33">
         <v>604.66</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="33">
         <v>604.66</v>
       </c>
-      <c r="G9" s="24">
-        <v>559.76</v>
-      </c>
-      <c r="H9" s="24">
+      <c r="G9" s="34">
+        <v>575.87</v>
+      </c>
+      <c r="H9" s="33">
         <v>480.480334457013</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="33">
         <v>489</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="40">
         <v>489</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -2066,13 +2153,13 @@
       <c r="M9" s="1">
         <v>107</v>
       </c>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
       <c r="V9" s="1" t="s">
         <v>33</v>
       </c>
@@ -2088,14 +2175,14 @@
       <c r="Z9" s="4">
         <v>23494.84</v>
       </c>
-      <c r="AA9" s="4">
-        <v>22868.63</v>
+      <c r="AA9" s="43">
+        <v>24798.56</v>
       </c>
       <c r="AB9" s="4"/>
-      <c r="AC9" s="18">
+      <c r="AC9" s="20">
         <v>18594</v>
       </c>
-      <c r="AD9" s="18">
+      <c r="AD9" s="20">
         <v>18645</v>
       </c>
     </row>
@@ -2106,23 +2193,23 @@
       <c r="C10" s="1">
         <v>31</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="31">
         <v>14342.78</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="31">
         <v>11706.58</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="31">
         <v>13031.31</v>
       </c>
-      <c r="G10" s="23">
-        <v>14342.78</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23">
+      <c r="G10" s="32">
+        <v>14467.58</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31">
         <v>9840</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="39">
         <v>10132</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -2131,13 +2218,13 @@
       <c r="M10" s="1">
         <v>166</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
       <c r="V10" s="1" t="s">
         <v>36</v>
       </c>
@@ -2153,12 +2240,12 @@
       <c r="Z10" s="4">
         <v>8100</v>
       </c>
-      <c r="AA10" s="4">
-        <v>8100</v>
+      <c r="AA10" s="43">
+        <v>8198.42</v>
       </c>
       <c r="AB10" s="4"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
     </row>
     <row r="11" customHeight="1" spans="2:30">
       <c r="B11" s="1" t="s">
@@ -2167,44 +2254,44 @@
       <c r="C11" s="1">
         <v>14</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="31">
         <v>6116</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="31">
         <v>4607</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="31">
         <v>4607</v>
       </c>
-      <c r="G11" s="23">
-        <v>5065</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="27"/>
+      <c r="G11" s="32">
+        <v>4530</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="39"/>
       <c r="L11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M11" s="1">
         <v>12</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="31">
         <v>3454</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="31">
         <v>3155</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="31">
         <v>3155</v>
       </c>
-      <c r="Q11" s="23">
-        <v>3484</v>
-      </c>
-      <c r="R11" s="23"/>
-      <c r="S11" s="27">
+      <c r="Q11" s="32">
+        <v>3467</v>
+      </c>
+      <c r="R11" s="31"/>
+      <c r="S11" s="39">
         <v>2094</v>
       </c>
-      <c r="T11" s="27">
+      <c r="T11" s="39">
         <v>2094</v>
       </c>
       <c r="V11" s="1" t="s">
@@ -2222,56 +2309,56 @@
       <c r="Z11" s="4">
         <v>10604.72</v>
       </c>
-      <c r="AA11" s="4">
-        <v>11839.1</v>
+      <c r="AA11" s="43">
+        <v>12899.09</v>
       </c>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
     </row>
     <row r="12" customHeight="1" spans="2:30">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="24">
         <v>45</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="36">
         <v>21120</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="36">
         <v>480</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="36">
         <v>820</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="27"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="39"/>
       <c r="L12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M12" s="1">
         <v>25</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="31">
         <v>5157.68</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="31">
         <v>4872.02</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="31">
         <v>4788.84</v>
       </c>
-      <c r="Q12" s="23">
-        <v>5144.71</v>
-      </c>
-      <c r="R12" s="23"/>
-      <c r="S12" s="27">
+      <c r="Q12" s="32">
+        <v>5274.63</v>
+      </c>
+      <c r="R12" s="31"/>
+      <c r="S12" s="39">
         <v>4369</v>
       </c>
-      <c r="T12" s="27">
+      <c r="T12" s="39">
         <v>4369</v>
       </c>
       <c r="V12" s="1" t="s">
@@ -2289,39 +2376,39 @@
       <c r="Z12" s="4">
         <v>22455.5</v>
       </c>
-      <c r="AA12" s="4">
-        <v>22600.96</v>
+      <c r="AA12" s="43">
+        <v>27145.63</v>
       </c>
       <c r="AB12" s="4"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
     </row>
     <row r="13" customHeight="1" spans="2:30">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>3</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="33">
         <v>249.88</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="33">
         <v>249.88</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="33">
         <v>249.88</v>
       </c>
-      <c r="G13" s="24">
-        <v>249.88</v>
-      </c>
-      <c r="H13" s="24">
+      <c r="G13" s="34">
+        <v>308.18</v>
+      </c>
+      <c r="H13" s="33">
         <v>224.88</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="33">
         <v>151</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="40">
         <v>151</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -2330,23 +2417,23 @@
       <c r="M13" s="1">
         <v>37</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="31">
         <v>6644.96</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="31">
         <v>7646.9</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="31">
         <v>7646.9</v>
       </c>
-      <c r="Q13" s="23">
-        <v>6644.99</v>
-      </c>
-      <c r="R13" s="23"/>
-      <c r="S13" s="27">
+      <c r="Q13" s="32">
+        <v>6724.8</v>
+      </c>
+      <c r="R13" s="31"/>
+      <c r="S13" s="39">
         <v>5286</v>
       </c>
-      <c r="T13" s="27">
+      <c r="T13" s="39">
         <v>5286</v>
       </c>
       <c r="V13" s="1" t="s">
@@ -2364,12 +2451,12 @@
       <c r="Z13" s="4">
         <v>66904.56</v>
       </c>
-      <c r="AA13" s="4">
-        <v>68377.15</v>
+      <c r="AA13" s="43">
+        <v>83408.29</v>
       </c>
       <c r="AB13" s="4"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
     </row>
     <row r="14" customHeight="1" spans="2:30">
       <c r="B14" s="1" t="s">
@@ -2378,23 +2465,23 @@
       <c r="C14" s="1">
         <v>32</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="31">
         <v>1211.59</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="31">
         <v>1230.99</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="31">
         <v>1230.99</v>
       </c>
-      <c r="G14" s="23">
-        <v>1211.84</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23">
+      <c r="G14" s="32">
+        <v>1380.72</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31">
         <v>1116</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="39">
         <v>1119</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -2403,23 +2490,23 @@
       <c r="M14" s="1">
         <v>50</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="31">
         <v>6870.92</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="31">
         <v>6899.46</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14" s="31">
         <v>6927.27</v>
       </c>
-      <c r="Q14" s="23">
-        <v>6876.76</v>
-      </c>
-      <c r="R14" s="23"/>
-      <c r="S14" s="27">
+      <c r="Q14" s="32">
+        <v>9243.01</v>
+      </c>
+      <c r="R14" s="31"/>
+      <c r="S14" s="39">
         <v>6138</v>
       </c>
-      <c r="T14" s="27">
+      <c r="T14" s="39">
         <v>6138</v>
       </c>
       <c r="V14" s="1" t="s">
@@ -2437,14 +2524,14 @@
       <c r="Z14" s="4">
         <v>292.55</v>
       </c>
-      <c r="AA14" s="4">
-        <v>277.23</v>
+      <c r="AA14" s="43">
+        <v>366.6</v>
       </c>
       <c r="AB14" s="4"/>
-      <c r="AC14" s="18">
+      <c r="AC14" s="20">
         <v>260</v>
       </c>
-      <c r="AD14" s="18">
+      <c r="AD14" s="20">
         <v>260</v>
       </c>
     </row>
@@ -2455,23 +2542,23 @@
       <c r="C15" s="1">
         <v>37</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="31">
         <v>1304.57</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="31">
         <v>1400.68</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="31">
         <v>1245.96</v>
       </c>
-      <c r="G15" s="23">
-        <v>1313.63</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23">
+      <c r="G15" s="32">
+        <v>1748.47</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31">
         <v>1204</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="39">
         <v>1204</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -2480,23 +2567,23 @@
       <c r="M15" s="1">
         <v>25</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="31">
         <v>5552.01</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="31">
         <v>4469.81</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="31">
         <v>5429.03</v>
       </c>
-      <c r="Q15" s="23">
-        <v>5552.01</v>
-      </c>
-      <c r="R15" s="23"/>
-      <c r="S15" s="27">
+      <c r="Q15" s="32">
+        <v>6142.49</v>
+      </c>
+      <c r="R15" s="31"/>
+      <c r="S15" s="39">
         <v>4014</v>
       </c>
-      <c r="T15" s="27">
+      <c r="T15" s="39">
         <v>4014</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -2514,43 +2601,43 @@
       <c r="Z15" s="4">
         <v>546.13</v>
       </c>
-      <c r="AA15" s="4">
-        <v>567.37</v>
+      <c r="AA15" s="43">
+        <v>626.49</v>
       </c>
       <c r="AB15" s="4"/>
-      <c r="AC15" s="18">
+      <c r="AC15" s="20">
         <v>538</v>
       </c>
-      <c r="AD15" s="18">
+      <c r="AD15" s="20">
         <v>538</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:30">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>10</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="33">
         <v>103</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="33">
         <v>103</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="37">
         <v>103</v>
       </c>
-      <c r="G16" s="24">
-        <v>108</v>
-      </c>
-      <c r="H16" s="24">
+      <c r="G16" s="34">
+        <v>130</v>
+      </c>
+      <c r="H16" s="38">
         <v>99</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="33">
         <v>99</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="40">
         <v>99</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -2559,23 +2646,23 @@
       <c r="M16" s="1">
         <v>37</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="31">
         <v>5199.62</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="31">
         <v>5533.11</v>
       </c>
-      <c r="P16" s="23">
+      <c r="P16" s="31">
         <v>5533.11</v>
       </c>
-      <c r="Q16" s="23">
-        <v>5199.62</v>
-      </c>
-      <c r="R16" s="23"/>
-      <c r="S16" s="27">
+      <c r="Q16" s="32">
+        <v>5488.4</v>
+      </c>
+      <c r="R16" s="31"/>
+      <c r="S16" s="39">
         <v>5119</v>
       </c>
-      <c r="T16" s="27">
+      <c r="T16" s="39">
         <v>5119</v>
       </c>
       <c r="V16" s="1" t="s">
@@ -2593,39 +2680,39 @@
       <c r="Z16" s="4">
         <v>1726.09</v>
       </c>
-      <c r="AA16" s="4">
-        <v>1745</v>
+      <c r="AA16" s="43">
+        <v>1838.06</v>
       </c>
       <c r="AB16" s="4"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
     </row>
     <row r="17" customHeight="1" spans="2:30">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>12</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="33">
         <v>77.04</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="33">
         <v>77.04</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="37">
         <v>77.04</v>
       </c>
-      <c r="G17" s="24">
-        <v>82.56</v>
-      </c>
-      <c r="H17" s="24">
+      <c r="G17" s="34">
+        <v>81.96</v>
+      </c>
+      <c r="H17" s="38">
         <v>76.72</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="33">
         <v>71</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="40">
         <v>71</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -2634,23 +2721,23 @@
       <c r="M17" s="1">
         <v>50</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="31">
         <v>6907.12</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="31">
         <v>8397.45</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="31">
         <v>7306.16</v>
       </c>
-      <c r="Q17" s="23">
-        <v>6944.29</v>
-      </c>
-      <c r="R17" s="23"/>
-      <c r="S17" s="27">
+      <c r="Q17" s="32">
+        <v>6956.31</v>
+      </c>
+      <c r="R17" s="31"/>
+      <c r="S17" s="39">
         <v>5890</v>
       </c>
-      <c r="T17" s="27">
+      <c r="T17" s="39">
         <v>5890</v>
       </c>
       <c r="V17" s="1" t="s">
@@ -2668,12 +2755,12 @@
       <c r="Z17" s="4">
         <v>2280.15</v>
       </c>
-      <c r="AA17" s="4">
-        <v>2230.53</v>
+      <c r="AA17" s="43">
+        <v>2464.03</v>
       </c>
       <c r="AB17" s="4"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
     </row>
     <row r="18" customHeight="1" spans="2:30">
       <c r="B18" s="1" t="s">
@@ -2682,23 +2769,23 @@
       <c r="C18" s="1">
         <v>19</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="31">
         <v>97.38</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="31">
         <v>99.45</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="31">
         <v>99.45</v>
       </c>
-      <c r="G18" s="23">
-        <v>97.53</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23">
+      <c r="G18" s="32">
+        <v>114.81</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31">
         <v>99</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="39">
         <v>99</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -2707,23 +2794,23 @@
       <c r="M18" s="1">
         <v>25</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="31">
         <v>4346.52</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O18" s="31">
         <v>6123.26</v>
       </c>
-      <c r="P18" s="23">
+      <c r="P18" s="31">
         <v>4346.52</v>
       </c>
-      <c r="Q18" s="23">
-        <v>4348.73</v>
-      </c>
-      <c r="R18" s="23"/>
-      <c r="S18" s="27">
+      <c r="Q18" s="32">
+        <v>5038.15</v>
+      </c>
+      <c r="R18" s="31"/>
+      <c r="S18" s="39">
         <v>4293</v>
       </c>
-      <c r="T18" s="27">
+      <c r="T18" s="39">
         <v>4293</v>
       </c>
       <c r="V18" s="1" t="s">
@@ -2741,12 +2828,12 @@
       <c r="Z18" s="4">
         <v>5420</v>
       </c>
-      <c r="AA18" s="4">
-        <v>5022</v>
+      <c r="AA18" s="43">
+        <v>5214</v>
       </c>
       <c r="AB18" s="4"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
     </row>
     <row r="19" customHeight="1" spans="2:30">
       <c r="B19" s="1" t="s">
@@ -2755,23 +2842,23 @@
       <c r="C19" s="1">
         <v>25</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="31">
         <v>150.96</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="31">
         <v>132.75</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="31">
         <v>139.62</v>
       </c>
-      <c r="G19" s="23">
-        <v>150.96</v>
-      </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23">
+      <c r="G19" s="32">
+        <v>142.41</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31">
         <v>101</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="39">
         <v>101</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -2780,23 +2867,23 @@
       <c r="M19" s="1">
         <v>25</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="31">
         <v>5246.28</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="31">
         <v>5246.28</v>
       </c>
-      <c r="P19" s="23">
+      <c r="P19" s="31">
         <v>5246.28</v>
       </c>
-      <c r="Q19" s="23">
-        <v>5269.14</v>
-      </c>
-      <c r="R19" s="23"/>
-      <c r="S19" s="27">
+      <c r="Q19" s="32">
+        <v>5514.75</v>
+      </c>
+      <c r="R19" s="31"/>
+      <c r="S19" s="39">
         <v>3991</v>
       </c>
-      <c r="T19" s="27">
+      <c r="T19" s="39">
         <v>3991</v>
       </c>
       <c r="V19" s="1" t="s">
@@ -2814,39 +2901,39 @@
       <c r="Z19" s="4">
         <v>12196</v>
       </c>
-      <c r="AA19" s="4">
-        <v>12085</v>
+      <c r="AA19" s="43">
+        <v>12061</v>
       </c>
       <c r="AB19" s="4"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
     </row>
     <row r="20" customHeight="1" spans="2:30">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="6">
         <v>6</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="33">
         <v>147</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="33">
         <v>147</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="33">
         <v>147</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="34">
+        <v>148</v>
+      </c>
+      <c r="H20" s="33">
         <v>145</v>
       </c>
-      <c r="H20" s="24">
+      <c r="I20" s="33">
         <v>145</v>
       </c>
-      <c r="I20" s="24">
-        <v>145</v>
-      </c>
-      <c r="J20" s="28">
+      <c r="J20" s="40">
         <v>145</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -2855,23 +2942,23 @@
       <c r="M20" s="1">
         <v>25</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="31">
         <v>4123.35</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="31">
         <v>3842.76</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="31">
         <v>3955.74</v>
       </c>
-      <c r="Q20" s="23">
-        <v>4123.35</v>
-      </c>
-      <c r="R20" s="23"/>
-      <c r="S20" s="27">
+      <c r="Q20" s="32">
+        <v>4039.52</v>
+      </c>
+      <c r="R20" s="31"/>
+      <c r="S20" s="39">
         <v>3663</v>
       </c>
-      <c r="T20" s="27">
+      <c r="T20" s="39">
         <v>3663</v>
       </c>
       <c r="V20" s="1" t="s">
@@ -2889,12 +2976,12 @@
       <c r="Z20" s="4">
         <v>22414</v>
       </c>
-      <c r="AA20" s="4">
-        <v>22289</v>
+      <c r="AA20" s="43">
+        <v>22462</v>
       </c>
       <c r="AB20" s="4"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="2:30">
       <c r="B21" s="1" t="s">
@@ -2903,23 +2990,23 @@
       <c r="C21" s="1">
         <v>65</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="31">
         <v>562.04</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="31">
         <v>666.2</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="31">
         <v>666.2</v>
       </c>
-      <c r="G21" s="23">
-        <v>563.04</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23">
+      <c r="G21" s="32">
+        <v>616.4</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31">
         <v>509</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="39">
         <v>509</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -2928,77 +3015,77 @@
       <c r="M21" s="1">
         <v>26</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="31">
         <v>2149.82</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O21" s="31">
         <v>2067.87</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P21" s="31">
         <v>2002.98</v>
       </c>
-      <c r="Q21" s="23">
-        <v>2151.78</v>
-      </c>
-      <c r="R21" s="23"/>
-      <c r="S21" s="27">
+      <c r="Q21" s="32">
+        <v>1978.97</v>
+      </c>
+      <c r="R21" s="31"/>
+      <c r="S21" s="39">
         <v>2108</v>
       </c>
-      <c r="T21" s="27">
+      <c r="T21" s="39">
         <v>2108</v>
       </c>
-      <c r="V21" s="21" t="s">
+      <c r="V21" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="W21" s="21">
+      <c r="W21" s="24">
         <v>17</v>
       </c>
-      <c r="X21" s="7">
+      <c r="X21" s="9">
         <v>130.04</v>
       </c>
-      <c r="Y21" s="7">
+      <c r="Y21" s="9">
         <v>128.07</v>
       </c>
-      <c r="Z21" s="7">
+      <c r="Z21" s="9">
         <v>128.07</v>
       </c>
-      <c r="AA21" s="7">
-        <v>102.42</v>
-      </c>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="18">
+      <c r="AA21" s="43">
+        <v>103.31</v>
+      </c>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="20">
         <v>110</v>
       </c>
-      <c r="AD21" s="18">
+      <c r="AD21" s="20">
         <v>114</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="2:30">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="6">
         <v>4</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="33">
         <v>174</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="33">
         <v>154</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="33">
         <v>154</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="34">
         <v>154</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="33">
         <v>143</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="33">
         <v>143</v>
       </c>
-      <c r="J22" s="28">
+      <c r="J22" s="40">
         <v>143</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -3007,23 +3094,23 @@
       <c r="M22" s="1">
         <v>79</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="31">
         <v>9156.66</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="31">
         <v>9230.75</v>
       </c>
-      <c r="P22" s="23">
+      <c r="P22" s="31">
         <v>9553.4</v>
       </c>
-      <c r="Q22" s="23">
-        <v>9156.66</v>
-      </c>
-      <c r="R22" s="23"/>
-      <c r="S22" s="27">
+      <c r="Q22" s="32">
+        <v>9113.74</v>
+      </c>
+      <c r="R22" s="31"/>
+      <c r="S22" s="39">
         <v>8705</v>
       </c>
-      <c r="T22" s="27">
+      <c r="T22" s="39">
         <v>8705</v>
       </c>
       <c r="V22" s="1" t="s">
@@ -3041,43 +3128,43 @@
       <c r="Z22" s="4">
         <v>146</v>
       </c>
-      <c r="AA22" s="4">
+      <c r="AA22" s="43">
         <v>152</v>
       </c>
       <c r="AB22" s="4"/>
-      <c r="AC22" s="18">
+      <c r="AC22" s="20">
         <v>66</v>
       </c>
-      <c r="AD22" s="18">
+      <c r="AD22" s="20">
         <v>66</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="2:30">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="6">
         <v>5</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="33">
         <v>258</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="33">
         <v>248</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="33">
         <v>248</v>
       </c>
-      <c r="G23" s="24">
-        <v>233</v>
-      </c>
-      <c r="H23" s="24">
+      <c r="G23" s="34">
+        <v>202</v>
+      </c>
+      <c r="H23" s="33">
         <v>181</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="33">
         <v>178</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="40">
         <v>178</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -3086,21 +3173,21 @@
       <c r="M23" s="1">
         <v>344</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="31">
         <v>13388.78</v>
       </c>
-      <c r="O23" s="23">
+      <c r="O23" s="31">
         <v>13074.68</v>
       </c>
-      <c r="P23" s="23">
+      <c r="P23" s="31">
         <v>12948.7</v>
       </c>
-      <c r="Q23" s="23">
-        <v>13388.78</v>
-      </c>
-      <c r="R23" s="23"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
+      <c r="Q23" s="32">
+        <v>16673.39</v>
+      </c>
+      <c r="R23" s="31"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
       <c r="V23" s="1" t="s">
         <v>75</v>
       </c>
@@ -3116,39 +3203,39 @@
       <c r="Z23" s="4">
         <v>27500</v>
       </c>
-      <c r="AA23" s="4">
-        <v>32000</v>
+      <c r="AA23" s="43">
+        <v>37118.03</v>
       </c>
       <c r="AB23" s="4"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="2:30">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="6">
         <v>6</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="33">
         <v>162</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="33">
         <v>162</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="33">
         <v>162</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="34">
         <v>162</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="33">
         <v>162</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="33">
         <v>231</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="40">
         <v>231</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -3157,21 +3244,21 @@
       <c r="M24" s="1">
         <v>140</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="31">
         <v>728</v>
       </c>
-      <c r="O24" s="23">
+      <c r="O24" s="31">
         <v>566</v>
       </c>
-      <c r="P24" s="23">
+      <c r="P24" s="31">
         <v>642</v>
       </c>
-      <c r="Q24" s="23">
-        <v>728</v>
-      </c>
-      <c r="R24" s="23"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
+      <c r="Q24" s="32">
+        <v>943</v>
+      </c>
+      <c r="R24" s="31"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
       <c r="V24" s="1" t="s">
         <v>78</v>
       </c>
@@ -3187,42 +3274,42 @@
       <c r="Z24" s="4">
         <v>1109.08</v>
       </c>
-      <c r="AA24" s="4">
-        <v>1036.02</v>
+      <c r="AA24" s="43">
+        <v>1070.78</v>
       </c>
       <c r="AB24" s="4"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="9:30">
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="V25" s="5" t="s">
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="V25" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="W25" s="5">
+      <c r="W25" s="6">
         <v>4</v>
       </c>
-      <c r="X25" s="6">
+      <c r="X25" s="7">
         <v>826.08</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="Y25" s="7">
         <v>751.06</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="Z25" s="7">
         <v>751.06</v>
       </c>
-      <c r="AA25" s="6">
+      <c r="AA25" s="44">
         <v>751.06</v>
       </c>
-      <c r="AB25" s="6">
+      <c r="AB25" s="7">
         <v>714.33</v>
       </c>
-      <c r="AC25" s="19">
+      <c r="AC25" s="21">
         <v>618</v>
       </c>
-      <c r="AD25" s="19">
+      <c r="AD25" s="21">
         <v>618</v>
       </c>
     </row>
@@ -3232,109 +3319,109 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="V26" s="5" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="V26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="W26" s="29">
+      <c r="W26" s="41">
         <v>5</v>
       </c>
-      <c r="X26" s="6">
+      <c r="X26" s="7">
         <v>456.58</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="Y26" s="7">
         <v>456.58</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="Z26" s="7">
         <v>456.58</v>
       </c>
-      <c r="AA26" s="6">
-        <v>494.88</v>
-      </c>
-      <c r="AB26" s="6">
+      <c r="AA26" s="44">
+        <v>784.47</v>
+      </c>
+      <c r="AB26" s="7">
         <v>662.17</v>
       </c>
-      <c r="AC26" s="19">
+      <c r="AC26" s="21">
         <v>447</v>
       </c>
-      <c r="AD26" s="19">
+      <c r="AD26" s="21">
         <v>447</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="2:7">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" customHeight="1" spans="2:2">
-      <c r="B29" s="22"/>
+      <c r="B29" s="29"/>
     </row>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
@@ -4329,7 +4416,7 @@
   <dimension ref="B1:AD1000"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -4374,7 +4461,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="8"/>
+      <c r="J1" s="10"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
         <v>83</v>
@@ -4387,7 +4474,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="8"/>
+      <c r="T1" s="10"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
         <v>83</v>
@@ -4400,7 +4487,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
-      <c r="AD1" s="8"/>
+      <c r="AD1" s="10"/>
     </row>
     <row r="2" customHeight="1" spans="2:30">
       <c r="B2" s="1" t="s">
@@ -4501,14 +4588,14 @@
       <c r="F3" s="4">
         <v>1380.52</v>
       </c>
-      <c r="G3" s="4">
-        <v>1320.44</v>
+      <c r="G3" s="27">
+        <v>1651.14</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4">
         <v>1234</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="20">
         <v>1354</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -4526,14 +4613,14 @@
       <c r="P3" s="4">
         <v>1691</v>
       </c>
-      <c r="Q3" s="4">
-        <v>1798</v>
+      <c r="Q3" s="27">
+        <v>1693</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4">
         <v>1691</v>
       </c>
-      <c r="T3" s="18">
+      <c r="T3" s="20">
         <v>1691</v>
       </c>
       <c r="V3" s="1" t="s">
@@ -4551,14 +4638,14 @@
       <c r="Z3" s="4">
         <v>44191.56</v>
       </c>
-      <c r="AA3" s="4">
-        <v>42676.77</v>
+      <c r="AA3" s="27">
+        <v>60924.68</v>
       </c>
       <c r="AB3" s="4"/>
-      <c r="AC3" s="18">
+      <c r="AC3" s="20">
         <v>37793</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AD3" s="20">
         <v>37793</v>
       </c>
     </row>
@@ -4572,10 +4659,10 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="18"/>
+      <c r="J4" s="20"/>
       <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4591,14 +4678,14 @@
       <c r="P4" s="4">
         <v>27135.01</v>
       </c>
-      <c r="Q4" s="4">
-        <v>22073.5</v>
+      <c r="Q4" s="27">
+        <v>23694.69</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4">
         <v>17634</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="20">
         <v>17634</v>
       </c>
       <c r="V4" s="1" t="s">
@@ -4616,41 +4703,41 @@
       <c r="Z4" s="4">
         <v>17103.07</v>
       </c>
-      <c r="AA4" s="4">
-        <v>17103.07</v>
+      <c r="AA4" s="27">
+        <v>14993.75</v>
       </c>
       <c r="AB4" s="4"/>
-      <c r="AC4" s="18">
+      <c r="AC4" s="20">
         <v>14839</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AD4" s="20">
         <v>14839</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:30">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>24</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>3574</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>3710</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>3710</v>
       </c>
-      <c r="G5" s="6">
-        <v>3579</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="28">
+        <v>4246</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="19"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="21"/>
       <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4666,12 +4753,12 @@
       <c r="P5" s="4">
         <v>3010</v>
       </c>
-      <c r="Q5" s="4">
-        <v>3174</v>
+      <c r="Q5" s="27">
+        <v>3259</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-      <c r="T5" s="18"/>
+      <c r="T5" s="20"/>
       <c r="V5" s="1" t="s">
         <v>21</v>
       </c>
@@ -4687,14 +4774,14 @@
       <c r="Z5" s="4">
         <v>22143.51</v>
       </c>
-      <c r="AA5" s="4">
-        <v>23853.93</v>
+      <c r="AA5" s="27">
+        <v>24769.39</v>
       </c>
       <c r="AB5" s="4"/>
-      <c r="AC5" s="18">
+      <c r="AC5" s="20">
         <v>21420</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AD5" s="20">
         <v>21564</v>
       </c>
     </row>
@@ -4714,12 +4801,12 @@
       <c r="F6" s="4">
         <v>11972</v>
       </c>
-      <c r="G6" s="4">
-        <v>14421</v>
+      <c r="G6" s="27">
+        <v>18235</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="18"/>
+      <c r="J6" s="20"/>
       <c r="L6" s="1" t="s">
         <v>23</v>
       </c>
@@ -4729,12 +4816,12 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="Q6" s="27"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4">
         <v>29108</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="20">
         <v>29108</v>
       </c>
       <c r="V6" s="1" t="s">
@@ -4752,43 +4839,43 @@
       <c r="Z6" s="4">
         <v>48383.81</v>
       </c>
-      <c r="AA6" s="4">
-        <v>53346.76</v>
+      <c r="AA6" s="27">
+        <v>58380.19</v>
       </c>
       <c r="AB6" s="4"/>
-      <c r="AC6" s="18">
+      <c r="AC6" s="20">
         <v>47911</v>
       </c>
-      <c r="AD6" s="18">
+      <c r="AD6" s="20">
         <v>48960</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:30">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>14</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>581</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>581</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>581</v>
       </c>
-      <c r="G7" s="6">
-        <v>590</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="28">
+        <v>765</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="7">
         <v>581</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="21">
         <v>581</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -4800,12 +4887,12 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="27"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4">
         <v>13996</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="20">
         <v>14131</v>
       </c>
       <c r="V7" s="1" t="s">
@@ -4823,43 +4910,43 @@
       <c r="Z7" s="4">
         <v>26457.22</v>
       </c>
-      <c r="AA7" s="4">
-        <v>26457.22</v>
+      <c r="AA7" s="27">
+        <v>27761.39</v>
       </c>
       <c r="AB7" s="4"/>
-      <c r="AC7" s="18">
+      <c r="AC7" s="20">
         <v>26296</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AD7" s="20">
         <v>26296</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:30">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>14</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>816</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>818</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>818</v>
       </c>
-      <c r="G8" s="6">
-        <v>816</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="28">
+        <v>898</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="7">
         <v>672</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="21">
         <v>672</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -4871,12 +4958,12 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="27"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4">
         <v>41661</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="20">
         <v>41877</v>
       </c>
       <c r="V8" s="1" t="s">
@@ -4894,43 +4981,43 @@
       <c r="Z8" s="4">
         <v>35705.47</v>
       </c>
-      <c r="AA8" s="4">
-        <v>35054.59</v>
+      <c r="AA8" s="27">
+        <v>34617.99</v>
       </c>
       <c r="AB8" s="4"/>
-      <c r="AC8" s="18">
+      <c r="AC8" s="20">
         <v>30712</v>
       </c>
-      <c r="AD8" s="18">
+      <c r="AD8" s="20">
         <v>30718</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:30">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>26</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>1809.58</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>1857.02</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>1857.02</v>
       </c>
-      <c r="G9" s="6">
-        <v>1809.87</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="G9" s="28">
+        <v>2376.74</v>
+      </c>
+      <c r="H9" s="7">
         <v>3303.71452420693</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="7">
         <v>1766</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="21">
         <v>1766</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -4942,10 +5029,10 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="27"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="18"/>
+      <c r="T9" s="20"/>
       <c r="V9" s="1" t="s">
         <v>33</v>
       </c>
@@ -4961,14 +5048,14 @@
       <c r="Z9" s="4">
         <v>53582.58</v>
       </c>
-      <c r="AA9" s="4">
-        <v>43074.96</v>
+      <c r="AA9" s="27">
+        <v>49797.93</v>
       </c>
       <c r="AB9" s="4"/>
-      <c r="AC9" s="18">
+      <c r="AC9" s="20">
         <v>33349</v>
       </c>
-      <c r="AD9" s="18">
+      <c r="AD9" s="20">
         <v>33349</v>
       </c>
     </row>
@@ -4988,14 +5075,14 @@
       <c r="F10" s="4">
         <v>29172.34</v>
       </c>
-      <c r="G10" s="4">
-        <v>29446.8</v>
+      <c r="G10" s="27">
+        <v>31348.82</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4">
         <v>24862</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="20">
         <v>24862</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -5007,10 +5094,10 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="27"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="18"/>
+      <c r="T10" s="20"/>
       <c r="V10" s="1" t="s">
         <v>36</v>
       </c>
@@ -5026,12 +5113,12 @@
       <c r="Z10" s="4">
         <v>21567.68</v>
       </c>
-      <c r="AA10" s="4">
-        <v>23165.86</v>
+      <c r="AA10" s="27">
+        <v>26716</v>
       </c>
       <c r="AB10" s="4"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
     </row>
     <row r="11" customHeight="1" spans="2:30">
       <c r="B11" s="1" t="s">
@@ -5049,12 +5136,12 @@
       <c r="F11" s="4">
         <v>9828</v>
       </c>
-      <c r="G11" s="4">
-        <v>9122</v>
+      <c r="G11" s="27">
+        <v>9543</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="18"/>
+      <c r="J11" s="20"/>
       <c r="L11" s="1" t="s">
         <v>38</v>
       </c>
@@ -5070,14 +5157,14 @@
       <c r="P11" s="4">
         <v>6402</v>
       </c>
-      <c r="Q11" s="4">
-        <v>6476</v>
+      <c r="Q11" s="27">
+        <v>7157</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4">
         <v>4238</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T11" s="20">
         <v>4300</v>
       </c>
       <c r="V11" s="1" t="s">
@@ -5095,12 +5182,12 @@
       <c r="Z11" s="4">
         <v>25646.32</v>
       </c>
-      <c r="AA11" s="4">
-        <v>27476.07</v>
+      <c r="AA11" s="27">
+        <v>27785.23</v>
       </c>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
     </row>
     <row r="12" customHeight="1" spans="2:30">
       <c r="B12" s="1" t="s">
@@ -5118,10 +5205,10 @@
       <c r="F12" s="4">
         <v>2020</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="18"/>
+      <c r="J12" s="20"/>
       <c r="L12" s="1" t="s">
         <v>41</v>
       </c>
@@ -5137,14 +5224,14 @@
       <c r="P12" s="4">
         <v>10587.56</v>
       </c>
-      <c r="Q12" s="4">
-        <v>10511.86</v>
+      <c r="Q12" s="27">
+        <v>11146.71</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4">
         <v>9073</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="20">
         <v>9098</v>
       </c>
       <c r="V12" s="1" t="s">
@@ -5162,39 +5249,39 @@
       <c r="Z12" s="4">
         <v>43231</v>
       </c>
-      <c r="AA12" s="4">
-        <v>41333.97</v>
+      <c r="AA12" s="27">
+        <v>46147.14</v>
       </c>
       <c r="AB12" s="4"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
     </row>
     <row r="13" customHeight="1" spans="2:30">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>7</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>1454.84</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="7">
         <v>1339.12</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="7">
         <v>1339.12</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="28">
         <v>967.86</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="7">
         <v>966.37</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="7">
         <v>842</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="21">
         <v>842</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -5212,14 +5299,14 @@
       <c r="P13" s="4">
         <v>14034.92</v>
       </c>
-      <c r="Q13" s="4">
-        <v>15643.51</v>
+      <c r="Q13" s="27">
+        <v>16136.34</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4">
         <v>11412</v>
       </c>
-      <c r="T13" s="18">
+      <c r="T13" s="20">
         <v>11483</v>
       </c>
       <c r="V13" s="1" t="s">
@@ -5237,12 +5324,12 @@
       <c r="Z13" s="4">
         <v>130460.89</v>
       </c>
-      <c r="AA13" s="4">
-        <v>133670.14</v>
+      <c r="AA13" s="27">
+        <v>158015.99</v>
       </c>
       <c r="AB13" s="4"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
     </row>
     <row r="14" customHeight="1" spans="2:30">
       <c r="B14" s="1" t="s">
@@ -5260,14 +5347,14 @@
       <c r="F14" s="4">
         <v>2588.71</v>
       </c>
-      <c r="G14" s="4">
-        <v>2717.27</v>
+      <c r="G14" s="27">
+        <v>3160.02</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4">
         <v>2492</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="20">
         <v>2492</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -5285,14 +5372,14 @@
       <c r="P14" s="4">
         <v>15690.41</v>
       </c>
-      <c r="Q14" s="4">
-        <v>13623.44</v>
+      <c r="Q14" s="27">
+        <v>18307.67</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4">
         <v>13315</v>
       </c>
-      <c r="T14" s="18">
+      <c r="T14" s="20">
         <v>13315</v>
       </c>
       <c r="V14" s="1" t="s">
@@ -5310,14 +5397,14 @@
       <c r="Z14" s="4">
         <v>620.12</v>
       </c>
-      <c r="AA14" s="4">
-        <v>600.15</v>
+      <c r="AA14" s="27">
+        <v>750.23</v>
       </c>
       <c r="AB14" s="4"/>
-      <c r="AC14" s="18">
+      <c r="AC14" s="20">
         <v>554</v>
       </c>
-      <c r="AD14" s="18">
+      <c r="AD14" s="20">
         <v>554</v>
       </c>
     </row>
@@ -5337,14 +5424,14 @@
       <c r="F15" s="4">
         <v>3114.15</v>
       </c>
-      <c r="G15" s="4">
-        <v>3194.43</v>
+      <c r="G15" s="27">
+        <v>3752.02</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4">
         <v>2772</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="20">
         <v>2790</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -5362,14 +5449,14 @@
       <c r="P15" s="4">
         <v>10957.73</v>
       </c>
-      <c r="Q15" s="4">
-        <v>11462.54</v>
+      <c r="Q15" s="27">
+        <v>13330.73</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4">
         <v>9071</v>
       </c>
-      <c r="T15" s="18">
+      <c r="T15" s="20">
         <v>9071</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -5387,43 +5474,43 @@
       <c r="Z15" s="4">
         <v>1158.97</v>
       </c>
-      <c r="AA15" s="4">
-        <v>1143.02</v>
+      <c r="AA15" s="27">
+        <v>1325.34</v>
       </c>
       <c r="AB15" s="4"/>
-      <c r="AC15" s="18">
+      <c r="AC15" s="20">
         <v>1106</v>
       </c>
-      <c r="AD15" s="18">
+      <c r="AD15" s="20">
         <v>1108</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:30">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>21</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="7">
         <v>255</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="7">
         <v>251</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="7">
         <v>251</v>
       </c>
-      <c r="G16" s="6">
-        <v>257</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="G16" s="28">
+        <v>299</v>
+      </c>
+      <c r="H16" s="7">
         <v>230</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="7">
         <v>227</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="21">
         <v>227</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -5441,14 +5528,14 @@
       <c r="P16" s="4">
         <v>12003.25</v>
       </c>
-      <c r="Q16" s="4">
-        <v>12323.13</v>
+      <c r="Q16" s="27">
+        <v>14206.26</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4">
         <v>11501</v>
       </c>
-      <c r="T16" s="18">
+      <c r="T16" s="20">
         <v>11501</v>
       </c>
       <c r="V16" s="1" t="s">
@@ -5466,39 +5553,39 @@
       <c r="Z16" s="4">
         <v>3636.54</v>
       </c>
-      <c r="AA16" s="4">
-        <v>3482.52</v>
+      <c r="AA16" s="27">
+        <v>3901.7</v>
       </c>
       <c r="AB16" s="4"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
     </row>
     <row r="17" customHeight="1" spans="2:30">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>25</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="7">
         <v>181.41</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="7">
         <v>190.34</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="7">
         <v>190.34</v>
       </c>
-      <c r="G17" s="6">
-        <v>181.41</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="G17" s="28">
+        <v>187.81</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="7">
         <v>179</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="21">
         <v>181</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -5516,14 +5603,14 @@
       <c r="P17" s="4">
         <v>16124.85</v>
       </c>
-      <c r="Q17" s="4">
-        <v>17281.74</v>
+      <c r="Q17" s="27">
+        <v>17081.81</v>
       </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4">
         <v>12787</v>
       </c>
-      <c r="T17" s="18">
+      <c r="T17" s="20">
         <v>12787</v>
       </c>
       <c r="V17" s="1" t="s">
@@ -5541,12 +5628,12 @@
       <c r="Z17" s="4">
         <v>4850.7</v>
       </c>
-      <c r="AA17" s="4">
-        <v>4697.63</v>
+      <c r="AA17" s="27">
+        <v>5235.28</v>
       </c>
       <c r="AB17" s="4"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
     </row>
     <row r="18" customHeight="1" spans="2:30">
       <c r="B18" s="1" t="s">
@@ -5564,14 +5651,14 @@
       <c r="F18" s="4">
         <v>227.88</v>
       </c>
-      <c r="G18" s="4">
-        <v>232.79</v>
+      <c r="G18" s="27">
+        <v>251.65</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4">
         <v>217</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="20">
         <v>219</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -5589,14 +5676,14 @@
       <c r="P18" s="4">
         <v>10882.65</v>
       </c>
-      <c r="Q18" s="4">
-        <v>9524.23</v>
+      <c r="Q18" s="27">
+        <v>13417.16</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4">
         <v>9428</v>
       </c>
-      <c r="T18" s="18">
+      <c r="T18" s="20">
         <v>9498</v>
       </c>
       <c r="V18" s="1" t="s">
@@ -5614,12 +5701,12 @@
       <c r="Z18" s="4">
         <v>10390</v>
       </c>
-      <c r="AA18" s="4">
-        <v>10029</v>
+      <c r="AA18" s="27">
+        <v>10446</v>
       </c>
       <c r="AB18" s="4"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
     </row>
     <row r="19" customHeight="1" spans="2:30">
       <c r="B19" s="1" t="s">
@@ -5637,14 +5724,14 @@
       <c r="F19" s="4">
         <v>314.33</v>
       </c>
-      <c r="G19" s="4">
-        <v>322.75</v>
+      <c r="G19" s="27">
+        <v>325.97</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4">
         <v>249</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="20">
         <v>249</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -5662,14 +5749,14 @@
       <c r="P19" s="4">
         <v>11235.04</v>
       </c>
-      <c r="Q19" s="4">
-        <v>10720.17</v>
+      <c r="Q19" s="27">
+        <v>11267.48</v>
       </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4">
         <v>8808</v>
       </c>
-      <c r="T19" s="18">
+      <c r="T19" s="20">
         <v>8808</v>
       </c>
       <c r="V19" s="1" t="s">
@@ -5687,39 +5774,39 @@
       <c r="Z19" s="4">
         <v>23598</v>
       </c>
-      <c r="AA19" s="4">
-        <v>23411</v>
+      <c r="AA19" s="27">
+        <v>23239</v>
       </c>
       <c r="AB19" s="4"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
     </row>
     <row r="20" customHeight="1" spans="2:30">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="6">
         <v>13</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="7">
         <v>334</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="7">
         <v>391</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="7">
         <v>391</v>
       </c>
-      <c r="G20" s="6">
-        <v>342</v>
-      </c>
-      <c r="H20" s="6">
+      <c r="G20" s="28">
+        <v>361</v>
+      </c>
+      <c r="H20" s="7">
         <v>308</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="7">
         <v>308</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="21">
         <v>339</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -5737,14 +5824,14 @@
       <c r="P20" s="4">
         <v>9510.46</v>
       </c>
-      <c r="Q20" s="4">
-        <v>10229.07</v>
+      <c r="Q20" s="27">
+        <v>10378.57</v>
       </c>
       <c r="R20" s="4"/>
       <c r="S20" s="4">
         <v>9370</v>
       </c>
-      <c r="T20" s="18">
+      <c r="T20" s="20">
         <v>9370</v>
       </c>
       <c r="V20" s="1" t="s">
@@ -5762,12 +5849,12 @@
       <c r="Z20" s="4">
         <v>46911</v>
       </c>
-      <c r="AA20" s="4">
-        <v>46820</v>
+      <c r="AA20" s="27">
+        <v>46974</v>
       </c>
       <c r="AB20" s="4"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="2:30">
       <c r="B21" s="1" t="s">
@@ -5785,14 +5872,14 @@
       <c r="F21" s="4">
         <v>1218.6</v>
       </c>
-      <c r="G21" s="4">
-        <v>1179.57</v>
+      <c r="G21" s="27">
+        <v>1316.01</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4">
         <v>1049</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="20">
         <v>1049</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -5810,68 +5897,68 @@
       <c r="P21" s="4">
         <v>5879.98</v>
       </c>
-      <c r="Q21" s="4">
-        <v>5888.85</v>
+      <c r="Q21" s="27">
+        <v>5903.04</v>
       </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4">
         <v>5532</v>
       </c>
-      <c r="T21" s="18">
+      <c r="T21" s="20">
         <v>5532</v>
       </c>
-      <c r="V21" s="21" t="s">
+      <c r="V21" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="W21" s="21">
+      <c r="W21" s="24">
         <v>35</v>
       </c>
-      <c r="X21" s="7">
+      <c r="X21" s="9">
         <v>347.28</v>
       </c>
-      <c r="Y21" s="7">
+      <c r="Y21" s="9">
         <v>250.24</v>
       </c>
-      <c r="Z21" s="7">
+      <c r="Z21" s="9">
         <v>292.76</v>
       </c>
-      <c r="AA21" s="7">
-        <v>293.53</v>
-      </c>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="18">
+      <c r="AA21" s="30">
+        <v>282.85</v>
+      </c>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="20">
         <v>250</v>
       </c>
-      <c r="AD21" s="18">
+      <c r="AD21" s="20">
         <v>264</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="2:30">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="6">
         <v>8</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="7">
         <v>380</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="7">
         <v>426</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="7">
         <v>380</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="28">
         <v>426</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="7">
         <v>380</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="7">
         <v>359</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="21">
         <v>368</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -5889,14 +5976,14 @@
       <c r="P22" s="4">
         <v>21536.24</v>
       </c>
-      <c r="Q22" s="4">
-        <v>22878.82</v>
+      <c r="Q22" s="27">
+        <v>22300.3</v>
       </c>
       <c r="R22" s="4"/>
       <c r="S22" s="4">
         <v>17655</v>
       </c>
-      <c r="T22" s="18">
+      <c r="T22" s="20">
         <v>17655</v>
       </c>
       <c r="V22" s="1" t="s">
@@ -5914,43 +6001,43 @@
       <c r="Z22" s="4">
         <v>502</v>
       </c>
-      <c r="AA22" s="4">
-        <v>441</v>
+      <c r="AA22" s="27">
+        <v>609</v>
       </c>
       <c r="AB22" s="4"/>
-      <c r="AC22" s="18">
+      <c r="AC22" s="20">
         <v>132</v>
       </c>
-      <c r="AD22" s="18">
+      <c r="AD22" s="20">
         <v>141</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="2:30">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="6">
         <v>10</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="7">
         <v>1019</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="7">
         <v>683</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="7">
         <v>732</v>
       </c>
-      <c r="G23" s="6">
-        <v>738</v>
-      </c>
-      <c r="H23" s="6">
+      <c r="G23" s="28">
+        <v>736</v>
+      </c>
+      <c r="H23" s="7">
         <v>683</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="7">
         <v>683</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="21">
         <v>683</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -5968,12 +6055,12 @@
       <c r="P23" s="4">
         <v>27884.83</v>
       </c>
-      <c r="Q23" s="4">
-        <v>28892.08</v>
+      <c r="Q23" s="27">
+        <v>34630.13</v>
       </c>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="18"/>
+      <c r="T23" s="20"/>
       <c r="V23" s="1" t="s">
         <v>75</v>
       </c>
@@ -5989,39 +6076,39 @@
       <c r="Z23" s="4">
         <v>73643.86</v>
       </c>
-      <c r="AA23" s="4">
-        <v>55500</v>
+      <c r="AA23" s="27">
+        <v>70289.87</v>
       </c>
       <c r="AB23" s="4"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="2:30">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="6">
         <v>12</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="7">
         <v>490</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="7">
         <v>413</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="7">
         <v>413</v>
       </c>
-      <c r="G24" s="6">
-        <v>484</v>
-      </c>
-      <c r="H24" s="6">
+      <c r="G24" s="28">
+        <v>469</v>
+      </c>
+      <c r="H24" s="7">
         <v>409</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="7">
         <v>396</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="21">
         <v>396</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -6039,12 +6126,12 @@
       <c r="P24" s="4">
         <v>1342</v>
       </c>
-      <c r="Q24" s="4">
-        <v>1370</v>
+      <c r="Q24" s="27">
+        <v>1703</v>
       </c>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="18"/>
+      <c r="T24" s="20"/>
       <c r="V24" s="1" t="s">
         <v>78</v>
       </c>
@@ -6060,48 +6147,48 @@
       <c r="Z24" s="4">
         <v>2200.28</v>
       </c>
-      <c r="AA24" s="4">
-        <v>1875.65</v>
+      <c r="AA24" s="27">
+        <v>2221.25</v>
       </c>
       <c r="AB24" s="4"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="9:30">
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="V25" s="5" t="s">
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="V25" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="W25" s="5">
+      <c r="W25" s="6">
         <v>8</v>
       </c>
-      <c r="X25" s="6">
+      <c r="X25" s="7">
         <v>1981.71</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="Y25" s="7">
         <v>1981.15</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="Z25" s="7">
         <v>1981.15</v>
       </c>
-      <c r="AA25" s="6">
+      <c r="AA25" s="28">
         <v>1511.75</v>
       </c>
-      <c r="AB25" s="6">
+      <c r="AB25" s="7">
         <v>1505.95</v>
       </c>
-      <c r="AC25" s="19">
+      <c r="AC25" s="21">
         <v>1329</v>
       </c>
-      <c r="AD25" s="19">
+      <c r="AD25" s="21">
         <v>1329</v>
       </c>
     </row>
@@ -6111,109 +6198,109 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="V26" s="5" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="V26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="W26" s="5">
+      <c r="W26" s="6">
         <v>11</v>
       </c>
-      <c r="X26" s="6">
+      <c r="X26" s="7">
         <v>2086.59</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="Y26" s="7">
         <v>2006.03</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="Z26" s="7">
         <v>2086.03</v>
       </c>
-      <c r="AA26" s="6">
-        <v>2086.47</v>
-      </c>
-      <c r="AB26" s="6">
+      <c r="AA26" s="28">
+        <v>2613.9</v>
+      </c>
+      <c r="AB26" s="7">
         <v>1647.33</v>
       </c>
-      <c r="AC26" s="19">
+      <c r="AC26" s="21">
         <v>1473</v>
       </c>
-      <c r="AD26" s="19">
+      <c r="AD26" s="21">
         <v>1473</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="2:7">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B29" s="22"/>
+      <c r="B29" s="29"/>
     </row>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
@@ -7207,8 +7294,8 @@
   <sheetPr/>
   <dimension ref="B1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -7254,7 +7341,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="8"/>
+      <c r="J1" s="10"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
         <v>90</v>
@@ -7267,7 +7354,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="8"/>
+      <c r="T1" s="10"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
         <v>90</v>
@@ -7280,7 +7367,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
-      <c r="AD1" s="8"/>
+      <c r="AD1" s="10"/>
     </row>
     <row r="2" customHeight="1" spans="2:30">
       <c r="B2" s="1" t="s">
@@ -7381,14 +7468,14 @@
       <c r="F3" s="4">
         <v>2016.55</v>
       </c>
-      <c r="G3" s="4">
-        <v>2108.06</v>
+      <c r="G3" s="5">
+        <v>2299.79</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4">
         <v>1894</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="20">
         <v>1925</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -7406,14 +7493,14 @@
       <c r="P3" s="4">
         <v>3439</v>
       </c>
-      <c r="Q3" s="4">
-        <v>3087</v>
+      <c r="Q3" s="23">
+        <v>3200</v>
       </c>
       <c r="R3" s="4"/>
-      <c r="S3" s="18">
+      <c r="S3" s="20">
         <v>3135</v>
       </c>
-      <c r="T3" s="18">
+      <c r="T3" s="20">
         <v>3135</v>
       </c>
       <c r="V3" s="1" t="s">
@@ -7431,14 +7518,14 @@
       <c r="Z3" s="4">
         <v>62006.81</v>
       </c>
-      <c r="AA3" s="4">
-        <v>63862.38</v>
+      <c r="AA3" s="25">
+        <v>84354.24</v>
       </c>
       <c r="AB3" s="4"/>
-      <c r="AC3" s="18">
+      <c r="AC3" s="20">
         <v>62262</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AD3" s="20">
         <v>62262</v>
       </c>
     </row>
@@ -7452,10 +7539,10 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="18"/>
+      <c r="J4" s="20"/>
       <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
@@ -7471,14 +7558,14 @@
       <c r="P4" s="4">
         <v>40746.39</v>
       </c>
-      <c r="Q4" s="4">
-        <v>41093.3</v>
+      <c r="Q4" s="23">
+        <v>44462.43</v>
       </c>
       <c r="R4" s="4"/>
-      <c r="S4" s="18">
+      <c r="S4" s="20">
         <v>29257</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="20">
         <v>30083</v>
       </c>
       <c r="V4" s="1" t="s">
@@ -7496,41 +7583,41 @@
       <c r="Z4" s="4">
         <v>33582.78</v>
       </c>
-      <c r="AA4" s="4">
-        <v>33252.04</v>
+      <c r="AA4" s="25">
+        <v>30170.87</v>
       </c>
       <c r="AB4" s="4"/>
-      <c r="AC4" s="18">
+      <c r="AC4" s="20">
         <v>29684</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AD4" s="20">
         <v>29684</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:30">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>36</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>7089</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>6671</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>6671</v>
       </c>
-      <c r="G5" s="6">
-        <v>7089</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="8">
+        <v>6382</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="19"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="21"/>
       <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
@@ -7546,12 +7633,12 @@
       <c r="P5" s="4">
         <v>4861</v>
       </c>
-      <c r="Q5" s="4">
-        <v>4749</v>
+      <c r="Q5" s="23">
+        <v>5061</v>
       </c>
       <c r="R5" s="4"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
       <c r="V5" s="1" t="s">
         <v>21</v>
       </c>
@@ -7567,14 +7654,14 @@
       <c r="Z5" s="4">
         <v>41609.31</v>
       </c>
-      <c r="AA5" s="4">
-        <v>37722.24</v>
+      <c r="AA5" s="25">
+        <v>42219.16</v>
       </c>
       <c r="AB5" s="4"/>
-      <c r="AC5" s="18">
+      <c r="AC5" s="20">
         <v>36977</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AD5" s="20">
         <v>36977</v>
       </c>
     </row>
@@ -7594,12 +7681,12 @@
       <c r="F6" s="4">
         <v>20179</v>
       </c>
-      <c r="G6" s="4">
-        <v>23269</v>
+      <c r="G6" s="5">
+        <v>24998</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="18"/>
+      <c r="J6" s="20"/>
       <c r="L6" s="1" t="s">
         <v>23</v>
       </c>
@@ -7609,12 +7696,12 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="Q6" s="23"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="18">
+      <c r="S6" s="20">
         <v>44147</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="20">
         <v>44286</v>
       </c>
       <c r="V6" s="1" t="s">
@@ -7632,43 +7719,43 @@
       <c r="Z6" s="4">
         <v>82975.07</v>
       </c>
-      <c r="AA6" s="4">
-        <v>72355.09</v>
+      <c r="AA6" s="25">
+        <v>79614.6</v>
       </c>
       <c r="AB6" s="4"/>
-      <c r="AC6" s="18">
+      <c r="AC6" s="20">
         <v>67879</v>
       </c>
-      <c r="AD6" s="18">
+      <c r="AD6" s="20">
         <v>69818</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:30">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>21</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>1065</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>1068</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>1068</v>
       </c>
-      <c r="G7" s="6">
-        <v>1066</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="8">
+        <v>1096</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="7">
         <v>929</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="21">
         <v>929</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -7680,12 +7767,12 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="23"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="18">
+      <c r="S7" s="20">
         <v>22000</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="20">
         <v>22528</v>
       </c>
       <c r="V7" s="1" t="s">
@@ -7703,43 +7790,43 @@
       <c r="Z7" s="4">
         <v>42623.35</v>
       </c>
-      <c r="AA7" s="4">
-        <v>41329.13</v>
+      <c r="AA7" s="25">
+        <v>43845.76</v>
       </c>
       <c r="AB7" s="4"/>
-      <c r="AC7" s="18">
+      <c r="AC7" s="20">
         <v>40274</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AD7" s="20">
         <v>40832</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:30">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>21</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>1237</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>1174</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>1174</v>
       </c>
-      <c r="G8" s="6">
-        <v>1237</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="8">
+        <v>1251</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="7">
         <v>1090</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="21">
         <v>1090</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -7751,12 +7838,12 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="23"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="18">
+      <c r="S8" s="20">
         <v>65832</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="20">
         <v>66183</v>
       </c>
       <c r="V8" s="1" t="s">
@@ -7774,43 +7861,43 @@
       <c r="Z8" s="4">
         <v>52270.61</v>
       </c>
-      <c r="AA8" s="4">
-        <v>51658.7</v>
+      <c r="AA8" s="25">
+        <v>51923.46</v>
       </c>
       <c r="AB8" s="4"/>
-      <c r="AC8" s="18">
+      <c r="AC8" s="20">
         <v>46434</v>
       </c>
-      <c r="AD8" s="18">
+      <c r="AD8" s="20">
         <v>46635</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:30">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>39</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>4429.84</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>4629.48</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>4507.49</v>
       </c>
-      <c r="G9" s="6">
-        <v>4429.84</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="G9" s="8">
+        <v>4281.31</v>
+      </c>
+      <c r="H9" s="7">
         <v>7619.89895777969</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="7">
         <v>3853</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="21">
         <v>3904</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -7822,10 +7909,10 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="23"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
       <c r="V9" s="1" t="s">
         <v>33</v>
       </c>
@@ -7841,14 +7928,14 @@
       <c r="Z9" s="4">
         <v>73236.43</v>
       </c>
-      <c r="AA9" s="4">
-        <v>63274.25</v>
+      <c r="AA9" s="25">
+        <v>77201.23</v>
       </c>
       <c r="AB9" s="4"/>
-      <c r="AC9" s="18">
+      <c r="AC9" s="20">
         <v>49022</v>
       </c>
-      <c r="AD9" s="18">
+      <c r="AD9" s="20">
         <v>49588</v>
       </c>
     </row>
@@ -7868,14 +7955,14 @@
       <c r="F10" s="4">
         <v>54276.81</v>
       </c>
-      <c r="G10" s="4">
-        <v>56587.09</v>
+      <c r="G10" s="5">
+        <v>58080.79</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4">
         <v>51542</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="20">
         <v>51604</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -7887,10 +7974,10 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="23"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
       <c r="V10" s="1" t="s">
         <v>36</v>
       </c>
@@ -7906,12 +7993,12 @@
       <c r="Z10" s="4">
         <v>40013.93</v>
       </c>
-      <c r="AA10" s="4">
-        <v>34876.03</v>
+      <c r="AA10" s="25">
+        <v>34859.7</v>
       </c>
       <c r="AB10" s="4"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
     </row>
     <row r="11" customHeight="1" spans="2:30">
       <c r="B11" s="1" t="s">
@@ -7929,12 +8016,12 @@
       <c r="F11" s="4">
         <v>13353</v>
       </c>
-      <c r="G11" s="4">
-        <v>13172</v>
+      <c r="G11" s="5">
+        <v>13491</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="18"/>
+      <c r="J11" s="20"/>
       <c r="L11" s="1" t="s">
         <v>38</v>
       </c>
@@ -7950,14 +8037,14 @@
       <c r="P11" s="4">
         <v>8543</v>
       </c>
-      <c r="Q11" s="4">
-        <v>8651</v>
+      <c r="Q11" s="23">
+        <v>9297</v>
       </c>
       <c r="R11" s="4"/>
-      <c r="S11" s="18">
+      <c r="S11" s="20">
         <v>6937</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T11" s="20">
         <v>6937</v>
       </c>
       <c r="V11" s="1" t="s">
@@ -7975,12 +8062,12 @@
       <c r="Z11" s="4">
         <v>39527.08</v>
       </c>
-      <c r="AA11" s="4">
-        <v>38943.23</v>
+      <c r="AA11" s="25">
+        <v>41465.78</v>
       </c>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
     </row>
     <row r="12" customHeight="1" spans="2:30">
       <c r="B12" s="1" t="s">
@@ -7998,10 +8085,10 @@
       <c r="F12" s="4">
         <v>3180</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="18"/>
+      <c r="J12" s="20"/>
       <c r="L12" s="1" t="s">
         <v>41</v>
       </c>
@@ -8017,14 +8104,14 @@
       <c r="P12" s="4">
         <v>16393.25</v>
       </c>
-      <c r="Q12" s="4">
-        <v>16688.64</v>
+      <c r="Q12" s="23">
+        <v>17807.2</v>
       </c>
       <c r="R12" s="4"/>
-      <c r="S12" s="18">
+      <c r="S12" s="20">
         <v>13982</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="20">
         <v>14229</v>
       </c>
       <c r="V12" s="1" t="s">
@@ -8042,39 +8129,39 @@
       <c r="Z12" s="4">
         <v>62693.37</v>
       </c>
-      <c r="AA12" s="4">
-        <v>66131.56</v>
+      <c r="AA12" s="25">
+        <v>77977.42</v>
       </c>
       <c r="AB12" s="4"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
     </row>
     <row r="13" customHeight="1" spans="2:30">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>10</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>1943.98</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="7">
         <v>1953.16</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="7">
         <v>1953.16</v>
       </c>
-      <c r="G13" s="6">
-        <v>1528.5</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="G13" s="8">
+        <v>1540.98</v>
+      </c>
+      <c r="H13" s="7">
         <v>1690.16</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="7">
         <v>1349</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="21">
         <v>1349</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -8092,14 +8179,14 @@
       <c r="P13" s="4">
         <v>20552.91</v>
       </c>
-      <c r="Q13" s="4">
-        <v>22938.45</v>
+      <c r="Q13" s="23">
+        <v>22581.05</v>
       </c>
       <c r="R13" s="4"/>
-      <c r="S13" s="18">
+      <c r="S13" s="20">
         <v>17787</v>
       </c>
-      <c r="T13" s="18">
+      <c r="T13" s="20">
         <v>17953</v>
       </c>
       <c r="V13" s="1" t="s">
@@ -8117,12 +8204,12 @@
       <c r="Z13" s="4">
         <v>197177.83</v>
       </c>
-      <c r="AA13" s="4">
-        <v>199953.11</v>
+      <c r="AA13" s="25">
+        <v>225263.78</v>
       </c>
       <c r="AB13" s="4"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
     </row>
     <row r="14" customHeight="1" spans="2:30">
       <c r="B14" s="1" t="s">
@@ -8131,7 +8218,7 @@
       <c r="C14" s="1">
         <v>97</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <v>4184.87</v>
       </c>
       <c r="E14" s="4">
@@ -8140,14 +8227,14 @@
       <c r="F14" s="4">
         <v>4557.5</v>
       </c>
-      <c r="G14" s="4">
-        <v>4184.87</v>
+      <c r="G14" s="5">
+        <v>5076.35</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4">
         <v>4062</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="20">
         <v>4127</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -8165,14 +8252,14 @@
       <c r="P14" s="4">
         <v>21986.72</v>
       </c>
-      <c r="Q14" s="4">
-        <v>21433.16</v>
+      <c r="Q14" s="23">
+        <v>27444.54</v>
       </c>
       <c r="R14" s="4"/>
-      <c r="S14" s="18">
+      <c r="S14" s="20">
         <v>20705</v>
       </c>
-      <c r="T14" s="18">
+      <c r="T14" s="20">
         <v>20855</v>
       </c>
       <c r="V14" s="1" t="s">
@@ -8190,14 +8277,14 @@
       <c r="Z14" s="4">
         <v>980.84</v>
       </c>
-      <c r="AA14" s="4">
-        <v>925.25</v>
+      <c r="AA14" s="25">
+        <v>1111.26</v>
       </c>
       <c r="AB14" s="4"/>
-      <c r="AC14" s="18">
+      <c r="AC14" s="20">
         <v>868</v>
       </c>
-      <c r="AD14" s="18">
+      <c r="AD14" s="20">
         <v>868</v>
       </c>
     </row>
@@ -8217,14 +8304,14 @@
       <c r="F15" s="4">
         <v>5011.93</v>
       </c>
-      <c r="G15" s="4">
-        <v>4938.63</v>
+      <c r="G15" s="5">
+        <v>5435.43</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4">
         <v>4480</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="20">
         <v>4480</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -8242,14 +8329,14 @@
       <c r="P15" s="4">
         <v>17378.96</v>
       </c>
-      <c r="Q15" s="4">
-        <v>17465.62</v>
+      <c r="Q15" s="23">
+        <v>21256.32</v>
       </c>
       <c r="R15" s="4"/>
-      <c r="S15" s="18">
+      <c r="S15" s="20">
         <v>14648</v>
       </c>
-      <c r="T15" s="18">
+      <c r="T15" s="20">
         <v>14787</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -8267,41 +8354,41 @@
       <c r="Z15" s="4">
         <v>1848.69</v>
       </c>
-      <c r="AA15" s="4">
-        <v>1698.45</v>
+      <c r="AA15" s="25">
+        <v>2025.41</v>
       </c>
       <c r="AB15" s="4"/>
-      <c r="AC15" s="18">
+      <c r="AC15" s="20">
         <v>1669</v>
       </c>
-      <c r="AD15" s="18">
+      <c r="AD15" s="20">
         <v>1670</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:30">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>31</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="7">
         <v>517</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="7">
         <v>393</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="7">
         <v>397</v>
       </c>
-      <c r="G16" s="6">
-        <v>395</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6">
+      <c r="G16" s="8">
+        <v>447</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7">
         <v>404</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="21">
         <v>404</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -8319,14 +8406,14 @@
       <c r="P16" s="4">
         <v>19697.26</v>
       </c>
-      <c r="Q16" s="4">
-        <v>17814.47</v>
+      <c r="Q16" s="23">
+        <v>21956.41</v>
       </c>
       <c r="R16" s="4"/>
-      <c r="S16" s="18">
+      <c r="S16" s="20">
         <v>17090</v>
       </c>
-      <c r="T16" s="18">
+      <c r="T16" s="20">
         <v>17193</v>
       </c>
       <c r="V16" s="1" t="s">
@@ -8344,39 +8431,39 @@
       <c r="Z16" s="4">
         <v>5532.36</v>
       </c>
-      <c r="AA16" s="4">
-        <v>5581.9</v>
+      <c r="AA16" s="25">
+        <v>5942.02</v>
       </c>
       <c r="AB16" s="4"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
     </row>
     <row r="17" customHeight="1" spans="2:30">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>38</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="7">
         <v>291.59</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="7">
         <v>323.66</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="7">
         <v>286.55</v>
       </c>
-      <c r="G17" s="6">
-        <v>291.59</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="G17" s="8">
+        <v>332.12</v>
+      </c>
+      <c r="H17" s="7">
         <v>414.92</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="7">
         <v>278</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="21">
         <v>286</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -8394,14 +8481,14 @@
       <c r="P17" s="4">
         <v>25013.39</v>
       </c>
-      <c r="Q17" s="4">
-        <v>24691.06</v>
+      <c r="Q17" s="23">
+        <v>26489.06</v>
       </c>
       <c r="R17" s="4"/>
-      <c r="S17" s="18">
+      <c r="S17" s="20">
         <v>20553</v>
       </c>
-      <c r="T17" s="18">
+      <c r="T17" s="20">
         <v>20851</v>
       </c>
       <c r="V17" s="1" t="s">
@@ -8419,12 +8506,12 @@
       <c r="Z17" s="4">
         <v>7252.31</v>
       </c>
-      <c r="AA17" s="4">
-        <v>7364.99</v>
+      <c r="AA17" s="25">
+        <v>7845.92</v>
       </c>
       <c r="AB17" s="4"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
     </row>
     <row r="18" customHeight="1" spans="2:30">
       <c r="B18" s="1" t="s">
@@ -8442,14 +8529,14 @@
       <c r="F18" s="4">
         <v>366.84</v>
       </c>
-      <c r="G18" s="4">
-        <v>356.71</v>
+      <c r="G18" s="5">
+        <v>379.7</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4">
         <v>345</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="20">
         <v>348</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -8467,14 +8554,14 @@
       <c r="P18" s="4">
         <v>17330.6</v>
       </c>
-      <c r="Q18" s="4">
-        <v>14938.35</v>
+      <c r="Q18" s="23">
+        <v>19016.19</v>
       </c>
       <c r="R18" s="4"/>
-      <c r="S18" s="18">
+      <c r="S18" s="20">
         <v>14295</v>
       </c>
-      <c r="T18" s="18">
+      <c r="T18" s="20">
         <v>14419</v>
       </c>
       <c r="V18" s="1" t="s">
@@ -8492,12 +8579,12 @@
       <c r="Z18" s="4">
         <v>16157</v>
       </c>
-      <c r="AA18" s="4">
-        <v>15538</v>
+      <c r="AA18" s="25">
+        <v>15963</v>
       </c>
       <c r="AB18" s="4"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
     </row>
     <row r="19" customHeight="1" spans="2:30">
       <c r="B19" s="1" t="s">
@@ -8515,14 +8602,14 @@
       <c r="F19" s="4">
         <v>457.56</v>
       </c>
-      <c r="G19" s="4">
-        <v>445.17</v>
+      <c r="G19" s="5">
+        <v>457.02</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4">
         <v>398</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="20">
         <v>398</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -8540,14 +8627,14 @@
       <c r="P19" s="4">
         <v>17083.72</v>
       </c>
-      <c r="Q19" s="4">
-        <v>16252.61</v>
+      <c r="Q19" s="23">
+        <v>16863.7</v>
       </c>
       <c r="R19" s="4"/>
-      <c r="S19" s="18">
+      <c r="S19" s="20">
         <v>13884</v>
       </c>
-      <c r="T19" s="18">
+      <c r="T19" s="20">
         <v>14120</v>
       </c>
       <c r="V19" s="1" t="s">
@@ -8565,39 +8652,39 @@
       <c r="Z19" s="4">
         <v>36087</v>
       </c>
-      <c r="AA19" s="4">
-        <v>36421</v>
+      <c r="AA19" s="25">
+        <v>35962</v>
       </c>
       <c r="AB19" s="4"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
     </row>
     <row r="20" customHeight="1" spans="2:30">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="6">
         <v>19</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="7">
         <v>744</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="7">
         <v>608</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="7">
         <v>581</v>
       </c>
-      <c r="G20" s="6">
-        <v>473</v>
-      </c>
-      <c r="H20" s="6">
+      <c r="G20" s="8">
+        <v>524</v>
+      </c>
+      <c r="H20" s="7">
         <v>492</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="7">
         <v>492</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="21">
         <v>492</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -8615,14 +8702,14 @@
       <c r="P20" s="4">
         <v>17083.72</v>
       </c>
-      <c r="Q20" s="4">
-        <v>16449.59</v>
+      <c r="Q20" s="23">
+        <v>17308.31</v>
       </c>
       <c r="R20" s="4"/>
-      <c r="S20" s="18">
+      <c r="S20" s="20">
         <v>15347</v>
       </c>
-      <c r="T20" s="18">
+      <c r="T20" s="20">
         <v>15347</v>
       </c>
       <c r="V20" s="1" t="s">
@@ -8640,10 +8727,10 @@
       <c r="Z20" s="4">
         <v>70536</v>
       </c>
-      <c r="AA20" s="4"/>
+      <c r="AA20" s="25"/>
       <c r="AB20" s="4"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="2:30">
       <c r="B21" s="1" t="s">
@@ -8661,14 +8748,14 @@
       <c r="F21" s="4">
         <v>1882.37</v>
       </c>
-      <c r="G21" s="4">
-        <v>1741.25</v>
+      <c r="G21" s="5">
+        <v>1984.59</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4">
         <v>1671</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="20">
         <v>1671</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -8686,68 +8773,68 @@
       <c r="P21" s="4">
         <v>9397.47</v>
       </c>
-      <c r="Q21" s="4">
-        <v>8308.61</v>
+      <c r="Q21" s="23">
+        <v>8723.47</v>
       </c>
       <c r="R21" s="4"/>
-      <c r="S21" s="18">
+      <c r="S21" s="20">
         <v>8412</v>
       </c>
-      <c r="T21" s="18">
+      <c r="T21" s="20">
         <v>8412</v>
       </c>
-      <c r="V21" s="21" t="s">
+      <c r="V21" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="W21" s="21">
+      <c r="W21" s="24">
         <v>52</v>
       </c>
-      <c r="X21" s="7">
+      <c r="X21" s="9">
         <v>543.95</v>
       </c>
-      <c r="Y21" s="7">
+      <c r="Y21" s="9">
         <v>437.11</v>
       </c>
-      <c r="Z21" s="7">
+      <c r="Z21" s="9">
         <v>524.62</v>
       </c>
-      <c r="AA21" s="7">
-        <v>543.95</v>
-      </c>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="18">
+      <c r="AA21" s="25">
+        <v>487.72</v>
+      </c>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="20">
         <v>437</v>
       </c>
-      <c r="AD21" s="18">
+      <c r="AD21" s="20">
         <v>446</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="2:30">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="6">
         <v>12</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="7">
         <v>661</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="7">
         <v>813</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="7">
         <v>661</v>
       </c>
-      <c r="G22" s="6">
-        <v>750</v>
-      </c>
-      <c r="H22" s="6">
+      <c r="G22" s="8">
+        <v>718</v>
+      </c>
+      <c r="H22" s="7">
         <v>810</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="7">
         <v>640</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="21">
         <v>640</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -8765,14 +8852,14 @@
       <c r="P22" s="4">
         <v>35374.47</v>
       </c>
-      <c r="Q22" s="4">
-        <v>31028.16</v>
+      <c r="Q22" s="23">
+        <v>33484.42</v>
       </c>
       <c r="R22" s="4"/>
-      <c r="S22" s="18">
+      <c r="S22" s="20">
         <v>27963</v>
       </c>
-      <c r="T22" s="18">
+      <c r="T22" s="20">
         <v>28051</v>
       </c>
       <c r="V22" s="1" t="s">
@@ -8790,43 +8877,43 @@
       <c r="Z22" s="4">
         <v>757</v>
       </c>
-      <c r="AA22" s="4">
-        <v>696</v>
+      <c r="AA22" s="25">
+        <v>877</v>
       </c>
       <c r="AB22" s="4"/>
-      <c r="AC22" s="18">
+      <c r="AC22" s="20">
         <v>281</v>
       </c>
-      <c r="AD22" s="18">
+      <c r="AD22" s="20">
         <v>281</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="2:30">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="6">
         <v>15</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="7">
         <v>1733</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="7">
         <v>1351</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="7">
         <v>1351</v>
       </c>
-      <c r="G23" s="6">
-        <v>1309</v>
-      </c>
-      <c r="H23" s="6">
+      <c r="G23" s="8">
+        <v>1294</v>
+      </c>
+      <c r="H23" s="7">
         <v>1377</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="7">
         <v>1276</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="21">
         <v>1276</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -8842,10 +8929,10 @@
         <v>45668.23</v>
       </c>
       <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="Q23" s="23"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
       <c r="V23" s="1" t="s">
         <v>75</v>
       </c>
@@ -8861,39 +8948,39 @@
       <c r="Z23" s="4">
         <v>87227.92</v>
       </c>
-      <c r="AA23" s="4">
-        <v>89500</v>
+      <c r="AA23" s="25">
+        <v>125268.4</v>
       </c>
       <c r="AB23" s="4"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="2:30">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="6">
         <v>18</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="7">
         <v>794</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="7">
         <v>802</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="7">
         <v>802</v>
       </c>
-      <c r="G24" s="6">
-        <v>788</v>
-      </c>
-      <c r="H24" s="6">
+      <c r="G24" s="8">
+        <v>881</v>
+      </c>
+      <c r="H24" s="7">
         <v>764</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="7">
         <v>763</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="21">
         <v>763</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -8911,12 +8998,12 @@
       <c r="P24" s="4">
         <v>2155</v>
       </c>
-      <c r="Q24" s="4">
-        <v>2233</v>
+      <c r="Q24" s="23">
+        <v>2668</v>
       </c>
       <c r="R24" s="4"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
       <c r="V24" s="1" t="s">
         <v>78</v>
       </c>
@@ -8932,48 +9019,48 @@
       <c r="Z24" s="4">
         <v>2915.74</v>
       </c>
-      <c r="AA24" s="4">
-        <v>2917.62</v>
+      <c r="AA24" s="25">
+        <v>3284.65</v>
       </c>
       <c r="AB24" s="4"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="9:30">
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="V25" s="5" t="s">
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="V25" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="W25" s="5">
+      <c r="W25" s="6">
         <v>12</v>
       </c>
-      <c r="X25" s="6">
+      <c r="X25" s="7">
         <v>2785.62</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="Y25" s="7">
         <v>3035.89</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="Z25" s="7">
         <v>3035.89</v>
       </c>
-      <c r="AA25" s="6">
-        <v>2777.32</v>
-      </c>
-      <c r="AB25" s="6">
+      <c r="AA25" s="26">
+        <v>2821.84</v>
+      </c>
+      <c r="AB25" s="7">
         <v>2980.94</v>
       </c>
-      <c r="AC25" s="19">
+      <c r="AC25" s="21">
         <v>2704</v>
       </c>
-      <c r="AD25" s="19">
+      <c r="AD25" s="21">
         <v>2704</v>
       </c>
     </row>
@@ -8983,114 +9070,114 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="V26" s="5" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="V26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="W26" s="5">
+      <c r="W26" s="6">
         <v>16</v>
       </c>
-      <c r="X26" s="6">
+      <c r="X26" s="7">
         <v>3118.04</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="Y26" s="7">
         <v>2959.96</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="Z26" s="7">
         <v>2959.96</v>
       </c>
-      <c r="AA26" s="6">
-        <v>2875.88</v>
-      </c>
-      <c r="AB26" s="6">
+      <c r="AA26" s="26">
+        <v>3010.28</v>
+      </c>
+      <c r="AB26" s="7">
         <v>2806.25</v>
       </c>
-      <c r="AC26" s="19">
+      <c r="AC26" s="21">
         <v>2618</v>
       </c>
-      <c r="AD26" s="19">
+      <c r="AD26" s="21">
         <v>2618</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="2:7">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="2:7">
-      <c r="B29" s="16"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>

--- a/Comparaçoes/Heurísticas.xlsx
+++ b/Comparaçoes/Heurísticas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12885" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="13725" windowHeight="12885" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="K = n|4" sheetId="1" r:id="rId1"/>
@@ -305,8 +305,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -331,29 +331,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -375,6 +360,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -388,14 +388,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,6 +415,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -432,9 +432,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -447,35 +469,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,12 +508,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.5"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -526,19 +520,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,25 +574,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,7 +610,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,67 +658,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,25 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,13 +856,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,15 +891,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,6 +921,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -944,46 +953,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -995,13 +989,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1010,104 +1007,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1165,22 +1159,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1217,12 +1208,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1541,8 +1526,8 @@
   <sheetPr/>
   <dimension ref="B1:AD1000"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25:AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -1706,23 +1691,23 @@
       <c r="C3" s="1">
         <v>70</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <v>632.3</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>746.64</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="30">
         <v>746.64</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="31">
         <v>862.87</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31">
+      <c r="H3" s="30"/>
+      <c r="I3" s="30">
         <v>606</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="38">
         <v>606</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -1731,23 +1716,23 @@
       <c r="M3" s="1">
         <v>12</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="30">
         <v>668</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="30">
         <v>558</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="30">
         <v>582</v>
       </c>
-      <c r="Q3" s="32">
+      <c r="Q3" s="31">
         <v>590</v>
       </c>
-      <c r="R3" s="31"/>
-      <c r="S3" s="39">
+      <c r="R3" s="30"/>
+      <c r="S3" s="38">
         <v>558</v>
       </c>
-      <c r="T3" s="39">
+      <c r="T3" s="38">
         <v>558</v>
       </c>
       <c r="V3" s="1" t="s">
@@ -1765,7 +1750,7 @@
       <c r="Z3" s="4">
         <v>25126.84</v>
       </c>
-      <c r="AA3" s="43">
+      <c r="AA3" s="5">
         <v>28078.94</v>
       </c>
       <c r="AB3" s="4"/>
@@ -1783,36 +1768,36 @@
       <c r="C4" s="1">
         <v>133</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="39"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="38"/>
       <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="1">
         <v>24</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="30">
         <v>11086.43</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="30">
         <v>9934.05</v>
       </c>
-      <c r="P4" s="31">
+      <c r="P4" s="30">
         <v>10253.47</v>
       </c>
-      <c r="Q4" s="32">
+      <c r="Q4" s="31">
         <v>9467.2</v>
       </c>
-      <c r="R4" s="31"/>
-      <c r="S4" s="39">
+      <c r="R4" s="30"/>
+      <c r="S4" s="38">
         <v>7704</v>
       </c>
-      <c r="T4" s="39">
+      <c r="T4" s="38">
         <v>7704</v>
       </c>
       <c r="V4" s="1" t="s">
@@ -1830,7 +1815,7 @@
       <c r="Z4" s="4">
         <v>7936.1</v>
       </c>
-      <c r="AA4" s="43">
+      <c r="AA4" s="5">
         <v>7504.68</v>
       </c>
       <c r="AB4" s="4"/>
@@ -1848,44 +1833,44 @@
       <c r="C5" s="6">
         <v>12</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="32">
         <v>1409</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>1409</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="32">
         <v>1409</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="33">
         <v>1193</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="32">
         <v>1239</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="40"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="39"/>
       <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="1">
         <v>30</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="30">
         <v>1411</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="30">
         <v>1422</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="30">
         <v>1356</v>
       </c>
-      <c r="Q5" s="32">
+      <c r="Q5" s="31">
         <v>1790</v>
       </c>
-      <c r="R5" s="31"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
       <c r="V5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1901,7 +1886,7 @@
       <c r="Z5" s="4">
         <v>14065.44</v>
       </c>
-      <c r="AA5" s="43">
+      <c r="AA5" s="5">
         <v>10773.88</v>
       </c>
       <c r="AB5" s="4"/>
@@ -1919,36 +1904,36 @@
       <c r="C6" s="1">
         <v>133</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <v>5712</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <v>4475</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <v>4698</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="31">
         <v>6959</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="39"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="38"/>
       <c r="L6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M6" s="1">
         <v>34</v>
       </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="39">
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="38">
         <v>14784</v>
       </c>
-      <c r="T6" s="39">
+      <c r="T6" s="38">
         <v>14784</v>
       </c>
       <c r="V6" s="1" t="s">
@@ -1966,7 +1951,7 @@
       <c r="Z6" s="4">
         <v>23232.62</v>
       </c>
-      <c r="AA6" s="43">
+      <c r="AA6" s="5">
         <v>24290.25</v>
       </c>
       <c r="AB6" s="4"/>
@@ -1984,25 +1969,25 @@
       <c r="C7" s="6">
         <v>7</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="32">
         <v>292</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>292</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="32">
         <v>292</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="33">
         <v>285</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="32">
         <v>246</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="32">
         <v>246</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="39">
         <v>246</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -2011,15 +1996,15 @@
       <c r="M7" s="1">
         <v>50</v>
       </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="39">
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="38">
         <v>6977</v>
       </c>
-      <c r="T7" s="39">
+      <c r="T7" s="38">
         <v>6977</v>
       </c>
       <c r="V7" s="1" t="s">
@@ -2037,7 +2022,7 @@
       <c r="Z7" s="4">
         <v>11559.29</v>
       </c>
-      <c r="AA7" s="43">
+      <c r="AA7" s="5">
         <v>12002.27</v>
       </c>
       <c r="AB7" s="4"/>
@@ -2055,25 +2040,25 @@
       <c r="C8" s="6">
         <v>7</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="32">
         <v>352</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>352</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <v>352</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="33">
         <v>378</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="34">
         <v>282</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="32">
         <v>282</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="39">
         <v>282</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -2082,15 +2067,15 @@
       <c r="M8" s="1">
         <v>57</v>
       </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="39">
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="38">
         <v>18471</v>
       </c>
-      <c r="T8" s="39">
+      <c r="T8" s="38">
         <v>18471</v>
       </c>
       <c r="V8" s="1" t="s">
@@ -2108,7 +2093,7 @@
       <c r="Z8" s="4">
         <v>17072</v>
       </c>
-      <c r="AA8" s="43">
+      <c r="AA8" s="5">
         <v>14653.02</v>
       </c>
       <c r="AB8" s="4"/>
@@ -2126,25 +2111,25 @@
       <c r="C9" s="6">
         <v>13</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="32">
         <v>604.66</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>604.66</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="32">
         <v>604.66</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="33">
         <v>575.87</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="32">
         <v>480.480334457013</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="32">
         <v>489</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="39">
         <v>489</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -2153,13 +2138,13 @@
       <c r="M9" s="1">
         <v>107</v>
       </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
       <c r="V9" s="1" t="s">
         <v>33</v>
       </c>
@@ -2175,7 +2160,7 @@
       <c r="Z9" s="4">
         <v>23494.84</v>
       </c>
-      <c r="AA9" s="43">
+      <c r="AA9" s="5">
         <v>24798.56</v>
       </c>
       <c r="AB9" s="4"/>
@@ -2193,23 +2178,23 @@
       <c r="C10" s="1">
         <v>31</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="30">
         <v>14342.78</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <v>11706.58</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="30">
         <v>13031.31</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="31">
         <v>14467.58</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31">
+      <c r="H10" s="30"/>
+      <c r="I10" s="30">
         <v>9840</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="38">
         <v>10132</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -2218,13 +2203,13 @@
       <c r="M10" s="1">
         <v>166</v>
       </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
       <c r="V10" s="1" t="s">
         <v>36</v>
       </c>
@@ -2240,7 +2225,7 @@
       <c r="Z10" s="4">
         <v>8100</v>
       </c>
-      <c r="AA10" s="43">
+      <c r="AA10" s="5">
         <v>8198.42</v>
       </c>
       <c r="AB10" s="4"/>
@@ -2254,44 +2239,44 @@
       <c r="C11" s="1">
         <v>14</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="30">
         <v>6116</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="30">
         <v>4607</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>4607</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="31">
         <v>4530</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="39"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="38"/>
       <c r="L11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M11" s="1">
         <v>12</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <v>3454</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="30">
         <v>3155</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="30">
         <v>3155</v>
       </c>
-      <c r="Q11" s="32">
+      <c r="Q11" s="31">
         <v>3467</v>
       </c>
-      <c r="R11" s="31"/>
-      <c r="S11" s="39">
+      <c r="R11" s="30"/>
+      <c r="S11" s="38">
         <v>2094</v>
       </c>
-      <c r="T11" s="39">
+      <c r="T11" s="38">
         <v>2094</v>
       </c>
       <c r="V11" s="1" t="s">
@@ -2309,7 +2294,7 @@
       <c r="Z11" s="4">
         <v>10604.72</v>
       </c>
-      <c r="AA11" s="43">
+      <c r="AA11" s="5">
         <v>12899.09</v>
       </c>
       <c r="AB11" s="4"/>
@@ -2323,42 +2308,42 @@
       <c r="C12" s="24">
         <v>45</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="35">
         <v>21120</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="35">
         <v>480</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="35">
         <v>820</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="39"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="38"/>
       <c r="L12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M12" s="1">
         <v>25</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="30">
         <v>5157.68</v>
       </c>
-      <c r="O12" s="31">
+      <c r="O12" s="30">
         <v>4872.02</v>
       </c>
-      <c r="P12" s="31">
+      <c r="P12" s="30">
         <v>4788.84</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="31">
         <v>5274.63</v>
       </c>
-      <c r="R12" s="31"/>
-      <c r="S12" s="39">
+      <c r="R12" s="30"/>
+      <c r="S12" s="38">
         <v>4369</v>
       </c>
-      <c r="T12" s="39">
+      <c r="T12" s="38">
         <v>4369</v>
       </c>
       <c r="V12" s="1" t="s">
@@ -2376,7 +2361,7 @@
       <c r="Z12" s="4">
         <v>22455.5</v>
       </c>
-      <c r="AA12" s="43">
+      <c r="AA12" s="5">
         <v>27145.63</v>
       </c>
       <c r="AB12" s="4"/>
@@ -2390,25 +2375,25 @@
       <c r="C13" s="6">
         <v>3</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="32">
         <v>249.88</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <v>249.88</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="32">
         <v>249.88</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="33">
         <v>308.18</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="32">
         <v>224.88</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="32">
         <v>151</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="39">
         <v>151</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -2417,23 +2402,23 @@
       <c r="M13" s="1">
         <v>37</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="30">
         <v>6644.96</v>
       </c>
-      <c r="O13" s="31">
+      <c r="O13" s="30">
         <v>7646.9</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="30">
         <v>7646.9</v>
       </c>
-      <c r="Q13" s="32">
+      <c r="Q13" s="31">
         <v>6724.8</v>
       </c>
-      <c r="R13" s="31"/>
-      <c r="S13" s="39">
+      <c r="R13" s="30"/>
+      <c r="S13" s="38">
         <v>5286</v>
       </c>
-      <c r="T13" s="39">
+      <c r="T13" s="38">
         <v>5286</v>
       </c>
       <c r="V13" s="1" t="s">
@@ -2451,7 +2436,7 @@
       <c r="Z13" s="4">
         <v>66904.56</v>
       </c>
-      <c r="AA13" s="43">
+      <c r="AA13" s="5">
         <v>83408.29</v>
       </c>
       <c r="AB13" s="4"/>
@@ -2465,23 +2450,23 @@
       <c r="C14" s="1">
         <v>32</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="30">
         <v>1211.59</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="30">
         <v>1230.99</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="30">
         <v>1230.99</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="31">
         <v>1380.72</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31">
+      <c r="H14" s="30"/>
+      <c r="I14" s="30">
         <v>1116</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="38">
         <v>1119</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -2490,23 +2475,23 @@
       <c r="M14" s="1">
         <v>50</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N14" s="30">
         <v>6870.92</v>
       </c>
-      <c r="O14" s="31">
+      <c r="O14" s="30">
         <v>6899.46</v>
       </c>
-      <c r="P14" s="31">
+      <c r="P14" s="30">
         <v>6927.27</v>
       </c>
-      <c r="Q14" s="32">
+      <c r="Q14" s="31">
         <v>9243.01</v>
       </c>
-      <c r="R14" s="31"/>
-      <c r="S14" s="39">
+      <c r="R14" s="30"/>
+      <c r="S14" s="38">
         <v>6138</v>
       </c>
-      <c r="T14" s="39">
+      <c r="T14" s="38">
         <v>6138</v>
       </c>
       <c r="V14" s="1" t="s">
@@ -2524,7 +2509,7 @@
       <c r="Z14" s="4">
         <v>292.55</v>
       </c>
-      <c r="AA14" s="43">
+      <c r="AA14" s="5">
         <v>366.6</v>
       </c>
       <c r="AB14" s="4"/>
@@ -2542,23 +2527,23 @@
       <c r="C15" s="1">
         <v>37</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="30">
         <v>1304.57</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="30">
         <v>1400.68</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="30">
         <v>1245.96</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="31">
         <v>1748.47</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31">
+      <c r="H15" s="30"/>
+      <c r="I15" s="30">
         <v>1204</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="38">
         <v>1204</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -2567,23 +2552,23 @@
       <c r="M15" s="1">
         <v>25</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="30">
         <v>5552.01</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O15" s="30">
         <v>4469.81</v>
       </c>
-      <c r="P15" s="31">
+      <c r="P15" s="30">
         <v>5429.03</v>
       </c>
-      <c r="Q15" s="32">
+      <c r="Q15" s="31">
         <v>6142.49</v>
       </c>
-      <c r="R15" s="31"/>
-      <c r="S15" s="39">
+      <c r="R15" s="30"/>
+      <c r="S15" s="38">
         <v>4014</v>
       </c>
-      <c r="T15" s="39">
+      <c r="T15" s="38">
         <v>4014</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -2601,7 +2586,7 @@
       <c r="Z15" s="4">
         <v>546.13</v>
       </c>
-      <c r="AA15" s="43">
+      <c r="AA15" s="5">
         <v>626.49</v>
       </c>
       <c r="AB15" s="4"/>
@@ -2619,25 +2604,25 @@
       <c r="C16" s="6">
         <v>10</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="32">
         <v>103</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="32">
         <v>103</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="36">
         <v>103</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="33">
         <v>130</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="37">
         <v>99</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="32">
         <v>99</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="39">
         <v>99</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -2646,23 +2631,23 @@
       <c r="M16" s="1">
         <v>37</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N16" s="30">
         <v>5199.62</v>
       </c>
-      <c r="O16" s="31">
+      <c r="O16" s="30">
         <v>5533.11</v>
       </c>
-      <c r="P16" s="31">
+      <c r="P16" s="30">
         <v>5533.11</v>
       </c>
-      <c r="Q16" s="32">
+      <c r="Q16" s="31">
         <v>5488.4</v>
       </c>
-      <c r="R16" s="31"/>
-      <c r="S16" s="39">
+      <c r="R16" s="30"/>
+      <c r="S16" s="38">
         <v>5119</v>
       </c>
-      <c r="T16" s="39">
+      <c r="T16" s="38">
         <v>5119</v>
       </c>
       <c r="V16" s="1" t="s">
@@ -2680,7 +2665,7 @@
       <c r="Z16" s="4">
         <v>1726.09</v>
       </c>
-      <c r="AA16" s="43">
+      <c r="AA16" s="5">
         <v>1838.06</v>
       </c>
       <c r="AB16" s="4"/>
@@ -2694,25 +2679,25 @@
       <c r="C17" s="6">
         <v>12</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="32">
         <v>77.04</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="32">
         <v>77.04</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="36">
         <v>77.04</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="33">
         <v>81.96</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="37">
         <v>76.72</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="32">
         <v>71</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="39">
         <v>71</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -2721,23 +2706,23 @@
       <c r="M17" s="1">
         <v>50</v>
       </c>
-      <c r="N17" s="31">
+      <c r="N17" s="30">
         <v>6907.12</v>
       </c>
-      <c r="O17" s="31">
+      <c r="O17" s="30">
         <v>8397.45</v>
       </c>
-      <c r="P17" s="31">
+      <c r="P17" s="30">
         <v>7306.16</v>
       </c>
-      <c r="Q17" s="32">
+      <c r="Q17" s="31">
         <v>6956.31</v>
       </c>
-      <c r="R17" s="31"/>
-      <c r="S17" s="39">
+      <c r="R17" s="30"/>
+      <c r="S17" s="38">
         <v>5890</v>
       </c>
-      <c r="T17" s="39">
+      <c r="T17" s="38">
         <v>5890</v>
       </c>
       <c r="V17" s="1" t="s">
@@ -2755,7 +2740,7 @@
       <c r="Z17" s="4">
         <v>2280.15</v>
       </c>
-      <c r="AA17" s="43">
+      <c r="AA17" s="5">
         <v>2464.03</v>
       </c>
       <c r="AB17" s="4"/>
@@ -2769,23 +2754,23 @@
       <c r="C18" s="1">
         <v>19</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="30">
         <v>97.38</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="30">
         <v>99.45</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="30">
         <v>99.45</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="31">
         <v>114.81</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31">
+      <c r="H18" s="30"/>
+      <c r="I18" s="30">
         <v>99</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="38">
         <v>99</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -2794,23 +2779,23 @@
       <c r="M18" s="1">
         <v>25</v>
       </c>
-      <c r="N18" s="31">
+      <c r="N18" s="30">
         <v>4346.52</v>
       </c>
-      <c r="O18" s="31">
+      <c r="O18" s="30">
         <v>6123.26</v>
       </c>
-      <c r="P18" s="31">
+      <c r="P18" s="30">
         <v>4346.52</v>
       </c>
-      <c r="Q18" s="32">
+      <c r="Q18" s="31">
         <v>5038.15</v>
       </c>
-      <c r="R18" s="31"/>
-      <c r="S18" s="39">
+      <c r="R18" s="30"/>
+      <c r="S18" s="38">
         <v>4293</v>
       </c>
-      <c r="T18" s="39">
+      <c r="T18" s="38">
         <v>4293</v>
       </c>
       <c r="V18" s="1" t="s">
@@ -2828,7 +2813,7 @@
       <c r="Z18" s="4">
         <v>5420</v>
       </c>
-      <c r="AA18" s="43">
+      <c r="AA18" s="5">
         <v>5214</v>
       </c>
       <c r="AB18" s="4"/>
@@ -2842,23 +2827,23 @@
       <c r="C19" s="1">
         <v>25</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="30">
         <v>150.96</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="30">
         <v>132.75</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="30">
         <v>139.62</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="31">
         <v>142.41</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31">
+      <c r="H19" s="30"/>
+      <c r="I19" s="30">
         <v>101</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="38">
         <v>101</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -2867,23 +2852,23 @@
       <c r="M19" s="1">
         <v>25</v>
       </c>
-      <c r="N19" s="31">
+      <c r="N19" s="30">
         <v>5246.28</v>
       </c>
-      <c r="O19" s="31">
+      <c r="O19" s="30">
         <v>5246.28</v>
       </c>
-      <c r="P19" s="31">
+      <c r="P19" s="30">
         <v>5246.28</v>
       </c>
-      <c r="Q19" s="32">
+      <c r="Q19" s="31">
         <v>5514.75</v>
       </c>
-      <c r="R19" s="31"/>
-      <c r="S19" s="39">
+      <c r="R19" s="30"/>
+      <c r="S19" s="38">
         <v>3991</v>
       </c>
-      <c r="T19" s="39">
+      <c r="T19" s="38">
         <v>3991</v>
       </c>
       <c r="V19" s="1" t="s">
@@ -2901,7 +2886,7 @@
       <c r="Z19" s="4">
         <v>12196</v>
       </c>
-      <c r="AA19" s="43">
+      <c r="AA19" s="5">
         <v>12061</v>
       </c>
       <c r="AB19" s="4"/>
@@ -2915,25 +2900,25 @@
       <c r="C20" s="6">
         <v>6</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="32">
         <v>147</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="32">
         <v>147</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="32">
         <v>147</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="33">
         <v>148</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="32">
         <v>145</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="32">
         <v>145</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="39">
         <v>145</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -2942,23 +2927,23 @@
       <c r="M20" s="1">
         <v>25</v>
       </c>
-      <c r="N20" s="31">
+      <c r="N20" s="30">
         <v>4123.35</v>
       </c>
-      <c r="O20" s="31">
+      <c r="O20" s="30">
         <v>3842.76</v>
       </c>
-      <c r="P20" s="31">
+      <c r="P20" s="30">
         <v>3955.74</v>
       </c>
-      <c r="Q20" s="32">
+      <c r="Q20" s="31">
         <v>4039.52</v>
       </c>
-      <c r="R20" s="31"/>
-      <c r="S20" s="39">
+      <c r="R20" s="30"/>
+      <c r="S20" s="38">
         <v>3663</v>
       </c>
-      <c r="T20" s="39">
+      <c r="T20" s="38">
         <v>3663</v>
       </c>
       <c r="V20" s="1" t="s">
@@ -2976,7 +2961,7 @@
       <c r="Z20" s="4">
         <v>22414</v>
       </c>
-      <c r="AA20" s="43">
+      <c r="AA20" s="5">
         <v>22462</v>
       </c>
       <c r="AB20" s="4"/>
@@ -2990,23 +2975,23 @@
       <c r="C21" s="1">
         <v>65</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="30">
         <v>562.04</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="30">
         <v>666.2</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="30">
         <v>666.2</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="31">
         <v>616.4</v>
       </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31">
+      <c r="H21" s="30"/>
+      <c r="I21" s="30">
         <v>509</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="38">
         <v>509</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -3015,23 +3000,23 @@
       <c r="M21" s="1">
         <v>26</v>
       </c>
-      <c r="N21" s="31">
+      <c r="N21" s="30">
         <v>2149.82</v>
       </c>
-      <c r="O21" s="31">
+      <c r="O21" s="30">
         <v>2067.87</v>
       </c>
-      <c r="P21" s="31">
+      <c r="P21" s="30">
         <v>2002.98</v>
       </c>
-      <c r="Q21" s="32">
+      <c r="Q21" s="31">
         <v>1978.97</v>
       </c>
-      <c r="R21" s="31"/>
-      <c r="S21" s="39">
+      <c r="R21" s="30"/>
+      <c r="S21" s="38">
         <v>2108</v>
       </c>
-      <c r="T21" s="39">
+      <c r="T21" s="38">
         <v>2108</v>
       </c>
       <c r="V21" s="24" t="s">
@@ -3049,7 +3034,7 @@
       <c r="Z21" s="9">
         <v>128.07</v>
       </c>
-      <c r="AA21" s="43">
+      <c r="AA21" s="5">
         <v>103.31</v>
       </c>
       <c r="AB21" s="9"/>
@@ -3067,25 +3052,25 @@
       <c r="C22" s="6">
         <v>4</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="32">
         <v>174</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="32">
         <v>154</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="32">
         <v>154</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="33">
         <v>154</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="32">
         <v>143</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="32">
         <v>143</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="39">
         <v>143</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -3094,23 +3079,23 @@
       <c r="M22" s="1">
         <v>79</v>
       </c>
-      <c r="N22" s="31">
+      <c r="N22" s="30">
         <v>9156.66</v>
       </c>
-      <c r="O22" s="31">
+      <c r="O22" s="30">
         <v>9230.75</v>
       </c>
-      <c r="P22" s="31">
+      <c r="P22" s="30">
         <v>9553.4</v>
       </c>
-      <c r="Q22" s="32">
+      <c r="Q22" s="31">
         <v>9113.74</v>
       </c>
-      <c r="R22" s="31"/>
-      <c r="S22" s="39">
+      <c r="R22" s="30"/>
+      <c r="S22" s="38">
         <v>8705</v>
       </c>
-      <c r="T22" s="39">
+      <c r="T22" s="38">
         <v>8705</v>
       </c>
       <c r="V22" s="1" t="s">
@@ -3128,7 +3113,7 @@
       <c r="Z22" s="4">
         <v>146</v>
       </c>
-      <c r="AA22" s="43">
+      <c r="AA22" s="5">
         <v>152</v>
       </c>
       <c r="AB22" s="4"/>
@@ -3146,25 +3131,25 @@
       <c r="C23" s="6">
         <v>5</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="32">
         <v>258</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="32">
         <v>248</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="32">
         <v>248</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="33">
         <v>202</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="32">
         <v>181</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="32">
         <v>178</v>
       </c>
-      <c r="J23" s="40">
+      <c r="J23" s="39">
         <v>178</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -3173,21 +3158,21 @@
       <c r="M23" s="1">
         <v>344</v>
       </c>
-      <c r="N23" s="31">
+      <c r="N23" s="30">
         <v>13388.78</v>
       </c>
-      <c r="O23" s="31">
+      <c r="O23" s="30">
         <v>13074.68</v>
       </c>
-      <c r="P23" s="31">
+      <c r="P23" s="30">
         <v>12948.7</v>
       </c>
-      <c r="Q23" s="32">
+      <c r="Q23" s="31">
         <v>16673.39</v>
       </c>
-      <c r="R23" s="31"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
       <c r="V23" s="1" t="s">
         <v>75</v>
       </c>
@@ -3203,7 +3188,7 @@
       <c r="Z23" s="4">
         <v>27500</v>
       </c>
-      <c r="AA23" s="43">
+      <c r="AA23" s="5">
         <v>37118.03</v>
       </c>
       <c r="AB23" s="4"/>
@@ -3217,25 +3202,25 @@
       <c r="C24" s="6">
         <v>6</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="32">
         <v>162</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="32">
         <v>162</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="32">
         <v>162</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="33">
         <v>162</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="32">
         <v>162</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="32">
         <v>231</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="39">
         <v>231</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -3244,21 +3229,21 @@
       <c r="M24" s="1">
         <v>140</v>
       </c>
-      <c r="N24" s="31">
+      <c r="N24" s="30">
         <v>728</v>
       </c>
-      <c r="O24" s="31">
+      <c r="O24" s="30">
         <v>566</v>
       </c>
-      <c r="P24" s="31">
+      <c r="P24" s="30">
         <v>642</v>
       </c>
-      <c r="Q24" s="32">
+      <c r="Q24" s="31">
         <v>943</v>
       </c>
-      <c r="R24" s="31"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
       <c r="V24" s="1" t="s">
         <v>78</v>
       </c>
@@ -3274,7 +3259,7 @@
       <c r="Z24" s="4">
         <v>1109.08</v>
       </c>
-      <c r="AA24" s="43">
+      <c r="AA24" s="5">
         <v>1070.78</v>
       </c>
       <c r="AB24" s="4"/>
@@ -3300,7 +3285,7 @@
       <c r="Z25" s="7">
         <v>751.06</v>
       </c>
-      <c r="AA25" s="44">
+      <c r="AA25" s="8">
         <v>751.06</v>
       </c>
       <c r="AB25" s="7">
@@ -3334,7 +3319,7 @@
       <c r="V26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="W26" s="41">
+      <c r="W26" s="40">
         <v>5</v>
       </c>
       <c r="X26" s="7">
@@ -3346,7 +3331,7 @@
       <c r="Z26" s="7">
         <v>456.58</v>
       </c>
-      <c r="AA26" s="44">
+      <c r="AA26" s="8">
         <v>784.47</v>
       </c>
       <c r="AB26" s="7">
@@ -3381,8 +3366,8 @@
       <c r="S27" s="22"/>
       <c r="T27" s="22"/>
       <c r="U27" s="22"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
       <c r="X27" s="22"/>
       <c r="Y27" s="22"/>
       <c r="Z27" s="22"/>
@@ -3397,7 +3382,7 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" customHeight="1" spans="2:2">
-      <c r="B29" s="29"/>
+      <c r="B29" s="28"/>
     </row>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
@@ -4416,7 +4401,7 @@
   <dimension ref="B1:AD1000"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+      <selection activeCell="AC25" sqref="AC25:AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -4588,7 +4573,7 @@
       <c r="F3" s="4">
         <v>1380.52</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="5">
         <v>1651.14</v>
       </c>
       <c r="H3" s="4"/>
@@ -4613,7 +4598,7 @@
       <c r="P3" s="4">
         <v>1691</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="Q3" s="5">
         <v>1693</v>
       </c>
       <c r="R3" s="4"/>
@@ -4638,7 +4623,7 @@
       <c r="Z3" s="4">
         <v>44191.56</v>
       </c>
-      <c r="AA3" s="27">
+      <c r="AA3" s="5">
         <v>60924.68</v>
       </c>
       <c r="AB3" s="4"/>
@@ -4659,7 +4644,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="27"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="20"/>
@@ -4678,7 +4663,7 @@
       <c r="P4" s="4">
         <v>27135.01</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="5">
         <v>23694.69</v>
       </c>
       <c r="R4" s="4"/>
@@ -4703,7 +4688,7 @@
       <c r="Z4" s="4">
         <v>17103.07</v>
       </c>
-      <c r="AA4" s="27">
+      <c r="AA4" s="5">
         <v>14993.75</v>
       </c>
       <c r="AB4" s="4"/>
@@ -4730,7 +4715,7 @@
       <c r="F5" s="7">
         <v>3710</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <v>4246</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -4753,7 +4738,7 @@
       <c r="P5" s="4">
         <v>3010</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="5">
         <v>3259</v>
       </c>
       <c r="R5" s="4"/>
@@ -4774,7 +4759,7 @@
       <c r="Z5" s="4">
         <v>22143.51</v>
       </c>
-      <c r="AA5" s="27">
+      <c r="AA5" s="5">
         <v>24769.39</v>
       </c>
       <c r="AB5" s="4"/>
@@ -4801,7 +4786,7 @@
       <c r="F6" s="4">
         <v>11972</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="5">
         <v>18235</v>
       </c>
       <c r="H6" s="4"/>
@@ -4816,7 +4801,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="27"/>
+      <c r="Q6" s="5"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4">
         <v>29108</v>
@@ -4839,7 +4824,7 @@
       <c r="Z6" s="4">
         <v>48383.81</v>
       </c>
-      <c r="AA6" s="27">
+      <c r="AA6" s="5">
         <v>58380.19</v>
       </c>
       <c r="AB6" s="4"/>
@@ -4866,7 +4851,7 @@
       <c r="F7" s="7">
         <v>581</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <v>765</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -4887,7 +4872,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="27"/>
+      <c r="Q7" s="5"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4">
         <v>13996</v>
@@ -4910,7 +4895,7 @@
       <c r="Z7" s="4">
         <v>26457.22</v>
       </c>
-      <c r="AA7" s="27">
+      <c r="AA7" s="5">
         <v>27761.39</v>
       </c>
       <c r="AB7" s="4"/>
@@ -4937,7 +4922,7 @@
       <c r="F8" s="7">
         <v>818</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>898</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -4958,7 +4943,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="27"/>
+      <c r="Q8" s="5"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4">
         <v>41661</v>
@@ -4981,7 +4966,7 @@
       <c r="Z8" s="4">
         <v>35705.47</v>
       </c>
-      <c r="AA8" s="27">
+      <c r="AA8" s="5">
         <v>34617.99</v>
       </c>
       <c r="AB8" s="4"/>
@@ -5008,7 +4993,7 @@
       <c r="F9" s="7">
         <v>1857.02</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <v>2376.74</v>
       </c>
       <c r="H9" s="7">
@@ -5029,7 +5014,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="27"/>
+      <c r="Q9" s="5"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="20"/>
@@ -5048,7 +5033,7 @@
       <c r="Z9" s="4">
         <v>53582.58</v>
       </c>
-      <c r="AA9" s="27">
+      <c r="AA9" s="5">
         <v>49797.93</v>
       </c>
       <c r="AB9" s="4"/>
@@ -5075,7 +5060,7 @@
       <c r="F10" s="4">
         <v>29172.34</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="5">
         <v>31348.82</v>
       </c>
       <c r="H10" s="4"/>
@@ -5094,7 +5079,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="27"/>
+      <c r="Q10" s="5"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="20"/>
@@ -5113,7 +5098,7 @@
       <c r="Z10" s="4">
         <v>21567.68</v>
       </c>
-      <c r="AA10" s="27">
+      <c r="AA10" s="5">
         <v>26716</v>
       </c>
       <c r="AB10" s="4"/>
@@ -5136,7 +5121,7 @@
       <c r="F11" s="4">
         <v>9828</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="5">
         <v>9543</v>
       </c>
       <c r="H11" s="4"/>
@@ -5157,7 +5142,7 @@
       <c r="P11" s="4">
         <v>6402</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="5">
         <v>7157</v>
       </c>
       <c r="R11" s="4"/>
@@ -5182,7 +5167,7 @@
       <c r="Z11" s="4">
         <v>25646.32</v>
       </c>
-      <c r="AA11" s="27">
+      <c r="AA11" s="5">
         <v>27785.23</v>
       </c>
       <c r="AB11" s="4"/>
@@ -5205,7 +5190,7 @@
       <c r="F12" s="4">
         <v>2020</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="20"/>
@@ -5224,7 +5209,7 @@
       <c r="P12" s="4">
         <v>10587.56</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="Q12" s="5">
         <v>11146.71</v>
       </c>
       <c r="R12" s="4"/>
@@ -5249,7 +5234,7 @@
       <c r="Z12" s="4">
         <v>43231</v>
       </c>
-      <c r="AA12" s="27">
+      <c r="AA12" s="5">
         <v>46147.14</v>
       </c>
       <c r="AB12" s="4"/>
@@ -5272,7 +5257,7 @@
       <c r="F13" s="7">
         <v>1339.12</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>967.86</v>
       </c>
       <c r="H13" s="7">
@@ -5299,7 +5284,7 @@
       <c r="P13" s="4">
         <v>14034.92</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="5">
         <v>16136.34</v>
       </c>
       <c r="R13" s="4"/>
@@ -5324,7 +5309,7 @@
       <c r="Z13" s="4">
         <v>130460.89</v>
       </c>
-      <c r="AA13" s="27">
+      <c r="AA13" s="5">
         <v>158015.99</v>
       </c>
       <c r="AB13" s="4"/>
@@ -5347,7 +5332,7 @@
       <c r="F14" s="4">
         <v>2588.71</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="5">
         <v>3160.02</v>
       </c>
       <c r="H14" s="4"/>
@@ -5372,7 +5357,7 @@
       <c r="P14" s="4">
         <v>15690.41</v>
       </c>
-      <c r="Q14" s="27">
+      <c r="Q14" s="5">
         <v>18307.67</v>
       </c>
       <c r="R14" s="4"/>
@@ -5397,7 +5382,7 @@
       <c r="Z14" s="4">
         <v>620.12</v>
       </c>
-      <c r="AA14" s="27">
+      <c r="AA14" s="5">
         <v>750.23</v>
       </c>
       <c r="AB14" s="4"/>
@@ -5424,7 +5409,7 @@
       <c r="F15" s="4">
         <v>3114.15</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="5">
         <v>3752.02</v>
       </c>
       <c r="H15" s="4"/>
@@ -5449,7 +5434,7 @@
       <c r="P15" s="4">
         <v>10957.73</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="Q15" s="5">
         <v>13330.73</v>
       </c>
       <c r="R15" s="4"/>
@@ -5474,7 +5459,7 @@
       <c r="Z15" s="4">
         <v>1158.97</v>
       </c>
-      <c r="AA15" s="27">
+      <c r="AA15" s="5">
         <v>1325.34</v>
       </c>
       <c r="AB15" s="4"/>
@@ -5501,7 +5486,7 @@
       <c r="F16" s="7">
         <v>251</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="27">
         <v>299</v>
       </c>
       <c r="H16" s="7">
@@ -5528,7 +5513,7 @@
       <c r="P16" s="4">
         <v>12003.25</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="Q16" s="5">
         <v>14206.26</v>
       </c>
       <c r="R16" s="4"/>
@@ -5553,7 +5538,7 @@
       <c r="Z16" s="4">
         <v>3636.54</v>
       </c>
-      <c r="AA16" s="27">
+      <c r="AA16" s="5">
         <v>3901.7</v>
       </c>
       <c r="AB16" s="4"/>
@@ -5576,7 +5561,7 @@
       <c r="F17" s="7">
         <v>190.34</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="27">
         <v>187.81</v>
       </c>
       <c r="H17" s="7" t="s">
@@ -5603,7 +5588,7 @@
       <c r="P17" s="4">
         <v>16124.85</v>
       </c>
-      <c r="Q17" s="27">
+      <c r="Q17" s="5">
         <v>17081.81</v>
       </c>
       <c r="R17" s="4"/>
@@ -5628,7 +5613,7 @@
       <c r="Z17" s="4">
         <v>4850.7</v>
       </c>
-      <c r="AA17" s="27">
+      <c r="AA17" s="5">
         <v>5235.28</v>
       </c>
       <c r="AB17" s="4"/>
@@ -5651,7 +5636,7 @@
       <c r="F18" s="4">
         <v>227.88</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="5">
         <v>251.65</v>
       </c>
       <c r="H18" s="4"/>
@@ -5676,7 +5661,7 @@
       <c r="P18" s="4">
         <v>10882.65</v>
       </c>
-      <c r="Q18" s="27">
+      <c r="Q18" s="5">
         <v>13417.16</v>
       </c>
       <c r="R18" s="4"/>
@@ -5701,7 +5686,7 @@
       <c r="Z18" s="4">
         <v>10390</v>
       </c>
-      <c r="AA18" s="27">
+      <c r="AA18" s="5">
         <v>10446</v>
       </c>
       <c r="AB18" s="4"/>
@@ -5724,7 +5709,7 @@
       <c r="F19" s="4">
         <v>314.33</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="5">
         <v>325.97</v>
       </c>
       <c r="H19" s="4"/>
@@ -5749,7 +5734,7 @@
       <c r="P19" s="4">
         <v>11235.04</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="Q19" s="5">
         <v>11267.48</v>
       </c>
       <c r="R19" s="4"/>
@@ -5774,7 +5759,7 @@
       <c r="Z19" s="4">
         <v>23598</v>
       </c>
-      <c r="AA19" s="27">
+      <c r="AA19" s="5">
         <v>23239</v>
       </c>
       <c r="AB19" s="4"/>
@@ -5797,7 +5782,7 @@
       <c r="F20" s="7">
         <v>391</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <v>361</v>
       </c>
       <c r="H20" s="7">
@@ -5824,7 +5809,7 @@
       <c r="P20" s="4">
         <v>9510.46</v>
       </c>
-      <c r="Q20" s="27">
+      <c r="Q20" s="5">
         <v>10378.57</v>
       </c>
       <c r="R20" s="4"/>
@@ -5849,7 +5834,7 @@
       <c r="Z20" s="4">
         <v>46911</v>
       </c>
-      <c r="AA20" s="27">
+      <c r="AA20" s="5">
         <v>46974</v>
       </c>
       <c r="AB20" s="4"/>
@@ -5872,7 +5857,7 @@
       <c r="F21" s="4">
         <v>1218.6</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="5">
         <v>1316.01</v>
       </c>
       <c r="H21" s="4"/>
@@ -5897,7 +5882,7 @@
       <c r="P21" s="4">
         <v>5879.98</v>
       </c>
-      <c r="Q21" s="27">
+      <c r="Q21" s="5">
         <v>5903.04</v>
       </c>
       <c r="R21" s="4"/>
@@ -5922,7 +5907,7 @@
       <c r="Z21" s="9">
         <v>292.76</v>
       </c>
-      <c r="AA21" s="30">
+      <c r="AA21" s="29">
         <v>282.85</v>
       </c>
       <c r="AB21" s="9"/>
@@ -5949,7 +5934,7 @@
       <c r="F22" s="7">
         <v>380</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="27">
         <v>426</v>
       </c>
       <c r="H22" s="7">
@@ -5976,7 +5961,7 @@
       <c r="P22" s="4">
         <v>21536.24</v>
       </c>
-      <c r="Q22" s="27">
+      <c r="Q22" s="5">
         <v>22300.3</v>
       </c>
       <c r="R22" s="4"/>
@@ -6001,7 +5986,7 @@
       <c r="Z22" s="4">
         <v>502</v>
       </c>
-      <c r="AA22" s="27">
+      <c r="AA22" s="5">
         <v>609</v>
       </c>
       <c r="AB22" s="4"/>
@@ -6028,7 +6013,7 @@
       <c r="F23" s="7">
         <v>732</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="27">
         <v>736</v>
       </c>
       <c r="H23" s="7">
@@ -6055,7 +6040,7 @@
       <c r="P23" s="4">
         <v>27884.83</v>
       </c>
-      <c r="Q23" s="27">
+      <c r="Q23" s="5">
         <v>34630.13</v>
       </c>
       <c r="R23" s="4"/>
@@ -6076,7 +6061,7 @@
       <c r="Z23" s="4">
         <v>73643.86</v>
       </c>
-      <c r="AA23" s="27">
+      <c r="AA23" s="5">
         <v>70289.87</v>
       </c>
       <c r="AB23" s="4"/>
@@ -6099,7 +6084,7 @@
       <c r="F24" s="7">
         <v>413</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <v>469</v>
       </c>
       <c r="H24" s="7">
@@ -6126,7 +6111,7 @@
       <c r="P24" s="4">
         <v>1342</v>
       </c>
-      <c r="Q24" s="27">
+      <c r="Q24" s="5">
         <v>1703</v>
       </c>
       <c r="R24" s="4"/>
@@ -6147,7 +6132,7 @@
       <c r="Z24" s="4">
         <v>2200.28</v>
       </c>
-      <c r="AA24" s="27">
+      <c r="AA24" s="5">
         <v>2221.25</v>
       </c>
       <c r="AB24" s="4"/>
@@ -6179,7 +6164,7 @@
       <c r="Z25" s="7">
         <v>1981.15</v>
       </c>
-      <c r="AA25" s="28">
+      <c r="AA25" s="27">
         <v>1511.75</v>
       </c>
       <c r="AB25" s="7">
@@ -6225,7 +6210,7 @@
       <c r="Z26" s="7">
         <v>2086.03</v>
       </c>
-      <c r="AA26" s="28">
+      <c r="AA26" s="27">
         <v>2613.9</v>
       </c>
       <c r="AB26" s="7">
@@ -6276,7 +6261,7 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B29" s="29"/>
+      <c r="B29" s="28"/>
     </row>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
@@ -7294,8 +7279,8 @@
   <sheetPr/>
   <dimension ref="B1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G24"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AC26" sqref="AC25:AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>

--- a/Comparaçoes/Heurísticas.xlsx
+++ b/Comparaçoes/Heurísticas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12885" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="13725" windowHeight="12885" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="K = n|4" sheetId="1" r:id="rId1"/>
@@ -305,10 +305,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -331,6 +331,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -340,21 +362,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,9 +375,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,18 +398,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,31 +437,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,8 +459,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,7 +520,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,73 +676,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,91 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,26 +856,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,6 +876,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,22 +913,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,151 +942,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1526,8 +1526,8 @@
   <sheetPr/>
   <dimension ref="B1:AD1000"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC25" sqref="AC25:AD26"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -7279,7 +7279,7 @@
   <sheetPr/>
   <dimension ref="B1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="AC26" sqref="AC25:AD26"/>
     </sheetView>
   </sheetViews>

--- a/Comparaçoes/Heurísticas.xlsx
+++ b/Comparaçoes/Heurísticas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12885" tabRatio="500"/>
+    <workbookView windowWidth="13725" windowHeight="12885" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="K = n|4" sheetId="1" r:id="rId1"/>
@@ -305,10 +305,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -324,16 +324,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -346,30 +352,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,9 +367,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,7 +392,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -410,6 +403,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,17 +431,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,15 +455,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,6 +520,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -532,91 +682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,79 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,8 +859,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,15 +891,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,17 +919,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,148 +956,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1526,7 +1526,7 @@
   <sheetPr/>
   <dimension ref="B1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
@@ -7279,8 +7279,8 @@
   <sheetPr/>
   <dimension ref="B1:AD1000"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC25:AD26"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
